--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/zucai_py/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D28908-4E98-0A4D-B8B2-061655A38FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ABDDB0-2DD5-BC41-B7B3-45CE29EA3FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="471">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8902,6 +8902,114 @@
   </si>
   <si>
     <t>米内罗美洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克里夫巴斯</t>
+  </si>
+  <si>
+    <t>基辅迪纳摩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=4,输=1,走=0,赢盘概率最大,为80.00%
+比分概率前三分别是：[0:0](2次)     [2:1](1次)     [1:0](1次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC米奈</t>
+  </si>
+  <si>
+    <t>沃斯卡拉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=2,输=11,走=0,输盘概率最大,为84.62%
+比分概率前三分别是：[0:1](3次)     [1:3](3次)     [0:2](2次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23埃及甲第27轮</t>
+  </si>
+  <si>
+    <t>艾德瀚德</t>
+  </si>
+  <si>
+    <t>金字塔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=1,输=7,走=0,输盘概率最大,为87.50%
+比分概率前三分别是：[1:2](4次)     [0:3](1次)     [0:2](1次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23乌超第25轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23英冠第46轮</t>
+  </si>
+  <si>
+    <t>哈德斯菲尔德</t>
+  </si>
+  <si>
+    <t>雷丁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=13,输=8,走=0,赢盘概率最大,为61.90%
+亚盘本联赛盘口:赢=3,输=1,走=0,赢盘概率最大,为75.00%
+比分概率前三分别是：[1:0](4次)     [2:1](3次)     [3:0](3次) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米德尔斯堡</t>
+  </si>
+  <si>
+    <t>考文垂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=2,输=7,走=0,输盘概率最大,为77.78%
+亚盘本联赛盘口:赢=1,输=4,走=0,输盘概率最大,为80.00%
+比分概率前三分别是：[1:1](5次)     [0:1](1次)     [3:2](1次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯旺西</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=22,输=11,走=0,赢盘概率最大,为66.67%
+亚盘本联赛盘口:赢=8,输=5,走=0,赢盘概率最大,为61.54%
+比分概率前三分别是：[0:0](6次)     [1:2](6次)     [1:0](5次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23乌超第25轮</t>
+  </si>
+  <si>
+    <t>卢甘斯克黎明</t>
+  </si>
+  <si>
+    <t>梅塔利斯特1925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=0,输=1,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[3:2](1次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23乌兹超第9轮</t>
+  </si>
+  <si>
+    <t>奥马利克</t>
+  </si>
+  <si>
+    <t>克孜勒库姆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=2,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[2:0](2次)    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9191,7 +9299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9401,9 +9509,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9732,10 +9837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
-  <dimension ref="A1:K399"/>
+  <dimension ref="A1:J390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="38" customHeight="1"/>
@@ -11195,7 +11300,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="38" customHeight="1">
+    <row r="49" spans="1:10" ht="38" customHeight="1">
       <c r="A49" s="11" t="s">
         <v>381</v>
       </c>
@@ -11225,7 +11330,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="38" customHeight="1">
+    <row r="50" spans="1:10" ht="38" customHeight="1">
       <c r="A50" s="17" t="s">
         <v>382</v>
       </c>
@@ -11254,9 +11359,8 @@
       <c r="J50" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="K50" s="70"/>
-    </row>
-    <row r="51" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="51" spans="1:10" ht="38" customHeight="1">
       <c r="A51" s="11" t="s">
         <v>383</v>
       </c>
@@ -11285,9 +11389,8 @@
       <c r="J51" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="K51" s="70"/>
-    </row>
-    <row r="52" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="52" spans="1:10" ht="38" customHeight="1">
       <c r="A52" s="17" t="s">
         <v>385</v>
       </c>
@@ -11316,9 +11419,8 @@
       <c r="J52" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="K52" s="70"/>
-    </row>
-    <row r="53" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="53" spans="1:10" ht="38" customHeight="1">
       <c r="A53" s="11" t="s">
         <v>387</v>
       </c>
@@ -11344,12 +11446,11 @@
         <v>361</v>
       </c>
       <c r="I53" s="11"/>
-      <c r="J53" s="71" t="s">
+      <c r="J53" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="K53" s="70"/>
-    </row>
-    <row r="54" spans="1:11" ht="76" customHeight="1">
+    </row>
+    <row r="54" spans="1:10" ht="76" customHeight="1">
       <c r="A54" s="21" t="s">
         <v>415</v>
       </c>
@@ -11371,16 +11472,15 @@
       <c r="G54" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H54" s="72" t="s">
+      <c r="H54" s="71" t="s">
         <v>402</v>
       </c>
       <c r="I54" s="21"/>
       <c r="J54" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="K54" s="70"/>
-    </row>
-    <row r="55" spans="1:11" ht="73" customHeight="1">
+    </row>
+    <row r="55" spans="1:10" ht="73" customHeight="1">
       <c r="A55" s="11" t="s">
         <v>417</v>
       </c>
@@ -11409,9 +11509,8 @@
       <c r="J55" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="K55" s="70"/>
-    </row>
-    <row r="56" spans="1:11" ht="72" customHeight="1">
+    </row>
+    <row r="56" spans="1:10" ht="72" customHeight="1">
       <c r="A56" s="17" t="s">
         <v>419</v>
       </c>
@@ -11440,9 +11539,8 @@
       <c r="J56" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="K56" s="70"/>
-    </row>
-    <row r="57" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="57" spans="1:10" ht="38" customHeight="1">
       <c r="A57" s="11" t="s">
         <v>420</v>
       </c>
@@ -11471,9 +11569,8 @@
       <c r="J57" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="K57" s="70"/>
-    </row>
-    <row r="58" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="58" spans="1:10" ht="38" customHeight="1">
       <c r="A58" s="11" t="s">
         <v>422</v>
       </c>
@@ -11502,9 +11599,8 @@
       <c r="J58" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="K58" s="70"/>
-    </row>
-    <row r="59" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="59" spans="1:10" ht="38" customHeight="1">
       <c r="A59" s="11" t="s">
         <v>424</v>
       </c>
@@ -11533,9 +11629,8 @@
       <c r="J59" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="K59" s="70"/>
-    </row>
-    <row r="60" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="60" spans="1:10" ht="38" customHeight="1">
       <c r="A60" s="63" t="s">
         <v>426</v>
       </c>
@@ -11564,9 +11659,8 @@
       <c r="J60" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="K60" s="70"/>
-    </row>
-    <row r="61" spans="1:11" ht="60" customHeight="1">
+    </row>
+    <row r="61" spans="1:10" ht="60" customHeight="1">
       <c r="A61" s="17" t="s">
         <v>428</v>
       </c>
@@ -11595,9 +11689,8 @@
       <c r="J61" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="K61" s="70"/>
-    </row>
-    <row r="62" spans="1:11" ht="66" customHeight="1">
+    </row>
+    <row r="62" spans="1:10" ht="66" customHeight="1">
       <c r="A62" s="17" t="s">
         <v>430</v>
       </c>
@@ -11626,9 +11719,8 @@
       <c r="J62" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="K62" s="70"/>
-    </row>
-    <row r="63" spans="1:11" ht="62" customHeight="1">
+    </row>
+    <row r="63" spans="1:10" ht="62" customHeight="1">
       <c r="A63" s="17" t="s">
         <v>432</v>
       </c>
@@ -11657,113 +11749,224 @@
       <c r="J63" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="K63" s="70"/>
-    </row>
-    <row r="64" spans="1:11" ht="38" customHeight="1">
-      <c r="A64" s="17"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="28"/>
+    </row>
+    <row r="64" spans="1:10" ht="38" customHeight="1">
+      <c r="A64" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="B64" s="14">
+        <v>45054.75</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H64" s="28" t="s">
+        <v>444</v>
+      </c>
       <c r="I64" s="17"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="70"/>
-    </row>
-    <row r="65" spans="1:11" ht="38" customHeight="1">
-      <c r="A65" s="17"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="28"/>
+      <c r="J64" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="38" customHeight="1">
+      <c r="A65" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="B65" s="14">
+        <v>45054.791666666664</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>448</v>
+      </c>
       <c r="I65" s="17"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="70"/>
-    </row>
-    <row r="66" spans="1:11" ht="38" customHeight="1">
-      <c r="A66" s="17"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="16"/>
+      <c r="J65" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="38" customHeight="1">
+      <c r="A66" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="B66" s="14">
+        <v>45054.875</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>287</v>
+      </c>
       <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="28"/>
+      <c r="G66" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66" s="28" t="s">
+        <v>452</v>
+      </c>
       <c r="I66" s="17"/>
       <c r="J66" s="16"/>
-      <c r="K66" s="70"/>
-    </row>
-    <row r="67" spans="1:11" ht="38" customHeight="1">
-      <c r="A67" s="17"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="16"/>
+    </row>
+    <row r="67" spans="1:10" ht="70" customHeight="1">
+      <c r="A67" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="B67" s="14">
+        <v>45054.916666666664</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>257</v>
+      </c>
       <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="28"/>
+      <c r="G67" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H67" s="28" t="s">
+        <v>457</v>
+      </c>
       <c r="I67" s="17"/>
       <c r="J67" s="16"/>
-      <c r="K67" s="70"/>
-    </row>
-    <row r="68" spans="1:11" ht="38" customHeight="1">
-      <c r="A68" s="17"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="16"/>
+    </row>
+    <row r="68" spans="1:10" ht="53" customHeight="1">
+      <c r="A68" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="B68" s="14">
+        <v>45054.916666666664</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>253</v>
+      </c>
       <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="28"/>
+      <c r="G68" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>460</v>
+      </c>
       <c r="I68" s="17"/>
       <c r="J68" s="16"/>
-      <c r="K68" s="70"/>
-    </row>
-    <row r="69" spans="1:11" ht="38" customHeight="1">
-      <c r="A69" s="17"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="16"/>
+    </row>
+    <row r="69" spans="1:10" ht="62" customHeight="1">
+      <c r="A69" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="B69" s="14">
+        <v>45054.916666666664</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>292</v>
+      </c>
       <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="28"/>
+      <c r="G69" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H69" s="28" t="s">
+        <v>462</v>
+      </c>
       <c r="I69" s="17"/>
       <c r="J69" s="16"/>
-      <c r="K69" s="70"/>
-    </row>
-    <row r="70" spans="1:11" ht="38" customHeight="1">
-      <c r="A70" s="17"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="16"/>
+    </row>
+    <row r="70" spans="1:10" ht="38" customHeight="1">
+      <c r="A70" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="B70" s="14">
+        <v>45054.916666666664</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="28"/>
+      <c r="G70" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H70" s="28" t="s">
+        <v>466</v>
+      </c>
       <c r="I70" s="17"/>
       <c r="J70" s="16"/>
-      <c r="K70" s="70"/>
-    </row>
-    <row r="71" spans="1:11" ht="38" customHeight="1">
-      <c r="A71" s="17"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="16"/>
+    </row>
+    <row r="71" spans="1:10" ht="38" customHeight="1">
+      <c r="A71" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="B71" s="14">
+        <v>45054.916666666664</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>98</v>
+      </c>
       <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="28"/>
+      <c r="G71" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H71" s="28" t="s">
+        <v>470</v>
+      </c>
       <c r="I71" s="17"/>
       <c r="J71" s="16"/>
-      <c r="K71" s="70"/>
-    </row>
-    <row r="72" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="72" spans="1:10" ht="38" customHeight="1">
       <c r="A72" s="17"/>
       <c r="B72" s="14"/>
       <c r="C72" s="17"/>
@@ -11774,9 +11977,8 @@
       <c r="H72" s="28"/>
       <c r="I72" s="17"/>
       <c r="J72" s="16"/>
-      <c r="K72" s="70"/>
-    </row>
-    <row r="73" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="73" spans="1:10" ht="38" customHeight="1">
       <c r="A73" s="17"/>
       <c r="B73" s="14"/>
       <c r="C73" s="17"/>
@@ -11787,9 +11989,8 @@
       <c r="H73" s="28"/>
       <c r="I73" s="17"/>
       <c r="J73" s="16"/>
-      <c r="K73" s="70"/>
-    </row>
-    <row r="74" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="74" spans="1:10" ht="38" customHeight="1">
       <c r="A74" s="17"/>
       <c r="B74" s="14"/>
       <c r="C74" s="17"/>
@@ -11800,9 +12001,8 @@
       <c r="H74" s="28"/>
       <c r="I74" s="17"/>
       <c r="J74" s="16"/>
-      <c r="K74" s="70"/>
-    </row>
-    <row r="75" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="75" spans="1:10" ht="38" customHeight="1">
       <c r="A75" s="17"/>
       <c r="B75" s="14"/>
       <c r="C75" s="17"/>
@@ -11813,9 +12013,8 @@
       <c r="H75" s="28"/>
       <c r="I75" s="17"/>
       <c r="J75" s="16"/>
-      <c r="K75" s="70"/>
-    </row>
-    <row r="76" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="76" spans="1:10" ht="38" customHeight="1">
       <c r="A76" s="17"/>
       <c r="B76" s="14"/>
       <c r="C76" s="17"/>
@@ -11826,9 +12025,8 @@
       <c r="H76" s="28"/>
       <c r="I76" s="17"/>
       <c r="J76" s="16"/>
-      <c r="K76" s="70"/>
-    </row>
-    <row r="77" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="77" spans="1:10" ht="38" customHeight="1">
       <c r="A77" s="17"/>
       <c r="B77" s="14"/>
       <c r="C77" s="17"/>
@@ -11839,9 +12037,8 @@
       <c r="H77" s="28"/>
       <c r="I77" s="17"/>
       <c r="J77" s="16"/>
-      <c r="K77" s="70"/>
-    </row>
-    <row r="78" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="78" spans="1:10" ht="38" customHeight="1">
       <c r="A78" s="17"/>
       <c r="B78" s="14"/>
       <c r="C78" s="17"/>
@@ -11852,9 +12049,8 @@
       <c r="H78" s="28"/>
       <c r="I78" s="17"/>
       <c r="J78" s="16"/>
-      <c r="K78" s="70"/>
-    </row>
-    <row r="79" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="79" spans="1:10" ht="38" customHeight="1">
       <c r="A79" s="17"/>
       <c r="B79" s="14"/>
       <c r="C79" s="17"/>
@@ -11865,9 +12061,8 @@
       <c r="H79" s="28"/>
       <c r="I79" s="17"/>
       <c r="J79" s="16"/>
-      <c r="K79" s="70"/>
-    </row>
-    <row r="80" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="80" spans="1:10" ht="38" customHeight="1">
       <c r="A80" s="17"/>
       <c r="B80" s="14"/>
       <c r="C80" s="17"/>
@@ -11878,9 +12073,8 @@
       <c r="H80" s="28"/>
       <c r="I80" s="17"/>
       <c r="J80" s="16"/>
-      <c r="K80" s="70"/>
-    </row>
-    <row r="81" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="81" spans="1:10" ht="38" customHeight="1">
       <c r="A81" s="17"/>
       <c r="B81" s="14"/>
       <c r="C81" s="17"/>
@@ -11891,9 +12085,8 @@
       <c r="H81" s="28"/>
       <c r="I81" s="17"/>
       <c r="J81" s="16"/>
-      <c r="K81" s="70"/>
-    </row>
-    <row r="82" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="82" spans="1:10" ht="38" customHeight="1">
       <c r="A82" s="17"/>
       <c r="B82" s="14"/>
       <c r="C82" s="17"/>
@@ -11904,9 +12097,8 @@
       <c r="H82" s="28"/>
       <c r="I82" s="17"/>
       <c r="J82" s="16"/>
-      <c r="K82" s="70"/>
-    </row>
-    <row r="83" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="83" spans="1:10" ht="38" customHeight="1">
       <c r="A83" s="17"/>
       <c r="B83" s="14"/>
       <c r="C83" s="17"/>
@@ -11917,9 +12109,8 @@
       <c r="H83" s="28"/>
       <c r="I83" s="17"/>
       <c r="J83" s="16"/>
-      <c r="K83" s="70"/>
-    </row>
-    <row r="84" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="84" spans="1:10" ht="38" customHeight="1">
       <c r="A84" s="17"/>
       <c r="B84" s="14"/>
       <c r="C84" s="17"/>
@@ -11930,9 +12121,8 @@
       <c r="H84" s="28"/>
       <c r="I84" s="17"/>
       <c r="J84" s="16"/>
-      <c r="K84" s="70"/>
-    </row>
-    <row r="85" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="85" spans="1:10" ht="38" customHeight="1">
       <c r="A85" s="17"/>
       <c r="B85" s="14"/>
       <c r="C85" s="17"/>
@@ -11943,9 +12133,8 @@
       <c r="H85" s="28"/>
       <c r="I85" s="17"/>
       <c r="J85" s="16"/>
-      <c r="K85" s="70"/>
-    </row>
-    <row r="86" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="86" spans="1:10" ht="38" customHeight="1">
       <c r="A86" s="17"/>
       <c r="B86" s="14"/>
       <c r="C86" s="17"/>
@@ -11956,9 +12145,8 @@
       <c r="H86" s="28"/>
       <c r="I86" s="17"/>
       <c r="J86" s="16"/>
-      <c r="K86" s="70"/>
-    </row>
-    <row r="87" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="87" spans="1:10" ht="38" customHeight="1">
       <c r="A87" s="17"/>
       <c r="B87" s="14"/>
       <c r="C87" s="17"/>
@@ -11969,9 +12157,8 @@
       <c r="H87" s="28"/>
       <c r="I87" s="17"/>
       <c r="J87" s="16"/>
-      <c r="K87" s="70"/>
-    </row>
-    <row r="88" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="88" spans="1:10" ht="38" customHeight="1">
       <c r="A88" s="17"/>
       <c r="B88" s="14"/>
       <c r="C88" s="17"/>
@@ -11982,9 +12169,8 @@
       <c r="H88" s="28"/>
       <c r="I88" s="17"/>
       <c r="J88" s="16"/>
-      <c r="K88" s="70"/>
-    </row>
-    <row r="89" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="89" spans="1:10" ht="38" customHeight="1">
       <c r="A89" s="17"/>
       <c r="B89" s="14"/>
       <c r="C89" s="17"/>
@@ -11995,9 +12181,8 @@
       <c r="H89" s="28"/>
       <c r="I89" s="17"/>
       <c r="J89" s="16"/>
-      <c r="K89" s="70"/>
-    </row>
-    <row r="90" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="90" spans="1:10" ht="38" customHeight="1">
       <c r="A90" s="17"/>
       <c r="B90" s="14"/>
       <c r="C90" s="17"/>
@@ -12008,9 +12193,8 @@
       <c r="H90" s="28"/>
       <c r="I90" s="17"/>
       <c r="J90" s="16"/>
-      <c r="K90" s="70"/>
-    </row>
-    <row r="91" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="91" spans="1:10" ht="38" customHeight="1">
       <c r="A91" s="17"/>
       <c r="B91" s="14"/>
       <c r="C91" s="17"/>
@@ -12021,9 +12205,8 @@
       <c r="H91" s="28"/>
       <c r="I91" s="17"/>
       <c r="J91" s="16"/>
-      <c r="K91" s="70"/>
-    </row>
-    <row r="92" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="92" spans="1:10" ht="38" customHeight="1">
       <c r="A92" s="17"/>
       <c r="B92" s="14"/>
       <c r="C92" s="17"/>
@@ -12034,9 +12217,8 @@
       <c r="H92" s="28"/>
       <c r="I92" s="17"/>
       <c r="J92" s="16"/>
-      <c r="K92" s="70"/>
-    </row>
-    <row r="93" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="93" spans="1:10" ht="38" customHeight="1">
       <c r="A93" s="17"/>
       <c r="B93" s="14"/>
       <c r="C93" s="17"/>
@@ -12047,9 +12229,8 @@
       <c r="H93" s="28"/>
       <c r="I93" s="17"/>
       <c r="J93" s="16"/>
-      <c r="K93" s="70"/>
-    </row>
-    <row r="94" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="94" spans="1:10" ht="38" customHeight="1">
       <c r="A94" s="17"/>
       <c r="B94" s="14"/>
       <c r="C94" s="17"/>
@@ -12060,9 +12241,8 @@
       <c r="H94" s="28"/>
       <c r="I94" s="17"/>
       <c r="J94" s="16"/>
-      <c r="K94" s="70"/>
-    </row>
-    <row r="95" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="95" spans="1:10" ht="38" customHeight="1">
       <c r="A95" s="17"/>
       <c r="B95" s="14"/>
       <c r="C95" s="17"/>
@@ -12073,9 +12253,8 @@
       <c r="H95" s="28"/>
       <c r="I95" s="17"/>
       <c r="J95" s="16"/>
-      <c r="K95" s="70"/>
-    </row>
-    <row r="96" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="96" spans="1:10" ht="38" customHeight="1">
       <c r="A96" s="17"/>
       <c r="B96" s="14"/>
       <c r="C96" s="17"/>
@@ -12086,9 +12265,8 @@
       <c r="H96" s="28"/>
       <c r="I96" s="17"/>
       <c r="J96" s="16"/>
-      <c r="K96" s="70"/>
-    </row>
-    <row r="97" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="97" spans="1:10" ht="38" customHeight="1">
       <c r="A97" s="17"/>
       <c r="B97" s="14"/>
       <c r="C97" s="17"/>
@@ -12099,9 +12277,8 @@
       <c r="H97" s="28"/>
       <c r="I97" s="17"/>
       <c r="J97" s="16"/>
-      <c r="K97" s="70"/>
-    </row>
-    <row r="98" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="98" spans="1:10" ht="38" customHeight="1">
       <c r="A98" s="17"/>
       <c r="B98" s="14"/>
       <c r="C98" s="17"/>
@@ -12112,9 +12289,8 @@
       <c r="H98" s="28"/>
       <c r="I98" s="17"/>
       <c r="J98" s="16"/>
-      <c r="K98" s="70"/>
-    </row>
-    <row r="99" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="99" spans="1:10" ht="38" customHeight="1">
       <c r="A99" s="17"/>
       <c r="B99" s="14"/>
       <c r="C99" s="17"/>
@@ -12125,9 +12301,8 @@
       <c r="H99" s="28"/>
       <c r="I99" s="17"/>
       <c r="J99" s="16"/>
-      <c r="K99" s="70"/>
-    </row>
-    <row r="100" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="100" spans="1:10" ht="38" customHeight="1">
       <c r="A100" s="17"/>
       <c r="B100" s="14"/>
       <c r="C100" s="17"/>
@@ -12138,9 +12313,8 @@
       <c r="H100" s="28"/>
       <c r="I100" s="17"/>
       <c r="J100" s="16"/>
-      <c r="K100" s="70"/>
-    </row>
-    <row r="101" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="101" spans="1:10" ht="38" customHeight="1">
       <c r="A101" s="17"/>
       <c r="B101" s="14"/>
       <c r="C101" s="17"/>
@@ -12151,9 +12325,8 @@
       <c r="H101" s="28"/>
       <c r="I101" s="17"/>
       <c r="J101" s="16"/>
-      <c r="K101" s="70"/>
-    </row>
-    <row r="102" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="102" spans="1:10" ht="38" customHeight="1">
       <c r="A102" s="17"/>
       <c r="B102" s="14"/>
       <c r="C102" s="17"/>
@@ -12164,9 +12337,8 @@
       <c r="H102" s="28"/>
       <c r="I102" s="17"/>
       <c r="J102" s="16"/>
-      <c r="K102" s="70"/>
-    </row>
-    <row r="103" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="103" spans="1:10" ht="38" customHeight="1">
       <c r="A103" s="17"/>
       <c r="B103" s="14"/>
       <c r="C103" s="17"/>
@@ -12177,9 +12349,8 @@
       <c r="H103" s="28"/>
       <c r="I103" s="17"/>
       <c r="J103" s="16"/>
-      <c r="K103" s="70"/>
-    </row>
-    <row r="104" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="104" spans="1:10" ht="38" customHeight="1">
       <c r="A104" s="17"/>
       <c r="B104" s="14"/>
       <c r="C104" s="17"/>
@@ -12190,9 +12361,8 @@
       <c r="H104" s="28"/>
       <c r="I104" s="17"/>
       <c r="J104" s="16"/>
-      <c r="K104" s="70"/>
-    </row>
-    <row r="105" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="105" spans="1:10" ht="38" customHeight="1">
       <c r="A105" s="17"/>
       <c r="B105" s="14"/>
       <c r="C105" s="17"/>
@@ -12203,9 +12373,8 @@
       <c r="H105" s="28"/>
       <c r="I105" s="17"/>
       <c r="J105" s="16"/>
-      <c r="K105" s="70"/>
-    </row>
-    <row r="106" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="106" spans="1:10" ht="38" customHeight="1">
       <c r="A106" s="17"/>
       <c r="B106" s="14"/>
       <c r="C106" s="17"/>
@@ -12216,9 +12385,8 @@
       <c r="H106" s="28"/>
       <c r="I106" s="17"/>
       <c r="J106" s="16"/>
-      <c r="K106" s="70"/>
-    </row>
-    <row r="107" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="107" spans="1:10" ht="38" customHeight="1">
       <c r="A107" s="17"/>
       <c r="B107" s="14"/>
       <c r="C107" s="17"/>
@@ -12229,9 +12397,8 @@
       <c r="H107" s="28"/>
       <c r="I107" s="17"/>
       <c r="J107" s="16"/>
-      <c r="K107" s="70"/>
-    </row>
-    <row r="108" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="108" spans="1:10" ht="38" customHeight="1">
       <c r="A108" s="17"/>
       <c r="B108" s="14"/>
       <c r="C108" s="17"/>
@@ -12242,9 +12409,8 @@
       <c r="H108" s="28"/>
       <c r="I108" s="17"/>
       <c r="J108" s="16"/>
-      <c r="K108" s="70"/>
-    </row>
-    <row r="109" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="109" spans="1:10" ht="38" customHeight="1">
       <c r="A109" s="17"/>
       <c r="B109" s="14"/>
       <c r="C109" s="17"/>
@@ -12255,9 +12421,8 @@
       <c r="H109" s="28"/>
       <c r="I109" s="17"/>
       <c r="J109" s="16"/>
-      <c r="K109" s="70"/>
-    </row>
-    <row r="110" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="110" spans="1:10" ht="38" customHeight="1">
       <c r="A110" s="17"/>
       <c r="B110" s="14"/>
       <c r="C110" s="17"/>
@@ -12268,9 +12433,8 @@
       <c r="H110" s="28"/>
       <c r="I110" s="17"/>
       <c r="J110" s="16"/>
-      <c r="K110" s="70"/>
-    </row>
-    <row r="111" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="111" spans="1:10" ht="38" customHeight="1">
       <c r="A111" s="17"/>
       <c r="B111" s="14"/>
       <c r="C111" s="17"/>
@@ -12281,9 +12445,8 @@
       <c r="H111" s="28"/>
       <c r="I111" s="17"/>
       <c r="J111" s="16"/>
-      <c r="K111" s="70"/>
-    </row>
-    <row r="112" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="112" spans="1:10" ht="38" customHeight="1">
       <c r="A112" s="17"/>
       <c r="B112" s="14"/>
       <c r="C112" s="17"/>
@@ -12294,9 +12457,8 @@
       <c r="H112" s="28"/>
       <c r="I112" s="17"/>
       <c r="J112" s="16"/>
-      <c r="K112" s="70"/>
-    </row>
-    <row r="113" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="113" spans="1:10" ht="38" customHeight="1">
       <c r="A113" s="17"/>
       <c r="B113" s="14"/>
       <c r="C113" s="17"/>
@@ -12307,9 +12469,8 @@
       <c r="H113" s="28"/>
       <c r="I113" s="17"/>
       <c r="J113" s="16"/>
-      <c r="K113" s="70"/>
-    </row>
-    <row r="114" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="114" spans="1:10" ht="38" customHeight="1">
       <c r="A114" s="17"/>
       <c r="B114" s="14"/>
       <c r="C114" s="17"/>
@@ -12320,9 +12481,8 @@
       <c r="H114" s="28"/>
       <c r="I114" s="17"/>
       <c r="J114" s="16"/>
-      <c r="K114" s="70"/>
-    </row>
-    <row r="115" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="115" spans="1:10" ht="38" customHeight="1">
       <c r="A115" s="17"/>
       <c r="B115" s="14"/>
       <c r="C115" s="17"/>
@@ -12333,9 +12493,8 @@
       <c r="H115" s="28"/>
       <c r="I115" s="17"/>
       <c r="J115" s="16"/>
-      <c r="K115" s="70"/>
-    </row>
-    <row r="116" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="116" spans="1:10" ht="38" customHeight="1">
       <c r="A116" s="17"/>
       <c r="B116" s="14"/>
       <c r="C116" s="17"/>
@@ -12346,9 +12505,8 @@
       <c r="H116" s="28"/>
       <c r="I116" s="17"/>
       <c r="J116" s="16"/>
-      <c r="K116" s="70"/>
-    </row>
-    <row r="117" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="117" spans="1:10" ht="38" customHeight="1">
       <c r="A117" s="17"/>
       <c r="B117" s="14"/>
       <c r="C117" s="17"/>
@@ -12359,9 +12517,8 @@
       <c r="H117" s="28"/>
       <c r="I117" s="17"/>
       <c r="J117" s="16"/>
-      <c r="K117" s="70"/>
-    </row>
-    <row r="118" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="118" spans="1:10" ht="38" customHeight="1">
       <c r="A118" s="17"/>
       <c r="B118" s="14"/>
       <c r="C118" s="17"/>
@@ -12372,9 +12529,8 @@
       <c r="H118" s="28"/>
       <c r="I118" s="17"/>
       <c r="J118" s="16"/>
-      <c r="K118" s="70"/>
-    </row>
-    <row r="119" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="119" spans="1:10" ht="38" customHeight="1">
       <c r="A119" s="17"/>
       <c r="B119" s="14"/>
       <c r="C119" s="17"/>
@@ -12385,9 +12541,8 @@
       <c r="H119" s="28"/>
       <c r="I119" s="17"/>
       <c r="J119" s="16"/>
-      <c r="K119" s="70"/>
-    </row>
-    <row r="120" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="120" spans="1:10" ht="38" customHeight="1">
       <c r="A120" s="17"/>
       <c r="B120" s="14"/>
       <c r="C120" s="17"/>
@@ -12398,9 +12553,8 @@
       <c r="H120" s="28"/>
       <c r="I120" s="17"/>
       <c r="J120" s="16"/>
-      <c r="K120" s="70"/>
-    </row>
-    <row r="121" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="121" spans="1:10" ht="38" customHeight="1">
       <c r="A121" s="17"/>
       <c r="B121" s="14"/>
       <c r="C121" s="17"/>
@@ -12411,9 +12565,8 @@
       <c r="H121" s="28"/>
       <c r="I121" s="17"/>
       <c r="J121" s="16"/>
-      <c r="K121" s="70"/>
-    </row>
-    <row r="122" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="122" spans="1:10" ht="38" customHeight="1">
       <c r="A122" s="17"/>
       <c r="B122" s="14"/>
       <c r="C122" s="17"/>
@@ -12424,9 +12577,8 @@
       <c r="H122" s="28"/>
       <c r="I122" s="17"/>
       <c r="J122" s="16"/>
-      <c r="K122" s="70"/>
-    </row>
-    <row r="123" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="123" spans="1:10" ht="38" customHeight="1">
       <c r="A123" s="17"/>
       <c r="B123" s="14"/>
       <c r="C123" s="17"/>
@@ -12437,9 +12589,8 @@
       <c r="H123" s="28"/>
       <c r="I123" s="17"/>
       <c r="J123" s="16"/>
-      <c r="K123" s="70"/>
-    </row>
-    <row r="124" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="124" spans="1:10" ht="38" customHeight="1">
       <c r="A124" s="17"/>
       <c r="B124" s="14"/>
       <c r="C124" s="17"/>
@@ -12450,9 +12601,8 @@
       <c r="H124" s="28"/>
       <c r="I124" s="17"/>
       <c r="J124" s="16"/>
-      <c r="K124" s="70"/>
-    </row>
-    <row r="125" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="125" spans="1:10" ht="38" customHeight="1">
       <c r="A125" s="17"/>
       <c r="B125" s="14"/>
       <c r="C125" s="17"/>
@@ -12463,9 +12613,8 @@
       <c r="H125" s="28"/>
       <c r="I125" s="17"/>
       <c r="J125" s="16"/>
-      <c r="K125" s="70"/>
-    </row>
-    <row r="126" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="126" spans="1:10" ht="38" customHeight="1">
       <c r="A126" s="17"/>
       <c r="B126" s="14"/>
       <c r="C126" s="17"/>
@@ -12476,9 +12625,8 @@
       <c r="H126" s="28"/>
       <c r="I126" s="17"/>
       <c r="J126" s="16"/>
-      <c r="K126" s="70"/>
-    </row>
-    <row r="127" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="127" spans="1:10" ht="38" customHeight="1">
       <c r="A127" s="17"/>
       <c r="B127" s="14"/>
       <c r="C127" s="17"/>
@@ -12489,9 +12637,8 @@
       <c r="H127" s="28"/>
       <c r="I127" s="17"/>
       <c r="J127" s="16"/>
-      <c r="K127" s="70"/>
-    </row>
-    <row r="128" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="128" spans="1:10" ht="38" customHeight="1">
       <c r="A128" s="17"/>
       <c r="B128" s="14"/>
       <c r="C128" s="17"/>
@@ -12502,9 +12649,8 @@
       <c r="H128" s="28"/>
       <c r="I128" s="17"/>
       <c r="J128" s="16"/>
-      <c r="K128" s="70"/>
-    </row>
-    <row r="129" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="129" spans="1:10" ht="38" customHeight="1">
       <c r="A129" s="17"/>
       <c r="B129" s="14"/>
       <c r="C129" s="17"/>
@@ -12515,9 +12661,8 @@
       <c r="H129" s="28"/>
       <c r="I129" s="17"/>
       <c r="J129" s="16"/>
-      <c r="K129" s="70"/>
-    </row>
-    <row r="130" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="130" spans="1:10" ht="38" customHeight="1">
       <c r="A130" s="17"/>
       <c r="B130" s="14"/>
       <c r="C130" s="17"/>
@@ -12528,9 +12673,8 @@
       <c r="H130" s="28"/>
       <c r="I130" s="17"/>
       <c r="J130" s="16"/>
-      <c r="K130" s="70"/>
-    </row>
-    <row r="131" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="131" spans="1:10" ht="38" customHeight="1">
       <c r="A131" s="17"/>
       <c r="B131" s="14"/>
       <c r="C131" s="17"/>
@@ -12541,9 +12685,8 @@
       <c r="H131" s="28"/>
       <c r="I131" s="17"/>
       <c r="J131" s="16"/>
-      <c r="K131" s="70"/>
-    </row>
-    <row r="132" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="132" spans="1:10" ht="38" customHeight="1">
       <c r="A132" s="17"/>
       <c r="B132" s="14"/>
       <c r="C132" s="17"/>
@@ -12554,9 +12697,8 @@
       <c r="H132" s="28"/>
       <c r="I132" s="17"/>
       <c r="J132" s="16"/>
-      <c r="K132" s="70"/>
-    </row>
-    <row r="133" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="133" spans="1:10" ht="38" customHeight="1">
       <c r="A133" s="17"/>
       <c r="B133" s="14"/>
       <c r="C133" s="17"/>
@@ -12567,9 +12709,8 @@
       <c r="H133" s="28"/>
       <c r="I133" s="17"/>
       <c r="J133" s="16"/>
-      <c r="K133" s="70"/>
-    </row>
-    <row r="134" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="134" spans="1:10" ht="38" customHeight="1">
       <c r="A134" s="17"/>
       <c r="B134" s="14"/>
       <c r="C134" s="17"/>
@@ -12580,9 +12721,8 @@
       <c r="H134" s="28"/>
       <c r="I134" s="17"/>
       <c r="J134" s="16"/>
-      <c r="K134" s="70"/>
-    </row>
-    <row r="135" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="135" spans="1:10" ht="38" customHeight="1">
       <c r="A135" s="17"/>
       <c r="B135" s="14"/>
       <c r="C135" s="17"/>
@@ -12593,9 +12733,8 @@
       <c r="H135" s="28"/>
       <c r="I135" s="17"/>
       <c r="J135" s="16"/>
-      <c r="K135" s="70"/>
-    </row>
-    <row r="136" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="136" spans="1:10" ht="38" customHeight="1">
       <c r="A136" s="17"/>
       <c r="B136" s="14"/>
       <c r="C136" s="17"/>
@@ -12606,9 +12745,8 @@
       <c r="H136" s="28"/>
       <c r="I136" s="17"/>
       <c r="J136" s="16"/>
-      <c r="K136" s="70"/>
-    </row>
-    <row r="137" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="137" spans="1:10" ht="38" customHeight="1">
       <c r="A137" s="17"/>
       <c r="B137" s="14"/>
       <c r="C137" s="17"/>
@@ -12619,9 +12757,8 @@
       <c r="H137" s="28"/>
       <c r="I137" s="17"/>
       <c r="J137" s="16"/>
-      <c r="K137" s="70"/>
-    </row>
-    <row r="138" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="138" spans="1:10" ht="38" customHeight="1">
       <c r="A138" s="17"/>
       <c r="B138" s="14"/>
       <c r="C138" s="17"/>
@@ -12632,9 +12769,8 @@
       <c r="H138" s="28"/>
       <c r="I138" s="17"/>
       <c r="J138" s="16"/>
-      <c r="K138" s="70"/>
-    </row>
-    <row r="139" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="139" spans="1:10" ht="38" customHeight="1">
       <c r="A139" s="17"/>
       <c r="B139" s="14"/>
       <c r="C139" s="17"/>
@@ -12645,9 +12781,8 @@
       <c r="H139" s="28"/>
       <c r="I139" s="17"/>
       <c r="J139" s="16"/>
-      <c r="K139" s="70"/>
-    </row>
-    <row r="140" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="140" spans="1:10" ht="38" customHeight="1">
       <c r="A140" s="17"/>
       <c r="B140" s="14"/>
       <c r="C140" s="17"/>
@@ -12658,9 +12793,8 @@
       <c r="H140" s="28"/>
       <c r="I140" s="17"/>
       <c r="J140" s="16"/>
-      <c r="K140" s="70"/>
-    </row>
-    <row r="141" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="141" spans="1:10" ht="38" customHeight="1">
       <c r="A141" s="17"/>
       <c r="B141" s="14"/>
       <c r="C141" s="17"/>
@@ -12671,9 +12805,8 @@
       <c r="H141" s="28"/>
       <c r="I141" s="17"/>
       <c r="J141" s="16"/>
-      <c r="K141" s="70"/>
-    </row>
-    <row r="142" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="142" spans="1:10" ht="38" customHeight="1">
       <c r="A142" s="17"/>
       <c r="B142" s="14"/>
       <c r="C142" s="17"/>
@@ -12684,9 +12817,8 @@
       <c r="H142" s="28"/>
       <c r="I142" s="17"/>
       <c r="J142" s="16"/>
-      <c r="K142" s="70"/>
-    </row>
-    <row r="143" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="143" spans="1:10" ht="38" customHeight="1">
       <c r="A143" s="17"/>
       <c r="B143" s="14"/>
       <c r="C143" s="17"/>
@@ -12697,9 +12829,8 @@
       <c r="H143" s="28"/>
       <c r="I143" s="17"/>
       <c r="J143" s="16"/>
-      <c r="K143" s="70"/>
-    </row>
-    <row r="144" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="144" spans="1:10" ht="38" customHeight="1">
       <c r="A144" s="17"/>
       <c r="B144" s="14"/>
       <c r="C144" s="17"/>
@@ -12710,9 +12841,8 @@
       <c r="H144" s="28"/>
       <c r="I144" s="17"/>
       <c r="J144" s="16"/>
-      <c r="K144" s="70"/>
-    </row>
-    <row r="145" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="145" spans="1:10" ht="38" customHeight="1">
       <c r="A145" s="17"/>
       <c r="B145" s="14"/>
       <c r="C145" s="17"/>
@@ -12723,9 +12853,8 @@
       <c r="H145" s="28"/>
       <c r="I145" s="17"/>
       <c r="J145" s="16"/>
-      <c r="K145" s="70"/>
-    </row>
-    <row r="146" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="146" spans="1:10" ht="38" customHeight="1">
       <c r="A146" s="17"/>
       <c r="B146" s="14"/>
       <c r="C146" s="17"/>
@@ -12736,9 +12865,8 @@
       <c r="H146" s="28"/>
       <c r="I146" s="17"/>
       <c r="J146" s="16"/>
-      <c r="K146" s="70"/>
-    </row>
-    <row r="147" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="147" spans="1:10" ht="38" customHeight="1">
       <c r="A147" s="17"/>
       <c r="B147" s="14"/>
       <c r="C147" s="17"/>
@@ -12749,9 +12877,8 @@
       <c r="H147" s="28"/>
       <c r="I147" s="17"/>
       <c r="J147" s="16"/>
-      <c r="K147" s="70"/>
-    </row>
-    <row r="148" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="148" spans="1:10" ht="38" customHeight="1">
       <c r="A148" s="17"/>
       <c r="B148" s="14"/>
       <c r="C148" s="17"/>
@@ -12762,9 +12889,8 @@
       <c r="H148" s="28"/>
       <c r="I148" s="17"/>
       <c r="J148" s="16"/>
-      <c r="K148" s="70"/>
-    </row>
-    <row r="149" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="149" spans="1:10" ht="38" customHeight="1">
       <c r="A149" s="17"/>
       <c r="B149" s="14"/>
       <c r="C149" s="17"/>
@@ -12775,9 +12901,8 @@
       <c r="H149" s="28"/>
       <c r="I149" s="17"/>
       <c r="J149" s="16"/>
-      <c r="K149" s="70"/>
-    </row>
-    <row r="150" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="150" spans="1:10" ht="38" customHeight="1">
       <c r="A150" s="17"/>
       <c r="B150" s="14"/>
       <c r="C150" s="17"/>
@@ -12788,9 +12913,8 @@
       <c r="H150" s="28"/>
       <c r="I150" s="17"/>
       <c r="J150" s="16"/>
-      <c r="K150" s="70"/>
-    </row>
-    <row r="151" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="151" spans="1:10" ht="38" customHeight="1">
       <c r="A151" s="17"/>
       <c r="B151" s="14"/>
       <c r="C151" s="17"/>
@@ -12801,9 +12925,8 @@
       <c r="H151" s="28"/>
       <c r="I151" s="17"/>
       <c r="J151" s="16"/>
-      <c r="K151" s="70"/>
-    </row>
-    <row r="152" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="152" spans="1:10" ht="38" customHeight="1">
       <c r="A152" s="17"/>
       <c r="B152" s="14"/>
       <c r="C152" s="17"/>
@@ -12814,9 +12937,8 @@
       <c r="H152" s="28"/>
       <c r="I152" s="17"/>
       <c r="J152" s="16"/>
-      <c r="K152" s="70"/>
-    </row>
-    <row r="153" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="153" spans="1:10" ht="38" customHeight="1">
       <c r="A153" s="17"/>
       <c r="B153" s="14"/>
       <c r="C153" s="17"/>
@@ -12827,9 +12949,8 @@
       <c r="H153" s="28"/>
       <c r="I153" s="17"/>
       <c r="J153" s="16"/>
-      <c r="K153" s="70"/>
-    </row>
-    <row r="154" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="154" spans="1:10" ht="38" customHeight="1">
       <c r="A154" s="17"/>
       <c r="B154" s="14"/>
       <c r="C154" s="17"/>
@@ -12840,9 +12961,8 @@
       <c r="H154" s="28"/>
       <c r="I154" s="17"/>
       <c r="J154" s="16"/>
-      <c r="K154" s="70"/>
-    </row>
-    <row r="155" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="155" spans="1:10" ht="38" customHeight="1">
       <c r="A155" s="17"/>
       <c r="B155" s="14"/>
       <c r="C155" s="17"/>
@@ -12853,9 +12973,8 @@
       <c r="H155" s="28"/>
       <c r="I155" s="17"/>
       <c r="J155" s="16"/>
-      <c r="K155" s="70"/>
-    </row>
-    <row r="156" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="156" spans="1:10" ht="38" customHeight="1">
       <c r="A156" s="17"/>
       <c r="B156" s="14"/>
       <c r="C156" s="17"/>
@@ -12866,9 +12985,8 @@
       <c r="H156" s="28"/>
       <c r="I156" s="17"/>
       <c r="J156" s="16"/>
-      <c r="K156" s="70"/>
-    </row>
-    <row r="157" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="157" spans="1:10" ht="38" customHeight="1">
       <c r="A157" s="17"/>
       <c r="B157" s="14"/>
       <c r="C157" s="17"/>
@@ -12879,9 +12997,8 @@
       <c r="H157" s="28"/>
       <c r="I157" s="17"/>
       <c r="J157" s="16"/>
-      <c r="K157" s="70"/>
-    </row>
-    <row r="158" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="158" spans="1:10" ht="38" customHeight="1">
       <c r="A158" s="17"/>
       <c r="B158" s="14"/>
       <c r="C158" s="17"/>
@@ -12892,9 +13009,8 @@
       <c r="H158" s="28"/>
       <c r="I158" s="17"/>
       <c r="J158" s="16"/>
-      <c r="K158" s="70"/>
-    </row>
-    <row r="159" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="159" spans="1:10" ht="38" customHeight="1">
       <c r="A159" s="17"/>
       <c r="B159" s="14"/>
       <c r="C159" s="17"/>
@@ -12905,9 +13021,8 @@
       <c r="H159" s="28"/>
       <c r="I159" s="17"/>
       <c r="J159" s="16"/>
-      <c r="K159" s="70"/>
-    </row>
-    <row r="160" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="160" spans="1:10" ht="38" customHeight="1">
       <c r="A160" s="17"/>
       <c r="B160" s="14"/>
       <c r="C160" s="17"/>
@@ -12918,9 +13033,8 @@
       <c r="H160" s="28"/>
       <c r="I160" s="17"/>
       <c r="J160" s="16"/>
-      <c r="K160" s="70"/>
-    </row>
-    <row r="161" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="161" spans="1:10" ht="38" customHeight="1">
       <c r="A161" s="17"/>
       <c r="B161" s="14"/>
       <c r="C161" s="17"/>
@@ -12931,9 +13045,8 @@
       <c r="H161" s="28"/>
       <c r="I161" s="17"/>
       <c r="J161" s="16"/>
-      <c r="K161" s="70"/>
-    </row>
-    <row r="162" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="162" spans="1:10" ht="38" customHeight="1">
       <c r="A162" s="17"/>
       <c r="B162" s="14"/>
       <c r="C162" s="17"/>
@@ -12944,9 +13057,8 @@
       <c r="H162" s="28"/>
       <c r="I162" s="17"/>
       <c r="J162" s="16"/>
-      <c r="K162" s="70"/>
-    </row>
-    <row r="163" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="163" spans="1:10" ht="38" customHeight="1">
       <c r="A163" s="17"/>
       <c r="B163" s="14"/>
       <c r="C163" s="17"/>
@@ -12957,9 +13069,8 @@
       <c r="H163" s="28"/>
       <c r="I163" s="17"/>
       <c r="J163" s="16"/>
-      <c r="K163" s="70"/>
-    </row>
-    <row r="164" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="164" spans="1:10" ht="38" customHeight="1">
       <c r="A164" s="17"/>
       <c r="B164" s="14"/>
       <c r="C164" s="17"/>
@@ -12970,9 +13081,8 @@
       <c r="H164" s="28"/>
       <c r="I164" s="17"/>
       <c r="J164" s="16"/>
-      <c r="K164" s="70"/>
-    </row>
-    <row r="165" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="165" spans="1:10" ht="38" customHeight="1">
       <c r="A165" s="17"/>
       <c r="B165" s="14"/>
       <c r="C165" s="17"/>
@@ -12983,9 +13093,8 @@
       <c r="H165" s="28"/>
       <c r="I165" s="17"/>
       <c r="J165" s="16"/>
-      <c r="K165" s="70"/>
-    </row>
-    <row r="166" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="166" spans="1:10" ht="38" customHeight="1">
       <c r="A166" s="17"/>
       <c r="B166" s="14"/>
       <c r="C166" s="17"/>
@@ -12996,9 +13105,8 @@
       <c r="H166" s="28"/>
       <c r="I166" s="17"/>
       <c r="J166" s="16"/>
-      <c r="K166" s="70"/>
-    </row>
-    <row r="167" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="167" spans="1:10" ht="38" customHeight="1">
       <c r="A167" s="17"/>
       <c r="B167" s="14"/>
       <c r="C167" s="17"/>
@@ -13009,9 +13117,8 @@
       <c r="H167" s="28"/>
       <c r="I167" s="17"/>
       <c r="J167" s="16"/>
-      <c r="K167" s="70"/>
-    </row>
-    <row r="168" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="168" spans="1:10" ht="38" customHeight="1">
       <c r="A168" s="17"/>
       <c r="B168" s="14"/>
       <c r="C168" s="17"/>
@@ -13022,9 +13129,8 @@
       <c r="H168" s="28"/>
       <c r="I168" s="17"/>
       <c r="J168" s="16"/>
-      <c r="K168" s="70"/>
-    </row>
-    <row r="169" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="169" spans="1:10" ht="38" customHeight="1">
       <c r="A169" s="17"/>
       <c r="B169" s="14"/>
       <c r="C169" s="17"/>
@@ -13035,9 +13141,8 @@
       <c r="H169" s="28"/>
       <c r="I169" s="17"/>
       <c r="J169" s="16"/>
-      <c r="K169" s="70"/>
-    </row>
-    <row r="170" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="170" spans="1:10" ht="38" customHeight="1">
       <c r="A170" s="17"/>
       <c r="B170" s="14"/>
       <c r="C170" s="17"/>
@@ -13048,9 +13153,8 @@
       <c r="H170" s="28"/>
       <c r="I170" s="17"/>
       <c r="J170" s="16"/>
-      <c r="K170" s="70"/>
-    </row>
-    <row r="171" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="171" spans="1:10" ht="38" customHeight="1">
       <c r="A171" s="17"/>
       <c r="B171" s="14"/>
       <c r="C171" s="17"/>
@@ -13061,9 +13165,8 @@
       <c r="H171" s="28"/>
       <c r="I171" s="17"/>
       <c r="J171" s="16"/>
-      <c r="K171" s="70"/>
-    </row>
-    <row r="172" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="172" spans="1:10" ht="38" customHeight="1">
       <c r="A172" s="17"/>
       <c r="B172" s="14"/>
       <c r="C172" s="17"/>
@@ -13074,9 +13177,8 @@
       <c r="H172" s="28"/>
       <c r="I172" s="17"/>
       <c r="J172" s="16"/>
-      <c r="K172" s="70"/>
-    </row>
-    <row r="173" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="173" spans="1:10" ht="38" customHeight="1">
       <c r="A173" s="17"/>
       <c r="B173" s="14"/>
       <c r="C173" s="17"/>
@@ -13087,9 +13189,8 @@
       <c r="H173" s="28"/>
       <c r="I173" s="17"/>
       <c r="J173" s="16"/>
-      <c r="K173" s="70"/>
-    </row>
-    <row r="174" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="174" spans="1:10" ht="38" customHeight="1">
       <c r="A174" s="17"/>
       <c r="B174" s="14"/>
       <c r="C174" s="17"/>
@@ -13100,9 +13201,8 @@
       <c r="H174" s="28"/>
       <c r="I174" s="17"/>
       <c r="J174" s="16"/>
-      <c r="K174" s="70"/>
-    </row>
-    <row r="175" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="175" spans="1:10" ht="38" customHeight="1">
       <c r="A175" s="17"/>
       <c r="B175" s="14"/>
       <c r="C175" s="17"/>
@@ -13113,9 +13213,8 @@
       <c r="H175" s="28"/>
       <c r="I175" s="17"/>
       <c r="J175" s="16"/>
-      <c r="K175" s="70"/>
-    </row>
-    <row r="176" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="176" spans="1:10" ht="38" customHeight="1">
       <c r="A176" s="17"/>
       <c r="B176" s="14"/>
       <c r="C176" s="17"/>
@@ -13126,9 +13225,8 @@
       <c r="H176" s="28"/>
       <c r="I176" s="17"/>
       <c r="J176" s="16"/>
-      <c r="K176" s="70"/>
-    </row>
-    <row r="177" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="177" spans="1:10" ht="38" customHeight="1">
       <c r="A177" s="17"/>
       <c r="B177" s="14"/>
       <c r="C177" s="17"/>
@@ -13139,9 +13237,8 @@
       <c r="H177" s="28"/>
       <c r="I177" s="17"/>
       <c r="J177" s="16"/>
-      <c r="K177" s="70"/>
-    </row>
-    <row r="178" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="178" spans="1:10" ht="38" customHeight="1">
       <c r="A178" s="17"/>
       <c r="B178" s="14"/>
       <c r="C178" s="17"/>
@@ -13152,9 +13249,8 @@
       <c r="H178" s="28"/>
       <c r="I178" s="17"/>
       <c r="J178" s="16"/>
-      <c r="K178" s="70"/>
-    </row>
-    <row r="179" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="179" spans="1:10" ht="38" customHeight="1">
       <c r="A179" s="17"/>
       <c r="B179" s="14"/>
       <c r="C179" s="17"/>
@@ -13165,9 +13261,8 @@
       <c r="H179" s="28"/>
       <c r="I179" s="17"/>
       <c r="J179" s="16"/>
-      <c r="K179" s="70"/>
-    </row>
-    <row r="180" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="180" spans="1:10" ht="38" customHeight="1">
       <c r="A180" s="17"/>
       <c r="B180" s="14"/>
       <c r="C180" s="17"/>
@@ -13178,9 +13273,8 @@
       <c r="H180" s="28"/>
       <c r="I180" s="17"/>
       <c r="J180" s="16"/>
-      <c r="K180" s="70"/>
-    </row>
-    <row r="181" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="181" spans="1:10" ht="38" customHeight="1">
       <c r="A181" s="17"/>
       <c r="B181" s="14"/>
       <c r="C181" s="17"/>
@@ -13191,9 +13285,8 @@
       <c r="H181" s="28"/>
       <c r="I181" s="17"/>
       <c r="J181" s="16"/>
-      <c r="K181" s="70"/>
-    </row>
-    <row r="182" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="182" spans="1:10" ht="38" customHeight="1">
       <c r="A182" s="17"/>
       <c r="B182" s="14"/>
       <c r="C182" s="17"/>
@@ -13204,9 +13297,8 @@
       <c r="H182" s="28"/>
       <c r="I182" s="17"/>
       <c r="J182" s="16"/>
-      <c r="K182" s="70"/>
-    </row>
-    <row r="183" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="183" spans="1:10" ht="38" customHeight="1">
       <c r="A183" s="17"/>
       <c r="B183" s="14"/>
       <c r="C183" s="17"/>
@@ -13217,9 +13309,8 @@
       <c r="H183" s="28"/>
       <c r="I183" s="17"/>
       <c r="J183" s="16"/>
-      <c r="K183" s="70"/>
-    </row>
-    <row r="184" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="184" spans="1:10" ht="38" customHeight="1">
       <c r="A184" s="17"/>
       <c r="B184" s="14"/>
       <c r="C184" s="17"/>
@@ -13230,9 +13321,8 @@
       <c r="H184" s="28"/>
       <c r="I184" s="17"/>
       <c r="J184" s="16"/>
-      <c r="K184" s="70"/>
-    </row>
-    <row r="185" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="185" spans="1:10" ht="38" customHeight="1">
       <c r="A185" s="17"/>
       <c r="B185" s="14"/>
       <c r="C185" s="17"/>
@@ -13243,9 +13333,8 @@
       <c r="H185" s="28"/>
       <c r="I185" s="17"/>
       <c r="J185" s="16"/>
-      <c r="K185" s="70"/>
-    </row>
-    <row r="186" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="186" spans="1:10" ht="38" customHeight="1">
       <c r="A186" s="17"/>
       <c r="B186" s="14"/>
       <c r="C186" s="17"/>
@@ -13256,9 +13345,8 @@
       <c r="H186" s="28"/>
       <c r="I186" s="17"/>
       <c r="J186" s="16"/>
-      <c r="K186" s="70"/>
-    </row>
-    <row r="187" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="187" spans="1:10" ht="38" customHeight="1">
       <c r="A187" s="17"/>
       <c r="B187" s="14"/>
       <c r="C187" s="17"/>
@@ -13269,9 +13357,8 @@
       <c r="H187" s="28"/>
       <c r="I187" s="17"/>
       <c r="J187" s="16"/>
-      <c r="K187" s="70"/>
-    </row>
-    <row r="188" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="188" spans="1:10" ht="38" customHeight="1">
       <c r="A188" s="17"/>
       <c r="B188" s="14"/>
       <c r="C188" s="17"/>
@@ -13282,9 +13369,8 @@
       <c r="H188" s="28"/>
       <c r="I188" s="17"/>
       <c r="J188" s="16"/>
-      <c r="K188" s="70"/>
-    </row>
-    <row r="189" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="189" spans="1:10" ht="38" customHeight="1">
       <c r="A189" s="17"/>
       <c r="B189" s="14"/>
       <c r="C189" s="17"/>
@@ -13295,9 +13381,8 @@
       <c r="H189" s="28"/>
       <c r="I189" s="17"/>
       <c r="J189" s="16"/>
-      <c r="K189" s="70"/>
-    </row>
-    <row r="190" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="190" spans="1:10" ht="38" customHeight="1">
       <c r="A190" s="17"/>
       <c r="B190" s="14"/>
       <c r="C190" s="17"/>
@@ -13308,9 +13393,8 @@
       <c r="H190" s="28"/>
       <c r="I190" s="17"/>
       <c r="J190" s="16"/>
-      <c r="K190" s="70"/>
-    </row>
-    <row r="191" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="191" spans="1:10" ht="38" customHeight="1">
       <c r="A191" s="17"/>
       <c r="B191" s="14"/>
       <c r="C191" s="17"/>
@@ -13321,9 +13405,8 @@
       <c r="H191" s="28"/>
       <c r="I191" s="17"/>
       <c r="J191" s="16"/>
-      <c r="K191" s="70"/>
-    </row>
-    <row r="192" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="192" spans="1:10" ht="38" customHeight="1">
       <c r="A192" s="17"/>
       <c r="B192" s="14"/>
       <c r="C192" s="17"/>
@@ -13334,9 +13417,8 @@
       <c r="H192" s="28"/>
       <c r="I192" s="17"/>
       <c r="J192" s="16"/>
-      <c r="K192" s="70"/>
-    </row>
-    <row r="193" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="193" spans="1:10" ht="38" customHeight="1">
       <c r="A193" s="17"/>
       <c r="B193" s="14"/>
       <c r="C193" s="17"/>
@@ -13347,9 +13429,8 @@
       <c r="H193" s="28"/>
       <c r="I193" s="17"/>
       <c r="J193" s="16"/>
-      <c r="K193" s="70"/>
-    </row>
-    <row r="194" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="194" spans="1:10" ht="38" customHeight="1">
       <c r="A194" s="17"/>
       <c r="B194" s="14"/>
       <c r="C194" s="17"/>
@@ -13360,9 +13441,8 @@
       <c r="H194" s="28"/>
       <c r="I194" s="17"/>
       <c r="J194" s="16"/>
-      <c r="K194" s="70"/>
-    </row>
-    <row r="195" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="195" spans="1:10" ht="38" customHeight="1">
       <c r="A195" s="17"/>
       <c r="B195" s="14"/>
       <c r="C195" s="17"/>
@@ -13373,9 +13453,8 @@
       <c r="H195" s="28"/>
       <c r="I195" s="17"/>
       <c r="J195" s="16"/>
-      <c r="K195" s="70"/>
-    </row>
-    <row r="196" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="196" spans="1:10" ht="38" customHeight="1">
       <c r="A196" s="17"/>
       <c r="B196" s="14"/>
       <c r="C196" s="17"/>
@@ -13386,9 +13465,8 @@
       <c r="H196" s="28"/>
       <c r="I196" s="17"/>
       <c r="J196" s="16"/>
-      <c r="K196" s="70"/>
-    </row>
-    <row r="197" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="197" spans="1:10" ht="38" customHeight="1">
       <c r="A197" s="17"/>
       <c r="B197" s="14"/>
       <c r="C197" s="17"/>
@@ -13399,9 +13477,8 @@
       <c r="H197" s="28"/>
       <c r="I197" s="17"/>
       <c r="J197" s="16"/>
-      <c r="K197" s="70"/>
-    </row>
-    <row r="198" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="198" spans="1:10" ht="38" customHeight="1">
       <c r="A198" s="17"/>
       <c r="B198" s="14"/>
       <c r="C198" s="17"/>
@@ -13412,9 +13489,8 @@
       <c r="H198" s="28"/>
       <c r="I198" s="17"/>
       <c r="J198" s="16"/>
-      <c r="K198" s="70"/>
-    </row>
-    <row r="199" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="199" spans="1:10" ht="38" customHeight="1">
       <c r="A199" s="17"/>
       <c r="B199" s="14"/>
       <c r="C199" s="17"/>
@@ -13425,9 +13501,8 @@
       <c r="H199" s="28"/>
       <c r="I199" s="17"/>
       <c r="J199" s="16"/>
-      <c r="K199" s="70"/>
-    </row>
-    <row r="200" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="200" spans="1:10" ht="38" customHeight="1">
       <c r="A200" s="17"/>
       <c r="B200" s="14"/>
       <c r="C200" s="17"/>
@@ -13438,9 +13513,8 @@
       <c r="H200" s="28"/>
       <c r="I200" s="17"/>
       <c r="J200" s="16"/>
-      <c r="K200" s="70"/>
-    </row>
-    <row r="201" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="201" spans="1:10" ht="38" customHeight="1">
       <c r="A201" s="17"/>
       <c r="B201" s="14"/>
       <c r="C201" s="17"/>
@@ -13451,9 +13525,8 @@
       <c r="H201" s="28"/>
       <c r="I201" s="17"/>
       <c r="J201" s="16"/>
-      <c r="K201" s="70"/>
-    </row>
-    <row r="202" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="202" spans="1:10" ht="38" customHeight="1">
       <c r="A202" s="17"/>
       <c r="B202" s="14"/>
       <c r="C202" s="17"/>
@@ -13464,9 +13537,8 @@
       <c r="H202" s="28"/>
       <c r="I202" s="17"/>
       <c r="J202" s="16"/>
-      <c r="K202" s="70"/>
-    </row>
-    <row r="203" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="203" spans="1:10" ht="38" customHeight="1">
       <c r="A203" s="17"/>
       <c r="B203" s="14"/>
       <c r="C203" s="17"/>
@@ -13477,9 +13549,8 @@
       <c r="H203" s="28"/>
       <c r="I203" s="17"/>
       <c r="J203" s="16"/>
-      <c r="K203" s="70"/>
-    </row>
-    <row r="204" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="204" spans="1:10" ht="38" customHeight="1">
       <c r="A204" s="17"/>
       <c r="B204" s="14"/>
       <c r="C204" s="17"/>
@@ -13490,9 +13561,8 @@
       <c r="H204" s="28"/>
       <c r="I204" s="17"/>
       <c r="J204" s="16"/>
-      <c r="K204" s="70"/>
-    </row>
-    <row r="205" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="205" spans="1:10" ht="38" customHeight="1">
       <c r="A205" s="17"/>
       <c r="B205" s="14"/>
       <c r="C205" s="17"/>
@@ -13503,9 +13573,8 @@
       <c r="H205" s="28"/>
       <c r="I205" s="17"/>
       <c r="J205" s="16"/>
-      <c r="K205" s="70"/>
-    </row>
-    <row r="206" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="206" spans="1:10" ht="38" customHeight="1">
       <c r="A206" s="17"/>
       <c r="B206" s="14"/>
       <c r="C206" s="17"/>
@@ -13516,9 +13585,8 @@
       <c r="H206" s="28"/>
       <c r="I206" s="17"/>
       <c r="J206" s="16"/>
-      <c r="K206" s="70"/>
-    </row>
-    <row r="207" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="207" spans="1:10" ht="38" customHeight="1">
       <c r="A207" s="17"/>
       <c r="B207" s="14"/>
       <c r="C207" s="17"/>
@@ -13529,9 +13597,8 @@
       <c r="H207" s="28"/>
       <c r="I207" s="17"/>
       <c r="J207" s="16"/>
-      <c r="K207" s="70"/>
-    </row>
-    <row r="208" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="208" spans="1:10" ht="38" customHeight="1">
       <c r="A208" s="17"/>
       <c r="B208" s="14"/>
       <c r="C208" s="17"/>
@@ -13542,9 +13609,8 @@
       <c r="H208" s="28"/>
       <c r="I208" s="17"/>
       <c r="J208" s="16"/>
-      <c r="K208" s="70"/>
-    </row>
-    <row r="209" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="209" spans="1:10" ht="38" customHeight="1">
       <c r="A209" s="17"/>
       <c r="B209" s="14"/>
       <c r="C209" s="17"/>
@@ -13555,9 +13621,8 @@
       <c r="H209" s="28"/>
       <c r="I209" s="17"/>
       <c r="J209" s="16"/>
-      <c r="K209" s="70"/>
-    </row>
-    <row r="210" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="210" spans="1:10" ht="38" customHeight="1">
       <c r="A210" s="17"/>
       <c r="B210" s="14"/>
       <c r="C210" s="17"/>
@@ -13568,9 +13633,8 @@
       <c r="H210" s="28"/>
       <c r="I210" s="17"/>
       <c r="J210" s="16"/>
-      <c r="K210" s="70"/>
-    </row>
-    <row r="211" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="211" spans="1:10" ht="38" customHeight="1">
       <c r="A211" s="17"/>
       <c r="B211" s="14"/>
       <c r="C211" s="17"/>
@@ -13581,9 +13645,8 @@
       <c r="H211" s="28"/>
       <c r="I211" s="17"/>
       <c r="J211" s="16"/>
-      <c r="K211" s="70"/>
-    </row>
-    <row r="212" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="212" spans="1:10" ht="38" customHeight="1">
       <c r="A212" s="17"/>
       <c r="B212" s="14"/>
       <c r="C212" s="17"/>
@@ -13594,9 +13657,8 @@
       <c r="H212" s="28"/>
       <c r="I212" s="17"/>
       <c r="J212" s="16"/>
-      <c r="K212" s="70"/>
-    </row>
-    <row r="213" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="213" spans="1:10" ht="38" customHeight="1">
       <c r="A213" s="17"/>
       <c r="B213" s="14"/>
       <c r="C213" s="17"/>
@@ -13607,9 +13669,8 @@
       <c r="H213" s="28"/>
       <c r="I213" s="17"/>
       <c r="J213" s="16"/>
-      <c r="K213" s="70"/>
-    </row>
-    <row r="214" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="214" spans="1:10" ht="38" customHeight="1">
       <c r="A214" s="17"/>
       <c r="B214" s="14"/>
       <c r="C214" s="17"/>
@@ -13620,9 +13681,8 @@
       <c r="H214" s="28"/>
       <c r="I214" s="17"/>
       <c r="J214" s="16"/>
-      <c r="K214" s="70"/>
-    </row>
-    <row r="215" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="215" spans="1:10" ht="38" customHeight="1">
       <c r="A215" s="17"/>
       <c r="B215" s="14"/>
       <c r="C215" s="17"/>
@@ -13633,9 +13693,8 @@
       <c r="H215" s="28"/>
       <c r="I215" s="17"/>
       <c r="J215" s="16"/>
-      <c r="K215" s="70"/>
-    </row>
-    <row r="216" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="216" spans="1:10" ht="38" customHeight="1">
       <c r="A216" s="17"/>
       <c r="B216" s="14"/>
       <c r="C216" s="17"/>
@@ -13646,9 +13705,8 @@
       <c r="H216" s="28"/>
       <c r="I216" s="17"/>
       <c r="J216" s="16"/>
-      <c r="K216" s="70"/>
-    </row>
-    <row r="217" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="217" spans="1:10" ht="38" customHeight="1">
       <c r="A217" s="17"/>
       <c r="B217" s="14"/>
       <c r="C217" s="17"/>
@@ -13659,9 +13717,8 @@
       <c r="H217" s="28"/>
       <c r="I217" s="17"/>
       <c r="J217" s="16"/>
-      <c r="K217" s="70"/>
-    </row>
-    <row r="218" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="218" spans="1:10" ht="38" customHeight="1">
       <c r="A218" s="17"/>
       <c r="B218" s="14"/>
       <c r="C218" s="17"/>
@@ -13672,9 +13729,8 @@
       <c r="H218" s="28"/>
       <c r="I218" s="17"/>
       <c r="J218" s="16"/>
-      <c r="K218" s="70"/>
-    </row>
-    <row r="219" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="219" spans="1:10" ht="38" customHeight="1">
       <c r="A219" s="17"/>
       <c r="B219" s="14"/>
       <c r="C219" s="17"/>
@@ -13685,9 +13741,8 @@
       <c r="H219" s="28"/>
       <c r="I219" s="17"/>
       <c r="J219" s="16"/>
-      <c r="K219" s="70"/>
-    </row>
-    <row r="220" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="220" spans="1:10" ht="38" customHeight="1">
       <c r="A220" s="17"/>
       <c r="B220" s="14"/>
       <c r="C220" s="17"/>
@@ -13698,9 +13753,8 @@
       <c r="H220" s="28"/>
       <c r="I220" s="17"/>
       <c r="J220" s="16"/>
-      <c r="K220" s="70"/>
-    </row>
-    <row r="221" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="221" spans="1:10" ht="38" customHeight="1">
       <c r="A221" s="17"/>
       <c r="B221" s="14"/>
       <c r="C221" s="17"/>
@@ -13711,9 +13765,8 @@
       <c r="H221" s="28"/>
       <c r="I221" s="17"/>
       <c r="J221" s="16"/>
-      <c r="K221" s="70"/>
-    </row>
-    <row r="222" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="222" spans="1:10" ht="38" customHeight="1">
       <c r="A222" s="17"/>
       <c r="B222" s="14"/>
       <c r="C222" s="17"/>
@@ -13724,9 +13777,8 @@
       <c r="H222" s="28"/>
       <c r="I222" s="17"/>
       <c r="J222" s="16"/>
-      <c r="K222" s="70"/>
-    </row>
-    <row r="223" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="223" spans="1:10" ht="38" customHeight="1">
       <c r="A223" s="17"/>
       <c r="B223" s="14"/>
       <c r="C223" s="17"/>
@@ -13737,9 +13789,8 @@
       <c r="H223" s="28"/>
       <c r="I223" s="17"/>
       <c r="J223" s="16"/>
-      <c r="K223" s="70"/>
-    </row>
-    <row r="224" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="224" spans="1:10" ht="38" customHeight="1">
       <c r="A224" s="17"/>
       <c r="B224" s="14"/>
       <c r="C224" s="17"/>
@@ -13750,9 +13801,8 @@
       <c r="H224" s="28"/>
       <c r="I224" s="17"/>
       <c r="J224" s="16"/>
-      <c r="K224" s="70"/>
-    </row>
-    <row r="225" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="225" spans="1:10" ht="38" customHeight="1">
       <c r="A225" s="17"/>
       <c r="B225" s="14"/>
       <c r="C225" s="17"/>
@@ -13763,9 +13813,8 @@
       <c r="H225" s="28"/>
       <c r="I225" s="17"/>
       <c r="J225" s="16"/>
-      <c r="K225" s="70"/>
-    </row>
-    <row r="226" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="226" spans="1:10" ht="38" customHeight="1">
       <c r="A226" s="17"/>
       <c r="B226" s="14"/>
       <c r="C226" s="17"/>
@@ -13776,9 +13825,8 @@
       <c r="H226" s="28"/>
       <c r="I226" s="17"/>
       <c r="J226" s="16"/>
-      <c r="K226" s="70"/>
-    </row>
-    <row r="227" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="227" spans="1:10" ht="38" customHeight="1">
       <c r="A227" s="17"/>
       <c r="B227" s="14"/>
       <c r="C227" s="17"/>
@@ -13789,9 +13837,8 @@
       <c r="H227" s="28"/>
       <c r="I227" s="17"/>
       <c r="J227" s="16"/>
-      <c r="K227" s="70"/>
-    </row>
-    <row r="228" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="228" spans="1:10" ht="38" customHeight="1">
       <c r="A228" s="17"/>
       <c r="B228" s="14"/>
       <c r="C228" s="17"/>
@@ -13802,9 +13849,8 @@
       <c r="H228" s="28"/>
       <c r="I228" s="17"/>
       <c r="J228" s="16"/>
-      <c r="K228" s="70"/>
-    </row>
-    <row r="229" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="229" spans="1:10" ht="38" customHeight="1">
       <c r="A229" s="17"/>
       <c r="B229" s="14"/>
       <c r="C229" s="17"/>
@@ -13815,9 +13861,8 @@
       <c r="H229" s="28"/>
       <c r="I229" s="17"/>
       <c r="J229" s="16"/>
-      <c r="K229" s="70"/>
-    </row>
-    <row r="230" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="230" spans="1:10" ht="38" customHeight="1">
       <c r="A230" s="17"/>
       <c r="B230" s="14"/>
       <c r="C230" s="17"/>
@@ -13828,9 +13873,8 @@
       <c r="H230" s="28"/>
       <c r="I230" s="17"/>
       <c r="J230" s="16"/>
-      <c r="K230" s="70"/>
-    </row>
-    <row r="231" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="231" spans="1:10" ht="38" customHeight="1">
       <c r="A231" s="17"/>
       <c r="B231" s="14"/>
       <c r="C231" s="17"/>
@@ -13841,9 +13885,8 @@
       <c r="H231" s="28"/>
       <c r="I231" s="17"/>
       <c r="J231" s="16"/>
-      <c r="K231" s="70"/>
-    </row>
-    <row r="232" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="232" spans="1:10" ht="38" customHeight="1">
       <c r="A232" s="17"/>
       <c r="B232" s="14"/>
       <c r="C232" s="17"/>
@@ -13854,9 +13897,8 @@
       <c r="H232" s="28"/>
       <c r="I232" s="17"/>
       <c r="J232" s="16"/>
-      <c r="K232" s="70"/>
-    </row>
-    <row r="233" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="233" spans="1:10" ht="38" customHeight="1">
       <c r="A233" s="17"/>
       <c r="B233" s="14"/>
       <c r="C233" s="17"/>
@@ -13867,9 +13909,8 @@
       <c r="H233" s="28"/>
       <c r="I233" s="17"/>
       <c r="J233" s="16"/>
-      <c r="K233" s="70"/>
-    </row>
-    <row r="234" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="234" spans="1:10" ht="38" customHeight="1">
       <c r="A234" s="17"/>
       <c r="B234" s="14"/>
       <c r="C234" s="17"/>
@@ -13880,9 +13921,8 @@
       <c r="H234" s="28"/>
       <c r="I234" s="17"/>
       <c r="J234" s="16"/>
-      <c r="K234" s="70"/>
-    </row>
-    <row r="235" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="235" spans="1:10" ht="38" customHeight="1">
       <c r="A235" s="17"/>
       <c r="B235" s="14"/>
       <c r="C235" s="17"/>
@@ -13893,9 +13933,8 @@
       <c r="H235" s="28"/>
       <c r="I235" s="17"/>
       <c r="J235" s="16"/>
-      <c r="K235" s="70"/>
-    </row>
-    <row r="236" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="236" spans="1:10" ht="38" customHeight="1">
       <c r="A236" s="17"/>
       <c r="B236" s="14"/>
       <c r="C236" s="17"/>
@@ -13906,9 +13945,8 @@
       <c r="H236" s="28"/>
       <c r="I236" s="17"/>
       <c r="J236" s="16"/>
-      <c r="K236" s="70"/>
-    </row>
-    <row r="237" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="237" spans="1:10" ht="38" customHeight="1">
       <c r="A237" s="17"/>
       <c r="B237" s="14"/>
       <c r="C237" s="17"/>
@@ -13919,9 +13957,8 @@
       <c r="H237" s="28"/>
       <c r="I237" s="17"/>
       <c r="J237" s="16"/>
-      <c r="K237" s="70"/>
-    </row>
-    <row r="238" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="238" spans="1:10" ht="38" customHeight="1">
       <c r="A238" s="17"/>
       <c r="B238" s="14"/>
       <c r="C238" s="17"/>
@@ -13932,9 +13969,8 @@
       <c r="H238" s="28"/>
       <c r="I238" s="17"/>
       <c r="J238" s="16"/>
-      <c r="K238" s="70"/>
-    </row>
-    <row r="239" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="239" spans="1:10" ht="38" customHeight="1">
       <c r="A239" s="17"/>
       <c r="B239" s="14"/>
       <c r="C239" s="17"/>
@@ -13945,9 +13981,8 @@
       <c r="H239" s="28"/>
       <c r="I239" s="17"/>
       <c r="J239" s="16"/>
-      <c r="K239" s="70"/>
-    </row>
-    <row r="240" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="240" spans="1:10" ht="38" customHeight="1">
       <c r="A240" s="17"/>
       <c r="B240" s="14"/>
       <c r="C240" s="17"/>
@@ -13958,9 +13993,8 @@
       <c r="H240" s="28"/>
       <c r="I240" s="17"/>
       <c r="J240" s="16"/>
-      <c r="K240" s="70"/>
-    </row>
-    <row r="241" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="241" spans="1:10" ht="38" customHeight="1">
       <c r="A241" s="17"/>
       <c r="B241" s="14"/>
       <c r="C241" s="17"/>
@@ -13971,9 +14005,8 @@
       <c r="H241" s="28"/>
       <c r="I241" s="17"/>
       <c r="J241" s="16"/>
-      <c r="K241" s="70"/>
-    </row>
-    <row r="242" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="242" spans="1:10" ht="38" customHeight="1">
       <c r="A242" s="17"/>
       <c r="B242" s="14"/>
       <c r="C242" s="17"/>
@@ -13984,9 +14017,8 @@
       <c r="H242" s="28"/>
       <c r="I242" s="17"/>
       <c r="J242" s="16"/>
-      <c r="K242" s="70"/>
-    </row>
-    <row r="243" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="243" spans="1:10" ht="38" customHeight="1">
       <c r="A243" s="17"/>
       <c r="B243" s="14"/>
       <c r="C243" s="17"/>
@@ -13997,9 +14029,8 @@
       <c r="H243" s="28"/>
       <c r="I243" s="17"/>
       <c r="J243" s="16"/>
-      <c r="K243" s="70"/>
-    </row>
-    <row r="244" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="244" spans="1:10" ht="38" customHeight="1">
       <c r="A244" s="17"/>
       <c r="B244" s="14"/>
       <c r="C244" s="17"/>
@@ -14010,9 +14041,8 @@
       <c r="H244" s="28"/>
       <c r="I244" s="17"/>
       <c r="J244" s="16"/>
-      <c r="K244" s="70"/>
-    </row>
-    <row r="245" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="245" spans="1:10" ht="38" customHeight="1">
       <c r="A245" s="17"/>
       <c r="B245" s="14"/>
       <c r="C245" s="17"/>
@@ -14023,9 +14053,8 @@
       <c r="H245" s="28"/>
       <c r="I245" s="17"/>
       <c r="J245" s="16"/>
-      <c r="K245" s="70"/>
-    </row>
-    <row r="246" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="246" spans="1:10" ht="38" customHeight="1">
       <c r="A246" s="17"/>
       <c r="B246" s="14"/>
       <c r="C246" s="17"/>
@@ -14036,9 +14065,8 @@
       <c r="H246" s="28"/>
       <c r="I246" s="17"/>
       <c r="J246" s="16"/>
-      <c r="K246" s="70"/>
-    </row>
-    <row r="247" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="247" spans="1:10" ht="38" customHeight="1">
       <c r="A247" s="17"/>
       <c r="B247" s="14"/>
       <c r="C247" s="17"/>
@@ -14049,9 +14077,8 @@
       <c r="H247" s="28"/>
       <c r="I247" s="17"/>
       <c r="J247" s="16"/>
-      <c r="K247" s="70"/>
-    </row>
-    <row r="248" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="248" spans="1:10" ht="38" customHeight="1">
       <c r="A248" s="17"/>
       <c r="B248" s="14"/>
       <c r="C248" s="17"/>
@@ -14062,9 +14089,8 @@
       <c r="H248" s="28"/>
       <c r="I248" s="17"/>
       <c r="J248" s="16"/>
-      <c r="K248" s="70"/>
-    </row>
-    <row r="249" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="249" spans="1:10" ht="38" customHeight="1">
       <c r="A249" s="17"/>
       <c r="B249" s="14"/>
       <c r="C249" s="17"/>
@@ -14075,9 +14101,8 @@
       <c r="H249" s="28"/>
       <c r="I249" s="17"/>
       <c r="J249" s="16"/>
-      <c r="K249" s="70"/>
-    </row>
-    <row r="250" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="250" spans="1:10" ht="38" customHeight="1">
       <c r="A250" s="17"/>
       <c r="B250" s="14"/>
       <c r="C250" s="17"/>
@@ -14088,9 +14113,8 @@
       <c r="H250" s="28"/>
       <c r="I250" s="17"/>
       <c r="J250" s="16"/>
-      <c r="K250" s="70"/>
-    </row>
-    <row r="251" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="251" spans="1:10" ht="38" customHeight="1">
       <c r="A251" s="17"/>
       <c r="B251" s="14"/>
       <c r="C251" s="17"/>
@@ -14101,9 +14125,8 @@
       <c r="H251" s="28"/>
       <c r="I251" s="17"/>
       <c r="J251" s="16"/>
-      <c r="K251" s="70"/>
-    </row>
-    <row r="252" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="252" spans="1:10" ht="38" customHeight="1">
       <c r="A252" s="17"/>
       <c r="B252" s="14"/>
       <c r="C252" s="17"/>
@@ -14114,9 +14137,8 @@
       <c r="H252" s="28"/>
       <c r="I252" s="17"/>
       <c r="J252" s="16"/>
-      <c r="K252" s="70"/>
-    </row>
-    <row r="253" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="253" spans="1:10" ht="38" customHeight="1">
       <c r="A253" s="17"/>
       <c r="B253" s="14"/>
       <c r="C253" s="17"/>
@@ -14127,9 +14149,8 @@
       <c r="H253" s="28"/>
       <c r="I253" s="17"/>
       <c r="J253" s="16"/>
-      <c r="K253" s="70"/>
-    </row>
-    <row r="254" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="254" spans="1:10" ht="38" customHeight="1">
       <c r="A254" s="17"/>
       <c r="B254" s="14"/>
       <c r="C254" s="17"/>
@@ -14140,9 +14161,8 @@
       <c r="H254" s="28"/>
       <c r="I254" s="17"/>
       <c r="J254" s="16"/>
-      <c r="K254" s="70"/>
-    </row>
-    <row r="255" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="255" spans="1:10" ht="38" customHeight="1">
       <c r="A255" s="17"/>
       <c r="B255" s="14"/>
       <c r="C255" s="17"/>
@@ -14153,9 +14173,8 @@
       <c r="H255" s="28"/>
       <c r="I255" s="17"/>
       <c r="J255" s="16"/>
-      <c r="K255" s="70"/>
-    </row>
-    <row r="256" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="256" spans="1:10" ht="38" customHeight="1">
       <c r="A256" s="17"/>
       <c r="B256" s="14"/>
       <c r="C256" s="17"/>
@@ -14166,9 +14185,8 @@
       <c r="H256" s="28"/>
       <c r="I256" s="17"/>
       <c r="J256" s="16"/>
-      <c r="K256" s="70"/>
-    </row>
-    <row r="257" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="257" spans="1:10" ht="38" customHeight="1">
       <c r="A257" s="17"/>
       <c r="B257" s="14"/>
       <c r="C257" s="17"/>
@@ -14179,9 +14197,8 @@
       <c r="H257" s="28"/>
       <c r="I257" s="17"/>
       <c r="J257" s="16"/>
-      <c r="K257" s="70"/>
-    </row>
-    <row r="258" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="258" spans="1:10" ht="38" customHeight="1">
       <c r="A258" s="17"/>
       <c r="B258" s="14"/>
       <c r="C258" s="17"/>
@@ -14192,9 +14209,8 @@
       <c r="H258" s="28"/>
       <c r="I258" s="17"/>
       <c r="J258" s="16"/>
-      <c r="K258" s="70"/>
-    </row>
-    <row r="259" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="259" spans="1:10" ht="38" customHeight="1">
       <c r="A259" s="17"/>
       <c r="B259" s="14"/>
       <c r="C259" s="17"/>
@@ -14205,9 +14221,8 @@
       <c r="H259" s="28"/>
       <c r="I259" s="17"/>
       <c r="J259" s="16"/>
-      <c r="K259" s="70"/>
-    </row>
-    <row r="260" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="260" spans="1:10" ht="38" customHeight="1">
       <c r="A260" s="17"/>
       <c r="B260" s="14"/>
       <c r="C260" s="17"/>
@@ -14218,9 +14233,8 @@
       <c r="H260" s="28"/>
       <c r="I260" s="17"/>
       <c r="J260" s="16"/>
-      <c r="K260" s="70"/>
-    </row>
-    <row r="261" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="261" spans="1:10" ht="38" customHeight="1">
       <c r="A261" s="17"/>
       <c r="B261" s="14"/>
       <c r="C261" s="17"/>
@@ -14231,9 +14245,8 @@
       <c r="H261" s="28"/>
       <c r="I261" s="17"/>
       <c r="J261" s="16"/>
-      <c r="K261" s="70"/>
-    </row>
-    <row r="262" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="262" spans="1:10" ht="38" customHeight="1">
       <c r="A262" s="17"/>
       <c r="B262" s="14"/>
       <c r="C262" s="17"/>
@@ -14244,9 +14257,8 @@
       <c r="H262" s="28"/>
       <c r="I262" s="17"/>
       <c r="J262" s="16"/>
-      <c r="K262" s="70"/>
-    </row>
-    <row r="263" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="263" spans="1:10" ht="38" customHeight="1">
       <c r="A263" s="17"/>
       <c r="B263" s="14"/>
       <c r="C263" s="17"/>
@@ -14257,9 +14269,8 @@
       <c r="H263" s="28"/>
       <c r="I263" s="17"/>
       <c r="J263" s="16"/>
-      <c r="K263" s="70"/>
-    </row>
-    <row r="264" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="264" spans="1:10" ht="38" customHeight="1">
       <c r="A264" s="17"/>
       <c r="B264" s="14"/>
       <c r="C264" s="17"/>
@@ -14270,9 +14281,8 @@
       <c r="H264" s="28"/>
       <c r="I264" s="17"/>
       <c r="J264" s="16"/>
-      <c r="K264" s="70"/>
-    </row>
-    <row r="265" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="265" spans="1:10" ht="38" customHeight="1">
       <c r="A265" s="17"/>
       <c r="B265" s="14"/>
       <c r="C265" s="17"/>
@@ -14283,9 +14293,8 @@
       <c r="H265" s="28"/>
       <c r="I265" s="17"/>
       <c r="J265" s="16"/>
-      <c r="K265" s="70"/>
-    </row>
-    <row r="266" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="266" spans="1:10" ht="38" customHeight="1">
       <c r="A266" s="17"/>
       <c r="B266" s="14"/>
       <c r="C266" s="17"/>
@@ -14296,9 +14305,8 @@
       <c r="H266" s="28"/>
       <c r="I266" s="17"/>
       <c r="J266" s="16"/>
-      <c r="K266" s="70"/>
-    </row>
-    <row r="267" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="267" spans="1:10" ht="38" customHeight="1">
       <c r="A267" s="17"/>
       <c r="B267" s="14"/>
       <c r="C267" s="17"/>
@@ -14309,9 +14317,8 @@
       <c r="H267" s="28"/>
       <c r="I267" s="17"/>
       <c r="J267" s="16"/>
-      <c r="K267" s="70"/>
-    </row>
-    <row r="268" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="268" spans="1:10" ht="38" customHeight="1">
       <c r="A268" s="17"/>
       <c r="B268" s="14"/>
       <c r="C268" s="17"/>
@@ -14322,9 +14329,8 @@
       <c r="H268" s="28"/>
       <c r="I268" s="17"/>
       <c r="J268" s="16"/>
-      <c r="K268" s="70"/>
-    </row>
-    <row r="269" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="269" spans="1:10" ht="38" customHeight="1">
       <c r="A269" s="17"/>
       <c r="B269" s="14"/>
       <c r="C269" s="17"/>
@@ -14335,9 +14341,8 @@
       <c r="H269" s="28"/>
       <c r="I269" s="17"/>
       <c r="J269" s="16"/>
-      <c r="K269" s="70"/>
-    </row>
-    <row r="270" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="270" spans="1:10" ht="38" customHeight="1">
       <c r="A270" s="17"/>
       <c r="B270" s="14"/>
       <c r="C270" s="17"/>
@@ -14348,9 +14353,8 @@
       <c r="H270" s="28"/>
       <c r="I270" s="17"/>
       <c r="J270" s="16"/>
-      <c r="K270" s="70"/>
-    </row>
-    <row r="271" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="271" spans="1:10" ht="38" customHeight="1">
       <c r="A271" s="17"/>
       <c r="B271" s="14"/>
       <c r="C271" s="17"/>
@@ -14361,9 +14365,8 @@
       <c r="H271" s="28"/>
       <c r="I271" s="17"/>
       <c r="J271" s="16"/>
-      <c r="K271" s="70"/>
-    </row>
-    <row r="272" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="272" spans="1:10" ht="38" customHeight="1">
       <c r="A272" s="17"/>
       <c r="B272" s="14"/>
       <c r="C272" s="17"/>
@@ -14374,9 +14377,8 @@
       <c r="H272" s="28"/>
       <c r="I272" s="17"/>
       <c r="J272" s="16"/>
-      <c r="K272" s="70"/>
-    </row>
-    <row r="273" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="273" spans="1:10" ht="38" customHeight="1">
       <c r="A273" s="17"/>
       <c r="B273" s="14"/>
       <c r="C273" s="17"/>
@@ -14387,9 +14389,8 @@
       <c r="H273" s="28"/>
       <c r="I273" s="17"/>
       <c r="J273" s="16"/>
-      <c r="K273" s="70"/>
-    </row>
-    <row r="274" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="274" spans="1:10" ht="38" customHeight="1">
       <c r="A274" s="17"/>
       <c r="B274" s="14"/>
       <c r="C274" s="17"/>
@@ -14400,9 +14401,8 @@
       <c r="H274" s="28"/>
       <c r="I274" s="17"/>
       <c r="J274" s="16"/>
-      <c r="K274" s="70"/>
-    </row>
-    <row r="275" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="275" spans="1:10" ht="38" customHeight="1">
       <c r="A275" s="17"/>
       <c r="B275" s="14"/>
       <c r="C275" s="17"/>
@@ -14413,9 +14413,8 @@
       <c r="H275" s="28"/>
       <c r="I275" s="17"/>
       <c r="J275" s="16"/>
-      <c r="K275" s="70"/>
-    </row>
-    <row r="276" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="276" spans="1:10" ht="38" customHeight="1">
       <c r="A276" s="17"/>
       <c r="B276" s="14"/>
       <c r="C276" s="17"/>
@@ -14426,9 +14425,8 @@
       <c r="H276" s="28"/>
       <c r="I276" s="17"/>
       <c r="J276" s="16"/>
-      <c r="K276" s="70"/>
-    </row>
-    <row r="277" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="277" spans="1:10" ht="38" customHeight="1">
       <c r="A277" s="17"/>
       <c r="B277" s="14"/>
       <c r="C277" s="17"/>
@@ -14439,9 +14437,8 @@
       <c r="H277" s="28"/>
       <c r="I277" s="17"/>
       <c r="J277" s="16"/>
-      <c r="K277" s="70"/>
-    </row>
-    <row r="278" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="278" spans="1:10" ht="38" customHeight="1">
       <c r="A278" s="17"/>
       <c r="B278" s="14"/>
       <c r="C278" s="17"/>
@@ -14452,9 +14449,8 @@
       <c r="H278" s="28"/>
       <c r="I278" s="17"/>
       <c r="J278" s="16"/>
-      <c r="K278" s="70"/>
-    </row>
-    <row r="279" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="279" spans="1:10" ht="38" customHeight="1">
       <c r="A279" s="17"/>
       <c r="B279" s="14"/>
       <c r="C279" s="17"/>
@@ -14465,9 +14461,8 @@
       <c r="H279" s="28"/>
       <c r="I279" s="17"/>
       <c r="J279" s="16"/>
-      <c r="K279" s="70"/>
-    </row>
-    <row r="280" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="280" spans="1:10" ht="38" customHeight="1">
       <c r="A280" s="17"/>
       <c r="B280" s="14"/>
       <c r="C280" s="17"/>
@@ -14478,9 +14473,8 @@
       <c r="H280" s="28"/>
       <c r="I280" s="17"/>
       <c r="J280" s="16"/>
-      <c r="K280" s="70"/>
-    </row>
-    <row r="281" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="281" spans="1:10" ht="38" customHeight="1">
       <c r="A281" s="17"/>
       <c r="B281" s="14"/>
       <c r="C281" s="17"/>
@@ -14491,9 +14485,8 @@
       <c r="H281" s="28"/>
       <c r="I281" s="17"/>
       <c r="J281" s="16"/>
-      <c r="K281" s="70"/>
-    </row>
-    <row r="282" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="282" spans="1:10" ht="38" customHeight="1">
       <c r="A282" s="17"/>
       <c r="B282" s="14"/>
       <c r="C282" s="17"/>
@@ -14504,9 +14497,8 @@
       <c r="H282" s="28"/>
       <c r="I282" s="17"/>
       <c r="J282" s="16"/>
-      <c r="K282" s="70"/>
-    </row>
-    <row r="283" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="283" spans="1:10" ht="38" customHeight="1">
       <c r="A283" s="17"/>
       <c r="B283" s="14"/>
       <c r="C283" s="17"/>
@@ -14517,9 +14509,8 @@
       <c r="H283" s="28"/>
       <c r="I283" s="17"/>
       <c r="J283" s="16"/>
-      <c r="K283" s="70"/>
-    </row>
-    <row r="284" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="284" spans="1:10" ht="38" customHeight="1">
       <c r="A284" s="17"/>
       <c r="B284" s="14"/>
       <c r="C284" s="17"/>
@@ -14530,9 +14521,8 @@
       <c r="H284" s="28"/>
       <c r="I284" s="17"/>
       <c r="J284" s="16"/>
-      <c r="K284" s="70"/>
-    </row>
-    <row r="285" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="285" spans="1:10" ht="38" customHeight="1">
       <c r="A285" s="17"/>
       <c r="B285" s="14"/>
       <c r="C285" s="17"/>
@@ -14543,9 +14533,8 @@
       <c r="H285" s="28"/>
       <c r="I285" s="17"/>
       <c r="J285" s="16"/>
-      <c r="K285" s="70"/>
-    </row>
-    <row r="286" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="286" spans="1:10" ht="38" customHeight="1">
       <c r="A286" s="17"/>
       <c r="B286" s="14"/>
       <c r="C286" s="17"/>
@@ -14556,9 +14545,8 @@
       <c r="H286" s="28"/>
       <c r="I286" s="17"/>
       <c r="J286" s="16"/>
-      <c r="K286" s="70"/>
-    </row>
-    <row r="287" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="287" spans="1:10" ht="38" customHeight="1">
       <c r="A287" s="17"/>
       <c r="B287" s="14"/>
       <c r="C287" s="17"/>
@@ -14569,9 +14557,8 @@
       <c r="H287" s="28"/>
       <c r="I287" s="17"/>
       <c r="J287" s="16"/>
-      <c r="K287" s="70"/>
-    </row>
-    <row r="288" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="288" spans="1:10" ht="38" customHeight="1">
       <c r="A288" s="17"/>
       <c r="B288" s="14"/>
       <c r="C288" s="17"/>
@@ -14582,9 +14569,8 @@
       <c r="H288" s="28"/>
       <c r="I288" s="17"/>
       <c r="J288" s="16"/>
-      <c r="K288" s="70"/>
-    </row>
-    <row r="289" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="289" spans="1:10" ht="38" customHeight="1">
       <c r="A289" s="17"/>
       <c r="B289" s="14"/>
       <c r="C289" s="17"/>
@@ -14595,9 +14581,8 @@
       <c r="H289" s="28"/>
       <c r="I289" s="17"/>
       <c r="J289" s="16"/>
-      <c r="K289" s="70"/>
-    </row>
-    <row r="290" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="290" spans="1:10" ht="38" customHeight="1">
       <c r="A290" s="17"/>
       <c r="B290" s="14"/>
       <c r="C290" s="17"/>
@@ -14608,9 +14593,8 @@
       <c r="H290" s="28"/>
       <c r="I290" s="17"/>
       <c r="J290" s="16"/>
-      <c r="K290" s="70"/>
-    </row>
-    <row r="291" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="291" spans="1:10" ht="38" customHeight="1">
       <c r="A291" s="17"/>
       <c r="B291" s="14"/>
       <c r="C291" s="17"/>
@@ -14621,9 +14605,8 @@
       <c r="H291" s="28"/>
       <c r="I291" s="17"/>
       <c r="J291" s="16"/>
-      <c r="K291" s="70"/>
-    </row>
-    <row r="292" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="292" spans="1:10" ht="38" customHeight="1">
       <c r="A292" s="17"/>
       <c r="B292" s="14"/>
       <c r="C292" s="17"/>
@@ -14634,9 +14617,8 @@
       <c r="H292" s="28"/>
       <c r="I292" s="17"/>
       <c r="J292" s="16"/>
-      <c r="K292" s="70"/>
-    </row>
-    <row r="293" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="293" spans="1:10" ht="38" customHeight="1">
       <c r="A293" s="17"/>
       <c r="B293" s="14"/>
       <c r="C293" s="17"/>
@@ -14647,9 +14629,8 @@
       <c r="H293" s="28"/>
       <c r="I293" s="17"/>
       <c r="J293" s="16"/>
-      <c r="K293" s="70"/>
-    </row>
-    <row r="294" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="294" spans="1:10" ht="38" customHeight="1">
       <c r="A294" s="17"/>
       <c r="B294" s="14"/>
       <c r="C294" s="17"/>
@@ -14660,9 +14641,8 @@
       <c r="H294" s="28"/>
       <c r="I294" s="17"/>
       <c r="J294" s="16"/>
-      <c r="K294" s="70"/>
-    </row>
-    <row r="295" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="295" spans="1:10" ht="38" customHeight="1">
       <c r="A295" s="17"/>
       <c r="B295" s="14"/>
       <c r="C295" s="17"/>
@@ -14673,9 +14653,8 @@
       <c r="H295" s="28"/>
       <c r="I295" s="17"/>
       <c r="J295" s="16"/>
-      <c r="K295" s="70"/>
-    </row>
-    <row r="296" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="296" spans="1:10" ht="38" customHeight="1">
       <c r="A296" s="17"/>
       <c r="B296" s="14"/>
       <c r="C296" s="17"/>
@@ -14686,9 +14665,8 @@
       <c r="H296" s="28"/>
       <c r="I296" s="17"/>
       <c r="J296" s="16"/>
-      <c r="K296" s="70"/>
-    </row>
-    <row r="297" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="297" spans="1:10" ht="38" customHeight="1">
       <c r="A297" s="17"/>
       <c r="B297" s="14"/>
       <c r="C297" s="17"/>
@@ -14699,9 +14677,8 @@
       <c r="H297" s="28"/>
       <c r="I297" s="17"/>
       <c r="J297" s="16"/>
-      <c r="K297" s="70"/>
-    </row>
-    <row r="298" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="298" spans="1:10" ht="38" customHeight="1">
       <c r="A298" s="17"/>
       <c r="B298" s="14"/>
       <c r="C298" s="17"/>
@@ -14712,9 +14689,8 @@
       <c r="H298" s="28"/>
       <c r="I298" s="17"/>
       <c r="J298" s="16"/>
-      <c r="K298" s="70"/>
-    </row>
-    <row r="299" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="299" spans="1:10" ht="38" customHeight="1">
       <c r="A299" s="17"/>
       <c r="B299" s="14"/>
       <c r="C299" s="17"/>
@@ -14725,9 +14701,8 @@
       <c r="H299" s="28"/>
       <c r="I299" s="17"/>
       <c r="J299" s="16"/>
-      <c r="K299" s="70"/>
-    </row>
-    <row r="300" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="300" spans="1:10" ht="38" customHeight="1">
       <c r="A300" s="17"/>
       <c r="B300" s="14"/>
       <c r="C300" s="17"/>
@@ -14738,9 +14713,8 @@
       <c r="H300" s="28"/>
       <c r="I300" s="17"/>
       <c r="J300" s="16"/>
-      <c r="K300" s="70"/>
-    </row>
-    <row r="301" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="301" spans="1:10" ht="38" customHeight="1">
       <c r="A301" s="17"/>
       <c r="B301" s="14"/>
       <c r="C301" s="17"/>
@@ -14751,9 +14725,8 @@
       <c r="H301" s="28"/>
       <c r="I301" s="17"/>
       <c r="J301" s="16"/>
-      <c r="K301" s="70"/>
-    </row>
-    <row r="302" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="302" spans="1:10" ht="38" customHeight="1">
       <c r="A302" s="17"/>
       <c r="B302" s="14"/>
       <c r="C302" s="17"/>
@@ -14764,9 +14737,8 @@
       <c r="H302" s="28"/>
       <c r="I302" s="17"/>
       <c r="J302" s="16"/>
-      <c r="K302" s="70"/>
-    </row>
-    <row r="303" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="303" spans="1:10" ht="38" customHeight="1">
       <c r="A303" s="17"/>
       <c r="B303" s="14"/>
       <c r="C303" s="17"/>
@@ -14777,9 +14749,8 @@
       <c r="H303" s="28"/>
       <c r="I303" s="17"/>
       <c r="J303" s="16"/>
-      <c r="K303" s="70"/>
-    </row>
-    <row r="304" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="304" spans="1:10" ht="38" customHeight="1">
       <c r="A304" s="17"/>
       <c r="B304" s="14"/>
       <c r="C304" s="17"/>
@@ -14790,9 +14761,8 @@
       <c r="H304" s="28"/>
       <c r="I304" s="17"/>
       <c r="J304" s="16"/>
-      <c r="K304" s="70"/>
-    </row>
-    <row r="305" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="305" spans="1:10" ht="38" customHeight="1">
       <c r="A305" s="17"/>
       <c r="B305" s="14"/>
       <c r="C305" s="17"/>
@@ -14803,9 +14773,8 @@
       <c r="H305" s="28"/>
       <c r="I305" s="17"/>
       <c r="J305" s="16"/>
-      <c r="K305" s="70"/>
-    </row>
-    <row r="306" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="306" spans="1:10" ht="38" customHeight="1">
       <c r="A306" s="17"/>
       <c r="B306" s="14"/>
       <c r="C306" s="17"/>
@@ -14816,9 +14785,8 @@
       <c r="H306" s="28"/>
       <c r="I306" s="17"/>
       <c r="J306" s="16"/>
-      <c r="K306" s="70"/>
-    </row>
-    <row r="307" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="307" spans="1:10" ht="38" customHeight="1">
       <c r="A307" s="17"/>
       <c r="B307" s="14"/>
       <c r="C307" s="17"/>
@@ -14829,9 +14797,8 @@
       <c r="H307" s="28"/>
       <c r="I307" s="17"/>
       <c r="J307" s="16"/>
-      <c r="K307" s="70"/>
-    </row>
-    <row r="308" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="308" spans="1:10" ht="38" customHeight="1">
       <c r="A308" s="17"/>
       <c r="B308" s="14"/>
       <c r="C308" s="17"/>
@@ -14842,9 +14809,8 @@
       <c r="H308" s="28"/>
       <c r="I308" s="17"/>
       <c r="J308" s="16"/>
-      <c r="K308" s="70"/>
-    </row>
-    <row r="309" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="309" spans="1:10" ht="38" customHeight="1">
       <c r="A309" s="17"/>
       <c r="B309" s="14"/>
       <c r="C309" s="17"/>
@@ -14855,9 +14821,8 @@
       <c r="H309" s="28"/>
       <c r="I309" s="17"/>
       <c r="J309" s="16"/>
-      <c r="K309" s="70"/>
-    </row>
-    <row r="310" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="310" spans="1:10" ht="38" customHeight="1">
       <c r="A310" s="17"/>
       <c r="B310" s="14"/>
       <c r="C310" s="17"/>
@@ -14868,9 +14833,8 @@
       <c r="H310" s="28"/>
       <c r="I310" s="17"/>
       <c r="J310" s="16"/>
-      <c r="K310" s="70"/>
-    </row>
-    <row r="311" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="311" spans="1:10" ht="38" customHeight="1">
       <c r="A311" s="17"/>
       <c r="B311" s="14"/>
       <c r="C311" s="17"/>
@@ -14881,9 +14845,8 @@
       <c r="H311" s="28"/>
       <c r="I311" s="17"/>
       <c r="J311" s="16"/>
-      <c r="K311" s="70"/>
-    </row>
-    <row r="312" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="312" spans="1:10" ht="38" customHeight="1">
       <c r="A312" s="17"/>
       <c r="B312" s="14"/>
       <c r="C312" s="17"/>
@@ -14894,9 +14857,8 @@
       <c r="H312" s="28"/>
       <c r="I312" s="17"/>
       <c r="J312" s="16"/>
-      <c r="K312" s="70"/>
-    </row>
-    <row r="313" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="313" spans="1:10" ht="38" customHeight="1">
       <c r="A313" s="17"/>
       <c r="B313" s="14"/>
       <c r="C313" s="17"/>
@@ -14907,9 +14869,8 @@
       <c r="H313" s="28"/>
       <c r="I313" s="17"/>
       <c r="J313" s="16"/>
-      <c r="K313" s="70"/>
-    </row>
-    <row r="314" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="314" spans="1:10" ht="38" customHeight="1">
       <c r="A314" s="17"/>
       <c r="B314" s="14"/>
       <c r="C314" s="17"/>
@@ -14920,9 +14881,8 @@
       <c r="H314" s="28"/>
       <c r="I314" s="17"/>
       <c r="J314" s="16"/>
-      <c r="K314" s="70"/>
-    </row>
-    <row r="315" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="315" spans="1:10" ht="38" customHeight="1">
       <c r="A315" s="17"/>
       <c r="B315" s="14"/>
       <c r="C315" s="17"/>
@@ -14933,9 +14893,8 @@
       <c r="H315" s="28"/>
       <c r="I315" s="17"/>
       <c r="J315" s="16"/>
-      <c r="K315" s="70"/>
-    </row>
-    <row r="316" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="316" spans="1:10" ht="38" customHeight="1">
       <c r="A316" s="17"/>
       <c r="B316" s="14"/>
       <c r="C316" s="17"/>
@@ -14946,9 +14905,8 @@
       <c r="H316" s="28"/>
       <c r="I316" s="17"/>
       <c r="J316" s="16"/>
-      <c r="K316" s="70"/>
-    </row>
-    <row r="317" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="317" spans="1:10" ht="38" customHeight="1">
       <c r="A317" s="17"/>
       <c r="B317" s="14"/>
       <c r="C317" s="17"/>
@@ -14959,9 +14917,8 @@
       <c r="H317" s="28"/>
       <c r="I317" s="17"/>
       <c r="J317" s="16"/>
-      <c r="K317" s="70"/>
-    </row>
-    <row r="318" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="318" spans="1:10" ht="38" customHeight="1">
       <c r="A318" s="17"/>
       <c r="B318" s="14"/>
       <c r="C318" s="17"/>
@@ -14972,9 +14929,8 @@
       <c r="H318" s="28"/>
       <c r="I318" s="17"/>
       <c r="J318" s="16"/>
-      <c r="K318" s="70"/>
-    </row>
-    <row r="319" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="319" spans="1:10" ht="38" customHeight="1">
       <c r="A319" s="17"/>
       <c r="B319" s="14"/>
       <c r="C319" s="17"/>
@@ -14985,9 +14941,8 @@
       <c r="H319" s="28"/>
       <c r="I319" s="17"/>
       <c r="J319" s="16"/>
-      <c r="K319" s="70"/>
-    </row>
-    <row r="320" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="320" spans="1:10" ht="38" customHeight="1">
       <c r="A320" s="17"/>
       <c r="B320" s="14"/>
       <c r="C320" s="17"/>
@@ -14998,9 +14953,8 @@
       <c r="H320" s="28"/>
       <c r="I320" s="17"/>
       <c r="J320" s="16"/>
-      <c r="K320" s="70"/>
-    </row>
-    <row r="321" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="321" spans="1:10" ht="38" customHeight="1">
       <c r="A321" s="17"/>
       <c r="B321" s="14"/>
       <c r="C321" s="17"/>
@@ -15011,9 +14965,8 @@
       <c r="H321" s="28"/>
       <c r="I321" s="17"/>
       <c r="J321" s="16"/>
-      <c r="K321" s="70"/>
-    </row>
-    <row r="322" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="322" spans="1:10" ht="38" customHeight="1">
       <c r="A322" s="17"/>
       <c r="B322" s="14"/>
       <c r="C322" s="17"/>
@@ -15024,9 +14977,8 @@
       <c r="H322" s="28"/>
       <c r="I322" s="17"/>
       <c r="J322" s="16"/>
-      <c r="K322" s="70"/>
-    </row>
-    <row r="323" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="323" spans="1:10" ht="38" customHeight="1">
       <c r="A323" s="17"/>
       <c r="B323" s="14"/>
       <c r="C323" s="17"/>
@@ -15037,9 +14989,8 @@
       <c r="H323" s="28"/>
       <c r="I323" s="17"/>
       <c r="J323" s="16"/>
-      <c r="K323" s="70"/>
-    </row>
-    <row r="324" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="324" spans="1:10" ht="38" customHeight="1">
       <c r="A324" s="17"/>
       <c r="B324" s="14"/>
       <c r="C324" s="17"/>
@@ -15050,9 +15001,8 @@
       <c r="H324" s="28"/>
       <c r="I324" s="17"/>
       <c r="J324" s="16"/>
-      <c r="K324" s="70"/>
-    </row>
-    <row r="325" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="325" spans="1:10" ht="38" customHeight="1">
       <c r="A325" s="17"/>
       <c r="B325" s="14"/>
       <c r="C325" s="17"/>
@@ -15063,9 +15013,8 @@
       <c r="H325" s="28"/>
       <c r="I325" s="17"/>
       <c r="J325" s="16"/>
-      <c r="K325" s="70"/>
-    </row>
-    <row r="326" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="326" spans="1:10" ht="38" customHeight="1">
       <c r="A326" s="17"/>
       <c r="B326" s="14"/>
       <c r="C326" s="17"/>
@@ -15076,9 +15025,8 @@
       <c r="H326" s="28"/>
       <c r="I326" s="17"/>
       <c r="J326" s="16"/>
-      <c r="K326" s="70"/>
-    </row>
-    <row r="327" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="327" spans="1:10" ht="38" customHeight="1">
       <c r="A327" s="17"/>
       <c r="B327" s="14"/>
       <c r="C327" s="17"/>
@@ -15089,9 +15037,8 @@
       <c r="H327" s="28"/>
       <c r="I327" s="17"/>
       <c r="J327" s="16"/>
-      <c r="K327" s="70"/>
-    </row>
-    <row r="328" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="328" spans="1:10" ht="38" customHeight="1">
       <c r="A328" s="17"/>
       <c r="B328" s="14"/>
       <c r="C328" s="17"/>
@@ -15102,9 +15049,8 @@
       <c r="H328" s="28"/>
       <c r="I328" s="17"/>
       <c r="J328" s="16"/>
-      <c r="K328" s="70"/>
-    </row>
-    <row r="329" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="329" spans="1:10" ht="38" customHeight="1">
       <c r="A329" s="17"/>
       <c r="B329" s="14"/>
       <c r="C329" s="17"/>
@@ -15115,9 +15061,8 @@
       <c r="H329" s="28"/>
       <c r="I329" s="17"/>
       <c r="J329" s="16"/>
-      <c r="K329" s="70"/>
-    </row>
-    <row r="330" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="330" spans="1:10" ht="38" customHeight="1">
       <c r="A330" s="17"/>
       <c r="B330" s="14"/>
       <c r="C330" s="17"/>
@@ -15128,9 +15073,8 @@
       <c r="H330" s="28"/>
       <c r="I330" s="17"/>
       <c r="J330" s="16"/>
-      <c r="K330" s="70"/>
-    </row>
-    <row r="331" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="331" spans="1:10" ht="38" customHeight="1">
       <c r="A331" s="17"/>
       <c r="B331" s="14"/>
       <c r="C331" s="17"/>
@@ -15141,9 +15085,8 @@
       <c r="H331" s="28"/>
       <c r="I331" s="17"/>
       <c r="J331" s="16"/>
-      <c r="K331" s="70"/>
-    </row>
-    <row r="332" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="332" spans="1:10" ht="38" customHeight="1">
       <c r="A332" s="17"/>
       <c r="B332" s="14"/>
       <c r="C332" s="17"/>
@@ -15154,9 +15097,8 @@
       <c r="H332" s="28"/>
       <c r="I332" s="17"/>
       <c r="J332" s="16"/>
-      <c r="K332" s="70"/>
-    </row>
-    <row r="333" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="333" spans="1:10" ht="38" customHeight="1">
       <c r="A333" s="17"/>
       <c r="B333" s="14"/>
       <c r="C333" s="17"/>
@@ -15167,9 +15109,8 @@
       <c r="H333" s="28"/>
       <c r="I333" s="17"/>
       <c r="J333" s="16"/>
-      <c r="K333" s="70"/>
-    </row>
-    <row r="334" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="334" spans="1:10" ht="38" customHeight="1">
       <c r="A334" s="17"/>
       <c r="B334" s="14"/>
       <c r="C334" s="17"/>
@@ -15180,9 +15121,8 @@
       <c r="H334" s="28"/>
       <c r="I334" s="17"/>
       <c r="J334" s="16"/>
-      <c r="K334" s="70"/>
-    </row>
-    <row r="335" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="335" spans="1:10" ht="38" customHeight="1">
       <c r="A335" s="17"/>
       <c r="B335" s="14"/>
       <c r="C335" s="17"/>
@@ -15193,9 +15133,8 @@
       <c r="H335" s="28"/>
       <c r="I335" s="17"/>
       <c r="J335" s="16"/>
-      <c r="K335" s="70"/>
-    </row>
-    <row r="336" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="336" spans="1:10" ht="38" customHeight="1">
       <c r="A336" s="17"/>
       <c r="B336" s="14"/>
       <c r="C336" s="17"/>
@@ -15206,9 +15145,8 @@
       <c r="H336" s="28"/>
       <c r="I336" s="17"/>
       <c r="J336" s="16"/>
-      <c r="K336" s="70"/>
-    </row>
-    <row r="337" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="337" spans="1:10" ht="38" customHeight="1">
       <c r="A337" s="17"/>
       <c r="B337" s="14"/>
       <c r="C337" s="17"/>
@@ -15219,9 +15157,8 @@
       <c r="H337" s="28"/>
       <c r="I337" s="17"/>
       <c r="J337" s="16"/>
-      <c r="K337" s="70"/>
-    </row>
-    <row r="338" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="338" spans="1:10" ht="38" customHeight="1">
       <c r="A338" s="17"/>
       <c r="B338" s="14"/>
       <c r="C338" s="17"/>
@@ -15232,9 +15169,8 @@
       <c r="H338" s="28"/>
       <c r="I338" s="17"/>
       <c r="J338" s="16"/>
-      <c r="K338" s="70"/>
-    </row>
-    <row r="339" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="339" spans="1:10" ht="38" customHeight="1">
       <c r="A339" s="17"/>
       <c r="B339" s="14"/>
       <c r="C339" s="17"/>
@@ -15245,9 +15181,8 @@
       <c r="H339" s="28"/>
       <c r="I339" s="17"/>
       <c r="J339" s="16"/>
-      <c r="K339" s="70"/>
-    </row>
-    <row r="340" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="340" spans="1:10" ht="38" customHeight="1">
       <c r="A340" s="17"/>
       <c r="B340" s="14"/>
       <c r="C340" s="17"/>
@@ -15258,9 +15193,8 @@
       <c r="H340" s="28"/>
       <c r="I340" s="17"/>
       <c r="J340" s="16"/>
-      <c r="K340" s="70"/>
-    </row>
-    <row r="341" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="341" spans="1:10" ht="38" customHeight="1">
       <c r="A341" s="17"/>
       <c r="B341" s="14"/>
       <c r="C341" s="17"/>
@@ -15271,9 +15205,8 @@
       <c r="H341" s="28"/>
       <c r="I341" s="17"/>
       <c r="J341" s="16"/>
-      <c r="K341" s="70"/>
-    </row>
-    <row r="342" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="342" spans="1:10" ht="38" customHeight="1">
       <c r="A342" s="17"/>
       <c r="B342" s="14"/>
       <c r="C342" s="17"/>
@@ -15284,9 +15217,8 @@
       <c r="H342" s="28"/>
       <c r="I342" s="17"/>
       <c r="J342" s="16"/>
-      <c r="K342" s="70"/>
-    </row>
-    <row r="343" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="343" spans="1:10" ht="38" customHeight="1">
       <c r="A343" s="17"/>
       <c r="B343" s="14"/>
       <c r="C343" s="17"/>
@@ -15297,9 +15229,8 @@
       <c r="H343" s="28"/>
       <c r="I343" s="17"/>
       <c r="J343" s="16"/>
-      <c r="K343" s="70"/>
-    </row>
-    <row r="344" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="344" spans="1:10" ht="38" customHeight="1">
       <c r="A344" s="17"/>
       <c r="B344" s="14"/>
       <c r="C344" s="17"/>
@@ -15310,9 +15241,8 @@
       <c r="H344" s="28"/>
       <c r="I344" s="17"/>
       <c r="J344" s="16"/>
-      <c r="K344" s="70"/>
-    </row>
-    <row r="345" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="345" spans="1:10" ht="38" customHeight="1">
       <c r="A345" s="17"/>
       <c r="B345" s="14"/>
       <c r="C345" s="17"/>
@@ -15323,9 +15253,8 @@
       <c r="H345" s="28"/>
       <c r="I345" s="17"/>
       <c r="J345" s="16"/>
-      <c r="K345" s="70"/>
-    </row>
-    <row r="346" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="346" spans="1:10" ht="38" customHeight="1">
       <c r="A346" s="17"/>
       <c r="B346" s="14"/>
       <c r="C346" s="17"/>
@@ -15336,9 +15265,8 @@
       <c r="H346" s="28"/>
       <c r="I346" s="17"/>
       <c r="J346" s="16"/>
-      <c r="K346" s="70"/>
-    </row>
-    <row r="347" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="347" spans="1:10" ht="38" customHeight="1">
       <c r="A347" s="17"/>
       <c r="B347" s="14"/>
       <c r="C347" s="17"/>
@@ -15349,9 +15277,8 @@
       <c r="H347" s="28"/>
       <c r="I347" s="17"/>
       <c r="J347" s="16"/>
-      <c r="K347" s="70"/>
-    </row>
-    <row r="348" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="348" spans="1:10" ht="38" customHeight="1">
       <c r="A348" s="17"/>
       <c r="B348" s="14"/>
       <c r="C348" s="17"/>
@@ -15362,9 +15289,8 @@
       <c r="H348" s="28"/>
       <c r="I348" s="17"/>
       <c r="J348" s="16"/>
-      <c r="K348" s="70"/>
-    </row>
-    <row r="349" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="349" spans="1:10" ht="38" customHeight="1">
       <c r="A349" s="17"/>
       <c r="B349" s="14"/>
       <c r="C349" s="17"/>
@@ -15375,9 +15301,8 @@
       <c r="H349" s="28"/>
       <c r="I349" s="17"/>
       <c r="J349" s="16"/>
-      <c r="K349" s="70"/>
-    </row>
-    <row r="350" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="350" spans="1:10" ht="38" customHeight="1">
       <c r="A350" s="17"/>
       <c r="B350" s="14"/>
       <c r="C350" s="17"/>
@@ -15388,9 +15313,8 @@
       <c r="H350" s="28"/>
       <c r="I350" s="17"/>
       <c r="J350" s="16"/>
-      <c r="K350" s="70"/>
-    </row>
-    <row r="351" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="351" spans="1:10" ht="38" customHeight="1">
       <c r="A351" s="17"/>
       <c r="B351" s="14"/>
       <c r="C351" s="17"/>
@@ -15401,9 +15325,8 @@
       <c r="H351" s="28"/>
       <c r="I351" s="17"/>
       <c r="J351" s="16"/>
-      <c r="K351" s="70"/>
-    </row>
-    <row r="352" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="352" spans="1:10" ht="38" customHeight="1">
       <c r="A352" s="17"/>
       <c r="B352" s="14"/>
       <c r="C352" s="17"/>
@@ -15414,9 +15337,8 @@
       <c r="H352" s="28"/>
       <c r="I352" s="17"/>
       <c r="J352" s="16"/>
-      <c r="K352" s="70"/>
-    </row>
-    <row r="353" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="353" spans="1:10" ht="38" customHeight="1">
       <c r="A353" s="17"/>
       <c r="B353" s="14"/>
       <c r="C353" s="17"/>
@@ -15427,9 +15349,8 @@
       <c r="H353" s="28"/>
       <c r="I353" s="17"/>
       <c r="J353" s="16"/>
-      <c r="K353" s="70"/>
-    </row>
-    <row r="354" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="354" spans="1:10" ht="38" customHeight="1">
       <c r="A354" s="17"/>
       <c r="B354" s="14"/>
       <c r="C354" s="17"/>
@@ -15440,9 +15361,8 @@
       <c r="H354" s="28"/>
       <c r="I354" s="17"/>
       <c r="J354" s="16"/>
-      <c r="K354" s="70"/>
-    </row>
-    <row r="355" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="355" spans="1:10" ht="38" customHeight="1">
       <c r="A355" s="17"/>
       <c r="B355" s="14"/>
       <c r="C355" s="17"/>
@@ -15453,9 +15373,8 @@
       <c r="H355" s="28"/>
       <c r="I355" s="17"/>
       <c r="J355" s="16"/>
-      <c r="K355" s="70"/>
-    </row>
-    <row r="356" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="356" spans="1:10" ht="38" customHeight="1">
       <c r="A356" s="17"/>
       <c r="B356" s="14"/>
       <c r="C356" s="17"/>
@@ -15466,9 +15385,8 @@
       <c r="H356" s="28"/>
       <c r="I356" s="17"/>
       <c r="J356" s="16"/>
-      <c r="K356" s="70"/>
-    </row>
-    <row r="357" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="357" spans="1:10" ht="38" customHeight="1">
       <c r="A357" s="17"/>
       <c r="B357" s="14"/>
       <c r="C357" s="17"/>
@@ -15479,9 +15397,8 @@
       <c r="H357" s="28"/>
       <c r="I357" s="17"/>
       <c r="J357" s="16"/>
-      <c r="K357" s="70"/>
-    </row>
-    <row r="358" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="358" spans="1:10" ht="38" customHeight="1">
       <c r="A358" s="17"/>
       <c r="B358" s="14"/>
       <c r="C358" s="17"/>
@@ -15492,9 +15409,8 @@
       <c r="H358" s="28"/>
       <c r="I358" s="17"/>
       <c r="J358" s="16"/>
-      <c r="K358" s="70"/>
-    </row>
-    <row r="359" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="359" spans="1:10" ht="38" customHeight="1">
       <c r="A359" s="17"/>
       <c r="B359" s="14"/>
       <c r="C359" s="17"/>
@@ -15505,9 +15421,8 @@
       <c r="H359" s="28"/>
       <c r="I359" s="17"/>
       <c r="J359" s="16"/>
-      <c r="K359" s="70"/>
-    </row>
-    <row r="360" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="360" spans="1:10" ht="38" customHeight="1">
       <c r="A360" s="17"/>
       <c r="B360" s="14"/>
       <c r="C360" s="17"/>
@@ -15518,9 +15433,8 @@
       <c r="H360" s="28"/>
       <c r="I360" s="17"/>
       <c r="J360" s="16"/>
-      <c r="K360" s="70"/>
-    </row>
-    <row r="361" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="361" spans="1:10" ht="38" customHeight="1">
       <c r="A361" s="17"/>
       <c r="B361" s="14"/>
       <c r="C361" s="17"/>
@@ -15531,9 +15445,8 @@
       <c r="H361" s="28"/>
       <c r="I361" s="17"/>
       <c r="J361" s="16"/>
-      <c r="K361" s="70"/>
-    </row>
-    <row r="362" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="362" spans="1:10" ht="38" customHeight="1">
       <c r="A362" s="17"/>
       <c r="B362" s="14"/>
       <c r="C362" s="17"/>
@@ -15544,9 +15457,8 @@
       <c r="H362" s="28"/>
       <c r="I362" s="17"/>
       <c r="J362" s="16"/>
-      <c r="K362" s="70"/>
-    </row>
-    <row r="363" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="363" spans="1:10" ht="38" customHeight="1">
       <c r="A363" s="17"/>
       <c r="B363" s="14"/>
       <c r="C363" s="17"/>
@@ -15557,9 +15469,8 @@
       <c r="H363" s="28"/>
       <c r="I363" s="17"/>
       <c r="J363" s="16"/>
-      <c r="K363" s="70"/>
-    </row>
-    <row r="364" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="364" spans="1:10" ht="38" customHeight="1">
       <c r="A364" s="17"/>
       <c r="B364" s="14"/>
       <c r="C364" s="17"/>
@@ -15570,9 +15481,8 @@
       <c r="H364" s="28"/>
       <c r="I364" s="17"/>
       <c r="J364" s="16"/>
-      <c r="K364" s="70"/>
-    </row>
-    <row r="365" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="365" spans="1:10" ht="38" customHeight="1">
       <c r="A365" s="17"/>
       <c r="B365" s="14"/>
       <c r="C365" s="17"/>
@@ -15583,9 +15493,8 @@
       <c r="H365" s="28"/>
       <c r="I365" s="17"/>
       <c r="J365" s="16"/>
-      <c r="K365" s="70"/>
-    </row>
-    <row r="366" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="366" spans="1:10" ht="38" customHeight="1">
       <c r="A366" s="17"/>
       <c r="B366" s="14"/>
       <c r="C366" s="17"/>
@@ -15596,9 +15505,8 @@
       <c r="H366" s="28"/>
       <c r="I366" s="17"/>
       <c r="J366" s="16"/>
-      <c r="K366" s="70"/>
-    </row>
-    <row r="367" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="367" spans="1:10" ht="38" customHeight="1">
       <c r="A367" s="17"/>
       <c r="B367" s="14"/>
       <c r="C367" s="17"/>
@@ -15609,9 +15517,8 @@
       <c r="H367" s="28"/>
       <c r="I367" s="17"/>
       <c r="J367" s="16"/>
-      <c r="K367" s="70"/>
-    </row>
-    <row r="368" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="368" spans="1:10" ht="38" customHeight="1">
       <c r="A368" s="17"/>
       <c r="B368" s="14"/>
       <c r="C368" s="17"/>
@@ -15622,9 +15529,8 @@
       <c r="H368" s="28"/>
       <c r="I368" s="17"/>
       <c r="J368" s="16"/>
-      <c r="K368" s="70"/>
-    </row>
-    <row r="369" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="369" spans="1:10" ht="38" customHeight="1">
       <c r="A369" s="17"/>
       <c r="B369" s="14"/>
       <c r="C369" s="17"/>
@@ -15635,9 +15541,8 @@
       <c r="H369" s="28"/>
       <c r="I369" s="17"/>
       <c r="J369" s="16"/>
-      <c r="K369" s="70"/>
-    </row>
-    <row r="370" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="370" spans="1:10" ht="38" customHeight="1">
       <c r="A370" s="17"/>
       <c r="B370" s="14"/>
       <c r="C370" s="17"/>
@@ -15648,9 +15553,8 @@
       <c r="H370" s="28"/>
       <c r="I370" s="17"/>
       <c r="J370" s="16"/>
-      <c r="K370" s="70"/>
-    </row>
-    <row r="371" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="371" spans="1:10" ht="38" customHeight="1">
       <c r="A371" s="17"/>
       <c r="B371" s="14"/>
       <c r="C371" s="17"/>
@@ -15661,9 +15565,8 @@
       <c r="H371" s="28"/>
       <c r="I371" s="17"/>
       <c r="J371" s="16"/>
-      <c r="K371" s="70"/>
-    </row>
-    <row r="372" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="372" spans="1:10" ht="38" customHeight="1">
       <c r="A372" s="17"/>
       <c r="B372" s="14"/>
       <c r="C372" s="17"/>
@@ -15674,9 +15577,8 @@
       <c r="H372" s="28"/>
       <c r="I372" s="17"/>
       <c r="J372" s="16"/>
-      <c r="K372" s="70"/>
-    </row>
-    <row r="373" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="373" spans="1:10" ht="38" customHeight="1">
       <c r="A373" s="17"/>
       <c r="B373" s="14"/>
       <c r="C373" s="17"/>
@@ -15687,9 +15589,8 @@
       <c r="H373" s="28"/>
       <c r="I373" s="17"/>
       <c r="J373" s="16"/>
-      <c r="K373" s="70"/>
-    </row>
-    <row r="374" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="374" spans="1:10" ht="38" customHeight="1">
       <c r="A374" s="17"/>
       <c r="B374" s="14"/>
       <c r="C374" s="17"/>
@@ -15700,9 +15601,8 @@
       <c r="H374" s="28"/>
       <c r="I374" s="17"/>
       <c r="J374" s="16"/>
-      <c r="K374" s="70"/>
-    </row>
-    <row r="375" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="375" spans="1:10" ht="38" customHeight="1">
       <c r="A375" s="17"/>
       <c r="B375" s="14"/>
       <c r="C375" s="17"/>
@@ -15713,9 +15613,8 @@
       <c r="H375" s="28"/>
       <c r="I375" s="17"/>
       <c r="J375" s="16"/>
-      <c r="K375" s="70"/>
-    </row>
-    <row r="376" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="376" spans="1:10" ht="38" customHeight="1">
       <c r="A376" s="17"/>
       <c r="B376" s="14"/>
       <c r="C376" s="17"/>
@@ -15726,9 +15625,8 @@
       <c r="H376" s="28"/>
       <c r="I376" s="17"/>
       <c r="J376" s="16"/>
-      <c r="K376" s="70"/>
-    </row>
-    <row r="377" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="377" spans="1:10" ht="38" customHeight="1">
       <c r="A377" s="17"/>
       <c r="B377" s="14"/>
       <c r="C377" s="17"/>
@@ -15739,9 +15637,8 @@
       <c r="H377" s="28"/>
       <c r="I377" s="17"/>
       <c r="J377" s="16"/>
-      <c r="K377" s="70"/>
-    </row>
-    <row r="378" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="378" spans="1:10" ht="38" customHeight="1">
       <c r="A378" s="17"/>
       <c r="B378" s="14"/>
       <c r="C378" s="17"/>
@@ -15752,9 +15649,8 @@
       <c r="H378" s="28"/>
       <c r="I378" s="17"/>
       <c r="J378" s="16"/>
-      <c r="K378" s="70"/>
-    </row>
-    <row r="379" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="379" spans="1:10" ht="38" customHeight="1">
       <c r="A379" s="17"/>
       <c r="B379" s="14"/>
       <c r="C379" s="17"/>
@@ -15765,9 +15661,8 @@
       <c r="H379" s="28"/>
       <c r="I379" s="17"/>
       <c r="J379" s="16"/>
-      <c r="K379" s="70"/>
-    </row>
-    <row r="380" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="380" spans="1:10" ht="38" customHeight="1">
       <c r="A380" s="17"/>
       <c r="B380" s="14"/>
       <c r="C380" s="17"/>
@@ -15778,9 +15673,8 @@
       <c r="H380" s="28"/>
       <c r="I380" s="17"/>
       <c r="J380" s="16"/>
-      <c r="K380" s="70"/>
-    </row>
-    <row r="381" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="381" spans="1:10" ht="38" customHeight="1">
       <c r="A381" s="17"/>
       <c r="B381" s="14"/>
       <c r="C381" s="17"/>
@@ -15791,9 +15685,8 @@
       <c r="H381" s="28"/>
       <c r="I381" s="17"/>
       <c r="J381" s="16"/>
-      <c r="K381" s="70"/>
-    </row>
-    <row r="382" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="382" spans="1:10" ht="38" customHeight="1">
       <c r="A382" s="17"/>
       <c r="B382" s="14"/>
       <c r="C382" s="17"/>
@@ -15804,9 +15697,8 @@
       <c r="H382" s="28"/>
       <c r="I382" s="17"/>
       <c r="J382" s="16"/>
-      <c r="K382" s="70"/>
-    </row>
-    <row r="383" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="383" spans="1:10" ht="38" customHeight="1">
       <c r="A383" s="17"/>
       <c r="B383" s="14"/>
       <c r="C383" s="17"/>
@@ -15817,9 +15709,8 @@
       <c r="H383" s="28"/>
       <c r="I383" s="17"/>
       <c r="J383" s="16"/>
-      <c r="K383" s="70"/>
-    </row>
-    <row r="384" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="384" spans="1:10" ht="38" customHeight="1">
       <c r="A384" s="17"/>
       <c r="B384" s="14"/>
       <c r="C384" s="17"/>
@@ -15830,9 +15721,8 @@
       <c r="H384" s="28"/>
       <c r="I384" s="17"/>
       <c r="J384" s="16"/>
-      <c r="K384" s="70"/>
-    </row>
-    <row r="385" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="385" spans="1:10" ht="38" customHeight="1">
       <c r="A385" s="17"/>
       <c r="B385" s="14"/>
       <c r="C385" s="17"/>
@@ -15843,9 +15733,8 @@
       <c r="H385" s="28"/>
       <c r="I385" s="17"/>
       <c r="J385" s="16"/>
-      <c r="K385" s="70"/>
-    </row>
-    <row r="386" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="386" spans="1:10" ht="38" customHeight="1">
       <c r="A386" s="17"/>
       <c r="B386" s="14"/>
       <c r="C386" s="17"/>
@@ -15856,9 +15745,8 @@
       <c r="H386" s="28"/>
       <c r="I386" s="17"/>
       <c r="J386" s="16"/>
-      <c r="K386" s="70"/>
-    </row>
-    <row r="387" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="387" spans="1:10" ht="38" customHeight="1">
       <c r="A387" s="17"/>
       <c r="B387" s="14"/>
       <c r="C387" s="17"/>
@@ -15869,9 +15757,8 @@
       <c r="H387" s="28"/>
       <c r="I387" s="17"/>
       <c r="J387" s="16"/>
-      <c r="K387" s="70"/>
-    </row>
-    <row r="388" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="388" spans="1:10" ht="38" customHeight="1">
       <c r="A388" s="17"/>
       <c r="B388" s="14"/>
       <c r="C388" s="17"/>
@@ -15882,9 +15769,8 @@
       <c r="H388" s="28"/>
       <c r="I388" s="17"/>
       <c r="J388" s="16"/>
-      <c r="K388" s="70"/>
-    </row>
-    <row r="389" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="389" spans="1:10" ht="38" customHeight="1">
       <c r="A389" s="17"/>
       <c r="B389" s="14"/>
       <c r="C389" s="17"/>
@@ -15895,9 +15781,8 @@
       <c r="H389" s="28"/>
       <c r="I389" s="17"/>
       <c r="J389" s="16"/>
-      <c r="K389" s="70"/>
-    </row>
-    <row r="390" spans="1:11" ht="38" customHeight="1">
+    </row>
+    <row r="390" spans="1:10" ht="38" customHeight="1">
       <c r="A390" s="17"/>
       <c r="B390" s="14"/>
       <c r="C390" s="17"/>
@@ -15908,34 +15793,6 @@
       <c r="H390" s="28"/>
       <c r="I390" s="17"/>
       <c r="J390" s="16"/>
-      <c r="K390" s="70"/>
-    </row>
-    <row r="391" spans="1:11" ht="38" customHeight="1">
-      <c r="K391" s="70"/>
-    </row>
-    <row r="392" spans="1:11" ht="38" customHeight="1">
-      <c r="K392" s="70"/>
-    </row>
-    <row r="393" spans="1:11" ht="38" customHeight="1">
-      <c r="K393" s="70"/>
-    </row>
-    <row r="394" spans="1:11" ht="38" customHeight="1">
-      <c r="K394" s="70"/>
-    </row>
-    <row r="395" spans="1:11" ht="38" customHeight="1">
-      <c r="K395" s="70"/>
-    </row>
-    <row r="396" spans="1:11" ht="38" customHeight="1">
-      <c r="K396" s="70"/>
-    </row>
-    <row r="397" spans="1:11" ht="38" customHeight="1">
-      <c r="K397" s="70"/>
-    </row>
-    <row r="398" spans="1:11" ht="38" customHeight="1">
-      <c r="K398" s="70"/>
-    </row>
-    <row r="399" spans="1:11" ht="38" customHeight="1">
-      <c r="K399" s="70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/football_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ABDDB0-2DD5-BC41-B7B3-45CE29EA3FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A29AD1-A2A3-F341-B414-13600B05017C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
   <sheets>
     <sheet name="让球匹配" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="471">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8384,12 +8384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海德堡联</t>
-  </si>
-  <si>
-    <t>格林古利</t>
-  </si>
-  <si>
     <t>盘口变化2个，初盘0.000, 即时盘0.500
 对比本联赛，该盘口下胜率为：(('赢', 5), ('输', 9), ('走', 1))</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8934,9 +8928,6 @@
     <t>22/23埃及甲第27轮</t>
   </si>
   <si>
-    <t>艾德瀚德</t>
-  </si>
-  <si>
     <t>金字塔</t>
   </si>
   <si>
@@ -8950,9 +8941,6 @@
   </si>
   <si>
     <t>22/23英冠第46轮</t>
-  </si>
-  <si>
-    <t>哈德斯菲尔德</t>
   </si>
   <si>
     <t>雷丁</t>
@@ -8964,9 +8952,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>米德尔斯堡</t>
-  </si>
-  <si>
     <t>考文垂</t>
   </si>
   <si>
@@ -8976,9 +8961,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>斯旺西</t>
-  </si>
-  <si>
     <t xml:space="preserve">亚盘全网盘口:赢=22,输=11,走=0,赢盘概率最大,为66.67%
 亚盘本联赛盘口:赢=8,输=5,走=0,赢盘概率最大,为61.54%
 比分概率前三分别是：[0:0](6次)     [1:2](6次)     [1:0](5次)   </t>
@@ -8988,9 +8970,6 @@
     <t>22/23乌超第25轮</t>
   </si>
   <si>
-    <t>卢甘斯克黎明</t>
-  </si>
-  <si>
     <t>梅塔利斯特1925</t>
   </si>
   <si>
@@ -9002,14 +8981,43 @@
     <t>23乌兹超第9轮</t>
   </si>
   <si>
-    <t>奥马利克</t>
-  </si>
-  <si>
     <t>克孜勒库姆</t>
   </si>
   <si>
     <t xml:space="preserve">亚盘全网盘口:赢=2,输=0,走=0,赢盘概率最大,为100.00%
 比分概率前三分别是：[2:0](2次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈德斯菲尔德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾德瀚德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米德尔斯堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯旺西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢甘斯克黎明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥马利克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海德堡联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格林古利</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9839,8 +9847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="38" customHeight="1"/>
@@ -11452,16 +11460,16 @@
     </row>
     <row r="54" spans="1:10" ht="76" customHeight="1">
       <c r="A54" s="21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B54" s="22">
         <v>45053</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>253</v>
@@ -11473,7 +11481,7 @@
         <v>71</v>
       </c>
       <c r="H54" s="71" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I54" s="21"/>
       <c r="J54" s="23" t="s">
@@ -11482,16 +11490,16 @@
     </row>
     <row r="55" spans="1:10" ht="73" customHeight="1">
       <c r="A55" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B55" s="8">
         <v>45053.041666666664</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>287</v>
@@ -11503,7 +11511,7 @@
         <v>178</v>
       </c>
       <c r="H55" s="33" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="10" t="s">
@@ -11512,13 +11520,13 @@
     </row>
     <row r="56" spans="1:10" ht="72" customHeight="1">
       <c r="A56" s="17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B56" s="14">
         <v>45053.041666666664</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>119</v>
@@ -11527,13 +11535,13 @@
         <v>253</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G56" s="16" t="s">
         <v>178</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I56" s="17"/>
       <c r="J56" s="16" t="s">
@@ -11542,16 +11550,16 @@
     </row>
     <row r="57" spans="1:10" ht="38" customHeight="1">
       <c r="A57" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B57" s="8">
         <v>45053.041666666664</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>100</v>
@@ -11563,7 +11571,7 @@
         <v>71</v>
       </c>
       <c r="H57" s="33" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="10" t="s">
@@ -11572,16 +11580,16 @@
     </row>
     <row r="58" spans="1:10" ht="38" customHeight="1">
       <c r="A58" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B58" s="8">
         <v>45053.041666666664</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>253</v>
@@ -11593,7 +11601,7 @@
         <v>71</v>
       </c>
       <c r="H58" s="33" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="10" t="s">
@@ -11602,16 +11610,16 @@
     </row>
     <row r="59" spans="1:10" ht="38" customHeight="1">
       <c r="A59" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B59" s="8">
         <v>45053.083333333336</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>230</v>
@@ -11623,7 +11631,7 @@
         <v>71</v>
       </c>
       <c r="H59" s="33" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="10" t="s">
@@ -11632,16 +11640,16 @@
     </row>
     <row r="60" spans="1:10" ht="38" customHeight="1">
       <c r="A60" s="63" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B60" s="64">
         <v>45053.583333333336</v>
       </c>
       <c r="C60" s="63" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D60" s="63" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E60" s="65" t="s">
         <v>242</v>
@@ -11653,7 +11661,7 @@
         <v>178</v>
       </c>
       <c r="H60" s="66" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I60" s="63"/>
       <c r="J60" s="65" t="s">
@@ -11662,16 +11670,16 @@
     </row>
     <row r="61" spans="1:10" ht="60" customHeight="1">
       <c r="A61" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B61" s="14">
         <v>45053.625</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>257</v>
@@ -11683,7 +11691,7 @@
         <v>178</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="16" t="s">
@@ -11692,16 +11700,16 @@
     </row>
     <row r="62" spans="1:10" ht="66" customHeight="1">
       <c r="A62" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B62" s="14">
         <v>45053.895833333336</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>257</v>
@@ -11713,7 +11721,7 @@
         <v>178</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="16" t="s">
@@ -11722,16 +11730,16 @@
     </row>
     <row r="63" spans="1:10" ht="62" customHeight="1">
       <c r="A63" s="17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B63" s="14">
         <v>45053.916666666664</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>230</v>
@@ -11743,7 +11751,7 @@
         <v>178</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I63" s="17"/>
       <c r="J63" s="16" t="s">
@@ -11752,19 +11760,19 @@
     </row>
     <row r="64" spans="1:10" ht="38" customHeight="1">
       <c r="A64" s="17" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B64" s="14">
         <v>45054.75</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D64" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>443</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>445</v>
       </c>
       <c r="F64" s="16" t="s">
         <v>245</v>
@@ -11773,7 +11781,7 @@
         <v>178</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I64" s="17"/>
       <c r="J64" s="16" t="s">
@@ -11782,16 +11790,16 @@
     </row>
     <row r="65" spans="1:10" ht="38" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B65" s="14">
         <v>45054.791666666664</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>287</v>
@@ -11803,7 +11811,7 @@
         <v>71</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I65" s="17"/>
       <c r="J65" s="16" t="s">
@@ -11812,16 +11820,16 @@
     </row>
     <row r="66" spans="1:10" ht="38" customHeight="1">
       <c r="A66" s="17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B66" s="14">
         <v>45054.875</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>287</v>
@@ -11831,140 +11839,158 @@
         <v>71</v>
       </c>
       <c r="H66" s="28" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I66" s="17"/>
       <c r="J66" s="16"/>
     </row>
     <row r="67" spans="1:10" ht="70" customHeight="1">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B67" s="8">
+        <v>45054.916666666664</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H67" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="I67" s="11"/>
+      <c r="J67" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="53" customHeight="1">
+      <c r="A68" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B68" s="8">
+        <v>45054.916666666664</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="B67" s="14">
+      <c r="E68" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H68" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="I68" s="11"/>
+      <c r="J68" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="62" customHeight="1">
+      <c r="A69" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="B69" s="8">
         <v>45054.916666666664</v>
       </c>
-      <c r="C67" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="D67" s="17" t="s">
+      <c r="C69" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H69" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="E67" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16" t="s">
+      <c r="I69" s="11"/>
+      <c r="J69" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="H67" s="28" t="s">
-        <v>457</v>
-      </c>
-      <c r="I67" s="17"/>
-      <c r="J67" s="16"/>
-    </row>
-    <row r="68" spans="1:10" ht="53" customHeight="1">
-      <c r="A68" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="B68" s="14">
-        <v>45054.916666666664</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H68" s="28" t="s">
-        <v>460</v>
-      </c>
-      <c r="I68" s="17"/>
-      <c r="J68" s="16"/>
-    </row>
-    <row r="69" spans="1:10" ht="62" customHeight="1">
-      <c r="A69" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="B69" s="14">
-        <v>45054.916666666664</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="H69" s="28" t="s">
-        <v>462</v>
-      </c>
-      <c r="I69" s="17"/>
-      <c r="J69" s="16"/>
     </row>
     <row r="70" spans="1:10" ht="38" customHeight="1">
       <c r="A70" s="17" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B70" s="14">
         <v>45054.916666666664</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F70" s="16"/>
+      <c r="F70" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="G70" s="16" t="s">
         <v>71</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="I70" s="17"/>
       <c r="J70" s="16"/>
     </row>
     <row r="71" spans="1:10" ht="38" customHeight="1">
-      <c r="A71" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="B71" s="14">
+      <c r="A71" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="B71" s="8">
         <v>45054.916666666664</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="D71" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="E71" s="16" t="s">
+      <c r="D71" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="E71" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16" t="s">
+      <c r="F71" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G71" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="H71" s="28" t="s">
-        <v>470</v>
-      </c>
-      <c r="I71" s="17"/>
-      <c r="J71" s="16"/>
+      <c r="H71" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="I71" s="11"/>
+      <c r="J71" s="10" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="72" spans="1:10" ht="38" customHeight="1">
       <c r="A72" s="17"/>
@@ -17183,8 +17209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5BD41-F360-D64B-BA12-0F85656DC41E}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.6640625" defaultRowHeight="50" customHeight="1"/>
@@ -17894,21 +17920,21 @@
     </row>
     <row r="30" spans="1:8" ht="50" customHeight="1">
       <c r="A30" s="43" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B30" s="49">
         <v>45051.770833333336</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>398</v>
+        <v>469</v>
       </c>
       <c r="D30" s="59" t="s">
-        <v>399</v>
+        <v>470</v>
       </c>
       <c r="E30" s="46"/>
       <c r="F30" s="61"/>
       <c r="G30" s="48" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H30" s="26"/>
     </row>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ABDDB0-2DD5-BC41-B7B3-45CE29EA3FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1449F1-800E-FD4B-9DAC-12D657E9375E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="483">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9010,6 +9010,81 @@
   <si>
     <t xml:space="preserve">亚盘全网盘口:赢=2,输=0,走=0,赢盘概率最大,为100.00%
 比分概率前三分别是：[2:0](2次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挪超第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮</t>
+    </r>
+  </si>
+  <si>
+    <t>布兰</t>
+  </si>
+  <si>
+    <t>桑纳菲尤尔</t>
+  </si>
+  <si>
+    <t>升盘3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初盘-1.500, 即时盘-2.250</t>
+  </si>
+  <si>
+    <t>23瑞典超第7轮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=72,输=64,走=0,赢盘概率最大,为52.94%
+亚盘本联赛盘口:赢=5,输=1,走=0,赢盘概率最大,为83.33%
+比分概率前三分别是：[1:1](20次)     [0:1](17次)     [1:2](14次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23塞甲联第34轮</t>
+  </si>
+  <si>
+    <t>沃日多瓦茨</t>
+  </si>
+  <si>
+    <t>贝尔格莱德红星</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=0,输=2,走=0,输盘概率最大,为100.00%
+亚盘本联赛盘口:赢=0,输=1,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[2:5](1次)     [1:4](1次)     </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9840,7 +9915,7 @@
   <dimension ref="A1:J390"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="38" customHeight="1"/>
@@ -11967,26 +12042,54 @@
       <c r="J71" s="16"/>
     </row>
     <row r="72" spans="1:10" ht="38" customHeight="1">
-      <c r="A72" s="17"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="16"/>
+      <c r="A72" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B72" s="14">
+        <v>45055.041666666664</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>287</v>
+      </c>
       <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="28"/>
+      <c r="G72" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H72" s="28" t="s">
+        <v>477</v>
+      </c>
       <c r="I72" s="17"/>
       <c r="J72" s="16"/>
     </row>
     <row r="73" spans="1:10" ht="38" customHeight="1">
-      <c r="A73" s="17"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="16"/>
+      <c r="A73" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="B73" s="14">
+        <v>45055.041666666664</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>481</v>
+      </c>
       <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="28"/>
+      <c r="G73" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H73" s="28" t="s">
+        <v>482</v>
+      </c>
       <c r="I73" s="17"/>
       <c r="J73" s="16"/>
     </row>
@@ -17183,8 +17286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5BD41-F360-D64B-BA12-0F85656DC41E}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.6640625" defaultRowHeight="50" customHeight="1"/>
@@ -17913,13 +18016,25 @@
       <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:8" ht="50" customHeight="1">
-      <c r="A31" s="43"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
+      <c r="A31" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="B31" s="49">
+        <v>45055.041666666664</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>472</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>473</v>
+      </c>
       <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="48"/>
+      <c r="F31" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>475</v>
+      </c>
       <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:8" ht="50" customHeight="1">

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB909B1A-3CD9-D942-8D80-45354D7707A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5502757A-D36E-924F-8B21-F98FDA4944D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29860" windowHeight="19180" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
   <sheets>
     <sheet name="让球匹配" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="490">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9093,6 +9093,33 @@
   </si>
   <si>
     <t>初盘-1.500, 即时盘-2.250，升盘3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23K1联赛第12轮</t>
+  </si>
+  <si>
+    <t>大邱FC</t>
+  </si>
+  <si>
+    <t>浦项制铁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=34,输=18,走=0,赢盘概率最大,为65.38%
+亚盘本联赛盘口:赢=1,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:0](8次)     [1:1](7次)     [0:1](6次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首尔FC</t>
+  </si>
+  <si>
+    <t>光州FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=43,输=78,走=0,输盘概率最大,为64.46%
+亚盘本联赛盘口:赢=1,输=2,走=0,输盘概率最大,为66.67%
+比分概率前三分别是：[1:1](15次)     [0:0](15次)     [0:1](14次)    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9922,11 +9949,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J390"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="38" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="39" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="25.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
@@ -9939,7 +9966,7 @@
     <col min="10" max="16384" width="17.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="38" customHeight="1">
+    <row r="1" spans="1:10" ht="39" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -9971,7 +9998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="109" customHeight="1">
+    <row r="2" spans="1:10" ht="39" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -10001,7 +10028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="133" customHeight="1">
+    <row r="3" spans="1:10" ht="39" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
@@ -10031,7 +10058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="38" customHeight="1">
+    <row r="4" spans="1:10" ht="39" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -10063,7 +10090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="38" customHeight="1">
+    <row r="5" spans="1:10" ht="39" customHeight="1">
       <c r="A5" s="21" t="s">
         <v>27</v>
       </c>
@@ -10093,7 +10120,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="158" customHeight="1">
+    <row r="6" spans="1:10" ht="39" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
@@ -10121,7 +10148,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:10" ht="169" customHeight="1">
+    <row r="7" spans="1:10" ht="39" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>88</v>
       </c>
@@ -10153,7 +10180,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="127" customHeight="1">
+    <row r="8" spans="1:10" ht="39" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
@@ -10183,7 +10210,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="99" customHeight="1">
+    <row r="9" spans="1:10" ht="39" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>91</v>
       </c>
@@ -10213,7 +10240,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="38" customHeight="1">
+    <row r="10" spans="1:10" ht="39" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>103</v>
       </c>
@@ -10243,7 +10270,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="38" customHeight="1">
+    <row r="11" spans="1:10" ht="39" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>72</v>
       </c>
@@ -10273,7 +10300,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="88" customHeight="1">
+    <row r="12" spans="1:10" ht="39" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>110</v>
       </c>
@@ -10303,7 +10330,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="38" customHeight="1">
+    <row r="13" spans="1:10" ht="39" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>110</v>
       </c>
@@ -10333,7 +10360,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="128" customHeight="1">
+    <row r="14" spans="1:10" ht="39" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>118</v>
       </c>
@@ -10363,7 +10390,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="103" customHeight="1">
+    <row r="15" spans="1:10" ht="39" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>110</v>
       </c>
@@ -10393,7 +10420,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="150" customHeight="1">
+    <row r="16" spans="1:10" ht="39" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>125</v>
       </c>
@@ -10425,7 +10452,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="136" customHeight="1">
+    <row r="17" spans="1:10" ht="39" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>86</v>
       </c>
@@ -10455,7 +10482,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="168" customHeight="1">
+    <row r="18" spans="1:10" ht="39" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>151</v>
       </c>
@@ -10485,7 +10512,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="38" customHeight="1">
+    <row r="19" spans="1:10" ht="39" customHeight="1">
       <c r="A19" s="17" t="s">
         <v>156</v>
       </c>
@@ -10515,7 +10542,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="92" customHeight="1">
+    <row r="20" spans="1:10" ht="39" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>163</v>
       </c>
@@ -10545,7 +10572,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="94" customHeight="1">
+    <row r="21" spans="1:10" ht="39" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>171</v>
       </c>
@@ -10575,7 +10602,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="47" customHeight="1">
+    <row r="22" spans="1:10" ht="39" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>175</v>
       </c>
@@ -10605,7 +10632,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="96" customHeight="1">
+    <row r="23" spans="1:10" ht="39" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>180</v>
       </c>
@@ -10633,7 +10660,7 @@
       <c r="I23" s="26"/>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="1:10" ht="38" customHeight="1">
+    <row r="24" spans="1:10" ht="39" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>193</v>
       </c>
@@ -10663,7 +10690,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="67" customHeight="1">
+    <row r="25" spans="1:10" ht="39" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>197</v>
       </c>
@@ -10693,7 +10720,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="78" customHeight="1">
+    <row r="26" spans="1:10" ht="39" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>244</v>
       </c>
@@ -10723,7 +10750,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="38" customHeight="1">
+    <row r="27" spans="1:10" ht="39" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>223</v>
       </c>
@@ -10753,7 +10780,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="38" customHeight="1">
+    <row r="28" spans="1:10" ht="39" customHeight="1">
       <c r="A28" s="17" t="s">
         <v>218</v>
       </c>
@@ -10783,7 +10810,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="38" customHeight="1">
+    <row r="29" spans="1:10" ht="39" customHeight="1">
       <c r="A29" s="17" t="s">
         <v>232</v>
       </c>
@@ -10813,7 +10840,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="38" customHeight="1">
+    <row r="30" spans="1:10" ht="39" customHeight="1">
       <c r="A30" s="17" t="s">
         <v>236</v>
       </c>
@@ -10843,7 +10870,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="168" customHeight="1">
+    <row r="31" spans="1:10" ht="39" customHeight="1">
       <c r="A31" s="63" t="s">
         <v>213</v>
       </c>
@@ -10873,7 +10900,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="66" customHeight="1">
+    <row r="32" spans="1:10" ht="39" customHeight="1">
       <c r="A32" s="17" t="s">
         <v>250</v>
       </c>
@@ -10903,7 +10930,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="57" customHeight="1">
+    <row r="33" spans="1:10" ht="39" customHeight="1">
       <c r="A33" s="17" t="s">
         <v>254</v>
       </c>
@@ -10933,7 +10960,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="38" customHeight="1">
+    <row r="34" spans="1:10" ht="39" customHeight="1">
       <c r="A34" s="17" t="s">
         <v>260</v>
       </c>
@@ -10963,7 +10990,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="85" customHeight="1">
+    <row r="35" spans="1:10" ht="39" customHeight="1">
       <c r="A35" s="63" t="s">
         <v>264</v>
       </c>
@@ -10993,7 +11020,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="38" customHeight="1">
+    <row r="36" spans="1:10" ht="39" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>267</v>
       </c>
@@ -11023,7 +11050,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="38" customHeight="1">
+    <row r="37" spans="1:10" ht="39" customHeight="1">
       <c r="A37" s="17" t="s">
         <v>278</v>
       </c>
@@ -11053,7 +11080,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="38" customHeight="1">
+    <row r="38" spans="1:10" ht="39" customHeight="1">
       <c r="A38" s="17" t="s">
         <v>281</v>
       </c>
@@ -11083,7 +11110,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="38" customHeight="1">
+    <row r="39" spans="1:10" ht="39" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>281</v>
       </c>
@@ -11113,7 +11140,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="93" customHeight="1">
+    <row r="40" spans="1:10" ht="39" customHeight="1">
       <c r="A40" s="17" t="s">
         <v>374</v>
       </c>
@@ -11143,7 +11170,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="38" customHeight="1">
+    <row r="41" spans="1:10" ht="39" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>375</v>
       </c>
@@ -11173,7 +11200,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="79" customHeight="1">
+    <row r="42" spans="1:10" ht="39" customHeight="1">
       <c r="A42" s="17" t="s">
         <v>376</v>
       </c>
@@ -11203,7 +11230,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="38" customHeight="1">
+    <row r="43" spans="1:10" ht="39" customHeight="1">
       <c r="A43" s="63" t="s">
         <v>310</v>
       </c>
@@ -11233,7 +11260,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="90" customHeight="1">
+    <row r="44" spans="1:10" ht="39" customHeight="1">
       <c r="A44" s="11" t="s">
         <v>310</v>
       </c>
@@ -11263,7 +11290,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="67" customHeight="1">
+    <row r="45" spans="1:10" ht="39" customHeight="1">
       <c r="A45" s="11" t="s">
         <v>378</v>
       </c>
@@ -11293,7 +11320,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="38" customHeight="1">
+    <row r="46" spans="1:10" ht="39" customHeight="1">
       <c r="A46" s="11" t="s">
         <v>379</v>
       </c>
@@ -11323,7 +11350,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="38" customHeight="1">
+    <row r="47" spans="1:10" ht="39" customHeight="1">
       <c r="A47" s="11" t="s">
         <v>375</v>
       </c>
@@ -11353,7 +11380,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="38" customHeight="1">
+    <row r="48" spans="1:10" ht="39" customHeight="1">
       <c r="A48" s="11" t="s">
         <v>306</v>
       </c>
@@ -11383,7 +11410,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="38" customHeight="1">
+    <row r="49" spans="1:10" ht="39" customHeight="1">
       <c r="A49" s="11" t="s">
         <v>381</v>
       </c>
@@ -11413,7 +11440,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="38" customHeight="1">
+    <row r="50" spans="1:10" ht="39" customHeight="1">
       <c r="A50" s="17" t="s">
         <v>382</v>
       </c>
@@ -11443,7 +11470,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="38" customHeight="1">
+    <row r="51" spans="1:10" ht="39" customHeight="1">
       <c r="A51" s="11" t="s">
         <v>383</v>
       </c>
@@ -11473,7 +11500,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="38" customHeight="1">
+    <row r="52" spans="1:10" ht="39" customHeight="1">
       <c r="A52" s="17" t="s">
         <v>385</v>
       </c>
@@ -11503,7 +11530,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="38" customHeight="1">
+    <row r="53" spans="1:10" ht="39" customHeight="1">
       <c r="A53" s="11" t="s">
         <v>387</v>
       </c>
@@ -11533,7 +11560,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="76" customHeight="1">
+    <row r="54" spans="1:10" ht="39" customHeight="1">
       <c r="A54" s="21" t="s">
         <v>415</v>
       </c>
@@ -11563,7 +11590,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="73" customHeight="1">
+    <row r="55" spans="1:10" ht="39" customHeight="1">
       <c r="A55" s="11" t="s">
         <v>417</v>
       </c>
@@ -11593,7 +11620,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="72" customHeight="1">
+    <row r="56" spans="1:10" ht="39" customHeight="1">
       <c r="A56" s="17" t="s">
         <v>419</v>
       </c>
@@ -11623,7 +11650,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="38" customHeight="1">
+    <row r="57" spans="1:10" ht="39" customHeight="1">
       <c r="A57" s="11" t="s">
         <v>420</v>
       </c>
@@ -11653,7 +11680,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="38" customHeight="1">
+    <row r="58" spans="1:10" ht="39" customHeight="1">
       <c r="A58" s="11" t="s">
         <v>422</v>
       </c>
@@ -11683,7 +11710,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="38" customHeight="1">
+    <row r="59" spans="1:10" ht="39" customHeight="1">
       <c r="A59" s="11" t="s">
         <v>424</v>
       </c>
@@ -11713,7 +11740,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="38" customHeight="1">
+    <row r="60" spans="1:10" ht="39" customHeight="1">
       <c r="A60" s="63" t="s">
         <v>426</v>
       </c>
@@ -11743,7 +11770,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="60" customHeight="1">
+    <row r="61" spans="1:10" ht="39" customHeight="1">
       <c r="A61" s="17" t="s">
         <v>428</v>
       </c>
@@ -11773,7 +11800,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="66" customHeight="1">
+    <row r="62" spans="1:10" ht="39" customHeight="1">
       <c r="A62" s="17" t="s">
         <v>430</v>
       </c>
@@ -11803,7 +11830,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="62" customHeight="1">
+    <row r="63" spans="1:10" ht="39" customHeight="1">
       <c r="A63" s="17" t="s">
         <v>432</v>
       </c>
@@ -11833,7 +11860,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="38" customHeight="1">
+    <row r="64" spans="1:10" ht="39" customHeight="1">
       <c r="A64" s="17" t="s">
         <v>453</v>
       </c>
@@ -11863,7 +11890,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="38" customHeight="1">
+    <row r="65" spans="1:10" ht="39" customHeight="1">
       <c r="A65" s="17" t="s">
         <v>453</v>
       </c>
@@ -11893,7 +11920,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="38" customHeight="1">
+    <row r="66" spans="1:10" ht="39" customHeight="1">
       <c r="A66" s="17" t="s">
         <v>449</v>
       </c>
@@ -11919,7 +11946,7 @@
       <c r="I66" s="17"/>
       <c r="J66" s="16"/>
     </row>
-    <row r="67" spans="1:10" ht="70" customHeight="1">
+    <row r="67" spans="1:10" ht="39" customHeight="1">
       <c r="A67" s="11" t="s">
         <v>454</v>
       </c>
@@ -11949,7 +11976,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="53" customHeight="1">
+    <row r="68" spans="1:10" ht="39" customHeight="1">
       <c r="A68" s="11" t="s">
         <v>454</v>
       </c>
@@ -11979,7 +12006,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="62" customHeight="1">
+    <row r="69" spans="1:10" ht="39" customHeight="1">
       <c r="A69" s="11" t="s">
         <v>454</v>
       </c>
@@ -12009,7 +12036,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="38" customHeight="1">
+    <row r="70" spans="1:10" ht="39" customHeight="1">
       <c r="A70" s="17" t="s">
         <v>460</v>
       </c>
@@ -12037,7 +12064,7 @@
       <c r="I70" s="17"/>
       <c r="J70" s="16"/>
     </row>
-    <row r="71" spans="1:10" ht="38" customHeight="1">
+    <row r="71" spans="1:10" ht="39" customHeight="1">
       <c r="A71" s="11" t="s">
         <v>463</v>
       </c>
@@ -12067,7 +12094,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="38" customHeight="1">
+    <row r="72" spans="1:10" ht="39" customHeight="1">
       <c r="A72" s="17" t="s">
         <v>469</v>
       </c>
@@ -12097,7 +12124,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="38" customHeight="1">
+    <row r="73" spans="1:10" ht="39" customHeight="1">
       <c r="A73" s="63" t="s">
         <v>471</v>
       </c>
@@ -12127,31 +12154,67 @@
         <v>271</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="38" customHeight="1">
-      <c r="A74" s="17"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="16"/>
-    </row>
-    <row r="75" spans="1:10" ht="38" customHeight="1">
-      <c r="A75" s="17"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="28"/>
+    <row r="74" spans="1:10" ht="39" customHeight="1">
+      <c r="A74" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="B74" s="22">
+        <v>45055.770833333336</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H74" s="71" t="s">
+        <v>486</v>
+      </c>
+      <c r="I74" s="21"/>
+      <c r="J74" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="39" customHeight="1">
+      <c r="A75" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="B75" s="14">
+        <v>45055.770833333336</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H75" s="28" t="s">
+        <v>489</v>
+      </c>
       <c r="I75" s="17"/>
-      <c r="J75" s="16"/>
-    </row>
-    <row r="76" spans="1:10" ht="38" customHeight="1">
+      <c r="J75" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="39" customHeight="1">
       <c r="A76" s="17"/>
       <c r="B76" s="14"/>
       <c r="C76" s="17"/>
@@ -12163,7 +12226,7 @@
       <c r="I76" s="17"/>
       <c r="J76" s="16"/>
     </row>
-    <row r="77" spans="1:10" ht="38" customHeight="1">
+    <row r="77" spans="1:10" ht="39" customHeight="1">
       <c r="A77" s="17"/>
       <c r="B77" s="14"/>
       <c r="C77" s="17"/>
@@ -12175,7 +12238,7 @@
       <c r="I77" s="17"/>
       <c r="J77" s="16"/>
     </row>
-    <row r="78" spans="1:10" ht="38" customHeight="1">
+    <row r="78" spans="1:10" ht="39" customHeight="1">
       <c r="A78" s="17"/>
       <c r="B78" s="14"/>
       <c r="C78" s="17"/>
@@ -12187,7 +12250,7 @@
       <c r="I78" s="17"/>
       <c r="J78" s="16"/>
     </row>
-    <row r="79" spans="1:10" ht="38" customHeight="1">
+    <row r="79" spans="1:10" ht="39" customHeight="1">
       <c r="A79" s="17"/>
       <c r="B79" s="14"/>
       <c r="C79" s="17"/>
@@ -12199,7 +12262,7 @@
       <c r="I79" s="17"/>
       <c r="J79" s="16"/>
     </row>
-    <row r="80" spans="1:10" ht="38" customHeight="1">
+    <row r="80" spans="1:10" ht="39" customHeight="1">
       <c r="A80" s="17"/>
       <c r="B80" s="14"/>
       <c r="C80" s="17"/>
@@ -12211,7 +12274,7 @@
       <c r="I80" s="17"/>
       <c r="J80" s="16"/>
     </row>
-    <row r="81" spans="1:10" ht="38" customHeight="1">
+    <row r="81" spans="1:10" ht="39" customHeight="1">
       <c r="A81" s="17"/>
       <c r="B81" s="14"/>
       <c r="C81" s="17"/>
@@ -12223,7 +12286,7 @@
       <c r="I81" s="17"/>
       <c r="J81" s="16"/>
     </row>
-    <row r="82" spans="1:10" ht="38" customHeight="1">
+    <row r="82" spans="1:10" ht="39" customHeight="1">
       <c r="A82" s="17"/>
       <c r="B82" s="14"/>
       <c r="C82" s="17"/>
@@ -12235,7 +12298,7 @@
       <c r="I82" s="17"/>
       <c r="J82" s="16"/>
     </row>
-    <row r="83" spans="1:10" ht="38" customHeight="1">
+    <row r="83" spans="1:10" ht="39" customHeight="1">
       <c r="A83" s="17"/>
       <c r="B83" s="14"/>
       <c r="C83" s="17"/>
@@ -12247,7 +12310,7 @@
       <c r="I83" s="17"/>
       <c r="J83" s="16"/>
     </row>
-    <row r="84" spans="1:10" ht="38" customHeight="1">
+    <row r="84" spans="1:10" ht="39" customHeight="1">
       <c r="A84" s="17"/>
       <c r="B84" s="14"/>
       <c r="C84" s="17"/>
@@ -12259,7 +12322,7 @@
       <c r="I84" s="17"/>
       <c r="J84" s="16"/>
     </row>
-    <row r="85" spans="1:10" ht="38" customHeight="1">
+    <row r="85" spans="1:10" ht="39" customHeight="1">
       <c r="A85" s="17"/>
       <c r="B85" s="14"/>
       <c r="C85" s="17"/>
@@ -12271,7 +12334,7 @@
       <c r="I85" s="17"/>
       <c r="J85" s="16"/>
     </row>
-    <row r="86" spans="1:10" ht="38" customHeight="1">
+    <row r="86" spans="1:10" ht="39" customHeight="1">
       <c r="A86" s="17"/>
       <c r="B86" s="14"/>
       <c r="C86" s="17"/>
@@ -12283,7 +12346,7 @@
       <c r="I86" s="17"/>
       <c r="J86" s="16"/>
     </row>
-    <row r="87" spans="1:10" ht="38" customHeight="1">
+    <row r="87" spans="1:10" ht="39" customHeight="1">
       <c r="A87" s="17"/>
       <c r="B87" s="14"/>
       <c r="C87" s="17"/>
@@ -12295,7 +12358,7 @@
       <c r="I87" s="17"/>
       <c r="J87" s="16"/>
     </row>
-    <row r="88" spans="1:10" ht="38" customHeight="1">
+    <row r="88" spans="1:10" ht="39" customHeight="1">
       <c r="A88" s="17"/>
       <c r="B88" s="14"/>
       <c r="C88" s="17"/>
@@ -12307,7 +12370,7 @@
       <c r="I88" s="17"/>
       <c r="J88" s="16"/>
     </row>
-    <row r="89" spans="1:10" ht="38" customHeight="1">
+    <row r="89" spans="1:10" ht="39" customHeight="1">
       <c r="A89" s="17"/>
       <c r="B89" s="14"/>
       <c r="C89" s="17"/>
@@ -12319,7 +12382,7 @@
       <c r="I89" s="17"/>
       <c r="J89" s="16"/>
     </row>
-    <row r="90" spans="1:10" ht="38" customHeight="1">
+    <row r="90" spans="1:10" ht="39" customHeight="1">
       <c r="A90" s="17"/>
       <c r="B90" s="14"/>
       <c r="C90" s="17"/>
@@ -12331,7 +12394,7 @@
       <c r="I90" s="17"/>
       <c r="J90" s="16"/>
     </row>
-    <row r="91" spans="1:10" ht="38" customHeight="1">
+    <row r="91" spans="1:10" ht="39" customHeight="1">
       <c r="A91" s="17"/>
       <c r="B91" s="14"/>
       <c r="C91" s="17"/>
@@ -12343,7 +12406,7 @@
       <c r="I91" s="17"/>
       <c r="J91" s="16"/>
     </row>
-    <row r="92" spans="1:10" ht="38" customHeight="1">
+    <row r="92" spans="1:10" ht="39" customHeight="1">
       <c r="A92" s="17"/>
       <c r="B92" s="14"/>
       <c r="C92" s="17"/>
@@ -12355,7 +12418,7 @@
       <c r="I92" s="17"/>
       <c r="J92" s="16"/>
     </row>
-    <row r="93" spans="1:10" ht="38" customHeight="1">
+    <row r="93" spans="1:10" ht="39" customHeight="1">
       <c r="A93" s="17"/>
       <c r="B93" s="14"/>
       <c r="C93" s="17"/>
@@ -12367,7 +12430,7 @@
       <c r="I93" s="17"/>
       <c r="J93" s="16"/>
     </row>
-    <row r="94" spans="1:10" ht="38" customHeight="1">
+    <row r="94" spans="1:10" ht="39" customHeight="1">
       <c r="A94" s="17"/>
       <c r="B94" s="14"/>
       <c r="C94" s="17"/>
@@ -12379,7 +12442,7 @@
       <c r="I94" s="17"/>
       <c r="J94" s="16"/>
     </row>
-    <row r="95" spans="1:10" ht="38" customHeight="1">
+    <row r="95" spans="1:10" ht="39" customHeight="1">
       <c r="A95" s="17"/>
       <c r="B95" s="14"/>
       <c r="C95" s="17"/>
@@ -12391,7 +12454,7 @@
       <c r="I95" s="17"/>
       <c r="J95" s="16"/>
     </row>
-    <row r="96" spans="1:10" ht="38" customHeight="1">
+    <row r="96" spans="1:10" ht="39" customHeight="1">
       <c r="A96" s="17"/>
       <c r="B96" s="14"/>
       <c r="C96" s="17"/>
@@ -12403,7 +12466,7 @@
       <c r="I96" s="17"/>
       <c r="J96" s="16"/>
     </row>
-    <row r="97" spans="1:10" ht="38" customHeight="1">
+    <row r="97" spans="1:10" ht="39" customHeight="1">
       <c r="A97" s="17"/>
       <c r="B97" s="14"/>
       <c r="C97" s="17"/>
@@ -12415,7 +12478,7 @@
       <c r="I97" s="17"/>
       <c r="J97" s="16"/>
     </row>
-    <row r="98" spans="1:10" ht="38" customHeight="1">
+    <row r="98" spans="1:10" ht="39" customHeight="1">
       <c r="A98" s="17"/>
       <c r="B98" s="14"/>
       <c r="C98" s="17"/>
@@ -12427,7 +12490,7 @@
       <c r="I98" s="17"/>
       <c r="J98" s="16"/>
     </row>
-    <row r="99" spans="1:10" ht="38" customHeight="1">
+    <row r="99" spans="1:10" ht="39" customHeight="1">
       <c r="A99" s="17"/>
       <c r="B99" s="14"/>
       <c r="C99" s="17"/>
@@ -12439,7 +12502,7 @@
       <c r="I99" s="17"/>
       <c r="J99" s="16"/>
     </row>
-    <row r="100" spans="1:10" ht="38" customHeight="1">
+    <row r="100" spans="1:10" ht="39" customHeight="1">
       <c r="A100" s="17"/>
       <c r="B100" s="14"/>
       <c r="C100" s="17"/>
@@ -12451,7 +12514,7 @@
       <c r="I100" s="17"/>
       <c r="J100" s="16"/>
     </row>
-    <row r="101" spans="1:10" ht="38" customHeight="1">
+    <row r="101" spans="1:10" ht="39" customHeight="1">
       <c r="A101" s="17"/>
       <c r="B101" s="14"/>
       <c r="C101" s="17"/>
@@ -12463,7 +12526,7 @@
       <c r="I101" s="17"/>
       <c r="J101" s="16"/>
     </row>
-    <row r="102" spans="1:10" ht="38" customHeight="1">
+    <row r="102" spans="1:10" ht="39" customHeight="1">
       <c r="A102" s="17"/>
       <c r="B102" s="14"/>
       <c r="C102" s="17"/>
@@ -12475,7 +12538,7 @@
       <c r="I102" s="17"/>
       <c r="J102" s="16"/>
     </row>
-    <row r="103" spans="1:10" ht="38" customHeight="1">
+    <row r="103" spans="1:10" ht="39" customHeight="1">
       <c r="A103" s="17"/>
       <c r="B103" s="14"/>
       <c r="C103" s="17"/>
@@ -12487,7 +12550,7 @@
       <c r="I103" s="17"/>
       <c r="J103" s="16"/>
     </row>
-    <row r="104" spans="1:10" ht="38" customHeight="1">
+    <row r="104" spans="1:10" ht="39" customHeight="1">
       <c r="A104" s="17"/>
       <c r="B104" s="14"/>
       <c r="C104" s="17"/>
@@ -12499,7 +12562,7 @@
       <c r="I104" s="17"/>
       <c r="J104" s="16"/>
     </row>
-    <row r="105" spans="1:10" ht="38" customHeight="1">
+    <row r="105" spans="1:10" ht="39" customHeight="1">
       <c r="A105" s="17"/>
       <c r="B105" s="14"/>
       <c r="C105" s="17"/>
@@ -12511,7 +12574,7 @@
       <c r="I105" s="17"/>
       <c r="J105" s="16"/>
     </row>
-    <row r="106" spans="1:10" ht="38" customHeight="1">
+    <row r="106" spans="1:10" ht="39" customHeight="1">
       <c r="A106" s="17"/>
       <c r="B106" s="14"/>
       <c r="C106" s="17"/>
@@ -12523,7 +12586,7 @@
       <c r="I106" s="17"/>
       <c r="J106" s="16"/>
     </row>
-    <row r="107" spans="1:10" ht="38" customHeight="1">
+    <row r="107" spans="1:10" ht="39" customHeight="1">
       <c r="A107" s="17"/>
       <c r="B107" s="14"/>
       <c r="C107" s="17"/>
@@ -12535,7 +12598,7 @@
       <c r="I107" s="17"/>
       <c r="J107" s="16"/>
     </row>
-    <row r="108" spans="1:10" ht="38" customHeight="1">
+    <row r="108" spans="1:10" ht="39" customHeight="1">
       <c r="A108" s="17"/>
       <c r="B108" s="14"/>
       <c r="C108" s="17"/>
@@ -12547,7 +12610,7 @@
       <c r="I108" s="17"/>
       <c r="J108" s="16"/>
     </row>
-    <row r="109" spans="1:10" ht="38" customHeight="1">
+    <row r="109" spans="1:10" ht="39" customHeight="1">
       <c r="A109" s="17"/>
       <c r="B109" s="14"/>
       <c r="C109" s="17"/>
@@ -12559,7 +12622,7 @@
       <c r="I109" s="17"/>
       <c r="J109" s="16"/>
     </row>
-    <row r="110" spans="1:10" ht="38" customHeight="1">
+    <row r="110" spans="1:10" ht="39" customHeight="1">
       <c r="A110" s="17"/>
       <c r="B110" s="14"/>
       <c r="C110" s="17"/>
@@ -12571,7 +12634,7 @@
       <c r="I110" s="17"/>
       <c r="J110" s="16"/>
     </row>
-    <row r="111" spans="1:10" ht="38" customHeight="1">
+    <row r="111" spans="1:10" ht="39" customHeight="1">
       <c r="A111" s="17"/>
       <c r="B111" s="14"/>
       <c r="C111" s="17"/>
@@ -12583,7 +12646,7 @@
       <c r="I111" s="17"/>
       <c r="J111" s="16"/>
     </row>
-    <row r="112" spans="1:10" ht="38" customHeight="1">
+    <row r="112" spans="1:10" ht="39" customHeight="1">
       <c r="A112" s="17"/>
       <c r="B112" s="14"/>
       <c r="C112" s="17"/>
@@ -12595,7 +12658,7 @@
       <c r="I112" s="17"/>
       <c r="J112" s="16"/>
     </row>
-    <row r="113" spans="1:10" ht="38" customHeight="1">
+    <row r="113" spans="1:10" ht="39" customHeight="1">
       <c r="A113" s="17"/>
       <c r="B113" s="14"/>
       <c r="C113" s="17"/>
@@ -12607,7 +12670,7 @@
       <c r="I113" s="17"/>
       <c r="J113" s="16"/>
     </row>
-    <row r="114" spans="1:10" ht="38" customHeight="1">
+    <row r="114" spans="1:10" ht="39" customHeight="1">
       <c r="A114" s="17"/>
       <c r="B114" s="14"/>
       <c r="C114" s="17"/>
@@ -12619,7 +12682,7 @@
       <c r="I114" s="17"/>
       <c r="J114" s="16"/>
     </row>
-    <row r="115" spans="1:10" ht="38" customHeight="1">
+    <row r="115" spans="1:10" ht="39" customHeight="1">
       <c r="A115" s="17"/>
       <c r="B115" s="14"/>
       <c r="C115" s="17"/>
@@ -12631,7 +12694,7 @@
       <c r="I115" s="17"/>
       <c r="J115" s="16"/>
     </row>
-    <row r="116" spans="1:10" ht="38" customHeight="1">
+    <row r="116" spans="1:10" ht="39" customHeight="1">
       <c r="A116" s="17"/>
       <c r="B116" s="14"/>
       <c r="C116" s="17"/>
@@ -12643,7 +12706,7 @@
       <c r="I116" s="17"/>
       <c r="J116" s="16"/>
     </row>
-    <row r="117" spans="1:10" ht="38" customHeight="1">
+    <row r="117" spans="1:10" ht="39" customHeight="1">
       <c r="A117" s="17"/>
       <c r="B117" s="14"/>
       <c r="C117" s="17"/>
@@ -12655,7 +12718,7 @@
       <c r="I117" s="17"/>
       <c r="J117" s="16"/>
     </row>
-    <row r="118" spans="1:10" ht="38" customHeight="1">
+    <row r="118" spans="1:10" ht="39" customHeight="1">
       <c r="A118" s="17"/>
       <c r="B118" s="14"/>
       <c r="C118" s="17"/>
@@ -12667,7 +12730,7 @@
       <c r="I118" s="17"/>
       <c r="J118" s="16"/>
     </row>
-    <row r="119" spans="1:10" ht="38" customHeight="1">
+    <row r="119" spans="1:10" ht="39" customHeight="1">
       <c r="A119" s="17"/>
       <c r="B119" s="14"/>
       <c r="C119" s="17"/>
@@ -12679,7 +12742,7 @@
       <c r="I119" s="17"/>
       <c r="J119" s="16"/>
     </row>
-    <row r="120" spans="1:10" ht="38" customHeight="1">
+    <row r="120" spans="1:10" ht="39" customHeight="1">
       <c r="A120" s="17"/>
       <c r="B120" s="14"/>
       <c r="C120" s="17"/>
@@ -12691,7 +12754,7 @@
       <c r="I120" s="17"/>
       <c r="J120" s="16"/>
     </row>
-    <row r="121" spans="1:10" ht="38" customHeight="1">
+    <row r="121" spans="1:10" ht="39" customHeight="1">
       <c r="A121" s="17"/>
       <c r="B121" s="14"/>
       <c r="C121" s="17"/>
@@ -12703,7 +12766,7 @@
       <c r="I121" s="17"/>
       <c r="J121" s="16"/>
     </row>
-    <row r="122" spans="1:10" ht="38" customHeight="1">
+    <row r="122" spans="1:10" ht="39" customHeight="1">
       <c r="A122" s="17"/>
       <c r="B122" s="14"/>
       <c r="C122" s="17"/>
@@ -12715,7 +12778,7 @@
       <c r="I122" s="17"/>
       <c r="J122" s="16"/>
     </row>
-    <row r="123" spans="1:10" ht="38" customHeight="1">
+    <row r="123" spans="1:10" ht="39" customHeight="1">
       <c r="A123" s="17"/>
       <c r="B123" s="14"/>
       <c r="C123" s="17"/>
@@ -12727,7 +12790,7 @@
       <c r="I123" s="17"/>
       <c r="J123" s="16"/>
     </row>
-    <row r="124" spans="1:10" ht="38" customHeight="1">
+    <row r="124" spans="1:10" ht="39" customHeight="1">
       <c r="A124" s="17"/>
       <c r="B124" s="14"/>
       <c r="C124" s="17"/>
@@ -12739,7 +12802,7 @@
       <c r="I124" s="17"/>
       <c r="J124" s="16"/>
     </row>
-    <row r="125" spans="1:10" ht="38" customHeight="1">
+    <row r="125" spans="1:10" ht="39" customHeight="1">
       <c r="A125" s="17"/>
       <c r="B125" s="14"/>
       <c r="C125" s="17"/>
@@ -12751,7 +12814,7 @@
       <c r="I125" s="17"/>
       <c r="J125" s="16"/>
     </row>
-    <row r="126" spans="1:10" ht="38" customHeight="1">
+    <row r="126" spans="1:10" ht="39" customHeight="1">
       <c r="A126" s="17"/>
       <c r="B126" s="14"/>
       <c r="C126" s="17"/>
@@ -12763,7 +12826,7 @@
       <c r="I126" s="17"/>
       <c r="J126" s="16"/>
     </row>
-    <row r="127" spans="1:10" ht="38" customHeight="1">
+    <row r="127" spans="1:10" ht="39" customHeight="1">
       <c r="A127" s="17"/>
       <c r="B127" s="14"/>
       <c r="C127" s="17"/>
@@ -12775,7 +12838,7 @@
       <c r="I127" s="17"/>
       <c r="J127" s="16"/>
     </row>
-    <row r="128" spans="1:10" ht="38" customHeight="1">
+    <row r="128" spans="1:10" ht="39" customHeight="1">
       <c r="A128" s="17"/>
       <c r="B128" s="14"/>
       <c r="C128" s="17"/>
@@ -12787,7 +12850,7 @@
       <c r="I128" s="17"/>
       <c r="J128" s="16"/>
     </row>
-    <row r="129" spans="1:10" ht="38" customHeight="1">
+    <row r="129" spans="1:10" ht="39" customHeight="1">
       <c r="A129" s="17"/>
       <c r="B129" s="14"/>
       <c r="C129" s="17"/>
@@ -12799,7 +12862,7 @@
       <c r="I129" s="17"/>
       <c r="J129" s="16"/>
     </row>
-    <row r="130" spans="1:10" ht="38" customHeight="1">
+    <row r="130" spans="1:10" ht="39" customHeight="1">
       <c r="A130" s="17"/>
       <c r="B130" s="14"/>
       <c r="C130" s="17"/>
@@ -12811,7 +12874,7 @@
       <c r="I130" s="17"/>
       <c r="J130" s="16"/>
     </row>
-    <row r="131" spans="1:10" ht="38" customHeight="1">
+    <row r="131" spans="1:10" ht="39" customHeight="1">
       <c r="A131" s="17"/>
       <c r="B131" s="14"/>
       <c r="C131" s="17"/>
@@ -12823,7 +12886,7 @@
       <c r="I131" s="17"/>
       <c r="J131" s="16"/>
     </row>
-    <row r="132" spans="1:10" ht="38" customHeight="1">
+    <row r="132" spans="1:10" ht="39" customHeight="1">
       <c r="A132" s="17"/>
       <c r="B132" s="14"/>
       <c r="C132" s="17"/>
@@ -12835,7 +12898,7 @@
       <c r="I132" s="17"/>
       <c r="J132" s="16"/>
     </row>
-    <row r="133" spans="1:10" ht="38" customHeight="1">
+    <row r="133" spans="1:10" ht="39" customHeight="1">
       <c r="A133" s="17"/>
       <c r="B133" s="14"/>
       <c r="C133" s="17"/>
@@ -12847,7 +12910,7 @@
       <c r="I133" s="17"/>
       <c r="J133" s="16"/>
     </row>
-    <row r="134" spans="1:10" ht="38" customHeight="1">
+    <row r="134" spans="1:10" ht="39" customHeight="1">
       <c r="A134" s="17"/>
       <c r="B134" s="14"/>
       <c r="C134" s="17"/>
@@ -12859,7 +12922,7 @@
       <c r="I134" s="17"/>
       <c r="J134" s="16"/>
     </row>
-    <row r="135" spans="1:10" ht="38" customHeight="1">
+    <row r="135" spans="1:10" ht="39" customHeight="1">
       <c r="A135" s="17"/>
       <c r="B135" s="14"/>
       <c r="C135" s="17"/>
@@ -12871,7 +12934,7 @@
       <c r="I135" s="17"/>
       <c r="J135" s="16"/>
     </row>
-    <row r="136" spans="1:10" ht="38" customHeight="1">
+    <row r="136" spans="1:10" ht="39" customHeight="1">
       <c r="A136" s="17"/>
       <c r="B136" s="14"/>
       <c r="C136" s="17"/>
@@ -12883,7 +12946,7 @@
       <c r="I136" s="17"/>
       <c r="J136" s="16"/>
     </row>
-    <row r="137" spans="1:10" ht="38" customHeight="1">
+    <row r="137" spans="1:10" ht="39" customHeight="1">
       <c r="A137" s="17"/>
       <c r="B137" s="14"/>
       <c r="C137" s="17"/>
@@ -12895,7 +12958,7 @@
       <c r="I137" s="17"/>
       <c r="J137" s="16"/>
     </row>
-    <row r="138" spans="1:10" ht="38" customHeight="1">
+    <row r="138" spans="1:10" ht="39" customHeight="1">
       <c r="A138" s="17"/>
       <c r="B138" s="14"/>
       <c r="C138" s="17"/>
@@ -12907,7 +12970,7 @@
       <c r="I138" s="17"/>
       <c r="J138" s="16"/>
     </row>
-    <row r="139" spans="1:10" ht="38" customHeight="1">
+    <row r="139" spans="1:10" ht="39" customHeight="1">
       <c r="A139" s="17"/>
       <c r="B139" s="14"/>
       <c r="C139" s="17"/>
@@ -12919,7 +12982,7 @@
       <c r="I139" s="17"/>
       <c r="J139" s="16"/>
     </row>
-    <row r="140" spans="1:10" ht="38" customHeight="1">
+    <row r="140" spans="1:10" ht="39" customHeight="1">
       <c r="A140" s="17"/>
       <c r="B140" s="14"/>
       <c r="C140" s="17"/>
@@ -12931,7 +12994,7 @@
       <c r="I140" s="17"/>
       <c r="J140" s="16"/>
     </row>
-    <row r="141" spans="1:10" ht="38" customHeight="1">
+    <row r="141" spans="1:10" ht="39" customHeight="1">
       <c r="A141" s="17"/>
       <c r="B141" s="14"/>
       <c r="C141" s="17"/>
@@ -12943,7 +13006,7 @@
       <c r="I141" s="17"/>
       <c r="J141" s="16"/>
     </row>
-    <row r="142" spans="1:10" ht="38" customHeight="1">
+    <row r="142" spans="1:10" ht="39" customHeight="1">
       <c r="A142" s="17"/>
       <c r="B142" s="14"/>
       <c r="C142" s="17"/>
@@ -12955,7 +13018,7 @@
       <c r="I142" s="17"/>
       <c r="J142" s="16"/>
     </row>
-    <row r="143" spans="1:10" ht="38" customHeight="1">
+    <row r="143" spans="1:10" ht="39" customHeight="1">
       <c r="A143" s="17"/>
       <c r="B143" s="14"/>
       <c r="C143" s="17"/>
@@ -12967,7 +13030,7 @@
       <c r="I143" s="17"/>
       <c r="J143" s="16"/>
     </row>
-    <row r="144" spans="1:10" ht="38" customHeight="1">
+    <row r="144" spans="1:10" ht="39" customHeight="1">
       <c r="A144" s="17"/>
       <c r="B144" s="14"/>
       <c r="C144" s="17"/>
@@ -12979,7 +13042,7 @@
       <c r="I144" s="17"/>
       <c r="J144" s="16"/>
     </row>
-    <row r="145" spans="1:10" ht="38" customHeight="1">
+    <row r="145" spans="1:10" ht="39" customHeight="1">
       <c r="A145" s="17"/>
       <c r="B145" s="14"/>
       <c r="C145" s="17"/>
@@ -12991,7 +13054,7 @@
       <c r="I145" s="17"/>
       <c r="J145" s="16"/>
     </row>
-    <row r="146" spans="1:10" ht="38" customHeight="1">
+    <row r="146" spans="1:10" ht="39" customHeight="1">
       <c r="A146" s="17"/>
       <c r="B146" s="14"/>
       <c r="C146" s="17"/>
@@ -13003,7 +13066,7 @@
       <c r="I146" s="17"/>
       <c r="J146" s="16"/>
     </row>
-    <row r="147" spans="1:10" ht="38" customHeight="1">
+    <row r="147" spans="1:10" ht="39" customHeight="1">
       <c r="A147" s="17"/>
       <c r="B147" s="14"/>
       <c r="C147" s="17"/>
@@ -13015,7 +13078,7 @@
       <c r="I147" s="17"/>
       <c r="J147" s="16"/>
     </row>
-    <row r="148" spans="1:10" ht="38" customHeight="1">
+    <row r="148" spans="1:10" ht="39" customHeight="1">
       <c r="A148" s="17"/>
       <c r="B148" s="14"/>
       <c r="C148" s="17"/>
@@ -13027,7 +13090,7 @@
       <c r="I148" s="17"/>
       <c r="J148" s="16"/>
     </row>
-    <row r="149" spans="1:10" ht="38" customHeight="1">
+    <row r="149" spans="1:10" ht="39" customHeight="1">
       <c r="A149" s="17"/>
       <c r="B149" s="14"/>
       <c r="C149" s="17"/>
@@ -13039,7 +13102,7 @@
       <c r="I149" s="17"/>
       <c r="J149" s="16"/>
     </row>
-    <row r="150" spans="1:10" ht="38" customHeight="1">
+    <row r="150" spans="1:10" ht="39" customHeight="1">
       <c r="A150" s="17"/>
       <c r="B150" s="14"/>
       <c r="C150" s="17"/>
@@ -13051,7 +13114,7 @@
       <c r="I150" s="17"/>
       <c r="J150" s="16"/>
     </row>
-    <row r="151" spans="1:10" ht="38" customHeight="1">
+    <row r="151" spans="1:10" ht="39" customHeight="1">
       <c r="A151" s="17"/>
       <c r="B151" s="14"/>
       <c r="C151" s="17"/>
@@ -13063,7 +13126,7 @@
       <c r="I151" s="17"/>
       <c r="J151" s="16"/>
     </row>
-    <row r="152" spans="1:10" ht="38" customHeight="1">
+    <row r="152" spans="1:10" ht="39" customHeight="1">
       <c r="A152" s="17"/>
       <c r="B152" s="14"/>
       <c r="C152" s="17"/>
@@ -13075,7 +13138,7 @@
       <c r="I152" s="17"/>
       <c r="J152" s="16"/>
     </row>
-    <row r="153" spans="1:10" ht="38" customHeight="1">
+    <row r="153" spans="1:10" ht="39" customHeight="1">
       <c r="A153" s="17"/>
       <c r="B153" s="14"/>
       <c r="C153" s="17"/>
@@ -13087,7 +13150,7 @@
       <c r="I153" s="17"/>
       <c r="J153" s="16"/>
     </row>
-    <row r="154" spans="1:10" ht="38" customHeight="1">
+    <row r="154" spans="1:10" ht="39" customHeight="1">
       <c r="A154" s="17"/>
       <c r="B154" s="14"/>
       <c r="C154" s="17"/>
@@ -13099,7 +13162,7 @@
       <c r="I154" s="17"/>
       <c r="J154" s="16"/>
     </row>
-    <row r="155" spans="1:10" ht="38" customHeight="1">
+    <row r="155" spans="1:10" ht="39" customHeight="1">
       <c r="A155" s="17"/>
       <c r="B155" s="14"/>
       <c r="C155" s="17"/>
@@ -13111,7 +13174,7 @@
       <c r="I155" s="17"/>
       <c r="J155" s="16"/>
     </row>
-    <row r="156" spans="1:10" ht="38" customHeight="1">
+    <row r="156" spans="1:10" ht="39" customHeight="1">
       <c r="A156" s="17"/>
       <c r="B156" s="14"/>
       <c r="C156" s="17"/>
@@ -13123,7 +13186,7 @@
       <c r="I156" s="17"/>
       <c r="J156" s="16"/>
     </row>
-    <row r="157" spans="1:10" ht="38" customHeight="1">
+    <row r="157" spans="1:10" ht="39" customHeight="1">
       <c r="A157" s="17"/>
       <c r="B157" s="14"/>
       <c r="C157" s="17"/>
@@ -13135,7 +13198,7 @@
       <c r="I157" s="17"/>
       <c r="J157" s="16"/>
     </row>
-    <row r="158" spans="1:10" ht="38" customHeight="1">
+    <row r="158" spans="1:10" ht="39" customHeight="1">
       <c r="A158" s="17"/>
       <c r="B158" s="14"/>
       <c r="C158" s="17"/>
@@ -13147,7 +13210,7 @@
       <c r="I158" s="17"/>
       <c r="J158" s="16"/>
     </row>
-    <row r="159" spans="1:10" ht="38" customHeight="1">
+    <row r="159" spans="1:10" ht="39" customHeight="1">
       <c r="A159" s="17"/>
       <c r="B159" s="14"/>
       <c r="C159" s="17"/>
@@ -13159,7 +13222,7 @@
       <c r="I159" s="17"/>
       <c r="J159" s="16"/>
     </row>
-    <row r="160" spans="1:10" ht="38" customHeight="1">
+    <row r="160" spans="1:10" ht="39" customHeight="1">
       <c r="A160" s="17"/>
       <c r="B160" s="14"/>
       <c r="C160" s="17"/>
@@ -13171,7 +13234,7 @@
       <c r="I160" s="17"/>
       <c r="J160" s="16"/>
     </row>
-    <row r="161" spans="1:10" ht="38" customHeight="1">
+    <row r="161" spans="1:10" ht="39" customHeight="1">
       <c r="A161" s="17"/>
       <c r="B161" s="14"/>
       <c r="C161" s="17"/>
@@ -13183,7 +13246,7 @@
       <c r="I161" s="17"/>
       <c r="J161" s="16"/>
     </row>
-    <row r="162" spans="1:10" ht="38" customHeight="1">
+    <row r="162" spans="1:10" ht="39" customHeight="1">
       <c r="A162" s="17"/>
       <c r="B162" s="14"/>
       <c r="C162" s="17"/>
@@ -13195,7 +13258,7 @@
       <c r="I162" s="17"/>
       <c r="J162" s="16"/>
     </row>
-    <row r="163" spans="1:10" ht="38" customHeight="1">
+    <row r="163" spans="1:10" ht="39" customHeight="1">
       <c r="A163" s="17"/>
       <c r="B163" s="14"/>
       <c r="C163" s="17"/>
@@ -13207,7 +13270,7 @@
       <c r="I163" s="17"/>
       <c r="J163" s="16"/>
     </row>
-    <row r="164" spans="1:10" ht="38" customHeight="1">
+    <row r="164" spans="1:10" ht="39" customHeight="1">
       <c r="A164" s="17"/>
       <c r="B164" s="14"/>
       <c r="C164" s="17"/>
@@ -13219,7 +13282,7 @@
       <c r="I164" s="17"/>
       <c r="J164" s="16"/>
     </row>
-    <row r="165" spans="1:10" ht="38" customHeight="1">
+    <row r="165" spans="1:10" ht="39" customHeight="1">
       <c r="A165" s="17"/>
       <c r="B165" s="14"/>
       <c r="C165" s="17"/>
@@ -13231,7 +13294,7 @@
       <c r="I165" s="17"/>
       <c r="J165" s="16"/>
     </row>
-    <row r="166" spans="1:10" ht="38" customHeight="1">
+    <row r="166" spans="1:10" ht="39" customHeight="1">
       <c r="A166" s="17"/>
       <c r="B166" s="14"/>
       <c r="C166" s="17"/>
@@ -13243,7 +13306,7 @@
       <c r="I166" s="17"/>
       <c r="J166" s="16"/>
     </row>
-    <row r="167" spans="1:10" ht="38" customHeight="1">
+    <row r="167" spans="1:10" ht="39" customHeight="1">
       <c r="A167" s="17"/>
       <c r="B167" s="14"/>
       <c r="C167" s="17"/>
@@ -13255,7 +13318,7 @@
       <c r="I167" s="17"/>
       <c r="J167" s="16"/>
     </row>
-    <row r="168" spans="1:10" ht="38" customHeight="1">
+    <row r="168" spans="1:10" ht="39" customHeight="1">
       <c r="A168" s="17"/>
       <c r="B168" s="14"/>
       <c r="C168" s="17"/>
@@ -13267,7 +13330,7 @@
       <c r="I168" s="17"/>
       <c r="J168" s="16"/>
     </row>
-    <row r="169" spans="1:10" ht="38" customHeight="1">
+    <row r="169" spans="1:10" ht="39" customHeight="1">
       <c r="A169" s="17"/>
       <c r="B169" s="14"/>
       <c r="C169" s="17"/>
@@ -13279,7 +13342,7 @@
       <c r="I169" s="17"/>
       <c r="J169" s="16"/>
     </row>
-    <row r="170" spans="1:10" ht="38" customHeight="1">
+    <row r="170" spans="1:10" ht="39" customHeight="1">
       <c r="A170" s="17"/>
       <c r="B170" s="14"/>
       <c r="C170" s="17"/>
@@ -13291,7 +13354,7 @@
       <c r="I170" s="17"/>
       <c r="J170" s="16"/>
     </row>
-    <row r="171" spans="1:10" ht="38" customHeight="1">
+    <row r="171" spans="1:10" ht="39" customHeight="1">
       <c r="A171" s="17"/>
       <c r="B171" s="14"/>
       <c r="C171" s="17"/>
@@ -13303,7 +13366,7 @@
       <c r="I171" s="17"/>
       <c r="J171" s="16"/>
     </row>
-    <row r="172" spans="1:10" ht="38" customHeight="1">
+    <row r="172" spans="1:10" ht="39" customHeight="1">
       <c r="A172" s="17"/>
       <c r="B172" s="14"/>
       <c r="C172" s="17"/>
@@ -13315,7 +13378,7 @@
       <c r="I172" s="17"/>
       <c r="J172" s="16"/>
     </row>
-    <row r="173" spans="1:10" ht="38" customHeight="1">
+    <row r="173" spans="1:10" ht="39" customHeight="1">
       <c r="A173" s="17"/>
       <c r="B173" s="14"/>
       <c r="C173" s="17"/>
@@ -13327,7 +13390,7 @@
       <c r="I173" s="17"/>
       <c r="J173" s="16"/>
     </row>
-    <row r="174" spans="1:10" ht="38" customHeight="1">
+    <row r="174" spans="1:10" ht="39" customHeight="1">
       <c r="A174" s="17"/>
       <c r="B174" s="14"/>
       <c r="C174" s="17"/>
@@ -13339,7 +13402,7 @@
       <c r="I174" s="17"/>
       <c r="J174" s="16"/>
     </row>
-    <row r="175" spans="1:10" ht="38" customHeight="1">
+    <row r="175" spans="1:10" ht="39" customHeight="1">
       <c r="A175" s="17"/>
       <c r="B175" s="14"/>
       <c r="C175" s="17"/>
@@ -13351,7 +13414,7 @@
       <c r="I175" s="17"/>
       <c r="J175" s="16"/>
     </row>
-    <row r="176" spans="1:10" ht="38" customHeight="1">
+    <row r="176" spans="1:10" ht="39" customHeight="1">
       <c r="A176" s="17"/>
       <c r="B176" s="14"/>
       <c r="C176" s="17"/>
@@ -13363,7 +13426,7 @@
       <c r="I176" s="17"/>
       <c r="J176" s="16"/>
     </row>
-    <row r="177" spans="1:10" ht="38" customHeight="1">
+    <row r="177" spans="1:10" ht="39" customHeight="1">
       <c r="A177" s="17"/>
       <c r="B177" s="14"/>
       <c r="C177" s="17"/>
@@ -13375,7 +13438,7 @@
       <c r="I177" s="17"/>
       <c r="J177" s="16"/>
     </row>
-    <row r="178" spans="1:10" ht="38" customHeight="1">
+    <row r="178" spans="1:10" ht="39" customHeight="1">
       <c r="A178" s="17"/>
       <c r="B178" s="14"/>
       <c r="C178" s="17"/>
@@ -13387,7 +13450,7 @@
       <c r="I178" s="17"/>
       <c r="J178" s="16"/>
     </row>
-    <row r="179" spans="1:10" ht="38" customHeight="1">
+    <row r="179" spans="1:10" ht="39" customHeight="1">
       <c r="A179" s="17"/>
       <c r="B179" s="14"/>
       <c r="C179" s="17"/>
@@ -13399,7 +13462,7 @@
       <c r="I179" s="17"/>
       <c r="J179" s="16"/>
     </row>
-    <row r="180" spans="1:10" ht="38" customHeight="1">
+    <row r="180" spans="1:10" ht="39" customHeight="1">
       <c r="A180" s="17"/>
       <c r="B180" s="14"/>
       <c r="C180" s="17"/>
@@ -13411,7 +13474,7 @@
       <c r="I180" s="17"/>
       <c r="J180" s="16"/>
     </row>
-    <row r="181" spans="1:10" ht="38" customHeight="1">
+    <row r="181" spans="1:10" ht="39" customHeight="1">
       <c r="A181" s="17"/>
       <c r="B181" s="14"/>
       <c r="C181" s="17"/>
@@ -13423,7 +13486,7 @@
       <c r="I181" s="17"/>
       <c r="J181" s="16"/>
     </row>
-    <row r="182" spans="1:10" ht="38" customHeight="1">
+    <row r="182" spans="1:10" ht="39" customHeight="1">
       <c r="A182" s="17"/>
       <c r="B182" s="14"/>
       <c r="C182" s="17"/>
@@ -13435,7 +13498,7 @@
       <c r="I182" s="17"/>
       <c r="J182" s="16"/>
     </row>
-    <row r="183" spans="1:10" ht="38" customHeight="1">
+    <row r="183" spans="1:10" ht="39" customHeight="1">
       <c r="A183" s="17"/>
       <c r="B183" s="14"/>
       <c r="C183" s="17"/>
@@ -13447,7 +13510,7 @@
       <c r="I183" s="17"/>
       <c r="J183" s="16"/>
     </row>
-    <row r="184" spans="1:10" ht="38" customHeight="1">
+    <row r="184" spans="1:10" ht="39" customHeight="1">
       <c r="A184" s="17"/>
       <c r="B184" s="14"/>
       <c r="C184" s="17"/>
@@ -13459,7 +13522,7 @@
       <c r="I184" s="17"/>
       <c r="J184" s="16"/>
     </row>
-    <row r="185" spans="1:10" ht="38" customHeight="1">
+    <row r="185" spans="1:10" ht="39" customHeight="1">
       <c r="A185" s="17"/>
       <c r="B185" s="14"/>
       <c r="C185" s="17"/>
@@ -13471,7 +13534,7 @@
       <c r="I185" s="17"/>
       <c r="J185" s="16"/>
     </row>
-    <row r="186" spans="1:10" ht="38" customHeight="1">
+    <row r="186" spans="1:10" ht="39" customHeight="1">
       <c r="A186" s="17"/>
       <c r="B186" s="14"/>
       <c r="C186" s="17"/>
@@ -13483,7 +13546,7 @@
       <c r="I186" s="17"/>
       <c r="J186" s="16"/>
     </row>
-    <row r="187" spans="1:10" ht="38" customHeight="1">
+    <row r="187" spans="1:10" ht="39" customHeight="1">
       <c r="A187" s="17"/>
       <c r="B187" s="14"/>
       <c r="C187" s="17"/>
@@ -13495,7 +13558,7 @@
       <c r="I187" s="17"/>
       <c r="J187" s="16"/>
     </row>
-    <row r="188" spans="1:10" ht="38" customHeight="1">
+    <row r="188" spans="1:10" ht="39" customHeight="1">
       <c r="A188" s="17"/>
       <c r="B188" s="14"/>
       <c r="C188" s="17"/>
@@ -13507,7 +13570,7 @@
       <c r="I188" s="17"/>
       <c r="J188" s="16"/>
     </row>
-    <row r="189" spans="1:10" ht="38" customHeight="1">
+    <row r="189" spans="1:10" ht="39" customHeight="1">
       <c r="A189" s="17"/>
       <c r="B189" s="14"/>
       <c r="C189" s="17"/>
@@ -13519,7 +13582,7 @@
       <c r="I189" s="17"/>
       <c r="J189" s="16"/>
     </row>
-    <row r="190" spans="1:10" ht="38" customHeight="1">
+    <row r="190" spans="1:10" ht="39" customHeight="1">
       <c r="A190" s="17"/>
       <c r="B190" s="14"/>
       <c r="C190" s="17"/>
@@ -13531,7 +13594,7 @@
       <c r="I190" s="17"/>
       <c r="J190" s="16"/>
     </row>
-    <row r="191" spans="1:10" ht="38" customHeight="1">
+    <row r="191" spans="1:10" ht="39" customHeight="1">
       <c r="A191" s="17"/>
       <c r="B191" s="14"/>
       <c r="C191" s="17"/>
@@ -13543,7 +13606,7 @@
       <c r="I191" s="17"/>
       <c r="J191" s="16"/>
     </row>
-    <row r="192" spans="1:10" ht="38" customHeight="1">
+    <row r="192" spans="1:10" ht="39" customHeight="1">
       <c r="A192" s="17"/>
       <c r="B192" s="14"/>
       <c r="C192" s="17"/>
@@ -13555,7 +13618,7 @@
       <c r="I192" s="17"/>
       <c r="J192" s="16"/>
     </row>
-    <row r="193" spans="1:10" ht="38" customHeight="1">
+    <row r="193" spans="1:10" ht="39" customHeight="1">
       <c r="A193" s="17"/>
       <c r="B193" s="14"/>
       <c r="C193" s="17"/>
@@ -13567,7 +13630,7 @@
       <c r="I193" s="17"/>
       <c r="J193" s="16"/>
     </row>
-    <row r="194" spans="1:10" ht="38" customHeight="1">
+    <row r="194" spans="1:10" ht="39" customHeight="1">
       <c r="A194" s="17"/>
       <c r="B194" s="14"/>
       <c r="C194" s="17"/>
@@ -13579,7 +13642,7 @@
       <c r="I194" s="17"/>
       <c r="J194" s="16"/>
     </row>
-    <row r="195" spans="1:10" ht="38" customHeight="1">
+    <row r="195" spans="1:10" ht="39" customHeight="1">
       <c r="A195" s="17"/>
       <c r="B195" s="14"/>
       <c r="C195" s="17"/>
@@ -13591,7 +13654,7 @@
       <c r="I195" s="17"/>
       <c r="J195" s="16"/>
     </row>
-    <row r="196" spans="1:10" ht="38" customHeight="1">
+    <row r="196" spans="1:10" ht="39" customHeight="1">
       <c r="A196" s="17"/>
       <c r="B196" s="14"/>
       <c r="C196" s="17"/>
@@ -13603,7 +13666,7 @@
       <c r="I196" s="17"/>
       <c r="J196" s="16"/>
     </row>
-    <row r="197" spans="1:10" ht="38" customHeight="1">
+    <row r="197" spans="1:10" ht="39" customHeight="1">
       <c r="A197" s="17"/>
       <c r="B197" s="14"/>
       <c r="C197" s="17"/>
@@ -13615,7 +13678,7 @@
       <c r="I197" s="17"/>
       <c r="J197" s="16"/>
     </row>
-    <row r="198" spans="1:10" ht="38" customHeight="1">
+    <row r="198" spans="1:10" ht="39" customHeight="1">
       <c r="A198" s="17"/>
       <c r="B198" s="14"/>
       <c r="C198" s="17"/>
@@ -13627,7 +13690,7 @@
       <c r="I198" s="17"/>
       <c r="J198" s="16"/>
     </row>
-    <row r="199" spans="1:10" ht="38" customHeight="1">
+    <row r="199" spans="1:10" ht="39" customHeight="1">
       <c r="A199" s="17"/>
       <c r="B199" s="14"/>
       <c r="C199" s="17"/>
@@ -13639,7 +13702,7 @@
       <c r="I199" s="17"/>
       <c r="J199" s="16"/>
     </row>
-    <row r="200" spans="1:10" ht="38" customHeight="1">
+    <row r="200" spans="1:10" ht="39" customHeight="1">
       <c r="A200" s="17"/>
       <c r="B200" s="14"/>
       <c r="C200" s="17"/>
@@ -13651,7 +13714,7 @@
       <c r="I200" s="17"/>
       <c r="J200" s="16"/>
     </row>
-    <row r="201" spans="1:10" ht="38" customHeight="1">
+    <row r="201" spans="1:10" ht="39" customHeight="1">
       <c r="A201" s="17"/>
       <c r="B201" s="14"/>
       <c r="C201" s="17"/>
@@ -13663,7 +13726,7 @@
       <c r="I201" s="17"/>
       <c r="J201" s="16"/>
     </row>
-    <row r="202" spans="1:10" ht="38" customHeight="1">
+    <row r="202" spans="1:10" ht="39" customHeight="1">
       <c r="A202" s="17"/>
       <c r="B202" s="14"/>
       <c r="C202" s="17"/>
@@ -13675,7 +13738,7 @@
       <c r="I202" s="17"/>
       <c r="J202" s="16"/>
     </row>
-    <row r="203" spans="1:10" ht="38" customHeight="1">
+    <row r="203" spans="1:10" ht="39" customHeight="1">
       <c r="A203" s="17"/>
       <c r="B203" s="14"/>
       <c r="C203" s="17"/>
@@ -13687,7 +13750,7 @@
       <c r="I203" s="17"/>
       <c r="J203" s="16"/>
     </row>
-    <row r="204" spans="1:10" ht="38" customHeight="1">
+    <row r="204" spans="1:10" ht="39" customHeight="1">
       <c r="A204" s="17"/>
       <c r="B204" s="14"/>
       <c r="C204" s="17"/>
@@ -13699,7 +13762,7 @@
       <c r="I204" s="17"/>
       <c r="J204" s="16"/>
     </row>
-    <row r="205" spans="1:10" ht="38" customHeight="1">
+    <row r="205" spans="1:10" ht="39" customHeight="1">
       <c r="A205" s="17"/>
       <c r="B205" s="14"/>
       <c r="C205" s="17"/>
@@ -13711,7 +13774,7 @@
       <c r="I205" s="17"/>
       <c r="J205" s="16"/>
     </row>
-    <row r="206" spans="1:10" ht="38" customHeight="1">
+    <row r="206" spans="1:10" ht="39" customHeight="1">
       <c r="A206" s="17"/>
       <c r="B206" s="14"/>
       <c r="C206" s="17"/>
@@ -13723,7 +13786,7 @@
       <c r="I206" s="17"/>
       <c r="J206" s="16"/>
     </row>
-    <row r="207" spans="1:10" ht="38" customHeight="1">
+    <row r="207" spans="1:10" ht="39" customHeight="1">
       <c r="A207" s="17"/>
       <c r="B207" s="14"/>
       <c r="C207" s="17"/>
@@ -13735,7 +13798,7 @@
       <c r="I207" s="17"/>
       <c r="J207" s="16"/>
     </row>
-    <row r="208" spans="1:10" ht="38" customHeight="1">
+    <row r="208" spans="1:10" ht="39" customHeight="1">
       <c r="A208" s="17"/>
       <c r="B208" s="14"/>
       <c r="C208" s="17"/>
@@ -13747,7 +13810,7 @@
       <c r="I208" s="17"/>
       <c r="J208" s="16"/>
     </row>
-    <row r="209" spans="1:10" ht="38" customHeight="1">
+    <row r="209" spans="1:10" ht="39" customHeight="1">
       <c r="A209" s="17"/>
       <c r="B209" s="14"/>
       <c r="C209" s="17"/>
@@ -13759,7 +13822,7 @@
       <c r="I209" s="17"/>
       <c r="J209" s="16"/>
     </row>
-    <row r="210" spans="1:10" ht="38" customHeight="1">
+    <row r="210" spans="1:10" ht="39" customHeight="1">
       <c r="A210" s="17"/>
       <c r="B210" s="14"/>
       <c r="C210" s="17"/>
@@ -13771,7 +13834,7 @@
       <c r="I210" s="17"/>
       <c r="J210" s="16"/>
     </row>
-    <row r="211" spans="1:10" ht="38" customHeight="1">
+    <row r="211" spans="1:10" ht="39" customHeight="1">
       <c r="A211" s="17"/>
       <c r="B211" s="14"/>
       <c r="C211" s="17"/>
@@ -13783,7 +13846,7 @@
       <c r="I211" s="17"/>
       <c r="J211" s="16"/>
     </row>
-    <row r="212" spans="1:10" ht="38" customHeight="1">
+    <row r="212" spans="1:10" ht="39" customHeight="1">
       <c r="A212" s="17"/>
       <c r="B212" s="14"/>
       <c r="C212" s="17"/>
@@ -13795,7 +13858,7 @@
       <c r="I212" s="17"/>
       <c r="J212" s="16"/>
     </row>
-    <row r="213" spans="1:10" ht="38" customHeight="1">
+    <row r="213" spans="1:10" ht="39" customHeight="1">
       <c r="A213" s="17"/>
       <c r="B213" s="14"/>
       <c r="C213" s="17"/>
@@ -13807,7 +13870,7 @@
       <c r="I213" s="17"/>
       <c r="J213" s="16"/>
     </row>
-    <row r="214" spans="1:10" ht="38" customHeight="1">
+    <row r="214" spans="1:10" ht="39" customHeight="1">
       <c r="A214" s="17"/>
       <c r="B214" s="14"/>
       <c r="C214" s="17"/>
@@ -13819,7 +13882,7 @@
       <c r="I214" s="17"/>
       <c r="J214" s="16"/>
     </row>
-    <row r="215" spans="1:10" ht="38" customHeight="1">
+    <row r="215" spans="1:10" ht="39" customHeight="1">
       <c r="A215" s="17"/>
       <c r="B215" s="14"/>
       <c r="C215" s="17"/>
@@ -13831,7 +13894,7 @@
       <c r="I215" s="17"/>
       <c r="J215" s="16"/>
     </row>
-    <row r="216" spans="1:10" ht="38" customHeight="1">
+    <row r="216" spans="1:10" ht="39" customHeight="1">
       <c r="A216" s="17"/>
       <c r="B216" s="14"/>
       <c r="C216" s="17"/>
@@ -13843,7 +13906,7 @@
       <c r="I216" s="17"/>
       <c r="J216" s="16"/>
     </row>
-    <row r="217" spans="1:10" ht="38" customHeight="1">
+    <row r="217" spans="1:10" ht="39" customHeight="1">
       <c r="A217" s="17"/>
       <c r="B217" s="14"/>
       <c r="C217" s="17"/>
@@ -13855,7 +13918,7 @@
       <c r="I217" s="17"/>
       <c r="J217" s="16"/>
     </row>
-    <row r="218" spans="1:10" ht="38" customHeight="1">
+    <row r="218" spans="1:10" ht="39" customHeight="1">
       <c r="A218" s="17"/>
       <c r="B218" s="14"/>
       <c r="C218" s="17"/>
@@ -13867,7 +13930,7 @@
       <c r="I218" s="17"/>
       <c r="J218" s="16"/>
     </row>
-    <row r="219" spans="1:10" ht="38" customHeight="1">
+    <row r="219" spans="1:10" ht="39" customHeight="1">
       <c r="A219" s="17"/>
       <c r="B219" s="14"/>
       <c r="C219" s="17"/>
@@ -13879,7 +13942,7 @@
       <c r="I219" s="17"/>
       <c r="J219" s="16"/>
     </row>
-    <row r="220" spans="1:10" ht="38" customHeight="1">
+    <row r="220" spans="1:10" ht="39" customHeight="1">
       <c r="A220" s="17"/>
       <c r="B220" s="14"/>
       <c r="C220" s="17"/>
@@ -13891,7 +13954,7 @@
       <c r="I220" s="17"/>
       <c r="J220" s="16"/>
     </row>
-    <row r="221" spans="1:10" ht="38" customHeight="1">
+    <row r="221" spans="1:10" ht="39" customHeight="1">
       <c r="A221" s="17"/>
       <c r="B221" s="14"/>
       <c r="C221" s="17"/>
@@ -13903,7 +13966,7 @@
       <c r="I221" s="17"/>
       <c r="J221" s="16"/>
     </row>
-    <row r="222" spans="1:10" ht="38" customHeight="1">
+    <row r="222" spans="1:10" ht="39" customHeight="1">
       <c r="A222" s="17"/>
       <c r="B222" s="14"/>
       <c r="C222" s="17"/>
@@ -13915,7 +13978,7 @@
       <c r="I222" s="17"/>
       <c r="J222" s="16"/>
     </row>
-    <row r="223" spans="1:10" ht="38" customHeight="1">
+    <row r="223" spans="1:10" ht="39" customHeight="1">
       <c r="A223" s="17"/>
       <c r="B223" s="14"/>
       <c r="C223" s="17"/>
@@ -13927,7 +13990,7 @@
       <c r="I223" s="17"/>
       <c r="J223" s="16"/>
     </row>
-    <row r="224" spans="1:10" ht="38" customHeight="1">
+    <row r="224" spans="1:10" ht="39" customHeight="1">
       <c r="A224" s="17"/>
       <c r="B224" s="14"/>
       <c r="C224" s="17"/>
@@ -13939,7 +14002,7 @@
       <c r="I224" s="17"/>
       <c r="J224" s="16"/>
     </row>
-    <row r="225" spans="1:10" ht="38" customHeight="1">
+    <row r="225" spans="1:10" ht="39" customHeight="1">
       <c r="A225" s="17"/>
       <c r="B225" s="14"/>
       <c r="C225" s="17"/>
@@ -13951,7 +14014,7 @@
       <c r="I225" s="17"/>
       <c r="J225" s="16"/>
     </row>
-    <row r="226" spans="1:10" ht="38" customHeight="1">
+    <row r="226" spans="1:10" ht="39" customHeight="1">
       <c r="A226" s="17"/>
       <c r="B226" s="14"/>
       <c r="C226" s="17"/>
@@ -13963,7 +14026,7 @@
       <c r="I226" s="17"/>
       <c r="J226" s="16"/>
     </row>
-    <row r="227" spans="1:10" ht="38" customHeight="1">
+    <row r="227" spans="1:10" ht="39" customHeight="1">
       <c r="A227" s="17"/>
       <c r="B227" s="14"/>
       <c r="C227" s="17"/>
@@ -13975,7 +14038,7 @@
       <c r="I227" s="17"/>
       <c r="J227" s="16"/>
     </row>
-    <row r="228" spans="1:10" ht="38" customHeight="1">
+    <row r="228" spans="1:10" ht="39" customHeight="1">
       <c r="A228" s="17"/>
       <c r="B228" s="14"/>
       <c r="C228" s="17"/>
@@ -13987,7 +14050,7 @@
       <c r="I228" s="17"/>
       <c r="J228" s="16"/>
     </row>
-    <row r="229" spans="1:10" ht="38" customHeight="1">
+    <row r="229" spans="1:10" ht="39" customHeight="1">
       <c r="A229" s="17"/>
       <c r="B229" s="14"/>
       <c r="C229" s="17"/>
@@ -13999,7 +14062,7 @@
       <c r="I229" s="17"/>
       <c r="J229" s="16"/>
     </row>
-    <row r="230" spans="1:10" ht="38" customHeight="1">
+    <row r="230" spans="1:10" ht="39" customHeight="1">
       <c r="A230" s="17"/>
       <c r="B230" s="14"/>
       <c r="C230" s="17"/>
@@ -14011,7 +14074,7 @@
       <c r="I230" s="17"/>
       <c r="J230" s="16"/>
     </row>
-    <row r="231" spans="1:10" ht="38" customHeight="1">
+    <row r="231" spans="1:10" ht="39" customHeight="1">
       <c r="A231" s="17"/>
       <c r="B231" s="14"/>
       <c r="C231" s="17"/>
@@ -14023,7 +14086,7 @@
       <c r="I231" s="17"/>
       <c r="J231" s="16"/>
     </row>
-    <row r="232" spans="1:10" ht="38" customHeight="1">
+    <row r="232" spans="1:10" ht="39" customHeight="1">
       <c r="A232" s="17"/>
       <c r="B232" s="14"/>
       <c r="C232" s="17"/>
@@ -14035,7 +14098,7 @@
       <c r="I232" s="17"/>
       <c r="J232" s="16"/>
     </row>
-    <row r="233" spans="1:10" ht="38" customHeight="1">
+    <row r="233" spans="1:10" ht="39" customHeight="1">
       <c r="A233" s="17"/>
       <c r="B233" s="14"/>
       <c r="C233" s="17"/>
@@ -14047,7 +14110,7 @@
       <c r="I233" s="17"/>
       <c r="J233" s="16"/>
     </row>
-    <row r="234" spans="1:10" ht="38" customHeight="1">
+    <row r="234" spans="1:10" ht="39" customHeight="1">
       <c r="A234" s="17"/>
       <c r="B234" s="14"/>
       <c r="C234" s="17"/>
@@ -14059,7 +14122,7 @@
       <c r="I234" s="17"/>
       <c r="J234" s="16"/>
     </row>
-    <row r="235" spans="1:10" ht="38" customHeight="1">
+    <row r="235" spans="1:10" ht="39" customHeight="1">
       <c r="A235" s="17"/>
       <c r="B235" s="14"/>
       <c r="C235" s="17"/>
@@ -14071,7 +14134,7 @@
       <c r="I235" s="17"/>
       <c r="J235" s="16"/>
     </row>
-    <row r="236" spans="1:10" ht="38" customHeight="1">
+    <row r="236" spans="1:10" ht="39" customHeight="1">
       <c r="A236" s="17"/>
       <c r="B236" s="14"/>
       <c r="C236" s="17"/>
@@ -14083,7 +14146,7 @@
       <c r="I236" s="17"/>
       <c r="J236" s="16"/>
     </row>
-    <row r="237" spans="1:10" ht="38" customHeight="1">
+    <row r="237" spans="1:10" ht="39" customHeight="1">
       <c r="A237" s="17"/>
       <c r="B237" s="14"/>
       <c r="C237" s="17"/>
@@ -14095,7 +14158,7 @@
       <c r="I237" s="17"/>
       <c r="J237" s="16"/>
     </row>
-    <row r="238" spans="1:10" ht="38" customHeight="1">
+    <row r="238" spans="1:10" ht="39" customHeight="1">
       <c r="A238" s="17"/>
       <c r="B238" s="14"/>
       <c r="C238" s="17"/>
@@ -14107,7 +14170,7 @@
       <c r="I238" s="17"/>
       <c r="J238" s="16"/>
     </row>
-    <row r="239" spans="1:10" ht="38" customHeight="1">
+    <row r="239" spans="1:10" ht="39" customHeight="1">
       <c r="A239" s="17"/>
       <c r="B239" s="14"/>
       <c r="C239" s="17"/>
@@ -14119,7 +14182,7 @@
       <c r="I239" s="17"/>
       <c r="J239" s="16"/>
     </row>
-    <row r="240" spans="1:10" ht="38" customHeight="1">
+    <row r="240" spans="1:10" ht="39" customHeight="1">
       <c r="A240" s="17"/>
       <c r="B240" s="14"/>
       <c r="C240" s="17"/>
@@ -14131,7 +14194,7 @@
       <c r="I240" s="17"/>
       <c r="J240" s="16"/>
     </row>
-    <row r="241" spans="1:10" ht="38" customHeight="1">
+    <row r="241" spans="1:10" ht="39" customHeight="1">
       <c r="A241" s="17"/>
       <c r="B241" s="14"/>
       <c r="C241" s="17"/>
@@ -14143,7 +14206,7 @@
       <c r="I241" s="17"/>
       <c r="J241" s="16"/>
     </row>
-    <row r="242" spans="1:10" ht="38" customHeight="1">
+    <row r="242" spans="1:10" ht="39" customHeight="1">
       <c r="A242" s="17"/>
       <c r="B242" s="14"/>
       <c r="C242" s="17"/>
@@ -14155,7 +14218,7 @@
       <c r="I242" s="17"/>
       <c r="J242" s="16"/>
     </row>
-    <row r="243" spans="1:10" ht="38" customHeight="1">
+    <row r="243" spans="1:10" ht="39" customHeight="1">
       <c r="A243" s="17"/>
       <c r="B243" s="14"/>
       <c r="C243" s="17"/>
@@ -14167,7 +14230,7 @@
       <c r="I243" s="17"/>
       <c r="J243" s="16"/>
     </row>
-    <row r="244" spans="1:10" ht="38" customHeight="1">
+    <row r="244" spans="1:10" ht="39" customHeight="1">
       <c r="A244" s="17"/>
       <c r="B244" s="14"/>
       <c r="C244" s="17"/>
@@ -14179,7 +14242,7 @@
       <c r="I244" s="17"/>
       <c r="J244" s="16"/>
     </row>
-    <row r="245" spans="1:10" ht="38" customHeight="1">
+    <row r="245" spans="1:10" ht="39" customHeight="1">
       <c r="A245" s="17"/>
       <c r="B245" s="14"/>
       <c r="C245" s="17"/>
@@ -14191,7 +14254,7 @@
       <c r="I245" s="17"/>
       <c r="J245" s="16"/>
     </row>
-    <row r="246" spans="1:10" ht="38" customHeight="1">
+    <row r="246" spans="1:10" ht="39" customHeight="1">
       <c r="A246" s="17"/>
       <c r="B246" s="14"/>
       <c r="C246" s="17"/>
@@ -14203,7 +14266,7 @@
       <c r="I246" s="17"/>
       <c r="J246" s="16"/>
     </row>
-    <row r="247" spans="1:10" ht="38" customHeight="1">
+    <row r="247" spans="1:10" ht="39" customHeight="1">
       <c r="A247" s="17"/>
       <c r="B247" s="14"/>
       <c r="C247" s="17"/>
@@ -14215,7 +14278,7 @@
       <c r="I247" s="17"/>
       <c r="J247" s="16"/>
     </row>
-    <row r="248" spans="1:10" ht="38" customHeight="1">
+    <row r="248" spans="1:10" ht="39" customHeight="1">
       <c r="A248" s="17"/>
       <c r="B248" s="14"/>
       <c r="C248" s="17"/>
@@ -14227,7 +14290,7 @@
       <c r="I248" s="17"/>
       <c r="J248" s="16"/>
     </row>
-    <row r="249" spans="1:10" ht="38" customHeight="1">
+    <row r="249" spans="1:10" ht="39" customHeight="1">
       <c r="A249" s="17"/>
       <c r="B249" s="14"/>
       <c r="C249" s="17"/>
@@ -14239,7 +14302,7 @@
       <c r="I249" s="17"/>
       <c r="J249" s="16"/>
     </row>
-    <row r="250" spans="1:10" ht="38" customHeight="1">
+    <row r="250" spans="1:10" ht="39" customHeight="1">
       <c r="A250" s="17"/>
       <c r="B250" s="14"/>
       <c r="C250" s="17"/>
@@ -14251,7 +14314,7 @@
       <c r="I250" s="17"/>
       <c r="J250" s="16"/>
     </row>
-    <row r="251" spans="1:10" ht="38" customHeight="1">
+    <row r="251" spans="1:10" ht="39" customHeight="1">
       <c r="A251" s="17"/>
       <c r="B251" s="14"/>
       <c r="C251" s="17"/>
@@ -14263,7 +14326,7 @@
       <c r="I251" s="17"/>
       <c r="J251" s="16"/>
     </row>
-    <row r="252" spans="1:10" ht="38" customHeight="1">
+    <row r="252" spans="1:10" ht="39" customHeight="1">
       <c r="A252" s="17"/>
       <c r="B252" s="14"/>
       <c r="C252" s="17"/>
@@ -14275,7 +14338,7 @@
       <c r="I252" s="17"/>
       <c r="J252" s="16"/>
     </row>
-    <row r="253" spans="1:10" ht="38" customHeight="1">
+    <row r="253" spans="1:10" ht="39" customHeight="1">
       <c r="A253" s="17"/>
       <c r="B253" s="14"/>
       <c r="C253" s="17"/>
@@ -14287,7 +14350,7 @@
       <c r="I253" s="17"/>
       <c r="J253" s="16"/>
     </row>
-    <row r="254" spans="1:10" ht="38" customHeight="1">
+    <row r="254" spans="1:10" ht="39" customHeight="1">
       <c r="A254" s="17"/>
       <c r="B254" s="14"/>
       <c r="C254" s="17"/>
@@ -14299,7 +14362,7 @@
       <c r="I254" s="17"/>
       <c r="J254" s="16"/>
     </row>
-    <row r="255" spans="1:10" ht="38" customHeight="1">
+    <row r="255" spans="1:10" ht="39" customHeight="1">
       <c r="A255" s="17"/>
       <c r="B255" s="14"/>
       <c r="C255" s="17"/>
@@ -14311,7 +14374,7 @@
       <c r="I255" s="17"/>
       <c r="J255" s="16"/>
     </row>
-    <row r="256" spans="1:10" ht="38" customHeight="1">
+    <row r="256" spans="1:10" ht="39" customHeight="1">
       <c r="A256" s="17"/>
       <c r="B256" s="14"/>
       <c r="C256" s="17"/>
@@ -14323,7 +14386,7 @@
       <c r="I256" s="17"/>
       <c r="J256" s="16"/>
     </row>
-    <row r="257" spans="1:10" ht="38" customHeight="1">
+    <row r="257" spans="1:10" ht="39" customHeight="1">
       <c r="A257" s="17"/>
       <c r="B257" s="14"/>
       <c r="C257" s="17"/>
@@ -14335,7 +14398,7 @@
       <c r="I257" s="17"/>
       <c r="J257" s="16"/>
     </row>
-    <row r="258" spans="1:10" ht="38" customHeight="1">
+    <row r="258" spans="1:10" ht="39" customHeight="1">
       <c r="A258" s="17"/>
       <c r="B258" s="14"/>
       <c r="C258" s="17"/>
@@ -14347,7 +14410,7 @@
       <c r="I258" s="17"/>
       <c r="J258" s="16"/>
     </row>
-    <row r="259" spans="1:10" ht="38" customHeight="1">
+    <row r="259" spans="1:10" ht="39" customHeight="1">
       <c r="A259" s="17"/>
       <c r="B259" s="14"/>
       <c r="C259" s="17"/>
@@ -14359,7 +14422,7 @@
       <c r="I259" s="17"/>
       <c r="J259" s="16"/>
     </row>
-    <row r="260" spans="1:10" ht="38" customHeight="1">
+    <row r="260" spans="1:10" ht="39" customHeight="1">
       <c r="A260" s="17"/>
       <c r="B260" s="14"/>
       <c r="C260" s="17"/>
@@ -14371,7 +14434,7 @@
       <c r="I260" s="17"/>
       <c r="J260" s="16"/>
     </row>
-    <row r="261" spans="1:10" ht="38" customHeight="1">
+    <row r="261" spans="1:10" ht="39" customHeight="1">
       <c r="A261" s="17"/>
       <c r="B261" s="14"/>
       <c r="C261" s="17"/>
@@ -14383,7 +14446,7 @@
       <c r="I261" s="17"/>
       <c r="J261" s="16"/>
     </row>
-    <row r="262" spans="1:10" ht="38" customHeight="1">
+    <row r="262" spans="1:10" ht="39" customHeight="1">
       <c r="A262" s="17"/>
       <c r="B262" s="14"/>
       <c r="C262" s="17"/>
@@ -14395,7 +14458,7 @@
       <c r="I262" s="17"/>
       <c r="J262" s="16"/>
     </row>
-    <row r="263" spans="1:10" ht="38" customHeight="1">
+    <row r="263" spans="1:10" ht="39" customHeight="1">
       <c r="A263" s="17"/>
       <c r="B263" s="14"/>
       <c r="C263" s="17"/>
@@ -14407,7 +14470,7 @@
       <c r="I263" s="17"/>
       <c r="J263" s="16"/>
     </row>
-    <row r="264" spans="1:10" ht="38" customHeight="1">
+    <row r="264" spans="1:10" ht="39" customHeight="1">
       <c r="A264" s="17"/>
       <c r="B264" s="14"/>
       <c r="C264" s="17"/>
@@ -14419,7 +14482,7 @@
       <c r="I264" s="17"/>
       <c r="J264" s="16"/>
     </row>
-    <row r="265" spans="1:10" ht="38" customHeight="1">
+    <row r="265" spans="1:10" ht="39" customHeight="1">
       <c r="A265" s="17"/>
       <c r="B265" s="14"/>
       <c r="C265" s="17"/>
@@ -14431,7 +14494,7 @@
       <c r="I265" s="17"/>
       <c r="J265" s="16"/>
     </row>
-    <row r="266" spans="1:10" ht="38" customHeight="1">
+    <row r="266" spans="1:10" ht="39" customHeight="1">
       <c r="A266" s="17"/>
       <c r="B266" s="14"/>
       <c r="C266" s="17"/>
@@ -14443,7 +14506,7 @@
       <c r="I266" s="17"/>
       <c r="J266" s="16"/>
     </row>
-    <row r="267" spans="1:10" ht="38" customHeight="1">
+    <row r="267" spans="1:10" ht="39" customHeight="1">
       <c r="A267" s="17"/>
       <c r="B267" s="14"/>
       <c r="C267" s="17"/>
@@ -14455,7 +14518,7 @@
       <c r="I267" s="17"/>
       <c r="J267" s="16"/>
     </row>
-    <row r="268" spans="1:10" ht="38" customHeight="1">
+    <row r="268" spans="1:10" ht="39" customHeight="1">
       <c r="A268" s="17"/>
       <c r="B268" s="14"/>
       <c r="C268" s="17"/>
@@ -14467,7 +14530,7 @@
       <c r="I268" s="17"/>
       <c r="J268" s="16"/>
     </row>
-    <row r="269" spans="1:10" ht="38" customHeight="1">
+    <row r="269" spans="1:10" ht="39" customHeight="1">
       <c r="A269" s="17"/>
       <c r="B269" s="14"/>
       <c r="C269" s="17"/>
@@ -14479,7 +14542,7 @@
       <c r="I269" s="17"/>
       <c r="J269" s="16"/>
     </row>
-    <row r="270" spans="1:10" ht="38" customHeight="1">
+    <row r="270" spans="1:10" ht="39" customHeight="1">
       <c r="A270" s="17"/>
       <c r="B270" s="14"/>
       <c r="C270" s="17"/>
@@ -14491,7 +14554,7 @@
       <c r="I270" s="17"/>
       <c r="J270" s="16"/>
     </row>
-    <row r="271" spans="1:10" ht="38" customHeight="1">
+    <row r="271" spans="1:10" ht="39" customHeight="1">
       <c r="A271" s="17"/>
       <c r="B271" s="14"/>
       <c r="C271" s="17"/>
@@ -14503,7 +14566,7 @@
       <c r="I271" s="17"/>
       <c r="J271" s="16"/>
     </row>
-    <row r="272" spans="1:10" ht="38" customHeight="1">
+    <row r="272" spans="1:10" ht="39" customHeight="1">
       <c r="A272" s="17"/>
       <c r="B272" s="14"/>
       <c r="C272" s="17"/>
@@ -14515,7 +14578,7 @@
       <c r="I272" s="17"/>
       <c r="J272" s="16"/>
     </row>
-    <row r="273" spans="1:10" ht="38" customHeight="1">
+    <row r="273" spans="1:10" ht="39" customHeight="1">
       <c r="A273" s="17"/>
       <c r="B273" s="14"/>
       <c r="C273" s="17"/>
@@ -14527,7 +14590,7 @@
       <c r="I273" s="17"/>
       <c r="J273" s="16"/>
     </row>
-    <row r="274" spans="1:10" ht="38" customHeight="1">
+    <row r="274" spans="1:10" ht="39" customHeight="1">
       <c r="A274" s="17"/>
       <c r="B274" s="14"/>
       <c r="C274" s="17"/>
@@ -14539,7 +14602,7 @@
       <c r="I274" s="17"/>
       <c r="J274" s="16"/>
     </row>
-    <row r="275" spans="1:10" ht="38" customHeight="1">
+    <row r="275" spans="1:10" ht="39" customHeight="1">
       <c r="A275" s="17"/>
       <c r="B275" s="14"/>
       <c r="C275" s="17"/>
@@ -14551,7 +14614,7 @@
       <c r="I275" s="17"/>
       <c r="J275" s="16"/>
     </row>
-    <row r="276" spans="1:10" ht="38" customHeight="1">
+    <row r="276" spans="1:10" ht="39" customHeight="1">
       <c r="A276" s="17"/>
       <c r="B276" s="14"/>
       <c r="C276" s="17"/>
@@ -14563,7 +14626,7 @@
       <c r="I276" s="17"/>
       <c r="J276" s="16"/>
     </row>
-    <row r="277" spans="1:10" ht="38" customHeight="1">
+    <row r="277" spans="1:10" ht="39" customHeight="1">
       <c r="A277" s="17"/>
       <c r="B277" s="14"/>
       <c r="C277" s="17"/>
@@ -14575,7 +14638,7 @@
       <c r="I277" s="17"/>
       <c r="J277" s="16"/>
     </row>
-    <row r="278" spans="1:10" ht="38" customHeight="1">
+    <row r="278" spans="1:10" ht="39" customHeight="1">
       <c r="A278" s="17"/>
       <c r="B278" s="14"/>
       <c r="C278" s="17"/>
@@ -14587,7 +14650,7 @@
       <c r="I278" s="17"/>
       <c r="J278" s="16"/>
     </row>
-    <row r="279" spans="1:10" ht="38" customHeight="1">
+    <row r="279" spans="1:10" ht="39" customHeight="1">
       <c r="A279" s="17"/>
       <c r="B279" s="14"/>
       <c r="C279" s="17"/>
@@ -14599,7 +14662,7 @@
       <c r="I279" s="17"/>
       <c r="J279" s="16"/>
     </row>
-    <row r="280" spans="1:10" ht="38" customHeight="1">
+    <row r="280" spans="1:10" ht="39" customHeight="1">
       <c r="A280" s="17"/>
       <c r="B280" s="14"/>
       <c r="C280" s="17"/>
@@ -14611,7 +14674,7 @@
       <c r="I280" s="17"/>
       <c r="J280" s="16"/>
     </row>
-    <row r="281" spans="1:10" ht="38" customHeight="1">
+    <row r="281" spans="1:10" ht="39" customHeight="1">
       <c r="A281" s="17"/>
       <c r="B281" s="14"/>
       <c r="C281" s="17"/>
@@ -14623,7 +14686,7 @@
       <c r="I281" s="17"/>
       <c r="J281" s="16"/>
     </row>
-    <row r="282" spans="1:10" ht="38" customHeight="1">
+    <row r="282" spans="1:10" ht="39" customHeight="1">
       <c r="A282" s="17"/>
       <c r="B282" s="14"/>
       <c r="C282" s="17"/>
@@ -14635,7 +14698,7 @@
       <c r="I282" s="17"/>
       <c r="J282" s="16"/>
     </row>
-    <row r="283" spans="1:10" ht="38" customHeight="1">
+    <row r="283" spans="1:10" ht="39" customHeight="1">
       <c r="A283" s="17"/>
       <c r="B283" s="14"/>
       <c r="C283" s="17"/>
@@ -14647,7 +14710,7 @@
       <c r="I283" s="17"/>
       <c r="J283" s="16"/>
     </row>
-    <row r="284" spans="1:10" ht="38" customHeight="1">
+    <row r="284" spans="1:10" ht="39" customHeight="1">
       <c r="A284" s="17"/>
       <c r="B284" s="14"/>
       <c r="C284" s="17"/>
@@ -14659,7 +14722,7 @@
       <c r="I284" s="17"/>
       <c r="J284" s="16"/>
     </row>
-    <row r="285" spans="1:10" ht="38" customHeight="1">
+    <row r="285" spans="1:10" ht="39" customHeight="1">
       <c r="A285" s="17"/>
       <c r="B285" s="14"/>
       <c r="C285" s="17"/>
@@ -14671,7 +14734,7 @@
       <c r="I285" s="17"/>
       <c r="J285" s="16"/>
     </row>
-    <row r="286" spans="1:10" ht="38" customHeight="1">
+    <row r="286" spans="1:10" ht="39" customHeight="1">
       <c r="A286" s="17"/>
       <c r="B286" s="14"/>
       <c r="C286" s="17"/>
@@ -14683,7 +14746,7 @@
       <c r="I286" s="17"/>
       <c r="J286" s="16"/>
     </row>
-    <row r="287" spans="1:10" ht="38" customHeight="1">
+    <row r="287" spans="1:10" ht="39" customHeight="1">
       <c r="A287" s="17"/>
       <c r="B287" s="14"/>
       <c r="C287" s="17"/>
@@ -14695,7 +14758,7 @@
       <c r="I287" s="17"/>
       <c r="J287" s="16"/>
     </row>
-    <row r="288" spans="1:10" ht="38" customHeight="1">
+    <row r="288" spans="1:10" ht="39" customHeight="1">
       <c r="A288" s="17"/>
       <c r="B288" s="14"/>
       <c r="C288" s="17"/>
@@ -14707,7 +14770,7 @@
       <c r="I288" s="17"/>
       <c r="J288" s="16"/>
     </row>
-    <row r="289" spans="1:10" ht="38" customHeight="1">
+    <row r="289" spans="1:10" ht="39" customHeight="1">
       <c r="A289" s="17"/>
       <c r="B289" s="14"/>
       <c r="C289" s="17"/>
@@ -14719,7 +14782,7 @@
       <c r="I289" s="17"/>
       <c r="J289" s="16"/>
     </row>
-    <row r="290" spans="1:10" ht="38" customHeight="1">
+    <row r="290" spans="1:10" ht="39" customHeight="1">
       <c r="A290" s="17"/>
       <c r="B290" s="14"/>
       <c r="C290" s="17"/>
@@ -14731,7 +14794,7 @@
       <c r="I290" s="17"/>
       <c r="J290" s="16"/>
     </row>
-    <row r="291" spans="1:10" ht="38" customHeight="1">
+    <row r="291" spans="1:10" ht="39" customHeight="1">
       <c r="A291" s="17"/>
       <c r="B291" s="14"/>
       <c r="C291" s="17"/>
@@ -14743,7 +14806,7 @@
       <c r="I291" s="17"/>
       <c r="J291" s="16"/>
     </row>
-    <row r="292" spans="1:10" ht="38" customHeight="1">
+    <row r="292" spans="1:10" ht="39" customHeight="1">
       <c r="A292" s="17"/>
       <c r="B292" s="14"/>
       <c r="C292" s="17"/>
@@ -14755,7 +14818,7 @@
       <c r="I292" s="17"/>
       <c r="J292" s="16"/>
     </row>
-    <row r="293" spans="1:10" ht="38" customHeight="1">
+    <row r="293" spans="1:10" ht="39" customHeight="1">
       <c r="A293" s="17"/>
       <c r="B293" s="14"/>
       <c r="C293" s="17"/>
@@ -14767,7 +14830,7 @@
       <c r="I293" s="17"/>
       <c r="J293" s="16"/>
     </row>
-    <row r="294" spans="1:10" ht="38" customHeight="1">
+    <row r="294" spans="1:10" ht="39" customHeight="1">
       <c r="A294" s="17"/>
       <c r="B294" s="14"/>
       <c r="C294" s="17"/>
@@ -14779,7 +14842,7 @@
       <c r="I294" s="17"/>
       <c r="J294" s="16"/>
     </row>
-    <row r="295" spans="1:10" ht="38" customHeight="1">
+    <row r="295" spans="1:10" ht="39" customHeight="1">
       <c r="A295" s="17"/>
       <c r="B295" s="14"/>
       <c r="C295" s="17"/>
@@ -14791,7 +14854,7 @@
       <c r="I295" s="17"/>
       <c r="J295" s="16"/>
     </row>
-    <row r="296" spans="1:10" ht="38" customHeight="1">
+    <row r="296" spans="1:10" ht="39" customHeight="1">
       <c r="A296" s="17"/>
       <c r="B296" s="14"/>
       <c r="C296" s="17"/>
@@ -14803,7 +14866,7 @@
       <c r="I296" s="17"/>
       <c r="J296" s="16"/>
     </row>
-    <row r="297" spans="1:10" ht="38" customHeight="1">
+    <row r="297" spans="1:10" ht="39" customHeight="1">
       <c r="A297" s="17"/>
       <c r="B297" s="14"/>
       <c r="C297" s="17"/>
@@ -14815,7 +14878,7 @@
       <c r="I297" s="17"/>
       <c r="J297" s="16"/>
     </row>
-    <row r="298" spans="1:10" ht="38" customHeight="1">
+    <row r="298" spans="1:10" ht="39" customHeight="1">
       <c r="A298" s="17"/>
       <c r="B298" s="14"/>
       <c r="C298" s="17"/>
@@ -14827,7 +14890,7 @@
       <c r="I298" s="17"/>
       <c r="J298" s="16"/>
     </row>
-    <row r="299" spans="1:10" ht="38" customHeight="1">
+    <row r="299" spans="1:10" ht="39" customHeight="1">
       <c r="A299" s="17"/>
       <c r="B299" s="14"/>
       <c r="C299" s="17"/>
@@ -14839,7 +14902,7 @@
       <c r="I299" s="17"/>
       <c r="J299" s="16"/>
     </row>
-    <row r="300" spans="1:10" ht="38" customHeight="1">
+    <row r="300" spans="1:10" ht="39" customHeight="1">
       <c r="A300" s="17"/>
       <c r="B300" s="14"/>
       <c r="C300" s="17"/>
@@ -14851,7 +14914,7 @@
       <c r="I300" s="17"/>
       <c r="J300" s="16"/>
     </row>
-    <row r="301" spans="1:10" ht="38" customHeight="1">
+    <row r="301" spans="1:10" ht="39" customHeight="1">
       <c r="A301" s="17"/>
       <c r="B301" s="14"/>
       <c r="C301" s="17"/>
@@ -14863,7 +14926,7 @@
       <c r="I301" s="17"/>
       <c r="J301" s="16"/>
     </row>
-    <row r="302" spans="1:10" ht="38" customHeight="1">
+    <row r="302" spans="1:10" ht="39" customHeight="1">
       <c r="A302" s="17"/>
       <c r="B302" s="14"/>
       <c r="C302" s="17"/>
@@ -14875,7 +14938,7 @@
       <c r="I302" s="17"/>
       <c r="J302" s="16"/>
     </row>
-    <row r="303" spans="1:10" ht="38" customHeight="1">
+    <row r="303" spans="1:10" ht="39" customHeight="1">
       <c r="A303" s="17"/>
       <c r="B303" s="14"/>
       <c r="C303" s="17"/>
@@ -14887,7 +14950,7 @@
       <c r="I303" s="17"/>
       <c r="J303" s="16"/>
     </row>
-    <row r="304" spans="1:10" ht="38" customHeight="1">
+    <row r="304" spans="1:10" ht="39" customHeight="1">
       <c r="A304" s="17"/>
       <c r="B304" s="14"/>
       <c r="C304" s="17"/>
@@ -14899,7 +14962,7 @@
       <c r="I304" s="17"/>
       <c r="J304" s="16"/>
     </row>
-    <row r="305" spans="1:10" ht="38" customHeight="1">
+    <row r="305" spans="1:10" ht="39" customHeight="1">
       <c r="A305" s="17"/>
       <c r="B305" s="14"/>
       <c r="C305" s="17"/>
@@ -14911,7 +14974,7 @@
       <c r="I305" s="17"/>
       <c r="J305" s="16"/>
     </row>
-    <row r="306" spans="1:10" ht="38" customHeight="1">
+    <row r="306" spans="1:10" ht="39" customHeight="1">
       <c r="A306" s="17"/>
       <c r="B306" s="14"/>
       <c r="C306" s="17"/>
@@ -14923,7 +14986,7 @@
       <c r="I306" s="17"/>
       <c r="J306" s="16"/>
     </row>
-    <row r="307" spans="1:10" ht="38" customHeight="1">
+    <row r="307" spans="1:10" ht="39" customHeight="1">
       <c r="A307" s="17"/>
       <c r="B307" s="14"/>
       <c r="C307" s="17"/>
@@ -14935,7 +14998,7 @@
       <c r="I307" s="17"/>
       <c r="J307" s="16"/>
     </row>
-    <row r="308" spans="1:10" ht="38" customHeight="1">
+    <row r="308" spans="1:10" ht="39" customHeight="1">
       <c r="A308" s="17"/>
       <c r="B308" s="14"/>
       <c r="C308" s="17"/>
@@ -14947,7 +15010,7 @@
       <c r="I308" s="17"/>
       <c r="J308" s="16"/>
     </row>
-    <row r="309" spans="1:10" ht="38" customHeight="1">
+    <row r="309" spans="1:10" ht="39" customHeight="1">
       <c r="A309" s="17"/>
       <c r="B309" s="14"/>
       <c r="C309" s="17"/>
@@ -14959,7 +15022,7 @@
       <c r="I309" s="17"/>
       <c r="J309" s="16"/>
     </row>
-    <row r="310" spans="1:10" ht="38" customHeight="1">
+    <row r="310" spans="1:10" ht="39" customHeight="1">
       <c r="A310" s="17"/>
       <c r="B310" s="14"/>
       <c r="C310" s="17"/>
@@ -14971,7 +15034,7 @@
       <c r="I310" s="17"/>
       <c r="J310" s="16"/>
     </row>
-    <row r="311" spans="1:10" ht="38" customHeight="1">
+    <row r="311" spans="1:10" ht="39" customHeight="1">
       <c r="A311" s="17"/>
       <c r="B311" s="14"/>
       <c r="C311" s="17"/>
@@ -14983,7 +15046,7 @@
       <c r="I311" s="17"/>
       <c r="J311" s="16"/>
     </row>
-    <row r="312" spans="1:10" ht="38" customHeight="1">
+    <row r="312" spans="1:10" ht="39" customHeight="1">
       <c r="A312" s="17"/>
       <c r="B312" s="14"/>
       <c r="C312" s="17"/>
@@ -14995,7 +15058,7 @@
       <c r="I312" s="17"/>
       <c r="J312" s="16"/>
     </row>
-    <row r="313" spans="1:10" ht="38" customHeight="1">
+    <row r="313" spans="1:10" ht="39" customHeight="1">
       <c r="A313" s="17"/>
       <c r="B313" s="14"/>
       <c r="C313" s="17"/>
@@ -15007,7 +15070,7 @@
       <c r="I313" s="17"/>
       <c r="J313" s="16"/>
     </row>
-    <row r="314" spans="1:10" ht="38" customHeight="1">
+    <row r="314" spans="1:10" ht="39" customHeight="1">
       <c r="A314" s="17"/>
       <c r="B314" s="14"/>
       <c r="C314" s="17"/>
@@ -15019,7 +15082,7 @@
       <c r="I314" s="17"/>
       <c r="J314" s="16"/>
     </row>
-    <row r="315" spans="1:10" ht="38" customHeight="1">
+    <row r="315" spans="1:10" ht="39" customHeight="1">
       <c r="A315" s="17"/>
       <c r="B315" s="14"/>
       <c r="C315" s="17"/>
@@ -15031,7 +15094,7 @@
       <c r="I315" s="17"/>
       <c r="J315" s="16"/>
     </row>
-    <row r="316" spans="1:10" ht="38" customHeight="1">
+    <row r="316" spans="1:10" ht="39" customHeight="1">
       <c r="A316" s="17"/>
       <c r="B316" s="14"/>
       <c r="C316" s="17"/>
@@ -15043,7 +15106,7 @@
       <c r="I316" s="17"/>
       <c r="J316" s="16"/>
     </row>
-    <row r="317" spans="1:10" ht="38" customHeight="1">
+    <row r="317" spans="1:10" ht="39" customHeight="1">
       <c r="A317" s="17"/>
       <c r="B317" s="14"/>
       <c r="C317" s="17"/>
@@ -15055,7 +15118,7 @@
       <c r="I317" s="17"/>
       <c r="J317" s="16"/>
     </row>
-    <row r="318" spans="1:10" ht="38" customHeight="1">
+    <row r="318" spans="1:10" ht="39" customHeight="1">
       <c r="A318" s="17"/>
       <c r="B318" s="14"/>
       <c r="C318" s="17"/>
@@ -15067,7 +15130,7 @@
       <c r="I318" s="17"/>
       <c r="J318" s="16"/>
     </row>
-    <row r="319" spans="1:10" ht="38" customHeight="1">
+    <row r="319" spans="1:10" ht="39" customHeight="1">
       <c r="A319" s="17"/>
       <c r="B319" s="14"/>
       <c r="C319" s="17"/>
@@ -15079,7 +15142,7 @@
       <c r="I319" s="17"/>
       <c r="J319" s="16"/>
     </row>
-    <row r="320" spans="1:10" ht="38" customHeight="1">
+    <row r="320" spans="1:10" ht="39" customHeight="1">
       <c r="A320" s="17"/>
       <c r="B320" s="14"/>
       <c r="C320" s="17"/>
@@ -15091,7 +15154,7 @@
       <c r="I320" s="17"/>
       <c r="J320" s="16"/>
     </row>
-    <row r="321" spans="1:10" ht="38" customHeight="1">
+    <row r="321" spans="1:10" ht="39" customHeight="1">
       <c r="A321" s="17"/>
       <c r="B321" s="14"/>
       <c r="C321" s="17"/>
@@ -15103,7 +15166,7 @@
       <c r="I321" s="17"/>
       <c r="J321" s="16"/>
     </row>
-    <row r="322" spans="1:10" ht="38" customHeight="1">
+    <row r="322" spans="1:10" ht="39" customHeight="1">
       <c r="A322" s="17"/>
       <c r="B322" s="14"/>
       <c r="C322" s="17"/>
@@ -15115,7 +15178,7 @@
       <c r="I322" s="17"/>
       <c r="J322" s="16"/>
     </row>
-    <row r="323" spans="1:10" ht="38" customHeight="1">
+    <row r="323" spans="1:10" ht="39" customHeight="1">
       <c r="A323" s="17"/>
       <c r="B323" s="14"/>
       <c r="C323" s="17"/>
@@ -15127,7 +15190,7 @@
       <c r="I323" s="17"/>
       <c r="J323" s="16"/>
     </row>
-    <row r="324" spans="1:10" ht="38" customHeight="1">
+    <row r="324" spans="1:10" ht="39" customHeight="1">
       <c r="A324" s="17"/>
       <c r="B324" s="14"/>
       <c r="C324" s="17"/>
@@ -15139,7 +15202,7 @@
       <c r="I324" s="17"/>
       <c r="J324" s="16"/>
     </row>
-    <row r="325" spans="1:10" ht="38" customHeight="1">
+    <row r="325" spans="1:10" ht="39" customHeight="1">
       <c r="A325" s="17"/>
       <c r="B325" s="14"/>
       <c r="C325" s="17"/>
@@ -15151,7 +15214,7 @@
       <c r="I325" s="17"/>
       <c r="J325" s="16"/>
     </row>
-    <row r="326" spans="1:10" ht="38" customHeight="1">
+    <row r="326" spans="1:10" ht="39" customHeight="1">
       <c r="A326" s="17"/>
       <c r="B326" s="14"/>
       <c r="C326" s="17"/>
@@ -15163,7 +15226,7 @@
       <c r="I326" s="17"/>
       <c r="J326" s="16"/>
     </row>
-    <row r="327" spans="1:10" ht="38" customHeight="1">
+    <row r="327" spans="1:10" ht="39" customHeight="1">
       <c r="A327" s="17"/>
       <c r="B327" s="14"/>
       <c r="C327" s="17"/>
@@ -15175,7 +15238,7 @@
       <c r="I327" s="17"/>
       <c r="J327" s="16"/>
     </row>
-    <row r="328" spans="1:10" ht="38" customHeight="1">
+    <row r="328" spans="1:10" ht="39" customHeight="1">
       <c r="A328" s="17"/>
       <c r="B328" s="14"/>
       <c r="C328" s="17"/>
@@ -15187,7 +15250,7 @@
       <c r="I328" s="17"/>
       <c r="J328" s="16"/>
     </row>
-    <row r="329" spans="1:10" ht="38" customHeight="1">
+    <row r="329" spans="1:10" ht="39" customHeight="1">
       <c r="A329" s="17"/>
       <c r="B329" s="14"/>
       <c r="C329" s="17"/>
@@ -15199,7 +15262,7 @@
       <c r="I329" s="17"/>
       <c r="J329" s="16"/>
     </row>
-    <row r="330" spans="1:10" ht="38" customHeight="1">
+    <row r="330" spans="1:10" ht="39" customHeight="1">
       <c r="A330" s="17"/>
       <c r="B330" s="14"/>
       <c r="C330" s="17"/>
@@ -15211,7 +15274,7 @@
       <c r="I330" s="17"/>
       <c r="J330" s="16"/>
     </row>
-    <row r="331" spans="1:10" ht="38" customHeight="1">
+    <row r="331" spans="1:10" ht="39" customHeight="1">
       <c r="A331" s="17"/>
       <c r="B331" s="14"/>
       <c r="C331" s="17"/>
@@ -15223,7 +15286,7 @@
       <c r="I331" s="17"/>
       <c r="J331" s="16"/>
     </row>
-    <row r="332" spans="1:10" ht="38" customHeight="1">
+    <row r="332" spans="1:10" ht="39" customHeight="1">
       <c r="A332" s="17"/>
       <c r="B332" s="14"/>
       <c r="C332" s="17"/>
@@ -15235,7 +15298,7 @@
       <c r="I332" s="17"/>
       <c r="J332" s="16"/>
     </row>
-    <row r="333" spans="1:10" ht="38" customHeight="1">
+    <row r="333" spans="1:10" ht="39" customHeight="1">
       <c r="A333" s="17"/>
       <c r="B333" s="14"/>
       <c r="C333" s="17"/>
@@ -15247,7 +15310,7 @@
       <c r="I333" s="17"/>
       <c r="J333" s="16"/>
     </row>
-    <row r="334" spans="1:10" ht="38" customHeight="1">
+    <row r="334" spans="1:10" ht="39" customHeight="1">
       <c r="A334" s="17"/>
       <c r="B334" s="14"/>
       <c r="C334" s="17"/>
@@ -15259,7 +15322,7 @@
       <c r="I334" s="17"/>
       <c r="J334" s="16"/>
     </row>
-    <row r="335" spans="1:10" ht="38" customHeight="1">
+    <row r="335" spans="1:10" ht="39" customHeight="1">
       <c r="A335" s="17"/>
       <c r="B335" s="14"/>
       <c r="C335" s="17"/>
@@ -15271,7 +15334,7 @@
       <c r="I335" s="17"/>
       <c r="J335" s="16"/>
     </row>
-    <row r="336" spans="1:10" ht="38" customHeight="1">
+    <row r="336" spans="1:10" ht="39" customHeight="1">
       <c r="A336" s="17"/>
       <c r="B336" s="14"/>
       <c r="C336" s="17"/>
@@ -15283,7 +15346,7 @@
       <c r="I336" s="17"/>
       <c r="J336" s="16"/>
     </row>
-    <row r="337" spans="1:10" ht="38" customHeight="1">
+    <row r="337" spans="1:10" ht="39" customHeight="1">
       <c r="A337" s="17"/>
       <c r="B337" s="14"/>
       <c r="C337" s="17"/>
@@ -15295,7 +15358,7 @@
       <c r="I337" s="17"/>
       <c r="J337" s="16"/>
     </row>
-    <row r="338" spans="1:10" ht="38" customHeight="1">
+    <row r="338" spans="1:10" ht="39" customHeight="1">
       <c r="A338" s="17"/>
       <c r="B338" s="14"/>
       <c r="C338" s="17"/>
@@ -15307,7 +15370,7 @@
       <c r="I338" s="17"/>
       <c r="J338" s="16"/>
     </row>
-    <row r="339" spans="1:10" ht="38" customHeight="1">
+    <row r="339" spans="1:10" ht="39" customHeight="1">
       <c r="A339" s="17"/>
       <c r="B339" s="14"/>
       <c r="C339" s="17"/>
@@ -15319,7 +15382,7 @@
       <c r="I339" s="17"/>
       <c r="J339" s="16"/>
     </row>
-    <row r="340" spans="1:10" ht="38" customHeight="1">
+    <row r="340" spans="1:10" ht="39" customHeight="1">
       <c r="A340" s="17"/>
       <c r="B340" s="14"/>
       <c r="C340" s="17"/>
@@ -15331,7 +15394,7 @@
       <c r="I340" s="17"/>
       <c r="J340" s="16"/>
     </row>
-    <row r="341" spans="1:10" ht="38" customHeight="1">
+    <row r="341" spans="1:10" ht="39" customHeight="1">
       <c r="A341" s="17"/>
       <c r="B341" s="14"/>
       <c r="C341" s="17"/>
@@ -15343,7 +15406,7 @@
       <c r="I341" s="17"/>
       <c r="J341" s="16"/>
     </row>
-    <row r="342" spans="1:10" ht="38" customHeight="1">
+    <row r="342" spans="1:10" ht="39" customHeight="1">
       <c r="A342" s="17"/>
       <c r="B342" s="14"/>
       <c r="C342" s="17"/>
@@ -15355,7 +15418,7 @@
       <c r="I342" s="17"/>
       <c r="J342" s="16"/>
     </row>
-    <row r="343" spans="1:10" ht="38" customHeight="1">
+    <row r="343" spans="1:10" ht="39" customHeight="1">
       <c r="A343" s="17"/>
       <c r="B343" s="14"/>
       <c r="C343" s="17"/>
@@ -15367,7 +15430,7 @@
       <c r="I343" s="17"/>
       <c r="J343" s="16"/>
     </row>
-    <row r="344" spans="1:10" ht="38" customHeight="1">
+    <row r="344" spans="1:10" ht="39" customHeight="1">
       <c r="A344" s="17"/>
       <c r="B344" s="14"/>
       <c r="C344" s="17"/>
@@ -15379,7 +15442,7 @@
       <c r="I344" s="17"/>
       <c r="J344" s="16"/>
     </row>
-    <row r="345" spans="1:10" ht="38" customHeight="1">
+    <row r="345" spans="1:10" ht="39" customHeight="1">
       <c r="A345" s="17"/>
       <c r="B345" s="14"/>
       <c r="C345" s="17"/>
@@ -15391,7 +15454,7 @@
       <c r="I345" s="17"/>
       <c r="J345" s="16"/>
     </row>
-    <row r="346" spans="1:10" ht="38" customHeight="1">
+    <row r="346" spans="1:10" ht="39" customHeight="1">
       <c r="A346" s="17"/>
       <c r="B346" s="14"/>
       <c r="C346" s="17"/>
@@ -15403,7 +15466,7 @@
       <c r="I346" s="17"/>
       <c r="J346" s="16"/>
     </row>
-    <row r="347" spans="1:10" ht="38" customHeight="1">
+    <row r="347" spans="1:10" ht="39" customHeight="1">
       <c r="A347" s="17"/>
       <c r="B347" s="14"/>
       <c r="C347" s="17"/>
@@ -15415,7 +15478,7 @@
       <c r="I347" s="17"/>
       <c r="J347" s="16"/>
     </row>
-    <row r="348" spans="1:10" ht="38" customHeight="1">
+    <row r="348" spans="1:10" ht="39" customHeight="1">
       <c r="A348" s="17"/>
       <c r="B348" s="14"/>
       <c r="C348" s="17"/>
@@ -15427,7 +15490,7 @@
       <c r="I348" s="17"/>
       <c r="J348" s="16"/>
     </row>
-    <row r="349" spans="1:10" ht="38" customHeight="1">
+    <row r="349" spans="1:10" ht="39" customHeight="1">
       <c r="A349" s="17"/>
       <c r="B349" s="14"/>
       <c r="C349" s="17"/>
@@ -15439,7 +15502,7 @@
       <c r="I349" s="17"/>
       <c r="J349" s="16"/>
     </row>
-    <row r="350" spans="1:10" ht="38" customHeight="1">
+    <row r="350" spans="1:10" ht="39" customHeight="1">
       <c r="A350" s="17"/>
       <c r="B350" s="14"/>
       <c r="C350" s="17"/>
@@ -15451,7 +15514,7 @@
       <c r="I350" s="17"/>
       <c r="J350" s="16"/>
     </row>
-    <row r="351" spans="1:10" ht="38" customHeight="1">
+    <row r="351" spans="1:10" ht="39" customHeight="1">
       <c r="A351" s="17"/>
       <c r="B351" s="14"/>
       <c r="C351" s="17"/>
@@ -15463,7 +15526,7 @@
       <c r="I351" s="17"/>
       <c r="J351" s="16"/>
     </row>
-    <row r="352" spans="1:10" ht="38" customHeight="1">
+    <row r="352" spans="1:10" ht="39" customHeight="1">
       <c r="A352" s="17"/>
       <c r="B352" s="14"/>
       <c r="C352" s="17"/>
@@ -15475,7 +15538,7 @@
       <c r="I352" s="17"/>
       <c r="J352" s="16"/>
     </row>
-    <row r="353" spans="1:10" ht="38" customHeight="1">
+    <row r="353" spans="1:10" ht="39" customHeight="1">
       <c r="A353" s="17"/>
       <c r="B353" s="14"/>
       <c r="C353" s="17"/>
@@ -15487,7 +15550,7 @@
       <c r="I353" s="17"/>
       <c r="J353" s="16"/>
     </row>
-    <row r="354" spans="1:10" ht="38" customHeight="1">
+    <row r="354" spans="1:10" ht="39" customHeight="1">
       <c r="A354" s="17"/>
       <c r="B354" s="14"/>
       <c r="C354" s="17"/>
@@ -15499,7 +15562,7 @@
       <c r="I354" s="17"/>
       <c r="J354" s="16"/>
     </row>
-    <row r="355" spans="1:10" ht="38" customHeight="1">
+    <row r="355" spans="1:10" ht="39" customHeight="1">
       <c r="A355" s="17"/>
       <c r="B355" s="14"/>
       <c r="C355" s="17"/>
@@ -15511,7 +15574,7 @@
       <c r="I355" s="17"/>
       <c r="J355" s="16"/>
     </row>
-    <row r="356" spans="1:10" ht="38" customHeight="1">
+    <row r="356" spans="1:10" ht="39" customHeight="1">
       <c r="A356" s="17"/>
       <c r="B356" s="14"/>
       <c r="C356" s="17"/>
@@ -15523,7 +15586,7 @@
       <c r="I356" s="17"/>
       <c r="J356" s="16"/>
     </row>
-    <row r="357" spans="1:10" ht="38" customHeight="1">
+    <row r="357" spans="1:10" ht="39" customHeight="1">
       <c r="A357" s="17"/>
       <c r="B357" s="14"/>
       <c r="C357" s="17"/>
@@ -15535,7 +15598,7 @@
       <c r="I357" s="17"/>
       <c r="J357" s="16"/>
     </row>
-    <row r="358" spans="1:10" ht="38" customHeight="1">
+    <row r="358" spans="1:10" ht="39" customHeight="1">
       <c r="A358" s="17"/>
       <c r="B358" s="14"/>
       <c r="C358" s="17"/>
@@ -15547,7 +15610,7 @@
       <c r="I358" s="17"/>
       <c r="J358" s="16"/>
     </row>
-    <row r="359" spans="1:10" ht="38" customHeight="1">
+    <row r="359" spans="1:10" ht="39" customHeight="1">
       <c r="A359" s="17"/>
       <c r="B359" s="14"/>
       <c r="C359" s="17"/>
@@ -15559,7 +15622,7 @@
       <c r="I359" s="17"/>
       <c r="J359" s="16"/>
     </row>
-    <row r="360" spans="1:10" ht="38" customHeight="1">
+    <row r="360" spans="1:10" ht="39" customHeight="1">
       <c r="A360" s="17"/>
       <c r="B360" s="14"/>
       <c r="C360" s="17"/>
@@ -15571,7 +15634,7 @@
       <c r="I360" s="17"/>
       <c r="J360" s="16"/>
     </row>
-    <row r="361" spans="1:10" ht="38" customHeight="1">
+    <row r="361" spans="1:10" ht="39" customHeight="1">
       <c r="A361" s="17"/>
       <c r="B361" s="14"/>
       <c r="C361" s="17"/>
@@ -15583,7 +15646,7 @@
       <c r="I361" s="17"/>
       <c r="J361" s="16"/>
     </row>
-    <row r="362" spans="1:10" ht="38" customHeight="1">
+    <row r="362" spans="1:10" ht="39" customHeight="1">
       <c r="A362" s="17"/>
       <c r="B362" s="14"/>
       <c r="C362" s="17"/>
@@ -15595,7 +15658,7 @@
       <c r="I362" s="17"/>
       <c r="J362" s="16"/>
     </row>
-    <row r="363" spans="1:10" ht="38" customHeight="1">
+    <row r="363" spans="1:10" ht="39" customHeight="1">
       <c r="A363" s="17"/>
       <c r="B363" s="14"/>
       <c r="C363" s="17"/>
@@ -15607,7 +15670,7 @@
       <c r="I363" s="17"/>
       <c r="J363" s="16"/>
     </row>
-    <row r="364" spans="1:10" ht="38" customHeight="1">
+    <row r="364" spans="1:10" ht="39" customHeight="1">
       <c r="A364" s="17"/>
       <c r="B364" s="14"/>
       <c r="C364" s="17"/>
@@ -15619,7 +15682,7 @@
       <c r="I364" s="17"/>
       <c r="J364" s="16"/>
     </row>
-    <row r="365" spans="1:10" ht="38" customHeight="1">
+    <row r="365" spans="1:10" ht="39" customHeight="1">
       <c r="A365" s="17"/>
       <c r="B365" s="14"/>
       <c r="C365" s="17"/>
@@ -15631,7 +15694,7 @@
       <c r="I365" s="17"/>
       <c r="J365" s="16"/>
     </row>
-    <row r="366" spans="1:10" ht="38" customHeight="1">
+    <row r="366" spans="1:10" ht="39" customHeight="1">
       <c r="A366" s="17"/>
       <c r="B366" s="14"/>
       <c r="C366" s="17"/>
@@ -15643,7 +15706,7 @@
       <c r="I366" s="17"/>
       <c r="J366" s="16"/>
     </row>
-    <row r="367" spans="1:10" ht="38" customHeight="1">
+    <row r="367" spans="1:10" ht="39" customHeight="1">
       <c r="A367" s="17"/>
       <c r="B367" s="14"/>
       <c r="C367" s="17"/>
@@ -15655,7 +15718,7 @@
       <c r="I367" s="17"/>
       <c r="J367" s="16"/>
     </row>
-    <row r="368" spans="1:10" ht="38" customHeight="1">
+    <row r="368" spans="1:10" ht="39" customHeight="1">
       <c r="A368" s="17"/>
       <c r="B368" s="14"/>
       <c r="C368" s="17"/>
@@ -15667,7 +15730,7 @@
       <c r="I368" s="17"/>
       <c r="J368" s="16"/>
     </row>
-    <row r="369" spans="1:10" ht="38" customHeight="1">
+    <row r="369" spans="1:10" ht="39" customHeight="1">
       <c r="A369" s="17"/>
       <c r="B369" s="14"/>
       <c r="C369" s="17"/>
@@ -15679,7 +15742,7 @@
       <c r="I369" s="17"/>
       <c r="J369" s="16"/>
     </row>
-    <row r="370" spans="1:10" ht="38" customHeight="1">
+    <row r="370" spans="1:10" ht="39" customHeight="1">
       <c r="A370" s="17"/>
       <c r="B370" s="14"/>
       <c r="C370" s="17"/>
@@ -15691,7 +15754,7 @@
       <c r="I370" s="17"/>
       <c r="J370" s="16"/>
     </row>
-    <row r="371" spans="1:10" ht="38" customHeight="1">
+    <row r="371" spans="1:10" ht="39" customHeight="1">
       <c r="A371" s="17"/>
       <c r="B371" s="14"/>
       <c r="C371" s="17"/>
@@ -15703,7 +15766,7 @@
       <c r="I371" s="17"/>
       <c r="J371" s="16"/>
     </row>
-    <row r="372" spans="1:10" ht="38" customHeight="1">
+    <row r="372" spans="1:10" ht="39" customHeight="1">
       <c r="A372" s="17"/>
       <c r="B372" s="14"/>
       <c r="C372" s="17"/>
@@ -15715,7 +15778,7 @@
       <c r="I372" s="17"/>
       <c r="J372" s="16"/>
     </row>
-    <row r="373" spans="1:10" ht="38" customHeight="1">
+    <row r="373" spans="1:10" ht="39" customHeight="1">
       <c r="A373" s="17"/>
       <c r="B373" s="14"/>
       <c r="C373" s="17"/>
@@ -15727,7 +15790,7 @@
       <c r="I373" s="17"/>
       <c r="J373" s="16"/>
     </row>
-    <row r="374" spans="1:10" ht="38" customHeight="1">
+    <row r="374" spans="1:10" ht="39" customHeight="1">
       <c r="A374" s="17"/>
       <c r="B374" s="14"/>
       <c r="C374" s="17"/>
@@ -15739,7 +15802,7 @@
       <c r="I374" s="17"/>
       <c r="J374" s="16"/>
     </row>
-    <row r="375" spans="1:10" ht="38" customHeight="1">
+    <row r="375" spans="1:10" ht="39" customHeight="1">
       <c r="A375" s="17"/>
       <c r="B375" s="14"/>
       <c r="C375" s="17"/>
@@ -15751,7 +15814,7 @@
       <c r="I375" s="17"/>
       <c r="J375" s="16"/>
     </row>
-    <row r="376" spans="1:10" ht="38" customHeight="1">
+    <row r="376" spans="1:10" ht="39" customHeight="1">
       <c r="A376" s="17"/>
       <c r="B376" s="14"/>
       <c r="C376" s="17"/>
@@ -15763,7 +15826,7 @@
       <c r="I376" s="17"/>
       <c r="J376" s="16"/>
     </row>
-    <row r="377" spans="1:10" ht="38" customHeight="1">
+    <row r="377" spans="1:10" ht="39" customHeight="1">
       <c r="A377" s="17"/>
       <c r="B377" s="14"/>
       <c r="C377" s="17"/>
@@ -15775,7 +15838,7 @@
       <c r="I377" s="17"/>
       <c r="J377" s="16"/>
     </row>
-    <row r="378" spans="1:10" ht="38" customHeight="1">
+    <row r="378" spans="1:10" ht="39" customHeight="1">
       <c r="A378" s="17"/>
       <c r="B378" s="14"/>
       <c r="C378" s="17"/>
@@ -15787,7 +15850,7 @@
       <c r="I378" s="17"/>
       <c r="J378" s="16"/>
     </row>
-    <row r="379" spans="1:10" ht="38" customHeight="1">
+    <row r="379" spans="1:10" ht="39" customHeight="1">
       <c r="A379" s="17"/>
       <c r="B379" s="14"/>
       <c r="C379" s="17"/>
@@ -15799,7 +15862,7 @@
       <c r="I379" s="17"/>
       <c r="J379" s="16"/>
     </row>
-    <row r="380" spans="1:10" ht="38" customHeight="1">
+    <row r="380" spans="1:10" ht="39" customHeight="1">
       <c r="A380" s="17"/>
       <c r="B380" s="14"/>
       <c r="C380" s="17"/>
@@ -15811,7 +15874,7 @@
       <c r="I380" s="17"/>
       <c r="J380" s="16"/>
     </row>
-    <row r="381" spans="1:10" ht="38" customHeight="1">
+    <row r="381" spans="1:10" ht="39" customHeight="1">
       <c r="A381" s="17"/>
       <c r="B381" s="14"/>
       <c r="C381" s="17"/>
@@ -15823,7 +15886,7 @@
       <c r="I381" s="17"/>
       <c r="J381" s="16"/>
     </row>
-    <row r="382" spans="1:10" ht="38" customHeight="1">
+    <row r="382" spans="1:10" ht="39" customHeight="1">
       <c r="A382" s="17"/>
       <c r="B382" s="14"/>
       <c r="C382" s="17"/>
@@ -15835,7 +15898,7 @@
       <c r="I382" s="17"/>
       <c r="J382" s="16"/>
     </row>
-    <row r="383" spans="1:10" ht="38" customHeight="1">
+    <row r="383" spans="1:10" ht="39" customHeight="1">
       <c r="A383" s="17"/>
       <c r="B383" s="14"/>
       <c r="C383" s="17"/>
@@ -15847,7 +15910,7 @@
       <c r="I383" s="17"/>
       <c r="J383" s="16"/>
     </row>
-    <row r="384" spans="1:10" ht="38" customHeight="1">
+    <row r="384" spans="1:10" ht="39" customHeight="1">
       <c r="A384" s="17"/>
       <c r="B384" s="14"/>
       <c r="C384" s="17"/>
@@ -15859,7 +15922,7 @@
       <c r="I384" s="17"/>
       <c r="J384" s="16"/>
     </row>
-    <row r="385" spans="1:10" ht="38" customHeight="1">
+    <row r="385" spans="1:10" ht="39" customHeight="1">
       <c r="A385" s="17"/>
       <c r="B385" s="14"/>
       <c r="C385" s="17"/>
@@ -15871,7 +15934,7 @@
       <c r="I385" s="17"/>
       <c r="J385" s="16"/>
     </row>
-    <row r="386" spans="1:10" ht="38" customHeight="1">
+    <row r="386" spans="1:10" ht="39" customHeight="1">
       <c r="A386" s="17"/>
       <c r="B386" s="14"/>
       <c r="C386" s="17"/>
@@ -15883,7 +15946,7 @@
       <c r="I386" s="17"/>
       <c r="J386" s="16"/>
     </row>
-    <row r="387" spans="1:10" ht="38" customHeight="1">
+    <row r="387" spans="1:10" ht="39" customHeight="1">
       <c r="A387" s="17"/>
       <c r="B387" s="14"/>
       <c r="C387" s="17"/>
@@ -15895,7 +15958,7 @@
       <c r="I387" s="17"/>
       <c r="J387" s="16"/>
     </row>
-    <row r="388" spans="1:10" ht="38" customHeight="1">
+    <row r="388" spans="1:10" ht="39" customHeight="1">
       <c r="A388" s="17"/>
       <c r="B388" s="14"/>
       <c r="C388" s="17"/>
@@ -15907,7 +15970,7 @@
       <c r="I388" s="17"/>
       <c r="J388" s="16"/>
     </row>
-    <row r="389" spans="1:10" ht="38" customHeight="1">
+    <row r="389" spans="1:10" ht="39" customHeight="1">
       <c r="A389" s="17"/>
       <c r="B389" s="14"/>
       <c r="C389" s="17"/>
@@ -15919,7 +15982,7 @@
       <c r="I389" s="17"/>
       <c r="J389" s="16"/>
     </row>
-    <row r="390" spans="1:10" ht="38" customHeight="1">
+    <row r="390" spans="1:10" ht="39" customHeight="1">
       <c r="A390" s="17"/>
       <c r="B390" s="14"/>
       <c r="C390" s="17"/>
@@ -17320,7 +17383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5BD41-F360-D64B-BA12-0F85656DC41E}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+    <sheetView topLeftCell="B26" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5502757A-D36E-924F-8B21-F98FDA4944D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19AB4A2-9C12-824E-9B9A-E11A1F7E7CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29860" windowHeight="19180" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="494">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9120,6 +9120,22 @@
     <t xml:space="preserve">亚盘全网盘口:赢=43,输=78,走=0,输盘概率最大,为64.46%
 亚盘本联赛盘口:赢=1,输=2,走=0,输盘概率最大,为66.67%
 比分概率前三分别是：[1:1](15次)     [0:0](15次)     [0:1](14次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23K1联赛第12轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大田市民</t>
+  </si>
+  <si>
+    <t>水原FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=63,输=95,走=0,输盘概率最大,为60.13%
+亚盘本联赛盘口:赢=0,输=5,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[1:0](21次)     [0:0](20次)     [1:1](19次)  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9409,7 +9425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9625,6 +9641,21 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9949,8 +9980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J390"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="39" customHeight="1"/>
@@ -10543,33 +10574,33 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="39" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="73">
         <v>45036.461805555555</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="10" t="s">
-        <v>71</v>
+      <c r="I20" s="76"/>
+      <c r="J20" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="39" customHeight="1">
@@ -12215,16 +12246,34 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="39" customHeight="1">
-      <c r="A76" s="17"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="28"/>
+      <c r="A76" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="B76" s="14">
+        <v>45056.770833333336</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H76" s="28" t="s">
+        <v>493</v>
+      </c>
       <c r="I76" s="17"/>
-      <c r="J76" s="16"/>
+      <c r="J76" s="16" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="77" spans="1:10" ht="39" customHeight="1">
       <c r="A77" s="17"/>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19AB4A2-9C12-824E-9B9A-E11A1F7E7CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D39B66-B717-6141-B3DE-554FCA529A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29860" windowHeight="19180" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="502">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8931,20 +8931,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22/23埃及甲第27轮</t>
-  </si>
-  <si>
-    <t>艾德瀚德</t>
-  </si>
-  <si>
-    <t>金字塔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">亚盘全网盘口:赢=1,输=7,走=0,输盘概率最大,为87.50%
-比分概率前三分别是：[1:2](4次)     [0:3](1次)     [0:2](1次)   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>22/23乌超第25轮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -9137,6 +9123,48 @@
 亚盘本联赛盘口:赢=0,输=5,走=0,输盘概率最大,为100.00%
 比分概率前三分别是：[1:0](21次)     [0:0](20次)     [1:1](19次)  </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23马其甲第32轮</t>
+  </si>
+  <si>
+    <t>施历斯</t>
+  </si>
+  <si>
+    <t>拉布特尼基</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=1,输=4,走=0,输盘概率最大,为80.00%
+比分概率前三分别是：[0:0](2次)     [0:1](1次)     [2:2](1次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23沙特甲第31轮</t>
+  </si>
+  <si>
+    <t>阿沙希尔</t>
+  </si>
+  <si>
+    <t>纳积兰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=73,输=119,走=0,输盘概率最大,为61.98%
+比分概率前三分别是：[1:1](25次)     [1:0](22次)     [0:0](21次) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23沙特联第26轮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=3,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:1](1次)     [4:2](1次)     [2:1](1次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴腾</t>
+  </si>
+  <si>
+    <t>阿尔泰</t>
   </si>
 </sst>
 </file>
@@ -9425,7 +9453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9641,21 +9669,6 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9978,10 +9991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
-  <dimension ref="A1:J390"/>
+  <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="39" customHeight="1"/>
@@ -10574,31 +10587,31 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="39" customHeight="1">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="73">
+      <c r="B20" s="14">
         <v>45036.461805555555</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="74" t="s">
+      <c r="G20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="75" t="s">
+      <c r="H20" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="I20" s="76"/>
+      <c r="I20" s="26"/>
       <c r="J20" s="16" t="s">
         <v>57</v>
       </c>
@@ -11893,7 +11906,7 @@
     </row>
     <row r="64" spans="1:10" ht="39" customHeight="1">
       <c r="A64" s="17" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B64" s="14">
         <v>45054.75</v>
@@ -11923,7 +11936,7 @@
     </row>
     <row r="65" spans="1:10" ht="39" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B65" s="14">
         <v>45054.791666666664</v>
@@ -11952,275 +11965,279 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="39" customHeight="1">
-      <c r="A66" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="B66" s="14">
-        <v>45054.875</v>
-      </c>
-      <c r="C66" s="17" t="s">
+      <c r="A66" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="B66" s="8">
+        <v>45054.916666666664</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="D66" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="E66" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H66" s="28" t="s">
+      <c r="E66" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H66" s="33" t="s">
         <v>452</v>
       </c>
-      <c r="I66" s="17"/>
-      <c r="J66" s="16"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="10" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="67" spans="1:10" ht="39" customHeight="1">
       <c r="A67" s="11" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B67" s="8">
         <v>45054.916666666664</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I67" s="11"/>
       <c r="J67" s="10" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="39" customHeight="1">
       <c r="A68" s="11" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B68" s="8">
         <v>45054.916666666664</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>457</v>
+        <v>198</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="H68" s="33" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I68" s="11"/>
       <c r="J68" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="39" customHeight="1">
+      <c r="A69" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="B69" s="14">
+        <v>45054.916666666664</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G69" s="16" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="39" customHeight="1">
-      <c r="A69" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B69" s="8">
+      <c r="H69" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="I69" s="17"/>
+      <c r="J69" s="16"/>
+    </row>
+    <row r="70" spans="1:10" ht="39" customHeight="1">
+      <c r="A70" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B70" s="8">
         <v>45054.916666666664</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C70" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H70" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="I70" s="11"/>
+      <c r="J70" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="39" customHeight="1">
+      <c r="A71" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B71" s="14">
+        <v>45055.041666666664</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H71" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="I71" s="17"/>
+      <c r="J71" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="39" customHeight="1">
+      <c r="A72" s="63" t="s">
+        <v>467</v>
+      </c>
+      <c r="B72" s="64">
+        <v>45055.041666666664</v>
+      </c>
+      <c r="C72" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="D72" s="63" t="s">
         <v>476</v>
       </c>
-      <c r="D69" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E69" s="10" t="s">
+      <c r="E72" s="65" t="s">
+        <v>468</v>
+      </c>
+      <c r="F72" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="G72" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="H72" s="66" t="s">
+        <v>469</v>
+      </c>
+      <c r="I72" s="63"/>
+      <c r="J72" s="65" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="39" customHeight="1">
+      <c r="A73" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="B73" s="22">
+        <v>45055.770833333336</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="E73" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="F69" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G69" s="10" t="s">
+      <c r="F73" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="H69" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="I69" s="11"/>
-      <c r="J69" s="10" t="s">
+      <c r="H73" s="71" t="s">
+        <v>482</v>
+      </c>
+      <c r="I73" s="21"/>
+      <c r="J73" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="39" customHeight="1">
-      <c r="A70" s="17" t="s">
-        <v>460</v>
-      </c>
-      <c r="B70" s="14">
-        <v>45054.916666666664</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G70" s="16" t="s">
+    <row r="74" spans="1:10" ht="39" customHeight="1">
+      <c r="A74" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="B74" s="14">
+        <v>45055.770833333336</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G74" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="H70" s="28" t="s">
-        <v>462</v>
-      </c>
-      <c r="I70" s="17"/>
-      <c r="J70" s="16"/>
-    </row>
-    <row r="71" spans="1:10" ht="39" customHeight="1">
-      <c r="A71" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B71" s="8">
-        <v>45054.916666666664</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="H71" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="I71" s="11"/>
-      <c r="J71" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="39" customHeight="1">
-      <c r="A72" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="B72" s="14">
-        <v>45055.041666666664</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="F72" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="H72" s="28" t="s">
-        <v>470</v>
-      </c>
-      <c r="I72" s="17"/>
-      <c r="J72" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="39" customHeight="1">
-      <c r="A73" s="63" t="s">
-        <v>471</v>
-      </c>
-      <c r="B73" s="64">
-        <v>45055.041666666664</v>
-      </c>
-      <c r="C73" s="63" t="s">
-        <v>481</v>
-      </c>
-      <c r="D73" s="63" t="s">
-        <v>480</v>
-      </c>
-      <c r="E73" s="65" t="s">
-        <v>472</v>
-      </c>
-      <c r="F73" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="G73" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="H73" s="66" t="s">
-        <v>473</v>
-      </c>
-      <c r="I73" s="63"/>
-      <c r="J73" s="65" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="39" customHeight="1">
-      <c r="A74" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="B74" s="22">
-        <v>45055.770833333336</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>484</v>
-      </c>
-      <c r="D74" s="21" t="s">
+      <c r="H74" s="28" t="s">
         <v>485</v>
       </c>
-      <c r="E74" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="F74" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="H74" s="71" t="s">
-        <v>486</v>
-      </c>
-      <c r="I74" s="21"/>
-      <c r="J74" s="23" t="s">
+      <c r="I74" s="17"/>
+      <c r="J74" s="16" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="39" customHeight="1">
       <c r="A75" s="17" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B75" s="14">
-        <v>45055.770833333336</v>
+        <v>45056.770833333336</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>487</v>
@@ -12229,10 +12246,10 @@
         <v>488</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="G75" s="16" t="s">
         <v>71</v>
@@ -12250,7 +12267,7 @@
         <v>490</v>
       </c>
       <c r="B76" s="14">
-        <v>45056.770833333336</v>
+        <v>45056.958333333336</v>
       </c>
       <c r="C76" s="17" t="s">
         <v>491</v>
@@ -12259,11 +12276,9 @@
         <v>492</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="F76" s="16" t="s">
-        <v>9</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F76" s="16"/>
       <c r="G76" s="16" t="s">
         <v>71</v>
       </c>
@@ -12271,31 +12286,57 @@
         <v>493</v>
       </c>
       <c r="I76" s="17"/>
-      <c r="J76" s="16" t="s">
-        <v>178</v>
-      </c>
+      <c r="J76" s="16"/>
     </row>
     <row r="77" spans="1:10" ht="39" customHeight="1">
-      <c r="A77" s="17"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="16"/>
+      <c r="A77" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="B77" s="14">
+        <v>45056.96875</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>253</v>
+      </c>
       <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="28"/>
+      <c r="G77" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H77" s="28" t="s">
+        <v>497</v>
+      </c>
       <c r="I77" s="17"/>
       <c r="J77" s="16"/>
     </row>
     <row r="78" spans="1:10" ht="39" customHeight="1">
-      <c r="A78" s="17"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="16"/>
+      <c r="A78" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="B78" s="14">
+        <v>45057</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>101</v>
+      </c>
       <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="28"/>
+      <c r="G78" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H78" s="28" t="s">
+        <v>499</v>
+      </c>
       <c r="I78" s="17"/>
       <c r="J78" s="16"/>
     </row>
@@ -16030,18 +16071,6 @@
       <c r="H389" s="28"/>
       <c r="I389" s="17"/>
       <c r="J389" s="16"/>
-    </row>
-    <row r="390" spans="1:10" ht="39" customHeight="1">
-      <c r="A390" s="17"/>
-      <c r="B390" s="14"/>
-      <c r="C390" s="17"/>
-      <c r="D390" s="17"/>
-      <c r="E390" s="16"/>
-      <c r="F390" s="16"/>
-      <c r="G390" s="16"/>
-      <c r="H390" s="28"/>
-      <c r="I390" s="17"/>
-      <c r="J390" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -18163,16 +18192,16 @@
     </row>
     <row r="31" spans="1:8" ht="50" customHeight="1">
       <c r="A31" s="43" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B31" s="49">
         <v>45055.041666666664</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>13</v>
@@ -18181,7 +18210,7 @@
         <v>248</v>
       </c>
       <c r="G31" s="48" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H31" s="26"/>
     </row>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8144A647-9016-D143-88D2-15B452AAE933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF45631-9EA6-D343-AB4A-8F381B2DC2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="518">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9227,6 +9227,32 @@
   </si>
   <si>
     <t>桑托斯拉古纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23阿联超第26轮</t>
+  </si>
+  <si>
+    <t>豪尔费坎</t>
+  </si>
+  <si>
+    <t>迪拜瓦斯尔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=5,输=12,走=0,输盘概率最大,为70.59%
+比分概率前三分别是：[0:1](4次)     [1:2](4次)     [1:0](2次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪拜纳斯尔</t>
+  </si>
+  <si>
+    <t>沙瑞加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=25,输=10,走=0,赢盘概率最大,为71.43%
+亚盘本联赛盘口:赢=2,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:0](6次)     [1:1](6次)     [2:1](5次)     </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10056,8 +10082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="39" customHeight="1"/>
@@ -12446,26 +12472,54 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="39" customHeight="1">
-      <c r="A80" s="17"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="16"/>
+      <c r="A80" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="B80" s="14">
+        <v>45057.927083333336</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>100</v>
+      </c>
       <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="28"/>
+      <c r="G80" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H80" s="28" t="s">
+        <v>514</v>
+      </c>
       <c r="I80" s="17"/>
       <c r="J80" s="16"/>
     </row>
     <row r="81" spans="1:10" ht="39" customHeight="1">
-      <c r="A81" s="17"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="16"/>
+      <c r="A81" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="B81" s="14">
+        <v>45058.020833333336</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>227</v>
+      </c>
       <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="28"/>
+      <c r="G81" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H81" s="28" t="s">
+        <v>517</v>
+      </c>
       <c r="I81" s="17"/>
       <c r="J81" s="16"/>
     </row>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/football_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF45631-9EA6-D343-AB4A-8F381B2DC2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614C681E-7ADA-5043-B460-795B6384F4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="526">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9253,6 +9253,34 @@
     <t xml:space="preserve">亚盘全网盘口:赢=25,输=10,走=0,赢盘概率最大,为71.43%
 亚盘本联赛盘口:赢=2,输=0,走=0,赢盘概率最大,为100.00%
 比分概率前三分别是：[1:0](6次)     [1:1](6次)     [2:1](5次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23智甲第13轮</t>
+  </si>
+  <si>
+    <t>伊瓦顿</t>
+  </si>
+  <si>
+    <t>巴勒斯坦人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=29,输=20,走=0,赢盘概率最大,为59.18%
+比分概率前三分别是：[1:0](11次)     [2:0](7次)     [1:1](5次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23秘鲁甲第6轮</t>
+  </si>
+  <si>
+    <t>利马联盟</t>
+  </si>
+  <si>
+    <t>塞萨大学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=31,输=16,走=0,赢盘概率最大,为65.96%
+比分概率前三分别是：[2:0](9次)     [1:0](7次)     [0:0](6次) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10083,7 +10111,7 @@
   <dimension ref="A1:J389"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="39" customHeight="1"/>
@@ -12472,78 +12500,114 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="39" customHeight="1">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="B80" s="14">
+      <c r="B80" s="8">
         <v>45057.927083333336</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16" t="s">
+      <c r="F80" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G80" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H80" s="28" t="s">
+      <c r="H80" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="I80" s="17"/>
-      <c r="J80" s="16"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="81" spans="1:10" ht="39" customHeight="1">
-      <c r="A81" s="17" t="s">
+      <c r="A81" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="B81" s="14">
+      <c r="B81" s="8">
         <v>45058.020833333336</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D81" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16" t="s">
+      <c r="F81" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G81" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="H81" s="28" t="s">
+      <c r="H81" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="I81" s="17"/>
-      <c r="J81" s="16"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="10" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="82" spans="1:10" ht="39" customHeight="1">
-      <c r="A82" s="17"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="16"/>
+      <c r="A82" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="B82" s="14">
+        <v>45058.354166666664</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>253</v>
+      </c>
       <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="28"/>
+      <c r="G82" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="28" t="s">
+        <v>521</v>
+      </c>
       <c r="I82" s="17"/>
       <c r="J82" s="16"/>
     </row>
     <row r="83" spans="1:10" ht="39" customHeight="1">
-      <c r="A83" s="17"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="16"/>
+      <c r="A83" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="B83" s="14">
+        <v>45058.375</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>183</v>
+      </c>
       <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="28"/>
+      <c r="G83" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H83" s="28" t="s">
+        <v>525</v>
+      </c>
       <c r="I83" s="17"/>
       <c r="J83" s="16"/>
     </row>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614C681E-7ADA-5043-B460-795B6384F4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0839847F-65A9-4D4A-A6BD-F07A82F4E3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="529">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9281,6 +9281,18 @@
   <si>
     <t xml:space="preserve">亚盘全网盘口:赢=31,输=16,走=0,赢盘概率最大,为65.96%
 比分概率前三分别是：[2:0](9次)     [1:0](7次)     [0:0](6次) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿特拉斯</t>
+  </si>
+  <si>
+    <t>瓜达拉哈拉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=39,输=60,走=10,输盘概率最大,为55.05%
+亚盘本联赛盘口:赢=1,输=5,走=0,输盘概率最大,为83.33%
+比分概率前三分别是：[1:1](20次)     [0:0](11次)     [2:1](11次)     </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10111,7 +10123,7 @@
   <dimension ref="A1:J389"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="39" customHeight="1"/>
@@ -12612,14 +12624,28 @@
       <c r="J83" s="16"/>
     </row>
     <row r="84" spans="1:10" ht="39" customHeight="1">
-      <c r="A84" s="17"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="16"/>
+      <c r="A84" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="B84" s="14">
+        <v>45058.375</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="28"/>
+      <c r="G84" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H84" s="28" t="s">
+        <v>528</v>
+      </c>
       <c r="I84" s="17"/>
       <c r="J84" s="16"/>
     </row>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0839847F-65A9-4D4A-A6BD-F07A82F4E3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8142B1C3-839C-3442-A5BF-7675E502CC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="529">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7657,241 +7657,6 @@
     <t>阿斯顿维拉</t>
   </si>
   <si>
-    <r>
-      <t>亚盘全网盘口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>=17,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>=4,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>走</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>=0,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赢盘概率最大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">80.95%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亚盘本联赛盘口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>=3,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>=1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>走</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>=0,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赢盘概率最大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>75.00%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">              比分概率前三分别是：[2:1](4次)     [3:1](3次)     [1:0](2次)    </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>维罗纳</t>
   </si>
   <si>
@@ -9256,9 +9021,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23智甲第13轮</t>
-  </si>
-  <si>
     <t>伊瓦顿</t>
   </si>
   <si>
@@ -9293,6 +9055,245 @@
     <t xml:space="preserve">亚盘全网盘口:赢=39,输=60,走=10,输盘概率最大,为55.05%
 亚盘本联赛盘口:赢=1,输=5,走=0,输盘概率最大,为83.33%
 比分概率前三分别是：[1:1](20次)     [0:0](11次)     [2:1](11次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23智甲第13轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>亚盘全网盘口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>=17,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>=4,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>走</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>=0,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赢盘概率最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">80.95%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚盘本联赛盘口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>=3,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>=1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>走</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>=0,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赢盘概率最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>75.00%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">              比分概率前三分别是：[2:1](4次)     [3:1](3次)     [1:0](2次)    </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9303,7 +9304,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9513,6 +9514,33 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="9" tint="0.59999389629810485"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="9" tint="0.59999389629810485"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="0.59999389629810485"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="0.59999389629810485"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -9582,7 +9610,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9797,6 +9825,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10122,11 +10162,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="39" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="25.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
@@ -10139,7 +10179,7 @@
     <col min="10" max="16384" width="17.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39" customHeight="1">
+    <row r="1" spans="1:10" ht="63" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -10171,7 +10211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="39" customHeight="1">
+    <row r="2" spans="1:10" ht="63" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -10201,7 +10241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="39" customHeight="1">
+    <row r="3" spans="1:10" ht="63" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
@@ -10231,7 +10271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="39" customHeight="1">
+    <row r="4" spans="1:10" ht="63" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -10263,7 +10303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="39" customHeight="1">
+    <row r="5" spans="1:10" ht="63" customHeight="1">
       <c r="A5" s="21" t="s">
         <v>27</v>
       </c>
@@ -10293,7 +10333,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="39" customHeight="1">
+    <row r="6" spans="1:10" ht="63" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
@@ -10321,7 +10361,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:10" ht="39" customHeight="1">
+    <row r="7" spans="1:10" ht="63" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>88</v>
       </c>
@@ -10353,7 +10393,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="39" customHeight="1">
+    <row r="8" spans="1:10" ht="63" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
@@ -10383,7 +10423,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="39" customHeight="1">
+    <row r="9" spans="1:10" ht="63" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>91</v>
       </c>
@@ -10413,7 +10453,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="39" customHeight="1">
+    <row r="10" spans="1:10" ht="63" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>103</v>
       </c>
@@ -10443,7 +10483,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="39" customHeight="1">
+    <row r="11" spans="1:10" ht="63" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>72</v>
       </c>
@@ -10473,7 +10513,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="39" customHeight="1">
+    <row r="12" spans="1:10" ht="63" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>110</v>
       </c>
@@ -10503,7 +10543,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="39" customHeight="1">
+    <row r="13" spans="1:10" ht="63" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>110</v>
       </c>
@@ -10533,7 +10573,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="39" customHeight="1">
+    <row r="14" spans="1:10" ht="63" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>118</v>
       </c>
@@ -10563,7 +10603,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="39" customHeight="1">
+    <row r="15" spans="1:10" ht="63" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>110</v>
       </c>
@@ -10593,7 +10633,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="39" customHeight="1">
+    <row r="16" spans="1:10" ht="63" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>125</v>
       </c>
@@ -10625,7 +10665,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="39" customHeight="1">
+    <row r="17" spans="1:10" ht="63" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>86</v>
       </c>
@@ -10655,7 +10695,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="39" customHeight="1">
+    <row r="18" spans="1:10" ht="63" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>151</v>
       </c>
@@ -10685,7 +10725,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="39" customHeight="1">
+    <row r="19" spans="1:10" ht="63" customHeight="1">
       <c r="A19" s="17" t="s">
         <v>156</v>
       </c>
@@ -10715,7 +10755,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="39" customHeight="1">
+    <row r="20" spans="1:10" ht="63" customHeight="1">
       <c r="A20" s="17" t="s">
         <v>163</v>
       </c>
@@ -10745,7 +10785,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="39" customHeight="1">
+    <row r="21" spans="1:10" ht="63" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>171</v>
       </c>
@@ -10775,7 +10815,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="39" customHeight="1">
+    <row r="22" spans="1:10" ht="63" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>175</v>
       </c>
@@ -10805,7 +10845,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="39" customHeight="1">
+    <row r="23" spans="1:10" ht="63" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>180</v>
       </c>
@@ -10833,7 +10873,7 @@
       <c r="I23" s="26"/>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="1:10" ht="39" customHeight="1">
+    <row r="24" spans="1:10" ht="63" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>193</v>
       </c>
@@ -10863,7 +10903,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="39" customHeight="1">
+    <row r="25" spans="1:10" ht="63" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>197</v>
       </c>
@@ -10893,7 +10933,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="39" customHeight="1">
+    <row r="26" spans="1:10" ht="63" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>244</v>
       </c>
@@ -10923,7 +10963,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="39" customHeight="1">
+    <row r="27" spans="1:10" ht="63" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>223</v>
       </c>
@@ -10953,7 +10993,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="39" customHeight="1">
+    <row r="28" spans="1:10" ht="63" customHeight="1">
       <c r="A28" s="17" t="s">
         <v>218</v>
       </c>
@@ -10983,7 +11023,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="39" customHeight="1">
+    <row r="29" spans="1:10" ht="63" customHeight="1">
       <c r="A29" s="17" t="s">
         <v>232</v>
       </c>
@@ -11013,7 +11053,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="39" customHeight="1">
+    <row r="30" spans="1:10" ht="63" customHeight="1">
       <c r="A30" s="17" t="s">
         <v>236</v>
       </c>
@@ -11043,7 +11083,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="39" customHeight="1">
+    <row r="31" spans="1:10" ht="63" customHeight="1">
       <c r="A31" s="63" t="s">
         <v>213</v>
       </c>
@@ -11073,7 +11113,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="39" customHeight="1">
+    <row r="32" spans="1:10" ht="63" customHeight="1">
       <c r="A32" s="17" t="s">
         <v>250</v>
       </c>
@@ -11103,7 +11143,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="39" customHeight="1">
+    <row r="33" spans="1:10" ht="63" customHeight="1">
       <c r="A33" s="17" t="s">
         <v>254</v>
       </c>
@@ -11133,7 +11173,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="39" customHeight="1">
+    <row r="34" spans="1:10" ht="63" customHeight="1">
       <c r="A34" s="17" t="s">
         <v>260</v>
       </c>
@@ -11163,7 +11203,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="39" customHeight="1">
+    <row r="35" spans="1:10" ht="63" customHeight="1">
       <c r="A35" s="63" t="s">
         <v>264</v>
       </c>
@@ -11193,7 +11233,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="39" customHeight="1">
+    <row r="36" spans="1:10" ht="63" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>267</v>
       </c>
@@ -11223,7 +11263,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="39" customHeight="1">
+    <row r="37" spans="1:10" ht="63" customHeight="1">
       <c r="A37" s="17" t="s">
         <v>278</v>
       </c>
@@ -11253,7 +11293,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="39" customHeight="1">
+    <row r="38" spans="1:10" ht="63" customHeight="1">
       <c r="A38" s="17" t="s">
         <v>281</v>
       </c>
@@ -11283,7 +11323,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="39" customHeight="1">
+    <row r="39" spans="1:10" ht="63" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>281</v>
       </c>
@@ -11313,9 +11353,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="39" customHeight="1">
+    <row r="40" spans="1:10" ht="63" customHeight="1">
       <c r="A40" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B40" s="14">
         <v>45045.875</v>
@@ -11343,9 +11383,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="39" customHeight="1">
+    <row r="41" spans="1:10" ht="63" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B41" s="8">
         <v>45045.916666666664</v>
@@ -11373,9 +11413,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="39" customHeight="1">
+    <row r="42" spans="1:10" ht="63" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B42" s="14">
         <v>45045.916666666664</v>
@@ -11403,7 +11443,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="39" customHeight="1">
+    <row r="43" spans="1:10" ht="63" customHeight="1">
       <c r="A43" s="63" t="s">
         <v>310</v>
       </c>
@@ -11420,7 +11460,7 @@
         <v>117</v>
       </c>
       <c r="F43" s="65" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G43" s="65" t="s">
         <v>178</v>
@@ -11433,7 +11473,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="39" customHeight="1">
+    <row r="44" spans="1:10" ht="63" customHeight="1">
       <c r="A44" s="11" t="s">
         <v>310</v>
       </c>
@@ -11463,9 +11503,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="39" customHeight="1">
+    <row r="45" spans="1:10" ht="63" customHeight="1">
       <c r="A45" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B45" s="8">
         <v>45046.791666666664</v>
@@ -11493,39 +11533,39 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="39" customHeight="1">
-      <c r="A46" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="B46" s="8">
+    <row r="46" spans="1:10" ht="63" customHeight="1">
+      <c r="A46" s="72" t="s">
+        <v>378</v>
+      </c>
+      <c r="B46" s="73">
         <v>45046.84375</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="72" t="s">
         <v>337</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="72" t="s">
         <v>338</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="74" t="s">
         <v>245</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="H46" s="33" t="s">
+      <c r="H46" s="75" t="s">
         <v>339</v>
       </c>
-      <c r="I46" s="11"/>
-      <c r="J46" s="10" t="s">
+      <c r="I46" s="72"/>
+      <c r="J46" s="74" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="39" customHeight="1">
+    <row r="47" spans="1:10" ht="63" customHeight="1">
       <c r="A47" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B47" s="8">
         <v>45046.875</v>
@@ -11553,81 +11593,81 @@
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="39" customHeight="1">
-      <c r="A48" s="11" t="s">
+    <row r="48" spans="1:10" ht="63" customHeight="1">
+      <c r="A48" s="72" t="s">
         <v>306</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="73">
         <v>45046.875</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="72" t="s">
         <v>344</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="H48" s="33" t="s">
+      <c r="H48" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="I48" s="72"/>
+      <c r="J48" s="74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="63" customHeight="1">
+      <c r="A49" s="72" t="s">
+        <v>380</v>
+      </c>
+      <c r="B49" s="73">
+        <v>45046.875</v>
+      </c>
+      <c r="C49" s="72" t="s">
+        <v>379</v>
+      </c>
+      <c r="D49" s="72" t="s">
         <v>345</v>
       </c>
-      <c r="I48" s="11"/>
-      <c r="J48" s="10" t="s">
+      <c r="E49" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="74" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="39" customHeight="1">
-      <c r="A49" s="11" t="s">
+      <c r="H49" s="75" t="s">
+        <v>346</v>
+      </c>
+      <c r="I49" s="72"/>
+      <c r="J49" s="74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="63" customHeight="1">
+      <c r="A50" s="17" t="s">
         <v>381</v>
-      </c>
-      <c r="B49" s="8">
-        <v>45046.875</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="H49" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="I49" s="11"/>
-      <c r="J49" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="39" customHeight="1">
-      <c r="A50" s="17" t="s">
-        <v>382</v>
       </c>
       <c r="B50" s="14">
         <v>45046.916666666664</v>
       </c>
       <c r="C50" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>349</v>
-      </c>
       <c r="E50" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F50" s="16" t="s">
         <v>106</v>
@@ -11636,76 +11676,76 @@
         <v>178</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I50" s="17"/>
       <c r="J50" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="39" customHeight="1">
-      <c r="A51" s="11" t="s">
+    <row r="51" spans="1:10" ht="63" customHeight="1">
+      <c r="A51" s="72" t="s">
+        <v>382</v>
+      </c>
+      <c r="B51" s="73">
+        <v>45047</v>
+      </c>
+      <c r="C51" s="72" t="s">
+        <v>351</v>
+      </c>
+      <c r="D51" s="72" t="s">
+        <v>352</v>
+      </c>
+      <c r="E51" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72" t="s">
         <v>383</v>
       </c>
-      <c r="B51" s="8">
-        <v>45047</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H51" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11" t="s">
+    </row>
+    <row r="52" spans="1:10" ht="63" customHeight="1">
+      <c r="A52" s="17" t="s">
         <v>384</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="39" customHeight="1">
-      <c r="A52" s="17" t="s">
-        <v>385</v>
       </c>
       <c r="B52" s="14">
         <v>45047</v>
       </c>
       <c r="C52" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="D52" s="17" t="s">
         <v>355</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>356</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>230</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G52" s="16" t="s">
         <v>178</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I52" s="17"/>
       <c r="J52" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="39" customHeight="1">
+    <row r="53" spans="1:10" ht="63" customHeight="1">
       <c r="A53" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B53" s="8">
         <v>45047.916666666664</v>
@@ -11714,7 +11754,7 @@
         <v>256</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>121</v>
@@ -11726,25 +11766,25 @@
         <v>71</v>
       </c>
       <c r="H53" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="70" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="39" customHeight="1">
+    <row r="54" spans="1:10" ht="63" customHeight="1">
       <c r="A54" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B54" s="22">
         <v>45053</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>253</v>
@@ -11756,25 +11796,25 @@
         <v>71</v>
       </c>
       <c r="H54" s="71" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I54" s="21"/>
       <c r="J54" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="39" customHeight="1">
+    <row r="55" spans="1:10" ht="63" customHeight="1">
       <c r="A55" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B55" s="8">
         <v>45053.041666666664</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>287</v>
@@ -11786,22 +11826,22 @@
         <v>178</v>
       </c>
       <c r="H55" s="33" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="39" customHeight="1">
+    <row r="56" spans="1:10" ht="63" customHeight="1">
       <c r="A56" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B56" s="14">
         <v>45053.041666666664</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>119</v>
@@ -11810,61 +11850,61 @@
         <v>253</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G56" s="16" t="s">
         <v>178</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I56" s="17"/>
       <c r="J56" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="39" customHeight="1">
+    <row r="57" spans="1:10" ht="63" customHeight="1">
       <c r="A57" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B57" s="8">
         <v>45053.041666666664</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>100</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>71</v>
       </c>
       <c r="H57" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="39" customHeight="1">
+    <row r="58" spans="1:10" ht="63" customHeight="1">
       <c r="A58" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B58" s="8">
         <v>45053.041666666664</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>253</v>
@@ -11876,25 +11916,25 @@
         <v>71</v>
       </c>
       <c r="H58" s="33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="39" customHeight="1">
+    <row r="59" spans="1:10" ht="63" customHeight="1">
       <c r="A59" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B59" s="8">
         <v>45053.083333333336</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>230</v>
@@ -11906,25 +11946,25 @@
         <v>71</v>
       </c>
       <c r="H59" s="33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="39" customHeight="1">
+    <row r="60" spans="1:10" ht="63" customHeight="1">
       <c r="A60" s="63" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B60" s="64">
         <v>45053.583333333336</v>
       </c>
       <c r="C60" s="63" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D60" s="63" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E60" s="65" t="s">
         <v>242</v>
@@ -11936,25 +11976,25 @@
         <v>178</v>
       </c>
       <c r="H60" s="66" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I60" s="63"/>
       <c r="J60" s="65" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="39" customHeight="1">
+    <row r="61" spans="1:10" ht="63" customHeight="1">
       <c r="A61" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B61" s="14">
         <v>45053.625</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>257</v>
@@ -11966,25 +12006,25 @@
         <v>178</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="39" customHeight="1">
+    <row r="62" spans="1:10" ht="63" customHeight="1">
       <c r="A62" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B62" s="14">
         <v>45053.895833333336</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>257</v>
@@ -11996,25 +12036,25 @@
         <v>178</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="39" customHeight="1">
+    <row r="63" spans="1:10" ht="63" customHeight="1">
       <c r="A63" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B63" s="14">
         <v>45053.916666666664</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>230</v>
@@ -12026,28 +12066,28 @@
         <v>178</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I63" s="17"/>
       <c r="J63" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="39" customHeight="1">
+    <row r="64" spans="1:10" ht="63" customHeight="1">
       <c r="A64" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B64" s="14">
         <v>45054.75</v>
       </c>
       <c r="C64" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="D64" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="D64" s="17" t="s">
-        <v>443</v>
-      </c>
       <c r="E64" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F64" s="16" t="s">
         <v>245</v>
@@ -12056,25 +12096,25 @@
         <v>178</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I64" s="17"/>
       <c r="J64" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="39" customHeight="1">
+    <row r="65" spans="1:10" ht="63" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B65" s="14">
         <v>45054.791666666664</v>
       </c>
       <c r="C65" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>446</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>447</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>287</v>
@@ -12086,25 +12126,25 @@
         <v>71</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I65" s="17"/>
       <c r="J65" s="16" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="39" customHeight="1">
+    <row r="66" spans="1:10" ht="63" customHeight="1">
       <c r="A66" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B66" s="8">
         <v>45054.916666666664</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>257</v>
@@ -12116,52 +12156,52 @@
         <v>178</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I66" s="11"/>
       <c r="J66" s="10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="39" customHeight="1">
-      <c r="A67" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B67" s="8">
+    <row r="67" spans="1:10" ht="63" customHeight="1">
+      <c r="A67" s="72" t="s">
+        <v>449</v>
+      </c>
+      <c r="B67" s="73">
         <v>45054.916666666664</v>
       </c>
-      <c r="C67" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="D67" s="11" t="s">
+      <c r="C67" s="72" t="s">
+        <v>470</v>
+      </c>
+      <c r="D67" s="72" t="s">
+        <v>452</v>
+      </c>
+      <c r="E67" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="F67" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="H67" s="75" t="s">
         <v>453</v>
       </c>
-      <c r="E67" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="10" t="s">
+      <c r="I67" s="72"/>
+      <c r="J67" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="H67" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="I67" s="11"/>
-      <c r="J67" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="39" customHeight="1">
+    </row>
+    <row r="68" spans="1:10" ht="63" customHeight="1">
       <c r="A68" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B68" s="8">
         <v>45054.916666666664</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>198</v>
@@ -12176,25 +12216,25 @@
         <v>178</v>
       </c>
       <c r="H68" s="33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I68" s="11"/>
       <c r="J68" s="10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="39" customHeight="1">
+    <row r="69" spans="1:10" ht="63" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B69" s="14">
         <v>45054.916666666664</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>96</v>
@@ -12206,23 +12246,23 @@
         <v>71</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I69" s="17"/>
       <c r="J69" s="16"/>
     </row>
-    <row r="70" spans="1:10" ht="39" customHeight="1">
+    <row r="70" spans="1:10" ht="63" customHeight="1">
       <c r="A70" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B70" s="8">
         <v>45054.916666666664</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>98</v>
@@ -12234,16 +12274,16 @@
         <v>178</v>
       </c>
       <c r="H70" s="33" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I70" s="11"/>
       <c r="J70" s="10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="39" customHeight="1">
+    <row r="71" spans="1:10" ht="63" customHeight="1">
       <c r="A71" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B71" s="14">
         <v>45055.041666666664</v>
@@ -12258,34 +12298,34 @@
         <v>287</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>178</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="39" customHeight="1">
+    <row r="72" spans="1:10" ht="63" customHeight="1">
       <c r="A72" s="63" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B72" s="64">
         <v>45055.041666666664</v>
       </c>
       <c r="C72" s="63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D72" s="63" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E72" s="65" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F72" s="65" t="s">
         <v>130</v>
@@ -12294,55 +12334,55 @@
         <v>71</v>
       </c>
       <c r="H72" s="66" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I72" s="63"/>
       <c r="J72" s="65" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="39" customHeight="1">
-      <c r="A73" s="21" t="s">
+    <row r="73" spans="1:10" ht="63" customHeight="1">
+      <c r="A73" s="72" t="s">
+        <v>477</v>
+      </c>
+      <c r="B73" s="73">
+        <v>45055.770833333336</v>
+      </c>
+      <c r="C73" s="72" t="s">
         <v>478</v>
       </c>
-      <c r="B73" s="22">
-        <v>45055.770833333336</v>
-      </c>
-      <c r="C73" s="21" t="s">
+      <c r="D73" s="72" t="s">
         <v>479</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="E73" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="F73" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="H73" s="75" t="s">
         <v>480</v>
       </c>
-      <c r="E73" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="F73" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="23" t="s">
+      <c r="I73" s="72"/>
+      <c r="J73" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="H73" s="71" t="s">
-        <v>481</v>
-      </c>
-      <c r="I73" s="21"/>
-      <c r="J73" s="23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="39" customHeight="1">
+    </row>
+    <row r="74" spans="1:10" ht="63" customHeight="1">
       <c r="A74" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B74" s="14">
         <v>45055.770833333336</v>
       </c>
       <c r="C74" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="D74" s="17" t="s">
         <v>482</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>483</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>253</v>
@@ -12354,25 +12394,25 @@
         <v>71</v>
       </c>
       <c r="H74" s="28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="16" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="39" customHeight="1">
+    <row r="75" spans="1:10" ht="63" customHeight="1">
       <c r="A75" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B75" s="14">
         <v>45056.770833333336</v>
       </c>
       <c r="C75" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="D75" s="17" t="s">
         <v>486</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>487</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>257</v>
@@ -12384,25 +12424,25 @@
         <v>71</v>
       </c>
       <c r="H75" s="28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I75" s="17"/>
       <c r="J75" s="16" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="39" customHeight="1">
+    <row r="76" spans="1:10" ht="63" customHeight="1">
       <c r="A76" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B76" s="14">
         <v>45056.958333333336</v>
       </c>
       <c r="C76" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="D76" s="17" t="s">
         <v>490</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>491</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>102</v>
@@ -12414,25 +12454,25 @@
         <v>71</v>
       </c>
       <c r="H76" s="28" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="16" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="39" customHeight="1">
+    <row r="77" spans="1:10" ht="63" customHeight="1">
       <c r="A77" s="17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B77" s="14">
         <v>45056.96875</v>
       </c>
       <c r="C77" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>494</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>495</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>253</v>
@@ -12444,85 +12484,85 @@
         <v>71</v>
       </c>
       <c r="H77" s="28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="16" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="39" customHeight="1">
+    <row r="78" spans="1:10" ht="63" customHeight="1">
       <c r="A78" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B78" s="8">
         <v>45057</v>
       </c>
       <c r="C78" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>499</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>500</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>101</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G78" s="10" t="s">
         <v>178</v>
       </c>
       <c r="H78" s="33" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I78" s="11"/>
       <c r="J78" s="10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="39" customHeight="1">
-      <c r="A79" s="11" t="s">
+    <row r="79" spans="1:10" ht="63" customHeight="1">
+      <c r="A79" s="72" t="s">
+        <v>505</v>
+      </c>
+      <c r="B79" s="73">
+        <v>45057.375</v>
+      </c>
+      <c r="C79" s="72" t="s">
+        <v>509</v>
+      </c>
+      <c r="D79" s="72" t="s">
         <v>506</v>
       </c>
-      <c r="B79" s="8">
-        <v>45057.375</v>
-      </c>
-      <c r="C79" s="11" t="s">
+      <c r="E79" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="F79" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="H79" s="75" t="s">
+        <v>507</v>
+      </c>
+      <c r="I79" s="72"/>
+      <c r="J79" s="74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="63" customHeight="1">
+      <c r="A80" s="11" t="s">
         <v>510</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="H79" s="33" t="s">
-        <v>508</v>
-      </c>
-      <c r="I79" s="11"/>
-      <c r="J79" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="39" customHeight="1">
-      <c r="A80" s="11" t="s">
-        <v>511</v>
       </c>
       <c r="B80" s="8">
         <v>45057.927083333336</v>
       </c>
       <c r="C80" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="D80" s="11" t="s">
         <v>512</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>513</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>100</v>
@@ -12534,122 +12574,134 @@
         <v>71</v>
       </c>
       <c r="H80" s="33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I80" s="11"/>
       <c r="J80" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="39" customHeight="1">
-      <c r="A81" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B81" s="8">
+    <row r="81" spans="1:10" ht="63" customHeight="1">
+      <c r="A81" s="72" t="s">
+        <v>510</v>
+      </c>
+      <c r="B81" s="73">
         <v>45058.020833333336</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="72" t="s">
+        <v>514</v>
+      </c>
+      <c r="D81" s="72" t="s">
         <v>515</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="E81" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="F81" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="G81" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="H81" s="75" t="s">
         <v>516</v>
       </c>
-      <c r="E81" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G81" s="10" t="s">
+      <c r="I81" s="72"/>
+      <c r="J81" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="H81" s="33" t="s">
-        <v>517</v>
-      </c>
-      <c r="I81" s="11"/>
-      <c r="J81" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="39" customHeight="1">
+    </row>
+    <row r="82" spans="1:10" ht="63" customHeight="1">
       <c r="A82" s="17" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="B82" s="14">
         <v>45058.354166666664</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E82" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="F82" s="16"/>
+      <c r="F82" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="G82" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H82" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="I82" s="17"/>
+      <c r="J82" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="63" customHeight="1">
+      <c r="A83" s="72" t="s">
+        <v>520</v>
+      </c>
+      <c r="B83" s="73">
+        <v>45058.375</v>
+      </c>
+      <c r="C83" s="72" t="s">
         <v>521</v>
       </c>
-      <c r="I82" s="17"/>
-      <c r="J82" s="16"/>
-    </row>
-    <row r="83" spans="1:10" ht="39" customHeight="1">
-      <c r="A83" s="17" t="s">
+      <c r="D83" s="72" t="s">
         <v>522</v>
       </c>
-      <c r="B83" s="14">
-        <v>45058.375</v>
-      </c>
-      <c r="C83" s="17" t="s">
+      <c r="E83" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="F83" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="G83" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="H83" s="75" t="s">
         <v>523</v>
       </c>
-      <c r="D83" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16" t="s">
+      <c r="I83" s="72"/>
+      <c r="J83" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="H83" s="28" t="s">
-        <v>525</v>
-      </c>
-      <c r="I83" s="17"/>
-      <c r="J83" s="16"/>
-    </row>
-    <row r="84" spans="1:10" ht="39" customHeight="1">
+    </row>
+    <row r="84" spans="1:10" ht="63" customHeight="1">
       <c r="A84" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B84" s="14">
         <v>45058.375</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E84" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F84" s="16"/>
+      <c r="F84" s="16" t="s">
+        <v>201</v>
+      </c>
       <c r="G84" s="16" t="s">
         <v>71</v>
       </c>
       <c r="H84" s="28" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I84" s="17"/>
-      <c r="J84" s="16"/>
-    </row>
-    <row r="85" spans="1:10" ht="39" customHeight="1">
+      <c r="J84" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="63" customHeight="1">
       <c r="A85" s="17"/>
       <c r="B85" s="14"/>
       <c r="C85" s="17"/>
@@ -12661,7 +12713,7 @@
       <c r="I85" s="17"/>
       <c r="J85" s="16"/>
     </row>
-    <row r="86" spans="1:10" ht="39" customHeight="1">
+    <row r="86" spans="1:10" ht="63" customHeight="1">
       <c r="A86" s="17"/>
       <c r="B86" s="14"/>
       <c r="C86" s="17"/>
@@ -12673,7 +12725,7 @@
       <c r="I86" s="17"/>
       <c r="J86" s="16"/>
     </row>
-    <row r="87" spans="1:10" ht="39" customHeight="1">
+    <row r="87" spans="1:10" ht="63" customHeight="1">
       <c r="A87" s="17"/>
       <c r="B87" s="14"/>
       <c r="C87" s="17"/>
@@ -12685,7 +12737,7 @@
       <c r="I87" s="17"/>
       <c r="J87" s="16"/>
     </row>
-    <row r="88" spans="1:10" ht="39" customHeight="1">
+    <row r="88" spans="1:10" ht="63" customHeight="1">
       <c r="A88" s="17"/>
       <c r="B88" s="14"/>
       <c r="C88" s="17"/>
@@ -12697,7 +12749,7 @@
       <c r="I88" s="17"/>
       <c r="J88" s="16"/>
     </row>
-    <row r="89" spans="1:10" ht="39" customHeight="1">
+    <row r="89" spans="1:10" ht="63" customHeight="1">
       <c r="A89" s="17"/>
       <c r="B89" s="14"/>
       <c r="C89" s="17"/>
@@ -12709,7 +12761,7 @@
       <c r="I89" s="17"/>
       <c r="J89" s="16"/>
     </row>
-    <row r="90" spans="1:10" ht="39" customHeight="1">
+    <row r="90" spans="1:10" ht="63" customHeight="1">
       <c r="A90" s="17"/>
       <c r="B90" s="14"/>
       <c r="C90" s="17"/>
@@ -12721,7 +12773,7 @@
       <c r="I90" s="17"/>
       <c r="J90" s="16"/>
     </row>
-    <row r="91" spans="1:10" ht="39" customHeight="1">
+    <row r="91" spans="1:10" ht="63" customHeight="1">
       <c r="A91" s="17"/>
       <c r="B91" s="14"/>
       <c r="C91" s="17"/>
@@ -12733,7 +12785,7 @@
       <c r="I91" s="17"/>
       <c r="J91" s="16"/>
     </row>
-    <row r="92" spans="1:10" ht="39" customHeight="1">
+    <row r="92" spans="1:10" ht="63" customHeight="1">
       <c r="A92" s="17"/>
       <c r="B92" s="14"/>
       <c r="C92" s="17"/>
@@ -12745,7 +12797,7 @@
       <c r="I92" s="17"/>
       <c r="J92" s="16"/>
     </row>
-    <row r="93" spans="1:10" ht="39" customHeight="1">
+    <row r="93" spans="1:10" ht="63" customHeight="1">
       <c r="A93" s="17"/>
       <c r="B93" s="14"/>
       <c r="C93" s="17"/>
@@ -12757,7 +12809,7 @@
       <c r="I93" s="17"/>
       <c r="J93" s="16"/>
     </row>
-    <row r="94" spans="1:10" ht="39" customHeight="1">
+    <row r="94" spans="1:10" ht="63" customHeight="1">
       <c r="A94" s="17"/>
       <c r="B94" s="14"/>
       <c r="C94" s="17"/>
@@ -12769,7 +12821,7 @@
       <c r="I94" s="17"/>
       <c r="J94" s="16"/>
     </row>
-    <row r="95" spans="1:10" ht="39" customHeight="1">
+    <row r="95" spans="1:10" ht="63" customHeight="1">
       <c r="A95" s="17"/>
       <c r="B95" s="14"/>
       <c r="C95" s="17"/>
@@ -12781,7 +12833,7 @@
       <c r="I95" s="17"/>
       <c r="J95" s="16"/>
     </row>
-    <row r="96" spans="1:10" ht="39" customHeight="1">
+    <row r="96" spans="1:10" ht="63" customHeight="1">
       <c r="A96" s="17"/>
       <c r="B96" s="14"/>
       <c r="C96" s="17"/>
@@ -12793,7 +12845,7 @@
       <c r="I96" s="17"/>
       <c r="J96" s="16"/>
     </row>
-    <row r="97" spans="1:10" ht="39" customHeight="1">
+    <row r="97" spans="1:10" ht="63" customHeight="1">
       <c r="A97" s="17"/>
       <c r="B97" s="14"/>
       <c r="C97" s="17"/>
@@ -12805,7 +12857,7 @@
       <c r="I97" s="17"/>
       <c r="J97" s="16"/>
     </row>
-    <row r="98" spans="1:10" ht="39" customHeight="1">
+    <row r="98" spans="1:10" ht="63" customHeight="1">
       <c r="A98" s="17"/>
       <c r="B98" s="14"/>
       <c r="C98" s="17"/>
@@ -12817,7 +12869,7 @@
       <c r="I98" s="17"/>
       <c r="J98" s="16"/>
     </row>
-    <row r="99" spans="1:10" ht="39" customHeight="1">
+    <row r="99" spans="1:10" ht="63" customHeight="1">
       <c r="A99" s="17"/>
       <c r="B99" s="14"/>
       <c r="C99" s="17"/>
@@ -12829,7 +12881,7 @@
       <c r="I99" s="17"/>
       <c r="J99" s="16"/>
     </row>
-    <row r="100" spans="1:10" ht="39" customHeight="1">
+    <row r="100" spans="1:10" ht="63" customHeight="1">
       <c r="A100" s="17"/>
       <c r="B100" s="14"/>
       <c r="C100" s="17"/>
@@ -12841,7 +12893,7 @@
       <c r="I100" s="17"/>
       <c r="J100" s="16"/>
     </row>
-    <row r="101" spans="1:10" ht="39" customHeight="1">
+    <row r="101" spans="1:10" ht="63" customHeight="1">
       <c r="A101" s="17"/>
       <c r="B101" s="14"/>
       <c r="C101" s="17"/>
@@ -12853,7 +12905,7 @@
       <c r="I101" s="17"/>
       <c r="J101" s="16"/>
     </row>
-    <row r="102" spans="1:10" ht="39" customHeight="1">
+    <row r="102" spans="1:10" ht="63" customHeight="1">
       <c r="A102" s="17"/>
       <c r="B102" s="14"/>
       <c r="C102" s="17"/>
@@ -12865,7 +12917,7 @@
       <c r="I102" s="17"/>
       <c r="J102" s="16"/>
     </row>
-    <row r="103" spans="1:10" ht="39" customHeight="1">
+    <row r="103" spans="1:10" ht="63" customHeight="1">
       <c r="A103" s="17"/>
       <c r="B103" s="14"/>
       <c r="C103" s="17"/>
@@ -12877,7 +12929,7 @@
       <c r="I103" s="17"/>
       <c r="J103" s="16"/>
     </row>
-    <row r="104" spans="1:10" ht="39" customHeight="1">
+    <row r="104" spans="1:10" ht="63" customHeight="1">
       <c r="A104" s="17"/>
       <c r="B104" s="14"/>
       <c r="C104" s="17"/>
@@ -12889,7 +12941,7 @@
       <c r="I104" s="17"/>
       <c r="J104" s="16"/>
     </row>
-    <row r="105" spans="1:10" ht="39" customHeight="1">
+    <row r="105" spans="1:10" ht="63" customHeight="1">
       <c r="A105" s="17"/>
       <c r="B105" s="14"/>
       <c r="C105" s="17"/>
@@ -12901,7 +12953,7 @@
       <c r="I105" s="17"/>
       <c r="J105" s="16"/>
     </row>
-    <row r="106" spans="1:10" ht="39" customHeight="1">
+    <row r="106" spans="1:10" ht="63" customHeight="1">
       <c r="A106" s="17"/>
       <c r="B106" s="14"/>
       <c r="C106" s="17"/>
@@ -12913,7 +12965,7 @@
       <c r="I106" s="17"/>
       <c r="J106" s="16"/>
     </row>
-    <row r="107" spans="1:10" ht="39" customHeight="1">
+    <row r="107" spans="1:10" ht="63" customHeight="1">
       <c r="A107" s="17"/>
       <c r="B107" s="14"/>
       <c r="C107" s="17"/>
@@ -12925,7 +12977,7 @@
       <c r="I107" s="17"/>
       <c r="J107" s="16"/>
     </row>
-    <row r="108" spans="1:10" ht="39" customHeight="1">
+    <row r="108" spans="1:10" ht="63" customHeight="1">
       <c r="A108" s="17"/>
       <c r="B108" s="14"/>
       <c r="C108" s="17"/>
@@ -12937,7 +12989,7 @@
       <c r="I108" s="17"/>
       <c r="J108" s="16"/>
     </row>
-    <row r="109" spans="1:10" ht="39" customHeight="1">
+    <row r="109" spans="1:10" ht="63" customHeight="1">
       <c r="A109" s="17"/>
       <c r="B109" s="14"/>
       <c r="C109" s="17"/>
@@ -12949,7 +13001,7 @@
       <c r="I109" s="17"/>
       <c r="J109" s="16"/>
     </row>
-    <row r="110" spans="1:10" ht="39" customHeight="1">
+    <row r="110" spans="1:10" ht="63" customHeight="1">
       <c r="A110" s="17"/>
       <c r="B110" s="14"/>
       <c r="C110" s="17"/>
@@ -12961,7 +13013,7 @@
       <c r="I110" s="17"/>
       <c r="J110" s="16"/>
     </row>
-    <row r="111" spans="1:10" ht="39" customHeight="1">
+    <row r="111" spans="1:10" ht="63" customHeight="1">
       <c r="A111" s="17"/>
       <c r="B111" s="14"/>
       <c r="C111" s="17"/>
@@ -12973,7 +13025,7 @@
       <c r="I111" s="17"/>
       <c r="J111" s="16"/>
     </row>
-    <row r="112" spans="1:10" ht="39" customHeight="1">
+    <row r="112" spans="1:10" ht="63" customHeight="1">
       <c r="A112" s="17"/>
       <c r="B112" s="14"/>
       <c r="C112" s="17"/>
@@ -12985,7 +13037,7 @@
       <c r="I112" s="17"/>
       <c r="J112" s="16"/>
     </row>
-    <row r="113" spans="1:10" ht="39" customHeight="1">
+    <row r="113" spans="1:10" ht="63" customHeight="1">
       <c r="A113" s="17"/>
       <c r="B113" s="14"/>
       <c r="C113" s="17"/>
@@ -12997,7 +13049,7 @@
       <c r="I113" s="17"/>
       <c r="J113" s="16"/>
     </row>
-    <row r="114" spans="1:10" ht="39" customHeight="1">
+    <row r="114" spans="1:10" ht="63" customHeight="1">
       <c r="A114" s="17"/>
       <c r="B114" s="14"/>
       <c r="C114" s="17"/>
@@ -13009,7 +13061,7 @@
       <c r="I114" s="17"/>
       <c r="J114" s="16"/>
     </row>
-    <row r="115" spans="1:10" ht="39" customHeight="1">
+    <row r="115" spans="1:10" ht="63" customHeight="1">
       <c r="A115" s="17"/>
       <c r="B115" s="14"/>
       <c r="C115" s="17"/>
@@ -13021,7 +13073,7 @@
       <c r="I115" s="17"/>
       <c r="J115" s="16"/>
     </row>
-    <row r="116" spans="1:10" ht="39" customHeight="1">
+    <row r="116" spans="1:10" ht="63" customHeight="1">
       <c r="A116" s="17"/>
       <c r="B116" s="14"/>
       <c r="C116" s="17"/>
@@ -13033,7 +13085,7 @@
       <c r="I116" s="17"/>
       <c r="J116" s="16"/>
     </row>
-    <row r="117" spans="1:10" ht="39" customHeight="1">
+    <row r="117" spans="1:10" ht="63" customHeight="1">
       <c r="A117" s="17"/>
       <c r="B117" s="14"/>
       <c r="C117" s="17"/>
@@ -13045,7 +13097,7 @@
       <c r="I117" s="17"/>
       <c r="J117" s="16"/>
     </row>
-    <row r="118" spans="1:10" ht="39" customHeight="1">
+    <row r="118" spans="1:10" ht="63" customHeight="1">
       <c r="A118" s="17"/>
       <c r="B118" s="14"/>
       <c r="C118" s="17"/>
@@ -13057,7 +13109,7 @@
       <c r="I118" s="17"/>
       <c r="J118" s="16"/>
     </row>
-    <row r="119" spans="1:10" ht="39" customHeight="1">
+    <row r="119" spans="1:10" ht="63" customHeight="1">
       <c r="A119" s="17"/>
       <c r="B119" s="14"/>
       <c r="C119" s="17"/>
@@ -13069,7 +13121,7 @@
       <c r="I119" s="17"/>
       <c r="J119" s="16"/>
     </row>
-    <row r="120" spans="1:10" ht="39" customHeight="1">
+    <row r="120" spans="1:10" ht="63" customHeight="1">
       <c r="A120" s="17"/>
       <c r="B120" s="14"/>
       <c r="C120" s="17"/>
@@ -13081,7 +13133,7 @@
       <c r="I120" s="17"/>
       <c r="J120" s="16"/>
     </row>
-    <row r="121" spans="1:10" ht="39" customHeight="1">
+    <row r="121" spans="1:10" ht="63" customHeight="1">
       <c r="A121" s="17"/>
       <c r="B121" s="14"/>
       <c r="C121" s="17"/>
@@ -13093,7 +13145,7 @@
       <c r="I121" s="17"/>
       <c r="J121" s="16"/>
     </row>
-    <row r="122" spans="1:10" ht="39" customHeight="1">
+    <row r="122" spans="1:10" ht="63" customHeight="1">
       <c r="A122" s="17"/>
       <c r="B122" s="14"/>
       <c r="C122" s="17"/>
@@ -13105,7 +13157,7 @@
       <c r="I122" s="17"/>
       <c r="J122" s="16"/>
     </row>
-    <row r="123" spans="1:10" ht="39" customHeight="1">
+    <row r="123" spans="1:10" ht="63" customHeight="1">
       <c r="A123" s="17"/>
       <c r="B123" s="14"/>
       <c r="C123" s="17"/>
@@ -13117,7 +13169,7 @@
       <c r="I123" s="17"/>
       <c r="J123" s="16"/>
     </row>
-    <row r="124" spans="1:10" ht="39" customHeight="1">
+    <row r="124" spans="1:10" ht="63" customHeight="1">
       <c r="A124" s="17"/>
       <c r="B124" s="14"/>
       <c r="C124" s="17"/>
@@ -13129,7 +13181,7 @@
       <c r="I124" s="17"/>
       <c r="J124" s="16"/>
     </row>
-    <row r="125" spans="1:10" ht="39" customHeight="1">
+    <row r="125" spans="1:10" ht="63" customHeight="1">
       <c r="A125" s="17"/>
       <c r="B125" s="14"/>
       <c r="C125" s="17"/>
@@ -13141,7 +13193,7 @@
       <c r="I125" s="17"/>
       <c r="J125" s="16"/>
     </row>
-    <row r="126" spans="1:10" ht="39" customHeight="1">
+    <row r="126" spans="1:10" ht="63" customHeight="1">
       <c r="A126" s="17"/>
       <c r="B126" s="14"/>
       <c r="C126" s="17"/>
@@ -13153,7 +13205,7 @@
       <c r="I126" s="17"/>
       <c r="J126" s="16"/>
     </row>
-    <row r="127" spans="1:10" ht="39" customHeight="1">
+    <row r="127" spans="1:10" ht="63" customHeight="1">
       <c r="A127" s="17"/>
       <c r="B127" s="14"/>
       <c r="C127" s="17"/>
@@ -13165,7 +13217,7 @@
       <c r="I127" s="17"/>
       <c r="J127" s="16"/>
     </row>
-    <row r="128" spans="1:10" ht="39" customHeight="1">
+    <row r="128" spans="1:10" ht="63" customHeight="1">
       <c r="A128" s="17"/>
       <c r="B128" s="14"/>
       <c r="C128" s="17"/>
@@ -13177,7 +13229,7 @@
       <c r="I128" s="17"/>
       <c r="J128" s="16"/>
     </row>
-    <row r="129" spans="1:10" ht="39" customHeight="1">
+    <row r="129" spans="1:10" ht="63" customHeight="1">
       <c r="A129" s="17"/>
       <c r="B129" s="14"/>
       <c r="C129" s="17"/>
@@ -13189,7 +13241,7 @@
       <c r="I129" s="17"/>
       <c r="J129" s="16"/>
     </row>
-    <row r="130" spans="1:10" ht="39" customHeight="1">
+    <row r="130" spans="1:10" ht="63" customHeight="1">
       <c r="A130" s="17"/>
       <c r="B130" s="14"/>
       <c r="C130" s="17"/>
@@ -13201,7 +13253,7 @@
       <c r="I130" s="17"/>
       <c r="J130" s="16"/>
     </row>
-    <row r="131" spans="1:10" ht="39" customHeight="1">
+    <row r="131" spans="1:10" ht="63" customHeight="1">
       <c r="A131" s="17"/>
       <c r="B131" s="14"/>
       <c r="C131" s="17"/>
@@ -13213,7 +13265,7 @@
       <c r="I131" s="17"/>
       <c r="J131" s="16"/>
     </row>
-    <row r="132" spans="1:10" ht="39" customHeight="1">
+    <row r="132" spans="1:10" ht="63" customHeight="1">
       <c r="A132" s="17"/>
       <c r="B132" s="14"/>
       <c r="C132" s="17"/>
@@ -13225,7 +13277,7 @@
       <c r="I132" s="17"/>
       <c r="J132" s="16"/>
     </row>
-    <row r="133" spans="1:10" ht="39" customHeight="1">
+    <row r="133" spans="1:10" ht="63" customHeight="1">
       <c r="A133" s="17"/>
       <c r="B133" s="14"/>
       <c r="C133" s="17"/>
@@ -13237,7 +13289,7 @@
       <c r="I133" s="17"/>
       <c r="J133" s="16"/>
     </row>
-    <row r="134" spans="1:10" ht="39" customHeight="1">
+    <row r="134" spans="1:10" ht="63" customHeight="1">
       <c r="A134" s="17"/>
       <c r="B134" s="14"/>
       <c r="C134" s="17"/>
@@ -13249,7 +13301,7 @@
       <c r="I134" s="17"/>
       <c r="J134" s="16"/>
     </row>
-    <row r="135" spans="1:10" ht="39" customHeight="1">
+    <row r="135" spans="1:10" ht="63" customHeight="1">
       <c r="A135" s="17"/>
       <c r="B135" s="14"/>
       <c r="C135" s="17"/>
@@ -13261,7 +13313,7 @@
       <c r="I135" s="17"/>
       <c r="J135" s="16"/>
     </row>
-    <row r="136" spans="1:10" ht="39" customHeight="1">
+    <row r="136" spans="1:10" ht="63" customHeight="1">
       <c r="A136" s="17"/>
       <c r="B136" s="14"/>
       <c r="C136" s="17"/>
@@ -13273,7 +13325,7 @@
       <c r="I136" s="17"/>
       <c r="J136" s="16"/>
     </row>
-    <row r="137" spans="1:10" ht="39" customHeight="1">
+    <row r="137" spans="1:10" ht="63" customHeight="1">
       <c r="A137" s="17"/>
       <c r="B137" s="14"/>
       <c r="C137" s="17"/>
@@ -13285,7 +13337,7 @@
       <c r="I137" s="17"/>
       <c r="J137" s="16"/>
     </row>
-    <row r="138" spans="1:10" ht="39" customHeight="1">
+    <row r="138" spans="1:10" ht="63" customHeight="1">
       <c r="A138" s="17"/>
       <c r="B138" s="14"/>
       <c r="C138" s="17"/>
@@ -13297,7 +13349,7 @@
       <c r="I138" s="17"/>
       <c r="J138" s="16"/>
     </row>
-    <row r="139" spans="1:10" ht="39" customHeight="1">
+    <row r="139" spans="1:10" ht="63" customHeight="1">
       <c r="A139" s="17"/>
       <c r="B139" s="14"/>
       <c r="C139" s="17"/>
@@ -13309,7 +13361,7 @@
       <c r="I139" s="17"/>
       <c r="J139" s="16"/>
     </row>
-    <row r="140" spans="1:10" ht="39" customHeight="1">
+    <row r="140" spans="1:10" ht="63" customHeight="1">
       <c r="A140" s="17"/>
       <c r="B140" s="14"/>
       <c r="C140" s="17"/>
@@ -13321,7 +13373,7 @@
       <c r="I140" s="17"/>
       <c r="J140" s="16"/>
     </row>
-    <row r="141" spans="1:10" ht="39" customHeight="1">
+    <row r="141" spans="1:10" ht="63" customHeight="1">
       <c r="A141" s="17"/>
       <c r="B141" s="14"/>
       <c r="C141" s="17"/>
@@ -13333,7 +13385,7 @@
       <c r="I141" s="17"/>
       <c r="J141" s="16"/>
     </row>
-    <row r="142" spans="1:10" ht="39" customHeight="1">
+    <row r="142" spans="1:10" ht="63" customHeight="1">
       <c r="A142" s="17"/>
       <c r="B142" s="14"/>
       <c r="C142" s="17"/>
@@ -13345,7 +13397,7 @@
       <c r="I142" s="17"/>
       <c r="J142" s="16"/>
     </row>
-    <row r="143" spans="1:10" ht="39" customHeight="1">
+    <row r="143" spans="1:10" ht="63" customHeight="1">
       <c r="A143" s="17"/>
       <c r="B143" s="14"/>
       <c r="C143" s="17"/>
@@ -13357,7 +13409,7 @@
       <c r="I143" s="17"/>
       <c r="J143" s="16"/>
     </row>
-    <row r="144" spans="1:10" ht="39" customHeight="1">
+    <row r="144" spans="1:10" ht="63" customHeight="1">
       <c r="A144" s="17"/>
       <c r="B144" s="14"/>
       <c r="C144" s="17"/>
@@ -13369,7 +13421,7 @@
       <c r="I144" s="17"/>
       <c r="J144" s="16"/>
     </row>
-    <row r="145" spans="1:10" ht="39" customHeight="1">
+    <row r="145" spans="1:10" ht="63" customHeight="1">
       <c r="A145" s="17"/>
       <c r="B145" s="14"/>
       <c r="C145" s="17"/>
@@ -13381,7 +13433,7 @@
       <c r="I145" s="17"/>
       <c r="J145" s="16"/>
     </row>
-    <row r="146" spans="1:10" ht="39" customHeight="1">
+    <row r="146" spans="1:10" ht="63" customHeight="1">
       <c r="A146" s="17"/>
       <c r="B146" s="14"/>
       <c r="C146" s="17"/>
@@ -13393,7 +13445,7 @@
       <c r="I146" s="17"/>
       <c r="J146" s="16"/>
     </row>
-    <row r="147" spans="1:10" ht="39" customHeight="1">
+    <row r="147" spans="1:10" ht="63" customHeight="1">
       <c r="A147" s="17"/>
       <c r="B147" s="14"/>
       <c r="C147" s="17"/>
@@ -13405,7 +13457,7 @@
       <c r="I147" s="17"/>
       <c r="J147" s="16"/>
     </row>
-    <row r="148" spans="1:10" ht="39" customHeight="1">
+    <row r="148" spans="1:10" ht="63" customHeight="1">
       <c r="A148" s="17"/>
       <c r="B148" s="14"/>
       <c r="C148" s="17"/>
@@ -13417,7 +13469,7 @@
       <c r="I148" s="17"/>
       <c r="J148" s="16"/>
     </row>
-    <row r="149" spans="1:10" ht="39" customHeight="1">
+    <row r="149" spans="1:10" ht="63" customHeight="1">
       <c r="A149" s="17"/>
       <c r="B149" s="14"/>
       <c r="C149" s="17"/>
@@ -13429,7 +13481,7 @@
       <c r="I149" s="17"/>
       <c r="J149" s="16"/>
     </row>
-    <row r="150" spans="1:10" ht="39" customHeight="1">
+    <row r="150" spans="1:10" ht="63" customHeight="1">
       <c r="A150" s="17"/>
       <c r="B150" s="14"/>
       <c r="C150" s="17"/>
@@ -13441,7 +13493,7 @@
       <c r="I150" s="17"/>
       <c r="J150" s="16"/>
     </row>
-    <row r="151" spans="1:10" ht="39" customHeight="1">
+    <row r="151" spans="1:10" ht="63" customHeight="1">
       <c r="A151" s="17"/>
       <c r="B151" s="14"/>
       <c r="C151" s="17"/>
@@ -13453,7 +13505,7 @@
       <c r="I151" s="17"/>
       <c r="J151" s="16"/>
     </row>
-    <row r="152" spans="1:10" ht="39" customHeight="1">
+    <row r="152" spans="1:10" ht="63" customHeight="1">
       <c r="A152" s="17"/>
       <c r="B152" s="14"/>
       <c r="C152" s="17"/>
@@ -13465,7 +13517,7 @@
       <c r="I152" s="17"/>
       <c r="J152" s="16"/>
     </row>
-    <row r="153" spans="1:10" ht="39" customHeight="1">
+    <row r="153" spans="1:10" ht="63" customHeight="1">
       <c r="A153" s="17"/>
       <c r="B153" s="14"/>
       <c r="C153" s="17"/>
@@ -13477,7 +13529,7 @@
       <c r="I153" s="17"/>
       <c r="J153" s="16"/>
     </row>
-    <row r="154" spans="1:10" ht="39" customHeight="1">
+    <row r="154" spans="1:10" ht="63" customHeight="1">
       <c r="A154" s="17"/>
       <c r="B154" s="14"/>
       <c r="C154" s="17"/>
@@ -13489,7 +13541,7 @@
       <c r="I154" s="17"/>
       <c r="J154" s="16"/>
     </row>
-    <row r="155" spans="1:10" ht="39" customHeight="1">
+    <row r="155" spans="1:10" ht="63" customHeight="1">
       <c r="A155" s="17"/>
       <c r="B155" s="14"/>
       <c r="C155" s="17"/>
@@ -13501,7 +13553,7 @@
       <c r="I155" s="17"/>
       <c r="J155" s="16"/>
     </row>
-    <row r="156" spans="1:10" ht="39" customHeight="1">
+    <row r="156" spans="1:10" ht="63" customHeight="1">
       <c r="A156" s="17"/>
       <c r="B156" s="14"/>
       <c r="C156" s="17"/>
@@ -13513,7 +13565,7 @@
       <c r="I156" s="17"/>
       <c r="J156" s="16"/>
     </row>
-    <row r="157" spans="1:10" ht="39" customHeight="1">
+    <row r="157" spans="1:10" ht="63" customHeight="1">
       <c r="A157" s="17"/>
       <c r="B157" s="14"/>
       <c r="C157" s="17"/>
@@ -13525,7 +13577,7 @@
       <c r="I157" s="17"/>
       <c r="J157" s="16"/>
     </row>
-    <row r="158" spans="1:10" ht="39" customHeight="1">
+    <row r="158" spans="1:10" ht="63" customHeight="1">
       <c r="A158" s="17"/>
       <c r="B158" s="14"/>
       <c r="C158" s="17"/>
@@ -13537,7 +13589,7 @@
       <c r="I158" s="17"/>
       <c r="J158" s="16"/>
     </row>
-    <row r="159" spans="1:10" ht="39" customHeight="1">
+    <row r="159" spans="1:10" ht="63" customHeight="1">
       <c r="A159" s="17"/>
       <c r="B159" s="14"/>
       <c r="C159" s="17"/>
@@ -13549,7 +13601,7 @@
       <c r="I159" s="17"/>
       <c r="J159" s="16"/>
     </row>
-    <row r="160" spans="1:10" ht="39" customHeight="1">
+    <row r="160" spans="1:10" ht="63" customHeight="1">
       <c r="A160" s="17"/>
       <c r="B160" s="14"/>
       <c r="C160" s="17"/>
@@ -13561,7 +13613,7 @@
       <c r="I160" s="17"/>
       <c r="J160" s="16"/>
     </row>
-    <row r="161" spans="1:10" ht="39" customHeight="1">
+    <row r="161" spans="1:10" ht="63" customHeight="1">
       <c r="A161" s="17"/>
       <c r="B161" s="14"/>
       <c r="C161" s="17"/>
@@ -13573,7 +13625,7 @@
       <c r="I161" s="17"/>
       <c r="J161" s="16"/>
     </row>
-    <row r="162" spans="1:10" ht="39" customHeight="1">
+    <row r="162" spans="1:10" ht="63" customHeight="1">
       <c r="A162" s="17"/>
       <c r="B162" s="14"/>
       <c r="C162" s="17"/>
@@ -13585,7 +13637,7 @@
       <c r="I162" s="17"/>
       <c r="J162" s="16"/>
     </row>
-    <row r="163" spans="1:10" ht="39" customHeight="1">
+    <row r="163" spans="1:10" ht="63" customHeight="1">
       <c r="A163" s="17"/>
       <c r="B163" s="14"/>
       <c r="C163" s="17"/>
@@ -13597,7 +13649,7 @@
       <c r="I163" s="17"/>
       <c r="J163" s="16"/>
     </row>
-    <row r="164" spans="1:10" ht="39" customHeight="1">
+    <row r="164" spans="1:10" ht="63" customHeight="1">
       <c r="A164" s="17"/>
       <c r="B164" s="14"/>
       <c r="C164" s="17"/>
@@ -13609,7 +13661,7 @@
       <c r="I164" s="17"/>
       <c r="J164" s="16"/>
     </row>
-    <row r="165" spans="1:10" ht="39" customHeight="1">
+    <row r="165" spans="1:10" ht="63" customHeight="1">
       <c r="A165" s="17"/>
       <c r="B165" s="14"/>
       <c r="C165" s="17"/>
@@ -13621,7 +13673,7 @@
       <c r="I165" s="17"/>
       <c r="J165" s="16"/>
     </row>
-    <row r="166" spans="1:10" ht="39" customHeight="1">
+    <row r="166" spans="1:10" ht="63" customHeight="1">
       <c r="A166" s="17"/>
       <c r="B166" s="14"/>
       <c r="C166" s="17"/>
@@ -13633,7 +13685,7 @@
       <c r="I166" s="17"/>
       <c r="J166" s="16"/>
     </row>
-    <row r="167" spans="1:10" ht="39" customHeight="1">
+    <row r="167" spans="1:10" ht="63" customHeight="1">
       <c r="A167" s="17"/>
       <c r="B167" s="14"/>
       <c r="C167" s="17"/>
@@ -13645,7 +13697,7 @@
       <c r="I167" s="17"/>
       <c r="J167" s="16"/>
     </row>
-    <row r="168" spans="1:10" ht="39" customHeight="1">
+    <row r="168" spans="1:10" ht="63" customHeight="1">
       <c r="A168" s="17"/>
       <c r="B168" s="14"/>
       <c r="C168" s="17"/>
@@ -13657,7 +13709,7 @@
       <c r="I168" s="17"/>
       <c r="J168" s="16"/>
     </row>
-    <row r="169" spans="1:10" ht="39" customHeight="1">
+    <row r="169" spans="1:10" ht="63" customHeight="1">
       <c r="A169" s="17"/>
       <c r="B169" s="14"/>
       <c r="C169" s="17"/>
@@ -13669,7 +13721,7 @@
       <c r="I169" s="17"/>
       <c r="J169" s="16"/>
     </row>
-    <row r="170" spans="1:10" ht="39" customHeight="1">
+    <row r="170" spans="1:10" ht="63" customHeight="1">
       <c r="A170" s="17"/>
       <c r="B170" s="14"/>
       <c r="C170" s="17"/>
@@ -13681,7 +13733,7 @@
       <c r="I170" s="17"/>
       <c r="J170" s="16"/>
     </row>
-    <row r="171" spans="1:10" ht="39" customHeight="1">
+    <row r="171" spans="1:10" ht="63" customHeight="1">
       <c r="A171" s="17"/>
       <c r="B171" s="14"/>
       <c r="C171" s="17"/>
@@ -13693,7 +13745,7 @@
       <c r="I171" s="17"/>
       <c r="J171" s="16"/>
     </row>
-    <row r="172" spans="1:10" ht="39" customHeight="1">
+    <row r="172" spans="1:10" ht="63" customHeight="1">
       <c r="A172" s="17"/>
       <c r="B172" s="14"/>
       <c r="C172" s="17"/>
@@ -13705,7 +13757,7 @@
       <c r="I172" s="17"/>
       <c r="J172" s="16"/>
     </row>
-    <row r="173" spans="1:10" ht="39" customHeight="1">
+    <row r="173" spans="1:10" ht="63" customHeight="1">
       <c r="A173" s="17"/>
       <c r="B173" s="14"/>
       <c r="C173" s="17"/>
@@ -13717,7 +13769,7 @@
       <c r="I173" s="17"/>
       <c r="J173" s="16"/>
     </row>
-    <row r="174" spans="1:10" ht="39" customHeight="1">
+    <row r="174" spans="1:10" ht="63" customHeight="1">
       <c r="A174" s="17"/>
       <c r="B174" s="14"/>
       <c r="C174" s="17"/>
@@ -13729,7 +13781,7 @@
       <c r="I174" s="17"/>
       <c r="J174" s="16"/>
     </row>
-    <row r="175" spans="1:10" ht="39" customHeight="1">
+    <row r="175" spans="1:10" ht="63" customHeight="1">
       <c r="A175" s="17"/>
       <c r="B175" s="14"/>
       <c r="C175" s="17"/>
@@ -13741,7 +13793,7 @@
       <c r="I175" s="17"/>
       <c r="J175" s="16"/>
     </row>
-    <row r="176" spans="1:10" ht="39" customHeight="1">
+    <row r="176" spans="1:10" ht="63" customHeight="1">
       <c r="A176" s="17"/>
       <c r="B176" s="14"/>
       <c r="C176" s="17"/>
@@ -13753,7 +13805,7 @@
       <c r="I176" s="17"/>
       <c r="J176" s="16"/>
     </row>
-    <row r="177" spans="1:10" ht="39" customHeight="1">
+    <row r="177" spans="1:10" ht="63" customHeight="1">
       <c r="A177" s="17"/>
       <c r="B177" s="14"/>
       <c r="C177" s="17"/>
@@ -13765,7 +13817,7 @@
       <c r="I177" s="17"/>
       <c r="J177" s="16"/>
     </row>
-    <row r="178" spans="1:10" ht="39" customHeight="1">
+    <row r="178" spans="1:10" ht="63" customHeight="1">
       <c r="A178" s="17"/>
       <c r="B178" s="14"/>
       <c r="C178" s="17"/>
@@ -13777,7 +13829,7 @@
       <c r="I178" s="17"/>
       <c r="J178" s="16"/>
     </row>
-    <row r="179" spans="1:10" ht="39" customHeight="1">
+    <row r="179" spans="1:10" ht="63" customHeight="1">
       <c r="A179" s="17"/>
       <c r="B179" s="14"/>
       <c r="C179" s="17"/>
@@ -13789,7 +13841,7 @@
       <c r="I179" s="17"/>
       <c r="J179" s="16"/>
     </row>
-    <row r="180" spans="1:10" ht="39" customHeight="1">
+    <row r="180" spans="1:10" ht="63" customHeight="1">
       <c r="A180" s="17"/>
       <c r="B180" s="14"/>
       <c r="C180" s="17"/>
@@ -13801,7 +13853,7 @@
       <c r="I180" s="17"/>
       <c r="J180" s="16"/>
     </row>
-    <row r="181" spans="1:10" ht="39" customHeight="1">
+    <row r="181" spans="1:10" ht="63" customHeight="1">
       <c r="A181" s="17"/>
       <c r="B181" s="14"/>
       <c r="C181" s="17"/>
@@ -13813,7 +13865,7 @@
       <c r="I181" s="17"/>
       <c r="J181" s="16"/>
     </row>
-    <row r="182" spans="1:10" ht="39" customHeight="1">
+    <row r="182" spans="1:10" ht="63" customHeight="1">
       <c r="A182" s="17"/>
       <c r="B182" s="14"/>
       <c r="C182" s="17"/>
@@ -13825,7 +13877,7 @@
       <c r="I182" s="17"/>
       <c r="J182" s="16"/>
     </row>
-    <row r="183" spans="1:10" ht="39" customHeight="1">
+    <row r="183" spans="1:10" ht="63" customHeight="1">
       <c r="A183" s="17"/>
       <c r="B183" s="14"/>
       <c r="C183" s="17"/>
@@ -13837,7 +13889,7 @@
       <c r="I183" s="17"/>
       <c r="J183" s="16"/>
     </row>
-    <row r="184" spans="1:10" ht="39" customHeight="1">
+    <row r="184" spans="1:10" ht="63" customHeight="1">
       <c r="A184" s="17"/>
       <c r="B184" s="14"/>
       <c r="C184" s="17"/>
@@ -13849,7 +13901,7 @@
       <c r="I184" s="17"/>
       <c r="J184" s="16"/>
     </row>
-    <row r="185" spans="1:10" ht="39" customHeight="1">
+    <row r="185" spans="1:10" ht="63" customHeight="1">
       <c r="A185" s="17"/>
       <c r="B185" s="14"/>
       <c r="C185" s="17"/>
@@ -13861,7 +13913,7 @@
       <c r="I185" s="17"/>
       <c r="J185" s="16"/>
     </row>
-    <row r="186" spans="1:10" ht="39" customHeight="1">
+    <row r="186" spans="1:10" ht="63" customHeight="1">
       <c r="A186" s="17"/>
       <c r="B186" s="14"/>
       <c r="C186" s="17"/>
@@ -13873,7 +13925,7 @@
       <c r="I186" s="17"/>
       <c r="J186" s="16"/>
     </row>
-    <row r="187" spans="1:10" ht="39" customHeight="1">
+    <row r="187" spans="1:10" ht="63" customHeight="1">
       <c r="A187" s="17"/>
       <c r="B187" s="14"/>
       <c r="C187" s="17"/>
@@ -13885,7 +13937,7 @@
       <c r="I187" s="17"/>
       <c r="J187" s="16"/>
     </row>
-    <row r="188" spans="1:10" ht="39" customHeight="1">
+    <row r="188" spans="1:10" ht="63" customHeight="1">
       <c r="A188" s="17"/>
       <c r="B188" s="14"/>
       <c r="C188" s="17"/>
@@ -13897,7 +13949,7 @@
       <c r="I188" s="17"/>
       <c r="J188" s="16"/>
     </row>
-    <row r="189" spans="1:10" ht="39" customHeight="1">
+    <row r="189" spans="1:10" ht="63" customHeight="1">
       <c r="A189" s="17"/>
       <c r="B189" s="14"/>
       <c r="C189" s="17"/>
@@ -13909,7 +13961,7 @@
       <c r="I189" s="17"/>
       <c r="J189" s="16"/>
     </row>
-    <row r="190" spans="1:10" ht="39" customHeight="1">
+    <row r="190" spans="1:10" ht="63" customHeight="1">
       <c r="A190" s="17"/>
       <c r="B190" s="14"/>
       <c r="C190" s="17"/>
@@ -13921,7 +13973,7 @@
       <c r="I190" s="17"/>
       <c r="J190" s="16"/>
     </row>
-    <row r="191" spans="1:10" ht="39" customHeight="1">
+    <row r="191" spans="1:10" ht="63" customHeight="1">
       <c r="A191" s="17"/>
       <c r="B191" s="14"/>
       <c r="C191" s="17"/>
@@ -13933,7 +13985,7 @@
       <c r="I191" s="17"/>
       <c r="J191" s="16"/>
     </row>
-    <row r="192" spans="1:10" ht="39" customHeight="1">
+    <row r="192" spans="1:10" ht="63" customHeight="1">
       <c r="A192" s="17"/>
       <c r="B192" s="14"/>
       <c r="C192" s="17"/>
@@ -13945,7 +13997,7 @@
       <c r="I192" s="17"/>
       <c r="J192" s="16"/>
     </row>
-    <row r="193" spans="1:10" ht="39" customHeight="1">
+    <row r="193" spans="1:10" ht="63" customHeight="1">
       <c r="A193" s="17"/>
       <c r="B193" s="14"/>
       <c r="C193" s="17"/>
@@ -13957,7 +14009,7 @@
       <c r="I193" s="17"/>
       <c r="J193" s="16"/>
     </row>
-    <row r="194" spans="1:10" ht="39" customHeight="1">
+    <row r="194" spans="1:10" ht="63" customHeight="1">
       <c r="A194" s="17"/>
       <c r="B194" s="14"/>
       <c r="C194" s="17"/>
@@ -13969,7 +14021,7 @@
       <c r="I194" s="17"/>
       <c r="J194" s="16"/>
     </row>
-    <row r="195" spans="1:10" ht="39" customHeight="1">
+    <row r="195" spans="1:10" ht="63" customHeight="1">
       <c r="A195" s="17"/>
       <c r="B195" s="14"/>
       <c r="C195" s="17"/>
@@ -13981,7 +14033,7 @@
       <c r="I195" s="17"/>
       <c r="J195" s="16"/>
     </row>
-    <row r="196" spans="1:10" ht="39" customHeight="1">
+    <row r="196" spans="1:10" ht="63" customHeight="1">
       <c r="A196" s="17"/>
       <c r="B196" s="14"/>
       <c r="C196" s="17"/>
@@ -13993,7 +14045,7 @@
       <c r="I196" s="17"/>
       <c r="J196" s="16"/>
     </row>
-    <row r="197" spans="1:10" ht="39" customHeight="1">
+    <row r="197" spans="1:10" ht="63" customHeight="1">
       <c r="A197" s="17"/>
       <c r="B197" s="14"/>
       <c r="C197" s="17"/>
@@ -14005,7 +14057,7 @@
       <c r="I197" s="17"/>
       <c r="J197" s="16"/>
     </row>
-    <row r="198" spans="1:10" ht="39" customHeight="1">
+    <row r="198" spans="1:10" ht="63" customHeight="1">
       <c r="A198" s="17"/>
       <c r="B198" s="14"/>
       <c r="C198" s="17"/>
@@ -14017,7 +14069,7 @@
       <c r="I198" s="17"/>
       <c r="J198" s="16"/>
     </row>
-    <row r="199" spans="1:10" ht="39" customHeight="1">
+    <row r="199" spans="1:10" ht="63" customHeight="1">
       <c r="A199" s="17"/>
       <c r="B199" s="14"/>
       <c r="C199" s="17"/>
@@ -14029,7 +14081,7 @@
       <c r="I199" s="17"/>
       <c r="J199" s="16"/>
     </row>
-    <row r="200" spans="1:10" ht="39" customHeight="1">
+    <row r="200" spans="1:10" ht="63" customHeight="1">
       <c r="A200" s="17"/>
       <c r="B200" s="14"/>
       <c r="C200" s="17"/>
@@ -14041,7 +14093,7 @@
       <c r="I200" s="17"/>
       <c r="J200" s="16"/>
     </row>
-    <row r="201" spans="1:10" ht="39" customHeight="1">
+    <row r="201" spans="1:10" ht="63" customHeight="1">
       <c r="A201" s="17"/>
       <c r="B201" s="14"/>
       <c r="C201" s="17"/>
@@ -14053,7 +14105,7 @@
       <c r="I201" s="17"/>
       <c r="J201" s="16"/>
     </row>
-    <row r="202" spans="1:10" ht="39" customHeight="1">
+    <row r="202" spans="1:10" ht="63" customHeight="1">
       <c r="A202" s="17"/>
       <c r="B202" s="14"/>
       <c r="C202" s="17"/>
@@ -14065,7 +14117,7 @@
       <c r="I202" s="17"/>
       <c r="J202" s="16"/>
     </row>
-    <row r="203" spans="1:10" ht="39" customHeight="1">
+    <row r="203" spans="1:10" ht="63" customHeight="1">
       <c r="A203" s="17"/>
       <c r="B203" s="14"/>
       <c r="C203" s="17"/>
@@ -14077,7 +14129,7 @@
       <c r="I203" s="17"/>
       <c r="J203" s="16"/>
     </row>
-    <row r="204" spans="1:10" ht="39" customHeight="1">
+    <row r="204" spans="1:10" ht="63" customHeight="1">
       <c r="A204" s="17"/>
       <c r="B204" s="14"/>
       <c r="C204" s="17"/>
@@ -14089,7 +14141,7 @@
       <c r="I204" s="17"/>
       <c r="J204" s="16"/>
     </row>
-    <row r="205" spans="1:10" ht="39" customHeight="1">
+    <row r="205" spans="1:10" ht="63" customHeight="1">
       <c r="A205" s="17"/>
       <c r="B205" s="14"/>
       <c r="C205" s="17"/>
@@ -14101,7 +14153,7 @@
       <c r="I205" s="17"/>
       <c r="J205" s="16"/>
     </row>
-    <row r="206" spans="1:10" ht="39" customHeight="1">
+    <row r="206" spans="1:10" ht="63" customHeight="1">
       <c r="A206" s="17"/>
       <c r="B206" s="14"/>
       <c r="C206" s="17"/>
@@ -14113,7 +14165,7 @@
       <c r="I206" s="17"/>
       <c r="J206" s="16"/>
     </row>
-    <row r="207" spans="1:10" ht="39" customHeight="1">
+    <row r="207" spans="1:10" ht="63" customHeight="1">
       <c r="A207" s="17"/>
       <c r="B207" s="14"/>
       <c r="C207" s="17"/>
@@ -14125,7 +14177,7 @@
       <c r="I207" s="17"/>
       <c r="J207" s="16"/>
     </row>
-    <row r="208" spans="1:10" ht="39" customHeight="1">
+    <row r="208" spans="1:10" ht="63" customHeight="1">
       <c r="A208" s="17"/>
       <c r="B208" s="14"/>
       <c r="C208" s="17"/>
@@ -14137,7 +14189,7 @@
       <c r="I208" s="17"/>
       <c r="J208" s="16"/>
     </row>
-    <row r="209" spans="1:10" ht="39" customHeight="1">
+    <row r="209" spans="1:10" ht="63" customHeight="1">
       <c r="A209" s="17"/>
       <c r="B209" s="14"/>
       <c r="C209" s="17"/>
@@ -14149,7 +14201,7 @@
       <c r="I209" s="17"/>
       <c r="J209" s="16"/>
     </row>
-    <row r="210" spans="1:10" ht="39" customHeight="1">
+    <row r="210" spans="1:10" ht="63" customHeight="1">
       <c r="A210" s="17"/>
       <c r="B210" s="14"/>
       <c r="C210" s="17"/>
@@ -14161,7 +14213,7 @@
       <c r="I210" s="17"/>
       <c r="J210" s="16"/>
     </row>
-    <row r="211" spans="1:10" ht="39" customHeight="1">
+    <row r="211" spans="1:10" ht="63" customHeight="1">
       <c r="A211" s="17"/>
       <c r="B211" s="14"/>
       <c r="C211" s="17"/>
@@ -14173,7 +14225,7 @@
       <c r="I211" s="17"/>
       <c r="J211" s="16"/>
     </row>
-    <row r="212" spans="1:10" ht="39" customHeight="1">
+    <row r="212" spans="1:10" ht="63" customHeight="1">
       <c r="A212" s="17"/>
       <c r="B212" s="14"/>
       <c r="C212" s="17"/>
@@ -14185,7 +14237,7 @@
       <c r="I212" s="17"/>
       <c r="J212" s="16"/>
     </row>
-    <row r="213" spans="1:10" ht="39" customHeight="1">
+    <row r="213" spans="1:10" ht="63" customHeight="1">
       <c r="A213" s="17"/>
       <c r="B213" s="14"/>
       <c r="C213" s="17"/>
@@ -14197,7 +14249,7 @@
       <c r="I213" s="17"/>
       <c r="J213" s="16"/>
     </row>
-    <row r="214" spans="1:10" ht="39" customHeight="1">
+    <row r="214" spans="1:10" ht="63" customHeight="1">
       <c r="A214" s="17"/>
       <c r="B214" s="14"/>
       <c r="C214" s="17"/>
@@ -14209,7 +14261,7 @@
       <c r="I214" s="17"/>
       <c r="J214" s="16"/>
     </row>
-    <row r="215" spans="1:10" ht="39" customHeight="1">
+    <row r="215" spans="1:10" ht="63" customHeight="1">
       <c r="A215" s="17"/>
       <c r="B215" s="14"/>
       <c r="C215" s="17"/>
@@ -14221,7 +14273,7 @@
       <c r="I215" s="17"/>
       <c r="J215" s="16"/>
     </row>
-    <row r="216" spans="1:10" ht="39" customHeight="1">
+    <row r="216" spans="1:10" ht="63" customHeight="1">
       <c r="A216" s="17"/>
       <c r="B216" s="14"/>
       <c r="C216" s="17"/>
@@ -14233,7 +14285,7 @@
       <c r="I216" s="17"/>
       <c r="J216" s="16"/>
     </row>
-    <row r="217" spans="1:10" ht="39" customHeight="1">
+    <row r="217" spans="1:10" ht="63" customHeight="1">
       <c r="A217" s="17"/>
       <c r="B217" s="14"/>
       <c r="C217" s="17"/>
@@ -14245,7 +14297,7 @@
       <c r="I217" s="17"/>
       <c r="J217" s="16"/>
     </row>
-    <row r="218" spans="1:10" ht="39" customHeight="1">
+    <row r="218" spans="1:10" ht="63" customHeight="1">
       <c r="A218" s="17"/>
       <c r="B218" s="14"/>
       <c r="C218" s="17"/>
@@ -14257,7 +14309,7 @@
       <c r="I218" s="17"/>
       <c r="J218" s="16"/>
     </row>
-    <row r="219" spans="1:10" ht="39" customHeight="1">
+    <row r="219" spans="1:10" ht="63" customHeight="1">
       <c r="A219" s="17"/>
       <c r="B219" s="14"/>
       <c r="C219" s="17"/>
@@ -14269,7 +14321,7 @@
       <c r="I219" s="17"/>
       <c r="J219" s="16"/>
     </row>
-    <row r="220" spans="1:10" ht="39" customHeight="1">
+    <row r="220" spans="1:10" ht="63" customHeight="1">
       <c r="A220" s="17"/>
       <c r="B220" s="14"/>
       <c r="C220" s="17"/>
@@ -14281,7 +14333,7 @@
       <c r="I220" s="17"/>
       <c r="J220" s="16"/>
     </row>
-    <row r="221" spans="1:10" ht="39" customHeight="1">
+    <row r="221" spans="1:10" ht="63" customHeight="1">
       <c r="A221" s="17"/>
       <c r="B221" s="14"/>
       <c r="C221" s="17"/>
@@ -14293,7 +14345,7 @@
       <c r="I221" s="17"/>
       <c r="J221" s="16"/>
     </row>
-    <row r="222" spans="1:10" ht="39" customHeight="1">
+    <row r="222" spans="1:10" ht="63" customHeight="1">
       <c r="A222" s="17"/>
       <c r="B222" s="14"/>
       <c r="C222" s="17"/>
@@ -14305,7 +14357,7 @@
       <c r="I222" s="17"/>
       <c r="J222" s="16"/>
     </row>
-    <row r="223" spans="1:10" ht="39" customHeight="1">
+    <row r="223" spans="1:10" ht="63" customHeight="1">
       <c r="A223" s="17"/>
       <c r="B223" s="14"/>
       <c r="C223" s="17"/>
@@ -14317,7 +14369,7 @@
       <c r="I223" s="17"/>
       <c r="J223" s="16"/>
     </row>
-    <row r="224" spans="1:10" ht="39" customHeight="1">
+    <row r="224" spans="1:10" ht="63" customHeight="1">
       <c r="A224" s="17"/>
       <c r="B224" s="14"/>
       <c r="C224" s="17"/>
@@ -14329,7 +14381,7 @@
       <c r="I224" s="17"/>
       <c r="J224" s="16"/>
     </row>
-    <row r="225" spans="1:10" ht="39" customHeight="1">
+    <row r="225" spans="1:10" ht="63" customHeight="1">
       <c r="A225" s="17"/>
       <c r="B225" s="14"/>
       <c r="C225" s="17"/>
@@ -14341,7 +14393,7 @@
       <c r="I225" s="17"/>
       <c r="J225" s="16"/>
     </row>
-    <row r="226" spans="1:10" ht="39" customHeight="1">
+    <row r="226" spans="1:10" ht="63" customHeight="1">
       <c r="A226" s="17"/>
       <c r="B226" s="14"/>
       <c r="C226" s="17"/>
@@ -14353,7 +14405,7 @@
       <c r="I226" s="17"/>
       <c r="J226" s="16"/>
     </row>
-    <row r="227" spans="1:10" ht="39" customHeight="1">
+    <row r="227" spans="1:10" ht="63" customHeight="1">
       <c r="A227" s="17"/>
       <c r="B227" s="14"/>
       <c r="C227" s="17"/>
@@ -14365,7 +14417,7 @@
       <c r="I227" s="17"/>
       <c r="J227" s="16"/>
     </row>
-    <row r="228" spans="1:10" ht="39" customHeight="1">
+    <row r="228" spans="1:10" ht="63" customHeight="1">
       <c r="A228" s="17"/>
       <c r="B228" s="14"/>
       <c r="C228" s="17"/>
@@ -14377,7 +14429,7 @@
       <c r="I228" s="17"/>
       <c r="J228" s="16"/>
     </row>
-    <row r="229" spans="1:10" ht="39" customHeight="1">
+    <row r="229" spans="1:10" ht="63" customHeight="1">
       <c r="A229" s="17"/>
       <c r="B229" s="14"/>
       <c r="C229" s="17"/>
@@ -14389,7 +14441,7 @@
       <c r="I229" s="17"/>
       <c r="J229" s="16"/>
     </row>
-    <row r="230" spans="1:10" ht="39" customHeight="1">
+    <row r="230" spans="1:10" ht="63" customHeight="1">
       <c r="A230" s="17"/>
       <c r="B230" s="14"/>
       <c r="C230" s="17"/>
@@ -14401,7 +14453,7 @@
       <c r="I230" s="17"/>
       <c r="J230" s="16"/>
     </row>
-    <row r="231" spans="1:10" ht="39" customHeight="1">
+    <row r="231" spans="1:10" ht="63" customHeight="1">
       <c r="A231" s="17"/>
       <c r="B231" s="14"/>
       <c r="C231" s="17"/>
@@ -14413,7 +14465,7 @@
       <c r="I231" s="17"/>
       <c r="J231" s="16"/>
     </row>
-    <row r="232" spans="1:10" ht="39" customHeight="1">
+    <row r="232" spans="1:10" ht="63" customHeight="1">
       <c r="A232" s="17"/>
       <c r="B232" s="14"/>
       <c r="C232" s="17"/>
@@ -14425,7 +14477,7 @@
       <c r="I232" s="17"/>
       <c r="J232" s="16"/>
     </row>
-    <row r="233" spans="1:10" ht="39" customHeight="1">
+    <row r="233" spans="1:10" ht="63" customHeight="1">
       <c r="A233" s="17"/>
       <c r="B233" s="14"/>
       <c r="C233" s="17"/>
@@ -14437,7 +14489,7 @@
       <c r="I233" s="17"/>
       <c r="J233" s="16"/>
     </row>
-    <row r="234" spans="1:10" ht="39" customHeight="1">
+    <row r="234" spans="1:10" ht="63" customHeight="1">
       <c r="A234" s="17"/>
       <c r="B234" s="14"/>
       <c r="C234" s="17"/>
@@ -14449,7 +14501,7 @@
       <c r="I234" s="17"/>
       <c r="J234" s="16"/>
     </row>
-    <row r="235" spans="1:10" ht="39" customHeight="1">
+    <row r="235" spans="1:10" ht="63" customHeight="1">
       <c r="A235" s="17"/>
       <c r="B235" s="14"/>
       <c r="C235" s="17"/>
@@ -14461,7 +14513,7 @@
       <c r="I235" s="17"/>
       <c r="J235" s="16"/>
     </row>
-    <row r="236" spans="1:10" ht="39" customHeight="1">
+    <row r="236" spans="1:10" ht="63" customHeight="1">
       <c r="A236" s="17"/>
       <c r="B236" s="14"/>
       <c r="C236" s="17"/>
@@ -14473,7 +14525,7 @@
       <c r="I236" s="17"/>
       <c r="J236" s="16"/>
     </row>
-    <row r="237" spans="1:10" ht="39" customHeight="1">
+    <row r="237" spans="1:10" ht="63" customHeight="1">
       <c r="A237" s="17"/>
       <c r="B237" s="14"/>
       <c r="C237" s="17"/>
@@ -14485,7 +14537,7 @@
       <c r="I237" s="17"/>
       <c r="J237" s="16"/>
     </row>
-    <row r="238" spans="1:10" ht="39" customHeight="1">
+    <row r="238" spans="1:10" ht="63" customHeight="1">
       <c r="A238" s="17"/>
       <c r="B238" s="14"/>
       <c r="C238" s="17"/>
@@ -14497,7 +14549,7 @@
       <c r="I238" s="17"/>
       <c r="J238" s="16"/>
     </row>
-    <row r="239" spans="1:10" ht="39" customHeight="1">
+    <row r="239" spans="1:10" ht="63" customHeight="1">
       <c r="A239" s="17"/>
       <c r="B239" s="14"/>
       <c r="C239" s="17"/>
@@ -14509,7 +14561,7 @@
       <c r="I239" s="17"/>
       <c r="J239" s="16"/>
     </row>
-    <row r="240" spans="1:10" ht="39" customHeight="1">
+    <row r="240" spans="1:10" ht="63" customHeight="1">
       <c r="A240" s="17"/>
       <c r="B240" s="14"/>
       <c r="C240" s="17"/>
@@ -14521,7 +14573,7 @@
       <c r="I240" s="17"/>
       <c r="J240" s="16"/>
     </row>
-    <row r="241" spans="1:10" ht="39" customHeight="1">
+    <row r="241" spans="1:10" ht="63" customHeight="1">
       <c r="A241" s="17"/>
       <c r="B241" s="14"/>
       <c r="C241" s="17"/>
@@ -14533,7 +14585,7 @@
       <c r="I241" s="17"/>
       <c r="J241" s="16"/>
     </row>
-    <row r="242" spans="1:10" ht="39" customHeight="1">
+    <row r="242" spans="1:10" ht="63" customHeight="1">
       <c r="A242" s="17"/>
       <c r="B242" s="14"/>
       <c r="C242" s="17"/>
@@ -14545,7 +14597,7 @@
       <c r="I242" s="17"/>
       <c r="J242" s="16"/>
     </row>
-    <row r="243" spans="1:10" ht="39" customHeight="1">
+    <row r="243" spans="1:10" ht="63" customHeight="1">
       <c r="A243" s="17"/>
       <c r="B243" s="14"/>
       <c r="C243" s="17"/>
@@ -14557,7 +14609,7 @@
       <c r="I243" s="17"/>
       <c r="J243" s="16"/>
     </row>
-    <row r="244" spans="1:10" ht="39" customHeight="1">
+    <row r="244" spans="1:10" ht="63" customHeight="1">
       <c r="A244" s="17"/>
       <c r="B244" s="14"/>
       <c r="C244" s="17"/>
@@ -14569,7 +14621,7 @@
       <c r="I244" s="17"/>
       <c r="J244" s="16"/>
     </row>
-    <row r="245" spans="1:10" ht="39" customHeight="1">
+    <row r="245" spans="1:10" ht="63" customHeight="1">
       <c r="A245" s="17"/>
       <c r="B245" s="14"/>
       <c r="C245" s="17"/>
@@ -14581,7 +14633,7 @@
       <c r="I245" s="17"/>
       <c r="J245" s="16"/>
     </row>
-    <row r="246" spans="1:10" ht="39" customHeight="1">
+    <row r="246" spans="1:10" ht="63" customHeight="1">
       <c r="A246" s="17"/>
       <c r="B246" s="14"/>
       <c r="C246" s="17"/>
@@ -14593,7 +14645,7 @@
       <c r="I246" s="17"/>
       <c r="J246" s="16"/>
     </row>
-    <row r="247" spans="1:10" ht="39" customHeight="1">
+    <row r="247" spans="1:10" ht="63" customHeight="1">
       <c r="A247" s="17"/>
       <c r="B247" s="14"/>
       <c r="C247" s="17"/>
@@ -14605,7 +14657,7 @@
       <c r="I247" s="17"/>
       <c r="J247" s="16"/>
     </row>
-    <row r="248" spans="1:10" ht="39" customHeight="1">
+    <row r="248" spans="1:10" ht="63" customHeight="1">
       <c r="A248" s="17"/>
       <c r="B248" s="14"/>
       <c r="C248" s="17"/>
@@ -14617,7 +14669,7 @@
       <c r="I248" s="17"/>
       <c r="J248" s="16"/>
     </row>
-    <row r="249" spans="1:10" ht="39" customHeight="1">
+    <row r="249" spans="1:10" ht="63" customHeight="1">
       <c r="A249" s="17"/>
       <c r="B249" s="14"/>
       <c r="C249" s="17"/>
@@ -14629,7 +14681,7 @@
       <c r="I249" s="17"/>
       <c r="J249" s="16"/>
     </row>
-    <row r="250" spans="1:10" ht="39" customHeight="1">
+    <row r="250" spans="1:10" ht="63" customHeight="1">
       <c r="A250" s="17"/>
       <c r="B250" s="14"/>
       <c r="C250" s="17"/>
@@ -14641,7 +14693,7 @@
       <c r="I250" s="17"/>
       <c r="J250" s="16"/>
     </row>
-    <row r="251" spans="1:10" ht="39" customHeight="1">
+    <row r="251" spans="1:10" ht="63" customHeight="1">
       <c r="A251" s="17"/>
       <c r="B251" s="14"/>
       <c r="C251" s="17"/>
@@ -14653,7 +14705,7 @@
       <c r="I251" s="17"/>
       <c r="J251" s="16"/>
     </row>
-    <row r="252" spans="1:10" ht="39" customHeight="1">
+    <row r="252" spans="1:10" ht="63" customHeight="1">
       <c r="A252" s="17"/>
       <c r="B252" s="14"/>
       <c r="C252" s="17"/>
@@ -14665,7 +14717,7 @@
       <c r="I252" s="17"/>
       <c r="J252" s="16"/>
     </row>
-    <row r="253" spans="1:10" ht="39" customHeight="1">
+    <row r="253" spans="1:10" ht="63" customHeight="1">
       <c r="A253" s="17"/>
       <c r="B253" s="14"/>
       <c r="C253" s="17"/>
@@ -14677,7 +14729,7 @@
       <c r="I253" s="17"/>
       <c r="J253" s="16"/>
     </row>
-    <row r="254" spans="1:10" ht="39" customHeight="1">
+    <row r="254" spans="1:10" ht="63" customHeight="1">
       <c r="A254" s="17"/>
       <c r="B254" s="14"/>
       <c r="C254" s="17"/>
@@ -14689,7 +14741,7 @@
       <c r="I254" s="17"/>
       <c r="J254" s="16"/>
     </row>
-    <row r="255" spans="1:10" ht="39" customHeight="1">
+    <row r="255" spans="1:10" ht="63" customHeight="1">
       <c r="A255" s="17"/>
       <c r="B255" s="14"/>
       <c r="C255" s="17"/>
@@ -14701,7 +14753,7 @@
       <c r="I255" s="17"/>
       <c r="J255" s="16"/>
     </row>
-    <row r="256" spans="1:10" ht="39" customHeight="1">
+    <row r="256" spans="1:10" ht="63" customHeight="1">
       <c r="A256" s="17"/>
       <c r="B256" s="14"/>
       <c r="C256" s="17"/>
@@ -14713,7 +14765,7 @@
       <c r="I256" s="17"/>
       <c r="J256" s="16"/>
     </row>
-    <row r="257" spans="1:10" ht="39" customHeight="1">
+    <row r="257" spans="1:10" ht="63" customHeight="1">
       <c r="A257" s="17"/>
       <c r="B257" s="14"/>
       <c r="C257" s="17"/>
@@ -14725,7 +14777,7 @@
       <c r="I257" s="17"/>
       <c r="J257" s="16"/>
     </row>
-    <row r="258" spans="1:10" ht="39" customHeight="1">
+    <row r="258" spans="1:10" ht="63" customHeight="1">
       <c r="A258" s="17"/>
       <c r="B258" s="14"/>
       <c r="C258" s="17"/>
@@ -14737,7 +14789,7 @@
       <c r="I258" s="17"/>
       <c r="J258" s="16"/>
     </row>
-    <row r="259" spans="1:10" ht="39" customHeight="1">
+    <row r="259" spans="1:10" ht="63" customHeight="1">
       <c r="A259" s="17"/>
       <c r="B259" s="14"/>
       <c r="C259" s="17"/>
@@ -14749,7 +14801,7 @@
       <c r="I259" s="17"/>
       <c r="J259" s="16"/>
     </row>
-    <row r="260" spans="1:10" ht="39" customHeight="1">
+    <row r="260" spans="1:10" ht="63" customHeight="1">
       <c r="A260" s="17"/>
       <c r="B260" s="14"/>
       <c r="C260" s="17"/>
@@ -14761,7 +14813,7 @@
       <c r="I260" s="17"/>
       <c r="J260" s="16"/>
     </row>
-    <row r="261" spans="1:10" ht="39" customHeight="1">
+    <row r="261" spans="1:10" ht="63" customHeight="1">
       <c r="A261" s="17"/>
       <c r="B261" s="14"/>
       <c r="C261" s="17"/>
@@ -14773,7 +14825,7 @@
       <c r="I261" s="17"/>
       <c r="J261" s="16"/>
     </row>
-    <row r="262" spans="1:10" ht="39" customHeight="1">
+    <row r="262" spans="1:10" ht="63" customHeight="1">
       <c r="A262" s="17"/>
       <c r="B262" s="14"/>
       <c r="C262" s="17"/>
@@ -14785,7 +14837,7 @@
       <c r="I262" s="17"/>
       <c r="J262" s="16"/>
     </row>
-    <row r="263" spans="1:10" ht="39" customHeight="1">
+    <row r="263" spans="1:10" ht="63" customHeight="1">
       <c r="A263" s="17"/>
       <c r="B263" s="14"/>
       <c r="C263" s="17"/>
@@ -14797,7 +14849,7 @@
       <c r="I263" s="17"/>
       <c r="J263" s="16"/>
     </row>
-    <row r="264" spans="1:10" ht="39" customHeight="1">
+    <row r="264" spans="1:10" ht="63" customHeight="1">
       <c r="A264" s="17"/>
       <c r="B264" s="14"/>
       <c r="C264" s="17"/>
@@ -14809,7 +14861,7 @@
       <c r="I264" s="17"/>
       <c r="J264" s="16"/>
     </row>
-    <row r="265" spans="1:10" ht="39" customHeight="1">
+    <row r="265" spans="1:10" ht="63" customHeight="1">
       <c r="A265" s="17"/>
       <c r="B265" s="14"/>
       <c r="C265" s="17"/>
@@ -14821,7 +14873,7 @@
       <c r="I265" s="17"/>
       <c r="J265" s="16"/>
     </row>
-    <row r="266" spans="1:10" ht="39" customHeight="1">
+    <row r="266" spans="1:10" ht="63" customHeight="1">
       <c r="A266" s="17"/>
       <c r="B266" s="14"/>
       <c r="C266" s="17"/>
@@ -14833,7 +14885,7 @@
       <c r="I266" s="17"/>
       <c r="J266" s="16"/>
     </row>
-    <row r="267" spans="1:10" ht="39" customHeight="1">
+    <row r="267" spans="1:10" ht="63" customHeight="1">
       <c r="A267" s="17"/>
       <c r="B267" s="14"/>
       <c r="C267" s="17"/>
@@ -14845,7 +14897,7 @@
       <c r="I267" s="17"/>
       <c r="J267" s="16"/>
     </row>
-    <row r="268" spans="1:10" ht="39" customHeight="1">
+    <row r="268" spans="1:10" ht="63" customHeight="1">
       <c r="A268" s="17"/>
       <c r="B268" s="14"/>
       <c r="C268" s="17"/>
@@ -14857,7 +14909,7 @@
       <c r="I268" s="17"/>
       <c r="J268" s="16"/>
     </row>
-    <row r="269" spans="1:10" ht="39" customHeight="1">
+    <row r="269" spans="1:10" ht="63" customHeight="1">
       <c r="A269" s="17"/>
       <c r="B269" s="14"/>
       <c r="C269" s="17"/>
@@ -14869,7 +14921,7 @@
       <c r="I269" s="17"/>
       <c r="J269" s="16"/>
     </row>
-    <row r="270" spans="1:10" ht="39" customHeight="1">
+    <row r="270" spans="1:10" ht="63" customHeight="1">
       <c r="A270" s="17"/>
       <c r="B270" s="14"/>
       <c r="C270" s="17"/>
@@ -14881,7 +14933,7 @@
       <c r="I270" s="17"/>
       <c r="J270" s="16"/>
     </row>
-    <row r="271" spans="1:10" ht="39" customHeight="1">
+    <row r="271" spans="1:10" ht="63" customHeight="1">
       <c r="A271" s="17"/>
       <c r="B271" s="14"/>
       <c r="C271" s="17"/>
@@ -14893,7 +14945,7 @@
       <c r="I271" s="17"/>
       <c r="J271" s="16"/>
     </row>
-    <row r="272" spans="1:10" ht="39" customHeight="1">
+    <row r="272" spans="1:10" ht="63" customHeight="1">
       <c r="A272" s="17"/>
       <c r="B272" s="14"/>
       <c r="C272" s="17"/>
@@ -14905,7 +14957,7 @@
       <c r="I272" s="17"/>
       <c r="J272" s="16"/>
     </row>
-    <row r="273" spans="1:10" ht="39" customHeight="1">
+    <row r="273" spans="1:10" ht="63" customHeight="1">
       <c r="A273" s="17"/>
       <c r="B273" s="14"/>
       <c r="C273" s="17"/>
@@ -14917,7 +14969,7 @@
       <c r="I273" s="17"/>
       <c r="J273" s="16"/>
     </row>
-    <row r="274" spans="1:10" ht="39" customHeight="1">
+    <row r="274" spans="1:10" ht="63" customHeight="1">
       <c r="A274" s="17"/>
       <c r="B274" s="14"/>
       <c r="C274" s="17"/>
@@ -14929,7 +14981,7 @@
       <c r="I274" s="17"/>
       <c r="J274" s="16"/>
     </row>
-    <row r="275" spans="1:10" ht="39" customHeight="1">
+    <row r="275" spans="1:10" ht="63" customHeight="1">
       <c r="A275" s="17"/>
       <c r="B275" s="14"/>
       <c r="C275" s="17"/>
@@ -14941,7 +14993,7 @@
       <c r="I275" s="17"/>
       <c r="J275" s="16"/>
     </row>
-    <row r="276" spans="1:10" ht="39" customHeight="1">
+    <row r="276" spans="1:10" ht="63" customHeight="1">
       <c r="A276" s="17"/>
       <c r="B276" s="14"/>
       <c r="C276" s="17"/>
@@ -14953,7 +15005,7 @@
       <c r="I276" s="17"/>
       <c r="J276" s="16"/>
     </row>
-    <row r="277" spans="1:10" ht="39" customHeight="1">
+    <row r="277" spans="1:10" ht="63" customHeight="1">
       <c r="A277" s="17"/>
       <c r="B277" s="14"/>
       <c r="C277" s="17"/>
@@ -14965,7 +15017,7 @@
       <c r="I277" s="17"/>
       <c r="J277" s="16"/>
     </row>
-    <row r="278" spans="1:10" ht="39" customHeight="1">
+    <row r="278" spans="1:10" ht="63" customHeight="1">
       <c r="A278" s="17"/>
       <c r="B278" s="14"/>
       <c r="C278" s="17"/>
@@ -14977,7 +15029,7 @@
       <c r="I278" s="17"/>
       <c r="J278" s="16"/>
     </row>
-    <row r="279" spans="1:10" ht="39" customHeight="1">
+    <row r="279" spans="1:10" ht="63" customHeight="1">
       <c r="A279" s="17"/>
       <c r="B279" s="14"/>
       <c r="C279" s="17"/>
@@ -14989,7 +15041,7 @@
       <c r="I279" s="17"/>
       <c r="J279" s="16"/>
     </row>
-    <row r="280" spans="1:10" ht="39" customHeight="1">
+    <row r="280" spans="1:10" ht="63" customHeight="1">
       <c r="A280" s="17"/>
       <c r="B280" s="14"/>
       <c r="C280" s="17"/>
@@ -15001,7 +15053,7 @@
       <c r="I280" s="17"/>
       <c r="J280" s="16"/>
     </row>
-    <row r="281" spans="1:10" ht="39" customHeight="1">
+    <row r="281" spans="1:10" ht="63" customHeight="1">
       <c r="A281" s="17"/>
       <c r="B281" s="14"/>
       <c r="C281" s="17"/>
@@ -15013,7 +15065,7 @@
       <c r="I281" s="17"/>
       <c r="J281" s="16"/>
     </row>
-    <row r="282" spans="1:10" ht="39" customHeight="1">
+    <row r="282" spans="1:10" ht="63" customHeight="1">
       <c r="A282" s="17"/>
       <c r="B282" s="14"/>
       <c r="C282" s="17"/>
@@ -15025,7 +15077,7 @@
       <c r="I282" s="17"/>
       <c r="J282" s="16"/>
     </row>
-    <row r="283" spans="1:10" ht="39" customHeight="1">
+    <row r="283" spans="1:10" ht="63" customHeight="1">
       <c r="A283" s="17"/>
       <c r="B283" s="14"/>
       <c r="C283" s="17"/>
@@ -15037,7 +15089,7 @@
       <c r="I283" s="17"/>
       <c r="J283" s="16"/>
     </row>
-    <row r="284" spans="1:10" ht="39" customHeight="1">
+    <row r="284" spans="1:10" ht="63" customHeight="1">
       <c r="A284" s="17"/>
       <c r="B284" s="14"/>
       <c r="C284" s="17"/>
@@ -15049,7 +15101,7 @@
       <c r="I284" s="17"/>
       <c r="J284" s="16"/>
     </row>
-    <row r="285" spans="1:10" ht="39" customHeight="1">
+    <row r="285" spans="1:10" ht="63" customHeight="1">
       <c r="A285" s="17"/>
       <c r="B285" s="14"/>
       <c r="C285" s="17"/>
@@ -15061,7 +15113,7 @@
       <c r="I285" s="17"/>
       <c r="J285" s="16"/>
     </row>
-    <row r="286" spans="1:10" ht="39" customHeight="1">
+    <row r="286" spans="1:10" ht="63" customHeight="1">
       <c r="A286" s="17"/>
       <c r="B286" s="14"/>
       <c r="C286" s="17"/>
@@ -15073,7 +15125,7 @@
       <c r="I286" s="17"/>
       <c r="J286" s="16"/>
     </row>
-    <row r="287" spans="1:10" ht="39" customHeight="1">
+    <row r="287" spans="1:10" ht="63" customHeight="1">
       <c r="A287" s="17"/>
       <c r="B287" s="14"/>
       <c r="C287" s="17"/>
@@ -15085,7 +15137,7 @@
       <c r="I287" s="17"/>
       <c r="J287" s="16"/>
     </row>
-    <row r="288" spans="1:10" ht="39" customHeight="1">
+    <row r="288" spans="1:10" ht="63" customHeight="1">
       <c r="A288" s="17"/>
       <c r="B288" s="14"/>
       <c r="C288" s="17"/>
@@ -15097,7 +15149,7 @@
       <c r="I288" s="17"/>
       <c r="J288" s="16"/>
     </row>
-    <row r="289" spans="1:10" ht="39" customHeight="1">
+    <row r="289" spans="1:10" ht="63" customHeight="1">
       <c r="A289" s="17"/>
       <c r="B289" s="14"/>
       <c r="C289" s="17"/>
@@ -15109,7 +15161,7 @@
       <c r="I289" s="17"/>
       <c r="J289" s="16"/>
     </row>
-    <row r="290" spans="1:10" ht="39" customHeight="1">
+    <row r="290" spans="1:10" ht="63" customHeight="1">
       <c r="A290" s="17"/>
       <c r="B290" s="14"/>
       <c r="C290" s="17"/>
@@ -15121,7 +15173,7 @@
       <c r="I290" s="17"/>
       <c r="J290" s="16"/>
     </row>
-    <row r="291" spans="1:10" ht="39" customHeight="1">
+    <row r="291" spans="1:10" ht="63" customHeight="1">
       <c r="A291" s="17"/>
       <c r="B291" s="14"/>
       <c r="C291" s="17"/>
@@ -15133,7 +15185,7 @@
       <c r="I291" s="17"/>
       <c r="J291" s="16"/>
     </row>
-    <row r="292" spans="1:10" ht="39" customHeight="1">
+    <row r="292" spans="1:10" ht="63" customHeight="1">
       <c r="A292" s="17"/>
       <c r="B292" s="14"/>
       <c r="C292" s="17"/>
@@ -15145,7 +15197,7 @@
       <c r="I292" s="17"/>
       <c r="J292" s="16"/>
     </row>
-    <row r="293" spans="1:10" ht="39" customHeight="1">
+    <row r="293" spans="1:10" ht="63" customHeight="1">
       <c r="A293" s="17"/>
       <c r="B293" s="14"/>
       <c r="C293" s="17"/>
@@ -15157,7 +15209,7 @@
       <c r="I293" s="17"/>
       <c r="J293" s="16"/>
     </row>
-    <row r="294" spans="1:10" ht="39" customHeight="1">
+    <row r="294" spans="1:10" ht="63" customHeight="1">
       <c r="A294" s="17"/>
       <c r="B294" s="14"/>
       <c r="C294" s="17"/>
@@ -15169,7 +15221,7 @@
       <c r="I294" s="17"/>
       <c r="J294" s="16"/>
     </row>
-    <row r="295" spans="1:10" ht="39" customHeight="1">
+    <row r="295" spans="1:10" ht="63" customHeight="1">
       <c r="A295" s="17"/>
       <c r="B295" s="14"/>
       <c r="C295" s="17"/>
@@ -15181,7 +15233,7 @@
       <c r="I295" s="17"/>
       <c r="J295" s="16"/>
     </row>
-    <row r="296" spans="1:10" ht="39" customHeight="1">
+    <row r="296" spans="1:10" ht="63" customHeight="1">
       <c r="A296" s="17"/>
       <c r="B296" s="14"/>
       <c r="C296" s="17"/>
@@ -15193,7 +15245,7 @@
       <c r="I296" s="17"/>
       <c r="J296" s="16"/>
     </row>
-    <row r="297" spans="1:10" ht="39" customHeight="1">
+    <row r="297" spans="1:10" ht="63" customHeight="1">
       <c r="A297" s="17"/>
       <c r="B297" s="14"/>
       <c r="C297" s="17"/>
@@ -15205,7 +15257,7 @@
       <c r="I297" s="17"/>
       <c r="J297" s="16"/>
     </row>
-    <row r="298" spans="1:10" ht="39" customHeight="1">
+    <row r="298" spans="1:10" ht="63" customHeight="1">
       <c r="A298" s="17"/>
       <c r="B298" s="14"/>
       <c r="C298" s="17"/>
@@ -15217,7 +15269,7 @@
       <c r="I298" s="17"/>
       <c r="J298" s="16"/>
     </row>
-    <row r="299" spans="1:10" ht="39" customHeight="1">
+    <row r="299" spans="1:10" ht="63" customHeight="1">
       <c r="A299" s="17"/>
       <c r="B299" s="14"/>
       <c r="C299" s="17"/>
@@ -15229,7 +15281,7 @@
       <c r="I299" s="17"/>
       <c r="J299" s="16"/>
     </row>
-    <row r="300" spans="1:10" ht="39" customHeight="1">
+    <row r="300" spans="1:10" ht="63" customHeight="1">
       <c r="A300" s="17"/>
       <c r="B300" s="14"/>
       <c r="C300" s="17"/>
@@ -15241,7 +15293,7 @@
       <c r="I300" s="17"/>
       <c r="J300" s="16"/>
     </row>
-    <row r="301" spans="1:10" ht="39" customHeight="1">
+    <row r="301" spans="1:10" ht="63" customHeight="1">
       <c r="A301" s="17"/>
       <c r="B301" s="14"/>
       <c r="C301" s="17"/>
@@ -15253,7 +15305,7 @@
       <c r="I301" s="17"/>
       <c r="J301" s="16"/>
     </row>
-    <row r="302" spans="1:10" ht="39" customHeight="1">
+    <row r="302" spans="1:10" ht="63" customHeight="1">
       <c r="A302" s="17"/>
       <c r="B302" s="14"/>
       <c r="C302" s="17"/>
@@ -15265,7 +15317,7 @@
       <c r="I302" s="17"/>
       <c r="J302" s="16"/>
     </row>
-    <row r="303" spans="1:10" ht="39" customHeight="1">
+    <row r="303" spans="1:10" ht="63" customHeight="1">
       <c r="A303" s="17"/>
       <c r="B303" s="14"/>
       <c r="C303" s="17"/>
@@ -15277,7 +15329,7 @@
       <c r="I303" s="17"/>
       <c r="J303" s="16"/>
     </row>
-    <row r="304" spans="1:10" ht="39" customHeight="1">
+    <row r="304" spans="1:10" ht="63" customHeight="1">
       <c r="A304" s="17"/>
       <c r="B304" s="14"/>
       <c r="C304" s="17"/>
@@ -15289,7 +15341,7 @@
       <c r="I304" s="17"/>
       <c r="J304" s="16"/>
     </row>
-    <row r="305" spans="1:10" ht="39" customHeight="1">
+    <row r="305" spans="1:10" ht="63" customHeight="1">
       <c r="A305" s="17"/>
       <c r="B305" s="14"/>
       <c r="C305" s="17"/>
@@ -15301,7 +15353,7 @@
       <c r="I305" s="17"/>
       <c r="J305" s="16"/>
     </row>
-    <row r="306" spans="1:10" ht="39" customHeight="1">
+    <row r="306" spans="1:10" ht="63" customHeight="1">
       <c r="A306" s="17"/>
       <c r="B306" s="14"/>
       <c r="C306" s="17"/>
@@ -15313,7 +15365,7 @@
       <c r="I306" s="17"/>
       <c r="J306" s="16"/>
     </row>
-    <row r="307" spans="1:10" ht="39" customHeight="1">
+    <row r="307" spans="1:10" ht="63" customHeight="1">
       <c r="A307" s="17"/>
       <c r="B307" s="14"/>
       <c r="C307" s="17"/>
@@ -15325,7 +15377,7 @@
       <c r="I307" s="17"/>
       <c r="J307" s="16"/>
     </row>
-    <row r="308" spans="1:10" ht="39" customHeight="1">
+    <row r="308" spans="1:10" ht="63" customHeight="1">
       <c r="A308" s="17"/>
       <c r="B308" s="14"/>
       <c r="C308" s="17"/>
@@ -15337,7 +15389,7 @@
       <c r="I308" s="17"/>
       <c r="J308" s="16"/>
     </row>
-    <row r="309" spans="1:10" ht="39" customHeight="1">
+    <row r="309" spans="1:10" ht="63" customHeight="1">
       <c r="A309" s="17"/>
       <c r="B309" s="14"/>
       <c r="C309" s="17"/>
@@ -15349,7 +15401,7 @@
       <c r="I309" s="17"/>
       <c r="J309" s="16"/>
     </row>
-    <row r="310" spans="1:10" ht="39" customHeight="1">
+    <row r="310" spans="1:10" ht="63" customHeight="1">
       <c r="A310" s="17"/>
       <c r="B310" s="14"/>
       <c r="C310" s="17"/>
@@ -15361,7 +15413,7 @@
       <c r="I310" s="17"/>
       <c r="J310" s="16"/>
     </row>
-    <row r="311" spans="1:10" ht="39" customHeight="1">
+    <row r="311" spans="1:10" ht="63" customHeight="1">
       <c r="A311" s="17"/>
       <c r="B311" s="14"/>
       <c r="C311" s="17"/>
@@ -15373,7 +15425,7 @@
       <c r="I311" s="17"/>
       <c r="J311" s="16"/>
     </row>
-    <row r="312" spans="1:10" ht="39" customHeight="1">
+    <row r="312" spans="1:10" ht="63" customHeight="1">
       <c r="A312" s="17"/>
       <c r="B312" s="14"/>
       <c r="C312" s="17"/>
@@ -15385,7 +15437,7 @@
       <c r="I312" s="17"/>
       <c r="J312" s="16"/>
     </row>
-    <row r="313" spans="1:10" ht="39" customHeight="1">
+    <row r="313" spans="1:10" ht="63" customHeight="1">
       <c r="A313" s="17"/>
       <c r="B313" s="14"/>
       <c r="C313" s="17"/>
@@ -15397,7 +15449,7 @@
       <c r="I313" s="17"/>
       <c r="J313" s="16"/>
     </row>
-    <row r="314" spans="1:10" ht="39" customHeight="1">
+    <row r="314" spans="1:10" ht="63" customHeight="1">
       <c r="A314" s="17"/>
       <c r="B314" s="14"/>
       <c r="C314" s="17"/>
@@ -15409,7 +15461,7 @@
       <c r="I314" s="17"/>
       <c r="J314" s="16"/>
     </row>
-    <row r="315" spans="1:10" ht="39" customHeight="1">
+    <row r="315" spans="1:10" ht="63" customHeight="1">
       <c r="A315" s="17"/>
       <c r="B315" s="14"/>
       <c r="C315" s="17"/>
@@ -15421,7 +15473,7 @@
       <c r="I315" s="17"/>
       <c r="J315" s="16"/>
     </row>
-    <row r="316" spans="1:10" ht="39" customHeight="1">
+    <row r="316" spans="1:10" ht="63" customHeight="1">
       <c r="A316" s="17"/>
       <c r="B316" s="14"/>
       <c r="C316" s="17"/>
@@ -15433,7 +15485,7 @@
       <c r="I316" s="17"/>
       <c r="J316" s="16"/>
     </row>
-    <row r="317" spans="1:10" ht="39" customHeight="1">
+    <row r="317" spans="1:10" ht="63" customHeight="1">
       <c r="A317" s="17"/>
       <c r="B317" s="14"/>
       <c r="C317" s="17"/>
@@ -15445,7 +15497,7 @@
       <c r="I317" s="17"/>
       <c r="J317" s="16"/>
     </row>
-    <row r="318" spans="1:10" ht="39" customHeight="1">
+    <row r="318" spans="1:10" ht="63" customHeight="1">
       <c r="A318" s="17"/>
       <c r="B318" s="14"/>
       <c r="C318" s="17"/>
@@ -15457,7 +15509,7 @@
       <c r="I318" s="17"/>
       <c r="J318" s="16"/>
     </row>
-    <row r="319" spans="1:10" ht="39" customHeight="1">
+    <row r="319" spans="1:10" ht="63" customHeight="1">
       <c r="A319" s="17"/>
       <c r="B319" s="14"/>
       <c r="C319" s="17"/>
@@ -15469,7 +15521,7 @@
       <c r="I319" s="17"/>
       <c r="J319" s="16"/>
     </row>
-    <row r="320" spans="1:10" ht="39" customHeight="1">
+    <row r="320" spans="1:10" ht="63" customHeight="1">
       <c r="A320" s="17"/>
       <c r="B320" s="14"/>
       <c r="C320" s="17"/>
@@ -15481,7 +15533,7 @@
       <c r="I320" s="17"/>
       <c r="J320" s="16"/>
     </row>
-    <row r="321" spans="1:10" ht="39" customHeight="1">
+    <row r="321" spans="1:10" ht="63" customHeight="1">
       <c r="A321" s="17"/>
       <c r="B321" s="14"/>
       <c r="C321" s="17"/>
@@ -15493,7 +15545,7 @@
       <c r="I321" s="17"/>
       <c r="J321" s="16"/>
     </row>
-    <row r="322" spans="1:10" ht="39" customHeight="1">
+    <row r="322" spans="1:10" ht="63" customHeight="1">
       <c r="A322" s="17"/>
       <c r="B322" s="14"/>
       <c r="C322" s="17"/>
@@ -15505,7 +15557,7 @@
       <c r="I322" s="17"/>
       <c r="J322" s="16"/>
     </row>
-    <row r="323" spans="1:10" ht="39" customHeight="1">
+    <row r="323" spans="1:10" ht="63" customHeight="1">
       <c r="A323" s="17"/>
       <c r="B323" s="14"/>
       <c r="C323" s="17"/>
@@ -15517,7 +15569,7 @@
       <c r="I323" s="17"/>
       <c r="J323" s="16"/>
     </row>
-    <row r="324" spans="1:10" ht="39" customHeight="1">
+    <row r="324" spans="1:10" ht="63" customHeight="1">
       <c r="A324" s="17"/>
       <c r="B324" s="14"/>
       <c r="C324" s="17"/>
@@ -15529,7 +15581,7 @@
       <c r="I324" s="17"/>
       <c r="J324" s="16"/>
     </row>
-    <row r="325" spans="1:10" ht="39" customHeight="1">
+    <row r="325" spans="1:10" ht="63" customHeight="1">
       <c r="A325" s="17"/>
       <c r="B325" s="14"/>
       <c r="C325" s="17"/>
@@ -15541,7 +15593,7 @@
       <c r="I325" s="17"/>
       <c r="J325" s="16"/>
     </row>
-    <row r="326" spans="1:10" ht="39" customHeight="1">
+    <row r="326" spans="1:10" ht="63" customHeight="1">
       <c r="A326" s="17"/>
       <c r="B326" s="14"/>
       <c r="C326" s="17"/>
@@ -15553,7 +15605,7 @@
       <c r="I326" s="17"/>
       <c r="J326" s="16"/>
     </row>
-    <row r="327" spans="1:10" ht="39" customHeight="1">
+    <row r="327" spans="1:10" ht="63" customHeight="1">
       <c r="A327" s="17"/>
       <c r="B327" s="14"/>
       <c r="C327" s="17"/>
@@ -15565,7 +15617,7 @@
       <c r="I327" s="17"/>
       <c r="J327" s="16"/>
     </row>
-    <row r="328" spans="1:10" ht="39" customHeight="1">
+    <row r="328" spans="1:10" ht="63" customHeight="1">
       <c r="A328" s="17"/>
       <c r="B328" s="14"/>
       <c r="C328" s="17"/>
@@ -15577,7 +15629,7 @@
       <c r="I328" s="17"/>
       <c r="J328" s="16"/>
     </row>
-    <row r="329" spans="1:10" ht="39" customHeight="1">
+    <row r="329" spans="1:10" ht="63" customHeight="1">
       <c r="A329" s="17"/>
       <c r="B329" s="14"/>
       <c r="C329" s="17"/>
@@ -15589,7 +15641,7 @@
       <c r="I329" s="17"/>
       <c r="J329" s="16"/>
     </row>
-    <row r="330" spans="1:10" ht="39" customHeight="1">
+    <row r="330" spans="1:10" ht="63" customHeight="1">
       <c r="A330" s="17"/>
       <c r="B330" s="14"/>
       <c r="C330" s="17"/>
@@ -15601,7 +15653,7 @@
       <c r="I330" s="17"/>
       <c r="J330" s="16"/>
     </row>
-    <row r="331" spans="1:10" ht="39" customHeight="1">
+    <row r="331" spans="1:10" ht="63" customHeight="1">
       <c r="A331" s="17"/>
       <c r="B331" s="14"/>
       <c r="C331" s="17"/>
@@ -15613,7 +15665,7 @@
       <c r="I331" s="17"/>
       <c r="J331" s="16"/>
     </row>
-    <row r="332" spans="1:10" ht="39" customHeight="1">
+    <row r="332" spans="1:10" ht="63" customHeight="1">
       <c r="A332" s="17"/>
       <c r="B332" s="14"/>
       <c r="C332" s="17"/>
@@ -15625,7 +15677,7 @@
       <c r="I332" s="17"/>
       <c r="J332" s="16"/>
     </row>
-    <row r="333" spans="1:10" ht="39" customHeight="1">
+    <row r="333" spans="1:10" ht="63" customHeight="1">
       <c r="A333" s="17"/>
       <c r="B333" s="14"/>
       <c r="C333" s="17"/>
@@ -15637,7 +15689,7 @@
       <c r="I333" s="17"/>
       <c r="J333" s="16"/>
     </row>
-    <row r="334" spans="1:10" ht="39" customHeight="1">
+    <row r="334" spans="1:10" ht="63" customHeight="1">
       <c r="A334" s="17"/>
       <c r="B334" s="14"/>
       <c r="C334" s="17"/>
@@ -15649,7 +15701,7 @@
       <c r="I334" s="17"/>
       <c r="J334" s="16"/>
     </row>
-    <row r="335" spans="1:10" ht="39" customHeight="1">
+    <row r="335" spans="1:10" ht="63" customHeight="1">
       <c r="A335" s="17"/>
       <c r="B335" s="14"/>
       <c r="C335" s="17"/>
@@ -15661,7 +15713,7 @@
       <c r="I335" s="17"/>
       <c r="J335" s="16"/>
     </row>
-    <row r="336" spans="1:10" ht="39" customHeight="1">
+    <row r="336" spans="1:10" ht="63" customHeight="1">
       <c r="A336" s="17"/>
       <c r="B336" s="14"/>
       <c r="C336" s="17"/>
@@ -15673,7 +15725,7 @@
       <c r="I336" s="17"/>
       <c r="J336" s="16"/>
     </row>
-    <row r="337" spans="1:10" ht="39" customHeight="1">
+    <row r="337" spans="1:10" ht="63" customHeight="1">
       <c r="A337" s="17"/>
       <c r="B337" s="14"/>
       <c r="C337" s="17"/>
@@ -15685,7 +15737,7 @@
       <c r="I337" s="17"/>
       <c r="J337" s="16"/>
     </row>
-    <row r="338" spans="1:10" ht="39" customHeight="1">
+    <row r="338" spans="1:10" ht="63" customHeight="1">
       <c r="A338" s="17"/>
       <c r="B338" s="14"/>
       <c r="C338" s="17"/>
@@ -15697,7 +15749,7 @@
       <c r="I338" s="17"/>
       <c r="J338" s="16"/>
     </row>
-    <row r="339" spans="1:10" ht="39" customHeight="1">
+    <row r="339" spans="1:10" ht="63" customHeight="1">
       <c r="A339" s="17"/>
       <c r="B339" s="14"/>
       <c r="C339" s="17"/>
@@ -15709,7 +15761,7 @@
       <c r="I339" s="17"/>
       <c r="J339" s="16"/>
     </row>
-    <row r="340" spans="1:10" ht="39" customHeight="1">
+    <row r="340" spans="1:10" ht="63" customHeight="1">
       <c r="A340" s="17"/>
       <c r="B340" s="14"/>
       <c r="C340" s="17"/>
@@ -15721,7 +15773,7 @@
       <c r="I340" s="17"/>
       <c r="J340" s="16"/>
     </row>
-    <row r="341" spans="1:10" ht="39" customHeight="1">
+    <row r="341" spans="1:10" ht="63" customHeight="1">
       <c r="A341" s="17"/>
       <c r="B341" s="14"/>
       <c r="C341" s="17"/>
@@ -15733,7 +15785,7 @@
       <c r="I341" s="17"/>
       <c r="J341" s="16"/>
     </row>
-    <row r="342" spans="1:10" ht="39" customHeight="1">
+    <row r="342" spans="1:10" ht="63" customHeight="1">
       <c r="A342" s="17"/>
       <c r="B342" s="14"/>
       <c r="C342" s="17"/>
@@ -15745,7 +15797,7 @@
       <c r="I342" s="17"/>
       <c r="J342" s="16"/>
     </row>
-    <row r="343" spans="1:10" ht="39" customHeight="1">
+    <row r="343" spans="1:10" ht="63" customHeight="1">
       <c r="A343" s="17"/>
       <c r="B343" s="14"/>
       <c r="C343" s="17"/>
@@ -15757,7 +15809,7 @@
       <c r="I343" s="17"/>
       <c r="J343" s="16"/>
     </row>
-    <row r="344" spans="1:10" ht="39" customHeight="1">
+    <row r="344" spans="1:10" ht="63" customHeight="1">
       <c r="A344" s="17"/>
       <c r="B344" s="14"/>
       <c r="C344" s="17"/>
@@ -15769,7 +15821,7 @@
       <c r="I344" s="17"/>
       <c r="J344" s="16"/>
     </row>
-    <row r="345" spans="1:10" ht="39" customHeight="1">
+    <row r="345" spans="1:10" ht="63" customHeight="1">
       <c r="A345" s="17"/>
       <c r="B345" s="14"/>
       <c r="C345" s="17"/>
@@ -15781,7 +15833,7 @@
       <c r="I345" s="17"/>
       <c r="J345" s="16"/>
     </row>
-    <row r="346" spans="1:10" ht="39" customHeight="1">
+    <row r="346" spans="1:10" ht="63" customHeight="1">
       <c r="A346" s="17"/>
       <c r="B346" s="14"/>
       <c r="C346" s="17"/>
@@ -15793,7 +15845,7 @@
       <c r="I346" s="17"/>
       <c r="J346" s="16"/>
     </row>
-    <row r="347" spans="1:10" ht="39" customHeight="1">
+    <row r="347" spans="1:10" ht="63" customHeight="1">
       <c r="A347" s="17"/>
       <c r="B347" s="14"/>
       <c r="C347" s="17"/>
@@ -15805,7 +15857,7 @@
       <c r="I347" s="17"/>
       <c r="J347" s="16"/>
     </row>
-    <row r="348" spans="1:10" ht="39" customHeight="1">
+    <row r="348" spans="1:10" ht="63" customHeight="1">
       <c r="A348" s="17"/>
       <c r="B348" s="14"/>
       <c r="C348" s="17"/>
@@ -15817,7 +15869,7 @@
       <c r="I348" s="17"/>
       <c r="J348" s="16"/>
     </row>
-    <row r="349" spans="1:10" ht="39" customHeight="1">
+    <row r="349" spans="1:10" ht="63" customHeight="1">
       <c r="A349" s="17"/>
       <c r="B349" s="14"/>
       <c r="C349" s="17"/>
@@ -15829,7 +15881,7 @@
       <c r="I349" s="17"/>
       <c r="J349" s="16"/>
     </row>
-    <row r="350" spans="1:10" ht="39" customHeight="1">
+    <row r="350" spans="1:10" ht="63" customHeight="1">
       <c r="A350" s="17"/>
       <c r="B350" s="14"/>
       <c r="C350" s="17"/>
@@ -15841,7 +15893,7 @@
       <c r="I350" s="17"/>
       <c r="J350" s="16"/>
     </row>
-    <row r="351" spans="1:10" ht="39" customHeight="1">
+    <row r="351" spans="1:10" ht="63" customHeight="1">
       <c r="A351" s="17"/>
       <c r="B351" s="14"/>
       <c r="C351" s="17"/>
@@ -15853,7 +15905,7 @@
       <c r="I351" s="17"/>
       <c r="J351" s="16"/>
     </row>
-    <row r="352" spans="1:10" ht="39" customHeight="1">
+    <row r="352" spans="1:10" ht="63" customHeight="1">
       <c r="A352" s="17"/>
       <c r="B352" s="14"/>
       <c r="C352" s="17"/>
@@ -15865,7 +15917,7 @@
       <c r="I352" s="17"/>
       <c r="J352" s="16"/>
     </row>
-    <row r="353" spans="1:10" ht="39" customHeight="1">
+    <row r="353" spans="1:10" ht="63" customHeight="1">
       <c r="A353" s="17"/>
       <c r="B353" s="14"/>
       <c r="C353" s="17"/>
@@ -15877,7 +15929,7 @@
       <c r="I353" s="17"/>
       <c r="J353" s="16"/>
     </row>
-    <row r="354" spans="1:10" ht="39" customHeight="1">
+    <row r="354" spans="1:10" ht="63" customHeight="1">
       <c r="A354" s="17"/>
       <c r="B354" s="14"/>
       <c r="C354" s="17"/>
@@ -15889,7 +15941,7 @@
       <c r="I354" s="17"/>
       <c r="J354" s="16"/>
     </row>
-    <row r="355" spans="1:10" ht="39" customHeight="1">
+    <row r="355" spans="1:10" ht="63" customHeight="1">
       <c r="A355" s="17"/>
       <c r="B355" s="14"/>
       <c r="C355" s="17"/>
@@ -15901,7 +15953,7 @@
       <c r="I355" s="17"/>
       <c r="J355" s="16"/>
     </row>
-    <row r="356" spans="1:10" ht="39" customHeight="1">
+    <row r="356" spans="1:10" ht="63" customHeight="1">
       <c r="A356" s="17"/>
       <c r="B356" s="14"/>
       <c r="C356" s="17"/>
@@ -15913,7 +15965,7 @@
       <c r="I356" s="17"/>
       <c r="J356" s="16"/>
     </row>
-    <row r="357" spans="1:10" ht="39" customHeight="1">
+    <row r="357" spans="1:10" ht="63" customHeight="1">
       <c r="A357" s="17"/>
       <c r="B357" s="14"/>
       <c r="C357" s="17"/>
@@ -15925,7 +15977,7 @@
       <c r="I357" s="17"/>
       <c r="J357" s="16"/>
     </row>
-    <row r="358" spans="1:10" ht="39" customHeight="1">
+    <row r="358" spans="1:10" ht="63" customHeight="1">
       <c r="A358" s="17"/>
       <c r="B358" s="14"/>
       <c r="C358" s="17"/>
@@ -15937,7 +15989,7 @@
       <c r="I358" s="17"/>
       <c r="J358" s="16"/>
     </row>
-    <row r="359" spans="1:10" ht="39" customHeight="1">
+    <row r="359" spans="1:10" ht="63" customHeight="1">
       <c r="A359" s="17"/>
       <c r="B359" s="14"/>
       <c r="C359" s="17"/>
@@ -15949,7 +16001,7 @@
       <c r="I359" s="17"/>
       <c r="J359" s="16"/>
     </row>
-    <row r="360" spans="1:10" ht="39" customHeight="1">
+    <row r="360" spans="1:10" ht="63" customHeight="1">
       <c r="A360" s="17"/>
       <c r="B360" s="14"/>
       <c r="C360" s="17"/>
@@ -15961,7 +16013,7 @@
       <c r="I360" s="17"/>
       <c r="J360" s="16"/>
     </row>
-    <row r="361" spans="1:10" ht="39" customHeight="1">
+    <row r="361" spans="1:10" ht="63" customHeight="1">
       <c r="A361" s="17"/>
       <c r="B361" s="14"/>
       <c r="C361" s="17"/>
@@ -15973,7 +16025,7 @@
       <c r="I361" s="17"/>
       <c r="J361" s="16"/>
     </row>
-    <row r="362" spans="1:10" ht="39" customHeight="1">
+    <row r="362" spans="1:10" ht="63" customHeight="1">
       <c r="A362" s="17"/>
       <c r="B362" s="14"/>
       <c r="C362" s="17"/>
@@ -15985,7 +16037,7 @@
       <c r="I362" s="17"/>
       <c r="J362" s="16"/>
     </row>
-    <row r="363" spans="1:10" ht="39" customHeight="1">
+    <row r="363" spans="1:10" ht="63" customHeight="1">
       <c r="A363" s="17"/>
       <c r="B363" s="14"/>
       <c r="C363" s="17"/>
@@ -15997,7 +16049,7 @@
       <c r="I363" s="17"/>
       <c r="J363" s="16"/>
     </row>
-    <row r="364" spans="1:10" ht="39" customHeight="1">
+    <row r="364" spans="1:10" ht="63" customHeight="1">
       <c r="A364" s="17"/>
       <c r="B364" s="14"/>
       <c r="C364" s="17"/>
@@ -16009,7 +16061,7 @@
       <c r="I364" s="17"/>
       <c r="J364" s="16"/>
     </row>
-    <row r="365" spans="1:10" ht="39" customHeight="1">
+    <row r="365" spans="1:10" ht="63" customHeight="1">
       <c r="A365" s="17"/>
       <c r="B365" s="14"/>
       <c r="C365" s="17"/>
@@ -16021,7 +16073,7 @@
       <c r="I365" s="17"/>
       <c r="J365" s="16"/>
     </row>
-    <row r="366" spans="1:10" ht="39" customHeight="1">
+    <row r="366" spans="1:10" ht="63" customHeight="1">
       <c r="A366" s="17"/>
       <c r="B366" s="14"/>
       <c r="C366" s="17"/>
@@ -16033,7 +16085,7 @@
       <c r="I366" s="17"/>
       <c r="J366" s="16"/>
     </row>
-    <row r="367" spans="1:10" ht="39" customHeight="1">
+    <row r="367" spans="1:10" ht="63" customHeight="1">
       <c r="A367" s="17"/>
       <c r="B367" s="14"/>
       <c r="C367" s="17"/>
@@ -16045,7 +16097,7 @@
       <c r="I367" s="17"/>
       <c r="J367" s="16"/>
     </row>
-    <row r="368" spans="1:10" ht="39" customHeight="1">
+    <row r="368" spans="1:10" ht="63" customHeight="1">
       <c r="A368" s="17"/>
       <c r="B368" s="14"/>
       <c r="C368" s="17"/>
@@ -16057,7 +16109,7 @@
       <c r="I368" s="17"/>
       <c r="J368" s="16"/>
     </row>
-    <row r="369" spans="1:10" ht="39" customHeight="1">
+    <row r="369" spans="1:10" ht="63" customHeight="1">
       <c r="A369" s="17"/>
       <c r="B369" s="14"/>
       <c r="C369" s="17"/>
@@ -16069,7 +16121,7 @@
       <c r="I369" s="17"/>
       <c r="J369" s="16"/>
     </row>
-    <row r="370" spans="1:10" ht="39" customHeight="1">
+    <row r="370" spans="1:10" ht="63" customHeight="1">
       <c r="A370" s="17"/>
       <c r="B370" s="14"/>
       <c r="C370" s="17"/>
@@ -16081,7 +16133,7 @@
       <c r="I370" s="17"/>
       <c r="J370" s="16"/>
     </row>
-    <row r="371" spans="1:10" ht="39" customHeight="1">
+    <row r="371" spans="1:10" ht="63" customHeight="1">
       <c r="A371" s="17"/>
       <c r="B371" s="14"/>
       <c r="C371" s="17"/>
@@ -16093,7 +16145,7 @@
       <c r="I371" s="17"/>
       <c r="J371" s="16"/>
     </row>
-    <row r="372" spans="1:10" ht="39" customHeight="1">
+    <row r="372" spans="1:10" ht="63" customHeight="1">
       <c r="A372" s="17"/>
       <c r="B372" s="14"/>
       <c r="C372" s="17"/>
@@ -16105,7 +16157,7 @@
       <c r="I372" s="17"/>
       <c r="J372" s="16"/>
     </row>
-    <row r="373" spans="1:10" ht="39" customHeight="1">
+    <row r="373" spans="1:10" ht="63" customHeight="1">
       <c r="A373" s="17"/>
       <c r="B373" s="14"/>
       <c r="C373" s="17"/>
@@ -16117,7 +16169,7 @@
       <c r="I373" s="17"/>
       <c r="J373" s="16"/>
     </row>
-    <row r="374" spans="1:10" ht="39" customHeight="1">
+    <row r="374" spans="1:10" ht="63" customHeight="1">
       <c r="A374" s="17"/>
       <c r="B374" s="14"/>
       <c r="C374" s="17"/>
@@ -16129,7 +16181,7 @@
       <c r="I374" s="17"/>
       <c r="J374" s="16"/>
     </row>
-    <row r="375" spans="1:10" ht="39" customHeight="1">
+    <row r="375" spans="1:10" ht="63" customHeight="1">
       <c r="A375" s="17"/>
       <c r="B375" s="14"/>
       <c r="C375" s="17"/>
@@ -16141,7 +16193,7 @@
       <c r="I375" s="17"/>
       <c r="J375" s="16"/>
     </row>
-    <row r="376" spans="1:10" ht="39" customHeight="1">
+    <row r="376" spans="1:10" ht="63" customHeight="1">
       <c r="A376" s="17"/>
       <c r="B376" s="14"/>
       <c r="C376" s="17"/>
@@ -16153,7 +16205,7 @@
       <c r="I376" s="17"/>
       <c r="J376" s="16"/>
     </row>
-    <row r="377" spans="1:10" ht="39" customHeight="1">
+    <row r="377" spans="1:10" ht="63" customHeight="1">
       <c r="A377" s="17"/>
       <c r="B377" s="14"/>
       <c r="C377" s="17"/>
@@ -16165,7 +16217,7 @@
       <c r="I377" s="17"/>
       <c r="J377" s="16"/>
     </row>
-    <row r="378" spans="1:10" ht="39" customHeight="1">
+    <row r="378" spans="1:10" ht="63" customHeight="1">
       <c r="A378" s="17"/>
       <c r="B378" s="14"/>
       <c r="C378" s="17"/>
@@ -16177,7 +16229,7 @@
       <c r="I378" s="17"/>
       <c r="J378" s="16"/>
     </row>
-    <row r="379" spans="1:10" ht="39" customHeight="1">
+    <row r="379" spans="1:10" ht="63" customHeight="1">
       <c r="A379" s="17"/>
       <c r="B379" s="14"/>
       <c r="C379" s="17"/>
@@ -16189,7 +16241,7 @@
       <c r="I379" s="17"/>
       <c r="J379" s="16"/>
     </row>
-    <row r="380" spans="1:10" ht="39" customHeight="1">
+    <row r="380" spans="1:10" ht="63" customHeight="1">
       <c r="A380" s="17"/>
       <c r="B380" s="14"/>
       <c r="C380" s="17"/>
@@ -16201,7 +16253,7 @@
       <c r="I380" s="17"/>
       <c r="J380" s="16"/>
     </row>
-    <row r="381" spans="1:10" ht="39" customHeight="1">
+    <row r="381" spans="1:10" ht="63" customHeight="1">
       <c r="A381" s="17"/>
       <c r="B381" s="14"/>
       <c r="C381" s="17"/>
@@ -16213,7 +16265,7 @@
       <c r="I381" s="17"/>
       <c r="J381" s="16"/>
     </row>
-    <row r="382" spans="1:10" ht="39" customHeight="1">
+    <row r="382" spans="1:10" ht="63" customHeight="1">
       <c r="A382" s="17"/>
       <c r="B382" s="14"/>
       <c r="C382" s="17"/>
@@ -16225,7 +16277,7 @@
       <c r="I382" s="17"/>
       <c r="J382" s="16"/>
     </row>
-    <row r="383" spans="1:10" ht="39" customHeight="1">
+    <row r="383" spans="1:10" ht="63" customHeight="1">
       <c r="A383" s="17"/>
       <c r="B383" s="14"/>
       <c r="C383" s="17"/>
@@ -16237,7 +16289,7 @@
       <c r="I383" s="17"/>
       <c r="J383" s="16"/>
     </row>
-    <row r="384" spans="1:10" ht="39" customHeight="1">
+    <row r="384" spans="1:10" ht="63" customHeight="1">
       <c r="A384" s="17"/>
       <c r="B384" s="14"/>
       <c r="C384" s="17"/>
@@ -16249,7 +16301,7 @@
       <c r="I384" s="17"/>
       <c r="J384" s="16"/>
     </row>
-    <row r="385" spans="1:10" ht="39" customHeight="1">
+    <row r="385" spans="1:10" ht="63" customHeight="1">
       <c r="A385" s="17"/>
       <c r="B385" s="14"/>
       <c r="C385" s="17"/>
@@ -16261,7 +16313,7 @@
       <c r="I385" s="17"/>
       <c r="J385" s="16"/>
     </row>
-    <row r="386" spans="1:10" ht="39" customHeight="1">
+    <row r="386" spans="1:10" ht="63" customHeight="1">
       <c r="A386" s="17"/>
       <c r="B386" s="14"/>
       <c r="C386" s="17"/>
@@ -16273,7 +16325,7 @@
       <c r="I386" s="17"/>
       <c r="J386" s="16"/>
     </row>
-    <row r="387" spans="1:10" ht="39" customHeight="1">
+    <row r="387" spans="1:10" ht="63" customHeight="1">
       <c r="A387" s="17"/>
       <c r="B387" s="14"/>
       <c r="C387" s="17"/>
@@ -16285,7 +16337,7 @@
       <c r="I387" s="17"/>
       <c r="J387" s="16"/>
     </row>
-    <row r="388" spans="1:10" ht="39" customHeight="1">
+    <row r="388" spans="1:10" ht="63" customHeight="1">
       <c r="A388" s="17"/>
       <c r="B388" s="14"/>
       <c r="C388" s="17"/>
@@ -16297,7 +16349,7 @@
       <c r="I388" s="17"/>
       <c r="J388" s="16"/>
     </row>
-    <row r="389" spans="1:10" ht="39" customHeight="1">
+    <row r="389" spans="1:10" ht="63" customHeight="1">
       <c r="A389" s="17"/>
       <c r="B389" s="14"/>
       <c r="C389" s="17"/>
@@ -16501,23 +16553,23 @@
     </row>
     <row r="7" spans="1:9" ht="144" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B7" s="30">
         <v>45051.09375</v>
       </c>
       <c r="C7" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>395</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>396</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="46" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="53"/>
@@ -18001,7 +18053,7 @@
     </row>
     <row r="13" spans="1:8" ht="50" customHeight="1">
       <c r="A13" s="43" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B13" s="49">
         <v>45039.791666666664</v>
@@ -18013,7 +18065,7 @@
         <v>203</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F13" s="61" t="s">
         <v>247</v>
@@ -18121,7 +18173,7 @@
     </row>
     <row r="18" spans="1:8" ht="50" customHeight="1">
       <c r="A18" s="43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B18" s="49">
         <v>45045.708333333336</v>
@@ -18133,7 +18185,7 @@
         <v>191</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F18" s="61" t="s">
         <v>247</v>
@@ -18145,7 +18197,7 @@
     </row>
     <row r="19" spans="1:8" ht="50" customHeight="1">
       <c r="A19" s="43" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B19" s="49">
         <v>45045.875</v>
@@ -18193,7 +18245,7 @@
     </row>
     <row r="21" spans="1:8" ht="50" customHeight="1">
       <c r="A21" s="43" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B21" s="49">
         <v>45045.875</v>
@@ -18217,7 +18269,7 @@
     </row>
     <row r="22" spans="1:8" ht="50" customHeight="1">
       <c r="A22" s="43" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B22" s="49">
         <v>45045.875</v>
@@ -18241,7 +18293,7 @@
     </row>
     <row r="23" spans="1:8" ht="74" customHeight="1">
       <c r="A23" s="43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B23" s="49">
         <v>45045.916666666664</v>
@@ -18265,7 +18317,7 @@
     </row>
     <row r="24" spans="1:8" ht="50" customHeight="1">
       <c r="A24" s="43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B24" s="49">
         <v>45045.916666666664</v>
@@ -18277,7 +18329,7 @@
         <v>319</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F24" s="61" t="s">
         <v>247</v>
@@ -18313,7 +18365,7 @@
     </row>
     <row r="26" spans="1:8" ht="50" customHeight="1">
       <c r="A26" s="43" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B26" s="49">
         <v>45046.84375</v>
@@ -18337,16 +18389,16 @@
     </row>
     <row r="27" spans="1:8" ht="77" customHeight="1">
       <c r="A27" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B27" s="49">
         <v>45047.958333333336</v>
       </c>
       <c r="C27" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="D27" s="59" t="s">
         <v>358</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>359</v>
       </c>
       <c r="E27" s="46" t="s">
         <v>146</v>
@@ -18355,13 +18407,13 @@
         <v>247</v>
       </c>
       <c r="G27" s="48" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" ht="50" customHeight="1">
       <c r="A28" s="69" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B28" s="49">
         <v>45049.979166666664</v>
@@ -18370,7 +18422,7 @@
         <v>304</v>
       </c>
       <c r="D28" s="59" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E28" s="46" t="s">
         <v>140</v>
@@ -18379,22 +18431,22 @@
         <v>248</v>
       </c>
       <c r="G28" s="48" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H28" s="26"/>
     </row>
     <row r="29" spans="1:8" ht="50" customHeight="1">
       <c r="A29" s="69" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B29" s="49">
         <v>45050</v>
       </c>
       <c r="C29" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="D29" s="59" t="s">
         <v>392</v>
-      </c>
-      <c r="D29" s="59" t="s">
-        <v>393</v>
       </c>
       <c r="E29" s="46" t="s">
         <v>13</v>
@@ -18409,36 +18461,36 @@
     </row>
     <row r="30" spans="1:8" ht="50" customHeight="1">
       <c r="A30" s="43" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B30" s="49">
         <v>45051.770833333336</v>
       </c>
       <c r="C30" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="D30" s="59" t="s">
         <v>398</v>
-      </c>
-      <c r="D30" s="59" t="s">
-        <v>399</v>
       </c>
       <c r="E30" s="46"/>
       <c r="F30" s="61"/>
       <c r="G30" s="48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:8" ht="50" customHeight="1">
       <c r="A31" s="43" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B31" s="49">
         <v>45055.041666666664</v>
       </c>
       <c r="C31" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="D31" s="45" t="s">
         <v>463</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>464</v>
       </c>
       <c r="E31" s="46" t="s">
         <v>13</v>
@@ -18447,27 +18499,27 @@
         <v>248</v>
       </c>
       <c r="G31" s="48" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H31" s="26"/>
     </row>
     <row r="32" spans="1:8" ht="50" customHeight="1">
       <c r="A32" s="43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B32" s="49">
         <v>45057.34375</v>
       </c>
       <c r="C32" s="59" t="s">
+        <v>501</v>
+      </c>
+      <c r="D32" s="45" t="s">
         <v>502</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>503</v>
       </c>
       <c r="E32" s="46"/>
       <c r="F32" s="46"/>
       <c r="G32" s="48" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H32" s="26"/>
     </row>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8142B1C3-839C-3442-A5BF-7675E502CC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BC636E-06E2-C849-BE6E-D4F0B8A21F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="530">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9068,7 +9068,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
@@ -9077,7 +9077,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
         <charset val="134"/>
@@ -9087,7 +9087,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
@@ -9096,7 +9096,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
         <charset val="134"/>
@@ -9106,7 +9106,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
@@ -9115,7 +9115,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
         <charset val="134"/>
@@ -9125,7 +9125,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
@@ -9134,7 +9134,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
         <charset val="134"/>
@@ -9144,7 +9144,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
@@ -9153,7 +9153,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
         <charset val="134"/>
@@ -9163,7 +9163,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
@@ -9173,7 +9173,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
         <charset val="134"/>
@@ -9183,7 +9183,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
@@ -9192,7 +9192,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
         <charset val="134"/>
@@ -9202,7 +9202,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
@@ -9211,7 +9211,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
         <charset val="134"/>
@@ -9221,7 +9221,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
@@ -9230,7 +9230,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
         <charset val="134"/>
@@ -9240,7 +9240,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
@@ -9249,7 +9249,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
         <charset val="134"/>
@@ -9259,7 +9259,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
@@ -9268,7 +9268,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
         <charset val="134"/>
@@ -9278,7 +9278,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
@@ -9287,13 +9287,17 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="9" tint="0.59999389629810485"/>
+        <color rgb="FFFFFFFF"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">              比分概率前三分别是：[2:1](4次)     [3:1](3次)     [1:0](2次)    </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢一半</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9516,7 +9520,7 @@
     </font>
     <font>
       <sz val="18"/>
-      <color theme="9" tint="0.59999389629810485"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -9524,20 +9528,20 @@
     </font>
     <font>
       <sz val="18"/>
-      <color theme="9" tint="0.59999389629810485"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="9" tint="0.59999389629810485"/>
+      <color rgb="FFFFFFFF"/>
       <name val="PingFang SC"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="9" tint="0.59999389629810485"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
@@ -9847,6 +9851,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFFF"/>
       <color rgb="FFF20C00"/>
       <color rgb="FFFC6D4C"/>
       <color rgb="FFFF0000"/>
@@ -10162,8 +10167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -12190,7 +12195,7 @@
       </c>
       <c r="I67" s="72"/>
       <c r="J67" s="74" t="s">
-        <v>71</v>
+        <v>383</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="63" customHeight="1">
@@ -12368,7 +12373,7 @@
       </c>
       <c r="I73" s="72"/>
       <c r="J73" s="74" t="s">
-        <v>178</v>
+        <v>529</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="63" customHeight="1">
@@ -12638,7 +12643,7 @@
       </c>
       <c r="I82" s="17"/>
       <c r="J82" s="16" t="s">
-        <v>71</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="63" customHeight="1">

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BC636E-06E2-C849-BE6E-D4F0B8A21F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A76C36-A6DD-C848-88A5-9DADAB23C859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="533">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9298,6 +9298,17 @@
   </si>
   <si>
     <t>赢一半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23澳维超第13轮</t>
+  </si>
+  <si>
+    <t>墨尔本骑士</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=13,输=1,走=0,赢盘概率最大,为92.86%
+比分概率前三分别是：[2:1](3次)     [3:1](2次)     [1:0](1次)     </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10167,8 +10178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -12707,14 +12718,28 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="63" customHeight="1">
-      <c r="A85" s="17"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="16"/>
+      <c r="A85" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="B85" s="14">
+        <v>45058.729166666664</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>230</v>
+      </c>
       <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="28"/>
+      <c r="G85" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H85" s="28" t="s">
+        <v>532</v>
+      </c>
       <c r="I85" s="17"/>
       <c r="J85" s="16"/>
     </row>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A76C36-A6DD-C848-88A5-9DADAB23C859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABA2364-7333-C140-B87B-E320E39554EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
   <sheets>
     <sheet name="让球匹配" sheetId="1" r:id="rId1"/>
     <sheet name="大小球匹配" sheetId="3" r:id="rId2"/>
     <sheet name="连续升盘匹配" sheetId="2" r:id="rId3"/>
+    <sheet name="盘口便宜" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="673">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9311,6 +9312,550 @@
 比分概率前三分别是：[2:1](3次)     [3:1](2次)     [1:0](1次)     </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>23挪甲第7轮</t>
+  </si>
+  <si>
+    <t>桑内斯</t>
+  </si>
+  <si>
+    <t>赢盘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=7,输=2,走=0,赢盘概率最大,为77.78%
+比分概率前三分别是：[1:1](2次)     [0:0](2次)     [3:2](1次)   </t>
+  </si>
+  <si>
+    <t>22/23克罗甲第34轮</t>
+  </si>
+  <si>
+    <t>比路朴</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>输盘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=6,输=13,走=7,输盘概率最大,为50.00%
+比分概率前三分别是：[1:1](4次)     [1:2](3次)     [0:1](3次)   </t>
+  </si>
+  <si>
+    <t>22/23葡甲第32轮</t>
+  </si>
+  <si>
+    <t>泰罗芬斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=0,输=4,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[3:4](1次)     [2:5](1次)     [0:1](1次)     </t>
+  </si>
+  <si>
+    <t>22/23德东北第32轮</t>
+  </si>
+  <si>
+    <t>利希滕贝格</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=4,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[3:0](1次)     [2:0](1次)     [4:1](1次)     </t>
+  </si>
+  <si>
+    <t>22/23法丙第32轮</t>
+  </si>
+  <si>
+    <t>奥维涅</t>
+  </si>
+  <si>
+    <t>孔卡诺</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=0,输=3,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[0:4](2次)     [1:2](1次)    </t>
+  </si>
+  <si>
+    <t>巴黎13区竞技</t>
+  </si>
+  <si>
+    <t>凡尔赛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=2,输=4,走=0,输盘概率最大,为66.67%
+亚盘本联赛盘口:赢=0,输=2,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[0:2](2次)     [2:2](1次)     [0:1](1次)     </t>
+  </si>
+  <si>
+    <t>圣旺红星</t>
+  </si>
+  <si>
+    <t>绍莱特</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=3,输=2,走=0,赢盘概率最大,为60.00%
+亚盘本联赛盘口:赢=2,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:0](2次)     [2:3](1次)     [2:1](1次)    </t>
+  </si>
+  <si>
+    <t>22/23罗甲第8轮</t>
+  </si>
+  <si>
+    <t>布加勒斯特快速</t>
+  </si>
+  <si>
+    <t>圣格奥尔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=11,输=20,走=0,输盘概率最大,为64.52%
+亚盘本联赛盘口:赢=1,输=3,走=0,输盘概率最大,为75.00%
+比分概率前三分别是：[0:1](4次)     [1:2](4次)     [1:1](4次)   </t>
+  </si>
+  <si>
+    <t>22/23荷甲第32轮</t>
+  </si>
+  <si>
+    <t>特温特</t>
+  </si>
+  <si>
+    <t>奈梅亨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=3,输=1,走=0,赢盘概率最大,为75.00%
+亚盘本联赛盘口:赢=1,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[2:1](1次)     [3:1](1次)     [6:0](1次)     </t>
+  </si>
+  <si>
+    <t>22/23荷乙第37轮</t>
+  </si>
+  <si>
+    <t>埃因霍温FC</t>
+  </si>
+  <si>
+    <t>海尔蒙特</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=2,输=7,走=1,输盘概率最大,为70.00%
+比分概率前三分别是：[1:1](3次)     [0:1](2次)     [2:0](1次)  </t>
+  </si>
+  <si>
+    <t>22/23意乙第37轮</t>
+  </si>
+  <si>
+    <t>卡利亚里</t>
+  </si>
+  <si>
+    <t>巴勒莫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=5,输=1,走=0,赢盘概率最大,为83.33%
+亚盘本联赛盘口:赢=1,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:0](2次)     [2:1](1次)     [3:0](1次)  </t>
+  </si>
+  <si>
+    <t>23中甲第5轮</t>
+  </si>
+  <si>
+    <t>江西庐山</t>
+  </si>
+  <si>
+    <t>延边龙鼎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=2,输=5,走=0,输盘概率最大,为71.43%
+比分概率前三分别是：[1:2](3次)     [4:0](1次)     [0:6](1次)     </t>
+  </si>
+  <si>
+    <t>上海嘉定汇龙</t>
+  </si>
+  <si>
+    <t>青岛西海岸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=5,输=10,走=0,输盘概率最大,为66.67%
+比分概率前三分别是：[1:1](3次)     [0:3](2次)     [1:2](2次)   </t>
+  </si>
+  <si>
+    <t>22/23西甲第34轮</t>
+  </si>
+  <si>
+    <t>皇家社会</t>
+  </si>
+  <si>
+    <t>赫罗纳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=13,输=7,走=0,赢盘概率最大,为65.00%
+比分概率前三分别是：[2:1](4次)     [1:2](4次)     [3:0](2次)  </t>
+  </si>
+  <si>
+    <t>威尼斯</t>
+  </si>
+  <si>
+    <t>佩鲁贾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=2,输=8,走=0,输盘概率最大,为80.00%
+比分概率前三分别是：[0:1](2次)     [0:0](2次)     [0:3](1次)  </t>
+  </si>
+  <si>
+    <t>斯普利特海杜克</t>
+  </si>
+  <si>
+    <t>奥斯积克</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=18,输=7,走=0,赢盘概率最大,为72.00%
+亚盘本联赛盘口:赢=1,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:0](8次)     [1:1](4次)     [3:0](2次)    </t>
+  </si>
+  <si>
+    <t>22/23西协甲第36轮</t>
+  </si>
+  <si>
+    <t>毕尔巴鄂B队</t>
+  </si>
+  <si>
+    <t>阿尔科亚诺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=5,输=2,走=0,赢盘概率最大,为71.43%
+亚盘本联赛盘口:赢=1,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[2:1](2次)     [3:0](1次)     [0:2](1次)   </t>
+  </si>
+  <si>
+    <t>23挪超第6轮</t>
+  </si>
+  <si>
+    <t>博德闪耀</t>
+  </si>
+  <si>
+    <t>罗森博格</t>
+  </si>
+  <si>
+    <t>-1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=11,输=6,走=0,赢盘概率最大,为64.71%
+比分概率前三分别是：[4:0](4次)     [2:1](4次)     [4:2](2次) </t>
+  </si>
+  <si>
+    <t>维京</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=4,输=9,走=0,输盘概率最大,为69.23%
+亚盘本联赛盘口:赢=0,输=1,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[0:1](5次)     [0:2](2次)     [0:0](1次)     </t>
+  </si>
+  <si>
+    <t>22/23波甲第32轮</t>
+  </si>
+  <si>
+    <t>克拉科维亚</t>
+  </si>
+  <si>
+    <t>卢宾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=2,输=6,走=3,输盘概率最大,为54.55%
+亚盘本联赛盘口:赢=0,输=1,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[1:1](4次)     [0:1](2次)     [0:0](1次)   </t>
+  </si>
+  <si>
+    <t>22/23西丙2第34轮</t>
+  </si>
+  <si>
+    <t>施斯达</t>
+  </si>
+  <si>
+    <t>衣扎拉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=2,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[3:1](1次)     [5:0](1次)  </t>
+  </si>
+  <si>
+    <t>23瑞典超第8轮</t>
+  </si>
+  <si>
+    <t>瓦尔贝里</t>
+  </si>
+  <si>
+    <t>北雪平</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=8,输=4,走=0,赢盘概率最大,为66.67%
+比分概率前三分别是：[0:0](4次)     [1:1](2次)     [0:1](2次)  </t>
+  </si>
+  <si>
+    <t>克卢日大学</t>
+  </si>
+  <si>
+    <t>辛迪泰哥维斯特</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=36,输=53,走=0,输盘概率最大,为59.55%
+比分概率前三分别是：[1:1](13次)     [0:1](9次)     [0:0](9次)  </t>
+  </si>
+  <si>
+    <t>比利亚雷亚尔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=10,输=5,走=0,赢盘概率最大,为66.67%
+亚盘本联赛盘口:赢=2,输=1,走=0,赢盘概率最大,为66.67%
+比分概率前三分别是：[1:0](5次)     [3:2](2次)     [2:3](1次) </t>
+  </si>
+  <si>
+    <t>22/23波乙第31轮</t>
+  </si>
+  <si>
+    <t>泰弛</t>
+  </si>
+  <si>
+    <t>查洛里</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=25,输=22,走=0,赢盘概率最大,为53.19%
+亚盘本联赛盘口:赢=3,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:1](7次)     [3:0](6次)     [2:1](6次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23法甲第35轮</t>
+  </si>
+  <si>
+    <t>雷恩</t>
+  </si>
+  <si>
+    <t>特鲁瓦</t>
+  </si>
+  <si>
+    <t>22/23意甲第35轮</t>
+  </si>
+  <si>
+    <t>乌迪内斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=16,输=22,走=0,输盘概率最大,为57.89%
+亚盘本联赛盘口:赢=3,输=4,走=0,输盘概率最大,为57.14%
+比分概率前三分别是：[1:1](10次)     [2:0](7次)     [1:2](4次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23捷甲第2轮</t>
+  </si>
+  <si>
+    <t>特普利斯</t>
+  </si>
+  <si>
+    <t>兹林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=41,输=72,走=2,输盘概率最大,为62.61%
+亚盘本联赛盘口:赢=0,输=2,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[1:1](18次)     [0:0](13次)     [0:1](12次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔诺</t>
+  </si>
+  <si>
+    <t>帕尔杜比斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=27,输=45,走=0,输盘概率最大,为62.50%
+亚盘本联赛盘口:赢=0,输=1,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[1:1](12次)     [1:0](9次)     [0:0](9次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23阿乙第14轮</t>
+  </si>
+  <si>
+    <t>布朗安德奎</t>
+  </si>
+  <si>
+    <t>米特雷沙尔塔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=16,输=27,走=0,输盘概率最大,为62.79%
+亚盘本联赛盘口:赢=0,输=2,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[1:1](6次)     [0:0](5次)     [1:2](5次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波尔图B队</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=5,输=11,走=0,输盘概率最大,为68.75%
+亚盘本联赛盘口:赢=0,输=1,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[2:3](2次)     [1:0](2次)     [0:2](2次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23黑山甲第34轮</t>
+  </si>
+  <si>
+    <t>耶汀斯特沃BP</t>
+  </si>
+  <si>
+    <t>波德戈里察未来</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=0,输=3,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[0:3](2次)     [0:2](1次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFK彼德罗瓦茨</t>
+  </si>
+  <si>
+    <t>摩拿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=4,输=1,走=0,赢盘概率最大,为80.00%
+比分概率前三分别是：[1:0](3次)     [3:0](1次)     [0:1](1次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>22/23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黑山甲第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮</t>
+    </r>
+  </si>
+  <si>
+    <t>尼卡斯克</t>
+  </si>
+  <si>
+    <t>鲁达</t>
+  </si>
+  <si>
+    <r>
+      <t>22/23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>波黑超第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮</t>
+    </r>
+  </si>
+  <si>
+    <t>普苏斯杰</t>
+  </si>
+  <si>
+    <t>布拉卡BL</t>
+  </si>
+  <si>
+    <t>升盘3个，初盘0.500, 即时盘-0.250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克拉约瓦大学</t>
+  </si>
+  <si>
+    <t>阿吉斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=10,输=7,走=0,赢盘概率最大,为58.82%
+亚盘本联赛盘口:赢=1,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:0](5次)     [2:0](2次)     [2:3](2次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛时间</t>
+  </si>
+  <si>
+    <t>主队</t>
+  </si>
+  <si>
+    <t>客队</t>
+  </si>
+  <si>
+    <t>让球</t>
+  </si>
+  <si>
+    <t>比分</t>
+  </si>
+  <si>
+    <t>预测数据</t>
+  </si>
+  <si>
+    <t>赛果</t>
+  </si>
+  <si>
+    <t>波尔沃林</t>
+  </si>
+  <si>
+    <t>比赛类别</t>
+  </si>
+  <si>
+    <t>22/23西丙1第34轮</t>
+  </si>
+  <si>
+    <t>主队排名16，客队排名1，两者分差44，客队盘口非常便宜！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科维良</t>
+  </si>
+  <si>
+    <t>主队排名5，客队排名18，两者分差17，主队盘口非常便宜！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -9319,7 +9864,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9556,6 +10101,14 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -9625,7 +10178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9853,6 +10406,12 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10178,8 +10737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -12744,398 +13303,860 @@
       <c r="J85" s="16"/>
     </row>
     <row r="86" spans="1:10" ht="63" customHeight="1">
-      <c r="A86" s="17"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="16"/>
+      <c r="A86" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="B86" s="14">
+        <v>45058.958333333336</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>287</v>
+      </c>
       <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="28"/>
+      <c r="G86" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="H86" s="28" t="s">
+        <v>536</v>
+      </c>
       <c r="I86" s="17"/>
       <c r="J86" s="16"/>
     </row>
     <row r="87" spans="1:10" ht="63" customHeight="1">
-      <c r="A87" s="17"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="16"/>
+      <c r="A87" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="B87" s="14">
+        <v>45059</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>539</v>
+      </c>
       <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="28"/>
+      <c r="G87" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="H87" s="28" t="s">
+        <v>541</v>
+      </c>
       <c r="I87" s="17"/>
       <c r="J87" s="16"/>
     </row>
     <row r="88" spans="1:10" ht="63" customHeight="1">
-      <c r="A88" s="17"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="16"/>
+      <c r="A88" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="B88" s="14">
+        <v>45059.041666666664</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>287</v>
+      </c>
       <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="28"/>
+      <c r="G88" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="H88" s="28" t="s">
+        <v>544</v>
+      </c>
       <c r="I88" s="17"/>
       <c r="J88" s="16"/>
     </row>
     <row r="89" spans="1:10" ht="63" customHeight="1">
-      <c r="A89" s="17"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="16"/>
+      <c r="A89" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="B89" s="14">
+        <v>45059.041666666664</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>242</v>
+      </c>
       <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="28"/>
+      <c r="G89" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="H89" s="28" t="s">
+        <v>547</v>
+      </c>
       <c r="I89" s="17"/>
       <c r="J89" s="16"/>
     </row>
     <row r="90" spans="1:10" ht="63" customHeight="1">
-      <c r="A90" s="17"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="16"/>
+      <c r="A90" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="B90" s="14">
+        <v>45059.0625</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>551</v>
+      </c>
       <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="28"/>
+      <c r="G90" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="H90" s="28" t="s">
+        <v>552</v>
+      </c>
       <c r="I90" s="17"/>
       <c r="J90" s="16"/>
     </row>
     <row r="91" spans="1:10" ht="63" customHeight="1">
-      <c r="A91" s="17"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="16"/>
+      <c r="A91" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="B91" s="14">
+        <v>45059.0625</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>287</v>
+      </c>
       <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="28"/>
+      <c r="G91" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="H91" s="28" t="s">
+        <v>555</v>
+      </c>
       <c r="I91" s="17"/>
       <c r="J91" s="16"/>
     </row>
     <row r="92" spans="1:10" ht="63" customHeight="1">
-      <c r="A92" s="17"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="16"/>
+      <c r="A92" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="B92" s="14">
+        <v>45059.0625</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>230</v>
+      </c>
       <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="28"/>
+      <c r="G92" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="H92" s="28" t="s">
+        <v>558</v>
+      </c>
       <c r="I92" s="17"/>
       <c r="J92" s="16"/>
     </row>
     <row r="93" spans="1:10" ht="63" customHeight="1">
-      <c r="A93" s="17"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="16"/>
+      <c r="A93" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="B93" s="14">
+        <v>45059.0625</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>253</v>
+      </c>
       <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="28"/>
+      <c r="G93" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="H93" s="28" t="s">
+        <v>562</v>
+      </c>
       <c r="I93" s="17"/>
       <c r="J93" s="16"/>
     </row>
     <row r="94" spans="1:10" ht="63" customHeight="1">
-      <c r="A94" s="17"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="16"/>
+      <c r="A94" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="B94" s="14">
+        <v>45059.083333333336</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>327</v>
+      </c>
       <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="28"/>
+      <c r="G94" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="H94" s="28" t="s">
+        <v>566</v>
+      </c>
       <c r="I94" s="17"/>
       <c r="J94" s="16"/>
     </row>
     <row r="95" spans="1:10" ht="63" customHeight="1">
-      <c r="A95" s="17"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="16"/>
+      <c r="A95" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="B95" s="14">
+        <v>45059.083333333336</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>242</v>
+      </c>
       <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="28"/>
+      <c r="G95" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="H95" s="28" t="s">
+        <v>570</v>
+      </c>
       <c r="I95" s="17"/>
       <c r="J95" s="16"/>
     </row>
     <row r="96" spans="1:10" ht="63" customHeight="1">
-      <c r="A96" s="17"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="16"/>
+      <c r="A96" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="B96" s="14">
+        <v>45059.833333333336</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>230</v>
+      </c>
       <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="28"/>
+      <c r="G96" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="H96" s="28" t="s">
+        <v>574</v>
+      </c>
       <c r="I96" s="17"/>
       <c r="J96" s="16"/>
     </row>
     <row r="97" spans="1:10" ht="63" customHeight="1">
-      <c r="A97" s="17"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="16"/>
+      <c r="A97" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="B97" s="14">
+        <v>45059.8125</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>577</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>292</v>
+      </c>
       <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="28"/>
+      <c r="G97" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="H97" s="28" t="s">
+        <v>578</v>
+      </c>
       <c r="I97" s="17"/>
       <c r="J97" s="16"/>
     </row>
     <row r="98" spans="1:10" ht="63" customHeight="1">
-      <c r="A98" s="17"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="16"/>
+      <c r="A98" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="B98" s="14">
+        <v>45059.8125</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>99</v>
+      </c>
       <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="28"/>
+      <c r="G98" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="H98" s="28" t="s">
+        <v>581</v>
+      </c>
       <c r="I98" s="17"/>
       <c r="J98" s="16"/>
     </row>
     <row r="99" spans="1:10" ht="63" customHeight="1">
-      <c r="A99" s="17"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="16"/>
+      <c r="A99" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="B99" s="14">
+        <v>45059.833333333336</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>230</v>
+      </c>
       <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="28"/>
+      <c r="G99" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="H99" s="28" t="s">
+        <v>585</v>
+      </c>
       <c r="I99" s="17"/>
       <c r="J99" s="16"/>
     </row>
     <row r="100" spans="1:10" ht="63" customHeight="1">
-      <c r="A100" s="17"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="16"/>
+      <c r="A100" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="B100" s="14">
+        <v>45059.833333333336</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>257</v>
+      </c>
       <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="28"/>
+      <c r="G100" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="H100" s="28" t="s">
+        <v>588</v>
+      </c>
       <c r="I100" s="17"/>
       <c r="J100" s="16"/>
     </row>
     <row r="101" spans="1:10" ht="63" customHeight="1">
-      <c r="A101" s="17"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="16"/>
+      <c r="A101" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="B101" s="14">
+        <v>45059.958333333336</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>230</v>
+      </c>
       <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="28"/>
+      <c r="G101" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="H101" s="28" t="s">
+        <v>591</v>
+      </c>
       <c r="I101" s="17"/>
       <c r="J101" s="16"/>
     </row>
     <row r="102" spans="1:10" ht="63" customHeight="1">
-      <c r="A102" s="17"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="16"/>
+      <c r="A102" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="B102" s="14">
+        <v>45059.958333333336</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>292</v>
+      </c>
       <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="28"/>
+      <c r="G102" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="H102" s="28" t="s">
+        <v>595</v>
+      </c>
       <c r="I102" s="17"/>
       <c r="J102" s="16"/>
     </row>
     <row r="103" spans="1:10" ht="63" customHeight="1">
-      <c r="A103" s="17"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="16"/>
+      <c r="A103" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="B103" s="14">
+        <v>45059.958333333336</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>599</v>
+      </c>
       <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="28"/>
+      <c r="G103" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="H103" s="28" t="s">
+        <v>600</v>
+      </c>
       <c r="I103" s="17"/>
       <c r="J103" s="16"/>
     </row>
     <row r="104" spans="1:10" ht="63" customHeight="1">
-      <c r="A104" s="17"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="16"/>
+      <c r="A104" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="B104" s="14">
+        <v>45059.958333333336</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>287</v>
+      </c>
       <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="28"/>
+      <c r="G104" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="H104" s="28" t="s">
+        <v>602</v>
+      </c>
       <c r="I104" s="17"/>
       <c r="J104" s="16"/>
     </row>
     <row r="105" spans="1:10" ht="63" customHeight="1">
-      <c r="A105" s="17"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="16"/>
+      <c r="A105" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="B105" s="14">
+        <v>45059.979166666664</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>253</v>
+      </c>
       <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="28"/>
+      <c r="G105" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="H105" s="28" t="s">
+        <v>606</v>
+      </c>
       <c r="I105" s="17"/>
       <c r="J105" s="16"/>
     </row>
     <row r="106" spans="1:10" ht="63" customHeight="1">
-      <c r="A106" s="17"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="16"/>
+      <c r="A106" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="B106" s="14">
+        <v>45059.979166666664</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>230</v>
+      </c>
       <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="28"/>
+      <c r="G106" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="H106" s="28" t="s">
+        <v>610</v>
+      </c>
       <c r="I106" s="17"/>
       <c r="J106" s="16"/>
     </row>
     <row r="107" spans="1:10" ht="63" customHeight="1">
-      <c r="A107" s="17"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="16"/>
+      <c r="A107" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="B107" s="14">
+        <v>45059.979166666664</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>292</v>
+      </c>
       <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="28"/>
+      <c r="G107" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="H107" s="28" t="s">
+        <v>614</v>
+      </c>
       <c r="I107" s="17"/>
       <c r="J107" s="16"/>
     </row>
     <row r="108" spans="1:10" ht="63" customHeight="1">
-      <c r="A108" s="17"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="16"/>
+      <c r="A108" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="B108" s="14">
+        <v>45060</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>257</v>
+      </c>
       <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="28"/>
+      <c r="G108" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="H108" s="28" t="s">
+        <v>617</v>
+      </c>
       <c r="I108" s="17"/>
       <c r="J108" s="16"/>
     </row>
     <row r="109" spans="1:10" ht="63" customHeight="1">
-      <c r="A109" s="17"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="16"/>
+      <c r="A109" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="B109" s="14">
+        <v>45060.020833333336</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>253</v>
+      </c>
       <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="28"/>
+      <c r="G109" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="H109" s="28" t="s">
+        <v>619</v>
+      </c>
       <c r="I109" s="17"/>
       <c r="J109" s="16"/>
     </row>
     <row r="110" spans="1:10" ht="63" customHeight="1">
-      <c r="A110" s="17"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="16"/>
+      <c r="A110" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="B110" s="14">
+        <v>45060.875</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>121</v>
+      </c>
       <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="28"/>
+      <c r="G110" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="H110" s="28" t="s">
+        <v>623</v>
+      </c>
       <c r="I110" s="17"/>
       <c r="J110" s="16"/>
     </row>
     <row r="111" spans="1:10" ht="63" customHeight="1">
-      <c r="A111" s="17"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="16"/>
+      <c r="A111" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="B111" s="14">
+        <v>45060.875</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>121</v>
+      </c>
       <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="28"/>
+      <c r="G111" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="H111" s="28" t="s">
+        <v>629</v>
+      </c>
       <c r="I111" s="17"/>
       <c r="J111" s="16"/>
     </row>
     <row r="112" spans="1:10" ht="63" customHeight="1">
-      <c r="A112" s="17"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="16"/>
+      <c r="A112" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="B112" s="14">
+        <v>45060.875</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>257</v>
+      </c>
       <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="28"/>
+      <c r="G112" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="H112" s="28" t="s">
+        <v>633</v>
+      </c>
       <c r="I112" s="17"/>
       <c r="J112" s="16"/>
     </row>
     <row r="113" spans="1:10" ht="63" customHeight="1">
-      <c r="A113" s="17"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="16"/>
+      <c r="A113" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="B113" s="14">
+        <v>45060.875</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>257</v>
+      </c>
       <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="28"/>
+      <c r="G113" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="H113" s="28" t="s">
+        <v>636</v>
+      </c>
       <c r="I113" s="17"/>
       <c r="J113" s="16"/>
     </row>
     <row r="114" spans="1:10" ht="63" customHeight="1">
-      <c r="A114" s="17"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="16"/>
+      <c r="A114" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="B114" s="14">
+        <v>45060.916666666664</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>253</v>
+      </c>
       <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="28"/>
+      <c r="G114" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="H114" s="28" t="s">
+        <v>640</v>
+      </c>
       <c r="I114" s="17"/>
       <c r="J114" s="16"/>
     </row>
     <row r="115" spans="1:10" ht="63" customHeight="1">
-      <c r="A115" s="17"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="16"/>
+      <c r="A115" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="B115" s="14">
+        <v>45060.9375</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>253</v>
+      </c>
       <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="28"/>
+      <c r="G115" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H115" s="28" t="s">
+        <v>642</v>
+      </c>
       <c r="I115" s="17"/>
       <c r="J115" s="16"/>
     </row>
     <row r="116" spans="1:10" ht="63" customHeight="1">
-      <c r="A116" s="17"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="16"/>
+      <c r="A116" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="B116" s="14">
+        <v>45060.958333333336</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>287</v>
+      </c>
       <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="28"/>
+      <c r="G116" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H116" s="29" t="s">
+        <v>646</v>
+      </c>
       <c r="I116" s="17"/>
       <c r="J116" s="16"/>
     </row>
     <row r="117" spans="1:10" ht="63" customHeight="1">
-      <c r="A117" s="17"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="16"/>
+      <c r="A117" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="B117" s="14">
+        <v>45060.958333333336</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>253</v>
+      </c>
       <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="28"/>
+      <c r="G117" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="H117" s="28" t="s">
+        <v>649</v>
+      </c>
       <c r="I117" s="17"/>
       <c r="J117" s="16"/>
     </row>
     <row r="118" spans="1:10" ht="63" customHeight="1">
-      <c r="A118" s="17"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="16"/>
+      <c r="A118" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="B118" s="14">
+        <v>45060.96875</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>257</v>
+      </c>
       <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="28"/>
+      <c r="G118" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="H118" s="28" t="s">
+        <v>659</v>
+      </c>
       <c r="I118" s="17"/>
       <c r="J118" s="16"/>
     </row>
@@ -17780,8 +18801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5BD41-F360-D64B-BA12-0F85656DC41E}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.6640625" defaultRowHeight="50" customHeight="1"/>
@@ -18554,33 +19575,63 @@
       <c r="H32" s="26"/>
     </row>
     <row r="33" spans="1:8" ht="50" customHeight="1">
-      <c r="A33" s="43"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
+      <c r="A33" s="76" t="s">
+        <v>624</v>
+      </c>
+      <c r="B33" s="49">
+        <v>45060.875</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>625</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>626</v>
+      </c>
       <c r="E33" s="46"/>
       <c r="F33" s="46"/>
-      <c r="G33" s="48"/>
+      <c r="G33" s="48" t="s">
+        <v>504</v>
+      </c>
       <c r="H33" s="26"/>
     </row>
     <row r="34" spans="1:8" ht="50" customHeight="1">
-      <c r="A34" s="43"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
+      <c r="A34" s="43" t="s">
+        <v>650</v>
+      </c>
+      <c r="B34" s="49">
+        <v>45060.958333333336</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>651</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>652</v>
+      </c>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
-      <c r="G34" s="48"/>
+      <c r="G34" s="48" t="s">
+        <v>504</v>
+      </c>
       <c r="H34" s="26"/>
     </row>
     <row r="35" spans="1:8" ht="50" customHeight="1">
-      <c r="A35" s="43"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
+      <c r="A35" s="43" t="s">
+        <v>653</v>
+      </c>
+      <c r="B35" s="49">
+        <v>45060.958333333336</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>654</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>655</v>
+      </c>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
-      <c r="G35" s="48"/>
+      <c r="G35" s="48" t="s">
+        <v>656</v>
+      </c>
       <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8" ht="50" customHeight="1">
@@ -18858,4 +19909,1873 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1142161-0F82-AA49-8A76-42BEDD9DBD1A}">
+  <dimension ref="A1:H181"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.5" defaultRowHeight="66" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="66" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>668</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>660</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>661</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>662</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>663</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>664</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>665</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="66" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="B2" s="14">
+        <v>45059.958333333336</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="28" t="s">
+        <v>670</v>
+      </c>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="1:8" ht="66" customHeight="1">
+      <c r="A3" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="B3" s="14">
+        <v>45061.041666666664</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="28" t="s">
+        <v>672</v>
+      </c>
+      <c r="H3" s="53"/>
+    </row>
+    <row r="4" spans="1:8" ht="66" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="53"/>
+    </row>
+    <row r="5" spans="1:8" ht="66" customHeight="1">
+      <c r="A5" s="17"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="53"/>
+    </row>
+    <row r="6" spans="1:8" ht="66" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="53"/>
+    </row>
+    <row r="7" spans="1:8" ht="66" customHeight="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="53"/>
+    </row>
+    <row r="8" spans="1:8" ht="66" customHeight="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="53"/>
+    </row>
+    <row r="9" spans="1:8" ht="66" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="1:8" ht="66" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="53"/>
+    </row>
+    <row r="11" spans="1:8" ht="66" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="53"/>
+    </row>
+    <row r="12" spans="1:8" ht="66" customHeight="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="53"/>
+    </row>
+    <row r="13" spans="1:8" ht="66" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="53"/>
+    </row>
+    <row r="14" spans="1:8" ht="66" customHeight="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="53"/>
+    </row>
+    <row r="15" spans="1:8" ht="66" customHeight="1">
+      <c r="A15" s="17"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="53"/>
+    </row>
+    <row r="16" spans="1:8" ht="66" customHeight="1">
+      <c r="A16" s="17"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="53"/>
+    </row>
+    <row r="17" spans="1:8" ht="66" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="53"/>
+    </row>
+    <row r="18" spans="1:8" ht="66" customHeight="1">
+      <c r="A18" s="17"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="53"/>
+    </row>
+    <row r="19" spans="1:8" ht="66" customHeight="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="53"/>
+    </row>
+    <row r="20" spans="1:8" ht="66" customHeight="1">
+      <c r="A20" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="53"/>
+    </row>
+    <row r="21" spans="1:8" ht="66" customHeight="1">
+      <c r="A21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="53"/>
+    </row>
+    <row r="22" spans="1:8" ht="66" customHeight="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="53"/>
+    </row>
+    <row r="23" spans="1:8" ht="66" customHeight="1">
+      <c r="A23" s="17"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="53"/>
+    </row>
+    <row r="24" spans="1:8" ht="66" customHeight="1">
+      <c r="A24" s="17"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="53"/>
+    </row>
+    <row r="25" spans="1:8" ht="66" customHeight="1">
+      <c r="A25" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="53"/>
+    </row>
+    <row r="26" spans="1:8" ht="66" customHeight="1">
+      <c r="A26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="53"/>
+    </row>
+    <row r="27" spans="1:8" ht="66" customHeight="1">
+      <c r="A27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="53"/>
+    </row>
+    <row r="28" spans="1:8" ht="66" customHeight="1">
+      <c r="A28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="53"/>
+    </row>
+    <row r="29" spans="1:8" ht="66" customHeight="1">
+      <c r="A29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="53"/>
+    </row>
+    <row r="30" spans="1:8" ht="66" customHeight="1">
+      <c r="A30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="53"/>
+    </row>
+    <row r="31" spans="1:8" ht="66" customHeight="1">
+      <c r="A31" s="17"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="53"/>
+    </row>
+    <row r="32" spans="1:8" ht="66" customHeight="1">
+      <c r="A32" s="17"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="53"/>
+    </row>
+    <row r="33" spans="1:8" ht="66" customHeight="1">
+      <c r="A33" s="17"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="53"/>
+    </row>
+    <row r="34" spans="1:8" ht="66" customHeight="1">
+      <c r="A34" s="17"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="53"/>
+    </row>
+    <row r="35" spans="1:8" ht="66" customHeight="1">
+      <c r="A35" s="17"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="53"/>
+    </row>
+    <row r="36" spans="1:8" ht="66" customHeight="1">
+      <c r="A36" s="17"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="53"/>
+    </row>
+    <row r="37" spans="1:8" ht="66" customHeight="1">
+      <c r="A37" s="17"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="53"/>
+    </row>
+    <row r="38" spans="1:8" ht="66" customHeight="1">
+      <c r="A38" s="17"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="53"/>
+    </row>
+    <row r="39" spans="1:8" ht="66" customHeight="1">
+      <c r="A39" s="17"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="53"/>
+    </row>
+    <row r="40" spans="1:8" ht="66" customHeight="1">
+      <c r="A40" s="17"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="53"/>
+    </row>
+    <row r="41" spans="1:8" ht="66" customHeight="1">
+      <c r="A41" s="17"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="53"/>
+    </row>
+    <row r="42" spans="1:8" ht="66" customHeight="1">
+      <c r="A42" s="17"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="53"/>
+    </row>
+    <row r="43" spans="1:8" ht="66" customHeight="1">
+      <c r="A43" s="17"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="53"/>
+    </row>
+    <row r="44" spans="1:8" ht="66" customHeight="1">
+      <c r="A44" s="17"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="53"/>
+    </row>
+    <row r="45" spans="1:8" ht="66" customHeight="1">
+      <c r="A45" s="17"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="53"/>
+    </row>
+    <row r="46" spans="1:8" ht="66" customHeight="1">
+      <c r="A46" s="17"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="53"/>
+    </row>
+    <row r="47" spans="1:8" ht="66" customHeight="1">
+      <c r="A47" s="17"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="53"/>
+    </row>
+    <row r="48" spans="1:8" ht="66" customHeight="1">
+      <c r="A48" s="17"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="53"/>
+    </row>
+    <row r="49" spans="1:8" ht="66" customHeight="1">
+      <c r="A49" s="17"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="53"/>
+    </row>
+    <row r="50" spans="1:8" ht="66" customHeight="1">
+      <c r="A50" s="17"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="53"/>
+    </row>
+    <row r="51" spans="1:8" ht="66" customHeight="1">
+      <c r="A51" s="17"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="53"/>
+    </row>
+    <row r="52" spans="1:8" ht="66" customHeight="1">
+      <c r="A52" s="17"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="53"/>
+    </row>
+    <row r="53" spans="1:8" ht="66" customHeight="1">
+      <c r="A53" s="17"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="53"/>
+    </row>
+    <row r="54" spans="1:8" ht="66" customHeight="1">
+      <c r="A54" s="17"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="53"/>
+    </row>
+    <row r="55" spans="1:8" ht="66" customHeight="1">
+      <c r="A55" s="17"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="53"/>
+    </row>
+    <row r="56" spans="1:8" ht="66" customHeight="1">
+      <c r="A56" s="17"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="53"/>
+    </row>
+    <row r="57" spans="1:8" ht="66" customHeight="1">
+      <c r="A57" s="17"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="53"/>
+    </row>
+    <row r="58" spans="1:8" ht="66" customHeight="1">
+      <c r="A58" s="17"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="53"/>
+    </row>
+    <row r="59" spans="1:8" ht="66" customHeight="1">
+      <c r="A59" s="17"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="53"/>
+    </row>
+    <row r="60" spans="1:8" ht="66" customHeight="1">
+      <c r="A60" s="17"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="53"/>
+    </row>
+    <row r="61" spans="1:8" ht="66" customHeight="1">
+      <c r="A61" s="17"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="53"/>
+    </row>
+    <row r="62" spans="1:8" ht="66" customHeight="1">
+      <c r="A62" s="17"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="53"/>
+    </row>
+    <row r="63" spans="1:8" ht="66" customHeight="1">
+      <c r="A63" s="17"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="53"/>
+    </row>
+    <row r="64" spans="1:8" ht="66" customHeight="1">
+      <c r="A64" s="17"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="53"/>
+    </row>
+    <row r="65" spans="1:8" ht="66" customHeight="1">
+      <c r="A65" s="17"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="53"/>
+    </row>
+    <row r="66" spans="1:8" ht="66" customHeight="1">
+      <c r="A66" s="17"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="53"/>
+    </row>
+    <row r="67" spans="1:8" ht="66" customHeight="1">
+      <c r="A67" s="17"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="53"/>
+    </row>
+    <row r="68" spans="1:8" ht="66" customHeight="1">
+      <c r="A68" s="17"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="53"/>
+    </row>
+    <row r="69" spans="1:8" ht="66" customHeight="1">
+      <c r="A69" s="17"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="53"/>
+    </row>
+    <row r="70" spans="1:8" ht="66" customHeight="1">
+      <c r="A70" s="17"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="53"/>
+    </row>
+    <row r="71" spans="1:8" ht="66" customHeight="1">
+      <c r="A71" s="17"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="53"/>
+    </row>
+    <row r="72" spans="1:8" ht="66" customHeight="1">
+      <c r="A72" s="17"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="53"/>
+    </row>
+    <row r="73" spans="1:8" ht="66" customHeight="1">
+      <c r="A73" s="17"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="53"/>
+    </row>
+    <row r="74" spans="1:8" ht="66" customHeight="1">
+      <c r="A74" s="17"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="53"/>
+    </row>
+    <row r="75" spans="1:8" ht="66" customHeight="1">
+      <c r="A75" s="17"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="53"/>
+    </row>
+    <row r="76" spans="1:8" ht="66" customHeight="1">
+      <c r="A76" s="17"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="53"/>
+    </row>
+    <row r="77" spans="1:8" ht="66" customHeight="1">
+      <c r="A77" s="17"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="53"/>
+    </row>
+    <row r="78" spans="1:8" ht="66" customHeight="1">
+      <c r="A78" s="17"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="53"/>
+    </row>
+    <row r="79" spans="1:8" ht="66" customHeight="1">
+      <c r="A79" s="17"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="53"/>
+    </row>
+    <row r="80" spans="1:8" ht="66" customHeight="1">
+      <c r="A80" s="17"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="53"/>
+    </row>
+    <row r="81" spans="1:8" ht="66" customHeight="1">
+      <c r="A81" s="17"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="53"/>
+    </row>
+    <row r="82" spans="1:8" ht="66" customHeight="1">
+      <c r="A82" s="17"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="53"/>
+    </row>
+    <row r="83" spans="1:8" ht="66" customHeight="1">
+      <c r="A83" s="17"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="53"/>
+    </row>
+    <row r="84" spans="1:8" ht="66" customHeight="1">
+      <c r="A84" s="17"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="53"/>
+    </row>
+    <row r="85" spans="1:8" ht="66" customHeight="1">
+      <c r="A85" s="17"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="53"/>
+    </row>
+    <row r="86" spans="1:8" ht="66" customHeight="1">
+      <c r="A86" s="17"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="53"/>
+    </row>
+    <row r="87" spans="1:8" ht="66" customHeight="1">
+      <c r="A87" s="17"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="53"/>
+    </row>
+    <row r="88" spans="1:8" ht="66" customHeight="1">
+      <c r="A88" s="17"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="53"/>
+    </row>
+    <row r="89" spans="1:8" ht="66" customHeight="1">
+      <c r="A89" s="17"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="53"/>
+    </row>
+    <row r="90" spans="1:8" ht="66" customHeight="1">
+      <c r="A90" s="17"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="53"/>
+    </row>
+    <row r="91" spans="1:8" ht="66" customHeight="1">
+      <c r="A91" s="17"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="53"/>
+    </row>
+    <row r="92" spans="1:8" ht="66" customHeight="1">
+      <c r="A92" s="17"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="53"/>
+    </row>
+    <row r="93" spans="1:8" ht="66" customHeight="1">
+      <c r="A93" s="17"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="53"/>
+    </row>
+    <row r="94" spans="1:8" ht="66" customHeight="1">
+      <c r="A94" s="17"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="53"/>
+    </row>
+    <row r="95" spans="1:8" ht="66" customHeight="1">
+      <c r="A95" s="17"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="53"/>
+    </row>
+    <row r="96" spans="1:8" ht="66" customHeight="1">
+      <c r="A96" s="17"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="53"/>
+    </row>
+    <row r="97" spans="1:8" ht="66" customHeight="1">
+      <c r="A97" s="17"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="53"/>
+    </row>
+    <row r="98" spans="1:8" ht="66" customHeight="1">
+      <c r="A98" s="17"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="53"/>
+    </row>
+    <row r="99" spans="1:8" ht="66" customHeight="1">
+      <c r="A99" s="17"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="53"/>
+    </row>
+    <row r="100" spans="1:8" ht="66" customHeight="1">
+      <c r="A100" s="17"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="53"/>
+    </row>
+    <row r="101" spans="1:8" ht="66" customHeight="1">
+      <c r="A101" s="17"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="53"/>
+    </row>
+    <row r="102" spans="1:8" ht="66" customHeight="1">
+      <c r="A102" s="17"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="53"/>
+    </row>
+    <row r="103" spans="1:8" ht="66" customHeight="1">
+      <c r="A103" s="17"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="53"/>
+    </row>
+    <row r="104" spans="1:8" ht="66" customHeight="1">
+      <c r="A104" s="17"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="53"/>
+    </row>
+    <row r="105" spans="1:8" ht="66" customHeight="1">
+      <c r="A105" s="17"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="53"/>
+    </row>
+    <row r="106" spans="1:8" ht="66" customHeight="1">
+      <c r="A106" s="17"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="53"/>
+    </row>
+    <row r="107" spans="1:8" ht="66" customHeight="1">
+      <c r="A107" s="17"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="53"/>
+    </row>
+    <row r="108" spans="1:8" ht="66" customHeight="1">
+      <c r="A108" s="17"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="28"/>
+      <c r="H108" s="53"/>
+    </row>
+    <row r="109" spans="1:8" ht="66" customHeight="1">
+      <c r="A109" s="17"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="53"/>
+    </row>
+    <row r="110" spans="1:8" ht="66" customHeight="1">
+      <c r="A110" s="17"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="53"/>
+    </row>
+    <row r="111" spans="1:8" ht="66" customHeight="1">
+      <c r="A111" s="17"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="53"/>
+    </row>
+    <row r="112" spans="1:8" ht="66" customHeight="1">
+      <c r="A112" s="17"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="53"/>
+    </row>
+    <row r="113" spans="1:8" ht="66" customHeight="1">
+      <c r="A113" s="17"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="53"/>
+    </row>
+    <row r="114" spans="1:8" ht="66" customHeight="1">
+      <c r="A114" s="17"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="53"/>
+    </row>
+    <row r="115" spans="1:8" ht="66" customHeight="1">
+      <c r="A115" s="17"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="53"/>
+    </row>
+    <row r="116" spans="1:8" ht="66" customHeight="1">
+      <c r="A116" s="17"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="53"/>
+    </row>
+    <row r="117" spans="1:8" ht="66" customHeight="1">
+      <c r="A117" s="17"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="53"/>
+    </row>
+    <row r="118" spans="1:8" ht="66" customHeight="1">
+      <c r="A118" s="17"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="28"/>
+      <c r="H118" s="53"/>
+    </row>
+    <row r="119" spans="1:8" ht="66" customHeight="1">
+      <c r="A119" s="17"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="28"/>
+      <c r="H119" s="53"/>
+    </row>
+    <row r="120" spans="1:8" ht="66" customHeight="1">
+      <c r="A120" s="17"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="53"/>
+    </row>
+    <row r="121" spans="1:8" ht="66" customHeight="1">
+      <c r="A121" s="17"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="28"/>
+      <c r="H121" s="53"/>
+    </row>
+    <row r="122" spans="1:8" ht="66" customHeight="1">
+      <c r="A122" s="17"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="28"/>
+      <c r="H122" s="53"/>
+    </row>
+    <row r="123" spans="1:8" ht="66" customHeight="1">
+      <c r="A123" s="17"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="28"/>
+      <c r="H123" s="53"/>
+    </row>
+    <row r="124" spans="1:8" ht="66" customHeight="1">
+      <c r="A124" s="17"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="28"/>
+      <c r="H124" s="53"/>
+    </row>
+    <row r="125" spans="1:8" ht="66" customHeight="1">
+      <c r="A125" s="17"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="53"/>
+    </row>
+    <row r="126" spans="1:8" ht="66" customHeight="1">
+      <c r="A126" s="17"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="28"/>
+      <c r="H126" s="53"/>
+    </row>
+    <row r="127" spans="1:8" ht="66" customHeight="1">
+      <c r="A127" s="17"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="28"/>
+      <c r="H127" s="53"/>
+    </row>
+    <row r="128" spans="1:8" ht="66" customHeight="1">
+      <c r="A128" s="17"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="53"/>
+    </row>
+    <row r="129" spans="1:8" ht="66" customHeight="1">
+      <c r="A129" s="17"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="28"/>
+      <c r="H129" s="53"/>
+    </row>
+    <row r="130" spans="1:8" ht="66" customHeight="1">
+      <c r="A130" s="17"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="28"/>
+      <c r="H130" s="53"/>
+    </row>
+    <row r="131" spans="1:8" ht="66" customHeight="1">
+      <c r="A131" s="17"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="28"/>
+      <c r="H131" s="53"/>
+    </row>
+    <row r="132" spans="1:8" ht="66" customHeight="1">
+      <c r="A132" s="17"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="28"/>
+      <c r="H132" s="53"/>
+    </row>
+    <row r="133" spans="1:8" ht="66" customHeight="1">
+      <c r="A133" s="17"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="28"/>
+      <c r="H133" s="53"/>
+    </row>
+    <row r="134" spans="1:8" ht="66" customHeight="1">
+      <c r="A134" s="17"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="53"/>
+    </row>
+    <row r="135" spans="1:8" ht="66" customHeight="1">
+      <c r="A135" s="17"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="28"/>
+      <c r="H135" s="53"/>
+    </row>
+    <row r="136" spans="1:8" ht="66" customHeight="1">
+      <c r="A136" s="17"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="28"/>
+      <c r="H136" s="53"/>
+    </row>
+    <row r="137" spans="1:8" ht="66" customHeight="1">
+      <c r="A137" s="17"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="28"/>
+      <c r="H137" s="53"/>
+    </row>
+    <row r="138" spans="1:8" ht="66" customHeight="1">
+      <c r="A138" s="17"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="28"/>
+      <c r="H138" s="53"/>
+    </row>
+    <row r="139" spans="1:8" ht="66" customHeight="1">
+      <c r="A139" s="17"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="28"/>
+      <c r="H139" s="53"/>
+    </row>
+    <row r="140" spans="1:8" ht="66" customHeight="1">
+      <c r="A140" s="17"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="28"/>
+      <c r="H140" s="53"/>
+    </row>
+    <row r="141" spans="1:8" ht="66" customHeight="1">
+      <c r="A141" s="17"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="28"/>
+      <c r="H141" s="53"/>
+    </row>
+    <row r="142" spans="1:8" ht="66" customHeight="1">
+      <c r="A142" s="17"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="28"/>
+      <c r="H142" s="53"/>
+    </row>
+    <row r="143" spans="1:8" ht="66" customHeight="1">
+      <c r="A143" s="17"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="28"/>
+      <c r="H143" s="53"/>
+    </row>
+    <row r="144" spans="1:8" ht="66" customHeight="1">
+      <c r="A144" s="17"/>
+      <c r="B144" s="14"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="28"/>
+      <c r="H144" s="53"/>
+    </row>
+    <row r="145" spans="1:8" ht="66" customHeight="1">
+      <c r="A145" s="17"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="28"/>
+      <c r="H145" s="53"/>
+    </row>
+    <row r="146" spans="1:8" ht="66" customHeight="1">
+      <c r="A146" s="17"/>
+      <c r="B146" s="14"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="28"/>
+      <c r="H146" s="53"/>
+    </row>
+    <row r="147" spans="1:8" ht="66" customHeight="1">
+      <c r="A147" s="17"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="28"/>
+      <c r="H147" s="53"/>
+    </row>
+    <row r="148" spans="1:8" ht="66" customHeight="1">
+      <c r="A148" s="17"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="28"/>
+      <c r="H148" s="53"/>
+    </row>
+    <row r="149" spans="1:8" ht="66" customHeight="1">
+      <c r="A149" s="17"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="28"/>
+      <c r="H149" s="53"/>
+    </row>
+    <row r="150" spans="1:8" ht="66" customHeight="1">
+      <c r="A150" s="17"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="53"/>
+    </row>
+    <row r="151" spans="1:8" ht="66" customHeight="1">
+      <c r="A151" s="17"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="28"/>
+      <c r="H151" s="53"/>
+    </row>
+    <row r="152" spans="1:8" ht="66" customHeight="1">
+      <c r="A152" s="17"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="28"/>
+      <c r="H152" s="53"/>
+    </row>
+    <row r="153" spans="1:8" ht="66" customHeight="1">
+      <c r="A153" s="17"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="28"/>
+      <c r="H153" s="53"/>
+    </row>
+    <row r="154" spans="1:8" ht="66" customHeight="1">
+      <c r="A154" s="17"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="28"/>
+      <c r="H154" s="53"/>
+    </row>
+    <row r="155" spans="1:8" ht="66" customHeight="1">
+      <c r="A155" s="17"/>
+      <c r="B155" s="14"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="28"/>
+      <c r="H155" s="53"/>
+    </row>
+    <row r="156" spans="1:8" ht="66" customHeight="1">
+      <c r="A156" s="17"/>
+      <c r="B156" s="14"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="28"/>
+      <c r="H156" s="53"/>
+    </row>
+    <row r="157" spans="1:8" ht="66" customHeight="1">
+      <c r="A157" s="17"/>
+      <c r="B157" s="14"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="28"/>
+      <c r="H157" s="53"/>
+    </row>
+    <row r="158" spans="1:8" ht="66" customHeight="1">
+      <c r="A158" s="17"/>
+      <c r="B158" s="14"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="16"/>
+      <c r="G158" s="28"/>
+      <c r="H158" s="53"/>
+    </row>
+    <row r="159" spans="1:8" ht="66" customHeight="1">
+      <c r="A159" s="17"/>
+      <c r="B159" s="14"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="16"/>
+      <c r="G159" s="28"/>
+      <c r="H159" s="53"/>
+    </row>
+    <row r="160" spans="1:8" ht="66" customHeight="1">
+      <c r="A160" s="17"/>
+      <c r="B160" s="14"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="16"/>
+      <c r="G160" s="28"/>
+      <c r="H160" s="53"/>
+    </row>
+    <row r="161" spans="1:8" ht="66" customHeight="1">
+      <c r="A161" s="17"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="28"/>
+      <c r="H161" s="53"/>
+    </row>
+    <row r="162" spans="1:8" ht="66" customHeight="1">
+      <c r="A162" s="17"/>
+      <c r="B162" s="14"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="28"/>
+      <c r="H162" s="53"/>
+    </row>
+    <row r="163" spans="1:8" ht="66" customHeight="1">
+      <c r="A163" s="17"/>
+      <c r="B163" s="14"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="28"/>
+      <c r="H163" s="53"/>
+    </row>
+    <row r="164" spans="1:8" ht="66" customHeight="1">
+      <c r="A164" s="17"/>
+      <c r="B164" s="14"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="16"/>
+      <c r="G164" s="28"/>
+      <c r="H164" s="53"/>
+    </row>
+    <row r="165" spans="1:8" ht="66" customHeight="1">
+      <c r="A165" s="17"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="28"/>
+      <c r="H165" s="53"/>
+    </row>
+    <row r="166" spans="1:8" ht="66" customHeight="1">
+      <c r="A166" s="17"/>
+      <c r="B166" s="14"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="16"/>
+      <c r="G166" s="28"/>
+      <c r="H166" s="53"/>
+    </row>
+    <row r="167" spans="1:8" ht="66" customHeight="1">
+      <c r="A167" s="17"/>
+      <c r="B167" s="14"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="28"/>
+      <c r="H167" s="53"/>
+    </row>
+    <row r="168" spans="1:8" ht="66" customHeight="1">
+      <c r="A168" s="17"/>
+      <c r="B168" s="14"/>
+      <c r="C168" s="17"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="16"/>
+      <c r="G168" s="28"/>
+      <c r="H168" s="53"/>
+    </row>
+    <row r="169" spans="1:8" ht="66" customHeight="1">
+      <c r="A169" s="17"/>
+      <c r="B169" s="14"/>
+      <c r="C169" s="17"/>
+      <c r="D169" s="17"/>
+      <c r="E169" s="16"/>
+      <c r="F169" s="16"/>
+      <c r="G169" s="28"/>
+      <c r="H169" s="53"/>
+    </row>
+    <row r="170" spans="1:8" ht="66" customHeight="1">
+      <c r="A170" s="17"/>
+      <c r="B170" s="14"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="16"/>
+      <c r="F170" s="16"/>
+      <c r="G170" s="28"/>
+      <c r="H170" s="53"/>
+    </row>
+    <row r="171" spans="1:8" ht="66" customHeight="1">
+      <c r="A171" s="53"/>
+      <c r="B171" s="53"/>
+      <c r="C171" s="53"/>
+      <c r="D171" s="53"/>
+      <c r="E171" s="53"/>
+      <c r="F171" s="53"/>
+      <c r="G171" s="53"/>
+      <c r="H171" s="53"/>
+    </row>
+    <row r="172" spans="1:8" ht="66" customHeight="1">
+      <c r="A172" s="53"/>
+      <c r="B172" s="53"/>
+      <c r="C172" s="53"/>
+      <c r="D172" s="53"/>
+      <c r="E172" s="53"/>
+      <c r="F172" s="53"/>
+      <c r="G172" s="53"/>
+      <c r="H172" s="53"/>
+    </row>
+    <row r="173" spans="1:8" ht="66" customHeight="1">
+      <c r="A173" s="53"/>
+      <c r="B173" s="53"/>
+      <c r="C173" s="53"/>
+      <c r="D173" s="53"/>
+      <c r="E173" s="53"/>
+      <c r="F173" s="53"/>
+      <c r="G173" s="53"/>
+      <c r="H173" s="53"/>
+    </row>
+    <row r="174" spans="1:8" ht="66" customHeight="1">
+      <c r="A174" s="53"/>
+      <c r="B174" s="53"/>
+      <c r="C174" s="53"/>
+      <c r="D174" s="53"/>
+      <c r="E174" s="53"/>
+      <c r="F174" s="53"/>
+      <c r="G174" s="53"/>
+      <c r="H174" s="53"/>
+    </row>
+    <row r="175" spans="1:8" ht="66" customHeight="1">
+      <c r="A175" s="53"/>
+      <c r="B175" s="53"/>
+      <c r="C175" s="53"/>
+      <c r="D175" s="53"/>
+      <c r="E175" s="53"/>
+      <c r="F175" s="53"/>
+      <c r="G175" s="53"/>
+      <c r="H175" s="53"/>
+    </row>
+    <row r="176" spans="1:8" ht="66" customHeight="1">
+      <c r="A176" s="53"/>
+      <c r="B176" s="53"/>
+      <c r="C176" s="53"/>
+      <c r="D176" s="53"/>
+      <c r="E176" s="53"/>
+      <c r="F176" s="53"/>
+      <c r="G176" s="53"/>
+      <c r="H176" s="53"/>
+    </row>
+    <row r="177" spans="1:8" ht="66" customHeight="1">
+      <c r="A177" s="53"/>
+      <c r="B177" s="53"/>
+      <c r="C177" s="53"/>
+      <c r="D177" s="53"/>
+      <c r="E177" s="53"/>
+      <c r="F177" s="53"/>
+      <c r="G177" s="53"/>
+      <c r="H177" s="53"/>
+    </row>
+    <row r="178" spans="1:8" ht="66" customHeight="1">
+      <c r="A178" s="53"/>
+      <c r="B178" s="53"/>
+      <c r="C178" s="53"/>
+      <c r="D178" s="53"/>
+      <c r="E178" s="53"/>
+      <c r="F178" s="53"/>
+      <c r="G178" s="53"/>
+      <c r="H178" s="53"/>
+    </row>
+    <row r="179" spans="1:8" ht="66" customHeight="1">
+      <c r="A179" s="53"/>
+      <c r="B179" s="53"/>
+      <c r="C179" s="53"/>
+      <c r="D179" s="53"/>
+      <c r="E179" s="53"/>
+      <c r="F179" s="53"/>
+      <c r="G179" s="53"/>
+      <c r="H179" s="53"/>
+    </row>
+    <row r="180" spans="1:8" ht="66" customHeight="1">
+      <c r="A180" s="53"/>
+      <c r="B180" s="53"/>
+      <c r="C180" s="53"/>
+      <c r="D180" s="53"/>
+      <c r="E180" s="53"/>
+      <c r="F180" s="53"/>
+      <c r="G180" s="53"/>
+      <c r="H180" s="53"/>
+    </row>
+    <row r="181" spans="1:8" ht="66" customHeight="1">
+      <c r="A181" s="53"/>
+      <c r="B181" s="53"/>
+      <c r="C181" s="53"/>
+      <c r="D181" s="53"/>
+      <c r="E181" s="53"/>
+      <c r="F181" s="53"/>
+      <c r="G181" s="53"/>
+      <c r="H181" s="53"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABA2364-7333-C140-B87B-E320E39554EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211C2E0E-6FE8-D747-88D2-441C4AC10B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="678">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9854,6 +9854,25 @@
   </si>
   <si>
     <t>主队排名5，客队排名18，两者分差17，主队盘口非常便宜！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣费尔兰度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=28,输=15,走=0,赢盘概率最大,为65.12%
+亚盘本联赛盘口:赢=1,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:0](8次)     [2:1](7次)     [0:0](4次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>努曼西亚</t>
+  </si>
+  <si>
+    <t>埃登斯</t>
+  </si>
+  <si>
+    <t>主队排名13，客队排名2，两者分差17，客队盘口非常便宜！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10737,8 +10756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -14161,14 +14180,28 @@
       <c r="J118" s="16"/>
     </row>
     <row r="119" spans="1:10" ht="63" customHeight="1">
-      <c r="A119" s="17"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="16"/>
+      <c r="A119" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="B119" s="14">
+        <v>45061</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>230</v>
+      </c>
       <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="28"/>
+      <c r="G119" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="H119" s="28" t="s">
+        <v>674</v>
+      </c>
       <c r="I119" s="17"/>
       <c r="J119" s="16"/>
     </row>
@@ -19916,7 +19949,7 @@
   <dimension ref="A1:H181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.5" defaultRowHeight="66" customHeight="1"/>
@@ -19995,13 +20028,25 @@
       <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" ht="66" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="16"/>
+      <c r="A4" s="17" t="s">
+        <v>592</v>
+      </c>
+      <c r="B4" s="14">
+        <v>45061</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="F4" s="16"/>
-      <c r="G4" s="28"/>
+      <c r="G4" s="28" t="s">
+        <v>677</v>
+      </c>
       <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:8" ht="66" customHeight="1">

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211C2E0E-6FE8-D747-88D2-441C4AC10B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8C82A9-3EBC-7B4B-8F7F-351AF3A3A82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
   <sheets>
     <sheet name="让球匹配" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="685">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9305,9 +9305,6 @@
     <t>23澳维超第13轮</t>
   </si>
   <si>
-    <t>墨尔本骑士</t>
-  </si>
-  <si>
     <t xml:space="preserve">亚盘全网盘口:赢=13,输=1,走=0,赢盘概率最大,为92.86%
 比分概率前三分别是：[2:1](3次)     [3:1](2次)     [1:0](1次)     </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9316,9 +9313,6 @@
     <t>23挪甲第7轮</t>
   </si>
   <si>
-    <t>桑内斯</t>
-  </si>
-  <si>
     <t>赢盘</t>
   </si>
   <si>
@@ -9329,9 +9323,6 @@
     <t>22/23克罗甲第34轮</t>
   </si>
   <si>
-    <t>比路朴</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -9345,9 +9336,6 @@
     <t>22/23葡甲第32轮</t>
   </si>
   <si>
-    <t>泰罗芬斯</t>
-  </si>
-  <si>
     <t xml:space="preserve">亚盘全网盘口:赢=0,输=4,走=0,输盘概率最大,为100.00%
 比分概率前三分别是：[3:4](1次)     [2:5](1次)     [0:1](1次)     </t>
   </si>
@@ -9355,9 +9343,6 @@
     <t>22/23德东北第32轮</t>
   </si>
   <si>
-    <t>利希滕贝格</t>
-  </si>
-  <si>
     <t xml:space="preserve">亚盘全网盘口:赢=4,输=0,走=0,赢盘概率最大,为100.00%
 比分概率前三分别是：[3:0](1次)     [2:0](1次)     [4:1](1次)     </t>
   </si>
@@ -9365,9 +9350,6 @@
     <t>22/23法丙第32轮</t>
   </si>
   <si>
-    <t>奥维涅</t>
-  </si>
-  <si>
     <t>孔卡诺</t>
   </si>
   <si>
@@ -9376,9 +9358,6 @@
   <si>
     <t xml:space="preserve">亚盘全网盘口:赢=0,输=3,走=0,输盘概率最大,为100.00%
 比分概率前三分别是：[0:4](2次)     [1:2](1次)    </t>
-  </si>
-  <si>
-    <t>巴黎13区竞技</t>
   </si>
   <si>
     <t>凡尔赛</t>
@@ -9403,9 +9382,6 @@
     <t>22/23罗甲第8轮</t>
   </si>
   <si>
-    <t>布加勒斯特快速</t>
-  </si>
-  <si>
     <t>圣格奥尔</t>
   </si>
   <si>
@@ -9417,9 +9393,6 @@
     <t>22/23荷甲第32轮</t>
   </si>
   <si>
-    <t>特温特</t>
-  </si>
-  <si>
     <t>奈梅亨</t>
   </si>
   <si>
@@ -9431,9 +9404,6 @@
     <t>22/23荷乙第37轮</t>
   </si>
   <si>
-    <t>埃因霍温FC</t>
-  </si>
-  <si>
     <t>海尔蒙特</t>
   </si>
   <si>
@@ -9442,9 +9412,6 @@
   </si>
   <si>
     <t>22/23意乙第37轮</t>
-  </si>
-  <si>
-    <t>卡利亚里</t>
   </si>
   <si>
     <t>巴勒莫</t>
@@ -9458,9 +9425,6 @@
     <t>23中甲第5轮</t>
   </si>
   <si>
-    <t>江西庐山</t>
-  </si>
-  <si>
     <t>延边龙鼎</t>
   </si>
   <si>
@@ -9468,12 +9432,6 @@
 比分概率前三分别是：[1:2](3次)     [4:0](1次)     [0:6](1次)     </t>
   </si>
   <si>
-    <t>上海嘉定汇龙</t>
-  </si>
-  <si>
-    <t>青岛西海岸</t>
-  </si>
-  <si>
     <t xml:space="preserve">亚盘全网盘口:赢=5,输=10,走=0,输盘概率最大,为66.67%
 比分概率前三分别是：[1:1](3次)     [0:3](2次)     [1:2](2次)   </t>
   </si>
@@ -9481,9 +9439,6 @@
     <t>22/23西甲第34轮</t>
   </si>
   <si>
-    <t>皇家社会</t>
-  </si>
-  <si>
     <t>赫罗纳</t>
   </si>
   <si>
@@ -9491,17 +9446,11 @@
 比分概率前三分别是：[2:1](4次)     [1:2](4次)     [3:0](2次)  </t>
   </si>
   <si>
-    <t>威尼斯</t>
-  </si>
-  <si>
     <t>佩鲁贾</t>
   </si>
   <si>
     <t xml:space="preserve">亚盘全网盘口:赢=2,输=8,走=0,输盘概率最大,为80.00%
 比分概率前三分别是：[0:1](2次)     [0:0](2次)     [0:3](1次)  </t>
-  </si>
-  <si>
-    <t>斯普利特海杜克</t>
   </si>
   <si>
     <t>奥斯积克</t>
@@ -9515,9 +9464,6 @@
     <t>22/23西协甲第36轮</t>
   </si>
   <si>
-    <t>毕尔巴鄂B队</t>
-  </si>
-  <si>
     <t>阿尔科亚诺</t>
   </si>
   <si>
@@ -9529,9 +9475,6 @@
     <t>23挪超第6轮</t>
   </si>
   <si>
-    <t>博德闪耀</t>
-  </si>
-  <si>
     <t>罗森博格</t>
   </si>
   <si>
@@ -9553,9 +9496,6 @@
     <t>22/23波甲第32轮</t>
   </si>
   <si>
-    <t>克拉科维亚</t>
-  </si>
-  <si>
     <t>卢宾</t>
   </si>
   <si>
@@ -9567,9 +9507,6 @@
     <t>22/23西丙2第34轮</t>
   </si>
   <si>
-    <t>施斯达</t>
-  </si>
-  <si>
     <t>衣扎拉</t>
   </si>
   <si>
@@ -9580,9 +9517,6 @@
     <t>23瑞典超第8轮</t>
   </si>
   <si>
-    <t>瓦尔贝里</t>
-  </si>
-  <si>
     <t>北雪平</t>
   </si>
   <si>
@@ -9590,17 +9524,11 @@
 比分概率前三分别是：[0:0](4次)     [1:1](2次)     [0:1](2次)  </t>
   </si>
   <si>
-    <t>克卢日大学</t>
-  </si>
-  <si>
     <t>辛迪泰哥维斯特</t>
   </si>
   <si>
     <t xml:space="preserve">亚盘全网盘口:赢=36,输=53,走=0,输盘概率最大,为59.55%
 比分概率前三分别是：[1:1](13次)     [0:1](9次)     [0:0](9次)  </t>
-  </si>
-  <si>
-    <t>比利亚雷亚尔</t>
   </si>
   <si>
     <t xml:space="preserve">亚盘全网盘口:赢=10,输=5,走=0,赢盘概率最大,为66.67%
@@ -9611,9 +9539,6 @@
     <t>22/23波乙第31轮</t>
   </si>
   <si>
-    <t>泰弛</t>
-  </si>
-  <si>
     <t>查洛里</t>
   </si>
   <si>
@@ -9647,9 +9572,6 @@
     <t>22/23捷甲第2轮</t>
   </si>
   <si>
-    <t>特普利斯</t>
-  </si>
-  <si>
     <t>兹林</t>
   </si>
   <si>
@@ -9659,9 +9581,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>布尔诺</t>
-  </si>
-  <si>
     <t>帕尔杜比斯</t>
   </si>
   <si>
@@ -9674,9 +9593,6 @@
     <t>23阿乙第14轮</t>
   </si>
   <si>
-    <t>布朗安德奎</t>
-  </si>
-  <si>
     <t>米特雷沙尔塔</t>
   </si>
   <si>
@@ -9686,9 +9602,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>波尔图B队</t>
-  </si>
-  <si>
     <t xml:space="preserve">亚盘全网盘口:赢=5,输=11,走=0,输盘概率最大,为68.75%
 亚盘本联赛盘口:赢=0,输=1,走=0,输盘概率最大,为100.00%
 比分概率前三分别是：[2:3](2次)     [1:0](2次)     [0:2](2次)   </t>
@@ -9698,9 +9611,6 @@
     <t>22/23黑山甲第34轮</t>
   </si>
   <si>
-    <t>耶汀斯特沃BP</t>
-  </si>
-  <si>
     <t>波德戈里察未来</t>
   </si>
   <si>
@@ -9709,9 +9619,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OFK彼德罗瓦茨</t>
-  </si>
-  <si>
     <t>摩拿</t>
   </si>
   <si>
@@ -9802,9 +9709,6 @@
   <si>
     <t>升盘3个，初盘0.500, 即时盘-0.250</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克拉约瓦大学</t>
   </si>
   <si>
     <t>阿吉斯</t>
@@ -9837,9 +9741,6 @@
     <t>赛果</t>
   </si>
   <si>
-    <t>波尔沃林</t>
-  </si>
-  <si>
     <t>比赛类别</t>
   </si>
   <si>
@@ -9866,13 +9767,174 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>埃登斯</t>
+  </si>
+  <si>
+    <t>主队排名13，客队排名2，两者分差17，客队盘口非常便宜！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨尔本骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑内斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比路朴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰罗芬斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿马多拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利希滕贝格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥维涅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴黎13区竞技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布加勒斯特快速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特温特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃因霍温FC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡利亚里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西庐山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛西海岸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海嘉定汇龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家社会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威尼斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯普利特海杜克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕尔巴鄂B队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博德闪耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑纳菲尤尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施斯达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔贝里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克卢日大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比利亚雷亚尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰弛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛罗伦萨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔诺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布朗安德奎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波尔图B队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶汀斯特沃BP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFK彼德罗瓦茨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克拉约瓦大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科尔多瓦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波尔沃林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便宜方赢球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维拉弗兰昆森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便宜方输球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>努曼西亚</t>
-  </si>
-  <si>
-    <t>埃登斯</t>
-  </si>
-  <si>
-    <t>主队排名13，客队排名2，两者分差17，客队盘口非常便宜！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便宜方走水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9883,7 +9945,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10128,6 +10190,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -10197,7 +10280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10432,6 +10515,21 @@
     <xf numFmtId="176" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="36" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="37" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10440,8 +10538,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF20C00"/>
       <color rgb="FFFFFFFF"/>
-      <color rgb="FFF20C00"/>
       <color rgb="FFFC6D4C"/>
       <color rgb="FFFF0000"/>
     </mruColors>
@@ -10756,8 +10854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -13296,118 +13394,134 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="63" customHeight="1">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="B85" s="14">
+      <c r="B85" s="8">
         <v>45058.729166666664</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H85" s="33" t="s">
         <v>531</v>
       </c>
-      <c r="D85" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16" t="s">
+      <c r="I85" s="11"/>
+      <c r="J85" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H85" s="28" t="s">
+    </row>
+    <row r="86" spans="1:10" ht="63" customHeight="1">
+      <c r="A86" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="I85" s="17"/>
-      <c r="J85" s="16"/>
-    </row>
-    <row r="86" spans="1:10" ht="63" customHeight="1">
-      <c r="A86" s="17" t="s">
+      <c r="B86" s="8">
+        <v>45058.958333333336</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="B86" s="14">
-        <v>45058.958333333336</v>
-      </c>
-      <c r="C86" s="17" t="s">
+      <c r="H86" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="D86" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16" t="s">
+      <c r="I86" s="11"/>
+      <c r="J86" s="10" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="63" customHeight="1">
+      <c r="A87" s="63" t="s">
         <v>535</v>
       </c>
-      <c r="H86" s="28" t="s">
+      <c r="B87" s="64">
+        <v>45059</v>
+      </c>
+      <c r="C87" s="63" t="s">
+        <v>646</v>
+      </c>
+      <c r="D87" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="E87" s="65" t="s">
         <v>536</v>
       </c>
-      <c r="I86" s="17"/>
-      <c r="J86" s="16"/>
-    </row>
-    <row r="87" spans="1:10" ht="63" customHeight="1">
-      <c r="A87" s="17" t="s">
+      <c r="F87" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="65" t="s">
         <v>537</v>
       </c>
-      <c r="B87" s="14">
-        <v>45059</v>
-      </c>
-      <c r="C87" s="17" t="s">
+      <c r="H87" s="66" t="s">
         <v>538</v>
       </c>
-      <c r="D87" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16" t="s">
-        <v>540</v>
-      </c>
-      <c r="H87" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="I87" s="17"/>
-      <c r="J87" s="16"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="65" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="88" spans="1:10" ht="63" customHeight="1">
       <c r="A88" s="17" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B88" s="14">
         <v>45059.041666666664</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>543</v>
+        <v>647</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>543</v>
+        <v>648</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="F88" s="16"/>
+      <c r="F88" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="G88" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="H88" s="28" t="s">
         <v>540</v>
       </c>
-      <c r="H88" s="28" t="s">
-        <v>544</v>
-      </c>
       <c r="I88" s="17"/>
-      <c r="J88" s="16"/>
+      <c r="J88" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="89" spans="1:10" ht="63" customHeight="1">
       <c r="A89" s="17" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B89" s="14">
         <v>45059.041666666664</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>546</v>
+        <v>649</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>65</v>
@@ -13415,675 +13529,779 @@
       <c r="E89" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="F89" s="16"/>
+      <c r="F89" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="G89" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H89" s="28" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="I89" s="17"/>
-      <c r="J89" s="16"/>
+      <c r="J89" s="16" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="90" spans="1:10" ht="63" customHeight="1">
       <c r="A90" s="17" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B90" s="14">
         <v>45059.0625</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>549</v>
+        <v>650</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>551</v>
-      </c>
-      <c r="F90" s="16"/>
+        <v>545</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="G90" s="16" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H90" s="28" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="I90" s="17"/>
-      <c r="J90" s="16"/>
+      <c r="J90" s="16" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="91" spans="1:10" ht="63" customHeight="1">
       <c r="A91" s="17" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B91" s="14">
         <v>45059.0625</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>553</v>
+        <v>651</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="F91" s="16"/>
+      <c r="F91" s="16" t="s">
+        <v>201</v>
+      </c>
       <c r="G91" s="16" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H91" s="28" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="I91" s="17"/>
-      <c r="J91" s="16"/>
+      <c r="J91" s="16" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="92" spans="1:10" ht="63" customHeight="1">
       <c r="A92" s="17" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B92" s="14">
         <v>45059.0625</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="F92" s="16"/>
+      <c r="F92" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="G92" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H92" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="I92" s="17"/>
+      <c r="J92" s="16" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="63" customHeight="1">
+      <c r="A93" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B93" s="8">
+        <v>45059.0625</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="H93" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="I93" s="11"/>
+      <c r="J93" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="63" customHeight="1">
+      <c r="A94" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="B94" s="8">
+        <v>45059.083333333336</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="H94" s="33" t="s">
+        <v>557</v>
+      </c>
+      <c r="I94" s="11"/>
+      <c r="J94" s="10" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="63" customHeight="1">
+      <c r="A95" s="78" t="s">
         <v>558</v>
       </c>
-      <c r="I92" s="17"/>
-      <c r="J92" s="16"/>
-    </row>
-    <row r="93" spans="1:10" ht="63" customHeight="1">
-      <c r="A93" s="17" t="s">
+      <c r="B95" s="79">
+        <v>45059.083333333336</v>
+      </c>
+      <c r="C95" s="78" t="s">
+        <v>654</v>
+      </c>
+      <c r="D95" s="78" t="s">
         <v>559</v>
       </c>
-      <c r="B93" s="14">
-        <v>45059.0625</v>
-      </c>
-      <c r="C93" s="17" t="s">
+      <c r="E95" s="80" t="s">
+        <v>242</v>
+      </c>
+      <c r="F95" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="G95" s="80" t="s">
+        <v>537</v>
+      </c>
+      <c r="H95" s="81" t="s">
         <v>560</v>
       </c>
-      <c r="D93" s="17" t="s">
+      <c r="I95" s="78"/>
+      <c r="J95" s="80" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="63" customHeight="1">
+      <c r="A96" s="78" t="s">
         <v>561</v>
       </c>
-      <c r="E93" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16" t="s">
-        <v>540</v>
-      </c>
-      <c r="H93" s="28" t="s">
+      <c r="B96" s="79">
+        <v>45059.833333333336</v>
+      </c>
+      <c r="C96" s="78" t="s">
+        <v>655</v>
+      </c>
+      <c r="D96" s="78" t="s">
         <v>562</v>
       </c>
-      <c r="I93" s="17"/>
-      <c r="J93" s="16"/>
-    </row>
-    <row r="94" spans="1:10" ht="63" customHeight="1">
-      <c r="A94" s="17" t="s">
+      <c r="E96" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="F96" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="80" t="s">
+        <v>533</v>
+      </c>
+      <c r="H96" s="81" t="s">
         <v>563</v>
       </c>
-      <c r="B94" s="14">
-        <v>45059.083333333336</v>
-      </c>
-      <c r="C94" s="17" t="s">
+      <c r="I96" s="78"/>
+      <c r="J96" s="80" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="63" customHeight="1">
+      <c r="A97" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="D94" s="17" t="s">
+      <c r="B97" s="8">
+        <v>45059.8125</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="D97" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="E94" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="H94" s="28" t="s">
+      <c r="E97" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="H97" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="I94" s="17"/>
-      <c r="J94" s="16"/>
-    </row>
-    <row r="95" spans="1:10" ht="63" customHeight="1">
-      <c r="A95" s="17" t="s">
+      <c r="I97" s="11"/>
+      <c r="J97" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="63" customHeight="1">
+      <c r="A98" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B98" s="8">
+        <v>45059.8125</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="H98" s="33" t="s">
         <v>567</v>
       </c>
-      <c r="B95" s="14">
-        <v>45059.083333333336</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>568</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>569</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16" t="s">
-        <v>540</v>
-      </c>
-      <c r="H95" s="28" t="s">
-        <v>570</v>
-      </c>
-      <c r="I95" s="17"/>
-      <c r="J95" s="16"/>
-    </row>
-    <row r="96" spans="1:10" ht="63" customHeight="1">
-      <c r="A96" s="17" t="s">
-        <v>571</v>
-      </c>
-      <c r="B96" s="14">
-        <v>45059.833333333336</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>572</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>573</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="H96" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="I96" s="17"/>
-      <c r="J96" s="16"/>
-    </row>
-    <row r="97" spans="1:10" ht="63" customHeight="1">
-      <c r="A97" s="17" t="s">
-        <v>575</v>
-      </c>
-      <c r="B97" s="14">
-        <v>45059.8125</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>576</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>577</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16" t="s">
-        <v>540</v>
-      </c>
-      <c r="H97" s="28" t="s">
-        <v>578</v>
-      </c>
-      <c r="I97" s="17"/>
-      <c r="J97" s="16"/>
-    </row>
-    <row r="98" spans="1:10" ht="63" customHeight="1">
-      <c r="A98" s="17" t="s">
-        <v>575</v>
-      </c>
-      <c r="B98" s="14">
-        <v>45059.8125</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>579</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16" t="s">
-        <v>540</v>
-      </c>
-      <c r="H98" s="28" t="s">
-        <v>581</v>
-      </c>
-      <c r="I98" s="17"/>
-      <c r="J98" s="16"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="10" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="99" spans="1:10" ht="63" customHeight="1">
       <c r="A99" s="17" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="B99" s="14">
         <v>45059.833333333336</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>583</v>
+        <v>659</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="F99" s="16"/>
+      <c r="F99" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="G99" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H99" s="28" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="I99" s="17"/>
-      <c r="J99" s="16"/>
+      <c r="J99" s="16" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="100" spans="1:10" ht="63" customHeight="1">
       <c r="A100" s="17" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B100" s="14">
         <v>45059.833333333336</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>586</v>
+        <v>660</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="F100" s="16"/>
+      <c r="F100" s="16" t="s">
+        <v>161</v>
+      </c>
       <c r="G100" s="16" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H100" s="28" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="I100" s="17"/>
-      <c r="J100" s="16"/>
+      <c r="J100" s="16" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="101" spans="1:10" ht="63" customHeight="1">
-      <c r="A101" s="17" t="s">
-        <v>537</v>
-      </c>
-      <c r="B101" s="14">
+      <c r="A101" s="78" t="s">
+        <v>535</v>
+      </c>
+      <c r="B101" s="79">
         <v>45059.958333333336</v>
       </c>
-      <c r="C101" s="17" t="s">
-        <v>589</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="E101" s="16" t="s">
+      <c r="C101" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="D101" s="78" t="s">
+        <v>573</v>
+      </c>
+      <c r="E101" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="H101" s="28" t="s">
-        <v>591</v>
-      </c>
-      <c r="I101" s="17"/>
-      <c r="J101" s="16"/>
+      <c r="F101" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="G101" s="80" t="s">
+        <v>533</v>
+      </c>
+      <c r="H101" s="81" t="s">
+        <v>574</v>
+      </c>
+      <c r="I101" s="78"/>
+      <c r="J101" s="80" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="102" spans="1:10" ht="63" customHeight="1">
       <c r="A102" s="17" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="B102" s="14">
         <v>45059.958333333336</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>593</v>
+        <v>662</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="F102" s="16"/>
+      <c r="F102" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="G102" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H102" s="28" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I102" s="17"/>
-      <c r="J102" s="16"/>
+      <c r="J102" s="16" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="103" spans="1:10" ht="63" customHeight="1">
       <c r="A103" s="17" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="B103" s="14">
         <v>45059.958333333336</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>597</v>
+        <v>663</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>599</v>
-      </c>
-      <c r="F103" s="16"/>
+        <v>580</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>161</v>
+      </c>
       <c r="G103" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H103" s="28" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="I103" s="17"/>
-      <c r="J103" s="16"/>
+      <c r="J103" s="16" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="104" spans="1:10" ht="63" customHeight="1">
-      <c r="A104" s="17" t="s">
-        <v>596</v>
-      </c>
-      <c r="B104" s="14">
+      <c r="A104" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="B104" s="8">
         <v>45059.958333333336</v>
       </c>
-      <c r="C104" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="E104" s="16" t="s">
+      <c r="C104" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="E104" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16" t="s">
-        <v>540</v>
-      </c>
-      <c r="H104" s="28" t="s">
-        <v>602</v>
-      </c>
-      <c r="I104" s="17"/>
-      <c r="J104" s="16"/>
+      <c r="F104" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="H104" s="33" t="s">
+        <v>583</v>
+      </c>
+      <c r="I104" s="11"/>
+      <c r="J104" s="10" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="105" spans="1:10" ht="63" customHeight="1">
-      <c r="A105" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="B105" s="14">
+      <c r="A105" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="B105" s="8">
         <v>45059.979166666664</v>
       </c>
-      <c r="C105" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>605</v>
-      </c>
-      <c r="E105" s="16" t="s">
+      <c r="C105" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="E105" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16" t="s">
-        <v>540</v>
-      </c>
-      <c r="H105" s="28" t="s">
-        <v>606</v>
-      </c>
-      <c r="I105" s="17"/>
-      <c r="J105" s="16"/>
+      <c r="F105" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="H105" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="I105" s="11"/>
+      <c r="J105" s="10" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="106" spans="1:10" ht="63" customHeight="1">
       <c r="A106" s="17" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="B106" s="14">
         <v>45059.979166666664</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>608</v>
+        <v>665</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="E106" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="F106" s="16"/>
+      <c r="F106" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="G106" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H106" s="28" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="I106" s="17"/>
-      <c r="J106" s="16"/>
+      <c r="J106" s="16" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="107" spans="1:10" ht="63" customHeight="1">
       <c r="A107" s="17" t="s">
-        <v>611</v>
+        <v>590</v>
       </c>
       <c r="B107" s="14">
         <v>45059.979166666664</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>612</v>
+        <v>666</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="E107" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="F107" s="16"/>
+      <c r="F107" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="G107" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H107" s="28" t="s">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="I107" s="17"/>
-      <c r="J107" s="16"/>
+      <c r="J107" s="16" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="108" spans="1:10" ht="63" customHeight="1">
       <c r="A108" s="17" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B108" s="14">
         <v>45060</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>615</v>
+        <v>667</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="E108" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="F108" s="16"/>
+      <c r="F108" s="16" t="s">
+        <v>140</v>
+      </c>
       <c r="G108" s="16" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H108" s="28" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
       <c r="I108" s="17"/>
-      <c r="J108" s="16"/>
+      <c r="J108" s="16" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="109" spans="1:10" ht="63" customHeight="1">
-      <c r="A109" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="B109" s="14">
+      <c r="A109" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="B109" s="8">
         <v>45060.020833333336</v>
       </c>
-      <c r="C109" s="17" t="s">
-        <v>618</v>
-      </c>
-      <c r="D109" s="17" t="s">
+      <c r="C109" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="D109" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="H109" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="I109" s="17"/>
-      <c r="J109" s="16"/>
+      <c r="F109" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="H109" s="33" t="s">
+        <v>595</v>
+      </c>
+      <c r="I109" s="11"/>
+      <c r="J109" s="10" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="110" spans="1:10" ht="63" customHeight="1">
       <c r="A110" s="17" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="B110" s="14">
         <v>45060.875</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>621</v>
+        <v>670</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="E110" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F110" s="16"/>
+      <c r="F110" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="G110" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H110" s="28" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="I110" s="17"/>
-      <c r="J110" s="16"/>
+      <c r="J110" s="16" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="111" spans="1:10" ht="63" customHeight="1">
       <c r="A111" s="17" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="B111" s="14">
         <v>45060.875</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>261</v>
+        <v>671</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F111" s="16"/>
+      <c r="F111" s="16" t="s">
+        <v>140</v>
+      </c>
       <c r="G111" s="16" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H111" s="28" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="I111" s="17"/>
-      <c r="J111" s="16"/>
+      <c r="J111" s="16" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="112" spans="1:10" ht="63" customHeight="1">
       <c r="A112" s="17" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="B112" s="14">
         <v>45060.875</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>631</v>
+        <v>104</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="E112" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="F112" s="16"/>
+      <c r="F112" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="G112" s="16" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H112" s="28" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
       <c r="I112" s="17"/>
-      <c r="J112" s="16"/>
+      <c r="J112" s="16" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="113" spans="1:10" ht="63" customHeight="1">
-      <c r="A113" s="17" t="s">
-        <v>630</v>
-      </c>
-      <c r="B113" s="14">
+      <c r="A113" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="B113" s="8">
         <v>45060.875</v>
       </c>
-      <c r="C113" s="17" t="s">
-        <v>634</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>635</v>
-      </c>
-      <c r="E113" s="16" t="s">
+      <c r="C113" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="E113" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16" t="s">
-        <v>540</v>
-      </c>
-      <c r="H113" s="28" t="s">
-        <v>636</v>
-      </c>
-      <c r="I113" s="17"/>
-      <c r="J113" s="16"/>
+      <c r="F113" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="H113" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="I113" s="11"/>
+      <c r="J113" s="10" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="114" spans="1:10" ht="63" customHeight="1">
-      <c r="A114" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="B114" s="14">
+      <c r="A114" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="B114" s="8">
         <v>45060.916666666664</v>
       </c>
-      <c r="C114" s="17" t="s">
-        <v>638</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>639</v>
-      </c>
-      <c r="E114" s="16" t="s">
+      <c r="C114" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="E114" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16" t="s">
-        <v>540</v>
-      </c>
-      <c r="H114" s="28" t="s">
-        <v>640</v>
-      </c>
-      <c r="I114" s="17"/>
-      <c r="J114" s="16"/>
+      <c r="F114" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="H114" s="33" t="s">
+        <v>612</v>
+      </c>
+      <c r="I114" s="11"/>
+      <c r="J114" s="10" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="115" spans="1:10" ht="63" customHeight="1">
       <c r="A115" s="17" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B115" s="14">
         <v>45060.9375</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>641</v>
+        <v>674</v>
       </c>
       <c r="D115" s="17" t="s">
         <v>181</v>
@@ -14091,119 +14309,139 @@
       <c r="E115" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="F115" s="16"/>
+      <c r="F115" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="G115" s="16" t="s">
         <v>71</v>
       </c>
       <c r="H115" s="28" t="s">
-        <v>642</v>
+        <v>613</v>
       </c>
       <c r="I115" s="17"/>
-      <c r="J115" s="16"/>
+      <c r="J115" s="16" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="116" spans="1:10" ht="63" customHeight="1">
-      <c r="A116" s="17" t="s">
-        <v>643</v>
-      </c>
-      <c r="B116" s="14">
+      <c r="A116" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="B116" s="8">
         <v>45060.958333333336</v>
       </c>
-      <c r="C116" s="17" t="s">
-        <v>644</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>645</v>
-      </c>
-      <c r="E116" s="16" t="s">
+      <c r="C116" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="E116" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16" t="s">
+      <c r="F116" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G116" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H116" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I116" s="17"/>
-      <c r="J116" s="16"/>
+      <c r="H116" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="I116" s="11"/>
+      <c r="J116" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="117" spans="1:10" ht="63" customHeight="1">
       <c r="A117" s="17" t="s">
-        <v>643</v>
+        <v>614</v>
       </c>
       <c r="B117" s="14">
         <v>45060.958333333336</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>647</v>
+        <v>676</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>648</v>
+        <v>617</v>
       </c>
       <c r="E117" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="F117" s="16"/>
+      <c r="F117" s="16" t="s">
+        <v>245</v>
+      </c>
       <c r="G117" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H117" s="28" t="s">
-        <v>649</v>
+        <v>618</v>
       </c>
       <c r="I117" s="17"/>
-      <c r="J117" s="16"/>
+      <c r="J117" s="16" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="118" spans="1:10" ht="63" customHeight="1">
-      <c r="A118" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="B118" s="14">
+      <c r="A118" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B118" s="8">
         <v>45060.96875</v>
       </c>
-      <c r="C118" s="17" t="s">
-        <v>657</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>658</v>
-      </c>
-      <c r="E118" s="16" t="s">
+      <c r="C118" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="E118" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="H118" s="28" t="s">
-        <v>659</v>
-      </c>
-      <c r="I118" s="17"/>
-      <c r="J118" s="16"/>
+      <c r="F118" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="H118" s="33" t="s">
+        <v>627</v>
+      </c>
+      <c r="I118" s="11"/>
+      <c r="J118" s="10" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="119" spans="1:10" ht="63" customHeight="1">
       <c r="A119" s="17" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="B119" s="14">
         <v>45061</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>195</v>
+        <v>678</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>673</v>
+        <v>640</v>
       </c>
       <c r="E119" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="F119" s="16"/>
+      <c r="F119" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="G119" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H119" s="28" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
       <c r="I119" s="17"/>
-      <c r="J119" s="16"/>
+      <c r="J119" s="16" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="120" spans="1:10" ht="63" customHeight="1">
       <c r="A120" s="17"/>
@@ -19609,16 +19847,16 @@
     </row>
     <row r="33" spans="1:8" ht="50" customHeight="1">
       <c r="A33" s="76" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="B33" s="49">
         <v>45060.875</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="D33" s="45" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="E33" s="46"/>
       <c r="F33" s="46"/>
@@ -19629,16 +19867,16 @@
     </row>
     <row r="34" spans="1:8" ht="50" customHeight="1">
       <c r="A34" s="43" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="B34" s="49">
         <v>45060.958333333336</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>651</v>
+        <v>620</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>652</v>
+        <v>621</v>
       </c>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
@@ -19649,21 +19887,21 @@
     </row>
     <row r="35" spans="1:8" ht="50" customHeight="1">
       <c r="A35" s="43" t="s">
-        <v>653</v>
+        <v>622</v>
       </c>
       <c r="B35" s="49">
         <v>45060.958333333336</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>654</v>
+        <v>623</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>655</v>
+        <v>624</v>
       </c>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
       <c r="G35" s="48" t="s">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="H35" s="26"/>
     </row>
@@ -19948,7 +20186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1142161-0F82-AA49-8A76-42BEDD9DBD1A}">
   <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -19959,95 +20197,107 @@
   <sheetData>
     <row r="1" spans="1:8" ht="66" customHeight="1">
       <c r="A1" s="37" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>660</v>
+        <v>628</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>661</v>
+        <v>629</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>662</v>
+        <v>630</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>663</v>
+        <v>631</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>664</v>
+        <v>632</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>665</v>
+        <v>633</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>666</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="66" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="B2" s="14">
         <v>45059.958333333336</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="D2" s="77" t="s">
         <v>215</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="F2" s="16"/>
+        <v>536</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="G2" s="28" t="s">
-        <v>670</v>
-      </c>
-      <c r="H2" s="53"/>
+        <v>637</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="66" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B3" s="14">
         <v>45061.041666666664</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>279</v>
+        <v>681</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="G3" s="28" t="s">
-        <v>672</v>
-      </c>
-      <c r="H3" s="53"/>
+        <v>639</v>
+      </c>
+      <c r="H3" s="82" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="66" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="B4" s="14">
         <v>45061</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>675</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>676</v>
+        <v>683</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>642</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="G4" s="28" t="s">
-        <v>677</v>
-      </c>
-      <c r="H4" s="53"/>
+        <v>643</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="66" customHeight="1">
       <c r="A5" s="17"/>
@@ -20057,7 +20307,7 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="53"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="66" customHeight="1">
       <c r="A6" s="17"/>
@@ -20067,7 +20317,7 @@
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="28"/>
-      <c r="H6" s="53"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="66" customHeight="1">
       <c r="A7" s="17"/>
@@ -20077,7 +20327,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="28"/>
-      <c r="H7" s="53"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="66" customHeight="1">
       <c r="A8" s="17"/>
@@ -20087,7 +20337,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="28"/>
-      <c r="H8" s="53"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="66" customHeight="1">
       <c r="A9" s="17"/>
@@ -20097,7 +20347,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="53"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="66" customHeight="1">
       <c r="A10" s="17"/>
@@ -20107,7 +20357,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="53"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" ht="66" customHeight="1">
       <c r="A11" s="17"/>
@@ -20117,7 +20367,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="53"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" ht="66" customHeight="1">
       <c r="A12" s="17"/>
@@ -20127,7 +20377,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="28"/>
-      <c r="H12" s="53"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" ht="66" customHeight="1">
       <c r="A13" s="17"/>
@@ -20137,7 +20387,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="28"/>
-      <c r="H13" s="53"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" ht="66" customHeight="1">
       <c r="A14" s="17"/>
@@ -20147,7 +20397,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="28"/>
-      <c r="H14" s="53"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" ht="66" customHeight="1">
       <c r="A15" s="17"/>
@@ -20157,7 +20407,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="53"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" ht="66" customHeight="1">
       <c r="A16" s="17"/>
@@ -20167,7 +20417,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="28"/>
-      <c r="H16" s="53"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" ht="66" customHeight="1">
       <c r="A17" s="17"/>
@@ -20177,7 +20427,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="28"/>
-      <c r="H17" s="53"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" ht="66" customHeight="1">
       <c r="A18" s="17"/>
@@ -20187,7 +20437,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="28"/>
-      <c r="H18" s="53"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="66" customHeight="1">
       <c r="A19" s="17"/>
@@ -20197,7 +20447,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="28"/>
-      <c r="H19" s="53"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="66" customHeight="1">
       <c r="A20" s="17"/>
@@ -20207,7 +20457,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="28"/>
-      <c r="H20" s="53"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="66" customHeight="1">
       <c r="A21" s="17"/>
@@ -20217,7 +20467,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="28"/>
-      <c r="H21" s="53"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="66" customHeight="1">
       <c r="A22" s="17"/>
@@ -20227,7 +20477,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="28"/>
-      <c r="H22" s="53"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" ht="66" customHeight="1">
       <c r="A23" s="17"/>
@@ -20237,7 +20487,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="53"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" ht="66" customHeight="1">
       <c r="A24" s="17"/>
@@ -20247,7 +20497,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="53"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" ht="66" customHeight="1">
       <c r="A25" s="17"/>
@@ -20257,7 +20507,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="53"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" ht="66" customHeight="1">
       <c r="A26" s="17"/>
@@ -20267,7 +20517,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="53"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" ht="66" customHeight="1">
       <c r="A27" s="17"/>
@@ -20277,7 +20527,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="28"/>
-      <c r="H27" s="53"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" ht="66" customHeight="1">
       <c r="A28" s="17"/>
@@ -20287,7 +20537,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="28"/>
-      <c r="H28" s="53"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" ht="66" customHeight="1">
       <c r="A29" s="17"/>
@@ -20297,7 +20547,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="28"/>
-      <c r="H29" s="53"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:8" ht="66" customHeight="1">
       <c r="A30" s="17"/>
@@ -20307,7 +20557,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="28"/>
-      <c r="H30" s="53"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:8" ht="66" customHeight="1">
       <c r="A31" s="17"/>
@@ -20317,7 +20567,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="53"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:8" ht="66" customHeight="1">
       <c r="A32" s="17"/>
@@ -20327,7 +20577,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="28"/>
-      <c r="H32" s="53"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8" ht="66" customHeight="1">
       <c r="A33" s="17"/>
@@ -20337,7 +20587,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="28"/>
-      <c r="H33" s="53"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" ht="66" customHeight="1">
       <c r="A34" s="17"/>
@@ -20347,7 +20597,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="28"/>
-      <c r="H34" s="53"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="1:8" ht="66" customHeight="1">
       <c r="A35" s="17"/>
@@ -20357,7 +20607,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="28"/>
-      <c r="H35" s="53"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="1:8" ht="66" customHeight="1">
       <c r="A36" s="17"/>
@@ -20367,7 +20617,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="28"/>
-      <c r="H36" s="53"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="1:8" ht="66" customHeight="1">
       <c r="A37" s="17"/>
@@ -20377,7 +20627,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="28"/>
-      <c r="H37" s="53"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="1:8" ht="66" customHeight="1">
       <c r="A38" s="17"/>
@@ -20387,7 +20637,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="28"/>
-      <c r="H38" s="53"/>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" spans="1:8" ht="66" customHeight="1">
       <c r="A39" s="17"/>
@@ -20397,7 +20647,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="28"/>
-      <c r="H39" s="53"/>
+      <c r="H39" s="17"/>
     </row>
     <row r="40" spans="1:8" ht="66" customHeight="1">
       <c r="A40" s="17"/>
@@ -20407,7 +20657,7 @@
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="28"/>
-      <c r="H40" s="53"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" ht="66" customHeight="1">
       <c r="A41" s="17"/>
@@ -20417,7 +20667,7 @@
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="28"/>
-      <c r="H41" s="53"/>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="66" customHeight="1">
       <c r="A42" s="17"/>
@@ -20427,7 +20677,7 @@
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="28"/>
-      <c r="H42" s="53"/>
+      <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8" ht="66" customHeight="1">
       <c r="A43" s="17"/>
@@ -20437,7 +20687,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="28"/>
-      <c r="H43" s="53"/>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8" ht="66" customHeight="1">
       <c r="A44" s="17"/>
@@ -20447,7 +20697,7 @@
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="28"/>
-      <c r="H44" s="53"/>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8" ht="66" customHeight="1">
       <c r="A45" s="17"/>
@@ -20457,7 +20707,7 @@
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="28"/>
-      <c r="H45" s="53"/>
+      <c r="H45" s="17"/>
     </row>
     <row r="46" spans="1:8" ht="66" customHeight="1">
       <c r="A46" s="17"/>
@@ -20467,7 +20717,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
       <c r="G46" s="28"/>
-      <c r="H46" s="53"/>
+      <c r="H46" s="17"/>
     </row>
     <row r="47" spans="1:8" ht="66" customHeight="1">
       <c r="A47" s="17"/>
@@ -20477,7 +20727,7 @@
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="28"/>
-      <c r="H47" s="53"/>
+      <c r="H47" s="17"/>
     </row>
     <row r="48" spans="1:8" ht="66" customHeight="1">
       <c r="A48" s="17"/>
@@ -20487,7 +20737,7 @@
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
       <c r="G48" s="28"/>
-      <c r="H48" s="53"/>
+      <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" ht="66" customHeight="1">
       <c r="A49" s="17"/>
@@ -20497,7 +20747,7 @@
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
       <c r="G49" s="28"/>
-      <c r="H49" s="53"/>
+      <c r="H49" s="17"/>
     </row>
     <row r="50" spans="1:8" ht="66" customHeight="1">
       <c r="A50" s="17"/>
@@ -20507,7 +20757,7 @@
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
       <c r="G50" s="28"/>
-      <c r="H50" s="53"/>
+      <c r="H50" s="17"/>
     </row>
     <row r="51" spans="1:8" ht="66" customHeight="1">
       <c r="A51" s="17"/>
@@ -20517,7 +20767,7 @@
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
       <c r="G51" s="28"/>
-      <c r="H51" s="53"/>
+      <c r="H51" s="17"/>
     </row>
     <row r="52" spans="1:8" ht="66" customHeight="1">
       <c r="A52" s="17"/>
@@ -20527,7 +20777,7 @@
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
       <c r="G52" s="28"/>
-      <c r="H52" s="53"/>
+      <c r="H52" s="17"/>
     </row>
     <row r="53" spans="1:8" ht="66" customHeight="1">
       <c r="A53" s="17"/>
@@ -20537,7 +20787,7 @@
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
       <c r="G53" s="28"/>
-      <c r="H53" s="53"/>
+      <c r="H53" s="17"/>
     </row>
     <row r="54" spans="1:8" ht="66" customHeight="1">
       <c r="A54" s="17"/>
@@ -20547,7 +20797,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
       <c r="G54" s="28"/>
-      <c r="H54" s="53"/>
+      <c r="H54" s="17"/>
     </row>
     <row r="55" spans="1:8" ht="66" customHeight="1">
       <c r="A55" s="17"/>
@@ -20557,7 +20807,7 @@
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
       <c r="G55" s="28"/>
-      <c r="H55" s="53"/>
+      <c r="H55" s="17"/>
     </row>
     <row r="56" spans="1:8" ht="66" customHeight="1">
       <c r="A56" s="17"/>
@@ -20567,7 +20817,7 @@
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
       <c r="G56" s="28"/>
-      <c r="H56" s="53"/>
+      <c r="H56" s="17"/>
     </row>
     <row r="57" spans="1:8" ht="66" customHeight="1">
       <c r="A57" s="17"/>
@@ -20577,7 +20827,7 @@
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
       <c r="G57" s="28"/>
-      <c r="H57" s="53"/>
+      <c r="H57" s="17"/>
     </row>
     <row r="58" spans="1:8" ht="66" customHeight="1">
       <c r="A58" s="17"/>
@@ -20587,7 +20837,7 @@
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
       <c r="G58" s="28"/>
-      <c r="H58" s="53"/>
+      <c r="H58" s="17"/>
     </row>
     <row r="59" spans="1:8" ht="66" customHeight="1">
       <c r="A59" s="17"/>
@@ -20597,7 +20847,7 @@
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
       <c r="G59" s="28"/>
-      <c r="H59" s="53"/>
+      <c r="H59" s="17"/>
     </row>
     <row r="60" spans="1:8" ht="66" customHeight="1">
       <c r="A60" s="17"/>
@@ -20607,7 +20857,7 @@
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
       <c r="G60" s="28"/>
-      <c r="H60" s="53"/>
+      <c r="H60" s="17"/>
     </row>
     <row r="61" spans="1:8" ht="66" customHeight="1">
       <c r="A61" s="17"/>
@@ -20617,7 +20867,7 @@
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
       <c r="G61" s="28"/>
-      <c r="H61" s="53"/>
+      <c r="H61" s="17"/>
     </row>
     <row r="62" spans="1:8" ht="66" customHeight="1">
       <c r="A62" s="17"/>
@@ -20627,7 +20877,7 @@
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
       <c r="G62" s="28"/>
-      <c r="H62" s="53"/>
+      <c r="H62" s="17"/>
     </row>
     <row r="63" spans="1:8" ht="66" customHeight="1">
       <c r="A63" s="17"/>
@@ -20637,7 +20887,7 @@
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="28"/>
-      <c r="H63" s="53"/>
+      <c r="H63" s="17"/>
     </row>
     <row r="64" spans="1:8" ht="66" customHeight="1">
       <c r="A64" s="17"/>
@@ -20647,7 +20897,7 @@
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
       <c r="G64" s="28"/>
-      <c r="H64" s="53"/>
+      <c r="H64" s="17"/>
     </row>
     <row r="65" spans="1:8" ht="66" customHeight="1">
       <c r="A65" s="17"/>
@@ -20657,7 +20907,7 @@
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
       <c r="G65" s="28"/>
-      <c r="H65" s="53"/>
+      <c r="H65" s="17"/>
     </row>
     <row r="66" spans="1:8" ht="66" customHeight="1">
       <c r="A66" s="17"/>
@@ -20667,7 +20917,7 @@
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
       <c r="G66" s="28"/>
-      <c r="H66" s="53"/>
+      <c r="H66" s="17"/>
     </row>
     <row r="67" spans="1:8" ht="66" customHeight="1">
       <c r="A67" s="17"/>
@@ -20677,7 +20927,7 @@
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
       <c r="G67" s="28"/>
-      <c r="H67" s="53"/>
+      <c r="H67" s="17"/>
     </row>
     <row r="68" spans="1:8" ht="66" customHeight="1">
       <c r="A68" s="17"/>
@@ -20687,7 +20937,7 @@
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
       <c r="G68" s="28"/>
-      <c r="H68" s="53"/>
+      <c r="H68" s="17"/>
     </row>
     <row r="69" spans="1:8" ht="66" customHeight="1">
       <c r="A69" s="17"/>
@@ -20697,7 +20947,7 @@
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
       <c r="G69" s="28"/>
-      <c r="H69" s="53"/>
+      <c r="H69" s="17"/>
     </row>
     <row r="70" spans="1:8" ht="66" customHeight="1">
       <c r="A70" s="17"/>
@@ -20707,7 +20957,7 @@
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
       <c r="G70" s="28"/>
-      <c r="H70" s="53"/>
+      <c r="H70" s="17"/>
     </row>
     <row r="71" spans="1:8" ht="66" customHeight="1">
       <c r="A71" s="17"/>
@@ -20717,7 +20967,7 @@
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
       <c r="G71" s="28"/>
-      <c r="H71" s="53"/>
+      <c r="H71" s="17"/>
     </row>
     <row r="72" spans="1:8" ht="66" customHeight="1">
       <c r="A72" s="17"/>
@@ -20727,7 +20977,7 @@
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
       <c r="G72" s="28"/>
-      <c r="H72" s="53"/>
+      <c r="H72" s="17"/>
     </row>
     <row r="73" spans="1:8" ht="66" customHeight="1">
       <c r="A73" s="17"/>
@@ -20737,7 +20987,7 @@
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
       <c r="G73" s="28"/>
-      <c r="H73" s="53"/>
+      <c r="H73" s="17"/>
     </row>
     <row r="74" spans="1:8" ht="66" customHeight="1">
       <c r="A74" s="17"/>
@@ -20747,7 +20997,7 @@
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
       <c r="G74" s="28"/>
-      <c r="H74" s="53"/>
+      <c r="H74" s="17"/>
     </row>
     <row r="75" spans="1:8" ht="66" customHeight="1">
       <c r="A75" s="17"/>
@@ -20757,7 +21007,7 @@
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
       <c r="G75" s="28"/>
-      <c r="H75" s="53"/>
+      <c r="H75" s="17"/>
     </row>
     <row r="76" spans="1:8" ht="66" customHeight="1">
       <c r="A76" s="17"/>
@@ -20767,7 +21017,7 @@
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
       <c r="G76" s="28"/>
-      <c r="H76" s="53"/>
+      <c r="H76" s="17"/>
     </row>
     <row r="77" spans="1:8" ht="66" customHeight="1">
       <c r="A77" s="17"/>
@@ -20777,7 +21027,7 @@
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
       <c r="G77" s="28"/>
-      <c r="H77" s="53"/>
+      <c r="H77" s="17"/>
     </row>
     <row r="78" spans="1:8" ht="66" customHeight="1">
       <c r="A78" s="17"/>
@@ -20787,7 +21037,7 @@
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
       <c r="G78" s="28"/>
-      <c r="H78" s="53"/>
+      <c r="H78" s="17"/>
     </row>
     <row r="79" spans="1:8" ht="66" customHeight="1">
       <c r="A79" s="17"/>
@@ -20797,7 +21047,7 @@
       <c r="E79" s="16"/>
       <c r="F79" s="16"/>
       <c r="G79" s="28"/>
-      <c r="H79" s="53"/>
+      <c r="H79" s="17"/>
     </row>
     <row r="80" spans="1:8" ht="66" customHeight="1">
       <c r="A80" s="17"/>
@@ -20807,7 +21057,7 @@
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
       <c r="G80" s="28"/>
-      <c r="H80" s="53"/>
+      <c r="H80" s="17"/>
     </row>
     <row r="81" spans="1:8" ht="66" customHeight="1">
       <c r="A81" s="17"/>
@@ -20817,7 +21067,7 @@
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
       <c r="G81" s="28"/>
-      <c r="H81" s="53"/>
+      <c r="H81" s="17"/>
     </row>
     <row r="82" spans="1:8" ht="66" customHeight="1">
       <c r="A82" s="17"/>
@@ -20827,7 +21077,7 @@
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
       <c r="G82" s="28"/>
-      <c r="H82" s="53"/>
+      <c r="H82" s="17"/>
     </row>
     <row r="83" spans="1:8" ht="66" customHeight="1">
       <c r="A83" s="17"/>
@@ -20837,7 +21087,7 @@
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
       <c r="G83" s="28"/>
-      <c r="H83" s="53"/>
+      <c r="H83" s="17"/>
     </row>
     <row r="84" spans="1:8" ht="66" customHeight="1">
       <c r="A84" s="17"/>
@@ -20847,7 +21097,7 @@
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
       <c r="G84" s="28"/>
-      <c r="H84" s="53"/>
+      <c r="H84" s="17"/>
     </row>
     <row r="85" spans="1:8" ht="66" customHeight="1">
       <c r="A85" s="17"/>
@@ -20857,7 +21107,7 @@
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
       <c r="G85" s="28"/>
-      <c r="H85" s="53"/>
+      <c r="H85" s="17"/>
     </row>
     <row r="86" spans="1:8" ht="66" customHeight="1">
       <c r="A86" s="17"/>
@@ -20867,7 +21117,7 @@
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
       <c r="G86" s="28"/>
-      <c r="H86" s="53"/>
+      <c r="H86" s="17"/>
     </row>
     <row r="87" spans="1:8" ht="66" customHeight="1">
       <c r="A87" s="17"/>
@@ -20877,7 +21127,7 @@
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
       <c r="G87" s="28"/>
-      <c r="H87" s="53"/>
+      <c r="H87" s="17"/>
     </row>
     <row r="88" spans="1:8" ht="66" customHeight="1">
       <c r="A88" s="17"/>
@@ -20887,7 +21137,7 @@
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
       <c r="G88" s="28"/>
-      <c r="H88" s="53"/>
+      <c r="H88" s="17"/>
     </row>
     <row r="89" spans="1:8" ht="66" customHeight="1">
       <c r="A89" s="17"/>
@@ -20897,7 +21147,7 @@
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
       <c r="G89" s="28"/>
-      <c r="H89" s="53"/>
+      <c r="H89" s="17"/>
     </row>
     <row r="90" spans="1:8" ht="66" customHeight="1">
       <c r="A90" s="17"/>
@@ -20907,7 +21157,7 @@
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
       <c r="G90" s="28"/>
-      <c r="H90" s="53"/>
+      <c r="H90" s="17"/>
     </row>
     <row r="91" spans="1:8" ht="66" customHeight="1">
       <c r="A91" s="17"/>
@@ -20917,7 +21167,7 @@
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
       <c r="G91" s="28"/>
-      <c r="H91" s="53"/>
+      <c r="H91" s="17"/>
     </row>
     <row r="92" spans="1:8" ht="66" customHeight="1">
       <c r="A92" s="17"/>
@@ -20927,7 +21177,7 @@
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
       <c r="G92" s="28"/>
-      <c r="H92" s="53"/>
+      <c r="H92" s="17"/>
     </row>
     <row r="93" spans="1:8" ht="66" customHeight="1">
       <c r="A93" s="17"/>
@@ -20937,7 +21187,7 @@
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
       <c r="G93" s="28"/>
-      <c r="H93" s="53"/>
+      <c r="H93" s="17"/>
     </row>
     <row r="94" spans="1:8" ht="66" customHeight="1">
       <c r="A94" s="17"/>
@@ -20947,7 +21197,7 @@
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
       <c r="G94" s="28"/>
-      <c r="H94" s="53"/>
+      <c r="H94" s="17"/>
     </row>
     <row r="95" spans="1:8" ht="66" customHeight="1">
       <c r="A95" s="17"/>
@@ -20957,7 +21207,7 @@
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
       <c r="G95" s="28"/>
-      <c r="H95" s="53"/>
+      <c r="H95" s="17"/>
     </row>
     <row r="96" spans="1:8" ht="66" customHeight="1">
       <c r="A96" s="17"/>
@@ -20967,7 +21217,7 @@
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
       <c r="G96" s="28"/>
-      <c r="H96" s="53"/>
+      <c r="H96" s="17"/>
     </row>
     <row r="97" spans="1:8" ht="66" customHeight="1">
       <c r="A97" s="17"/>
@@ -20977,7 +21227,7 @@
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
       <c r="G97" s="28"/>
-      <c r="H97" s="53"/>
+      <c r="H97" s="17"/>
     </row>
     <row r="98" spans="1:8" ht="66" customHeight="1">
       <c r="A98" s="17"/>
@@ -20987,7 +21237,7 @@
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
       <c r="G98" s="28"/>
-      <c r="H98" s="53"/>
+      <c r="H98" s="17"/>
     </row>
     <row r="99" spans="1:8" ht="66" customHeight="1">
       <c r="A99" s="17"/>
@@ -20997,7 +21247,7 @@
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
       <c r="G99" s="28"/>
-      <c r="H99" s="53"/>
+      <c r="H99" s="17"/>
     </row>
     <row r="100" spans="1:8" ht="66" customHeight="1">
       <c r="A100" s="17"/>
@@ -21007,7 +21257,7 @@
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
       <c r="G100" s="28"/>
-      <c r="H100" s="53"/>
+      <c r="H100" s="17"/>
     </row>
     <row r="101" spans="1:8" ht="66" customHeight="1">
       <c r="A101" s="17"/>
@@ -21017,7 +21267,7 @@
       <c r="E101" s="16"/>
       <c r="F101" s="16"/>
       <c r="G101" s="28"/>
-      <c r="H101" s="53"/>
+      <c r="H101" s="17"/>
     </row>
     <row r="102" spans="1:8" ht="66" customHeight="1">
       <c r="A102" s="17"/>
@@ -21027,7 +21277,7 @@
       <c r="E102" s="16"/>
       <c r="F102" s="16"/>
       <c r="G102" s="28"/>
-      <c r="H102" s="53"/>
+      <c r="H102" s="17"/>
     </row>
     <row r="103" spans="1:8" ht="66" customHeight="1">
       <c r="A103" s="17"/>
@@ -21037,7 +21287,7 @@
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
       <c r="G103" s="28"/>
-      <c r="H103" s="53"/>
+      <c r="H103" s="17"/>
     </row>
     <row r="104" spans="1:8" ht="66" customHeight="1">
       <c r="A104" s="17"/>
@@ -21047,7 +21297,7 @@
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
       <c r="G104" s="28"/>
-      <c r="H104" s="53"/>
+      <c r="H104" s="17"/>
     </row>
     <row r="105" spans="1:8" ht="66" customHeight="1">
       <c r="A105" s="17"/>
@@ -21057,7 +21307,7 @@
       <c r="E105" s="16"/>
       <c r="F105" s="16"/>
       <c r="G105" s="28"/>
-      <c r="H105" s="53"/>
+      <c r="H105" s="17"/>
     </row>
     <row r="106" spans="1:8" ht="66" customHeight="1">
       <c r="A106" s="17"/>
@@ -21067,7 +21317,7 @@
       <c r="E106" s="16"/>
       <c r="F106" s="16"/>
       <c r="G106" s="28"/>
-      <c r="H106" s="53"/>
+      <c r="H106" s="17"/>
     </row>
     <row r="107" spans="1:8" ht="66" customHeight="1">
       <c r="A107" s="17"/>
@@ -21077,7 +21327,7 @@
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
       <c r="G107" s="28"/>
-      <c r="H107" s="53"/>
+      <c r="H107" s="17"/>
     </row>
     <row r="108" spans="1:8" ht="66" customHeight="1">
       <c r="A108" s="17"/>
@@ -21087,7 +21337,7 @@
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
       <c r="G108" s="28"/>
-      <c r="H108" s="53"/>
+      <c r="H108" s="17"/>
     </row>
     <row r="109" spans="1:8" ht="66" customHeight="1">
       <c r="A109" s="17"/>
@@ -21097,7 +21347,7 @@
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
       <c r="G109" s="28"/>
-      <c r="H109" s="53"/>
+      <c r="H109" s="17"/>
     </row>
     <row r="110" spans="1:8" ht="66" customHeight="1">
       <c r="A110" s="17"/>
@@ -21107,7 +21357,7 @@
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
       <c r="G110" s="28"/>
-      <c r="H110" s="53"/>
+      <c r="H110" s="17"/>
     </row>
     <row r="111" spans="1:8" ht="66" customHeight="1">
       <c r="A111" s="17"/>
@@ -21117,7 +21367,7 @@
       <c r="E111" s="16"/>
       <c r="F111" s="16"/>
       <c r="G111" s="28"/>
-      <c r="H111" s="53"/>
+      <c r="H111" s="17"/>
     </row>
     <row r="112" spans="1:8" ht="66" customHeight="1">
       <c r="A112" s="17"/>
@@ -21127,7 +21377,7 @@
       <c r="E112" s="16"/>
       <c r="F112" s="16"/>
       <c r="G112" s="28"/>
-      <c r="H112" s="53"/>
+      <c r="H112" s="17"/>
     </row>
     <row r="113" spans="1:8" ht="66" customHeight="1">
       <c r="A113" s="17"/>
@@ -21137,7 +21387,7 @@
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
       <c r="G113" s="28"/>
-      <c r="H113" s="53"/>
+      <c r="H113" s="17"/>
     </row>
     <row r="114" spans="1:8" ht="66" customHeight="1">
       <c r="A114" s="17"/>
@@ -21147,7 +21397,7 @@
       <c r="E114" s="16"/>
       <c r="F114" s="16"/>
       <c r="G114" s="28"/>
-      <c r="H114" s="53"/>
+      <c r="H114" s="17"/>
     </row>
     <row r="115" spans="1:8" ht="66" customHeight="1">
       <c r="A115" s="17"/>
@@ -21157,7 +21407,7 @@
       <c r="E115" s="16"/>
       <c r="F115" s="16"/>
       <c r="G115" s="28"/>
-      <c r="H115" s="53"/>
+      <c r="H115" s="17"/>
     </row>
     <row r="116" spans="1:8" ht="66" customHeight="1">
       <c r="A116" s="17"/>
@@ -21167,7 +21417,7 @@
       <c r="E116" s="16"/>
       <c r="F116" s="16"/>
       <c r="G116" s="28"/>
-      <c r="H116" s="53"/>
+      <c r="H116" s="17"/>
     </row>
     <row r="117" spans="1:8" ht="66" customHeight="1">
       <c r="A117" s="17"/>
@@ -21177,7 +21427,7 @@
       <c r="E117" s="16"/>
       <c r="F117" s="16"/>
       <c r="G117" s="28"/>
-      <c r="H117" s="53"/>
+      <c r="H117" s="17"/>
     </row>
     <row r="118" spans="1:8" ht="66" customHeight="1">
       <c r="A118" s="17"/>
@@ -21187,7 +21437,7 @@
       <c r="E118" s="16"/>
       <c r="F118" s="16"/>
       <c r="G118" s="28"/>
-      <c r="H118" s="53"/>
+      <c r="H118" s="17"/>
     </row>
     <row r="119" spans="1:8" ht="66" customHeight="1">
       <c r="A119" s="17"/>
@@ -21197,7 +21447,7 @@
       <c r="E119" s="16"/>
       <c r="F119" s="16"/>
       <c r="G119" s="28"/>
-      <c r="H119" s="53"/>
+      <c r="H119" s="17"/>
     </row>
     <row r="120" spans="1:8" ht="66" customHeight="1">
       <c r="A120" s="17"/>
@@ -21207,7 +21457,7 @@
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
       <c r="G120" s="28"/>
-      <c r="H120" s="53"/>
+      <c r="H120" s="17"/>
     </row>
     <row r="121" spans="1:8" ht="66" customHeight="1">
       <c r="A121" s="17"/>
@@ -21217,7 +21467,7 @@
       <c r="E121" s="16"/>
       <c r="F121" s="16"/>
       <c r="G121" s="28"/>
-      <c r="H121" s="53"/>
+      <c r="H121" s="17"/>
     </row>
     <row r="122" spans="1:8" ht="66" customHeight="1">
       <c r="A122" s="17"/>
@@ -21227,7 +21477,7 @@
       <c r="E122" s="16"/>
       <c r="F122" s="16"/>
       <c r="G122" s="28"/>
-      <c r="H122" s="53"/>
+      <c r="H122" s="17"/>
     </row>
     <row r="123" spans="1:8" ht="66" customHeight="1">
       <c r="A123" s="17"/>
@@ -21237,7 +21487,7 @@
       <c r="E123" s="16"/>
       <c r="F123" s="16"/>
       <c r="G123" s="28"/>
-      <c r="H123" s="53"/>
+      <c r="H123" s="17"/>
     </row>
     <row r="124" spans="1:8" ht="66" customHeight="1">
       <c r="A124" s="17"/>
@@ -21247,7 +21497,7 @@
       <c r="E124" s="16"/>
       <c r="F124" s="16"/>
       <c r="G124" s="28"/>
-      <c r="H124" s="53"/>
+      <c r="H124" s="17"/>
     </row>
     <row r="125" spans="1:8" ht="66" customHeight="1">
       <c r="A125" s="17"/>
@@ -21257,7 +21507,7 @@
       <c r="E125" s="16"/>
       <c r="F125" s="16"/>
       <c r="G125" s="28"/>
-      <c r="H125" s="53"/>
+      <c r="H125" s="17"/>
     </row>
     <row r="126" spans="1:8" ht="66" customHeight="1">
       <c r="A126" s="17"/>
@@ -21267,7 +21517,7 @@
       <c r="E126" s="16"/>
       <c r="F126" s="16"/>
       <c r="G126" s="28"/>
-      <c r="H126" s="53"/>
+      <c r="H126" s="17"/>
     </row>
     <row r="127" spans="1:8" ht="66" customHeight="1">
       <c r="A127" s="17"/>
@@ -21277,7 +21527,7 @@
       <c r="E127" s="16"/>
       <c r="F127" s="16"/>
       <c r="G127" s="28"/>
-      <c r="H127" s="53"/>
+      <c r="H127" s="17"/>
     </row>
     <row r="128" spans="1:8" ht="66" customHeight="1">
       <c r="A128" s="17"/>
@@ -21287,7 +21537,7 @@
       <c r="E128" s="16"/>
       <c r="F128" s="16"/>
       <c r="G128" s="28"/>
-      <c r="H128" s="53"/>
+      <c r="H128" s="17"/>
     </row>
     <row r="129" spans="1:8" ht="66" customHeight="1">
       <c r="A129" s="17"/>
@@ -21297,7 +21547,7 @@
       <c r="E129" s="16"/>
       <c r="F129" s="16"/>
       <c r="G129" s="28"/>
-      <c r="H129" s="53"/>
+      <c r="H129" s="17"/>
     </row>
     <row r="130" spans="1:8" ht="66" customHeight="1">
       <c r="A130" s="17"/>
@@ -21307,7 +21557,7 @@
       <c r="E130" s="16"/>
       <c r="F130" s="16"/>
       <c r="G130" s="28"/>
-      <c r="H130" s="53"/>
+      <c r="H130" s="17"/>
     </row>
     <row r="131" spans="1:8" ht="66" customHeight="1">
       <c r="A131" s="17"/>
@@ -21317,7 +21567,7 @@
       <c r="E131" s="16"/>
       <c r="F131" s="16"/>
       <c r="G131" s="28"/>
-      <c r="H131" s="53"/>
+      <c r="H131" s="17"/>
     </row>
     <row r="132" spans="1:8" ht="66" customHeight="1">
       <c r="A132" s="17"/>
@@ -21327,7 +21577,7 @@
       <c r="E132" s="16"/>
       <c r="F132" s="16"/>
       <c r="G132" s="28"/>
-      <c r="H132" s="53"/>
+      <c r="H132" s="17"/>
     </row>
     <row r="133" spans="1:8" ht="66" customHeight="1">
       <c r="A133" s="17"/>
@@ -21337,7 +21587,7 @@
       <c r="E133" s="16"/>
       <c r="F133" s="16"/>
       <c r="G133" s="28"/>
-      <c r="H133" s="53"/>
+      <c r="H133" s="17"/>
     </row>
     <row r="134" spans="1:8" ht="66" customHeight="1">
       <c r="A134" s="17"/>
@@ -21347,7 +21597,7 @@
       <c r="E134" s="16"/>
       <c r="F134" s="16"/>
       <c r="G134" s="28"/>
-      <c r="H134" s="53"/>
+      <c r="H134" s="17"/>
     </row>
     <row r="135" spans="1:8" ht="66" customHeight="1">
       <c r="A135" s="17"/>
@@ -21357,7 +21607,7 @@
       <c r="E135" s="16"/>
       <c r="F135" s="16"/>
       <c r="G135" s="28"/>
-      <c r="H135" s="53"/>
+      <c r="H135" s="17"/>
     </row>
     <row r="136" spans="1:8" ht="66" customHeight="1">
       <c r="A136" s="17"/>
@@ -21367,7 +21617,7 @@
       <c r="E136" s="16"/>
       <c r="F136" s="16"/>
       <c r="G136" s="28"/>
-      <c r="H136" s="53"/>
+      <c r="H136" s="17"/>
     </row>
     <row r="137" spans="1:8" ht="66" customHeight="1">
       <c r="A137" s="17"/>
@@ -21377,7 +21627,7 @@
       <c r="E137" s="16"/>
       <c r="F137" s="16"/>
       <c r="G137" s="28"/>
-      <c r="H137" s="53"/>
+      <c r="H137" s="17"/>
     </row>
     <row r="138" spans="1:8" ht="66" customHeight="1">
       <c r="A138" s="17"/>
@@ -21387,7 +21637,7 @@
       <c r="E138" s="16"/>
       <c r="F138" s="16"/>
       <c r="G138" s="28"/>
-      <c r="H138" s="53"/>
+      <c r="H138" s="17"/>
     </row>
     <row r="139" spans="1:8" ht="66" customHeight="1">
       <c r="A139" s="17"/>
@@ -21397,7 +21647,7 @@
       <c r="E139" s="16"/>
       <c r="F139" s="16"/>
       <c r="G139" s="28"/>
-      <c r="H139" s="53"/>
+      <c r="H139" s="17"/>
     </row>
     <row r="140" spans="1:8" ht="66" customHeight="1">
       <c r="A140" s="17"/>
@@ -21407,7 +21657,7 @@
       <c r="E140" s="16"/>
       <c r="F140" s="16"/>
       <c r="G140" s="28"/>
-      <c r="H140" s="53"/>
+      <c r="H140" s="17"/>
     </row>
     <row r="141" spans="1:8" ht="66" customHeight="1">
       <c r="A141" s="17"/>
@@ -21417,7 +21667,7 @@
       <c r="E141" s="16"/>
       <c r="F141" s="16"/>
       <c r="G141" s="28"/>
-      <c r="H141" s="53"/>
+      <c r="H141" s="17"/>
     </row>
     <row r="142" spans="1:8" ht="66" customHeight="1">
       <c r="A142" s="17"/>
@@ -21427,7 +21677,7 @@
       <c r="E142" s="16"/>
       <c r="F142" s="16"/>
       <c r="G142" s="28"/>
-      <c r="H142" s="53"/>
+      <c r="H142" s="17"/>
     </row>
     <row r="143" spans="1:8" ht="66" customHeight="1">
       <c r="A143" s="17"/>
@@ -21437,7 +21687,7 @@
       <c r="E143" s="16"/>
       <c r="F143" s="16"/>
       <c r="G143" s="28"/>
-      <c r="H143" s="53"/>
+      <c r="H143" s="17"/>
     </row>
     <row r="144" spans="1:8" ht="66" customHeight="1">
       <c r="A144" s="17"/>
@@ -21447,7 +21697,7 @@
       <c r="E144" s="16"/>
       <c r="F144" s="16"/>
       <c r="G144" s="28"/>
-      <c r="H144" s="53"/>
+      <c r="H144" s="17"/>
     </row>
     <row r="145" spans="1:8" ht="66" customHeight="1">
       <c r="A145" s="17"/>
@@ -21457,7 +21707,7 @@
       <c r="E145" s="16"/>
       <c r="F145" s="16"/>
       <c r="G145" s="28"/>
-      <c r="H145" s="53"/>
+      <c r="H145" s="17"/>
     </row>
     <row r="146" spans="1:8" ht="66" customHeight="1">
       <c r="A146" s="17"/>
@@ -21467,7 +21717,7 @@
       <c r="E146" s="16"/>
       <c r="F146" s="16"/>
       <c r="G146" s="28"/>
-      <c r="H146" s="53"/>
+      <c r="H146" s="17"/>
     </row>
     <row r="147" spans="1:8" ht="66" customHeight="1">
       <c r="A147" s="17"/>
@@ -21477,7 +21727,7 @@
       <c r="E147" s="16"/>
       <c r="F147" s="16"/>
       <c r="G147" s="28"/>
-      <c r="H147" s="53"/>
+      <c r="H147" s="17"/>
     </row>
     <row r="148" spans="1:8" ht="66" customHeight="1">
       <c r="A148" s="17"/>
@@ -21487,7 +21737,7 @@
       <c r="E148" s="16"/>
       <c r="F148" s="16"/>
       <c r="G148" s="28"/>
-      <c r="H148" s="53"/>
+      <c r="H148" s="17"/>
     </row>
     <row r="149" spans="1:8" ht="66" customHeight="1">
       <c r="A149" s="17"/>
@@ -21497,7 +21747,7 @@
       <c r="E149" s="16"/>
       <c r="F149" s="16"/>
       <c r="G149" s="28"/>
-      <c r="H149" s="53"/>
+      <c r="H149" s="17"/>
     </row>
     <row r="150" spans="1:8" ht="66" customHeight="1">
       <c r="A150" s="17"/>
@@ -21507,7 +21757,7 @@
       <c r="E150" s="16"/>
       <c r="F150" s="16"/>
       <c r="G150" s="28"/>
-      <c r="H150" s="53"/>
+      <c r="H150" s="17"/>
     </row>
     <row r="151" spans="1:8" ht="66" customHeight="1">
       <c r="A151" s="17"/>
@@ -21517,7 +21767,7 @@
       <c r="E151" s="16"/>
       <c r="F151" s="16"/>
       <c r="G151" s="28"/>
-      <c r="H151" s="53"/>
+      <c r="H151" s="17"/>
     </row>
     <row r="152" spans="1:8" ht="66" customHeight="1">
       <c r="A152" s="17"/>
@@ -21527,7 +21777,7 @@
       <c r="E152" s="16"/>
       <c r="F152" s="16"/>
       <c r="G152" s="28"/>
-      <c r="H152" s="53"/>
+      <c r="H152" s="17"/>
     </row>
     <row r="153" spans="1:8" ht="66" customHeight="1">
       <c r="A153" s="17"/>
@@ -21537,7 +21787,7 @@
       <c r="E153" s="16"/>
       <c r="F153" s="16"/>
       <c r="G153" s="28"/>
-      <c r="H153" s="53"/>
+      <c r="H153" s="17"/>
     </row>
     <row r="154" spans="1:8" ht="66" customHeight="1">
       <c r="A154" s="17"/>
@@ -21547,7 +21797,7 @@
       <c r="E154" s="16"/>
       <c r="F154" s="16"/>
       <c r="G154" s="28"/>
-      <c r="H154" s="53"/>
+      <c r="H154" s="17"/>
     </row>
     <row r="155" spans="1:8" ht="66" customHeight="1">
       <c r="A155" s="17"/>
@@ -21557,7 +21807,7 @@
       <c r="E155" s="16"/>
       <c r="F155" s="16"/>
       <c r="G155" s="28"/>
-      <c r="H155" s="53"/>
+      <c r="H155" s="17"/>
     </row>
     <row r="156" spans="1:8" ht="66" customHeight="1">
       <c r="A156" s="17"/>
@@ -21567,7 +21817,7 @@
       <c r="E156" s="16"/>
       <c r="F156" s="16"/>
       <c r="G156" s="28"/>
-      <c r="H156" s="53"/>
+      <c r="H156" s="17"/>
     </row>
     <row r="157" spans="1:8" ht="66" customHeight="1">
       <c r="A157" s="17"/>
@@ -21577,7 +21827,7 @@
       <c r="E157" s="16"/>
       <c r="F157" s="16"/>
       <c r="G157" s="28"/>
-      <c r="H157" s="53"/>
+      <c r="H157" s="17"/>
     </row>
     <row r="158" spans="1:8" ht="66" customHeight="1">
       <c r="A158" s="17"/>
@@ -21587,7 +21837,7 @@
       <c r="E158" s="16"/>
       <c r="F158" s="16"/>
       <c r="G158" s="28"/>
-      <c r="H158" s="53"/>
+      <c r="H158" s="17"/>
     </row>
     <row r="159" spans="1:8" ht="66" customHeight="1">
       <c r="A159" s="17"/>
@@ -21597,7 +21847,7 @@
       <c r="E159" s="16"/>
       <c r="F159" s="16"/>
       <c r="G159" s="28"/>
-      <c r="H159" s="53"/>
+      <c r="H159" s="17"/>
     </row>
     <row r="160" spans="1:8" ht="66" customHeight="1">
       <c r="A160" s="17"/>
@@ -21607,7 +21857,7 @@
       <c r="E160" s="16"/>
       <c r="F160" s="16"/>
       <c r="G160" s="28"/>
-      <c r="H160" s="53"/>
+      <c r="H160" s="17"/>
     </row>
     <row r="161" spans="1:8" ht="66" customHeight="1">
       <c r="A161" s="17"/>
@@ -21617,7 +21867,7 @@
       <c r="E161" s="16"/>
       <c r="F161" s="16"/>
       <c r="G161" s="28"/>
-      <c r="H161" s="53"/>
+      <c r="H161" s="17"/>
     </row>
     <row r="162" spans="1:8" ht="66" customHeight="1">
       <c r="A162" s="17"/>
@@ -21627,7 +21877,7 @@
       <c r="E162" s="16"/>
       <c r="F162" s="16"/>
       <c r="G162" s="28"/>
-      <c r="H162" s="53"/>
+      <c r="H162" s="17"/>
     </row>
     <row r="163" spans="1:8" ht="66" customHeight="1">
       <c r="A163" s="17"/>
@@ -21637,7 +21887,7 @@
       <c r="E163" s="16"/>
       <c r="F163" s="16"/>
       <c r="G163" s="28"/>
-      <c r="H163" s="53"/>
+      <c r="H163" s="17"/>
     </row>
     <row r="164" spans="1:8" ht="66" customHeight="1">
       <c r="A164" s="17"/>
@@ -21647,7 +21897,7 @@
       <c r="E164" s="16"/>
       <c r="F164" s="16"/>
       <c r="G164" s="28"/>
-      <c r="H164" s="53"/>
+      <c r="H164" s="17"/>
     </row>
     <row r="165" spans="1:8" ht="66" customHeight="1">
       <c r="A165" s="17"/>
@@ -21657,7 +21907,7 @@
       <c r="E165" s="16"/>
       <c r="F165" s="16"/>
       <c r="G165" s="28"/>
-      <c r="H165" s="53"/>
+      <c r="H165" s="17"/>
     </row>
     <row r="166" spans="1:8" ht="66" customHeight="1">
       <c r="A166" s="17"/>
@@ -21667,7 +21917,7 @@
       <c r="E166" s="16"/>
       <c r="F166" s="16"/>
       <c r="G166" s="28"/>
-      <c r="H166" s="53"/>
+      <c r="H166" s="17"/>
     </row>
     <row r="167" spans="1:8" ht="66" customHeight="1">
       <c r="A167" s="17"/>
@@ -21677,7 +21927,7 @@
       <c r="E167" s="16"/>
       <c r="F167" s="16"/>
       <c r="G167" s="28"/>
-      <c r="H167" s="53"/>
+      <c r="H167" s="17"/>
     </row>
     <row r="168" spans="1:8" ht="66" customHeight="1">
       <c r="A168" s="17"/>
@@ -21687,7 +21937,7 @@
       <c r="E168" s="16"/>
       <c r="F168" s="16"/>
       <c r="G168" s="28"/>
-      <c r="H168" s="53"/>
+      <c r="H168" s="17"/>
     </row>
     <row r="169" spans="1:8" ht="66" customHeight="1">
       <c r="A169" s="17"/>
@@ -21697,7 +21947,7 @@
       <c r="E169" s="16"/>
       <c r="F169" s="16"/>
       <c r="G169" s="28"/>
-      <c r="H169" s="53"/>
+      <c r="H169" s="17"/>
     </row>
     <row r="170" spans="1:8" ht="66" customHeight="1">
       <c r="A170" s="17"/>
@@ -21707,7 +21957,7 @@
       <c r="E170" s="16"/>
       <c r="F170" s="16"/>
       <c r="G170" s="28"/>
-      <c r="H170" s="53"/>
+      <c r="H170" s="17"/>
     </row>
     <row r="171" spans="1:8" ht="66" customHeight="1">
       <c r="A171" s="53"/>
@@ -21717,7 +21967,7 @@
       <c r="E171" s="53"/>
       <c r="F171" s="53"/>
       <c r="G171" s="53"/>
-      <c r="H171" s="53"/>
+      <c r="H171" s="17"/>
     </row>
     <row r="172" spans="1:8" ht="66" customHeight="1">
       <c r="A172" s="53"/>
@@ -21727,7 +21977,7 @@
       <c r="E172" s="53"/>
       <c r="F172" s="53"/>
       <c r="G172" s="53"/>
-      <c r="H172" s="53"/>
+      <c r="H172" s="17"/>
     </row>
     <row r="173" spans="1:8" ht="66" customHeight="1">
       <c r="A173" s="53"/>
@@ -21737,7 +21987,7 @@
       <c r="E173" s="53"/>
       <c r="F173" s="53"/>
       <c r="G173" s="53"/>
-      <c r="H173" s="53"/>
+      <c r="H173" s="17"/>
     </row>
     <row r="174" spans="1:8" ht="66" customHeight="1">
       <c r="A174" s="53"/>
@@ -21747,7 +21997,7 @@
       <c r="E174" s="53"/>
       <c r="F174" s="53"/>
       <c r="G174" s="53"/>
-      <c r="H174" s="53"/>
+      <c r="H174" s="17"/>
     </row>
     <row r="175" spans="1:8" ht="66" customHeight="1">
       <c r="A175" s="53"/>
@@ -21757,7 +22007,7 @@
       <c r="E175" s="53"/>
       <c r="F175" s="53"/>
       <c r="G175" s="53"/>
-      <c r="H175" s="53"/>
+      <c r="H175" s="17"/>
     </row>
     <row r="176" spans="1:8" ht="66" customHeight="1">
       <c r="A176" s="53"/>
@@ -21767,7 +22017,7 @@
       <c r="E176" s="53"/>
       <c r="F176" s="53"/>
       <c r="G176" s="53"/>
-      <c r="H176" s="53"/>
+      <c r="H176" s="17"/>
     </row>
     <row r="177" spans="1:8" ht="66" customHeight="1">
       <c r="A177" s="53"/>
@@ -21777,7 +22027,7 @@
       <c r="E177" s="53"/>
       <c r="F177" s="53"/>
       <c r="G177" s="53"/>
-      <c r="H177" s="53"/>
+      <c r="H177" s="17"/>
     </row>
     <row r="178" spans="1:8" ht="66" customHeight="1">
       <c r="A178" s="53"/>
@@ -21787,7 +22037,7 @@
       <c r="E178" s="53"/>
       <c r="F178" s="53"/>
       <c r="G178" s="53"/>
-      <c r="H178" s="53"/>
+      <c r="H178" s="17"/>
     </row>
     <row r="179" spans="1:8" ht="66" customHeight="1">
       <c r="A179" s="53"/>
@@ -21797,7 +22047,7 @@
       <c r="E179" s="53"/>
       <c r="F179" s="53"/>
       <c r="G179" s="53"/>
-      <c r="H179" s="53"/>
+      <c r="H179" s="17"/>
     </row>
     <row r="180" spans="1:8" ht="66" customHeight="1">
       <c r="A180" s="53"/>
@@ -21807,7 +22057,7 @@
       <c r="E180" s="53"/>
       <c r="F180" s="53"/>
       <c r="G180" s="53"/>
-      <c r="H180" s="53"/>
+      <c r="H180" s="17"/>
     </row>
     <row r="181" spans="1:8" ht="66" customHeight="1">
       <c r="A181" s="53"/>
@@ -21817,7 +22067,7 @@
       <c r="E181" s="53"/>
       <c r="F181" s="53"/>
       <c r="G181" s="53"/>
-      <c r="H181" s="53"/>
+      <c r="H181" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8C82A9-3EBC-7B4B-8F7F-351AF3A3A82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2A8E17-4F07-FD4A-BB1A-E2123EDFCCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="695">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9935,6 +9935,46 @@
   </si>
   <si>
     <t>便宜方走水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=23,输=49,走=0,输盘概率最大,为68.06%
+亚盘本联赛盘口:赢=0,输=2,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[0:0](11次)     [1:1](11次)     [2:1](8次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23哥甲第19轮</t>
+  </si>
+  <si>
+    <t>圣菲独立</t>
+  </si>
+  <si>
+    <t>修罗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=5,输=9,走=0,输盘概率最大,为64.29%
+亚盘本联赛盘口:赢=0,输=1,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[2:1](3次)     [3:0](2次)     [5:1](2次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23美职联第12轮</t>
+  </si>
+  <si>
+    <t>洛杉矶银河</t>
+  </si>
+  <si>
+    <t>圣何塞地震</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=3,输=1,走=0,赢盘概率最大,为75.00%
+亚盘本联赛盘口:赢=1,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[0:0](1次)     [3:2](1次)     [2:1](1次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜达拉哈拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10854,8 +10894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -14444,40 +14484,94 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="63" customHeight="1">
-      <c r="A120" s="17"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="28"/>
+      <c r="A120" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="B120" s="14">
+        <v>45061.378472222219</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F120" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="G120" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H120" s="28" t="s">
+        <v>685</v>
+      </c>
       <c r="I120" s="17"/>
-      <c r="J120" s="16"/>
+      <c r="J120" s="16" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="121" spans="1:10" ht="63" customHeight="1">
-      <c r="A121" s="17"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="28"/>
+      <c r="A121" s="17" t="s">
+        <v>686</v>
+      </c>
+      <c r="B121" s="14">
+        <v>45061.395833333336</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="F121" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="G121" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H121" s="28" t="s">
+        <v>689</v>
+      </c>
       <c r="I121" s="17"/>
-      <c r="J121" s="16"/>
+      <c r="J121" s="16" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="122" spans="1:10" ht="63" customHeight="1">
-      <c r="A122" s="17"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="28"/>
-      <c r="I122" s="17"/>
-      <c r="J122" s="16"/>
+      <c r="A122" s="78" t="s">
+        <v>690</v>
+      </c>
+      <c r="B122" s="79">
+        <v>45061.395833333336</v>
+      </c>
+      <c r="C122" s="78" t="s">
+        <v>691</v>
+      </c>
+      <c r="D122" s="78" t="s">
+        <v>692</v>
+      </c>
+      <c r="E122" s="80" t="s">
+        <v>257</v>
+      </c>
+      <c r="F122" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="80" t="s">
+        <v>533</v>
+      </c>
+      <c r="H122" s="81" t="s">
+        <v>693</v>
+      </c>
+      <c r="I122" s="78"/>
+      <c r="J122" s="80" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="123" spans="1:10" ht="63" customHeight="1">
       <c r="A123" s="17"/>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2A8E17-4F07-FD4A-BB1A-E2123EDFCCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C852D163-4212-3B4B-A9E7-F36424770263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="699">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9975,6 +9975,20 @@
   </si>
   <si>
     <t>瓜达拉哈拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23乌兹超第10轮</t>
+  </si>
+  <si>
+    <t>比克波德</t>
+  </si>
+  <si>
+    <t>纳萨夫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=1,输=6,走=0,输盘概率最大,为85.71%
+比分概率前三分别是：[1:2](3次)     [1:4](1次)     [0:0](1次)  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10895,7 +10909,7 @@
   <dimension ref="A1:J389"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+      <selection activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -14574,14 +14588,28 @@
       </c>
     </row>
     <row r="123" spans="1:10" ht="63" customHeight="1">
-      <c r="A123" s="17"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="16"/>
+      <c r="A123" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="B123" s="14">
+        <v>45061.916666666664</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>99</v>
+      </c>
       <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="28"/>
+      <c r="G123" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H123" s="28" t="s">
+        <v>698</v>
+      </c>
       <c r="I123" s="17"/>
       <c r="J123" s="16"/>
     </row>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C852D163-4212-3B4B-A9E7-F36424770263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B5FC2B-713E-E744-9CFD-CD8FB8137C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="719">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9989,6 +9989,82 @@
   <si>
     <t xml:space="preserve">亚盘全网盘口:赢=1,输=6,走=0,输盘概率最大,为85.71%
 比分概率前三分别是：[1:2](3次)     [1:4](1次)     [0:0](1次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索斯诺维茨</t>
+  </si>
+  <si>
+    <t>保德比斯基</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=10,输=2,走=0,赢盘概率最大,为83.33%
+比分概率前三分别是：[1:0](3次)     [1:1](2次)     [3:2](2次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马迪圭斯</t>
+  </si>
+  <si>
+    <t>南锡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=2,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[2:0](1次)     [1:0](1次) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIK索尔纳</t>
+  </si>
+  <si>
+    <t>IFK哥德堡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=52,输=35,走=0,赢盘概率最大,为59.77%
+亚盘本联赛盘口:赢=3,输=1,走=0,赢盘概率最大,为75.00%
+比分概率前三分别是：[1:0](20次)     [2:1](13次)     [1:1](12次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23阿甲第16轮</t>
+  </si>
+  <si>
+    <t>圣菲联合</t>
+  </si>
+  <si>
+    <t>萨米恩托</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=7,输=10,走=0,输盘概率最大,为58.82%
+亚盘本联赛盘口:赢=0,输=2,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[0:0](3次)     [2:0](2次)     [3:0](2次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利斯特雷</t>
+  </si>
+  <si>
+    <t>科多巴竞技</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=40,输=60,走=0,输盘概率最大,为60.00%
+亚盘本联赛盘口:赢=2,输=7,走=0,输盘概率最大,为77.78%
+比分概率前三分别是：[1:1](29次)     [2:1](11次)     [1:2](10次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23爱超第24轮</t>
+  </si>
+  <si>
+    <t>德里城</t>
+  </si>
+  <si>
+    <t>邓多克</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=35,输=46,走=26,输盘概率最大,为42.99%
+亚盘本联赛盘口:赢=0,输=2,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[1:0](18次)     [1:1](15次)     [2:0](12次)  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10908,8 +10984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G123" sqref="G123"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -14614,74 +14690,158 @@
       <c r="J123" s="16"/>
     </row>
     <row r="124" spans="1:10" ht="63" customHeight="1">
-      <c r="A124" s="17"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="16"/>
+      <c r="A124" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="B124" s="14">
+        <v>45062</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>101</v>
+      </c>
       <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="28"/>
+      <c r="G124" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="H124" s="28" t="s">
+        <v>701</v>
+      </c>
       <c r="I124" s="17"/>
       <c r="J124" s="16"/>
     </row>
     <row r="125" spans="1:10" ht="63" customHeight="1">
-      <c r="A125" s="17"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="16"/>
+      <c r="A125" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="B125" s="14">
+        <v>45062.020833333336</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>121</v>
+      </c>
       <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="28"/>
+      <c r="G125" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="H125" s="28" t="s">
+        <v>704</v>
+      </c>
       <c r="I125" s="17"/>
       <c r="J125" s="16"/>
     </row>
     <row r="126" spans="1:10" ht="63" customHeight="1">
-      <c r="A126" s="17"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="16"/>
+      <c r="A126" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="B126" s="14">
+        <v>45062.048611111109</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>183</v>
+      </c>
       <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="28"/>
+      <c r="G126" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="H126" s="28" t="s">
+        <v>707</v>
+      </c>
       <c r="I126" s="17"/>
       <c r="J126" s="16"/>
     </row>
     <row r="127" spans="1:10" ht="63" customHeight="1">
-      <c r="A127" s="17"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="16"/>
+      <c r="A127" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="B127" s="14">
+        <v>45062.104166666664</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>121</v>
+      </c>
       <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
-      <c r="H127" s="28"/>
+      <c r="G127" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H127" s="28" t="s">
+        <v>711</v>
+      </c>
       <c r="I127" s="17"/>
       <c r="J127" s="16"/>
     </row>
     <row r="128" spans="1:10" ht="63" customHeight="1">
-      <c r="A128" s="17"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="16"/>
+      <c r="A128" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="B128" s="14">
+        <v>45062.104166666664</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>102</v>
+      </c>
       <c r="F128" s="16"/>
-      <c r="G128" s="16"/>
-      <c r="H128" s="28"/>
+      <c r="G128" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H128" s="28" t="s">
+        <v>714</v>
+      </c>
       <c r="I128" s="17"/>
       <c r="J128" s="16"/>
     </row>
     <row r="129" spans="1:10" ht="63" customHeight="1">
-      <c r="A129" s="17"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="16"/>
+      <c r="A129" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="B129" s="14">
+        <v>45062.114583333336</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>350</v>
+      </c>
       <c r="F129" s="16"/>
-      <c r="G129" s="16"/>
-      <c r="H129" s="28"/>
+      <c r="G129" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H129" s="28" t="s">
+        <v>718</v>
+      </c>
       <c r="I129" s="17"/>
       <c r="J129" s="16"/>
     </row>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B5FC2B-713E-E744-9CFD-CD8FB8137C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4AEE7D-BE15-DC4E-8D47-6957C94BEDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="719">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9981,9 +9981,6 @@
     <t>23乌兹超第10轮</t>
   </si>
   <si>
-    <t>比克波德</t>
-  </si>
-  <si>
     <t>纳萨夫</t>
   </si>
   <si>
@@ -9992,9 +9989,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>索斯诺维茨</t>
-  </si>
-  <si>
     <t>保德比斯基</t>
   </si>
   <si>
@@ -10003,18 +9997,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>马迪圭斯</t>
-  </si>
-  <si>
     <t>南锡</t>
   </si>
   <si>
     <t xml:space="preserve">亚盘全网盘口:赢=2,输=0,走=0,赢盘概率最大,为100.00%
 比分概率前三分别是：[2:0](1次)     [1:0](1次) </t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AIK索尔纳</t>
   </si>
   <si>
     <t>IFK哥德堡</t>
@@ -10029,9 +10017,6 @@
     <t>23阿甲第16轮</t>
   </si>
   <si>
-    <t>圣菲联合</t>
-  </si>
-  <si>
     <t>萨米恩托</t>
   </si>
   <si>
@@ -10041,9 +10026,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>利斯特雷</t>
-  </si>
-  <si>
     <t>科多巴竞技</t>
   </si>
   <si>
@@ -10056,15 +10038,40 @@
     <t>23爱超第24轮</t>
   </si>
   <si>
-    <t>德里城</t>
-  </si>
-  <si>
     <t>邓多克</t>
   </si>
   <si>
     <t xml:space="preserve">亚盘全网盘口:赢=35,输=46,走=26,输盘概率最大,为42.99%
 亚盘本联赛盘口:赢=0,输=2,走=0,输盘概率最大,为100.00%
 比分概率前三分别是：[1:0](18次)     [1:1](15次)     [2:0](12次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比克波德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索斯诺维茨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马迪圭斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIK索尔纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣菲联合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利斯特雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德里城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10984,8 +10991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -14664,56 +14671,64 @@
       </c>
     </row>
     <row r="123" spans="1:10" ht="63" customHeight="1">
-      <c r="A123" s="17" t="s">
+      <c r="A123" s="78" t="s">
         <v>695</v>
       </c>
-      <c r="B123" s="14">
+      <c r="B123" s="79">
         <v>45061.916666666664</v>
       </c>
-      <c r="C123" s="17" t="s">
+      <c r="C123" s="78" t="s">
+        <v>712</v>
+      </c>
+      <c r="D123" s="78" t="s">
         <v>696</v>
       </c>
-      <c r="D123" s="17" t="s">
+      <c r="E123" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="F123" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="G123" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="H123" s="81" t="s">
         <v>697</v>
       </c>
-      <c r="E123" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H123" s="28" t="s">
+      <c r="I123" s="78"/>
+      <c r="J123" s="80" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="63" customHeight="1">
+      <c r="A124" s="78" t="s">
+        <v>596</v>
+      </c>
+      <c r="B124" s="79">
+        <v>45062</v>
+      </c>
+      <c r="C124" s="78" t="s">
+        <v>713</v>
+      </c>
+      <c r="D124" s="78" t="s">
         <v>698</v>
       </c>
-      <c r="I123" s="17"/>
-      <c r="J123" s="16"/>
-    </row>
-    <row r="124" spans="1:10" ht="63" customHeight="1">
-      <c r="A124" s="17" t="s">
-        <v>596</v>
-      </c>
-      <c r="B124" s="14">
-        <v>45062</v>
-      </c>
-      <c r="C124" s="17" t="s">
+      <c r="E124" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="F124" s="80" t="s">
+        <v>201</v>
+      </c>
+      <c r="G124" s="80" t="s">
+        <v>533</v>
+      </c>
+      <c r="H124" s="81" t="s">
         <v>699</v>
       </c>
-      <c r="D124" s="17" t="s">
-        <v>700</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16" t="s">
+      <c r="I124" s="78"/>
+      <c r="J124" s="80" t="s">
         <v>533</v>
       </c>
-      <c r="H124" s="28" t="s">
-        <v>701</v>
-      </c>
-      <c r="I124" s="17"/>
-      <c r="J124" s="16"/>
     </row>
     <row r="125" spans="1:10" ht="63" customHeight="1">
       <c r="A125" s="17" t="s">
@@ -14723,23 +14738,27 @@
         <v>45062.020833333336</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E125" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F125" s="16"/>
+      <c r="F125" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="G125" s="16" t="s">
         <v>533</v>
       </c>
       <c r="H125" s="28" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="I125" s="17"/>
-      <c r="J125" s="16"/>
+      <c r="J125" s="16" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="126" spans="1:10" ht="63" customHeight="1">
       <c r="A126" s="17" t="s">
@@ -14749,101 +14768,117 @@
         <v>45062.048611111109</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E126" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="F126" s="16"/>
+      <c r="F126" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="G126" s="16" t="s">
         <v>533</v>
       </c>
       <c r="H126" s="28" t="s">
+        <v>703</v>
+      </c>
+      <c r="I126" s="17"/>
+      <c r="J126" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="63" customHeight="1">
+      <c r="A127" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="B127" s="8">
+        <v>45062.104166666664</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H127" s="33" t="s">
+        <v>706</v>
+      </c>
+      <c r="I127" s="11"/>
+      <c r="J127" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="63" customHeight="1">
+      <c r="A128" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="B128" s="8">
+        <v>45062.104166666664</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="D128" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="I126" s="17"/>
-      <c r="J126" s="16"/>
-    </row>
-    <row r="127" spans="1:10" ht="63" customHeight="1">
-      <c r="A127" s="17" t="s">
+      <c r="E128" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H128" s="33" t="s">
         <v>708</v>
       </c>
-      <c r="B127" s="14">
-        <v>45062.104166666664</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>709</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16" t="s">
+      <c r="I128" s="11"/>
+      <c r="J128" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H127" s="28" t="s">
-        <v>711</v>
-      </c>
-      <c r="I127" s="17"/>
-      <c r="J127" s="16"/>
-    </row>
-    <row r="128" spans="1:10" ht="63" customHeight="1">
-      <c r="A128" s="17" t="s">
-        <v>610</v>
-      </c>
-      <c r="B128" s="14">
-        <v>45062.104166666664</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>712</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>713</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H128" s="28" t="s">
-        <v>714</v>
-      </c>
-      <c r="I128" s="17"/>
-      <c r="J128" s="16"/>
     </row>
     <row r="129" spans="1:10" ht="63" customHeight="1">
       <c r="A129" s="17" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="B129" s="14">
         <v>45062.114583333336</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E129" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="F129" s="16"/>
+      <c r="F129" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="G129" s="16" t="s">
         <v>71</v>
       </c>
       <c r="H129" s="28" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="I129" s="17"/>
-      <c r="J129" s="16"/>
+      <c r="J129" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="130" spans="1:10" ht="63" customHeight="1">
       <c r="A130" s="17"/>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4AEE7D-BE15-DC4E-8D47-6957C94BEDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FFA46D-17A9-8341-ADFE-9655BC41A98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="723">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10072,6 +10072,21 @@
   </si>
   <si>
     <t>德里城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23阿乙第16轮</t>
+  </si>
+  <si>
+    <t>圣胡安圣马丁</t>
+  </si>
+  <si>
+    <t>吉列尔莫布朗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=46,输=28,走=0,赢盘概率最大,为62.16%
+亚盘本联赛盘口:赢=3,输=1,走=0,赢盘概率最大,为75.00%
+比分概率前三分别是：[1:0](13次)     [2:1](10次)     [1:1](8次)   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10991,8 +11006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G130" sqref="G130"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -14881,16 +14896,34 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="63" customHeight="1">
-      <c r="A130" s="17"/>
-      <c r="B130" s="14"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="16"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="16"/>
-      <c r="H130" s="28"/>
-      <c r="I130" s="17"/>
-      <c r="J130" s="16"/>
+      <c r="A130" s="78" t="s">
+        <v>719</v>
+      </c>
+      <c r="B130" s="79">
+        <v>45062.333333333336</v>
+      </c>
+      <c r="C130" s="78" t="s">
+        <v>720</v>
+      </c>
+      <c r="D130" s="78" t="s">
+        <v>721</v>
+      </c>
+      <c r="E130" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="F130" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" s="80" t="s">
+        <v>533</v>
+      </c>
+      <c r="H130" s="81" t="s">
+        <v>722</v>
+      </c>
+      <c r="I130" s="78"/>
+      <c r="J130" s="80" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="131" spans="1:10" ht="63" customHeight="1">
       <c r="A131" s="17"/>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FFA46D-17A9-8341-ADFE-9655BC41A98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8213E101-1C47-6741-BE44-8400B371758B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="738">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10087,6 +10087,61 @@
     <t xml:space="preserve">亚盘全网盘口:赢=46,输=28,走=0,赢盘概率最大,为62.16%
 亚盘本联赛盘口:赢=3,输=1,走=0,赢盘概率最大,为75.00%
 比分概率前三分别是：[1:0](13次)     [2:1](10次)     [1:1](8次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23土超第34轮</t>
+  </si>
+  <si>
+    <t>锡瓦斯体育</t>
+  </si>
+  <si>
+    <t>卡斯帕萨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=98,输=105,走=0,输盘概率最大,为51.72%
+亚盘本联赛盘口:赢=1,输=6,走=0,输盘概率最大,为85.71%
+比分概率前三分别是：[1:1](22次)     [1:0](22次)     [0:1](21次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23土甲第37轮</t>
+  </si>
+  <si>
+    <t>佩迪卡斯堡</t>
+  </si>
+  <si>
+    <t>班迪马士邦</t>
+  </si>
+  <si>
+    <t>亚盘全网盘口:赢=26,输=18,走=0,赢盘概率最大,为59.09%
+亚盘本联赛盘口:赢=2,输=1,走=0,赢盘概率最大,为66.67%
+比分概率前三分别是：[0:0](5次)     [1:0](5次)     [2:0](4次)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图兹拉士邦</t>
+  </si>
+  <si>
+    <t>文尼沙BB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=8,输=4,走=0,赢盘概率最大,为66.67%
+比分概率前三分别是：[0:2](3次)     [0:0](2次)     [2:0](1次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23挪甲第8轮</t>
+  </si>
+  <si>
+    <t>莫斯</t>
+  </si>
+  <si>
+    <t>阿萨纳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=7,输=13,走=0,输盘概率最大,为65.00%
+比分概率前三分别是：[2:1](4次)     [1:1](4次)     [0:0](3次)    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11006,8 +11061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H129" sqref="H129"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I135" sqref="I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -14926,50 +14981,106 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="63" customHeight="1">
-      <c r="A131" s="17"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="16"/>
+      <c r="A131" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="B131" s="14">
+        <v>45062.916666666664</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>257</v>
+      </c>
       <c r="F131" s="16"/>
-      <c r="G131" s="16"/>
-      <c r="H131" s="28"/>
+      <c r="G131" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H131" s="28" t="s">
+        <v>726</v>
+      </c>
       <c r="I131" s="17"/>
       <c r="J131" s="16"/>
     </row>
     <row r="132" spans="1:10" ht="63" customHeight="1">
-      <c r="A132" s="17"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="16"/>
+      <c r="A132" s="17" t="s">
+        <v>727</v>
+      </c>
+      <c r="B132" s="14">
+        <v>45062.916666666664</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>230</v>
+      </c>
       <c r="F132" s="16"/>
-      <c r="G132" s="16"/>
-      <c r="H132" s="28"/>
+      <c r="G132" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="H132" s="28" t="s">
+        <v>730</v>
+      </c>
       <c r="I132" s="17"/>
       <c r="J132" s="16"/>
     </row>
     <row r="133" spans="1:10" ht="63" customHeight="1">
-      <c r="A133" s="17"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
-      <c r="E133" s="16"/>
+      <c r="A133" s="17" t="s">
+        <v>727</v>
+      </c>
+      <c r="B133" s="14">
+        <v>45062.916666666664</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>99</v>
+      </c>
       <c r="F133" s="16"/>
-      <c r="G133" s="16"/>
-      <c r="H133" s="28"/>
+      <c r="G133" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="H133" s="28" t="s">
+        <v>733</v>
+      </c>
       <c r="I133" s="17"/>
       <c r="J133" s="16"/>
     </row>
     <row r="134" spans="1:10" ht="63" customHeight="1">
-      <c r="A134" s="17"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="16"/>
+      <c r="A134" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="B134" s="14">
+        <v>45062.958333333336</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>735</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>253</v>
+      </c>
       <c r="F134" s="16"/>
-      <c r="G134" s="16"/>
-      <c r="H134" s="28"/>
+      <c r="G134" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H134" s="28" t="s">
+        <v>737</v>
+      </c>
       <c r="I134" s="17"/>
       <c r="J134" s="16"/>
     </row>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8213E101-1C47-6741-BE44-8400B371758B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F924701E-E597-6841-AD48-2E762CE8463A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="748">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10142,6 +10142,44 @@
   <si>
     <t xml:space="preserve">亚盘全网盘口:赢=7,输=13,走=0,输盘概率最大,为65.00%
 比分概率前三分别是：[2:1](4次)     [1:1](4次)     [0:0](3次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23挪超第7轮</t>
+  </si>
+  <si>
+    <t>斯特罗姆加斯特</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=23,输=11,走=0,赢盘概率最大,为67.65%
+亚盘本联赛盘口:赢=2,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:0](5次)     [3:2](5次)     [0:1](4次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯达</t>
+  </si>
+  <si>
+    <t>桑内斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=8,输=15,走=11,输盘概率最大,为44.12%
+亚盘本联赛盘口:赢=0,输=1,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[2:1](9次)     [1:1](6次)     [2:0](5次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23埃及甲第28轮</t>
+  </si>
+  <si>
+    <t>塔拉雅</t>
+  </si>
+  <si>
+    <t>帕哈尔科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=2,输=6,走=0,输盘概率最大,为75.00%
+比分概率前三分别是：[0:1](2次)     [0:0](2次)     [1:0](1次) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11061,8 +11099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I135" sqref="I135"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -15085,38 +15123,80 @@
       <c r="J134" s="16"/>
     </row>
     <row r="135" spans="1:10" ht="63" customHeight="1">
-      <c r="A135" s="17"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
-      <c r="E135" s="16"/>
+      <c r="A135" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="B135" s="14">
+        <v>45063</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>183</v>
+      </c>
       <c r="F135" s="16"/>
-      <c r="G135" s="16"/>
-      <c r="H135" s="28"/>
+      <c r="G135" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="H135" s="28" t="s">
+        <v>740</v>
+      </c>
       <c r="I135" s="17"/>
       <c r="J135" s="16"/>
     </row>
     <row r="136" spans="1:10" ht="63" customHeight="1">
-      <c r="A136" s="17"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
-      <c r="E136" s="16"/>
+      <c r="A136" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="B136" s="14">
+        <v>45063</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>350</v>
+      </c>
       <c r="F136" s="16"/>
-      <c r="G136" s="16"/>
-      <c r="H136" s="28"/>
+      <c r="G136" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H136" s="28" t="s">
+        <v>743</v>
+      </c>
       <c r="I136" s="17"/>
       <c r="J136" s="16"/>
     </row>
     <row r="137" spans="1:10" ht="63" customHeight="1">
-      <c r="A137" s="17"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="16"/>
+      <c r="A137" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="B137" s="14">
+        <v>45063.104166666664</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>102</v>
+      </c>
       <c r="F137" s="16"/>
-      <c r="G137" s="16"/>
-      <c r="H137" s="28"/>
+      <c r="G137" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H137" s="28" t="s">
+        <v>747</v>
+      </c>
       <c r="I137" s="17"/>
       <c r="J137" s="16"/>
     </row>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F924701E-E597-6841-AD48-2E762CE8463A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC99AD1-04F4-A448-B93D-346DA29AAE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
   <sheets>
     <sheet name="让球匹配" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="751">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10093,9 +10093,6 @@
     <t>22/23土超第34轮</t>
   </si>
   <si>
-    <t>锡瓦斯体育</t>
-  </si>
-  <si>
     <t>卡斯帕萨</t>
   </si>
   <si>
@@ -10108,9 +10105,6 @@
     <t>22/23土甲第37轮</t>
   </si>
   <si>
-    <t>佩迪卡斯堡</t>
-  </si>
-  <si>
     <t>班迪马士邦</t>
   </si>
   <si>
@@ -10120,9 +10114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图兹拉士邦</t>
-  </si>
-  <si>
     <t>文尼沙BB</t>
   </si>
   <si>
@@ -10134,9 +10125,6 @@
     <t>23挪甲第8轮</t>
   </si>
   <si>
-    <t>莫斯</t>
-  </si>
-  <si>
     <t>阿萨纳</t>
   </si>
   <si>
@@ -10146,9 +10134,6 @@
   </si>
   <si>
     <t>23挪超第7轮</t>
-  </si>
-  <si>
-    <t>斯特罗姆加斯特</t>
   </si>
   <si>
     <t xml:space="preserve">亚盘全网盘口:赢=23,输=11,走=0,赢盘概率最大,为67.65%
@@ -10157,9 +10142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>斯达</t>
-  </si>
-  <si>
     <t>桑内斯</t>
   </si>
   <si>
@@ -10172,14 +10154,50 @@
     <t>22/23埃及甲第28轮</t>
   </si>
   <si>
-    <t>塔拉雅</t>
-  </si>
-  <si>
     <t>帕哈尔科</t>
   </si>
   <si>
     <t xml:space="preserve">亚盘全网盘口:赢=2,输=6,走=0,输盘概率最大,为75.00%
 比分概率前三分别是：[0:1](2次)     [0:0](2次)     [1:0](1次) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锡瓦斯体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佩迪卡斯堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图兹拉士邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯特罗姆加斯特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔拉雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙卡亚斯普</t>
+  </si>
+  <si>
+    <t>主队排名15，客队排名3，两者分差28分，客队盘口非常便宜！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根克勒比利吉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11099,8 +11117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView topLeftCell="A129" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J132" sqref="J132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -15015,190 +15033,218 @@
       </c>
       <c r="I130" s="78"/>
       <c r="J130" s="80" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="63" customHeight="1">
+      <c r="A131" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="B131" s="8">
+        <v>45062.916666666664</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H131" s="33" t="s">
+        <v>725</v>
+      </c>
+      <c r="I131" s="11"/>
+      <c r="J131" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="63" customHeight="1">
+      <c r="A132" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="B132" s="8">
+        <v>45062.916666666664</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" s="10" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" ht="63" customHeight="1">
-      <c r="A131" s="17" t="s">
-        <v>723</v>
-      </c>
-      <c r="B131" s="14">
-        <v>45062.916666666664</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>724</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>725</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="F131" s="16"/>
-      <c r="G131" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H131" s="28" t="s">
-        <v>726</v>
-      </c>
-      <c r="I131" s="17"/>
-      <c r="J131" s="16"/>
-    </row>
-    <row r="132" spans="1:10" ht="63" customHeight="1">
-      <c r="A132" s="17" t="s">
-        <v>727</v>
-      </c>
-      <c r="B132" s="14">
-        <v>45062.916666666664</v>
-      </c>
-      <c r="C132" s="17" t="s">
+      <c r="H132" s="33" t="s">
         <v>728</v>
       </c>
-      <c r="D132" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="F132" s="16"/>
-      <c r="G132" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="H132" s="28" t="s">
-        <v>730</v>
-      </c>
-      <c r="I132" s="17"/>
-      <c r="J132" s="16"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="10" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="133" spans="1:10" ht="63" customHeight="1">
       <c r="A133" s="17" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B133" s="14">
         <v>45062.916666666664</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E133" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F133" s="16"/>
+      <c r="F133" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="G133" s="16" t="s">
         <v>533</v>
       </c>
       <c r="H133" s="28" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="I133" s="17"/>
-      <c r="J133" s="16"/>
+      <c r="J133" s="16" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="134" spans="1:10" ht="63" customHeight="1">
       <c r="A134" s="17" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B134" s="14">
         <v>45062.958333333336</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="E134" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="F134" s="16"/>
+      <c r="F134" s="16" t="s">
+        <v>201</v>
+      </c>
       <c r="G134" s="16" t="s">
         <v>71</v>
       </c>
       <c r="H134" s="28" t="s">
+        <v>733</v>
+      </c>
+      <c r="I134" s="17"/>
+      <c r="J134" s="16" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="63" customHeight="1">
+      <c r="A135" s="78" t="s">
+        <v>734</v>
+      </c>
+      <c r="B135" s="79">
+        <v>45063</v>
+      </c>
+      <c r="C135" s="78" t="s">
+        <v>745</v>
+      </c>
+      <c r="D135" s="78" t="s">
+        <v>463</v>
+      </c>
+      <c r="E135" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="F135" s="80" t="s">
+        <v>201</v>
+      </c>
+      <c r="G135" s="80" t="s">
+        <v>533</v>
+      </c>
+      <c r="H135" s="81" t="s">
+        <v>735</v>
+      </c>
+      <c r="I135" s="78"/>
+      <c r="J135" s="80" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="63" customHeight="1">
+      <c r="A136" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="B136" s="8">
+        <v>45063</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H136" s="33" t="s">
         <v>737</v>
       </c>
-      <c r="I134" s="17"/>
-      <c r="J134" s="16"/>
-    </row>
-    <row r="135" spans="1:10" ht="63" customHeight="1">
-      <c r="A135" s="17" t="s">
+      <c r="I136" s="11"/>
+      <c r="J136" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="63" customHeight="1">
+      <c r="A137" s="11" t="s">
         <v>738</v>
       </c>
-      <c r="B135" s="14">
-        <v>45063</v>
-      </c>
-      <c r="C135" s="17" t="s">
+      <c r="B137" s="8">
+        <v>45063.104166666664</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="D137" s="11" t="s">
         <v>739</v>
       </c>
-      <c r="D135" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="F135" s="16"/>
-      <c r="G135" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="H135" s="28" t="s">
+      <c r="E137" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H137" s="33" t="s">
         <v>740</v>
       </c>
-      <c r="I135" s="17"/>
-      <c r="J135" s="16"/>
-    </row>
-    <row r="136" spans="1:10" ht="63" customHeight="1">
-      <c r="A136" s="17" t="s">
-        <v>734</v>
-      </c>
-      <c r="B136" s="14">
-        <v>45063</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>741</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>742</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="F136" s="16"/>
-      <c r="G136" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H136" s="28" t="s">
-        <v>743</v>
-      </c>
-      <c r="I136" s="17"/>
-      <c r="J136" s="16"/>
-    </row>
-    <row r="137" spans="1:10" ht="63" customHeight="1">
-      <c r="A137" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="B137" s="14">
-        <v>45063.104166666664</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>746</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F137" s="16"/>
-      <c r="G137" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H137" s="28" t="s">
-        <v>747</v>
-      </c>
-      <c r="I137" s="17"/>
-      <c r="J137" s="16"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="10" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="138" spans="1:10" ht="63" customHeight="1">
       <c r="A138" s="17"/>
@@ -20727,8 +20773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1142161-0F82-AA49-8A76-42BEDD9DBD1A}">
   <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.5" defaultRowHeight="66" customHeight="1"/>
@@ -20842,13 +20888,27 @@
     </row>
     <row r="5" spans="1:8" ht="66" customHeight="1">
       <c r="A5" s="17"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="17"/>
+      <c r="B5" s="14">
+        <v>45062.916666666664</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>748</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>749</v>
+      </c>
+      <c r="H5" s="82" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="66" customHeight="1">
       <c r="A6" s="17"/>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC99AD1-04F4-A448-B93D-346DA29AAE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0426FF03-B6C7-B04A-BA42-AE47E691A31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
   <sheets>
     <sheet name="让球匹配" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="764">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10198,6 +10198,63 @@
   </si>
   <si>
     <t>根克勒比利吉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23阿巴超第33轮</t>
+  </si>
+  <si>
+    <t>卡斯泰利奥迪</t>
+  </si>
+  <si>
+    <t>伊拿迪亚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=4,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:1](1次)     [2:0](1次)     [0:0](1次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>芬兰杯第四圈</t>
+    </r>
+  </si>
+  <si>
+    <t>诺普斯</t>
+  </si>
+  <si>
+    <t>升盘9个，初盘4.750, 即时盘2.500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23哥甲第20轮</t>
+  </si>
+  <si>
+    <t>布卡拉曼格</t>
+  </si>
+  <si>
+    <t>卡利阿美利加</t>
+  </si>
+  <si>
+    <t>主队排名20，客队排名4，两者分差15，客队盘口非常便宜！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云斯卡尔达斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">欧赔全网完美匹配！{'平'}                                                          亚盘全网盘口:赢=17,输=8,走=0,赢盘概率最大,为68.00%
+比分概率前三分别是：[1:0](5次)     [1:1](5次)     [0:0](3次) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11117,8 +11174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J132" sqref="J132"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -15247,26 +15304,54 @@
       </c>
     </row>
     <row r="138" spans="1:10" ht="63" customHeight="1">
-      <c r="A138" s="17"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="16"/>
+      <c r="A138" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="B138" s="14">
+        <v>45063.875</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>752</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>97</v>
+      </c>
       <c r="F138" s="16"/>
-      <c r="G138" s="16"/>
-      <c r="H138" s="28"/>
+      <c r="G138" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H138" s="28" t="s">
+        <v>754</v>
+      </c>
       <c r="I138" s="17"/>
       <c r="J138" s="16"/>
     </row>
     <row r="139" spans="1:10" ht="63" customHeight="1">
-      <c r="A139" s="17"/>
-      <c r="B139" s="14"/>
-      <c r="C139" s="17"/>
-      <c r="D139" s="17"/>
-      <c r="E139" s="16"/>
+      <c r="A139" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="B139" s="14">
+        <v>45064.166666666664</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>101</v>
+      </c>
       <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
-      <c r="H139" s="28"/>
+      <c r="G139" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H139" s="28" t="s">
+        <v>763</v>
+      </c>
       <c r="I139" s="17"/>
       <c r="J139" s="16"/>
     </row>
@@ -19659,8 +19744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5BD41-F360-D64B-BA12-0F85656DC41E}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.6640625" defaultRowHeight="50" customHeight="1"/>
@@ -20493,13 +20578,23 @@
       <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8" ht="50" customHeight="1">
-      <c r="A36" s="43"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
+      <c r="A36" s="43" t="s">
+        <v>755</v>
+      </c>
+      <c r="B36" s="49">
+        <v>45063.958333333336</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>756</v>
+      </c>
+      <c r="D36" s="59" t="s">
+        <v>211</v>
+      </c>
       <c r="E36" s="46"/>
       <c r="F36" s="46"/>
-      <c r="G36" s="48"/>
+      <c r="G36" s="48" t="s">
+        <v>757</v>
+      </c>
       <c r="H36" s="26"/>
     </row>
     <row r="37" spans="1:8" ht="50" customHeight="1">
@@ -20773,8 +20868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1142161-0F82-AA49-8A76-42BEDD9DBD1A}">
   <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.5" defaultRowHeight="66" customHeight="1"/>
@@ -20911,13 +21006,25 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="66" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16"/>
+      <c r="A6" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="B6" s="14">
+        <v>45064.166666666664</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>760</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>121</v>
+      </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="28"/>
+      <c r="G6" s="28" t="s">
+        <v>761</v>
+      </c>
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="66" customHeight="1">

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0426FF03-B6C7-B04A-BA42-AE47E691A31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39997D01-CA67-F945-A6A8-6EC7648A36FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="771">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10256,6 +10256,32 @@
     <t xml:space="preserve">欧赔全网完美匹配！{'平'}                                                          亚盘全网盘口:赢=17,输=8,走=0,赢盘概率最大,为68.00%
 比分概率前三分别是：[1:0](5次)     [1:1](5次)     [0:0](3次) </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23美职联第13轮</t>
+  </si>
+  <si>
+    <t>亚特兰大联</t>
+  </si>
+  <si>
+    <t>科罗拉多急流</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=39,输=27,走=2,赢盘概率最大,为57.35%
+亚盘本联赛盘口:赢=3,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:1](10次)     [2:0](9次)     [1:0](7次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=7,输=21,走=0,输盘概率最大,为75.00%
+比分概率前三分别是：[1:1](10次)     [0:0](4次)     [2:1](4次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达拉斯FC</t>
+  </si>
+  <si>
+    <t>温哥华白帽</t>
   </si>
 </sst>
 </file>
@@ -11175,7 +11201,7 @@
   <dimension ref="A1:J389"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -15356,26 +15382,54 @@
       <c r="J139" s="16"/>
     </row>
     <row r="140" spans="1:10" ht="63" customHeight="1">
-      <c r="A140" s="17"/>
-      <c r="B140" s="14"/>
-      <c r="C140" s="17"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="16"/>
+      <c r="A140" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="B140" s="14">
+        <v>45064.3125</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>183</v>
+      </c>
       <c r="F140" s="16"/>
-      <c r="G140" s="16"/>
-      <c r="H140" s="28"/>
+      <c r="G140" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H140" s="28" t="s">
+        <v>767</v>
+      </c>
       <c r="I140" s="17"/>
       <c r="J140" s="16"/>
     </row>
     <row r="141" spans="1:10" ht="63" customHeight="1">
-      <c r="A141" s="17"/>
-      <c r="B141" s="14"/>
-      <c r="C141" s="17"/>
-      <c r="D141" s="17"/>
-      <c r="E141" s="16"/>
+      <c r="A141" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="B141" s="14">
+        <v>45064.354166666664</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>102</v>
+      </c>
       <c r="F141" s="16"/>
-      <c r="G141" s="16"/>
-      <c r="H141" s="28"/>
+      <c r="G141" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H141" s="28" t="s">
+        <v>768</v>
+      </c>
       <c r="I141" s="17"/>
       <c r="J141" s="16"/>
     </row>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39997D01-CA67-F945-A6A8-6EC7648A36FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3064D31-1B80-BF44-9E48-06E13EA1EA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
   <sheets>
     <sheet name="让球匹配" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="704">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2902,16 +2902,6 @@
       </rPr>
       <t>轮</t>
     </r>
-  </si>
-  <si>
-    <t>武汉三镇</t>
-  </si>
-  <si>
-    <t>上海海港</t>
-  </si>
-  <si>
-    <t>连续升盘2.0个，初盘-0.5, 即时盘0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>输盘</t>
@@ -2971,9 +2961,6 @@
 圣埃蒂安vs尼奥尔: 比分2:0                                                       战绩和盘口不匹配</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续升盘2.0个，初盘-0.25, 即时盘0.25</t>
   </si>
   <si>
     <r>
@@ -4366,49 +4353,6 @@
   </si>
   <si>
     <t>拉多麦科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一维也纳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>22/23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奥乙第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弗洛里茨多夫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5349,7 +5293,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>日职第</t>
+      <t>澳昆超第</t>
     </r>
     <r>
       <rPr>
@@ -5358,7 +5302,7 @@
         <rFont val="Helvetica Neue"/>
         <family val="2"/>
       </rPr>
-      <t>9</t>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -5372,51 +5316,6 @@
     </r>
   </si>
   <si>
-    <t>大阪钢巴</t>
-  </si>
-  <si>
-    <t>横滨FC</t>
-  </si>
-  <si>
-    <t>连续升盘2个，初盘-0.500, 即时盘-1.000
-对比本联赛，该盘口下胜率为：(('输', 11), ('赢', 3))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>澳昆超第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轮</t>
-    </r>
-  </si>
-  <si>
     <t>布里斯班</t>
   </si>
   <si>
@@ -5459,16 +5358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>松兹瓦尔</t>
-  </si>
-  <si>
-    <t>厄斯特什</t>
-  </si>
-  <si>
-    <t>连续变盘2个，初盘0.000, 即时盘0.500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1:4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5781,179 +5670,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>芬超第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轮</t>
-    </r>
-  </si>
-  <si>
-    <t>库普斯</t>
-  </si>
-  <si>
     <t>埃尔维斯</t>
   </si>
   <si>
-    <t>盘口变化2个，初盘-1.000, 即时盘-0.500</t>
-  </si>
-  <si>
     <t>22/23西丙1第31轮</t>
   </si>
   <si>
-    <r>
-      <t>22/23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>西丙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轮</t>
-    </r>
-  </si>
-  <si>
     <t>阿仁特若</t>
   </si>
   <si>
-    <t>兰格勒奥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盘口变化2个，初盘-0.750, 即时盘-0.250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>22/23西丙2第31轮</t>
-  </si>
-  <si>
-    <r>
-      <t>22/23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>西丙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轮</t>
-    </r>
-  </si>
-  <si>
-    <t>图德拉诺</t>
-  </si>
-  <si>
-    <t>里奥竞技</t>
-  </si>
-  <si>
-    <t>盘口变化2个，初盘-0.500, 即时盘-1.000</t>
   </si>
   <si>
     <t>23瑞典超第4轮</t>
@@ -6809,10 +6535,6 @@
   </si>
   <si>
     <t>升盘方输盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7010,60 +6732,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中超第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沧州雄狮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海上港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盘口变化2个，初盘0.750, 即时盘1.250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布里斯班狮吼青年</t>
-  </si>
-  <si>
-    <t>盘口变化2个，初盘-0.250, 即时盘-0.750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>22/23葡甲第30轮</t>
   </si>
   <si>
@@ -7418,40 +7086,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挪甲第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轮</t>
-    </r>
-  </si>
-  <si>
     <t>姆延达伦</t>
   </si>
   <si>
@@ -7459,31 +7093,6 @@
   </si>
   <si>
     <t>盘口变化3个，初盘-0.250, 即时盘0.500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰赫姆</t>
-  </si>
-  <si>
-    <t>斯吉德</t>
-  </si>
-  <si>
-    <t>丹纽比奥</t>
-  </si>
-  <si>
-    <t>漫游者</t>
-  </si>
-  <si>
-    <t>盘口变化2个，初盘0.000, 即时盘-0.500</t>
-  </si>
-  <si>
-    <t>莎埃帕</t>
-  </si>
-  <si>
-    <t>HIFK足球</t>
-  </si>
-  <si>
-    <t>盘口变化2个，初盘0.250, 即时盘-0.250</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7516,62 +7125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>22/23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>英甲第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>45</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轮</t>
-    </r>
-  </si>
-  <si>
-    <t>德比郡</t>
-  </si>
-  <si>
-    <t>朴茨茅斯</t>
-  </si>
-  <si>
-    <t>盘口变化2个，初盘-0.500, 即时盘-1.000
-对比本联赛，该盘口下胜率为：(('走', 1), ('赢', 6), ('输', 3))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊普斯维奇</t>
-  </si>
-  <si>
-    <t>埃克赛特城</t>
-  </si>
-  <si>
-    <t>盘口变化2个，初盘-1.500, 即时盘-2.000
-对比本联赛，该盘口下胜率为：(('走', 1), ('赢', 6), ('输', 3))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>米尔顿凯恩斯</t>
   </si>
   <si>
@@ -7596,15 +7149,6 @@
     <t>-1.25</t>
   </si>
   <si>
-    <t>什鲁斯伯里</t>
-  </si>
-  <si>
-    <t>谢菲尔德星期三</t>
-  </si>
-  <si>
-    <t>盘口变化2个，初盘0.500, 即时盘1.000</t>
-  </si>
-  <si>
     <t>摩纳哥</t>
   </si>
   <si>
@@ -7617,17 +7161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>苏黎世</t>
-  </si>
-  <si>
-    <t>锡永</t>
-  </si>
-  <si>
-    <t>盘口变化2个，初盘-0.750, 即时盘-1.250
-对比本联赛，该盘口下胜率为：(('赢', 10), ('输', 9))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>贝林佐纳</t>
   </si>
   <si>
@@ -7720,9 +7253,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">盘口变化6个，初盘0.000, 即时盘1.500         亚盘全网盘口:赢=1,输=0,走=0,赢盘概率最大,为100.00%
-亚盘本联赛盘口:赢=1,输=0,走=0,赢盘概率最大,为100.00%
-比分概率前三分别是：[1:2](1次)  </t>
+    <t>5:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7737,7 +7272,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>澳昆超第</t>
+      <t>挪甲第</t>
     </r>
     <r>
       <rPr>
@@ -7746,7 +7281,7 @@
         <rFont val="Helvetica Neue"/>
         <family val="2"/>
       </rPr>
-      <t>8</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -7761,12 +7296,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>23</t>
+    <r>
+      <t>22/23</t>
     </r>
     <r>
       <rPr>
@@ -7776,7 +7307,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>瑞典甲第</t>
+      <t>塞甲联第</t>
     </r>
     <r>
       <rPr>
@@ -7785,7 +7316,7 @@
         <rFont val="Helvetica Neue"/>
         <family val="2"/>
       </rPr>
-      <t>4</t>
+      <t>33</t>
     </r>
     <r>
       <rPr>
@@ -7800,224 +7331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挪甲第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>乌拉超第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>芬甲第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>22/23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>英甲第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>45</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>22/23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>瑞士超第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>22/23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>塞甲联第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>33</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>23瑞典超第5轮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8071,65 +7384,6 @@
   </si>
   <si>
     <t>22/23克罗甲第32轮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>芬甲第10轮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPS土尔库</t>
-  </si>
-  <si>
-    <t>盘口变化2个，初盘-0.250, 即时盘0.250</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挪甲第5轮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赫德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰赫姆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -8153,49 +7407,6 @@
     <t>海德堡联</t>
   </si>
   <si>
-    <t>格林古利</t>
-  </si>
-  <si>
-    <t>盘口变化2个，初盘0.000, 即时盘0.500
-对比本联赛，该盘口下胜率为：(('赢', 5), ('输', 9), ('走', 1))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>澳维超第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">亚盘全网盘口:赢=109,输=133,走=0,输盘概率最大,为54.96%
 亚盘本联赛盘口:赢=0,输=2,走=0,输盘概率最大,为100.00%
 比分概率前三分别是：[1:0](32次)     [1:1](32次)     [0:0](22次)    </t>
@@ -9548,12 +8759,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22/23法甲第35轮</t>
-  </si>
-  <si>
-    <t>雷恩</t>
-  </si>
-  <si>
     <t>特鲁瓦</t>
   </si>
   <si>
@@ -9627,40 +8832,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>22/23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黑山甲第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>34</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轮</t>
-    </r>
-  </si>
-  <si>
     <t>尼卡斯克</t>
   </si>
   <si>
@@ -10201,12 +9372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22/23阿巴超第33轮</t>
-  </si>
-  <si>
-    <t>卡斯泰利奥迪</t>
-  </si>
-  <si>
     <t>伊拿迪亚</t>
   </si>
   <si>
@@ -10230,9 +9395,6 @@
     </r>
   </si>
   <si>
-    <t>诺普斯</t>
-  </si>
-  <si>
     <t>升盘9个，初盘4.750, 即时盘2.500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -10240,17 +9402,11 @@
     <t>23哥甲第20轮</t>
   </si>
   <si>
-    <t>布卡拉曼格</t>
-  </si>
-  <si>
     <t>卡利阿美利加</t>
   </si>
   <si>
     <t>主队排名20，客队排名4，两者分差15，客队盘口非常便宜！</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云斯卡尔达斯</t>
   </si>
   <si>
     <t xml:space="preserve">欧赔全网完美匹配！{'平'}                                                          亚盘全网盘口:赢=17,输=8,走=0,赢盘概率最大,为68.00%
@@ -10259,9 +9415,6 @@
   </si>
   <si>
     <t>23美职联第13轮</t>
-  </si>
-  <si>
-    <t>亚特兰大联</t>
   </si>
   <si>
     <t>科罗拉多急流</t>
@@ -10278,10 +9431,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>温哥华白帽</t>
+  </si>
+  <si>
+    <t>22/23阿巴超第33轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡斯泰利奥迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云斯卡尔达斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚特兰大联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>达拉斯FC</t>
-  </si>
-  <si>
-    <t>温哥华白帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺普斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>22/23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黑山甲第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23法甲第35轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">盘口变化6个，初盘0.000, 即时盘1.500          </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布卡拉曼格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23哥甲第20轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23土甲第37轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10291,7 +9524,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10462,38 +9695,11 @@
     </font>
     <font>
       <sz val="18"/>
-      <color rgb="FF00B0F0"/>
-      <name val="SimSun"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <color rgb="FFF20C00"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFF20C00"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -10555,6 +9761,13 @@
       <color theme="0"/>
       <name val="PingFang SC"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF00B0F0"/>
+      <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -10626,7 +9839,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10807,13 +10020,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10834,47 +10041,47 @@
     <xf numFmtId="22" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="36" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="37" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="33" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11200,8 +10407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J141" sqref="J141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -11231,7 +10438,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>4</v>
@@ -11263,13 +10470,13 @@
         <v>24</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>21</v>
@@ -11293,13 +10500,13 @@
         <v>26</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>22</v>
@@ -11323,7 +10530,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>9</v>
@@ -11355,7 +10562,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>9</v>
@@ -11391,7 +10598,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>32</v>
@@ -11401,16 +10608,16 @@
     </row>
     <row r="7" spans="1:10" ht="63" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B7" s="8">
         <v>45028.583333333336</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E7" s="10">
         <v>-0.75</v>
@@ -11445,13 +10652,13 @@
         <v>40</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>41</v>
@@ -11463,88 +10670,88 @@
     </row>
     <row r="9" spans="1:10" ht="63" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9" s="8">
         <v>45031.833333333336</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H9" s="33" t="s">
         <v>62</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="63" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B10" s="8">
         <v>45031.916666666664</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="34" t="s">
         <v>71</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>74</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="63" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" s="30">
         <v>45031.916666666664</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="17" t="s">
@@ -11553,118 +10760,118 @@
     </row>
     <row r="12" spans="1:10" ht="63" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B12" s="8">
         <v>45031.916666666664</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="63" customHeight="1">
       <c r="A13" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B13" s="14">
         <v>45032.010416666664</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="63" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B14" s="8">
         <v>45032.041666666664</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="63" customHeight="1">
       <c r="A15" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B15" s="14">
         <v>45032.8125</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="17" t="s">
@@ -11673,150 +10880,150 @@
     </row>
     <row r="16" spans="1:10" ht="63" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B16" s="36">
         <v>45032.84375</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="63" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B17" s="8">
         <v>45032.979166666664</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="63" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B18" s="8">
         <v>45036.333333333336</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E18" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>162</v>
-      </c>
       <c r="G18" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="63" customHeight="1">
       <c r="A19" s="17" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B19" s="30">
         <v>45036.114583333336</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I19" s="26"/>
       <c r="J19" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="63" customHeight="1">
       <c r="A20" s="17" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B20" s="14">
         <v>45036.461805555555</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="16" t="s">
@@ -11825,1914 +11032,1914 @@
     </row>
     <row r="21" spans="1:10" ht="63" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B21" s="8">
         <v>45037.125</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="63" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B22" s="8">
         <v>45038.739583333336</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>50</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="63" customHeight="1">
       <c r="A23" s="17" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B23" s="14">
         <v>45038.75</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10" ht="63" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B24" s="8">
         <v>45039.75</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="63" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B25" s="8">
         <v>45039.791666666664</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="63" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="B26" s="8">
         <v>45039.854166666664</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>50</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="63" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="B27" s="8">
         <v>45039.979166666664</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="63" customHeight="1">
       <c r="A28" s="17" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B28" s="14">
         <v>45040</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="I28" s="26"/>
       <c r="J28" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="63" customHeight="1">
       <c r="A29" s="17" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="B29" s="14">
         <v>45040.020833333336</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="I29" s="26"/>
       <c r="J29" s="17" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="63" customHeight="1">
       <c r="A30" s="17" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="B30" s="14">
         <v>45040.020833333336</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>55</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="I30" s="26"/>
       <c r="J30" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="63" customHeight="1">
-      <c r="A31" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="B31" s="64">
+      <c r="A31" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" s="62">
         <v>45040.020833333336</v>
       </c>
-      <c r="C31" s="63" t="s">
-        <v>240</v>
-      </c>
-      <c r="D31" s="63" t="s">
-        <v>241</v>
-      </c>
-      <c r="E31" s="65" t="s">
-        <v>242</v>
-      </c>
-      <c r="F31" s="65" t="s">
+      <c r="C31" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="I31" s="67"/>
-      <c r="J31" s="63" t="s">
-        <v>271</v>
+      <c r="G31" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="I31" s="65"/>
+      <c r="J31" s="61" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="63" customHeight="1">
       <c r="A32" s="17" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="B32" s="14">
         <v>45043.9375</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="I32" s="26"/>
       <c r="J32" s="17" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="63" customHeight="1">
       <c r="A33" s="17" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="B33" s="14">
         <v>45044</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="I33" s="26"/>
       <c r="J33" s="17" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="63" customHeight="1">
       <c r="A34" s="17" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="B34" s="14">
         <v>45044.125</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="63" customHeight="1">
-      <c r="A35" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="B35" s="64">
+      <c r="A35" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="B35" s="62">
         <v>45044.135416666664</v>
       </c>
-      <c r="C35" s="63" t="s">
-        <v>265</v>
-      </c>
-      <c r="D35" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="F35" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="H35" s="66" t="s">
-        <v>266</v>
-      </c>
-      <c r="I35" s="67"/>
-      <c r="J35" s="63" t="s">
-        <v>271</v>
+      <c r="C35" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="64" t="s">
+        <v>241</v>
+      </c>
+      <c r="I35" s="65"/>
+      <c r="J35" s="61" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="63" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="B36" s="8">
         <v>45044.166666666664</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F36" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="33" t="s">
         <v>245</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" s="33" t="s">
-        <v>270</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="63" customHeight="1">
       <c r="A37" s="17" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="B37" s="14">
         <v>45045.75</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="I37" s="26"/>
       <c r="J37" s="17" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="63" customHeight="1">
       <c r="A38" s="17" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="B38" s="14">
         <v>45045.791666666664</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>9</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H38" s="28" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="I38" s="26"/>
       <c r="J38" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="63" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="B39" s="8">
         <v>45045.791666666664</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="I39" s="20"/>
       <c r="J39" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="63" customHeight="1">
       <c r="A40" s="17" t="s">
-        <v>373</v>
+        <v>312</v>
       </c>
       <c r="B40" s="14">
         <v>45045.875</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="I40" s="26"/>
       <c r="J40" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="63" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>374</v>
+        <v>313</v>
       </c>
       <c r="B41" s="8">
         <v>45045.916666666664</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H41" s="33" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="63" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>375</v>
+        <v>314</v>
       </c>
       <c r="B42" s="14">
         <v>45045.916666666664</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="I42" s="17"/>
       <c r="J42" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="63" customHeight="1">
-      <c r="A43" s="63" t="s">
-        <v>310</v>
-      </c>
-      <c r="B43" s="68">
+      <c r="A43" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="B43" s="66">
         <v>45045.916666666664</v>
       </c>
-      <c r="C43" s="63" t="s">
-        <v>321</v>
-      </c>
-      <c r="D43" s="63" t="s">
-        <v>322</v>
-      </c>
-      <c r="E43" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="65" t="s">
-        <v>376</v>
-      </c>
-      <c r="G43" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="H43" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63" t="s">
-        <v>271</v>
+      <c r="C43" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="E43" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="G43" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="H43" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="63" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="B44" s="8">
         <v>45045.916666666664</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="63" customHeight="1">
       <c r="A45" s="11" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="B45" s="8">
         <v>45046.791666666664</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H45" s="33" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="63" customHeight="1">
-      <c r="A46" s="72" t="s">
-        <v>378</v>
-      </c>
-      <c r="B46" s="73">
+      <c r="A46" s="69" t="s">
+        <v>317</v>
+      </c>
+      <c r="B46" s="70">
         <v>45046.84375</v>
       </c>
-      <c r="C46" s="72" t="s">
-        <v>337</v>
-      </c>
-      <c r="D46" s="72" t="s">
-        <v>338</v>
-      </c>
-      <c r="E46" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="F46" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="G46" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="H46" s="75" t="s">
-        <v>339</v>
-      </c>
-      <c r="I46" s="72"/>
-      <c r="J46" s="74" t="s">
-        <v>71</v>
+      <c r="C46" s="69" t="s">
+        <v>284</v>
+      </c>
+      <c r="D46" s="69" t="s">
+        <v>285</v>
+      </c>
+      <c r="E46" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="G46" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="72" t="s">
+        <v>286</v>
+      </c>
+      <c r="I46" s="69"/>
+      <c r="J46" s="71" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="63" customHeight="1">
       <c r="A47" s="11" t="s">
-        <v>374</v>
+        <v>313</v>
       </c>
       <c r="B47" s="8">
         <v>45046.875</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H47" s="33" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="63" customHeight="1">
-      <c r="A48" s="72" t="s">
-        <v>306</v>
-      </c>
-      <c r="B48" s="73">
+      <c r="A48" s="69" t="s">
+        <v>266</v>
+      </c>
+      <c r="B48" s="70">
         <v>45046.875</v>
       </c>
-      <c r="C48" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="72" t="s">
-        <v>344</v>
-      </c>
-      <c r="E48" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="F48" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="G48" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="H48" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="I48" s="72"/>
-      <c r="J48" s="74" t="s">
-        <v>178</v>
+      <c r="C48" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="69" t="s">
+        <v>291</v>
+      </c>
+      <c r="E48" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="G48" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="H48" s="72" t="s">
+        <v>458</v>
+      </c>
+      <c r="I48" s="69"/>
+      <c r="J48" s="71" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="63" customHeight="1">
-      <c r="A49" s="72" t="s">
-        <v>380</v>
-      </c>
-      <c r="B49" s="73">
+      <c r="A49" s="69" t="s">
+        <v>319</v>
+      </c>
+      <c r="B49" s="70">
         <v>45046.875</v>
       </c>
-      <c r="C49" s="72" t="s">
-        <v>379</v>
-      </c>
-      <c r="D49" s="72" t="s">
-        <v>345</v>
-      </c>
-      <c r="E49" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" s="74" t="s">
+      <c r="C49" s="69" t="s">
+        <v>318</v>
+      </c>
+      <c r="D49" s="69" t="s">
+        <v>292</v>
+      </c>
+      <c r="E49" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="H49" s="75" t="s">
-        <v>346</v>
-      </c>
-      <c r="I49" s="72"/>
-      <c r="J49" s="74" t="s">
-        <v>178</v>
+      <c r="G49" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="H49" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="I49" s="69"/>
+      <c r="J49" s="71" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="63" customHeight="1">
       <c r="A50" s="17" t="s">
-        <v>381</v>
+        <v>320</v>
       </c>
       <c r="B50" s="14">
         <v>45046.916666666664</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="I50" s="17"/>
       <c r="J50" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="63" customHeight="1">
-      <c r="A51" s="72" t="s">
-        <v>382</v>
-      </c>
-      <c r="B51" s="73">
+      <c r="A51" s="69" t="s">
+        <v>321</v>
+      </c>
+      <c r="B51" s="70">
         <v>45047</v>
       </c>
-      <c r="C51" s="72" t="s">
-        <v>351</v>
-      </c>
-      <c r="D51" s="72" t="s">
-        <v>352</v>
-      </c>
-      <c r="E51" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="74" t="s">
+      <c r="C51" s="69" t="s">
+        <v>298</v>
+      </c>
+      <c r="D51" s="69" t="s">
+        <v>299</v>
+      </c>
+      <c r="E51" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G51" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="H51" s="75" t="s">
-        <v>353</v>
-      </c>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72" t="s">
-        <v>383</v>
+      <c r="G51" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" s="72" t="s">
+        <v>300</v>
+      </c>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="63" customHeight="1">
       <c r="A52" s="17" t="s">
-        <v>384</v>
+        <v>323</v>
       </c>
       <c r="B52" s="14">
         <v>45047</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>385</v>
+        <v>324</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="I52" s="17"/>
       <c r="J52" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="63" customHeight="1">
       <c r="A53" s="11" t="s">
-        <v>386</v>
+        <v>325</v>
       </c>
       <c r="B53" s="8">
         <v>45047.916666666664</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H53" s="33" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="I53" s="11"/>
-      <c r="J53" s="70" t="s">
-        <v>71</v>
+      <c r="J53" s="67" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="63" customHeight="1">
       <c r="A54" s="21" t="s">
-        <v>414</v>
+        <v>344</v>
       </c>
       <c r="B54" s="22">
         <v>45053</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>411</v>
+        <v>341</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>415</v>
+        <v>345</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="H54" s="71" t="s">
-        <v>401</v>
+        <v>68</v>
+      </c>
+      <c r="H54" s="68" t="s">
+        <v>331</v>
       </c>
       <c r="I54" s="21"/>
       <c r="J54" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="63" customHeight="1">
       <c r="A55" s="11" t="s">
-        <v>416</v>
+        <v>346</v>
       </c>
       <c r="B55" s="8">
         <v>45053.041666666664</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>412</v>
+        <v>342</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>417</v>
+        <v>347</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H55" s="33" t="s">
-        <v>402</v>
+        <v>332</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="63" customHeight="1">
       <c r="A56" s="17" t="s">
-        <v>418</v>
+        <v>348</v>
       </c>
       <c r="B56" s="14">
         <v>45053.041666666664</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>413</v>
+        <v>343</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>433</v>
+        <v>363</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>403</v>
+        <v>333</v>
       </c>
       <c r="I56" s="17"/>
       <c r="J56" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="63" customHeight="1">
       <c r="A57" s="11" t="s">
-        <v>419</v>
+        <v>349</v>
       </c>
       <c r="B57" s="8">
         <v>45053.041666666664</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>434</v>
+        <v>364</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H57" s="33" t="s">
-        <v>404</v>
+        <v>334</v>
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="63" customHeight="1">
       <c r="A58" s="11" t="s">
-        <v>421</v>
+        <v>351</v>
       </c>
       <c r="B58" s="8">
         <v>45053.041666666664</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>435</v>
+        <v>365</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>422</v>
+        <v>352</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H58" s="33" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="63" customHeight="1">
       <c r="A59" s="11" t="s">
-        <v>423</v>
+        <v>353</v>
       </c>
       <c r="B59" s="8">
         <v>45053.083333333336</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>436</v>
+        <v>366</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>424</v>
+        <v>354</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H59" s="33" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="63" customHeight="1">
-      <c r="A60" s="63" t="s">
-        <v>425</v>
-      </c>
-      <c r="B60" s="64">
+      <c r="A60" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="B60" s="62">
         <v>45053.583333333336</v>
       </c>
-      <c r="C60" s="63" t="s">
-        <v>437</v>
-      </c>
-      <c r="D60" s="63" t="s">
-        <v>426</v>
-      </c>
-      <c r="E60" s="65" t="s">
-        <v>242</v>
-      </c>
-      <c r="F60" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="G60" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="H60" s="66" t="s">
-        <v>407</v>
-      </c>
-      <c r="I60" s="63"/>
-      <c r="J60" s="65" t="s">
-        <v>271</v>
+      <c r="C60" s="61" t="s">
+        <v>367</v>
+      </c>
+      <c r="D60" s="61" t="s">
+        <v>356</v>
+      </c>
+      <c r="E60" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="F60" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="G60" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="H60" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="I60" s="61"/>
+      <c r="J60" s="63" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="63" customHeight="1">
       <c r="A61" s="17" t="s">
-        <v>427</v>
+        <v>357</v>
       </c>
       <c r="B61" s="14">
         <v>45053.625</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>438</v>
+        <v>368</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>428</v>
+        <v>358</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>408</v>
+        <v>338</v>
       </c>
       <c r="I61" s="17"/>
       <c r="J61" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="63" customHeight="1">
       <c r="A62" s="17" t="s">
-        <v>429</v>
+        <v>359</v>
       </c>
       <c r="B62" s="14">
         <v>45053.895833333336</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>439</v>
+        <v>369</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>430</v>
+        <v>360</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="F62" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H62" s="28" t="s">
-        <v>409</v>
+        <v>339</v>
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="63" customHeight="1">
       <c r="A63" s="17" t="s">
-        <v>431</v>
+        <v>361</v>
       </c>
       <c r="B63" s="14">
         <v>45053.916666666664</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>440</v>
+        <v>370</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>432</v>
+        <v>362</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="F63" s="16" t="s">
         <v>55</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H63" s="28" t="s">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="I63" s="17"/>
       <c r="J63" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="63" customHeight="1">
       <c r="A64" s="17" t="s">
-        <v>448</v>
+        <v>378</v>
       </c>
       <c r="B64" s="14">
         <v>45054.75</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>441</v>
+        <v>371</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>442</v>
+        <v>372</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>444</v>
+        <v>374</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>443</v>
+        <v>373</v>
       </c>
       <c r="I64" s="17"/>
       <c r="J64" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="63" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>448</v>
+        <v>378</v>
       </c>
       <c r="B65" s="14">
         <v>45054.791666666664</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>445</v>
+        <v>375</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>446</v>
+        <v>376</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>447</v>
+        <v>377</v>
       </c>
       <c r="I65" s="17"/>
       <c r="J65" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="63" customHeight="1">
       <c r="A66" s="11" t="s">
-        <v>449</v>
+        <v>379</v>
       </c>
       <c r="B66" s="8">
         <v>45054.916666666664</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>469</v>
+        <v>399</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>451</v>
+        <v>381</v>
       </c>
       <c r="I66" s="11"/>
       <c r="J66" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="63" customHeight="1">
-      <c r="A67" s="72" t="s">
-        <v>449</v>
-      </c>
-      <c r="B67" s="73">
+      <c r="A67" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="B67" s="70">
         <v>45054.916666666664</v>
       </c>
-      <c r="C67" s="72" t="s">
-        <v>470</v>
-      </c>
-      <c r="D67" s="72" t="s">
-        <v>452</v>
-      </c>
-      <c r="E67" s="74" t="s">
-        <v>253</v>
-      </c>
-      <c r="F67" s="74" t="s">
+      <c r="C67" s="69" t="s">
+        <v>400</v>
+      </c>
+      <c r="D67" s="69" t="s">
+        <v>382</v>
+      </c>
+      <c r="E67" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="F67" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="H67" s="75" t="s">
-        <v>453</v>
-      </c>
-      <c r="I67" s="72"/>
-      <c r="J67" s="74" t="s">
+      <c r="G67" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="H67" s="72" t="s">
         <v>383</v>
+      </c>
+      <c r="I67" s="69"/>
+      <c r="J67" s="71" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="63" customHeight="1">
       <c r="A68" s="11" t="s">
-        <v>449</v>
+        <v>379</v>
       </c>
       <c r="B68" s="8">
         <v>45054.916666666664</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>471</v>
+        <v>401</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H68" s="33" t="s">
-        <v>454</v>
+        <v>384</v>
       </c>
       <c r="I68" s="11"/>
       <c r="J68" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="63" customHeight="1">
       <c r="A69" s="17" t="s">
-        <v>455</v>
+        <v>385</v>
       </c>
       <c r="B69" s="14">
         <v>45054.916666666664</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>472</v>
+        <v>402</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>456</v>
+        <v>386</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F69" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>457</v>
+        <v>387</v>
       </c>
       <c r="I69" s="17"/>
       <c r="J69" s="16"/>
     </row>
     <row r="70" spans="1:10" ht="63" customHeight="1">
       <c r="A70" s="11" t="s">
-        <v>458</v>
+        <v>388</v>
       </c>
       <c r="B70" s="8">
         <v>45054.916666666664</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>473</v>
+        <v>403</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>459</v>
+        <v>389</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H70" s="33" t="s">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="I70" s="11"/>
       <c r="J70" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="63" customHeight="1">
       <c r="A71" s="17" t="s">
-        <v>464</v>
+        <v>394</v>
       </c>
       <c r="B71" s="14">
         <v>45055.041666666664</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>474</v>
+        <v>404</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>465</v>
+        <v>395</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="63" customHeight="1">
-      <c r="A72" s="63" t="s">
-        <v>466</v>
-      </c>
-      <c r="B72" s="64">
+      <c r="A72" s="61" t="s">
+        <v>396</v>
+      </c>
+      <c r="B72" s="62">
         <v>45055.041666666664</v>
       </c>
-      <c r="C72" s="63" t="s">
-        <v>476</v>
-      </c>
-      <c r="D72" s="63" t="s">
-        <v>475</v>
-      </c>
-      <c r="E72" s="65" t="s">
-        <v>467</v>
-      </c>
-      <c r="F72" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="G72" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="H72" s="66" t="s">
-        <v>468</v>
-      </c>
-      <c r="I72" s="63"/>
-      <c r="J72" s="65" t="s">
-        <v>271</v>
+      <c r="C72" s="61" t="s">
+        <v>406</v>
+      </c>
+      <c r="D72" s="61" t="s">
+        <v>405</v>
+      </c>
+      <c r="E72" s="63" t="s">
+        <v>397</v>
+      </c>
+      <c r="F72" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="G72" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H72" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="I72" s="61"/>
+      <c r="J72" s="63" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="63" customHeight="1">
-      <c r="A73" s="72" t="s">
-        <v>477</v>
-      </c>
-      <c r="B73" s="73">
+      <c r="A73" s="69" t="s">
+        <v>407</v>
+      </c>
+      <c r="B73" s="70">
         <v>45055.770833333336</v>
       </c>
-      <c r="C73" s="72" t="s">
-        <v>478</v>
-      </c>
-      <c r="D73" s="72" t="s">
-        <v>479</v>
-      </c>
-      <c r="E73" s="74" t="s">
-        <v>292</v>
-      </c>
-      <c r="F73" s="74" t="s">
+      <c r="C73" s="69" t="s">
+        <v>408</v>
+      </c>
+      <c r="D73" s="69" t="s">
+        <v>409</v>
+      </c>
+      <c r="E73" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="F73" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="G73" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="H73" s="75" t="s">
-        <v>480</v>
-      </c>
-      <c r="I73" s="72"/>
-      <c r="J73" s="74" t="s">
-        <v>529</v>
+      <c r="G73" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="H73" s="72" t="s">
+        <v>410</v>
+      </c>
+      <c r="I73" s="69"/>
+      <c r="J73" s="71" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="63" customHeight="1">
       <c r="A74" s="17" t="s">
-        <v>477</v>
+        <v>407</v>
       </c>
       <c r="B74" s="14">
         <v>45055.770833333336</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>481</v>
+        <v>411</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>482</v>
+        <v>412</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="F74" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H74" s="28" t="s">
-        <v>483</v>
+        <v>413</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="63" customHeight="1">
       <c r="A75" s="17" t="s">
-        <v>484</v>
+        <v>414</v>
       </c>
       <c r="B75" s="14">
         <v>45056.770833333336</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>485</v>
+        <v>415</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>486</v>
+        <v>416</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="F75" s="16" t="s">
         <v>9</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H75" s="28" t="s">
-        <v>487</v>
+        <v>417</v>
       </c>
       <c r="I75" s="17"/>
       <c r="J75" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="63" customHeight="1">
       <c r="A76" s="17" t="s">
-        <v>488</v>
+        <v>418</v>
       </c>
       <c r="B76" s="14">
         <v>45056.958333333336</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>489</v>
+        <v>419</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>490</v>
+        <v>420</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H76" s="28" t="s">
-        <v>491</v>
+        <v>421</v>
       </c>
       <c r="I76" s="17"/>
       <c r="J76" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="63" customHeight="1">
       <c r="A77" s="17" t="s">
-        <v>492</v>
+        <v>422</v>
       </c>
       <c r="B77" s="14">
         <v>45056.96875</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>493</v>
+        <v>423</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>494</v>
+        <v>424</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H77" s="28" t="s">
-        <v>495</v>
+        <v>425</v>
       </c>
       <c r="I77" s="17"/>
       <c r="J77" s="16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="63" customHeight="1">
       <c r="A78" s="11" t="s">
-        <v>496</v>
+        <v>426</v>
       </c>
       <c r="B78" s="8">
         <v>45057</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>498</v>
+        <v>428</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>499</v>
+        <v>429</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>508</v>
+        <v>438</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H78" s="33" t="s">
-        <v>497</v>
+        <v>427</v>
       </c>
       <c r="I78" s="11"/>
       <c r="J78" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="63" customHeight="1">
-      <c r="A79" s="72" t="s">
-        <v>505</v>
-      </c>
-      <c r="B79" s="73">
+      <c r="A79" s="69" t="s">
+        <v>435</v>
+      </c>
+      <c r="B79" s="70">
         <v>45057.375</v>
       </c>
-      <c r="C79" s="72" t="s">
-        <v>509</v>
-      </c>
-      <c r="D79" s="72" t="s">
-        <v>506</v>
-      </c>
-      <c r="E79" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="F79" s="74" t="s">
+      <c r="C79" s="69" t="s">
+        <v>439</v>
+      </c>
+      <c r="D79" s="69" t="s">
+        <v>436</v>
+      </c>
+      <c r="E79" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="F79" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G79" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="H79" s="75" t="s">
-        <v>507</v>
-      </c>
-      <c r="I79" s="72"/>
-      <c r="J79" s="74" t="s">
-        <v>178</v>
+      <c r="G79" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="H79" s="72" t="s">
+        <v>437</v>
+      </c>
+      <c r="I79" s="69"/>
+      <c r="J79" s="71" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="63" customHeight="1">
       <c r="A80" s="11" t="s">
-        <v>510</v>
+        <v>440</v>
       </c>
       <c r="B80" s="8">
         <v>45057.927083333336</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>511</v>
+        <v>441</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>512</v>
+        <v>442</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H80" s="33" t="s">
-        <v>513</v>
+        <v>443</v>
       </c>
       <c r="I80" s="11"/>
       <c r="J80" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="63" customHeight="1">
-      <c r="A81" s="72" t="s">
-        <v>510</v>
-      </c>
-      <c r="B81" s="73">
+      <c r="A81" s="69" t="s">
+        <v>440</v>
+      </c>
+      <c r="B81" s="70">
         <v>45058.020833333336</v>
       </c>
-      <c r="C81" s="72" t="s">
-        <v>514</v>
-      </c>
-      <c r="D81" s="72" t="s">
-        <v>515</v>
-      </c>
-      <c r="E81" s="74" t="s">
-        <v>227</v>
-      </c>
-      <c r="F81" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="G81" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="H81" s="75" t="s">
-        <v>516</v>
-      </c>
-      <c r="I81" s="72"/>
-      <c r="J81" s="74" t="s">
-        <v>178</v>
+      <c r="C81" s="69" t="s">
+        <v>444</v>
+      </c>
+      <c r="D81" s="69" t="s">
+        <v>445</v>
+      </c>
+      <c r="E81" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="F81" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="G81" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="H81" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="I81" s="69"/>
+      <c r="J81" s="71" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="63" customHeight="1">
       <c r="A82" s="17" t="s">
-        <v>527</v>
+        <v>457</v>
       </c>
       <c r="B82" s="14">
         <v>45058.354166666664</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>517</v>
+        <v>447</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>518</v>
+        <v>448</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G82" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H82" s="28" t="s">
-        <v>519</v>
+        <v>449</v>
       </c>
       <c r="I82" s="17"/>
       <c r="J82" s="16" t="s">
-        <v>383</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="63" customHeight="1">
-      <c r="A83" s="72" t="s">
-        <v>520</v>
-      </c>
-      <c r="B83" s="73">
+      <c r="A83" s="69" t="s">
+        <v>450</v>
+      </c>
+      <c r="B83" s="70">
         <v>45058.375</v>
       </c>
-      <c r="C83" s="72" t="s">
-        <v>521</v>
-      </c>
-      <c r="D83" s="72" t="s">
-        <v>522</v>
-      </c>
-      <c r="E83" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="F83" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="G83" s="74" t="s">
+      <c r="C83" s="69" t="s">
+        <v>451</v>
+      </c>
+      <c r="D83" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="E83" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="F83" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="G83" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="H83" s="75" t="s">
-        <v>523</v>
-      </c>
-      <c r="I83" s="72"/>
-      <c r="J83" s="74" t="s">
+      <c r="H83" s="72" t="s">
+        <v>453</v>
+      </c>
+      <c r="I83" s="69"/>
+      <c r="J83" s="71" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="63" customHeight="1">
       <c r="A84" s="17" t="s">
-        <v>505</v>
+        <v>435</v>
       </c>
       <c r="B84" s="14">
         <v>45058.375</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>524</v>
+        <v>454</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>525</v>
+        <v>455</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H84" s="28" t="s">
-        <v>526</v>
+        <v>456</v>
       </c>
       <c r="I84" s="17"/>
       <c r="J84" s="16" t="s">
@@ -13741,28 +12948,28 @@
     </row>
     <row r="85" spans="1:10" ht="63" customHeight="1">
       <c r="A85" s="11" t="s">
-        <v>530</v>
+        <v>460</v>
       </c>
       <c r="B85" s="8">
         <v>45058.729166666664</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>644</v>
+        <v>571</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>397</v>
+        <v>330</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>57</v>
       </c>
       <c r="H85" s="33" t="s">
-        <v>531</v>
+        <v>461</v>
       </c>
       <c r="I85" s="11"/>
       <c r="J85" s="10" t="s">
@@ -13771,88 +12978,88 @@
     </row>
     <row r="86" spans="1:10" ht="63" customHeight="1">
       <c r="A86" s="11" t="s">
-        <v>532</v>
+        <v>462</v>
       </c>
       <c r="B86" s="8">
         <v>45058.958333333336</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>645</v>
+        <v>572</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
       <c r="H86" s="33" t="s">
-        <v>534</v>
+        <v>464</v>
       </c>
       <c r="I86" s="11"/>
       <c r="J86" s="10" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="63" customHeight="1">
-      <c r="A87" s="63" t="s">
-        <v>535</v>
-      </c>
-      <c r="B87" s="64">
+      <c r="A87" s="61" t="s">
+        <v>465</v>
+      </c>
+      <c r="B87" s="62">
         <v>45059</v>
       </c>
-      <c r="C87" s="63" t="s">
-        <v>646</v>
-      </c>
-      <c r="D87" s="63" t="s">
-        <v>256</v>
-      </c>
-      <c r="E87" s="65" t="s">
-        <v>536</v>
-      </c>
-      <c r="F87" s="65" t="s">
+      <c r="C87" s="61" t="s">
+        <v>573</v>
+      </c>
+      <c r="D87" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="E87" s="63" t="s">
+        <v>466</v>
+      </c>
+      <c r="F87" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="G87" s="65" t="s">
-        <v>537</v>
-      </c>
-      <c r="H87" s="66" t="s">
-        <v>538</v>
-      </c>
-      <c r="I87" s="63"/>
-      <c r="J87" s="65" t="s">
-        <v>271</v>
+      <c r="G87" s="63" t="s">
+        <v>467</v>
+      </c>
+      <c r="H87" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="I87" s="61"/>
+      <c r="J87" s="63" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="63" customHeight="1">
       <c r="A88" s="17" t="s">
-        <v>539</v>
+        <v>469</v>
       </c>
       <c r="B88" s="14">
         <v>45059.041666666664</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>647</v>
+        <v>574</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>648</v>
+        <v>575</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
       <c r="H88" s="28" t="s">
-        <v>540</v>
+        <v>470</v>
       </c>
       <c r="I88" s="17"/>
       <c r="J88" s="16" t="s">
@@ -13861,1228 +13068,1228 @@
     </row>
     <row r="89" spans="1:10" ht="63" customHeight="1">
       <c r="A89" s="17" t="s">
-        <v>541</v>
+        <v>471</v>
       </c>
       <c r="B89" s="14">
         <v>45059.041666666664</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>649</v>
+        <v>576</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>65</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
       <c r="H89" s="28" t="s">
-        <v>542</v>
+        <v>472</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="16" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="63" customHeight="1">
       <c r="A90" s="17" t="s">
-        <v>543</v>
+        <v>473</v>
       </c>
       <c r="B90" s="14">
         <v>45059.0625</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>650</v>
+        <v>577</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>544</v>
+        <v>474</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>545</v>
+        <v>475</v>
       </c>
       <c r="F90" s="16" t="s">
         <v>9</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
       <c r="H90" s="28" t="s">
-        <v>546</v>
+        <v>476</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="63" customHeight="1">
       <c r="A91" s="17" t="s">
-        <v>543</v>
+        <v>473</v>
       </c>
       <c r="B91" s="14">
         <v>45059.0625</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>651</v>
+        <v>578</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>547</v>
+        <v>477</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
       <c r="H91" s="28" t="s">
-        <v>548</v>
+        <v>478</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="63" customHeight="1">
       <c r="A92" s="17" t="s">
-        <v>543</v>
+        <v>473</v>
       </c>
       <c r="B92" s="14">
         <v>45059.0625</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>549</v>
+        <v>479</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="F92" s="16" t="s">
         <v>55</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
       <c r="H92" s="28" t="s">
-        <v>551</v>
+        <v>481</v>
       </c>
       <c r="I92" s="17"/>
       <c r="J92" s="16" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="63" customHeight="1">
       <c r="A93" s="11" t="s">
-        <v>552</v>
+        <v>482</v>
       </c>
       <c r="B93" s="8">
         <v>45059.0625</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>652</v>
+        <v>579</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>553</v>
+        <v>483</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
       <c r="H93" s="33" t="s">
-        <v>554</v>
+        <v>484</v>
       </c>
       <c r="I93" s="11"/>
       <c r="J93" s="10" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="63" customHeight="1">
       <c r="A94" s="11" t="s">
-        <v>555</v>
+        <v>485</v>
       </c>
       <c r="B94" s="8">
         <v>45059.083333333336</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>653</v>
+        <v>580</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>556</v>
+        <v>486</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
       <c r="H94" s="33" t="s">
-        <v>557</v>
+        <v>487</v>
       </c>
       <c r="I94" s="11"/>
       <c r="J94" s="10" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="63" customHeight="1">
-      <c r="A95" s="78" t="s">
-        <v>558</v>
-      </c>
-      <c r="B95" s="79">
+      <c r="A95" s="75" t="s">
+        <v>488</v>
+      </c>
+      <c r="B95" s="76">
         <v>45059.083333333336</v>
       </c>
-      <c r="C95" s="78" t="s">
-        <v>654</v>
-      </c>
-      <c r="D95" s="78" t="s">
-        <v>559</v>
-      </c>
-      <c r="E95" s="80" t="s">
-        <v>242</v>
-      </c>
-      <c r="F95" s="80" t="s">
-        <v>245</v>
-      </c>
-      <c r="G95" s="80" t="s">
-        <v>537</v>
-      </c>
-      <c r="H95" s="81" t="s">
-        <v>560</v>
-      </c>
-      <c r="I95" s="78"/>
-      <c r="J95" s="80" t="s">
-        <v>537</v>
+      <c r="C95" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="D95" s="75" t="s">
+        <v>489</v>
+      </c>
+      <c r="E95" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="F95" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="G95" s="77" t="s">
+        <v>467</v>
+      </c>
+      <c r="H95" s="78" t="s">
+        <v>490</v>
+      </c>
+      <c r="I95" s="75"/>
+      <c r="J95" s="77" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="63" customHeight="1">
-      <c r="A96" s="78" t="s">
-        <v>561</v>
-      </c>
-      <c r="B96" s="79">
+      <c r="A96" s="75" t="s">
+        <v>491</v>
+      </c>
+      <c r="B96" s="76">
         <v>45059.833333333336</v>
       </c>
-      <c r="C96" s="78" t="s">
-        <v>655</v>
-      </c>
-      <c r="D96" s="78" t="s">
-        <v>562</v>
-      </c>
-      <c r="E96" s="80" t="s">
-        <v>230</v>
-      </c>
-      <c r="F96" s="80" t="s">
+      <c r="C96" s="75" t="s">
+        <v>582</v>
+      </c>
+      <c r="D96" s="75" t="s">
+        <v>492</v>
+      </c>
+      <c r="E96" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="F96" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G96" s="80" t="s">
-        <v>533</v>
-      </c>
-      <c r="H96" s="81" t="s">
-        <v>563</v>
-      </c>
-      <c r="I96" s="78"/>
-      <c r="J96" s="80" t="s">
-        <v>533</v>
+      <c r="G96" s="77" t="s">
+        <v>463</v>
+      </c>
+      <c r="H96" s="78" t="s">
+        <v>493</v>
+      </c>
+      <c r="I96" s="75"/>
+      <c r="J96" s="77" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="63" customHeight="1">
       <c r="A97" s="11" t="s">
-        <v>564</v>
+        <v>494</v>
       </c>
       <c r="B97" s="8">
         <v>45059.8125</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>656</v>
+        <v>583</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>565</v>
+        <v>495</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
       <c r="H97" s="33" t="s">
-        <v>566</v>
+        <v>496</v>
       </c>
       <c r="I97" s="11"/>
       <c r="J97" s="10" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="63" customHeight="1">
       <c r="A98" s="11" t="s">
-        <v>564</v>
+        <v>494</v>
       </c>
       <c r="B98" s="8">
         <v>45059.8125</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>658</v>
+        <v>585</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>657</v>
+        <v>584</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
       <c r="H98" s="33" t="s">
-        <v>567</v>
+        <v>497</v>
       </c>
       <c r="I98" s="11"/>
       <c r="J98" s="10" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="63" customHeight="1">
       <c r="A99" s="17" t="s">
-        <v>568</v>
+        <v>498</v>
       </c>
       <c r="B99" s="14">
         <v>45059.833333333336</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>659</v>
+        <v>586</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>569</v>
+        <v>499</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
       <c r="H99" s="28" t="s">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="I99" s="17"/>
       <c r="J99" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="63" customHeight="1">
       <c r="A100" s="17" t="s">
-        <v>561</v>
+        <v>491</v>
       </c>
       <c r="B100" s="14">
         <v>45059.833333333336</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>660</v>
+        <v>587</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>571</v>
+        <v>501</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
       <c r="H100" s="28" t="s">
-        <v>572</v>
+        <v>502</v>
       </c>
       <c r="I100" s="17"/>
       <c r="J100" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="63" customHeight="1">
-      <c r="A101" s="78" t="s">
-        <v>535</v>
-      </c>
-      <c r="B101" s="79">
+      <c r="A101" s="75" t="s">
+        <v>465</v>
+      </c>
+      <c r="B101" s="76">
         <v>45059.958333333336</v>
       </c>
-      <c r="C101" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="D101" s="78" t="s">
-        <v>573</v>
-      </c>
-      <c r="E101" s="80" t="s">
-        <v>230</v>
-      </c>
-      <c r="F101" s="80" t="s">
+      <c r="C101" s="75" t="s">
+        <v>588</v>
+      </c>
+      <c r="D101" s="75" t="s">
+        <v>503</v>
+      </c>
+      <c r="E101" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="F101" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="G101" s="80" t="s">
-        <v>533</v>
-      </c>
-      <c r="H101" s="81" t="s">
-        <v>574</v>
-      </c>
-      <c r="I101" s="78"/>
-      <c r="J101" s="80" t="s">
-        <v>533</v>
+      <c r="G101" s="77" t="s">
+        <v>463</v>
+      </c>
+      <c r="H101" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="I101" s="75"/>
+      <c r="J101" s="77" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="63" customHeight="1">
       <c r="A102" s="17" t="s">
-        <v>575</v>
+        <v>505</v>
       </c>
       <c r="B102" s="14">
         <v>45059.958333333336</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>662</v>
+        <v>589</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>576</v>
+        <v>506</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
       <c r="H102" s="28" t="s">
-        <v>577</v>
+        <v>507</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="16" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="63" customHeight="1">
       <c r="A103" s="17" t="s">
-        <v>578</v>
+        <v>508</v>
       </c>
       <c r="B103" s="14">
         <v>45059.958333333336</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>663</v>
+        <v>590</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>579</v>
+        <v>509</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
       <c r="H103" s="28" t="s">
-        <v>581</v>
+        <v>511</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="16" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="63" customHeight="1">
       <c r="A104" s="11" t="s">
-        <v>578</v>
+        <v>508</v>
       </c>
       <c r="B104" s="8">
         <v>45059.958333333336</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>664</v>
+        <v>591</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>582</v>
+        <v>512</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
       <c r="H104" s="33" t="s">
-        <v>583</v>
+        <v>513</v>
       </c>
       <c r="I104" s="11"/>
       <c r="J104" s="10" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="63" customHeight="1">
       <c r="A105" s="11" t="s">
-        <v>584</v>
+        <v>514</v>
       </c>
       <c r="B105" s="8">
         <v>45059.979166666664</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>585</v>
+        <v>515</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
       <c r="H105" s="33" t="s">
-        <v>586</v>
+        <v>516</v>
       </c>
       <c r="I105" s="11"/>
       <c r="J105" s="10" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="63" customHeight="1">
       <c r="A106" s="17" t="s">
-        <v>587</v>
+        <v>517</v>
       </c>
       <c r="B106" s="14">
         <v>45059.979166666664</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>665</v>
+        <v>592</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>588</v>
+        <v>518</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="F106" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
       <c r="H106" s="28" t="s">
-        <v>589</v>
+        <v>519</v>
       </c>
       <c r="I106" s="17"/>
       <c r="J106" s="16" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="63" customHeight="1">
       <c r="A107" s="17" t="s">
-        <v>590</v>
+        <v>520</v>
       </c>
       <c r="B107" s="14">
         <v>45059.979166666664</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>666</v>
+        <v>593</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>591</v>
+        <v>521</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
       <c r="H107" s="28" t="s">
-        <v>592</v>
+        <v>522</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="16" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="63" customHeight="1">
       <c r="A108" s="17" t="s">
-        <v>552</v>
+        <v>482</v>
       </c>
       <c r="B108" s="14">
         <v>45060</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>667</v>
+        <v>594</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>593</v>
+        <v>523</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
       <c r="H108" s="28" t="s">
-        <v>594</v>
+        <v>524</v>
       </c>
       <c r="I108" s="17"/>
       <c r="J108" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="63" customHeight="1">
       <c r="A109" s="11" t="s">
-        <v>568</v>
+        <v>498</v>
       </c>
       <c r="B109" s="8">
         <v>45060.020833333336</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>668</v>
+        <v>595</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>669</v>
+        <v>596</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
       <c r="H109" s="33" t="s">
-        <v>595</v>
+        <v>525</v>
       </c>
       <c r="I109" s="11"/>
       <c r="J109" s="10" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="63" customHeight="1">
       <c r="A110" s="17" t="s">
-        <v>596</v>
+        <v>526</v>
       </c>
       <c r="B110" s="14">
         <v>45060.875</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>670</v>
+        <v>597</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>597</v>
+        <v>527</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
       <c r="H110" s="28" t="s">
-        <v>598</v>
+        <v>528</v>
       </c>
       <c r="I110" s="17"/>
       <c r="J110" s="16" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="63" customHeight="1">
       <c r="A111" s="17" t="s">
-        <v>602</v>
+        <v>530</v>
       </c>
       <c r="B111" s="14">
         <v>45060.875</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>671</v>
+        <v>598</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>603</v>
+        <v>531</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G111" s="16" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
       <c r="H111" s="28" t="s">
-        <v>604</v>
+        <v>532</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="63" customHeight="1">
       <c r="A112" s="17" t="s">
-        <v>605</v>
+        <v>533</v>
       </c>
       <c r="B112" s="14">
         <v>45060.875</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>606</v>
+        <v>534</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="F112" s="16" t="s">
         <v>9</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
       <c r="H112" s="28" t="s">
-        <v>607</v>
+        <v>535</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="63" customHeight="1">
       <c r="A113" s="11" t="s">
-        <v>605</v>
+        <v>533</v>
       </c>
       <c r="B113" s="8">
         <v>45060.875</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>672</v>
+        <v>599</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>608</v>
+        <v>536</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G113" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="H113" s="33" t="s">
         <v>537</v>
-      </c>
-      <c r="H113" s="33" t="s">
-        <v>609</v>
       </c>
       <c r="I113" s="11"/>
       <c r="J113" s="10" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="63" customHeight="1">
       <c r="A114" s="11" t="s">
-        <v>610</v>
+        <v>538</v>
       </c>
       <c r="B114" s="8">
         <v>45060.916666666664</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>673</v>
+        <v>600</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>611</v>
+        <v>539</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="F114" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
       <c r="H114" s="33" t="s">
-        <v>612</v>
+        <v>540</v>
       </c>
       <c r="I114" s="11"/>
       <c r="J114" s="10" t="s">
-        <v>383</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="63" customHeight="1">
       <c r="A115" s="17" t="s">
-        <v>539</v>
+        <v>469</v>
       </c>
       <c r="B115" s="14">
         <v>45060.9375</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>674</v>
+        <v>601</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="F115" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H115" s="28" t="s">
-        <v>613</v>
+        <v>541</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="63" customHeight="1">
       <c r="A116" s="11" t="s">
-        <v>614</v>
+        <v>542</v>
       </c>
       <c r="B116" s="8">
         <v>45060.958333333336</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>675</v>
+        <v>602</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>615</v>
+        <v>543</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H116" s="34" t="s">
-        <v>616</v>
+        <v>544</v>
       </c>
       <c r="I116" s="11"/>
       <c r="J116" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="63" customHeight="1">
       <c r="A117" s="17" t="s">
-        <v>614</v>
+        <v>542</v>
       </c>
       <c r="B117" s="14">
         <v>45060.958333333336</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>676</v>
+        <v>603</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>617</v>
+        <v>545</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
       <c r="H117" s="28" t="s">
-        <v>618</v>
+        <v>546</v>
       </c>
       <c r="I117" s="17"/>
       <c r="J117" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="63" customHeight="1">
       <c r="A118" s="11" t="s">
-        <v>552</v>
+        <v>482</v>
       </c>
       <c r="B118" s="8">
         <v>45060.96875</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>677</v>
+        <v>604</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>626</v>
+        <v>553</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="F118" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
       <c r="H118" s="33" t="s">
-        <v>627</v>
+        <v>554</v>
       </c>
       <c r="I118" s="11"/>
       <c r="J118" s="10" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="63" customHeight="1">
       <c r="A119" s="17" t="s">
-        <v>575</v>
+        <v>505</v>
       </c>
       <c r="B119" s="14">
         <v>45061</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>678</v>
+        <v>605</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>640</v>
+        <v>567</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="F119" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G119" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
       <c r="H119" s="28" t="s">
-        <v>641</v>
+        <v>568</v>
       </c>
       <c r="I119" s="17"/>
       <c r="J119" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="63" customHeight="1">
       <c r="A120" s="17" t="s">
-        <v>505</v>
+        <v>435</v>
       </c>
       <c r="B120" s="14">
         <v>45061.378472222219</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>694</v>
+        <v>621</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>524</v>
+        <v>454</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H120" s="28" t="s">
-        <v>685</v>
+        <v>612</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="63" customHeight="1">
       <c r="A121" s="17" t="s">
-        <v>686</v>
+        <v>613</v>
       </c>
       <c r="B121" s="14">
         <v>45061.395833333336</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>687</v>
+        <v>614</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>688</v>
+        <v>615</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H121" s="28" t="s">
-        <v>689</v>
+        <v>616</v>
       </c>
       <c r="I121" s="17"/>
       <c r="J121" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="63" customHeight="1">
-      <c r="A122" s="78" t="s">
-        <v>690</v>
-      </c>
-      <c r="B122" s="79">
+      <c r="A122" s="75" t="s">
+        <v>617</v>
+      </c>
+      <c r="B122" s="76">
         <v>45061.395833333336</v>
       </c>
-      <c r="C122" s="78" t="s">
-        <v>691</v>
-      </c>
-      <c r="D122" s="78" t="s">
-        <v>692</v>
-      </c>
-      <c r="E122" s="80" t="s">
-        <v>257</v>
-      </c>
-      <c r="F122" s="80" t="s">
+      <c r="C122" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D122" s="75" t="s">
+        <v>619</v>
+      </c>
+      <c r="E122" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G122" s="80" t="s">
-        <v>533</v>
-      </c>
-      <c r="H122" s="81" t="s">
-        <v>693</v>
-      </c>
-      <c r="I122" s="78"/>
-      <c r="J122" s="80" t="s">
-        <v>533</v>
+      <c r="G122" s="77" t="s">
+        <v>463</v>
+      </c>
+      <c r="H122" s="78" t="s">
+        <v>620</v>
+      </c>
+      <c r="I122" s="75"/>
+      <c r="J122" s="77" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="63" customHeight="1">
-      <c r="A123" s="78" t="s">
-        <v>695</v>
-      </c>
-      <c r="B123" s="79">
+      <c r="A123" s="75" t="s">
+        <v>622</v>
+      </c>
+      <c r="B123" s="76">
         <v>45061.916666666664</v>
       </c>
-      <c r="C123" s="78" t="s">
-        <v>712</v>
-      </c>
-      <c r="D123" s="78" t="s">
-        <v>696</v>
-      </c>
-      <c r="E123" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="F123" s="80" t="s">
+      <c r="C123" s="75" t="s">
+        <v>639</v>
+      </c>
+      <c r="D123" s="75" t="s">
+        <v>623</v>
+      </c>
+      <c r="E123" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F123" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="G123" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="H123" s="81" t="s">
-        <v>697</v>
-      </c>
-      <c r="I123" s="78"/>
-      <c r="J123" s="80" t="s">
-        <v>383</v>
+      <c r="G123" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="H123" s="78" t="s">
+        <v>624</v>
+      </c>
+      <c r="I123" s="75"/>
+      <c r="J123" s="77" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="63" customHeight="1">
-      <c r="A124" s="78" t="s">
-        <v>596</v>
-      </c>
-      <c r="B124" s="79">
+      <c r="A124" s="75" t="s">
+        <v>526</v>
+      </c>
+      <c r="B124" s="76">
         <v>45062</v>
       </c>
-      <c r="C124" s="78" t="s">
-        <v>713</v>
-      </c>
-      <c r="D124" s="78" t="s">
-        <v>698</v>
-      </c>
-      <c r="E124" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="F124" s="80" t="s">
-        <v>201</v>
-      </c>
-      <c r="G124" s="80" t="s">
-        <v>533</v>
-      </c>
-      <c r="H124" s="81" t="s">
-        <v>699</v>
-      </c>
-      <c r="I124" s="78"/>
-      <c r="J124" s="80" t="s">
-        <v>533</v>
+      <c r="C124" s="75" t="s">
+        <v>640</v>
+      </c>
+      <c r="D124" s="75" t="s">
+        <v>625</v>
+      </c>
+      <c r="E124" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="F124" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="G124" s="77" t="s">
+        <v>463</v>
+      </c>
+      <c r="H124" s="78" t="s">
+        <v>626</v>
+      </c>
+      <c r="I124" s="75"/>
+      <c r="J124" s="77" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="63" customHeight="1">
       <c r="A125" s="17" t="s">
-        <v>543</v>
+        <v>473</v>
       </c>
       <c r="B125" s="14">
         <v>45062.020833333336</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>714</v>
+        <v>641</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>700</v>
+        <v>627</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F125" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
       <c r="H125" s="28" t="s">
-        <v>701</v>
+        <v>628</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="63" customHeight="1">
       <c r="A126" s="17" t="s">
-        <v>590</v>
+        <v>520</v>
       </c>
       <c r="B126" s="14">
         <v>45062.048611111109</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>715</v>
+        <v>642</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>702</v>
+        <v>629</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
       <c r="H126" s="28" t="s">
-        <v>703</v>
+        <v>630</v>
       </c>
       <c r="I126" s="17"/>
       <c r="J126" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="63" customHeight="1">
       <c r="A127" s="11" t="s">
-        <v>704</v>
+        <v>631</v>
       </c>
       <c r="B127" s="8">
         <v>45062.104166666664</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>716</v>
+        <v>643</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>705</v>
+        <v>632</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H127" s="33" t="s">
-        <v>706</v>
+        <v>633</v>
       </c>
       <c r="I127" s="11"/>
       <c r="J127" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="63" customHeight="1">
       <c r="A128" s="11" t="s">
-        <v>610</v>
+        <v>538</v>
       </c>
       <c r="B128" s="8">
         <v>45062.104166666664</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>717</v>
+        <v>644</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>707</v>
+        <v>634</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H128" s="33" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
       <c r="I128" s="11"/>
       <c r="J128" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="63" customHeight="1">
       <c r="A129" s="17" t="s">
-        <v>709</v>
+        <v>636</v>
       </c>
       <c r="B129" s="14">
         <v>45062.114583333336</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>718</v>
+        <v>645</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>710</v>
+        <v>637</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="F129" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H129" s="28" t="s">
-        <v>711</v>
+        <v>638</v>
       </c>
       <c r="I129" s="17"/>
       <c r="J129" s="16" t="s">
@@ -15090,348 +14297,364 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="63" customHeight="1">
-      <c r="A130" s="78" t="s">
-        <v>719</v>
-      </c>
-      <c r="B130" s="79">
+      <c r="A130" s="75" t="s">
+        <v>646</v>
+      </c>
+      <c r="B130" s="76">
         <v>45062.333333333336</v>
       </c>
-      <c r="C130" s="78" t="s">
-        <v>720</v>
-      </c>
-      <c r="D130" s="78" t="s">
-        <v>721</v>
-      </c>
-      <c r="E130" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="F130" s="80" t="s">
+      <c r="C130" s="75" t="s">
+        <v>647</v>
+      </c>
+      <c r="D130" s="75" t="s">
+        <v>648</v>
+      </c>
+      <c r="E130" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="F130" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G130" s="80" t="s">
-        <v>533</v>
-      </c>
-      <c r="H130" s="81" t="s">
-        <v>722</v>
-      </c>
-      <c r="I130" s="78"/>
-      <c r="J130" s="80" t="s">
-        <v>529</v>
+      <c r="G130" s="77" t="s">
+        <v>463</v>
+      </c>
+      <c r="H130" s="78" t="s">
+        <v>649</v>
+      </c>
+      <c r="I130" s="75"/>
+      <c r="J130" s="77" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="63" customHeight="1">
       <c r="A131" s="11" t="s">
-        <v>723</v>
+        <v>650</v>
       </c>
       <c r="B131" s="8">
         <v>45062.916666666664</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>741</v>
+        <v>668</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>724</v>
+        <v>651</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H131" s="33" t="s">
-        <v>725</v>
+        <v>652</v>
       </c>
       <c r="I131" s="11"/>
       <c r="J131" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="63" customHeight="1">
       <c r="A132" s="11" t="s">
-        <v>726</v>
+        <v>653</v>
       </c>
       <c r="B132" s="8">
         <v>45062.916666666664</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>742</v>
+        <v>669</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>727</v>
+        <v>654</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
       <c r="H132" s="33" t="s">
-        <v>728</v>
+        <v>655</v>
       </c>
       <c r="I132" s="11"/>
       <c r="J132" s="10" t="s">
-        <v>529</v>
+        <v>459</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="63" customHeight="1">
       <c r="A133" s="17" t="s">
-        <v>726</v>
+        <v>653</v>
       </c>
       <c r="B133" s="14">
         <v>45062.916666666664</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>743</v>
+        <v>670</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>729</v>
+        <v>656</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F133" s="16" t="s">
         <v>55</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
       <c r="H133" s="28" t="s">
-        <v>730</v>
+        <v>657</v>
       </c>
       <c r="I133" s="17"/>
       <c r="J133" s="16" t="s">
-        <v>383</v>
+        <v>322</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="63" customHeight="1">
       <c r="A134" s="17" t="s">
-        <v>731</v>
+        <v>658</v>
       </c>
       <c r="B134" s="14">
         <v>45062.958333333336</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>744</v>
+        <v>671</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>732</v>
+        <v>659</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="F134" s="16" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H134" s="28" t="s">
-        <v>733</v>
+        <v>660</v>
       </c>
       <c r="I134" s="17"/>
       <c r="J134" s="16" t="s">
-        <v>533</v>
+        <v>463</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="63" customHeight="1">
-      <c r="A135" s="78" t="s">
-        <v>734</v>
-      </c>
-      <c r="B135" s="79">
+      <c r="A135" s="75" t="s">
+        <v>661</v>
+      </c>
+      <c r="B135" s="76">
         <v>45063</v>
       </c>
-      <c r="C135" s="78" t="s">
-        <v>745</v>
-      </c>
-      <c r="D135" s="78" t="s">
+      <c r="C135" s="75" t="s">
+        <v>672</v>
+      </c>
+      <c r="D135" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="E135" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="F135" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="G135" s="77" t="s">
         <v>463</v>
       </c>
-      <c r="E135" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="F135" s="80" t="s">
-        <v>201</v>
-      </c>
-      <c r="G135" s="80" t="s">
-        <v>533</v>
-      </c>
-      <c r="H135" s="81" t="s">
-        <v>735</v>
-      </c>
-      <c r="I135" s="78"/>
-      <c r="J135" s="80" t="s">
-        <v>529</v>
+      <c r="H135" s="78" t="s">
+        <v>662</v>
+      </c>
+      <c r="I135" s="75"/>
+      <c r="J135" s="77" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="63" customHeight="1">
       <c r="A136" s="11" t="s">
-        <v>731</v>
+        <v>658</v>
       </c>
       <c r="B136" s="8">
         <v>45063</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>746</v>
+        <v>673</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>736</v>
+        <v>663</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>433</v>
+        <v>363</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H136" s="33" t="s">
-        <v>737</v>
+        <v>664</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="63" customHeight="1">
       <c r="A137" s="11" t="s">
-        <v>738</v>
+        <v>665</v>
       </c>
       <c r="B137" s="8">
         <v>45063.104166666664</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>747</v>
+        <v>674</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>739</v>
+        <v>666</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H137" s="33" t="s">
-        <v>740</v>
+        <v>667</v>
       </c>
       <c r="I137" s="11"/>
       <c r="J137" s="10" t="s">
-        <v>383</v>
+        <v>322</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="63" customHeight="1">
-      <c r="A138" s="17" t="s">
-        <v>751</v>
-      </c>
-      <c r="B138" s="14">
+      <c r="A138" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="B138" s="22">
         <v>45063.875</v>
       </c>
-      <c r="C138" s="17" t="s">
-        <v>752</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>753</v>
-      </c>
-      <c r="E138" s="16" t="s">
+      <c r="C138" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>678</v>
+      </c>
+      <c r="E138" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F138" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G138" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H138" s="68" t="s">
+        <v>679</v>
+      </c>
+      <c r="I138" s="21"/>
+      <c r="J138" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="63" customHeight="1">
+      <c r="A139" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="B139" s="8">
+        <v>45064.166666666664</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="E139" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F138" s="16"/>
-      <c r="G138" s="16" t="s">
+      <c r="F139" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G139" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H138" s="28" t="s">
-        <v>754</v>
-      </c>
-      <c r="I138" s="17"/>
-      <c r="J138" s="16"/>
-    </row>
-    <row r="139" spans="1:10" ht="63" customHeight="1">
-      <c r="A139" s="17" t="s">
-        <v>758</v>
-      </c>
-      <c r="B139" s="14">
-        <v>45064.166666666664</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>762</v>
-      </c>
-      <c r="D139" s="17" t="s">
+      <c r="H139" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="I139" s="11"/>
+      <c r="J139" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="63" customHeight="1">
+      <c r="A140" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="B140" s="8">
+        <v>45064.3125</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="D140" s="11" t="s">
         <v>687</v>
       </c>
-      <c r="E139" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F139" s="16"/>
-      <c r="G139" s="16" t="s">
+      <c r="E140" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G140" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H139" s="28" t="s">
-        <v>763</v>
-      </c>
-      <c r="I139" s="17"/>
-      <c r="J139" s="16"/>
-    </row>
-    <row r="140" spans="1:10" ht="63" customHeight="1">
-      <c r="A140" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="B140" s="14">
-        <v>45064.3125</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>766</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="F140" s="16"/>
-      <c r="G140" s="16" t="s">
+      <c r="H140" s="33" t="s">
+        <v>688</v>
+      </c>
+      <c r="I140" s="11"/>
+      <c r="J140" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H140" s="28" t="s">
-        <v>767</v>
-      </c>
-      <c r="I140" s="17"/>
-      <c r="J140" s="16"/>
     </row>
     <row r="141" spans="1:10" ht="63" customHeight="1">
       <c r="A141" s="17" t="s">
-        <v>764</v>
+        <v>686</v>
       </c>
       <c r="B141" s="14">
         <v>45064.354166666664</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>769</v>
+        <v>695</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>770</v>
+        <v>690</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F141" s="16"/>
+        <v>98</v>
+      </c>
+      <c r="F141" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="G141" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H141" s="28" t="s">
-        <v>768</v>
+        <v>689</v>
       </c>
       <c r="I141" s="17"/>
-      <c r="J141" s="16"/>
+      <c r="J141" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="142" spans="1:10" ht="63" customHeight="1">
       <c r="A142" s="17"/>
@@ -18464,16 +17687,16 @@
     </row>
     <row r="2" spans="1:9" ht="121" customHeight="1">
       <c r="A2" s="43" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B2" s="44">
         <v>45031.875</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E2" s="46" t="s">
         <v>50</v>
@@ -18486,24 +17709,24 @@
       </c>
       <c r="H2" s="26"/>
       <c r="I2" s="56" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="105" customHeight="1">
       <c r="A3" s="39" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B3" s="40">
         <v>45031.833333333336</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>58</v>
@@ -18520,104 +17743,104 @@
     </row>
     <row r="4" spans="1:9" ht="126" customHeight="1">
       <c r="A4" s="43" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B4" s="44">
         <v>45031.916666666664</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H4" s="26"/>
       <c r="I4" s="47" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="44" customHeight="1">
       <c r="A5" s="39" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B5" s="50">
         <v>45036.03125</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="39" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="44" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B6" s="30">
         <v>45036.114583333336</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F6" s="46" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="47" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="144" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>393</v>
+        <v>326</v>
       </c>
       <c r="B7" s="30">
         <v>45051.09375</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>394</v>
+        <v>327</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>395</v>
+        <v>328</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="46" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>396</v>
+        <v>329</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="53"/>
@@ -19796,18 +19019,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5BD41-F360-D64B-BA12-0F85656DC41E}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.6640625" defaultRowHeight="50" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.6640625" defaultRowHeight="52" customHeight="1"/>
   <cols>
     <col min="7" max="7" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="50" customHeight="1">
+    <row r="1" spans="1:8" ht="52" customHeight="1">
       <c r="A1" s="37" t="s">
         <v>3</v>
       </c>
@@ -19824,7 +19047,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="G1" s="37" t="s">
         <v>6</v>
@@ -19833,825 +19056,567 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="131" customHeight="1">
+    <row r="2" spans="1:8" ht="52" customHeight="1">
       <c r="A2" s="43" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B2" s="44">
-        <v>45026.916666666664</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>16</v>
+        <v>45028.75</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>44</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>247</v>
+        <v>45</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>224</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="131" customHeight="1">
+        <v>46</v>
+      </c>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:8" ht="52" customHeight="1">
       <c r="A3" s="43" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B3" s="44">
         <v>45028.75</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>46</v>
+        <v>224</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>51</v>
       </c>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="1:8" ht="131" customHeight="1">
+    <row r="4" spans="1:8" ht="52" customHeight="1">
       <c r="A4" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="44">
+        <v>52</v>
+      </c>
+      <c r="B4" s="49">
         <v>45028.75</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:8" ht="131" customHeight="1">
+    <row r="5" spans="1:8" ht="52" customHeight="1">
       <c r="A5" s="43" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B5" s="49">
-        <v>45028.75</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>54</v>
+        <v>45031.791666666664</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>65</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="G5" s="48" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="1:8" ht="122" customHeight="1">
+    <row r="6" spans="1:8" ht="52" customHeight="1">
       <c r="A6" s="43" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B6" s="49">
-        <v>45031.791666666664</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>65</v>
+        <v>45032.815972222219</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>78</v>
       </c>
       <c r="E6" s="46" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:8" ht="50" customHeight="1">
+    <row r="7" spans="1:8" ht="52" customHeight="1">
       <c r="A7" s="43" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="B7" s="49">
-        <v>45031.815972222219</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>69</v>
+        <v>45035.75</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>162</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>247</v>
+        <v>9</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>224</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:8" ht="50" customHeight="1">
+    <row r="8" spans="1:8" ht="52" customHeight="1">
       <c r="A8" s="43" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="B8" s="49">
-        <v>45032.6875</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>145</v>
+        <v>45039.625</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>180</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>247</v>
+        <v>105</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>223</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="H8" s="26"/>
     </row>
-    <row r="9" spans="1:8" ht="50" customHeight="1">
+    <row r="9" spans="1:8" ht="52" customHeight="1">
       <c r="A9" s="43" t="s">
-        <v>67</v>
+        <v>310</v>
       </c>
       <c r="B9" s="49">
-        <v>45032.815972222219</v>
+        <v>45045.875</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="E9" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" ht="52" customHeight="1">
+      <c r="A10" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="49">
+        <v>45047.958333333336</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>700</v>
+      </c>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="1:8" ht="52" customHeight="1">
+      <c r="A11" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="B11" s="49">
+        <v>45055.041666666664</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>392</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" ht="52" customHeight="1">
+      <c r="A12" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" s="49">
+        <v>45057.34375</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>431</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" ht="52" customHeight="1">
+      <c r="A13" s="73" t="s">
+        <v>699</v>
+      </c>
+      <c r="B13" s="49">
+        <v>45060.875</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>698</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>529</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="1:8" ht="52" customHeight="1">
+      <c r="A14" s="43" t="s">
+        <v>697</v>
+      </c>
+      <c r="B14" s="49">
+        <v>45060.958333333336</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>547</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>548</v>
+      </c>
+      <c r="E14" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10" spans="1:8" ht="50" customHeight="1">
-      <c r="A10" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="49">
-        <v>45035.75</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="H10" s="26"/>
-    </row>
-    <row r="11" spans="1:8" ht="50" customHeight="1">
-      <c r="A11" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" s="49">
-        <v>45039.625</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="H11" s="26"/>
-    </row>
-    <row r="12" spans="1:8" ht="50" customHeight="1">
-      <c r="A12" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="49">
-        <v>45039.625</v>
-      </c>
-      <c r="C12" s="59" t="s">
+      <c r="F14" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" ht="52" customHeight="1">
+      <c r="A15" s="43" t="s">
+        <v>549</v>
+      </c>
+      <c r="B15" s="49">
+        <v>45060.958333333336</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>550</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>551</v>
+      </c>
+      <c r="E15" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="D12" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="E12" s="46" t="s">
+      <c r="F15" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>552</v>
+      </c>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" ht="52" customHeight="1">
+      <c r="A16" s="43" t="s">
+        <v>680</v>
+      </c>
+      <c r="B16" s="49">
+        <v>45063.958333333336</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>696</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="1:8" ht="50" customHeight="1">
-      <c r="A13" s="43" t="s">
-        <v>364</v>
-      </c>
-      <c r="B13" s="49">
-        <v>45039.791666666664</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>365</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="1:8" ht="50" customHeight="1">
-      <c r="A14" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" s="49">
-        <v>45039.875</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="1:8" ht="50" customHeight="1">
-      <c r="A15" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" s="49">
-        <v>45039.947916666664</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="1:8" ht="50" customHeight="1">
-      <c r="A16" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="B16" s="49">
-        <v>45039.958333333336</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="F16" s="61" t="s">
-        <v>247</v>
+      <c r="F16" s="60" t="s">
+        <v>223</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>222</v>
+        <v>681</v>
       </c>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="1:8" ht="50" customHeight="1">
-      <c r="A17" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="B17" s="49">
-        <v>45042.729166666664</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>274</v>
-      </c>
-      <c r="E17" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>275</v>
-      </c>
+    <row r="17" spans="1:8" ht="52" customHeight="1">
+      <c r="A17" s="43"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="1:8" ht="50" customHeight="1">
-      <c r="A18" s="43" t="s">
-        <v>362</v>
-      </c>
-      <c r="B18" s="49">
-        <v>45045.708333333336</v>
-      </c>
-      <c r="C18" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="E18" s="46" t="s">
-        <v>363</v>
-      </c>
-      <c r="F18" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="G18" s="48" t="s">
-        <v>277</v>
-      </c>
+    <row r="18" spans="1:8" ht="52" customHeight="1">
+      <c r="A18" s="43"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="1:8" ht="50" customHeight="1">
-      <c r="A19" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B19" s="49">
-        <v>45045.875</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>296</v>
-      </c>
-      <c r="E19" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="G19" s="48" t="s">
-        <v>297</v>
-      </c>
+    <row r="19" spans="1:8" ht="52" customHeight="1">
+      <c r="A19" s="43"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="1:8" ht="50" customHeight="1">
-      <c r="A20" s="43" t="s">
-        <v>294</v>
-      </c>
-      <c r="B20" s="49">
-        <v>45045.875</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="D20" s="59" t="s">
-        <v>299</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>212</v>
-      </c>
+    <row r="20" spans="1:8" ht="52" customHeight="1">
+      <c r="A20" s="43"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="1:8" ht="50" customHeight="1">
-      <c r="A21" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B21" s="49">
-        <v>45045.875</v>
-      </c>
-      <c r="C21" s="59" t="s">
-        <v>300</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>302</v>
-      </c>
+    <row r="21" spans="1:8" ht="52" customHeight="1">
+      <c r="A21" s="43"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="26"/>
     </row>
-    <row r="22" spans="1:8" ht="50" customHeight="1">
-      <c r="A22" s="43" t="s">
-        <v>368</v>
-      </c>
-      <c r="B22" s="49">
-        <v>45045.875</v>
-      </c>
-      <c r="C22" s="59" t="s">
-        <v>303</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>304</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>305</v>
-      </c>
+    <row r="22" spans="1:8" ht="52" customHeight="1">
+      <c r="A22" s="43"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="1:8" ht="74" customHeight="1">
-      <c r="A23" s="43" t="s">
-        <v>369</v>
-      </c>
-      <c r="B23" s="49">
-        <v>45045.916666666664</v>
-      </c>
-      <c r="C23" s="59" t="s">
-        <v>315</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>316</v>
-      </c>
-      <c r="E23" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G23" s="48" t="s">
-        <v>317</v>
-      </c>
+    <row r="23" spans="1:8" ht="52" customHeight="1">
+      <c r="A23" s="43"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="26"/>
     </row>
-    <row r="24" spans="1:8" ht="50" customHeight="1">
-      <c r="A24" s="43" t="s">
-        <v>369</v>
-      </c>
-      <c r="B24" s="49">
-        <v>45045.916666666664</v>
-      </c>
-      <c r="C24" s="59" t="s">
-        <v>318</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>319</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>370</v>
-      </c>
-      <c r="F24" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>320</v>
-      </c>
+    <row r="24" spans="1:8" ht="52" customHeight="1">
+      <c r="A24" s="43"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="1:8" ht="50" customHeight="1">
-      <c r="A25" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="B25" s="49">
-        <v>45045.916666666664</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>328</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>329</v>
-      </c>
-      <c r="E25" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="G25" s="48" t="s">
-        <v>330</v>
-      </c>
+    <row r="25" spans="1:8" ht="52" customHeight="1">
+      <c r="A25" s="43"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="48"/>
       <c r="H25" s="26"/>
     </row>
-    <row r="26" spans="1:8" ht="50" customHeight="1">
-      <c r="A26" s="43" t="s">
-        <v>371</v>
-      </c>
-      <c r="B26" s="49">
-        <v>45046.84375</v>
-      </c>
-      <c r="C26" s="59" t="s">
-        <v>334</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>335</v>
-      </c>
-      <c r="E26" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G26" s="48" t="s">
-        <v>336</v>
-      </c>
+    <row r="26" spans="1:8" ht="52" customHeight="1">
+      <c r="A26" s="43"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="48"/>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" spans="1:8" ht="77" customHeight="1">
-      <c r="A27" s="43" t="s">
-        <v>372</v>
-      </c>
-      <c r="B27" s="49">
-        <v>45047.958333333336</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>357</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>358</v>
-      </c>
-      <c r="E27" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>361</v>
-      </c>
+    <row r="27" spans="1:8" ht="52" customHeight="1">
+      <c r="A27" s="43"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="1:8" ht="50" customHeight="1">
-      <c r="A28" s="69" t="s">
-        <v>387</v>
-      </c>
-      <c r="B28" s="49">
-        <v>45049.979166666664</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>304</v>
-      </c>
-      <c r="D28" s="59" t="s">
-        <v>388</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>389</v>
-      </c>
+    <row r="28" spans="1:8" ht="52" customHeight="1">
+      <c r="A28" s="43"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="26"/>
     </row>
-    <row r="29" spans="1:8" ht="50" customHeight="1">
-      <c r="A29" s="69" t="s">
-        <v>390</v>
-      </c>
-      <c r="B29" s="49">
-        <v>45050</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>391</v>
-      </c>
-      <c r="D29" s="59" t="s">
-        <v>392</v>
-      </c>
-      <c r="E29" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G29" s="48" t="s">
-        <v>305</v>
-      </c>
+    <row r="29" spans="1:8" ht="52" customHeight="1">
+      <c r="A29" s="43"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="48"/>
       <c r="H29" s="26"/>
     </row>
-    <row r="30" spans="1:8" ht="50" customHeight="1">
-      <c r="A30" s="43" t="s">
-        <v>400</v>
-      </c>
-      <c r="B30" s="49">
-        <v>45051.770833333336</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>397</v>
-      </c>
-      <c r="D30" s="59" t="s">
-        <v>398</v>
-      </c>
+    <row r="30" spans="1:8" ht="52" customHeight="1">
+      <c r="A30" s="43"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="46"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="48" t="s">
-        <v>399</v>
-      </c>
+      <c r="F30" s="46"/>
+      <c r="G30" s="48"/>
       <c r="H30" s="26"/>
     </row>
-    <row r="31" spans="1:8" ht="50" customHeight="1">
-      <c r="A31" s="43" t="s">
-        <v>461</v>
-      </c>
-      <c r="B31" s="49">
-        <v>45055.041666666664</v>
-      </c>
-      <c r="C31" s="59" t="s">
-        <v>462</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>463</v>
-      </c>
-      <c r="E31" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="G31" s="48" t="s">
-        <v>504</v>
-      </c>
+    <row r="31" spans="1:8" ht="52" customHeight="1">
+      <c r="A31" s="43"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="26"/>
     </row>
-    <row r="32" spans="1:8" ht="50" customHeight="1">
-      <c r="A32" s="43" t="s">
-        <v>500</v>
-      </c>
-      <c r="B32" s="49">
-        <v>45057.34375</v>
-      </c>
-      <c r="C32" s="59" t="s">
-        <v>501</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>502</v>
-      </c>
+    <row r="32" spans="1:8" ht="52" customHeight="1">
+      <c r="A32" s="43"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="46"/>
       <c r="F32" s="46"/>
-      <c r="G32" s="48" t="s">
-        <v>503</v>
-      </c>
+      <c r="G32" s="48"/>
       <c r="H32" s="26"/>
     </row>
-    <row r="33" spans="1:8" ht="50" customHeight="1">
-      <c r="A33" s="76" t="s">
-        <v>599</v>
-      </c>
-      <c r="B33" s="49">
-        <v>45060.875</v>
-      </c>
-      <c r="C33" s="59" t="s">
-        <v>600</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>601</v>
-      </c>
+    <row r="33" spans="1:8" ht="52" customHeight="1">
+      <c r="A33" s="43"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="46"/>
       <c r="F33" s="46"/>
-      <c r="G33" s="48" t="s">
-        <v>504</v>
-      </c>
+      <c r="G33" s="48"/>
       <c r="H33" s="26"/>
     </row>
-    <row r="34" spans="1:8" ht="50" customHeight="1">
-      <c r="A34" s="43" t="s">
-        <v>619</v>
-      </c>
-      <c r="B34" s="49">
-        <v>45060.958333333336</v>
-      </c>
-      <c r="C34" s="59" t="s">
-        <v>620</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>621</v>
-      </c>
+    <row r="34" spans="1:8" ht="52" customHeight="1">
+      <c r="A34" s="43"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
-      <c r="G34" s="48" t="s">
-        <v>504</v>
-      </c>
+      <c r="G34" s="48"/>
       <c r="H34" s="26"/>
     </row>
-    <row r="35" spans="1:8" ht="50" customHeight="1">
-      <c r="A35" s="43" t="s">
-        <v>622</v>
-      </c>
-      <c r="B35" s="49">
-        <v>45060.958333333336</v>
-      </c>
-      <c r="C35" s="59" t="s">
-        <v>623</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>624</v>
-      </c>
+    <row r="35" spans="1:8" ht="52" customHeight="1">
+      <c r="A35" s="43"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
-      <c r="G35" s="48" t="s">
-        <v>625</v>
-      </c>
+      <c r="G35" s="48"/>
       <c r="H35" s="26"/>
     </row>
-    <row r="36" spans="1:8" ht="50" customHeight="1">
-      <c r="A36" s="43" t="s">
-        <v>755</v>
-      </c>
-      <c r="B36" s="49">
-        <v>45063.958333333336</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>756</v>
-      </c>
-      <c r="D36" s="59" t="s">
-        <v>211</v>
-      </c>
+    <row r="36" spans="1:8" ht="52" customHeight="1">
+      <c r="A36" s="43"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="46"/>
       <c r="F36" s="46"/>
-      <c r="G36" s="48" t="s">
-        <v>757</v>
-      </c>
+      <c r="G36" s="48"/>
       <c r="H36" s="26"/>
     </row>
-    <row r="37" spans="1:8" ht="50" customHeight="1">
+    <row r="37" spans="1:8" ht="52" customHeight="1">
       <c r="A37" s="43"/>
       <c r="B37" s="49"/>
       <c r="C37" s="45"/>
@@ -20661,7 +19626,7 @@
       <c r="G37" s="48"/>
       <c r="H37" s="26"/>
     </row>
-    <row r="38" spans="1:8" ht="50" customHeight="1">
+    <row r="38" spans="1:8" ht="52" customHeight="1">
       <c r="A38" s="43"/>
       <c r="B38" s="49"/>
       <c r="C38" s="45"/>
@@ -20671,7 +19636,7 @@
       <c r="G38" s="48"/>
       <c r="H38" s="26"/>
     </row>
-    <row r="39" spans="1:8" ht="50" customHeight="1">
+    <row r="39" spans="1:8" ht="52" customHeight="1">
       <c r="A39" s="43"/>
       <c r="B39" s="49"/>
       <c r="C39" s="45"/>
@@ -20681,7 +19646,7 @@
       <c r="G39" s="48"/>
       <c r="H39" s="26"/>
     </row>
-    <row r="40" spans="1:8" ht="50" customHeight="1">
+    <row r="40" spans="1:8" ht="52" customHeight="1">
       <c r="A40" s="43"/>
       <c r="B40" s="49"/>
       <c r="C40" s="45"/>
@@ -20691,7 +19656,7 @@
       <c r="G40" s="48"/>
       <c r="H40" s="26"/>
     </row>
-    <row r="41" spans="1:8" ht="50" customHeight="1">
+    <row r="41" spans="1:8" ht="52" customHeight="1">
       <c r="A41" s="43"/>
       <c r="B41" s="49"/>
       <c r="C41" s="45"/>
@@ -20701,7 +19666,7 @@
       <c r="G41" s="48"/>
       <c r="H41" s="26"/>
     </row>
-    <row r="42" spans="1:8" ht="50" customHeight="1">
+    <row r="42" spans="1:8" ht="52" customHeight="1">
       <c r="A42" s="43"/>
       <c r="B42" s="49"/>
       <c r="C42" s="45"/>
@@ -20710,206 +19675,6 @@
       <c r="F42" s="46"/>
       <c r="G42" s="48"/>
       <c r="H42" s="26"/>
-    </row>
-    <row r="43" spans="1:8" ht="50" customHeight="1">
-      <c r="A43" s="43"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="26"/>
-    </row>
-    <row r="44" spans="1:8" ht="50" customHeight="1">
-      <c r="A44" s="43"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="26"/>
-    </row>
-    <row r="45" spans="1:8" ht="50" customHeight="1">
-      <c r="A45" s="43"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="26"/>
-    </row>
-    <row r="46" spans="1:8" ht="50" customHeight="1">
-      <c r="A46" s="43"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="26"/>
-    </row>
-    <row r="47" spans="1:8" ht="50" customHeight="1">
-      <c r="A47" s="43"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="26"/>
-    </row>
-    <row r="48" spans="1:8" ht="50" customHeight="1">
-      <c r="A48" s="43"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="26"/>
-    </row>
-    <row r="49" spans="1:8" ht="50" customHeight="1">
-      <c r="A49" s="43"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="26"/>
-    </row>
-    <row r="50" spans="1:8" ht="50" customHeight="1">
-      <c r="A50" s="43"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="26"/>
-    </row>
-    <row r="51" spans="1:8" ht="50" customHeight="1">
-      <c r="A51" s="43"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="26"/>
-    </row>
-    <row r="52" spans="1:8" ht="50" customHeight="1">
-      <c r="A52" s="43"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="26"/>
-    </row>
-    <row r="53" spans="1:8" ht="50" customHeight="1">
-      <c r="A53" s="43"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="26"/>
-    </row>
-    <row r="54" spans="1:8" ht="50" customHeight="1">
-      <c r="A54" s="43"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="26"/>
-    </row>
-    <row r="55" spans="1:8" ht="50" customHeight="1">
-      <c r="A55" s="43"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="26"/>
-    </row>
-    <row r="56" spans="1:8" ht="50" customHeight="1">
-      <c r="A56" s="43"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="26"/>
-    </row>
-    <row r="57" spans="1:8" ht="50" customHeight="1">
-      <c r="A57" s="43"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="26"/>
-    </row>
-    <row r="58" spans="1:8" ht="50" customHeight="1">
-      <c r="A58" s="43"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="1:8" ht="50" customHeight="1">
-      <c r="A59" s="43"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="1:8" ht="50" customHeight="1">
-      <c r="A60" s="43"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="1:8" ht="50" customHeight="1">
-      <c r="A61" s="43"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="1:8" ht="50" customHeight="1">
-      <c r="A62" s="43"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -20922,164 +19687,174 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1142161-0F82-AA49-8A76-42BEDD9DBD1A}">
   <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.5" defaultRowHeight="66" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="34" defaultRowHeight="66" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="66" customHeight="1">
       <c r="A1" s="37" t="s">
-        <v>635</v>
+        <v>562</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>628</v>
+        <v>555</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>629</v>
+        <v>556</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>630</v>
+        <v>557</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>631</v>
+        <v>558</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>632</v>
+        <v>559</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>633</v>
+        <v>560</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>634</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="66" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>636</v>
+        <v>563</v>
       </c>
       <c r="B2" s="14">
         <v>45059.958333333336</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>679</v>
-      </c>
-      <c r="D2" s="77" t="s">
-        <v>215</v>
+        <v>606</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>197</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>536</v>
+        <v>466</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>637</v>
+        <v>564</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>680</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="66" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>539</v>
+        <v>469</v>
       </c>
       <c r="B3" s="14">
         <v>45061.041666666664</v>
       </c>
-      <c r="C3" s="77" t="s">
-        <v>681</v>
+      <c r="C3" s="74" t="s">
+        <v>608</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>638</v>
+        <v>565</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>639</v>
-      </c>
-      <c r="H3" s="82" t="s">
-        <v>682</v>
+        <v>566</v>
+      </c>
+      <c r="H3" s="79" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="66" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>575</v>
+        <v>505</v>
       </c>
       <c r="B4" s="14">
         <v>45061</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>683</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>642</v>
+        <v>610</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>569</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>643</v>
-      </c>
-      <c r="H4" s="82" t="s">
-        <v>684</v>
+        <v>570</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="66" customHeight="1">
-      <c r="A5" s="17"/>
+      <c r="A5" s="17" t="s">
+        <v>703</v>
+      </c>
       <c r="B5" s="14">
         <v>45062.916666666664</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>750</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>748</v>
+        <v>677</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>675</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>749</v>
-      </c>
-      <c r="H5" s="82" t="s">
-        <v>682</v>
+        <v>676</v>
+      </c>
+      <c r="H5" s="79" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="66" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>758</v>
+        <v>702</v>
       </c>
       <c r="B6" s="14">
         <v>45064.166666666664</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>759</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>760</v>
+        <v>701</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>683</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="16"/>
+        <v>117</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="G6" s="28" t="s">
-        <v>761</v>
-      </c>
-      <c r="H6" s="17"/>
+        <v>684</v>
+      </c>
+      <c r="H6" s="79" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="66" customHeight="1">
       <c r="A7" s="17"/>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3064D31-1B80-BF44-9E48-06E13EA1EA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A93BD51-B148-2A42-B942-ECEA832674E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="3" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
   <sheets>
     <sheet name="让球匹配" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="718">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9514,6 +9514,56 @@
   </si>
   <si>
     <t>22/23土甲第37轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23伊朗超第30轮</t>
+  </si>
+  <si>
+    <t>拿芙马塞索利曼</t>
+  </si>
+  <si>
+    <t>马拉皖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=0,输=4,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[1:2](2次)     [0:2](1次)     [2:4](1次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高尔高赫</t>
+  </si>
+  <si>
+    <t>纳夫特</t>
+  </si>
+  <si>
+    <t>主队排名6，客队排名15，两者分差23，主队盘口非常便宜！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费内巴切</t>
+  </si>
+  <si>
+    <t>特拉布宗体育</t>
+  </si>
+  <si>
+    <t>亚盘全网盘口:赢=0,输=4,走=1,输盘概率最大,为80.00%
+比分概率前三分别是：[1:1](2次)     [1:0](2次)     [2:1](1次)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23英超第25轮</t>
+  </si>
+  <si>
+    <t>纽卡斯尔联</t>
+  </si>
+  <si>
+    <t>布赖顿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=60,输=51,走=0,赢盘概率最大,为54.05%
+亚盘本联赛盘口:赢=5,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:1](17次)     [1:0](16次)     [2:0](12次)    </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10407,8 +10457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J141" sqref="J141"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -14657,38 +14707,80 @@
       </c>
     </row>
     <row r="142" spans="1:10" ht="63" customHeight="1">
-      <c r="A142" s="17"/>
-      <c r="B142" s="14"/>
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
-      <c r="E142" s="16"/>
+      <c r="A142" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="B142" s="14">
+        <v>45064.9375</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="F142" s="16"/>
-      <c r="G142" s="16"/>
-      <c r="H142" s="28"/>
+      <c r="G142" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="H142" s="28" t="s">
+        <v>707</v>
+      </c>
       <c r="I142" s="17"/>
       <c r="J142" s="16"/>
     </row>
     <row r="143" spans="1:10" ht="63" customHeight="1">
-      <c r="A143" s="17"/>
-      <c r="B143" s="14"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="16"/>
+      <c r="A143" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="B143" s="14">
+        <v>45065.041666666664</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="F143" s="16"/>
-      <c r="G143" s="16"/>
-      <c r="H143" s="28"/>
+      <c r="G143" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="H143" s="28" t="s">
+        <v>713</v>
+      </c>
       <c r="I143" s="17"/>
       <c r="J143" s="16"/>
     </row>
     <row r="144" spans="1:10" ht="63" customHeight="1">
-      <c r="A144" s="17"/>
-      <c r="B144" s="14"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="16"/>
+      <c r="A144" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="B144" s="14">
+        <v>45065.104166666664</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="F144" s="16"/>
-      <c r="G144" s="16"/>
-      <c r="H144" s="28"/>
+      <c r="G144" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H144" s="28" t="s">
+        <v>717</v>
+      </c>
       <c r="I144" s="17"/>
       <c r="J144" s="16"/>
     </row>
@@ -19687,8 +19779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1142161-0F82-AA49-8A76-42BEDD9DBD1A}">
   <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34" defaultRowHeight="66" customHeight="1"/>
@@ -19857,13 +19949,25 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="66" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="16"/>
+      <c r="A7" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="B7" s="14">
+        <v>45064.9375</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>708</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>710</v>
+      </c>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="66" customHeight="1">

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A93BD51-B148-2A42-B942-ECEA832674E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155B8BAB-A312-9B46-8E98-7745AAA008C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="721">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9520,9 +9520,6 @@
     <t>22/23伊朗超第30轮</t>
   </si>
   <si>
-    <t>拿芙马塞索利曼</t>
-  </si>
-  <si>
     <t>马拉皖</t>
   </si>
   <si>
@@ -9541,9 +9538,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>费内巴切</t>
-  </si>
-  <si>
     <t>特拉布宗体育</t>
   </si>
   <si>
@@ -9553,9 +9547,6 @@
   </si>
   <si>
     <t>22/23英超第25轮</t>
-  </si>
-  <si>
-    <t>纽卡斯尔联</t>
   </si>
   <si>
     <t>布赖顿</t>
@@ -9564,6 +9555,30 @@
     <t xml:space="preserve">亚盘全网盘口:赢=60,输=51,走=0,赢盘概率最大,为54.05%
 亚盘本联赛盘口:赢=5,输=0,走=0,赢盘概率最大,为100.00%
 比分概率前三分别是：[1:1](17次)     [1:0](16次)     [2:0](12次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23伊朗超第30轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿芙马塞索利曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费内巴切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纽卡斯尔联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23土超第34轮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9574,7 +9589,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9820,6 +9835,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF7030A0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -9889,7 +9912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10132,6 +10155,9 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10457,8 +10483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -14708,81 +14734,93 @@
     </row>
     <row r="142" spans="1:10" ht="63" customHeight="1">
       <c r="A142" s="17" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="B142" s="14">
         <v>45064.9375</v>
       </c>
       <c r="C142" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="D142" s="17" t="s">
         <v>705</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>706</v>
       </c>
       <c r="E142" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F142" s="16"/>
+      <c r="F142" s="16" t="s">
+        <v>596</v>
+      </c>
       <c r="G142" s="16" t="s">
         <v>467</v>
       </c>
       <c r="H142" s="28" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I142" s="17"/>
-      <c r="J142" s="16"/>
+      <c r="J142" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="143" spans="1:10" ht="63" customHeight="1">
       <c r="A143" s="17" t="s">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="B143" s="14">
         <v>45065.041666666664</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E143" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F143" s="16"/>
+      <c r="F143" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="G143" s="16" t="s">
         <v>467</v>
       </c>
       <c r="H143" s="28" t="s">
+        <v>711</v>
+      </c>
+      <c r="I143" s="17"/>
+      <c r="J143" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="63" customHeight="1">
+      <c r="A144" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B144" s="8">
+        <v>45065.104166666664</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="D144" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="I143" s="17"/>
-      <c r="J143" s="16"/>
-    </row>
-    <row r="144" spans="1:10" ht="63" customHeight="1">
-      <c r="A144" s="17" t="s">
+      <c r="E144" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H144" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="B144" s="14">
-        <v>45065.104166666664</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>715</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>716</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F144" s="16"/>
-      <c r="G144" s="16" t="s">
+      <c r="I144" s="11"/>
+      <c r="J144" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H144" s="28" t="s">
-        <v>717</v>
-      </c>
-      <c r="I144" s="17"/>
-      <c r="J144" s="16"/>
     </row>
     <row r="145" spans="1:10" ht="63" customHeight="1">
       <c r="A145" s="17"/>
@@ -19113,8 +19151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5BD41-F360-D64B-BA12-0F85656DC41E}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.6640625" defaultRowHeight="52" customHeight="1"/>
@@ -19780,7 +19818,7 @@
   <dimension ref="A1:H181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34" defaultRowHeight="66" customHeight="1"/>
@@ -19892,7 +19930,7 @@
       <c r="G4" s="28" t="s">
         <v>570</v>
       </c>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="81" t="s">
         <v>611</v>
       </c>
     </row>
@@ -19956,19 +19994,23 @@
         <v>45064.9375</v>
       </c>
       <c r="C7" s="74" t="s">
+        <v>707</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>708</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>709</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>221</v>
+      </c>
       <c r="G7" s="28" t="s">
-        <v>710</v>
-      </c>
-      <c r="H7" s="17"/>
+        <v>709</v>
+      </c>
+      <c r="H7" s="79" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="66" customHeight="1">
       <c r="A8" s="17"/>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155B8BAB-A312-9B46-8E98-7745AAA008C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF146178-9AE4-2B44-9501-D5A8EF79A1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="725">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8551,9 +8551,6 @@
 比分概率前三分别是：[3:4](1次)     [2:5](1次)     [0:1](1次)     </t>
   </si>
   <si>
-    <t>22/23德东北第32轮</t>
-  </si>
-  <si>
     <t xml:space="preserve">亚盘全网盘口:赢=4,输=0,走=0,赢盘概率最大,为100.00%
 比分概率前三分别是：[3:0](1次)     [2:0](1次)     [4:1](1次)     </t>
   </si>
@@ -9579,6 +9576,26 @@
   </si>
   <si>
     <t>22/23土超第34轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23德东北第32轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23中协杯第一轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>义乌锦绣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淄博齐盛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升盘4个，初盘1.750, 即时盘0.750</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10483,8 +10500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -12570,7 +12587,9 @@
         <v>387</v>
       </c>
       <c r="I69" s="17"/>
-      <c r="J69" s="16"/>
+      <c r="J69" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="70" spans="1:10" ht="63" customHeight="1">
       <c r="A70" s="11" t="s">
@@ -13030,7 +13049,7 @@
         <v>45058.729166666664</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>330</v>
@@ -13060,7 +13079,7 @@
         <v>45058.958333333336</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>264</v>
@@ -13090,7 +13109,7 @@
         <v>45059</v>
       </c>
       <c r="C87" s="61" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D87" s="61" t="s">
         <v>231</v>
@@ -13120,10 +13139,10 @@
         <v>45059.041666666664</v>
       </c>
       <c r="C88" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="D88" s="17" t="s">
         <v>574</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>575</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>256</v>
@@ -13144,13 +13163,13 @@
     </row>
     <row r="89" spans="1:10" ht="63" customHeight="1">
       <c r="A89" s="17" t="s">
-        <v>471</v>
+        <v>720</v>
       </c>
       <c r="B89" s="14">
         <v>45059.041666666664</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>65</v>
@@ -13165,7 +13184,7 @@
         <v>463</v>
       </c>
       <c r="H89" s="28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I89" s="17"/>
       <c r="J89" s="16" t="s">
@@ -13174,19 +13193,19 @@
     </row>
     <row r="90" spans="1:10" ht="63" customHeight="1">
       <c r="A90" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B90" s="14">
         <v>45059.0625</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D90" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="E90" s="16" t="s">
         <v>474</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>475</v>
       </c>
       <c r="F90" s="16" t="s">
         <v>9</v>
@@ -13195,7 +13214,7 @@
         <v>467</v>
       </c>
       <c r="H90" s="28" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I90" s="17"/>
       <c r="J90" s="16" t="s">
@@ -13204,16 +13223,16 @@
     </row>
     <row r="91" spans="1:10" ht="63" customHeight="1">
       <c r="A91" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B91" s="14">
         <v>45059.0625</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>256</v>
@@ -13225,7 +13244,7 @@
         <v>467</v>
       </c>
       <c r="H91" s="28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="16" t="s">
@@ -13234,16 +13253,16 @@
     </row>
     <row r="92" spans="1:10" ht="63" customHeight="1">
       <c r="A92" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B92" s="14">
         <v>45059.0625</v>
       </c>
       <c r="C92" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="D92" s="17" t="s">
         <v>479</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>480</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>206</v>
@@ -13255,7 +13274,7 @@
         <v>463</v>
       </c>
       <c r="H92" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I92" s="17"/>
       <c r="J92" s="16" t="s">
@@ -13264,16 +13283,16 @@
     </row>
     <row r="93" spans="1:10" ht="63" customHeight="1">
       <c r="A93" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B93" s="8">
         <v>45059.0625</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>228</v>
@@ -13285,7 +13304,7 @@
         <v>467</v>
       </c>
       <c r="H93" s="33" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I93" s="11"/>
       <c r="J93" s="10" t="s">
@@ -13294,16 +13313,16 @@
     </row>
     <row r="94" spans="1:10" ht="63" customHeight="1">
       <c r="A94" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B94" s="8">
         <v>45059.083333333336</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>280</v>
@@ -13315,7 +13334,7 @@
         <v>463</v>
       </c>
       <c r="H94" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I94" s="11"/>
       <c r="J94" s="10" t="s">
@@ -13324,16 +13343,16 @@
     </row>
     <row r="95" spans="1:10" ht="63" customHeight="1">
       <c r="A95" s="75" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B95" s="76">
         <v>45059.083333333336</v>
       </c>
       <c r="C95" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D95" s="75" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E95" s="77" t="s">
         <v>218</v>
@@ -13345,7 +13364,7 @@
         <v>467</v>
       </c>
       <c r="H95" s="78" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I95" s="75"/>
       <c r="J95" s="77" t="s">
@@ -13354,16 +13373,16 @@
     </row>
     <row r="96" spans="1:10" ht="63" customHeight="1">
       <c r="A96" s="75" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B96" s="76">
         <v>45059.833333333336</v>
       </c>
       <c r="C96" s="75" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D96" s="75" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E96" s="77" t="s">
         <v>206</v>
@@ -13375,7 +13394,7 @@
         <v>463</v>
       </c>
       <c r="H96" s="78" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I96" s="75"/>
       <c r="J96" s="77" t="s">
@@ -13384,16 +13403,16 @@
     </row>
     <row r="97" spans="1:10" ht="63" customHeight="1">
       <c r="A97" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B97" s="8">
         <v>45059.8125</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>261</v>
@@ -13405,7 +13424,7 @@
         <v>467</v>
       </c>
       <c r="H97" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I97" s="11"/>
       <c r="J97" s="10" t="s">
@@ -13414,16 +13433,16 @@
     </row>
     <row r="98" spans="1:10" ht="63" customHeight="1">
       <c r="A98" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B98" s="8">
         <v>45059.8125</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>95</v>
@@ -13435,7 +13454,7 @@
         <v>467</v>
       </c>
       <c r="H98" s="33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I98" s="11"/>
       <c r="J98" s="10" t="s">
@@ -13444,16 +13463,16 @@
     </row>
     <row r="99" spans="1:10" ht="63" customHeight="1">
       <c r="A99" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B99" s="14">
         <v>45059.833333333336</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>206</v>
@@ -13465,7 +13484,7 @@
         <v>463</v>
       </c>
       <c r="H99" s="28" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I99" s="17"/>
       <c r="J99" s="16" t="s">
@@ -13474,16 +13493,16 @@
     </row>
     <row r="100" spans="1:10" ht="63" customHeight="1">
       <c r="A100" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B100" s="14">
         <v>45059.833333333336</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>232</v>
@@ -13495,7 +13514,7 @@
         <v>467</v>
       </c>
       <c r="H100" s="28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I100" s="17"/>
       <c r="J100" s="16" t="s">
@@ -13510,10 +13529,10 @@
         <v>45059.958333333336</v>
       </c>
       <c r="C101" s="75" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D101" s="75" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E101" s="77" t="s">
         <v>206</v>
@@ -13525,7 +13544,7 @@
         <v>463</v>
       </c>
       <c r="H101" s="78" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I101" s="75"/>
       <c r="J101" s="77" t="s">
@@ -13534,16 +13553,16 @@
     </row>
     <row r="102" spans="1:10" ht="63" customHeight="1">
       <c r="A102" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B102" s="14">
         <v>45059.958333333336</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>261</v>
@@ -13555,7 +13574,7 @@
         <v>463</v>
       </c>
       <c r="H102" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="16" t="s">
@@ -13564,19 +13583,19 @@
     </row>
     <row r="103" spans="1:10" ht="63" customHeight="1">
       <c r="A103" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B103" s="14">
         <v>45059.958333333336</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D103" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="E103" s="16" t="s">
         <v>509</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>510</v>
       </c>
       <c r="F103" s="16" t="s">
         <v>154</v>
@@ -13585,7 +13604,7 @@
         <v>463</v>
       </c>
       <c r="H103" s="28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="16" t="s">
@@ -13594,16 +13613,16 @@
     </row>
     <row r="104" spans="1:10" ht="63" customHeight="1">
       <c r="A104" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B104" s="8">
         <v>45059.958333333336</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E104" s="10" t="s">
         <v>256</v>
@@ -13615,7 +13634,7 @@
         <v>467</v>
       </c>
       <c r="H104" s="33" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I104" s="11"/>
       <c r="J104" s="10" t="s">
@@ -13624,7 +13643,7 @@
     </row>
     <row r="105" spans="1:10" ht="63" customHeight="1">
       <c r="A105" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B105" s="8">
         <v>45059.979166666664</v>
@@ -13633,7 +13652,7 @@
         <v>137</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E105" s="10" t="s">
         <v>228</v>
@@ -13645,7 +13664,7 @@
         <v>467</v>
       </c>
       <c r="H105" s="33" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I105" s="11"/>
       <c r="J105" s="10" t="s">
@@ -13654,16 +13673,16 @@
     </row>
     <row r="106" spans="1:10" ht="63" customHeight="1">
       <c r="A106" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B106" s="14">
         <v>45059.979166666664</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E106" s="16" t="s">
         <v>206</v>
@@ -13675,7 +13694,7 @@
         <v>463</v>
       </c>
       <c r="H106" s="28" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I106" s="17"/>
       <c r="J106" s="16" t="s">
@@ -13684,16 +13703,16 @@
     </row>
     <row r="107" spans="1:10" ht="63" customHeight="1">
       <c r="A107" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B107" s="14">
         <v>45059.979166666664</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E107" s="16" t="s">
         <v>261</v>
@@ -13705,7 +13724,7 @@
         <v>463</v>
       </c>
       <c r="H107" s="28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="16" t="s">
@@ -13714,16 +13733,16 @@
     </row>
     <row r="108" spans="1:10" ht="63" customHeight="1">
       <c r="A108" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B108" s="14">
         <v>45060</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E108" s="16" t="s">
         <v>232</v>
@@ -13735,7 +13754,7 @@
         <v>467</v>
       </c>
       <c r="H108" s="28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I108" s="17"/>
       <c r="J108" s="16" t="s">
@@ -13744,13 +13763,13 @@
     </row>
     <row r="109" spans="1:10" ht="63" customHeight="1">
       <c r="A109" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B109" s="8">
         <v>45060.020833333336</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>243</v>
@@ -13759,13 +13778,13 @@
         <v>228</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G109" s="10" t="s">
         <v>463</v>
       </c>
       <c r="H109" s="33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I109" s="11"/>
       <c r="J109" s="10" t="s">
@@ -13774,16 +13793,16 @@
     </row>
     <row r="110" spans="1:10" ht="63" customHeight="1">
       <c r="A110" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B110" s="14">
         <v>45060.875</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E110" s="16" t="s">
         <v>117</v>
@@ -13795,7 +13814,7 @@
         <v>463</v>
       </c>
       <c r="H110" s="28" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I110" s="17"/>
       <c r="J110" s="16" t="s">
@@ -13804,16 +13823,16 @@
     </row>
     <row r="111" spans="1:10" ht="63" customHeight="1">
       <c r="A111" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B111" s="14">
         <v>45060.875</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>117</v>
@@ -13825,7 +13844,7 @@
         <v>467</v>
       </c>
       <c r="H111" s="28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="16" t="s">
@@ -13834,7 +13853,7 @@
     </row>
     <row r="112" spans="1:10" ht="63" customHeight="1">
       <c r="A112" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B112" s="14">
         <v>45060.875</v>
@@ -13843,7 +13862,7 @@
         <v>100</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E112" s="16" t="s">
         <v>232</v>
@@ -13855,7 +13874,7 @@
         <v>467</v>
       </c>
       <c r="H112" s="28" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="16" t="s">
@@ -13864,16 +13883,16 @@
     </row>
     <row r="113" spans="1:10" ht="63" customHeight="1">
       <c r="A113" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B113" s="8">
         <v>45060.875</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E113" s="10" t="s">
         <v>232</v>
@@ -13885,7 +13904,7 @@
         <v>467</v>
       </c>
       <c r="H113" s="33" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I113" s="11"/>
       <c r="J113" s="10" t="s">
@@ -13894,16 +13913,16 @@
     </row>
     <row r="114" spans="1:10" ht="63" customHeight="1">
       <c r="A114" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B114" s="8">
         <v>45060.916666666664</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E114" s="10" t="s">
         <v>228</v>
@@ -13915,7 +13934,7 @@
         <v>467</v>
       </c>
       <c r="H114" s="33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I114" s="11"/>
       <c r="J114" s="10" t="s">
@@ -13930,7 +13949,7 @@
         <v>45060.9375</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D115" s="17" t="s">
         <v>174</v>
@@ -13945,7 +13964,7 @@
         <v>68</v>
       </c>
       <c r="H115" s="28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="16" t="s">
@@ -13954,16 +13973,16 @@
     </row>
     <row r="116" spans="1:10" ht="63" customHeight="1">
       <c r="A116" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B116" s="8">
         <v>45060.958333333336</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E116" s="10" t="s">
         <v>256</v>
@@ -13975,7 +13994,7 @@
         <v>68</v>
       </c>
       <c r="H116" s="34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I116" s="11"/>
       <c r="J116" s="10" t="s">
@@ -13984,16 +14003,16 @@
     </row>
     <row r="117" spans="1:10" ht="63" customHeight="1">
       <c r="A117" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B117" s="14">
         <v>45060.958333333336</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E117" s="16" t="s">
         <v>228</v>
@@ -14005,7 +14024,7 @@
         <v>463</v>
       </c>
       <c r="H117" s="28" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I117" s="17"/>
       <c r="J117" s="16" t="s">
@@ -14014,16 +14033,16 @@
     </row>
     <row r="118" spans="1:10" ht="63" customHeight="1">
       <c r="A118" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B118" s="8">
         <v>45060.96875</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E118" s="10" t="s">
         <v>232</v>
@@ -14035,7 +14054,7 @@
         <v>463</v>
       </c>
       <c r="H118" s="33" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I118" s="11"/>
       <c r="J118" s="10" t="s">
@@ -14044,16 +14063,16 @@
     </row>
     <row r="119" spans="1:10" ht="63" customHeight="1">
       <c r="A119" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B119" s="14">
         <v>45061</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E119" s="16" t="s">
         <v>206</v>
@@ -14065,7 +14084,7 @@
         <v>463</v>
       </c>
       <c r="H119" s="28" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I119" s="17"/>
       <c r="J119" s="16" t="s">
@@ -14080,7 +14099,7 @@
         <v>45061.378472222219</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D120" s="17" t="s">
         <v>454</v>
@@ -14095,7 +14114,7 @@
         <v>68</v>
       </c>
       <c r="H120" s="28" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="16" t="s">
@@ -14104,16 +14123,16 @@
     </row>
     <row r="121" spans="1:10" ht="63" customHeight="1">
       <c r="A121" s="17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B121" s="14">
         <v>45061.395833333336</v>
       </c>
       <c r="C121" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="D121" s="17" t="s">
         <v>614</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>615</v>
       </c>
       <c r="E121" s="16" t="s">
         <v>280</v>
@@ -14125,7 +14144,7 @@
         <v>68</v>
       </c>
       <c r="H121" s="28" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I121" s="17"/>
       <c r="J121" s="16" t="s">
@@ -14134,16 +14153,16 @@
     </row>
     <row r="122" spans="1:10" ht="63" customHeight="1">
       <c r="A122" s="75" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B122" s="76">
         <v>45061.395833333336</v>
       </c>
       <c r="C122" s="75" t="s">
+        <v>617</v>
+      </c>
+      <c r="D122" s="75" t="s">
         <v>618</v>
-      </c>
-      <c r="D122" s="75" t="s">
-        <v>619</v>
       </c>
       <c r="E122" s="77" t="s">
         <v>232</v>
@@ -14155,7 +14174,7 @@
         <v>463</v>
       </c>
       <c r="H122" s="78" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I122" s="75"/>
       <c r="J122" s="77" t="s">
@@ -14164,16 +14183,16 @@
     </row>
     <row r="123" spans="1:10" ht="63" customHeight="1">
       <c r="A123" s="75" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B123" s="76">
         <v>45061.916666666664</v>
       </c>
       <c r="C123" s="75" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D123" s="75" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E123" s="77" t="s">
         <v>95</v>
@@ -14185,7 +14204,7 @@
         <v>68</v>
       </c>
       <c r="H123" s="78" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I123" s="75"/>
       <c r="J123" s="77" t="s">
@@ -14194,16 +14213,16 @@
     </row>
     <row r="124" spans="1:10" ht="63" customHeight="1">
       <c r="A124" s="75" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B124" s="76">
         <v>45062</v>
       </c>
       <c r="C124" s="75" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D124" s="75" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E124" s="77" t="s">
         <v>97</v>
@@ -14215,7 +14234,7 @@
         <v>463</v>
       </c>
       <c r="H124" s="78" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I124" s="75"/>
       <c r="J124" s="77" t="s">
@@ -14224,16 +14243,16 @@
     </row>
     <row r="125" spans="1:10" ht="63" customHeight="1">
       <c r="A125" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B125" s="14">
         <v>45062.020833333336</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E125" s="16" t="s">
         <v>117</v>
@@ -14245,7 +14264,7 @@
         <v>463</v>
       </c>
       <c r="H125" s="28" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="16" t="s">
@@ -14254,16 +14273,16 @@
     </row>
     <row r="126" spans="1:10" ht="63" customHeight="1">
       <c r="A126" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B126" s="14">
         <v>45062.048611111109</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E126" s="16" t="s">
         <v>176</v>
@@ -14275,7 +14294,7 @@
         <v>463</v>
       </c>
       <c r="H126" s="28" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I126" s="17"/>
       <c r="J126" s="16" t="s">
@@ -14284,16 +14303,16 @@
     </row>
     <row r="127" spans="1:10" ht="63" customHeight="1">
       <c r="A127" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B127" s="8">
         <v>45062.104166666664</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E127" s="10" t="s">
         <v>117</v>
@@ -14305,7 +14324,7 @@
         <v>68</v>
       </c>
       <c r="H127" s="33" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I127" s="11"/>
       <c r="J127" s="10" t="s">
@@ -14314,16 +14333,16 @@
     </row>
     <row r="128" spans="1:10" ht="63" customHeight="1">
       <c r="A128" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B128" s="8">
         <v>45062.104166666664</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E128" s="10" t="s">
         <v>98</v>
@@ -14335,7 +14354,7 @@
         <v>68</v>
       </c>
       <c r="H128" s="33" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I128" s="11"/>
       <c r="J128" s="10" t="s">
@@ -14344,16 +14363,16 @@
     </row>
     <row r="129" spans="1:10" ht="63" customHeight="1">
       <c r="A129" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B129" s="14">
         <v>45062.114583333336</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E129" s="16" t="s">
         <v>297</v>
@@ -14365,7 +14384,7 @@
         <v>68</v>
       </c>
       <c r="H129" s="28" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I129" s="17"/>
       <c r="J129" s="16" t="s">
@@ -14374,16 +14393,16 @@
     </row>
     <row r="130" spans="1:10" ht="63" customHeight="1">
       <c r="A130" s="75" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B130" s="76">
         <v>45062.333333333336</v>
       </c>
       <c r="C130" s="75" t="s">
+        <v>646</v>
+      </c>
+      <c r="D130" s="75" t="s">
         <v>647</v>
-      </c>
-      <c r="D130" s="75" t="s">
-        <v>648</v>
       </c>
       <c r="E130" s="77" t="s">
         <v>176</v>
@@ -14395,7 +14414,7 @@
         <v>463</v>
       </c>
       <c r="H130" s="78" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I130" s="75"/>
       <c r="J130" s="77" t="s">
@@ -14404,16 +14423,16 @@
     </row>
     <row r="131" spans="1:10" ht="63" customHeight="1">
       <c r="A131" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B131" s="8">
         <v>45062.916666666664</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E131" s="10" t="s">
         <v>232</v>
@@ -14425,7 +14444,7 @@
         <v>68</v>
       </c>
       <c r="H131" s="33" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I131" s="11"/>
       <c r="J131" s="10" t="s">
@@ -14434,16 +14453,16 @@
     </row>
     <row r="132" spans="1:10" ht="63" customHeight="1">
       <c r="A132" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B132" s="8">
         <v>45062.916666666664</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E132" s="10" t="s">
         <v>206</v>
@@ -14455,7 +14474,7 @@
         <v>463</v>
       </c>
       <c r="H132" s="33" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I132" s="11"/>
       <c r="J132" s="10" t="s">
@@ -14464,16 +14483,16 @@
     </row>
     <row r="133" spans="1:10" ht="63" customHeight="1">
       <c r="A133" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B133" s="14">
         <v>45062.916666666664</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E133" s="16" t="s">
         <v>95</v>
@@ -14485,7 +14504,7 @@
         <v>463</v>
       </c>
       <c r="H133" s="28" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I133" s="17"/>
       <c r="J133" s="16" t="s">
@@ -14494,16 +14513,16 @@
     </row>
     <row r="134" spans="1:10" ht="63" customHeight="1">
       <c r="A134" s="17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B134" s="14">
         <v>45062.958333333336</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E134" s="16" t="s">
         <v>228</v>
@@ -14515,7 +14534,7 @@
         <v>68</v>
       </c>
       <c r="H134" s="28" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I134" s="17"/>
       <c r="J134" s="16" t="s">
@@ -14524,13 +14543,13 @@
     </row>
     <row r="135" spans="1:10" ht="63" customHeight="1">
       <c r="A135" s="75" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B135" s="76">
         <v>45063</v>
       </c>
       <c r="C135" s="75" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D135" s="75" t="s">
         <v>393</v>
@@ -14545,7 +14564,7 @@
         <v>463</v>
       </c>
       <c r="H135" s="78" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I135" s="75"/>
       <c r="J135" s="77" t="s">
@@ -14554,16 +14573,16 @@
     </row>
     <row r="136" spans="1:10" ht="63" customHeight="1">
       <c r="A136" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B136" s="8">
         <v>45063</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E136" s="10" t="s">
         <v>297</v>
@@ -14575,7 +14594,7 @@
         <v>68</v>
       </c>
       <c r="H136" s="33" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="10" t="s">
@@ -14584,16 +14603,16 @@
     </row>
     <row r="137" spans="1:10" ht="63" customHeight="1">
       <c r="A137" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B137" s="8">
         <v>45063.104166666664</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E137" s="10" t="s">
         <v>98</v>
@@ -14605,7 +14624,7 @@
         <v>68</v>
       </c>
       <c r="H137" s="33" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I137" s="11"/>
       <c r="J137" s="10" t="s">
@@ -14614,16 +14633,16 @@
     </row>
     <row r="138" spans="1:10" ht="63" customHeight="1">
       <c r="A138" s="21" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B138" s="22">
         <v>45063.875</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E138" s="23" t="s">
         <v>93</v>
@@ -14635,7 +14654,7 @@
         <v>57</v>
       </c>
       <c r="H138" s="68" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I138" s="21"/>
       <c r="J138" s="23" t="s">
@@ -14644,16 +14663,16 @@
     </row>
     <row r="139" spans="1:10" ht="63" customHeight="1">
       <c r="A139" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B139" s="8">
         <v>45064.166666666664</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E139" s="10" t="s">
         <v>97</v>
@@ -14665,7 +14684,7 @@
         <v>57</v>
       </c>
       <c r="H139" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I139" s="11"/>
       <c r="J139" s="10" t="s">
@@ -14674,16 +14693,16 @@
     </row>
     <row r="140" spans="1:10" ht="63" customHeight="1">
       <c r="A140" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B140" s="8">
         <v>45064.3125</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E140" s="10" t="s">
         <v>176</v>
@@ -14695,7 +14714,7 @@
         <v>57</v>
       </c>
       <c r="H140" s="33" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I140" s="11"/>
       <c r="J140" s="10" t="s">
@@ -14704,16 +14723,16 @@
     </row>
     <row r="141" spans="1:10" ht="63" customHeight="1">
       <c r="A141" s="17" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B141" s="14">
         <v>45064.354166666664</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E141" s="16" t="s">
         <v>98</v>
@@ -14725,7 +14744,7 @@
         <v>68</v>
       </c>
       <c r="H141" s="28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I141" s="17"/>
       <c r="J141" s="16" t="s">
@@ -14734,28 +14753,28 @@
     </row>
     <row r="142" spans="1:10" ht="63" customHeight="1">
       <c r="A142" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B142" s="14">
         <v>45064.9375</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E142" s="16" t="s">
         <v>117</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G142" s="16" t="s">
         <v>467</v>
       </c>
       <c r="H142" s="28" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I142" s="17"/>
       <c r="J142" s="16" t="s">
@@ -14764,16 +14783,16 @@
     </row>
     <row r="143" spans="1:10" ht="63" customHeight="1">
       <c r="A143" s="17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B143" s="14">
         <v>45065.041666666664</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E143" s="16" t="s">
         <v>94</v>
@@ -14785,7 +14804,7 @@
         <v>467</v>
       </c>
       <c r="H143" s="28" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I143" s="17"/>
       <c r="J143" s="16" t="s">
@@ -14794,28 +14813,28 @@
     </row>
     <row r="144" spans="1:10" ht="63" customHeight="1">
       <c r="A144" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B144" s="8">
         <v>45065.104166666664</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E144" s="10" t="s">
         <v>117</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G144" s="10" t="s">
         <v>57</v>
       </c>
       <c r="H144" s="33" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I144" s="11"/>
       <c r="J144" s="10" t="s">
@@ -14860,7 +14879,6 @@
     </row>
     <row r="148" spans="1:10" ht="63" customHeight="1">
       <c r="A148" s="17"/>
-      <c r="B148" s="14"/>
       <c r="C148" s="17"/>
       <c r="D148" s="17"/>
       <c r="E148" s="16"/>
@@ -14871,7 +14889,7 @@
       <c r="J148" s="16"/>
     </row>
     <row r="149" spans="1:10" ht="63" customHeight="1">
-      <c r="A149" s="17"/>
+      <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" s="17"/>
       <c r="D149" s="17"/>
@@ -19151,8 +19169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5BD41-F360-D64B-BA12-0F85656DC41E}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.6640625" defaultRowHeight="52" customHeight="1"/>
@@ -19398,7 +19416,7 @@
         <v>223</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H10" s="26"/>
     </row>
@@ -19452,16 +19470,16 @@
     </row>
     <row r="13" spans="1:8" ht="52" customHeight="1">
       <c r="A13" s="73" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B13" s="49">
         <v>45060.875</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E13" s="46" t="s">
         <v>105</v>
@@ -19476,16 +19494,16 @@
     </row>
     <row r="14" spans="1:8" ht="52" customHeight="1">
       <c r="A14" s="43" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B14" s="49">
         <v>45060.958333333336</v>
       </c>
       <c r="C14" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="D14" s="45" t="s">
         <v>547</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>548</v>
       </c>
       <c r="E14" s="46" t="s">
         <v>9</v>
@@ -19500,16 +19518,16 @@
     </row>
     <row r="15" spans="1:8" ht="52" customHeight="1">
       <c r="A15" s="43" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B15" s="49">
         <v>45060.958333333336</v>
       </c>
       <c r="C15" s="59" t="s">
+        <v>549</v>
+      </c>
+      <c r="D15" s="45" t="s">
         <v>550</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>551</v>
       </c>
       <c r="E15" s="46" t="s">
         <v>190</v>
@@ -19518,19 +19536,19 @@
         <v>223</v>
       </c>
       <c r="G15" s="48" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8" ht="52" customHeight="1">
       <c r="A16" s="43" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B16" s="49">
         <v>45063.958333333336</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>195</v>
@@ -19542,18 +19560,32 @@
         <v>223</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:8" ht="52" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="48"/>
+      <c r="A17" s="43" t="s">
+        <v>721</v>
+      </c>
+      <c r="B17" s="49">
+        <v>45064.645833333336</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>723</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>724</v>
+      </c>
       <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" ht="52" customHeight="1">
@@ -19832,39 +19864,39 @@
   <sheetData>
     <row r="1" spans="1:8" ht="66" customHeight="1">
       <c r="A1" s="37" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>556</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="38" t="s">
         <v>557</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="F1" s="38" t="s">
         <v>558</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>559</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>560</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="66" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B2" s="14">
         <v>45059.958333333336</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D2" s="74" t="s">
         <v>197</v>
@@ -19876,10 +19908,10 @@
         <v>126</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="66" customHeight="1">
@@ -19890,10 +19922,10 @@
         <v>45061.041666666664</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>98</v>
@@ -19902,24 +19934,24 @@
         <v>13</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H3" s="79" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="66" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B4" s="14">
         <v>45061</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>113</v>
@@ -19928,24 +19960,24 @@
         <v>13</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H4" s="81" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="66" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B5" s="14">
         <v>45062.916666666664</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>98</v>
@@ -19954,24 +19986,24 @@
         <v>9</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H5" s="79" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="66" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B6" s="14">
         <v>45064.166666666664</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>117</v>
@@ -19980,24 +20012,24 @@
         <v>9</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H6" s="79" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="66" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B7" s="14">
         <v>45064.9375</v>
       </c>
       <c r="C7" s="74" t="s">
+        <v>706</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>707</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>708</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>113</v>
@@ -20006,10 +20038,10 @@
         <v>221</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H7" s="79" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="66" customHeight="1">

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF146178-9AE4-2B44-9501-D5A8EF79A1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2F9BB4-5D65-D746-A2FC-A3D651B86BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="775">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9598,6 +9598,500 @@
     <t>升盘4个，初盘1.750, 即时盘0.750</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>澳维超第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮</t>
+    </r>
+  </si>
+  <si>
+    <t>欧克莱卡诺</t>
+  </si>
+  <si>
+    <t>盘口变化4个，初盘0.000, 即时盘1.000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>澳昆超第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮</t>
+    </r>
+  </si>
+  <si>
+    <t>布里斯班奥林匹克</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=2,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[0:0](1次)     [2:2](1次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23中超第8轮</t>
+  </si>
+  <si>
+    <t>沧州雄狮</t>
+  </si>
+  <si>
+    <t>长春亚泰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=14,输=23,走=1,输盘概率最大,为60.53%
+比分概率前三分别是：[0:1](5次)     [1:1](4次)     [1:3](4次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23日职第14轮</t>
+  </si>
+  <si>
+    <t>札幌冈萨多</t>
+  </si>
+  <si>
+    <t>京都不死鸟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=44,输=56,走=32,输盘概率最大,为42.42%
+亚盘本联赛盘口:赢=4,输=5,走=3,输盘概率最大,为41.67%
+比分概率前三分别是：[1:1](19次)     [2:0](15次)     [0:0](14次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23克罗甲第35轮</t>
+  </si>
+  <si>
+    <t>斯普利特海杜克</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=3,输=1,走=0,赢盘概率最大,为75.00%
+比分概率前三分别是：[0:0](2次)     [2:0](1次)     [0:2](1次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>22/23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>塞浦甲第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮</t>
+    </r>
+  </si>
+  <si>
+    <t>奥林比克斯尼克</t>
+  </si>
+  <si>
+    <t>卡特高皮亚斯</t>
+  </si>
+  <si>
+    <t>盘口变化5个，初盘0.250, 即时盘1.500</t>
+  </si>
+  <si>
+    <t>格林古利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升盘方走盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>22/23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>波乙第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮</t>
+    </r>
+  </si>
+  <si>
+    <t>阿尔卡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=15,输=9,走=0,赢盘概率最大,为62.50%
+亚盘本联赛盘口:赢=1,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:1](4次)     [1:0](3次)     [3:2](3次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23丹甲第8轮</t>
+  </si>
+  <si>
+    <t>霍布罗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=6,输=12,走=0,输盘概率最大,为66.67%
+比分概率前三分别是：[1:2](4次)     [0:1](3次)     [0:3](2次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23德乙第33轮</t>
+  </si>
+  <si>
+    <t>22/23奥乙第28轮</t>
+  </si>
+  <si>
+    <t>SV霍恩</t>
+  </si>
+  <si>
+    <t>-1.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=1,输=4,走=0,输盘概率最大,为80.00%
+比分概率前三分别是：[1:1](2次)     [1:0](1次)     [2:1](1次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23荷乙第38轮</t>
+  </si>
+  <si>
+    <t>芬洛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=1,输=3,走=0,输盘概率最大,为75.00%
+亚盘本联赛盘口:赢=0,输=1,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[2:3](1次)     [0:4](1次)     [0:1](1次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布雷达</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=19,输=11,走=0,赢盘概率最大,为63.33%
+亚盘本联赛盘口:赢=3,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:0](7次)     [2:1](3次)     [1:2](3次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利雅得希拉尔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=1,输=4,走=3,输盘概率最大,为50.00%
+亚盘本联赛盘口:赢=0,输=1,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[0:3](2次)     [0:1](2次)     [1:1](1次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍吉尼赞卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼克宾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>亚盘全网盘口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>=5,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>=1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>走</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>=0,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赢盘概率最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">83.33%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比分概率前三分别是：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>[3:1](2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)     [4:1](2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)     [3:0](1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达姆施塔特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BW林茨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌德勒支青年队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特尔斯达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德咸科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -9606,7 +10100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9860,6 +10354,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -9929,7 +10431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10175,6 +10677,9 @@
     </xf>
     <xf numFmtId="176" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10500,8 +11005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G156" sqref="G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -14842,135 +15347,334 @@
       </c>
     </row>
     <row r="145" spans="1:10" ht="63" customHeight="1">
-      <c r="A145" s="17"/>
-      <c r="B145" s="14"/>
-      <c r="C145" s="17"/>
-      <c r="D145" s="17"/>
-      <c r="E145" s="16"/>
-      <c r="F145" s="16"/>
-      <c r="G145" s="16"/>
-      <c r="H145" s="28"/>
+      <c r="A145" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="B145" s="14">
+        <v>45065.770833333336</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F145" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="G145" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H145" s="28" t="s">
+        <v>730</v>
+      </c>
       <c r="I145" s="17"/>
-      <c r="J145" s="16"/>
+      <c r="J145" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="146" spans="1:10" ht="63" customHeight="1">
-      <c r="A146" s="17"/>
-      <c r="B146" s="14"/>
-      <c r="C146" s="17"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="16"/>
-      <c r="F146" s="16"/>
-      <c r="G146" s="16"/>
-      <c r="H146" s="28"/>
-      <c r="I146" s="17"/>
-      <c r="J146" s="16"/>
+      <c r="A146" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="B146" s="8">
+        <v>45065.815972222219</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H146" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="I146" s="11"/>
+      <c r="J146" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="147" spans="1:10" ht="63" customHeight="1">
-      <c r="A147" s="17"/>
-      <c r="B147" s="14"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="16"/>
-      <c r="F147" s="16"/>
-      <c r="G147" s="16"/>
-      <c r="H147" s="28"/>
-      <c r="I147" s="17"/>
-      <c r="J147" s="16"/>
+      <c r="A147" s="61" t="s">
+        <v>735</v>
+      </c>
+      <c r="B147" s="62">
+        <v>45065.770833333336</v>
+      </c>
+      <c r="C147" s="61" t="s">
+        <v>736</v>
+      </c>
+      <c r="D147" s="61" t="s">
+        <v>737</v>
+      </c>
+      <c r="E147" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="F147" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H147" s="64" t="s">
+        <v>738</v>
+      </c>
+      <c r="I147" s="61"/>
+      <c r="J147" s="63" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="148" spans="1:10" ht="63" customHeight="1">
-      <c r="A148" s="17"/>
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="16"/>
-      <c r="F148" s="16"/>
-      <c r="G148" s="16"/>
-      <c r="H148" s="28"/>
+      <c r="A148" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="B148" s="14">
+        <v>45065.916666666664</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F148" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="G148" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H148" s="28" t="s">
+        <v>741</v>
+      </c>
       <c r="I148" s="17"/>
-      <c r="J148" s="16"/>
+      <c r="J148" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="149" spans="1:10" ht="63" customHeight="1">
-      <c r="A149" s="14"/>
-      <c r="B149" s="14"/>
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="16"/>
-      <c r="F149" s="16"/>
-      <c r="G149" s="16"/>
-      <c r="H149" s="28"/>
+      <c r="A149" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="B149" s="14">
+        <v>45066</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F149" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G149" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H149" s="28" t="s">
+        <v>751</v>
+      </c>
       <c r="I149" s="17"/>
-      <c r="J149" s="16"/>
+      <c r="J149" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="150" spans="1:10" ht="63" customHeight="1">
-      <c r="A150" s="17"/>
-      <c r="B150" s="14"/>
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="16"/>
-      <c r="F150" s="16"/>
-      <c r="G150" s="16"/>
-      <c r="H150" s="28"/>
-      <c r="I150" s="17"/>
-      <c r="J150" s="16"/>
+      <c r="A150" s="75" t="s">
+        <v>752</v>
+      </c>
+      <c r="B150" s="76">
+        <v>45066.041666666664</v>
+      </c>
+      <c r="C150" s="75" t="s">
+        <v>768</v>
+      </c>
+      <c r="D150" s="75" t="s">
+        <v>753</v>
+      </c>
+      <c r="E150" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="F150" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="G150" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="H150" s="78" t="s">
+        <v>754</v>
+      </c>
+      <c r="I150" s="75"/>
+      <c r="J150" s="77" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="151" spans="1:10" ht="63" customHeight="1">
-      <c r="A151" s="17"/>
-      <c r="B151" s="14"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="16"/>
-      <c r="F151" s="16"/>
-      <c r="G151" s="16"/>
-      <c r="H151" s="28"/>
+      <c r="A151" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="B151" s="14">
+        <v>45066.020833333336</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F151" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G151" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H151" s="28" t="s">
+        <v>769</v>
+      </c>
       <c r="I151" s="17"/>
-      <c r="J151" s="16"/>
+      <c r="J151" s="16" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="152" spans="1:10" ht="63" customHeight="1">
-      <c r="A152" s="17"/>
-      <c r="B152" s="14"/>
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="16"/>
-      <c r="F152" s="16"/>
-      <c r="G152" s="16"/>
-      <c r="H152" s="28"/>
-      <c r="I152" s="17"/>
-      <c r="J152" s="16"/>
+      <c r="A152" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="B152" s="8">
+        <v>45066.006944444445</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>771</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H152" s="33" t="s">
+        <v>759</v>
+      </c>
+      <c r="I152" s="11"/>
+      <c r="J152" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="153" spans="1:10" ht="63" customHeight="1">
-      <c r="A153" s="17"/>
-      <c r="B153" s="14"/>
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
-      <c r="E153" s="16"/>
-      <c r="F153" s="16"/>
-      <c r="G153" s="16"/>
-      <c r="H153" s="28"/>
+      <c r="A153" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="B153" s="14">
+        <v>45066.083333333336</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F153" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H153" s="28" t="s">
+        <v>762</v>
+      </c>
       <c r="I153" s="17"/>
-      <c r="J153" s="16"/>
+      <c r="J153" s="16" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="154" spans="1:10" ht="63" customHeight="1">
-      <c r="A154" s="17"/>
-      <c r="B154" s="14"/>
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="16"/>
-      <c r="F154" s="16"/>
-      <c r="G154" s="16"/>
-      <c r="H154" s="28"/>
-      <c r="I154" s="17"/>
-      <c r="J154" s="16"/>
+      <c r="A154" s="75" t="s">
+        <v>760</v>
+      </c>
+      <c r="B154" s="76">
+        <v>45066.083333333336</v>
+      </c>
+      <c r="C154" s="75" t="s">
+        <v>773</v>
+      </c>
+      <c r="D154" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="E154" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="F154" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="G154" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="H154" s="78" t="s">
+        <v>764</v>
+      </c>
+      <c r="I154" s="75"/>
+      <c r="J154" s="77" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="155" spans="1:10" ht="63" customHeight="1">
-      <c r="A155" s="17"/>
-      <c r="B155" s="14"/>
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="16"/>
-      <c r="G155" s="16"/>
-      <c r="H155" s="28"/>
-      <c r="I155" s="17"/>
-      <c r="J155" s="16"/>
+      <c r="A155" s="61" t="s">
+        <v>426</v>
+      </c>
+      <c r="B155" s="62">
+        <v>45066.083333333336</v>
+      </c>
+      <c r="C155" s="61" t="s">
+        <v>774</v>
+      </c>
+      <c r="D155" s="61" t="s">
+        <v>765</v>
+      </c>
+      <c r="E155" s="63" t="s">
+        <v>374</v>
+      </c>
+      <c r="F155" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="G155" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H155" s="64" t="s">
+        <v>766</v>
+      </c>
+      <c r="I155" s="61"/>
+      <c r="J155" s="63" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="156" spans="1:10" ht="63" customHeight="1">
       <c r="A156" s="17"/>
@@ -19589,23 +20293,47 @@
       <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" ht="52" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="48"/>
+      <c r="A18" s="43" t="s">
+        <v>725</v>
+      </c>
+      <c r="B18" s="49">
+        <v>45065.75</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>747</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>726</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="82" t="s">
+        <v>748</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>727</v>
+      </c>
       <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8" ht="52" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
+      <c r="A19" s="43" t="s">
+        <v>743</v>
+      </c>
+      <c r="B19" s="49">
+        <v>45065.999305555553</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>744</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>745</v>
+      </c>
       <c r="E19" s="46"/>
       <c r="F19" s="46"/>
-      <c r="G19" s="48"/>
+      <c r="G19" s="48" t="s">
+        <v>746</v>
+      </c>
       <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:8" ht="52" customHeight="1">

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2F9BB4-5D65-D746-A2FC-A3D651B86BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523D2E9E-EC01-324B-814A-2644339B758E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="862">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9763,9 +9763,6 @@
     <t>奥林比克斯尼克</t>
   </si>
   <si>
-    <t>卡特高皮亚斯</t>
-  </si>
-  <si>
     <t>盘口变化5个，初盘0.250, 即时盘1.500</t>
   </si>
   <si>
@@ -10090,6 +10087,383 @@
   </si>
   <si>
     <t>德咸科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23澳南超第13轮</t>
+  </si>
+  <si>
+    <t>南阿德莱德黑豹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=6,输=1,走=0,赢盘概率最大,为85.71%
+比分概率前三分别是：[2:0](3次)     [4:0](1次)     [1:0](1次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫德柏里喷射机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=2,输=6,走=0,输盘概率最大,为75.00%
+比分概率前三分别是：[1:0](2次)     [2:1](2次)     [4:1](1次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23澳维超第14轮</t>
+  </si>
+  <si>
+    <t>班特列</t>
+  </si>
+  <si>
+    <t>盘口变化3个，初盘-0.250, 即时盘0.500</t>
+  </si>
+  <si>
+    <t>卡特高皮亚斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川崎前锋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=8,输=4,走=1,赢盘概率最大,为61.54%
+亚盘本联赛盘口:赢=1,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[2:2](2次)     [3:4](2次)     [0:1](1次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23K2联赛第14轮</t>
+  </si>
+  <si>
+    <t>城南FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=115,输=76,走=0,赢盘概率最大,为60.21%
+比分概率前三分别是：[2:1](23次)     [1:2](21次)     [0:2](18次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23澳昆超第11轮</t>
+  </si>
+  <si>
+    <t>昆士兰狮队</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=2,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[4:0](1次)     [0:0](1次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠南牙山</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=19,输=29,走=0,输盘概率最大,为60.42%
+亚盘本联赛盘口:赢=0,输=2,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[0:2](10次)     [0:1](7次)     [1:1](6次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>澳西超第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮</t>
+    </r>
+  </si>
+  <si>
+    <t>珀斯红星</t>
+  </si>
+  <si>
+    <t>23K1联赛第14轮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=51,输=111,走=1,输盘概率最大,为68.10%
+比分概率前三分别是：[1:1](25次)     [1:0](19次)     [0:0](18次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23中甲第6轮</t>
+  </si>
+  <si>
+    <t>江西庐山</t>
+  </si>
+  <si>
+    <t>亚盘全网盘口:赢=9,输=6,走=0,赢盘概率最大,为60.00%
+比分概率前三分别是：[3:1](3次)     [5:1](2次)     [2:3](2次)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿东那</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=45,输=74,走=0,输盘概率最大,为62.18%
+比分概率前三分别是：[0:0](17次)     [1:1](16次)     [1:0](11次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=81,输=114,走=0,输盘概率最大,为58.46%
+亚盘本联赛盘口:赢=0,输=2,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[1:1](30次)     [0:0](24次)     [1:0](21次) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全南天龙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=14,输=23,走=0,输盘概率最大,为62.16%
+亚盘本联赛盘口:赢=0,输=1,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[1:1](6次)     [0:0](5次)     [2:1](4次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿德莱德城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坎贝尔市体育馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横滨FC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安山小绿人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩顿湾联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁川联合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南兴洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首尔FC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北部吉隆勇士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比斯活特城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕德博恩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=7,输=3,走=0,赢盘概率最大,为70.00%
+亚盘本联赛盘口:赢=1,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[2:0](3次)     [1:0](3次)     [0:3](1次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主队排名16，客队排名5，两者分差21，客队盘口非常便宜！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷根斯堡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=37,输=49,走=0,输盘概率最大,为56.98%
+亚盘本联赛盘口:赢=1,输=3,走=0,输盘概率最大,为75.00%
+比分概率前三分别是：[1:1](16次)     [1:0](11次)     [0:1](9次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维也纳迅速B队</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=4,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:0](3次)     [2:0](1次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23越南联第8轮</t>
+  </si>
+  <si>
+    <t>河静红林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=9,输=6,走=0,赢盘概率最大,为60.00%
+亚盘本联赛盘口:赢=1,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[2:1](4次)     [1:0](2次)     [1:1](2次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23德丙联第37轮</t>
+  </si>
+  <si>
+    <t>因戈尔施塔特</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=87,输=168,走=0,输盘概率最大,为65.88%
+亚盘本联赛盘口:赢=0,输=9,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[1:1](53次)     [1:2](24次)     [0:1](22次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃森</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=16,输=9,走=0,赢盘概率最大,为64.00%
+亚盘本联赛盘口:赢=1,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:0](7次)     [3:0](4次)     [1:2](3次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗雷堡青年队</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=21,输=9,走=0,赢盘概率最大,为70.00%
+亚盘本联赛盘口:赢=2,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:1](6次)     [2:2](4次)     [0:1](3次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比勒费尔德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不伦瑞克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格拉茨AK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>义安蓝江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23德丙联第37轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥厄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈雷斯彻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC维尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23波黑超第32轮</t>
+  </si>
+  <si>
+    <t>图兹拉城</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=19,输=11,走=0,赢盘概率最大,为63.33%
+比分概率前三分别是：[1:0](6次)     [2:0](6次)     [0:0](3次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23奥甲第8轮</t>
+  </si>
+  <si>
+    <t>奥地利卢斯特瑙</t>
+  </si>
+  <si>
+    <t>华登斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=7,输=12,走=10,输盘概率最大,为41.38%
+比分概率前三分别是：[0:0](6次)     [1:1](3次)     [2:1](3次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23乌兹超第11轮</t>
+  </si>
+  <si>
+    <t>特尔梅兹</t>
+  </si>
+  <si>
+    <t>比克波德</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=9,输=6,走=0,赢盘概率最大,为60.00%
+比分概率前三分别是：[2:1](6次)     [3:0](2次)     [1:1](2次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23西乙第41轮</t>
+  </si>
+  <si>
+    <t>伊维萨</t>
+  </si>
+  <si>
+    <t>萨拉戈萨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=13,输=11,走=0,赢盘概率最大,为54.17%
+亚盘本联赛盘口:赢=1,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:1](4次)     [2:1](3次)     [0:0](3次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23西甲第35轮</t>
+  </si>
+  <si>
+    <t>维戈塞尔塔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=124,输=96,走=0,赢盘概率最大,为56.36%
+亚盘本联赛盘口:赢=7,输=4,走=0,赢盘概率最大,为63.64%
+比分概率前三分别是：[1:1](25次)     [1:0](23次)     [2:0](23次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊格曼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11005,8 +11379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G156" sqref="G156"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -15468,16 +15842,16 @@
     </row>
     <row r="149" spans="1:10" ht="63" customHeight="1">
       <c r="A149" s="14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B149" s="14">
         <v>45066</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E149" s="16" t="s">
         <v>93</v>
@@ -15489,7 +15863,7 @@
         <v>57</v>
       </c>
       <c r="H149" s="28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I149" s="17"/>
       <c r="J149" s="16" t="s">
@@ -15498,16 +15872,16 @@
     </row>
     <row r="150" spans="1:10" ht="63" customHeight="1">
       <c r="A150" s="75" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B150" s="76">
         <v>45066.041666666664</v>
       </c>
       <c r="C150" s="75" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D150" s="75" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E150" s="77" t="s">
         <v>96</v>
@@ -15519,7 +15893,7 @@
         <v>68</v>
       </c>
       <c r="H150" s="78" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I150" s="75"/>
       <c r="J150" s="77" t="s">
@@ -15528,13 +15902,13 @@
     </row>
     <row r="151" spans="1:10" ht="63" customHeight="1">
       <c r="A151" s="17" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B151" s="14">
         <v>45066.020833333336</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D151" s="17" t="s">
         <v>254</v>
@@ -15549,7 +15923,7 @@
         <v>57</v>
       </c>
       <c r="H151" s="28" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I151" s="17"/>
       <c r="J151" s="16" t="s">
@@ -15558,19 +15932,19 @@
     </row>
     <row r="152" spans="1:10" ht="63" customHeight="1">
       <c r="A152" s="11" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B152" s="8">
         <v>45066.006944444445</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D152" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="E152" s="10" t="s">
         <v>757</v>
-      </c>
-      <c r="E152" s="10" t="s">
-        <v>758</v>
       </c>
       <c r="F152" s="10" t="s">
         <v>221</v>
@@ -15579,7 +15953,7 @@
         <v>68</v>
       </c>
       <c r="H152" s="33" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I152" s="11"/>
       <c r="J152" s="10" t="s">
@@ -15588,16 +15962,16 @@
     </row>
     <row r="153" spans="1:10" ht="63" customHeight="1">
       <c r="A153" s="17" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B153" s="14">
         <v>45066.083333333336</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E153" s="16" t="s">
         <v>97</v>
@@ -15609,7 +15983,7 @@
         <v>68</v>
       </c>
       <c r="H153" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I153" s="17"/>
       <c r="J153" s="16" t="s">
@@ -15618,16 +15992,16 @@
     </row>
     <row r="154" spans="1:10" ht="63" customHeight="1">
       <c r="A154" s="75" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B154" s="76">
         <v>45066.083333333336</v>
       </c>
       <c r="C154" s="75" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D154" s="75" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E154" s="77" t="s">
         <v>98</v>
@@ -15639,7 +16013,7 @@
         <v>57</v>
       </c>
       <c r="H154" s="78" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I154" s="75"/>
       <c r="J154" s="77" t="s">
@@ -15654,10 +16028,10 @@
         <v>45066.083333333336</v>
       </c>
       <c r="C155" s="61" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D155" s="61" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E155" s="63" t="s">
         <v>374</v>
@@ -15669,7 +16043,7 @@
         <v>68</v>
       </c>
       <c r="H155" s="64" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I155" s="61"/>
       <c r="J155" s="63" t="s">
@@ -15677,278 +16051,672 @@
       </c>
     </row>
     <row r="156" spans="1:10" ht="63" customHeight="1">
-      <c r="A156" s="17"/>
-      <c r="B156" s="14"/>
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
-      <c r="E156" s="16"/>
-      <c r="F156" s="16"/>
-      <c r="G156" s="16"/>
-      <c r="H156" s="28"/>
+      <c r="A156" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="B156" s="14">
+        <v>45066.5625</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="E156" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F156" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G156" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H156" s="28" t="s">
+        <v>776</v>
+      </c>
       <c r="I156" s="17"/>
-      <c r="J156" s="16"/>
+      <c r="J156" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="157" spans="1:10" ht="63" customHeight="1">
-      <c r="A157" s="17"/>
-      <c r="B157" s="14"/>
-      <c r="C157" s="17"/>
-      <c r="D157" s="17"/>
-      <c r="E157" s="16"/>
-      <c r="F157" s="16"/>
-      <c r="G157" s="16"/>
-      <c r="H157" s="28"/>
+      <c r="A157" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="B157" s="14">
+        <v>45066.5625</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="D157" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="E157" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F157" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G157" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H157" s="28" t="s">
+        <v>778</v>
+      </c>
       <c r="I157" s="17"/>
-      <c r="J157" s="16"/>
+      <c r="J157" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="158" spans="1:10" ht="63" customHeight="1">
-      <c r="A158" s="17"/>
-      <c r="B158" s="14"/>
-      <c r="C158" s="17"/>
-      <c r="D158" s="17"/>
-      <c r="E158" s="16"/>
-      <c r="F158" s="16"/>
-      <c r="G158" s="16"/>
-      <c r="H158" s="28"/>
-      <c r="I158" s="17"/>
-      <c r="J158" s="16"/>
+      <c r="A158" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="B158" s="8">
+        <v>45066.625</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H158" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="I158" s="11"/>
+      <c r="J158" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="159" spans="1:10" ht="63" customHeight="1">
-      <c r="A159" s="17"/>
-      <c r="B159" s="14"/>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="16"/>
-      <c r="F159" s="16"/>
-      <c r="G159" s="16"/>
-      <c r="H159" s="28"/>
+      <c r="A159" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="B159" s="14">
+        <v>45066.625</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="D159" s="17" t="s">
+        <v>787</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F159" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G159" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H159" s="28" t="s">
+        <v>788</v>
+      </c>
       <c r="I159" s="17"/>
-      <c r="J159" s="16"/>
+      <c r="J159" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="160" spans="1:10" ht="63" customHeight="1">
-      <c r="A160" s="17"/>
-      <c r="B160" s="14"/>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="16"/>
-      <c r="F160" s="16"/>
-      <c r="G160" s="16"/>
-      <c r="H160" s="28"/>
+      <c r="A160" s="17" t="s">
+        <v>789</v>
+      </c>
+      <c r="B160" s="14">
+        <v>45066.625</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="D160" s="17" t="s">
+        <v>790</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F160" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G160" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H160" s="28" t="s">
+        <v>791</v>
+      </c>
       <c r="I160" s="17"/>
-      <c r="J160" s="16"/>
+      <c r="J160" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="161" spans="1:10" ht="63" customHeight="1">
-      <c r="A161" s="17"/>
-      <c r="B161" s="14"/>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="16"/>
-      <c r="F161" s="16"/>
-      <c r="G161" s="16"/>
-      <c r="H161" s="28"/>
-      <c r="I161" s="17"/>
-      <c r="J161" s="16"/>
+      <c r="A161" s="75" t="s">
+        <v>786</v>
+      </c>
+      <c r="B161" s="76">
+        <v>45066.625</v>
+      </c>
+      <c r="C161" s="75" t="s">
+        <v>811</v>
+      </c>
+      <c r="D161" s="75" t="s">
+        <v>792</v>
+      </c>
+      <c r="E161" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="F161" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="G161" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="H161" s="78" t="s">
+        <v>793</v>
+      </c>
+      <c r="I161" s="75"/>
+      <c r="J161" s="77" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="162" spans="1:10" ht="63" customHeight="1">
-      <c r="A162" s="17"/>
-      <c r="B162" s="14"/>
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
-      <c r="E162" s="16"/>
-      <c r="F162" s="16"/>
-      <c r="G162" s="16"/>
-      <c r="H162" s="28"/>
-      <c r="I162" s="17"/>
-      <c r="J162" s="16"/>
+      <c r="A162" s="75" t="s">
+        <v>796</v>
+      </c>
+      <c r="B162" s="76">
+        <v>45066.645833333336</v>
+      </c>
+      <c r="C162" s="75" t="s">
+        <v>812</v>
+      </c>
+      <c r="D162" s="75" t="s">
+        <v>412</v>
+      </c>
+      <c r="E162" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="F162" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="H162" s="78" t="s">
+        <v>797</v>
+      </c>
+      <c r="I162" s="75"/>
+      <c r="J162" s="77" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="163" spans="1:10" ht="63" customHeight="1">
-      <c r="A163" s="17"/>
-      <c r="B163" s="14"/>
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="16"/>
-      <c r="F163" s="16"/>
-      <c r="G163" s="16"/>
-      <c r="H163" s="28"/>
-      <c r="I163" s="17"/>
-      <c r="J163" s="16"/>
+      <c r="A163" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="B163" s="8">
+        <v>45066.666666666664</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H163" s="33" t="s">
+        <v>800</v>
+      </c>
+      <c r="I163" s="11"/>
+      <c r="J163" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="164" spans="1:10" ht="63" customHeight="1">
-      <c r="A164" s="17"/>
-      <c r="B164" s="14"/>
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="16"/>
-      <c r="F164" s="16"/>
-      <c r="G164" s="16"/>
-      <c r="H164" s="28"/>
+      <c r="A164" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="B164" s="14">
+        <v>45066.6875</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>814</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>801</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F164" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G164" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H164" s="28" t="s">
+        <v>802</v>
+      </c>
       <c r="I164" s="17"/>
-      <c r="J164" s="16"/>
+      <c r="J164" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="165" spans="1:10" ht="63" customHeight="1">
-      <c r="A165" s="17"/>
-      <c r="B165" s="14"/>
-      <c r="C165" s="17"/>
-      <c r="D165" s="17"/>
-      <c r="E165" s="16"/>
-      <c r="F165" s="16"/>
-      <c r="G165" s="16"/>
-      <c r="H165" s="28"/>
-      <c r="I165" s="17"/>
-      <c r="J165" s="16"/>
+      <c r="A165" s="75" t="s">
+        <v>796</v>
+      </c>
+      <c r="B165" s="76">
+        <v>45066.708333333336</v>
+      </c>
+      <c r="C165" s="75" t="s">
+        <v>815</v>
+      </c>
+      <c r="D165" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="E165" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="F165" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="H165" s="78" t="s">
+        <v>803</v>
+      </c>
+      <c r="I165" s="75"/>
+      <c r="J165" s="77" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="166" spans="1:10" ht="63" customHeight="1">
-      <c r="A166" s="17"/>
-      <c r="B166" s="14"/>
-      <c r="C166" s="17"/>
-      <c r="D166" s="17"/>
-      <c r="E166" s="16"/>
-      <c r="F166" s="16"/>
-      <c r="G166" s="16"/>
-      <c r="H166" s="28"/>
+      <c r="A166" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="B166" s="14">
+        <v>45066.729166666664</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="E166" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F166" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G166" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H166" s="28" t="s">
+        <v>805</v>
+      </c>
       <c r="I166" s="17"/>
-      <c r="J166" s="16"/>
+      <c r="J166" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="167" spans="1:10" ht="63" customHeight="1">
-      <c r="A167" s="17"/>
-      <c r="B167" s="14"/>
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="16"/>
-      <c r="F167" s="16"/>
-      <c r="G167" s="16"/>
-      <c r="H167" s="28"/>
-      <c r="I167" s="17"/>
-      <c r="J167" s="16"/>
+      <c r="A167" s="61" t="s">
+        <v>754</v>
+      </c>
+      <c r="B167" s="62">
+        <v>45066.791666666664</v>
+      </c>
+      <c r="C167" s="61" t="s">
+        <v>835</v>
+      </c>
+      <c r="D167" s="61" t="s">
+        <v>818</v>
+      </c>
+      <c r="E167" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="F167" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="G167" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="H167" s="64" t="s">
+        <v>819</v>
+      </c>
+      <c r="I167" s="61"/>
+      <c r="J167" s="63" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="168" spans="1:10" ht="63" customHeight="1">
-      <c r="A168" s="17"/>
-      <c r="B168" s="14"/>
-      <c r="C168" s="17"/>
-      <c r="D168" s="17"/>
-      <c r="E168" s="16"/>
-      <c r="F168" s="16"/>
-      <c r="G168" s="16"/>
-      <c r="H168" s="28"/>
-      <c r="I168" s="17"/>
-      <c r="J168" s="16"/>
+      <c r="A168" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="B168" s="8">
+        <v>45066.791666666664</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G168" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H168" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="I168" s="11"/>
+      <c r="J168" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="169" spans="1:10" ht="63" customHeight="1">
-      <c r="A169" s="17"/>
-      <c r="B169" s="14"/>
-      <c r="C169" s="17"/>
-      <c r="D169" s="17"/>
-      <c r="E169" s="16"/>
-      <c r="F169" s="16"/>
-      <c r="G169" s="16"/>
-      <c r="H169" s="28"/>
-      <c r="I169" s="17"/>
-      <c r="J169" s="16"/>
+      <c r="A169" s="75" t="s">
+        <v>755</v>
+      </c>
+      <c r="B169" s="76">
+        <v>45066.854166666664</v>
+      </c>
+      <c r="C169" s="75" t="s">
+        <v>837</v>
+      </c>
+      <c r="D169" s="75" t="s">
+        <v>823</v>
+      </c>
+      <c r="E169" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="F169" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="G169" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="H169" s="78" t="s">
+        <v>824</v>
+      </c>
+      <c r="I169" s="75"/>
+      <c r="J169" s="77" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="170" spans="1:10" ht="63" customHeight="1">
-      <c r="A170" s="17"/>
-      <c r="B170" s="14"/>
-      <c r="C170" s="17"/>
-      <c r="D170" s="17"/>
-      <c r="E170" s="16"/>
-      <c r="F170" s="16"/>
-      <c r="G170" s="16"/>
-      <c r="H170" s="28"/>
+      <c r="A170" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="B170" s="14">
+        <v>45066.791666666664</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>838</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="E170" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F170" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G170" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H170" s="28" t="s">
+        <v>827</v>
+      </c>
       <c r="I170" s="17"/>
-      <c r="J170" s="16"/>
+      <c r="J170" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="171" spans="1:10" ht="63" customHeight="1">
-      <c r="A171" s="17"/>
-      <c r="B171" s="14"/>
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="16"/>
-      <c r="F171" s="16"/>
-      <c r="G171" s="16"/>
-      <c r="H171" s="28"/>
-      <c r="I171" s="17"/>
-      <c r="J171" s="16"/>
+      <c r="A171" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="B171" s="8">
+        <v>45066.833333333336</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="E171" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F171" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G171" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H171" s="33" t="s">
+        <v>830</v>
+      </c>
+      <c r="I171" s="11"/>
+      <c r="J171" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="172" spans="1:10" ht="63" customHeight="1">
-      <c r="A172" s="17"/>
-      <c r="B172" s="14"/>
-      <c r="C172" s="17"/>
-      <c r="D172" s="17"/>
-      <c r="E172" s="16"/>
-      <c r="F172" s="16"/>
-      <c r="G172" s="16"/>
-      <c r="H172" s="28"/>
-      <c r="I172" s="17"/>
-      <c r="J172" s="16"/>
+      <c r="A172" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="B172" s="8">
+        <v>45066.833333333336</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="E172" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F172" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G172" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H172" s="33" t="s">
+        <v>832</v>
+      </c>
+      <c r="I172" s="11"/>
+      <c r="J172" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="173" spans="1:10" ht="63" customHeight="1">
-      <c r="A173" s="17"/>
-      <c r="B173" s="14"/>
-      <c r="C173" s="17"/>
-      <c r="D173" s="17"/>
-      <c r="E173" s="16"/>
-      <c r="F173" s="16"/>
-      <c r="G173" s="16"/>
-      <c r="H173" s="28"/>
+      <c r="A173" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="B173" s="14">
+        <v>45066.833333333336</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>842</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>833</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F173" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G173" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H173" s="28" t="s">
+        <v>834</v>
+      </c>
       <c r="I173" s="17"/>
-      <c r="J173" s="16"/>
+      <c r="J173" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="174" spans="1:10" ht="63" customHeight="1">
-      <c r="A174" s="17"/>
-      <c r="B174" s="14"/>
-      <c r="C174" s="17"/>
-      <c r="D174" s="17"/>
-      <c r="E174" s="16"/>
+      <c r="A174" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="B174" s="14">
+        <v>45066.958333333336</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>228</v>
+      </c>
       <c r="F174" s="16"/>
-      <c r="G174" s="16"/>
-      <c r="H174" s="28"/>
+      <c r="G174" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H174" s="28" t="s">
+        <v>845</v>
+      </c>
       <c r="I174" s="17"/>
       <c r="J174" s="16"/>
     </row>
     <row r="175" spans="1:10" ht="63" customHeight="1">
-      <c r="A175" s="17"/>
-      <c r="B175" s="14"/>
-      <c r="C175" s="17"/>
-      <c r="D175" s="17"/>
-      <c r="E175" s="16"/>
+      <c r="A175" s="17" t="s">
+        <v>846</v>
+      </c>
+      <c r="B175" s="14">
+        <v>45066.958333333336</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="D175" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="E175" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="F175" s="16"/>
-      <c r="G175" s="16"/>
-      <c r="H175" s="28"/>
+      <c r="G175" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H175" s="28" t="s">
+        <v>849</v>
+      </c>
       <c r="I175" s="17"/>
       <c r="J175" s="16"/>
     </row>
     <row r="176" spans="1:10" ht="63" customHeight="1">
-      <c r="A176" s="17"/>
-      <c r="B176" s="14"/>
-      <c r="C176" s="17"/>
-      <c r="D176" s="17"/>
-      <c r="E176" s="16"/>
+      <c r="A176" s="17" t="s">
+        <v>850</v>
+      </c>
+      <c r="B176" s="14">
+        <v>45066.9375</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>851</v>
+      </c>
+      <c r="D176" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="E176" s="16" t="s">
+        <v>176</v>
+      </c>
       <c r="F176" s="16"/>
-      <c r="G176" s="16"/>
-      <c r="H176" s="28"/>
+      <c r="G176" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H176" s="28" t="s">
+        <v>853</v>
+      </c>
       <c r="I176" s="17"/>
       <c r="J176" s="16"/>
     </row>
     <row r="177" spans="1:10" ht="63" customHeight="1">
-      <c r="A177" s="17"/>
-      <c r="B177" s="14"/>
-      <c r="C177" s="17"/>
-      <c r="D177" s="17"/>
-      <c r="E177" s="16"/>
+      <c r="A177" s="17" t="s">
+        <v>854</v>
+      </c>
+      <c r="B177" s="14">
+        <v>45066.927083333336</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="D177" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="E177" s="16" t="s">
+        <v>93</v>
+      </c>
       <c r="F177" s="16"/>
-      <c r="G177" s="16"/>
-      <c r="H177" s="28"/>
+      <c r="G177" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H177" s="28" t="s">
+        <v>857</v>
+      </c>
       <c r="I177" s="17"/>
       <c r="J177" s="16"/>
     </row>
     <row r="178" spans="1:10" ht="63" customHeight="1">
-      <c r="A178" s="17"/>
-      <c r="B178" s="14"/>
-      <c r="C178" s="17"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="16"/>
+      <c r="A178" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="B178" s="14">
+        <v>45066.927083333336</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D178" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="E178" s="16" t="s">
+        <v>176</v>
+      </c>
       <c r="F178" s="16"/>
-      <c r="G178" s="16"/>
-      <c r="H178" s="28"/>
+      <c r="G178" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H178" s="28" t="s">
+        <v>860</v>
+      </c>
       <c r="I178" s="17"/>
       <c r="J178" s="16"/>
     </row>
@@ -19873,8 +20641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5BD41-F360-D64B-BA12-0F85656DC41E}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.6640625" defaultRowHeight="52" customHeight="1"/>
@@ -20300,7 +21068,7 @@
         <v>45065.75</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D18" s="59" t="s">
         <v>726</v>
@@ -20309,7 +21077,7 @@
         <v>55</v>
       </c>
       <c r="F18" s="82" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G18" s="48" t="s">
         <v>727</v>
@@ -20327,33 +21095,65 @@
         <v>744</v>
       </c>
       <c r="D19" s="59" t="s">
+        <v>782</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" s="48" t="s">
         <v>745</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="48" t="s">
-        <v>746</v>
-      </c>
       <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:8" ht="52" customHeight="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="48"/>
+      <c r="A20" s="43" t="s">
+        <v>725</v>
+      </c>
+      <c r="B20" s="49">
+        <v>45066.541666666664</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>816</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>780</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>265</v>
+      </c>
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" ht="52" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="48"/>
+      <c r="A21" s="43" t="s">
+        <v>794</v>
+      </c>
+      <c r="B21" s="49">
+        <v>45066.625</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>817</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>795</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>781</v>
+      </c>
       <c r="H21" s="26"/>
     </row>
     <row r="22" spans="1:8" ht="52" customHeight="1">
@@ -20577,8 +21377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1142161-0F82-AA49-8A76-42BEDD9DBD1A}">
   <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34" defaultRowHeight="66" customHeight="1"/>
@@ -20773,14 +21573,30 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="66" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="17"/>
+      <c r="A8" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="B8" s="14">
+        <v>45066.791666666664</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>818</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>820</v>
+      </c>
+      <c r="H8" s="81" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="66" customHeight="1">
       <c r="A9" s="17"/>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523D2E9E-EC01-324B-814A-2644339B758E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CD58ED-826F-CF41-A3AB-DE104F0C6EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="870">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10397,9 +10397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22/23波黑超第32轮</t>
-  </si>
-  <si>
     <t>图兹拉城</t>
   </si>
   <si>
@@ -10411,9 +10408,6 @@
     <t>22/23奥甲第8轮</t>
   </si>
   <si>
-    <t>奥地利卢斯特瑙</t>
-  </si>
-  <si>
     <t>华登斯</t>
   </si>
   <si>
@@ -10425,9 +10419,6 @@
     <t>23乌兹超第11轮</t>
   </si>
   <si>
-    <t>特尔梅兹</t>
-  </si>
-  <si>
     <t>比克波德</t>
   </si>
   <si>
@@ -10437,9 +10428,6 @@
   </si>
   <si>
     <t>22/23西乙第41轮</t>
-  </si>
-  <si>
-    <t>伊维萨</t>
   </si>
   <si>
     <t>萨拉戈萨</t>
@@ -10464,6 +10452,54 @@
   </si>
   <si>
     <t>伊格曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23波乙第32轮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=21,输=15,走=0,赢盘概率最大,为58.33%
+亚盘本联赛盘口:赢=1,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[0:1](6次)     [2:2](4次)     [0:2](4次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23瑞士超第34轮</t>
+  </si>
+  <si>
+    <t>塞尔维特</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=3,输=12,走=1,输盘概率最大,为75.00%
+比分概率前三分别是：[1:4](3次)     [1:2](3次)     [0:2](3次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥地利卢斯特瑙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特尔梅兹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊维萨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕尔巴鄂竞技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克拉科夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保德比斯基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23波黑超第32轮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11377,10 +11413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
-  <dimension ref="A1:J389"/>
+  <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E170" sqref="E170"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -16591,156 +16627,208 @@
       </c>
     </row>
     <row r="174" spans="1:10" ht="63" customHeight="1">
-      <c r="A174" s="17" t="s">
-        <v>843</v>
-      </c>
-      <c r="B174" s="14">
+      <c r="A174" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="B174" s="8">
         <v>45066.958333333336</v>
       </c>
-      <c r="C174" s="17" t="s">
-        <v>861</v>
-      </c>
-      <c r="D174" s="17" t="s">
-        <v>844</v>
-      </c>
-      <c r="E174" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="F174" s="16"/>
-      <c r="G174" s="16" t="s">
+      <c r="C174" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="E174" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F174" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="G174" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H174" s="33" t="s">
+        <v>847</v>
+      </c>
+      <c r="I174" s="11"/>
+      <c r="J174" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="63" customHeight="1">
+      <c r="A175" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="B175" s="8">
+        <v>45066.9375</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F175" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G175" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H174" s="28" t="s">
-        <v>845</v>
-      </c>
-      <c r="I174" s="17"/>
-      <c r="J174" s="16"/>
-    </row>
-    <row r="175" spans="1:10" ht="63" customHeight="1">
-      <c r="A175" s="17" t="s">
-        <v>846</v>
-      </c>
-      <c r="B175" s="14">
-        <v>45066.958333333336</v>
-      </c>
-      <c r="C175" s="17" t="s">
-        <v>847</v>
-      </c>
-      <c r="D175" s="17" t="s">
-        <v>848</v>
-      </c>
-      <c r="E175" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F175" s="16"/>
-      <c r="G175" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H175" s="28" t="s">
-        <v>849</v>
-      </c>
-      <c r="I175" s="17"/>
-      <c r="J175" s="16"/>
+      <c r="H175" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="I175" s="11"/>
+      <c r="J175" s="10" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="176" spans="1:10" ht="63" customHeight="1">
-      <c r="A176" s="17" t="s">
-        <v>850</v>
-      </c>
-      <c r="B176" s="14">
-        <v>45066.9375</v>
-      </c>
-      <c r="C176" s="17" t="s">
+      <c r="A176" s="11" t="s">
         <v>851</v>
       </c>
-      <c r="D176" s="17" t="s">
+      <c r="B176" s="8">
+        <v>45066.927083333336</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="D176" s="11" t="s">
         <v>852</v>
       </c>
-      <c r="E176" s="16" t="s">
+      <c r="E176" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F176" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G176" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H176" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="I176" s="11"/>
+      <c r="J176" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="63" customHeight="1">
+      <c r="A177" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="B177" s="8">
+        <v>45066.927083333336</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="E177" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="F176" s="16"/>
-      <c r="G176" s="16" t="s">
+      <c r="F177" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H176" s="28" t="s">
-        <v>853</v>
-      </c>
-      <c r="I176" s="17"/>
-      <c r="J176" s="16"/>
-    </row>
-    <row r="177" spans="1:10" ht="63" customHeight="1">
-      <c r="A177" s="17" t="s">
-        <v>854</v>
-      </c>
-      <c r="B177" s="14">
-        <v>45066.927083333336</v>
-      </c>
-      <c r="C177" s="17" t="s">
-        <v>855</v>
-      </c>
-      <c r="D177" s="17" t="s">
+      <c r="H177" s="33" t="s">
         <v>856</v>
       </c>
-      <c r="E177" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F177" s="16"/>
-      <c r="G177" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H177" s="28" t="s">
-        <v>857</v>
-      </c>
-      <c r="I177" s="17"/>
-      <c r="J177" s="16"/>
+      <c r="I177" s="11"/>
+      <c r="J177" s="10" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="178" spans="1:10" ht="63" customHeight="1">
       <c r="A178" s="17" t="s">
         <v>858</v>
       </c>
       <c r="B178" s="14">
-        <v>45066.927083333336</v>
+        <v>45066.979166666664</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>243</v>
+        <v>868</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F178" s="16"/>
+        <v>228</v>
+      </c>
+      <c r="F178" s="16" t="s">
+        <v>139</v>
+      </c>
       <c r="G178" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H178" s="28" t="s">
+        <v>859</v>
+      </c>
+      <c r="I178" s="17"/>
+      <c r="J178" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="63" customHeight="1">
+      <c r="A179" s="11" t="s">
         <v>860</v>
       </c>
-      <c r="I178" s="17"/>
-      <c r="J178" s="16"/>
-    </row>
-    <row r="179" spans="1:10" ht="63" customHeight="1">
-      <c r="A179" s="17"/>
-      <c r="B179" s="14"/>
-      <c r="C179" s="17"/>
-      <c r="D179" s="17"/>
-      <c r="E179" s="16"/>
-      <c r="F179" s="16"/>
-      <c r="G179" s="16"/>
-      <c r="H179" s="28"/>
-      <c r="I179" s="17"/>
-      <c r="J179" s="16"/>
+      <c r="B179" s="8">
+        <v>45067</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="E179" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="F179" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="G179" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H179" s="33" t="s">
+        <v>862</v>
+      </c>
+      <c r="I179" s="11"/>
+      <c r="J179" s="10" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="180" spans="1:10" ht="63" customHeight="1">
-      <c r="A180" s="17"/>
-      <c r="B180" s="14"/>
-      <c r="C180" s="17"/>
-      <c r="D180" s="17"/>
-      <c r="E180" s="16"/>
+      <c r="A180" s="17" t="s">
+        <v>869</v>
+      </c>
+      <c r="B180" s="14">
+        <v>45067.958333333336</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="D180" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="E180" s="16" t="s">
+        <v>228</v>
+      </c>
       <c r="F180" s="16"/>
-      <c r="G180" s="16"/>
-      <c r="H180" s="28"/>
+      <c r="G180" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H180" s="28" t="s">
+        <v>844</v>
+      </c>
       <c r="I180" s="17"/>
       <c r="J180" s="16"/>
     </row>
@@ -19239,18 +19327,6 @@
       <c r="H388" s="28"/>
       <c r="I388" s="17"/>
       <c r="J388" s="16"/>
-    </row>
-    <row r="389" spans="1:10" ht="63" customHeight="1">
-      <c r="A389" s="17"/>
-      <c r="B389" s="14"/>
-      <c r="C389" s="17"/>
-      <c r="D389" s="17"/>
-      <c r="E389" s="16"/>
-      <c r="F389" s="16"/>
-      <c r="G389" s="16"/>
-      <c r="H389" s="28"/>
-      <c r="I389" s="17"/>
-      <c r="J389" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CD58ED-826F-CF41-A3AB-DE104F0C6EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB4B5DA-26A1-C14F-B4AE-0618A23CD49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="951">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10500,6 +10500,613 @@
   </si>
   <si>
     <t>22/23波黑超第32轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大分三神</t>
+  </si>
+  <si>
+    <t>长崎航海</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=164,输=262,走=0,输盘概率最大,为61.50%
+亚盘本联赛盘口:赢=4,输=24,走=0,输盘概率最大,为85.71%
+比分概率前三分别是：[1:1](57次)     [0:0](43次)     [2:1](41次) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宫松鼠</t>
+  </si>
+  <si>
+    <t>仙台维加泰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=121,输=82,走=3,赢盘概率最大,为58.74%
+亚盘本联赛盘口:赢=13,输=5,走=0,赢盘概率最大,为72.22%
+比分概率前三分别是：[1:1](29次)     [1:2](21次)     [0:0](19次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平阳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=6,输=14,走=0,输盘概率最大,为70.00%
+比分概率前三分别是：[0:0](4次)     [1:1](3次)     [2:0](3次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23德东北第33轮</t>
+  </si>
+  <si>
+    <t>22/23德东北第33轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车米莱比锡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=1,输=5,走=2,输盘概率最大,为62.50%
+比分概率前三分别是：[2:1](2次)     [0:0](2次)     [2:2](1次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏林安卡拉体育</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=23,输=13,走=0,赢盘概率最大,为63.89%
+比分概率前三分别是：[1:0](10次)     [1:1](4次)     [2:1](3次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23越南联第8轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23日职乙第17轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23苏超第36轮</t>
+  </si>
+  <si>
+    <t>格拉斯哥流浪者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=2,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[2:2](1次)     [1:1](1次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯泽斯劳滕</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=11,输=17,走=0,输盘概率最大,为60.71%
+亚盘本联赛盘口:赢=0,输=1,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[2:0](6次)     [1:2](4次)     [1:0](3次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴列卡诺</t>
+  </si>
+  <si>
+    <t>西班牙人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=3,输=1,走=0,赢盘概率最大,为75.00%
+比分概率前三分别是：[1:0](2次)     [2:0](1次)     [1:1](1次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡志明市</t>
+  </si>
+  <si>
+    <t>河内公安</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=0,输=3,走=0,输盘概率最大,为100.00%
+亚盘本联赛盘口:赢=0,输=1,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[2:3](1次)     [1:2](1次)     [0:6](1次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23荷甲第33轮</t>
+  </si>
+  <si>
+    <t>乌德勒支</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=2,输=7,走=0,输盘概率最大,为77.78%
+亚盘本联赛盘口:赢=0,输=1,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[0:2](2次)     [0:0](2次)     [3:1](1次) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBV精英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福图纳锡塔德</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=3,输=7,走=0,输盘概率最大,为70.00%
+比分概率前三分别是：[1:1](4次)     [2:0](2次)     [2:2](1次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福伦丹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=103,输=71,走=0,赢盘概率最大,为59.20%
+亚盘本联赛盘口:赢=6,输=1,走=0,赢盘概率最大,为85.71%
+比分概率前三分别是：[1:0](23次)     [2:0](22次)     [0:0](18次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔克马尔</t>
+  </si>
+  <si>
+    <t>鹿特丹斯巴达</t>
+  </si>
+  <si>
+    <t>坎布尔</t>
+  </si>
+  <si>
+    <r>
+      <t>亚盘全网盘口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>=6,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>=12,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>走</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>=0,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输盘概率最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">66.67%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚盘本联赛盘口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>=0,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>=1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>走</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>=0,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输盘概率最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">100.00%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比分概率前三分别是：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>[0:2](3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)     [1:2](2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>)     [1:3](2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">)     </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=0,输=3,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[2:1](1次)     [3:2](1次)     [0:1](1次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维迪斯</t>
+  </si>
+  <si>
+    <t>格罗宁根</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=9,输=16,走=0,输盘概率最大,为64.00%
+比分概率前三分别是：[1:1](4次)     [3:0](2次)     [1:0](2次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23法甲第36轮</t>
+  </si>
+  <si>
+    <t>尼斯</t>
+  </si>
+  <si>
+    <t>图卢兹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=44,输=19,走=0,赢盘概率最大,为69.84%
+亚盘本联赛盘口:赢=3,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:0](10次)     [2:0](9次)     [2:1](8次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23意甲第36轮</t>
+  </si>
+  <si>
+    <t>都灵</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=11,输=13,走=0,输盘概率最大,为54.17%
+亚盘本联赛盘口:赢=0,输=1,走=0,输盘概率最大,为100.00%
+比分概率前三分别是：[1:1](4次)     [0:1](3次)     [3:0](3次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23土超第35轮</t>
+  </si>
+  <si>
+    <t>尤姆尼耶士邦</t>
+  </si>
+  <si>
+    <t>安卡拉古库</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=10,输=4,走=3,赢盘概率最大,为58.82%
+亚盘本联赛盘口:赢=1,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[2:0](3次)     [1:2](3次)     [3:1](2次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑纳庆和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾福特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFC维多利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希伯尼安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔斯鲁厄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23保超第32轮</t>
+  </si>
+  <si>
+    <t>塞普特姆里</t>
+  </si>
+  <si>
+    <t>匹林1922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=3,输=1,走=0,赢盘概率最大,为75.00%
+比分概率前三分别是：[2:0](2次)     [3:1](1次)     [0:0](1次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23捷克乙第28轮</t>
+  </si>
+  <si>
+    <t>塔波斯科</t>
+  </si>
+  <si>
+    <t>唯拉斯姆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=6,输=11,走=3,输盘概率最大,为55.00%
+比分概率前三分别是：[0:1](5次)     [0:3](3次)     [3:1](2次)    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23阿巴超第34轮</t>
+  </si>
+  <si>
+    <t>拉奇</t>
+  </si>
+  <si>
+    <t>KF地拉那</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=3,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:0](1次)     [0:0](1次)     [4:4](1次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23挪甲第9轮</t>
+  </si>
+  <si>
+    <t>赫德</t>
+  </si>
+  <si>
+    <t>腓特烈斯塔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=27,输=15,走=11,赢盘概率最大,为50.94%
+比分概率前三分别是：[1:1](10次)     [0:1](5次)     [0:0](5次)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢夫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=33,输=16,走=0,赢盘概率最大,为67.35%
+比分概率前三分别是：[0:0](7次)     [2:1](6次)     [1:1](4次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库弗姆</t>
+  </si>
+  <si>
+    <t>莫斯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=2,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[3:0](1次)     [2:1](1次)   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11415,8 +12022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -16833,290 +17440,654 @@
       <c r="J180" s="16"/>
     </row>
     <row r="181" spans="1:10" ht="63" customHeight="1">
-      <c r="A181" s="17"/>
-      <c r="B181" s="14"/>
-      <c r="C181" s="17"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="16"/>
-      <c r="F181" s="16"/>
-      <c r="G181" s="16"/>
-      <c r="H181" s="28"/>
-      <c r="I181" s="17"/>
-      <c r="J181" s="16"/>
+      <c r="A181" s="75" t="s">
+        <v>885</v>
+      </c>
+      <c r="B181" s="76">
+        <v>45067.541666666664</v>
+      </c>
+      <c r="C181" s="75" t="s">
+        <v>870</v>
+      </c>
+      <c r="D181" s="75" t="s">
+        <v>871</v>
+      </c>
+      <c r="E181" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="F181" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G181" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="H181" s="78" t="s">
+        <v>872</v>
+      </c>
+      <c r="I181" s="75"/>
+      <c r="J181" s="77" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="182" spans="1:10" ht="63" customHeight="1">
-      <c r="A182" s="17"/>
-      <c r="B182" s="14"/>
-      <c r="C182" s="17"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="16"/>
-      <c r="F182" s="16"/>
-      <c r="G182" s="16"/>
-      <c r="H182" s="28"/>
-      <c r="I182" s="17"/>
-      <c r="J182" s="16"/>
+      <c r="A182" s="75" t="s">
+        <v>885</v>
+      </c>
+      <c r="B182" s="76">
+        <v>45067.541666666664</v>
+      </c>
+      <c r="C182" s="75" t="s">
+        <v>873</v>
+      </c>
+      <c r="D182" s="75" t="s">
+        <v>874</v>
+      </c>
+      <c r="E182" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="F182" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G182" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="H182" s="78" t="s">
+        <v>875</v>
+      </c>
+      <c r="I182" s="75"/>
+      <c r="J182" s="77" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="183" spans="1:10" ht="63" customHeight="1">
-      <c r="A183" s="17"/>
-      <c r="B183" s="14"/>
-      <c r="C183" s="17"/>
-      <c r="D183" s="17"/>
-      <c r="E183" s="16"/>
-      <c r="F183" s="16"/>
-      <c r="G183" s="16"/>
-      <c r="H183" s="28"/>
-      <c r="I183" s="17"/>
-      <c r="J183" s="16"/>
+      <c r="A183" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="B183" s="8">
+        <v>45067.75</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="E183" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F183" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G183" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H183" s="33" t="s">
+        <v>877</v>
+      </c>
+      <c r="I183" s="11"/>
+      <c r="J183" s="10" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="184" spans="1:10" ht="63" customHeight="1">
-      <c r="A184" s="17"/>
-      <c r="B184" s="14"/>
-      <c r="C184" s="17"/>
-      <c r="D184" s="17"/>
-      <c r="E184" s="16"/>
-      <c r="F184" s="16"/>
-      <c r="G184" s="16"/>
-      <c r="H184" s="28"/>
-      <c r="I184" s="17"/>
-      <c r="J184" s="16"/>
+      <c r="A184" s="75" t="s">
+        <v>879</v>
+      </c>
+      <c r="B184" s="76">
+        <v>45067.791666666664</v>
+      </c>
+      <c r="C184" s="75" t="s">
+        <v>926</v>
+      </c>
+      <c r="D184" s="75" t="s">
+        <v>880</v>
+      </c>
+      <c r="E184" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="F184" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="G184" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="H184" s="78" t="s">
+        <v>881</v>
+      </c>
+      <c r="I184" s="75"/>
+      <c r="J184" s="77" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="185" spans="1:10" ht="63" customHeight="1">
-      <c r="A185" s="17"/>
-      <c r="B185" s="14"/>
-      <c r="C185" s="17"/>
-      <c r="D185" s="17"/>
-      <c r="E185" s="16"/>
-      <c r="F185" s="16"/>
-      <c r="G185" s="16"/>
-      <c r="H185" s="28"/>
+      <c r="A185" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="B185" s="14">
+        <v>45067.791666666664</v>
+      </c>
+      <c r="C185" s="17" t="s">
+        <v>927</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F185" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G185" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H185" s="28" t="s">
+        <v>883</v>
+      </c>
       <c r="I185" s="17"/>
-      <c r="J185" s="16"/>
+      <c r="J185" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="186" spans="1:10" ht="63" customHeight="1">
-      <c r="A186" s="17"/>
-      <c r="B186" s="14"/>
-      <c r="C186" s="17"/>
-      <c r="D186" s="17"/>
-      <c r="E186" s="16"/>
-      <c r="F186" s="16"/>
-      <c r="G186" s="16"/>
-      <c r="H186" s="28"/>
+      <c r="A186" s="17" t="s">
+        <v>886</v>
+      </c>
+      <c r="B186" s="14">
+        <v>45067.791666666664</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>928</v>
+      </c>
+      <c r="D186" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="E186" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F186" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G186" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H186" s="28" t="s">
+        <v>888</v>
+      </c>
       <c r="I186" s="17"/>
-      <c r="J186" s="16"/>
+      <c r="J186" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="187" spans="1:10" ht="63" customHeight="1">
-      <c r="A187" s="17"/>
-      <c r="B187" s="14"/>
-      <c r="C187" s="17"/>
-      <c r="D187" s="17"/>
-      <c r="E187" s="16"/>
-      <c r="F187" s="16"/>
-      <c r="G187" s="16"/>
-      <c r="H187" s="28"/>
+      <c r="A187" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="B187" s="14">
+        <v>45067.8125</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>929</v>
+      </c>
+      <c r="D187" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="E187" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F187" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G187" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H187" s="28" t="s">
+        <v>890</v>
+      </c>
       <c r="I187" s="17"/>
-      <c r="J187" s="16"/>
+      <c r="J187" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="188" spans="1:10" ht="63" customHeight="1">
-      <c r="A188" s="17"/>
-      <c r="B188" s="14"/>
-      <c r="C188" s="17"/>
-      <c r="D188" s="17"/>
-      <c r="E188" s="16"/>
+      <c r="A188" s="17" t="s">
+        <v>854</v>
+      </c>
+      <c r="B188" s="14">
+        <v>45067.833333333336</v>
+      </c>
+      <c r="C188" s="17" t="s">
+        <v>891</v>
+      </c>
+      <c r="D188" s="17" t="s">
+        <v>892</v>
+      </c>
+      <c r="E188" s="16" t="s">
+        <v>232</v>
+      </c>
       <c r="F188" s="16"/>
-      <c r="G188" s="16"/>
-      <c r="H188" s="28"/>
+      <c r="G188" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H188" s="28" t="s">
+        <v>893</v>
+      </c>
       <c r="I188" s="17"/>
       <c r="J188" s="16"/>
     </row>
     <row r="189" spans="1:10" ht="63" customHeight="1">
-      <c r="A189" s="17"/>
-      <c r="B189" s="14"/>
-      <c r="C189" s="17"/>
-      <c r="D189" s="17"/>
-      <c r="E189" s="16"/>
+      <c r="A189" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="B189" s="14">
+        <v>45067.84375</v>
+      </c>
+      <c r="C189" s="17" t="s">
+        <v>894</v>
+      </c>
+      <c r="D189" s="17" t="s">
+        <v>895</v>
+      </c>
+      <c r="E189" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="F189" s="16"/>
-      <c r="G189" s="16"/>
-      <c r="H189" s="28"/>
+      <c r="G189" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H189" s="28" t="s">
+        <v>896</v>
+      </c>
       <c r="I189" s="17"/>
       <c r="J189" s="16"/>
     </row>
     <row r="190" spans="1:10" ht="63" customHeight="1">
-      <c r="A190" s="17"/>
-      <c r="B190" s="14"/>
-      <c r="C190" s="17"/>
-      <c r="D190" s="17"/>
-      <c r="E190" s="16"/>
+      <c r="A190" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="B190" s="14">
+        <v>45067.854166666664</v>
+      </c>
+      <c r="C190" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D190" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="E190" s="16" t="s">
+        <v>900</v>
+      </c>
       <c r="F190" s="16"/>
-      <c r="G190" s="16"/>
-      <c r="H190" s="28"/>
+      <c r="G190" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H190" s="28" t="s">
+        <v>899</v>
+      </c>
       <c r="I190" s="17"/>
       <c r="J190" s="16"/>
     </row>
     <row r="191" spans="1:10" ht="63" customHeight="1">
-      <c r="A191" s="17"/>
-      <c r="B191" s="14"/>
-      <c r="C191" s="17"/>
-      <c r="D191" s="17"/>
-      <c r="E191" s="16"/>
+      <c r="A191" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="B191" s="14">
+        <v>45067.854166666664</v>
+      </c>
+      <c r="C191" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="D191" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="E191" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="F191" s="16"/>
-      <c r="G191" s="16"/>
-      <c r="H191" s="28"/>
+      <c r="G191" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H191" s="28" t="s">
+        <v>903</v>
+      </c>
       <c r="I191" s="17"/>
       <c r="J191" s="16"/>
     </row>
     <row r="192" spans="1:10" ht="63" customHeight="1">
-      <c r="A192" s="17"/>
-      <c r="B192" s="14"/>
-      <c r="C192" s="17"/>
-      <c r="D192" s="17"/>
-      <c r="E192" s="16"/>
+      <c r="A192" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="B192" s="14">
+        <v>45067.854166666664</v>
+      </c>
+      <c r="C192" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D192" s="17" t="s">
+        <v>904</v>
+      </c>
+      <c r="E192" s="16" t="s">
+        <v>176</v>
+      </c>
       <c r="F192" s="16"/>
-      <c r="G192" s="16"/>
-      <c r="H192" s="28"/>
+      <c r="G192" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H192" s="28" t="s">
+        <v>905</v>
+      </c>
       <c r="I192" s="17"/>
       <c r="J192" s="16"/>
     </row>
     <row r="193" spans="1:10" ht="63" customHeight="1">
-      <c r="A193" s="17"/>
-      <c r="B193" s="14"/>
-      <c r="C193" s="17"/>
-      <c r="D193" s="17"/>
-      <c r="E193" s="16"/>
+      <c r="A193" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="B193" s="14">
+        <v>45067.854166666664</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="D193" s="17" t="s">
+        <v>906</v>
+      </c>
+      <c r="E193" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="F193" s="16"/>
-      <c r="G193" s="16"/>
-      <c r="H193" s="28"/>
+      <c r="G193" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H193" s="28" t="s">
+        <v>909</v>
+      </c>
       <c r="I193" s="17"/>
       <c r="J193" s="16"/>
     </row>
     <row r="194" spans="1:10" ht="63" customHeight="1">
-      <c r="A194" s="17"/>
-      <c r="B194" s="14"/>
-      <c r="C194" s="17"/>
-      <c r="D194" s="17"/>
-      <c r="E194" s="16"/>
+      <c r="A194" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="B194" s="14">
+        <v>45067.854166666664</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>907</v>
+      </c>
+      <c r="D194" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="E194" s="16" t="s">
+        <v>280</v>
+      </c>
       <c r="F194" s="16"/>
-      <c r="G194" s="16"/>
-      <c r="H194" s="28"/>
+      <c r="G194" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H194" s="28" t="s">
+        <v>910</v>
+      </c>
       <c r="I194" s="17"/>
       <c r="J194" s="16"/>
     </row>
     <row r="195" spans="1:10" ht="63" customHeight="1">
-      <c r="A195" s="17"/>
-      <c r="B195" s="14"/>
-      <c r="C195" s="17"/>
-      <c r="D195" s="17"/>
-      <c r="E195" s="16"/>
+      <c r="A195" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="B195" s="14">
+        <v>45067.854166666664</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>911</v>
+      </c>
+      <c r="D195" s="17" t="s">
+        <v>912</v>
+      </c>
+      <c r="E195" s="16" t="s">
+        <v>280</v>
+      </c>
       <c r="F195" s="16"/>
-      <c r="G195" s="16"/>
-      <c r="H195" s="28"/>
+      <c r="G195" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H195" s="28" t="s">
+        <v>913</v>
+      </c>
       <c r="I195" s="17"/>
       <c r="J195" s="16"/>
     </row>
     <row r="196" spans="1:10" ht="63" customHeight="1">
-      <c r="A196" s="17"/>
-      <c r="B196" s="14"/>
-      <c r="C196" s="17"/>
-      <c r="D196" s="17"/>
-      <c r="E196" s="16"/>
+      <c r="A196" s="17" t="s">
+        <v>914</v>
+      </c>
+      <c r="B196" s="14">
+        <v>45067.875</v>
+      </c>
+      <c r="C196" s="17" t="s">
+        <v>915</v>
+      </c>
+      <c r="D196" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="E196" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="F196" s="16"/>
-      <c r="G196" s="16"/>
-      <c r="H196" s="28"/>
+      <c r="G196" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H196" s="28" t="s">
+        <v>917</v>
+      </c>
       <c r="I196" s="17"/>
       <c r="J196" s="16"/>
     </row>
     <row r="197" spans="1:10" ht="63" customHeight="1">
-      <c r="A197" s="17"/>
-      <c r="B197" s="14"/>
-      <c r="C197" s="17"/>
-      <c r="D197" s="17"/>
-      <c r="E197" s="16"/>
+      <c r="A197" s="17" t="s">
+        <v>918</v>
+      </c>
+      <c r="B197" s="14">
+        <v>45067.875</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>919</v>
+      </c>
+      <c r="D197" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E197" s="16" t="s">
+        <v>228</v>
+      </c>
       <c r="F197" s="16"/>
-      <c r="G197" s="16"/>
-      <c r="H197" s="28"/>
+      <c r="G197" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H197" s="28" t="s">
+        <v>920</v>
+      </c>
       <c r="I197" s="17"/>
       <c r="J197" s="16"/>
     </row>
     <row r="198" spans="1:10" ht="63" customHeight="1">
-      <c r="A198" s="17"/>
-      <c r="B198" s="14"/>
-      <c r="C198" s="17"/>
-      <c r="D198" s="17"/>
-      <c r="E198" s="16"/>
+      <c r="A198" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="B198" s="14">
+        <v>45067.875</v>
+      </c>
+      <c r="C198" s="17" t="s">
+        <v>922</v>
+      </c>
+      <c r="D198" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="E198" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="F198" s="16"/>
-      <c r="G198" s="16"/>
-      <c r="H198" s="28"/>
+      <c r="G198" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H198" s="28" t="s">
+        <v>924</v>
+      </c>
       <c r="I198" s="17"/>
       <c r="J198" s="16"/>
     </row>
     <row r="199" spans="1:10" ht="63" customHeight="1">
-      <c r="A199" s="17"/>
-      <c r="B199" s="14"/>
-      <c r="C199" s="17"/>
-      <c r="D199" s="17"/>
-      <c r="E199" s="16"/>
+      <c r="A199" s="17" t="s">
+        <v>930</v>
+      </c>
+      <c r="B199" s="14">
+        <v>45067.947916666664</v>
+      </c>
+      <c r="C199" s="17" t="s">
+        <v>931</v>
+      </c>
+      <c r="D199" s="17" t="s">
+        <v>932</v>
+      </c>
+      <c r="E199" s="16" t="s">
+        <v>176</v>
+      </c>
       <c r="F199" s="16"/>
-      <c r="G199" s="16"/>
-      <c r="H199" s="28"/>
+      <c r="G199" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H199" s="28" t="s">
+        <v>933</v>
+      </c>
       <c r="I199" s="17"/>
       <c r="J199" s="16"/>
     </row>
     <row r="200" spans="1:10" ht="63" customHeight="1">
-      <c r="A200" s="17"/>
-      <c r="B200" s="14"/>
-      <c r="C200" s="17"/>
-      <c r="D200" s="17"/>
-      <c r="E200" s="16"/>
+      <c r="A200" s="17" t="s">
+        <v>934</v>
+      </c>
+      <c r="B200" s="14">
+        <v>45067.958333333336</v>
+      </c>
+      <c r="C200" s="17" t="s">
+        <v>935</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>936</v>
+      </c>
+      <c r="E200" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="F200" s="16"/>
-      <c r="G200" s="16"/>
-      <c r="H200" s="28"/>
+      <c r="G200" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H200" s="28" t="s">
+        <v>937</v>
+      </c>
       <c r="I200" s="17"/>
       <c r="J200" s="16"/>
     </row>
     <row r="201" spans="1:10" ht="63" customHeight="1">
-      <c r="A201" s="17"/>
-      <c r="B201" s="14"/>
-      <c r="C201" s="17"/>
-      <c r="D201" s="17"/>
-      <c r="E201" s="16"/>
+      <c r="A201" s="17" t="s">
+        <v>938</v>
+      </c>
+      <c r="B201" s="14">
+        <v>45067.958333333336</v>
+      </c>
+      <c r="C201" s="17" t="s">
+        <v>939</v>
+      </c>
+      <c r="D201" s="17" t="s">
+        <v>940</v>
+      </c>
+      <c r="E201" s="16" t="s">
+        <v>261</v>
+      </c>
       <c r="F201" s="16"/>
-      <c r="G201" s="16"/>
-      <c r="H201" s="28"/>
+      <c r="G201" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H201" s="28" t="s">
+        <v>941</v>
+      </c>
       <c r="I201" s="17"/>
       <c r="J201" s="16"/>
     </row>
     <row r="202" spans="1:10" ht="63" customHeight="1">
-      <c r="A202" s="17"/>
-      <c r="B202" s="14"/>
-      <c r="C202" s="17"/>
-      <c r="D202" s="17"/>
-      <c r="E202" s="16"/>
+      <c r="A202" s="17" t="s">
+        <v>942</v>
+      </c>
+      <c r="B202" s="14">
+        <v>45067.958333333336</v>
+      </c>
+      <c r="C202" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="D202" s="17" t="s">
+        <v>944</v>
+      </c>
+      <c r="E202" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="F202" s="16"/>
-      <c r="G202" s="16"/>
-      <c r="H202" s="28"/>
+      <c r="G202" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H202" s="28" t="s">
+        <v>945</v>
+      </c>
       <c r="I202" s="17"/>
       <c r="J202" s="16"/>
     </row>
     <row r="203" spans="1:10" ht="63" customHeight="1">
-      <c r="A203" s="17"/>
-      <c r="B203" s="14"/>
-      <c r="C203" s="17"/>
-      <c r="D203" s="17"/>
-      <c r="E203" s="16"/>
+      <c r="A203" s="17" t="s">
+        <v>942</v>
+      </c>
+      <c r="B203" s="14">
+        <v>45067.958333333336</v>
+      </c>
+      <c r="C203" s="17" t="s">
+        <v>946</v>
+      </c>
+      <c r="D203" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E203" s="16" t="s">
+        <v>261</v>
+      </c>
       <c r="F203" s="16"/>
-      <c r="G203" s="16"/>
-      <c r="H203" s="28"/>
+      <c r="G203" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H203" s="28" t="s">
+        <v>947</v>
+      </c>
       <c r="I203" s="17"/>
       <c r="J203" s="16"/>
     </row>
     <row r="204" spans="1:10" ht="63" customHeight="1">
-      <c r="A204" s="17"/>
-      <c r="B204" s="14"/>
-      <c r="C204" s="17"/>
-      <c r="D204" s="17"/>
-      <c r="E204" s="16"/>
+      <c r="A204" s="17" t="s">
+        <v>942</v>
+      </c>
+      <c r="B204" s="14">
+        <v>45067.958333333336</v>
+      </c>
+      <c r="C204" s="17" t="s">
+        <v>948</v>
+      </c>
+      <c r="D204" s="17" t="s">
+        <v>949</v>
+      </c>
+      <c r="E204" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="F204" s="16"/>
-      <c r="G204" s="16"/>
-      <c r="H204" s="28"/>
+      <c r="G204" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H204" s="28" t="s">
+        <v>950</v>
+      </c>
       <c r="I204" s="17"/>
       <c r="J204" s="16"/>
     </row>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB4B5DA-26A1-C14F-B4AE-0618A23CD49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9D4962-A208-774C-9624-A9B63B966904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="958">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10586,9 +10586,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>巴列卡诺</t>
-  </si>
-  <si>
     <t>西班牙人</t>
   </si>
   <si>
@@ -10598,9 +10595,6 @@
   </si>
   <si>
     <t>胡志明市</t>
-  </si>
-  <si>
-    <t>河内公安</t>
   </si>
   <si>
     <t xml:space="preserve">亚盘全网盘口:赢=0,输=3,走=0,输盘概率最大,为100.00%
@@ -10612,9 +10606,6 @@
     <t>22/23荷甲第33轮</t>
   </si>
   <si>
-    <t>乌德勒支</t>
-  </si>
-  <si>
     <t xml:space="preserve">亚盘全网盘口:赢=2,输=7,走=0,输盘概率最大,为77.78%
 亚盘本联赛盘口:赢=0,输=1,走=0,输盘概率最大,为100.00%
 比分概率前三分别是：[0:2](2次)     [0:0](2次)     [3:1](1次) </t>
@@ -10629,9 +10620,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>福图纳锡塔德</t>
-  </si>
-  <si>
     <t xml:space="preserve">亚盘全网盘口:赢=3,输=7,走=0,输盘概率最大,为70.00%
 比分概率前三分别是：[1:1](4次)     [2:0](2次)     [2:2](1次)    </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10649,9 +10637,6 @@
     <t>阿尔克马尔</t>
   </si>
   <si>
-    <t>鹿特丹斯巴达</t>
-  </si>
-  <si>
     <t>坎布尔</t>
   </si>
   <si>
@@ -10962,9 +10947,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>维迪斯</t>
-  </si>
-  <si>
     <t>格罗宁根</t>
   </si>
   <si>
@@ -10974,9 +10956,6 @@
   </si>
   <si>
     <t>22/23法甲第36轮</t>
-  </si>
-  <si>
-    <t>尼斯</t>
   </si>
   <si>
     <t>图卢兹</t>
@@ -10991,9 +10970,6 @@
     <t>22/23意甲第36轮</t>
   </si>
   <si>
-    <t>都灵</t>
-  </si>
-  <si>
     <t xml:space="preserve">亚盘全网盘口:赢=11,输=13,走=0,输盘概率最大,为54.17%
 亚盘本联赛盘口:赢=0,输=1,走=0,输盘概率最大,为100.00%
 比分概率前三分别是：[1:1](4次)     [0:1](3次)     [3:0](3次)     </t>
@@ -11003,9 +10979,6 @@
     <t>22/23土超第35轮</t>
   </si>
   <si>
-    <t>尤姆尼耶士邦</t>
-  </si>
-  <si>
     <t>安卡拉古库</t>
   </si>
   <si>
@@ -11038,9 +11011,6 @@
     <t>22/23保超第32轮</t>
   </si>
   <si>
-    <t>塞普特姆里</t>
-  </si>
-  <si>
     <t>匹林1922</t>
   </si>
   <si>
@@ -11052,9 +11022,6 @@
     <t>22/23捷克乙第28轮</t>
   </si>
   <si>
-    <t>塔波斯科</t>
-  </si>
-  <si>
     <t>唯拉斯姆</t>
   </si>
   <si>
@@ -11066,9 +11033,6 @@
     <t>22/23阿巴超第34轮</t>
   </si>
   <si>
-    <t>拉奇</t>
-  </si>
-  <si>
     <t>KF地拉那</t>
   </si>
   <si>
@@ -11080,9 +11044,6 @@
     <t>23挪甲第9轮</t>
   </si>
   <si>
-    <t>赫德</t>
-  </si>
-  <si>
     <t>腓特烈斯塔</t>
   </si>
   <si>
@@ -11091,22 +11052,104 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>谢夫</t>
-  </si>
-  <si>
     <t xml:space="preserve">亚盘全网盘口:赢=33,输=16,走=0,赢盘概率最大,为67.35%
 比分概率前三分别是：[0:0](7次)     [2:1](6次)     [1:1](4次)   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>库弗姆</t>
-  </si>
-  <si>
     <t>莫斯</t>
   </si>
   <si>
     <t xml:space="preserve">亚盘全网盘口:赢=2,输=0,走=0,赢盘概率最大,为100.00%
 比分概率前三分别是：[3:0](1次)     [2:1](1次)   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴列卡诺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河内公安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌德勒支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿贾克斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福图纳锡塔德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前进之鹰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奈梅亨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿特丹斯巴达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维迪斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤姆尼耶士邦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞普特姆里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔波斯科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赫德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库弗姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维塞乌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11117,7 +11160,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -11379,6 +11422,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="8"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -11448,7 +11512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11697,6 +11761,18 @@
     </xf>
     <xf numFmtId="49" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="38" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="39" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12022,8 +12098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E204" sqref="E204"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -12219,7 +12295,9 @@
         <v>32</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="J6" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="63" customHeight="1">
       <c r="A7" s="11" t="s">
@@ -12713,7 +12791,7 @@
         <v>45038.75</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>174</v>
+        <v>957</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>175</v>
@@ -12731,7 +12809,9 @@
         <v>177</v>
       </c>
       <c r="I23" s="26"/>
-      <c r="J23" s="17"/>
+      <c r="J23" s="17" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="63" customHeight="1">
       <c r="A24" s="11" t="s">
@@ -17429,7 +17509,9 @@
       <c r="E180" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="F180" s="16"/>
+      <c r="F180" s="16" t="s">
+        <v>221</v>
+      </c>
       <c r="G180" s="16" t="s">
         <v>57</v>
       </c>
@@ -17437,7 +17519,9 @@
         <v>844</v>
       </c>
       <c r="I180" s="17"/>
-      <c r="J180" s="16"/>
+      <c r="J180" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="181" spans="1:10" ht="63" customHeight="1">
       <c r="A181" s="75" t="s">
@@ -17507,7 +17591,7 @@
         <v>45067.75</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="D183" s="11" t="s">
         <v>876</v>
@@ -17537,7 +17621,7 @@
         <v>45067.791666666664</v>
       </c>
       <c r="C184" s="75" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="D184" s="75" t="s">
         <v>880</v>
@@ -17567,7 +17651,7 @@
         <v>45067.791666666664</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="D185" s="17" t="s">
         <v>882</v>
@@ -17597,7 +17681,7 @@
         <v>45067.791666666664</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="D186" s="17" t="s">
         <v>887</v>
@@ -17627,7 +17711,7 @@
         <v>45067.8125</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="D187" s="17" t="s">
         <v>889</v>
@@ -17657,439 +17741,507 @@
         <v>45067.833333333336</v>
       </c>
       <c r="C188" s="17" t="s">
+        <v>936</v>
+      </c>
+      <c r="D188" s="17" t="s">
         <v>891</v>
-      </c>
-      <c r="D188" s="17" t="s">
-        <v>892</v>
       </c>
       <c r="E188" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="F188" s="16"/>
+      <c r="F188" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="G188" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H188" s="28" t="s">
+        <v>892</v>
+      </c>
+      <c r="I188" s="17"/>
+      <c r="J188" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="63" customHeight="1">
+      <c r="A189" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="B189" s="8">
+        <v>45067.84375</v>
+      </c>
+      <c r="C189" s="11" t="s">
         <v>893</v>
       </c>
-      <c r="I188" s="17"/>
-      <c r="J188" s="16"/>
-    </row>
-    <row r="189" spans="1:10" ht="63" customHeight="1">
-      <c r="A189" s="17" t="s">
-        <v>825</v>
-      </c>
-      <c r="B189" s="14">
-        <v>45067.84375</v>
-      </c>
-      <c r="C189" s="17" t="s">
+      <c r="D189" s="11" t="s">
+        <v>937</v>
+      </c>
+      <c r="E189" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F189" s="10" t="s">
+        <v>938</v>
+      </c>
+      <c r="G189" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H189" s="33" t="s">
         <v>894</v>
       </c>
-      <c r="D189" s="17" t="s">
-        <v>895</v>
-      </c>
-      <c r="E189" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F189" s="16"/>
-      <c r="G189" s="16" t="s">
+      <c r="I189" s="11"/>
+      <c r="J189" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H189" s="28" t="s">
-        <v>896</v>
-      </c>
-      <c r="I189" s="17"/>
-      <c r="J189" s="16"/>
     </row>
     <row r="190" spans="1:10" ht="63" customHeight="1">
       <c r="A190" s="17" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B190" s="14">
         <v>45067.854166666664</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>193</v>
+        <v>940</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>898</v>
+        <v>939</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>900</v>
-      </c>
-      <c r="F190" s="16"/>
+        <v>897</v>
+      </c>
+      <c r="F190" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="G190" s="16" t="s">
         <v>68</v>
       </c>
       <c r="H190" s="28" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="I190" s="17"/>
-      <c r="J190" s="16"/>
+      <c r="J190" s="16" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="191" spans="1:10" ht="63" customHeight="1">
       <c r="A191" s="17" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B191" s="14">
         <v>45067.854166666664</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>902</v>
+        <v>941</v>
       </c>
       <c r="E191" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F191" s="16"/>
+      <c r="F191" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="G191" s="16" t="s">
         <v>68</v>
       </c>
       <c r="H191" s="28" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="I191" s="17"/>
-      <c r="J191" s="16"/>
+      <c r="J191" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="192" spans="1:10" ht="63" customHeight="1">
-      <c r="A192" s="17" t="s">
-        <v>897</v>
-      </c>
-      <c r="B192" s="14">
+      <c r="A192" s="11" t="s">
+        <v>895</v>
+      </c>
+      <c r="B192" s="8">
         <v>45067.854166666664</v>
       </c>
-      <c r="C192" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D192" s="17" t="s">
+      <c r="C192" s="11" t="s">
+        <v>942</v>
+      </c>
+      <c r="D192" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="E192" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F192" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G192" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H192" s="33" t="s">
+        <v>901</v>
+      </c>
+      <c r="I192" s="11"/>
+      <c r="J192" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="63" customHeight="1">
+      <c r="A193" s="11" t="s">
+        <v>895</v>
+      </c>
+      <c r="B193" s="8">
+        <v>45067.854166666664</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="D193" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="E193" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F193" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G193" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H193" s="33" t="s">
         <v>904</v>
       </c>
-      <c r="E192" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="F192" s="16"/>
-      <c r="G192" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H192" s="28" t="s">
-        <v>905</v>
-      </c>
-      <c r="I192" s="17"/>
-      <c r="J192" s="16"/>
-    </row>
-    <row r="193" spans="1:10" ht="63" customHeight="1">
-      <c r="A193" s="17" t="s">
-        <v>897</v>
-      </c>
-      <c r="B193" s="14">
-        <v>45067.854166666664</v>
-      </c>
-      <c r="C193" s="17" t="s">
-        <v>485</v>
-      </c>
-      <c r="D193" s="17" t="s">
-        <v>906</v>
-      </c>
-      <c r="E193" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F193" s="16"/>
-      <c r="G193" s="16" t="s">
+      <c r="I193" s="11"/>
+      <c r="J193" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H193" s="28" t="s">
-        <v>909</v>
-      </c>
-      <c r="I193" s="17"/>
-      <c r="J193" s="16"/>
     </row>
     <row r="194" spans="1:10" ht="63" customHeight="1">
       <c r="A194" s="17" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B194" s="14">
         <v>45067.854166666664</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>907</v>
+        <v>944</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="E194" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="F194" s="16"/>
+      <c r="F194" s="16" t="s">
+        <v>945</v>
+      </c>
       <c r="G194" s="16" t="s">
         <v>68</v>
       </c>
       <c r="H194" s="28" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="I194" s="17"/>
-      <c r="J194" s="16"/>
+      <c r="J194" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="195" spans="1:10" ht="63" customHeight="1">
       <c r="A195" s="17" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B195" s="14">
         <v>45067.854166666664</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>911</v>
+        <v>946</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="E195" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="F195" s="16"/>
+      <c r="F195" s="16" t="s">
+        <v>947</v>
+      </c>
       <c r="G195" s="16" t="s">
         <v>68</v>
       </c>
       <c r="H195" s="28" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="I195" s="17"/>
-      <c r="J195" s="16"/>
+      <c r="J195" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="196" spans="1:10" ht="63" customHeight="1">
       <c r="A196" s="17" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="B196" s="14">
         <v>45067.875</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>915</v>
+        <v>948</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="E196" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F196" s="16"/>
+      <c r="F196" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="G196" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H196" s="28" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="I196" s="17"/>
-      <c r="J196" s="16"/>
+      <c r="J196" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="197" spans="1:10" ht="63" customHeight="1">
-      <c r="A197" s="17" t="s">
-        <v>918</v>
-      </c>
-      <c r="B197" s="14">
+      <c r="A197" s="75" t="s">
+        <v>911</v>
+      </c>
+      <c r="B197" s="76">
         <v>45067.875</v>
       </c>
-      <c r="C197" s="17" t="s">
-        <v>919</v>
-      </c>
-      <c r="D197" s="17" t="s">
+      <c r="C197" s="75" t="s">
+        <v>949</v>
+      </c>
+      <c r="D197" s="75" t="s">
         <v>236</v>
       </c>
-      <c r="E197" s="16" t="s">
+      <c r="E197" s="77" t="s">
         <v>228</v>
       </c>
-      <c r="F197" s="16"/>
-      <c r="G197" s="16" t="s">
+      <c r="F197" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G197" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="H197" s="28" t="s">
-        <v>920</v>
-      </c>
-      <c r="I197" s="17"/>
-      <c r="J197" s="16"/>
+      <c r="H197" s="78" t="s">
+        <v>912</v>
+      </c>
+      <c r="I197" s="75"/>
+      <c r="J197" s="77" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="198" spans="1:10" ht="63" customHeight="1">
       <c r="A198" s="17" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B198" s="14">
         <v>45067.875</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>922</v>
+        <v>950</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="E198" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F198" s="16"/>
+      <c r="F198" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="G198" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H198" s="28" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="I198" s="17"/>
-      <c r="J198" s="16"/>
+      <c r="J198" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="199" spans="1:10" ht="63" customHeight="1">
-      <c r="A199" s="17" t="s">
-        <v>930</v>
-      </c>
-      <c r="B199" s="14">
+      <c r="A199" s="75" t="s">
+        <v>921</v>
+      </c>
+      <c r="B199" s="76">
         <v>45067.947916666664</v>
       </c>
-      <c r="C199" s="17" t="s">
-        <v>931</v>
-      </c>
-      <c r="D199" s="17" t="s">
-        <v>932</v>
-      </c>
-      <c r="E199" s="16" t="s">
+      <c r="C199" s="75" t="s">
+        <v>951</v>
+      </c>
+      <c r="D199" s="75" t="s">
+        <v>922</v>
+      </c>
+      <c r="E199" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="F199" s="16"/>
-      <c r="G199" s="16" t="s">
+      <c r="F199" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="G199" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="H199" s="28" t="s">
-        <v>933</v>
-      </c>
-      <c r="I199" s="17"/>
-      <c r="J199" s="16"/>
+      <c r="H199" s="78" t="s">
+        <v>923</v>
+      </c>
+      <c r="I199" s="75"/>
+      <c r="J199" s="77" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="200" spans="1:10" ht="63" customHeight="1">
       <c r="A200" s="17" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="B200" s="14">
         <v>45067.958333333336</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>935</v>
+        <v>952</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="E200" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F200" s="16"/>
+      <c r="F200" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="G200" s="16" t="s">
         <v>68</v>
       </c>
       <c r="H200" s="28" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="I200" s="17"/>
-      <c r="J200" s="16"/>
+      <c r="J200" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="201" spans="1:10" ht="63" customHeight="1">
       <c r="A201" s="17" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="B201" s="14">
         <v>45067.958333333336</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>939</v>
+        <v>953</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="E201" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="F201" s="16"/>
+      <c r="F201" s="16" t="s">
+        <v>102</v>
+      </c>
       <c r="G201" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H201" s="28" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="I201" s="17"/>
-      <c r="J201" s="16"/>
+      <c r="J201" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="202" spans="1:10" ht="63" customHeight="1">
-      <c r="A202" s="17" t="s">
-        <v>942</v>
-      </c>
-      <c r="B202" s="14">
+      <c r="A202" s="83" t="s">
+        <v>930</v>
+      </c>
+      <c r="B202" s="84">
         <v>45067.958333333336</v>
       </c>
-      <c r="C202" s="17" t="s">
-        <v>943</v>
-      </c>
-      <c r="D202" s="17" t="s">
-        <v>944</v>
-      </c>
-      <c r="E202" s="16" t="s">
+      <c r="C202" s="83" t="s">
+        <v>954</v>
+      </c>
+      <c r="D202" s="83" t="s">
+        <v>931</v>
+      </c>
+      <c r="E202" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="F202" s="16"/>
-      <c r="G202" s="16" t="s">
+      <c r="F202" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="G202" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="H202" s="28" t="s">
-        <v>945</v>
-      </c>
-      <c r="I202" s="17"/>
-      <c r="J202" s="16"/>
+      <c r="H202" s="86" t="s">
+        <v>932</v>
+      </c>
+      <c r="I202" s="83"/>
+      <c r="J202" s="85" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="203" spans="1:10" ht="63" customHeight="1">
-      <c r="A203" s="17" t="s">
-        <v>942</v>
-      </c>
-      <c r="B203" s="14">
+      <c r="A203" s="75" t="s">
+        <v>930</v>
+      </c>
+      <c r="B203" s="76">
         <v>45067.958333333336</v>
       </c>
-      <c r="C203" s="17" t="s">
-        <v>946</v>
-      </c>
-      <c r="D203" s="17" t="s">
+      <c r="C203" s="75" t="s">
+        <v>955</v>
+      </c>
+      <c r="D203" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="E203" s="16" t="s">
+      <c r="E203" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="F203" s="16"/>
-      <c r="G203" s="16" t="s">
+      <c r="F203" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G203" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="H203" s="28" t="s">
-        <v>947</v>
-      </c>
-      <c r="I203" s="17"/>
-      <c r="J203" s="16"/>
+      <c r="H203" s="78" t="s">
+        <v>933</v>
+      </c>
+      <c r="I203" s="75"/>
+      <c r="J203" s="77" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="204" spans="1:10" ht="63" customHeight="1">
-      <c r="A204" s="17" t="s">
-        <v>942</v>
-      </c>
-      <c r="B204" s="14">
+      <c r="A204" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="B204" s="8">
         <v>45067.958333333336</v>
       </c>
-      <c r="C204" s="17" t="s">
-        <v>948</v>
-      </c>
-      <c r="D204" s="17" t="s">
-        <v>949</v>
-      </c>
-      <c r="E204" s="16" t="s">
+      <c r="C204" s="11" t="s">
+        <v>956</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>934</v>
+      </c>
+      <c r="E204" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F204" s="16"/>
-      <c r="G204" s="16" t="s">
+      <c r="F204" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G204" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H204" s="28" t="s">
-        <v>950</v>
-      </c>
-      <c r="I204" s="17"/>
-      <c r="J204" s="16"/>
+      <c r="H204" s="33" t="s">
+        <v>935</v>
+      </c>
+      <c r="I204" s="11"/>
+      <c r="J204" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="205" spans="1:10" ht="63" customHeight="1">
       <c r="A205" s="17"/>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9D4962-A208-774C-9624-A9B63B966904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058FC16C-EA43-6544-A949-598ADA2147A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="962">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11030,9 +11030,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22/23阿巴超第34轮</t>
-  </si>
-  <si>
     <t>KF地拉那</t>
   </si>
   <si>
@@ -11150,6 +11147,25 @@
   </si>
   <si>
     <t>维塞乌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23意青联第33轮</t>
+  </si>
+  <si>
+    <t>尤文图斯青年队</t>
+  </si>
+  <si>
+    <t>AC米兰青年队</t>
+  </si>
+  <si>
+    <t>22/23阿巴超第34轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=7,输=4,走=0,赢盘概率最大,为63.64%
+亚盘本联赛盘口:赢=1,输=0,走=0,赢盘概率最大,为100.00%
+比分概率前三分别是：[1:0](3次)     [0:0](2次)     [2:1](2次)     </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12098,8 +12114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H207" sqref="H207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -12791,7 +12807,7 @@
         <v>45038.75</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>175</v>
@@ -17741,7 +17757,7 @@
         <v>45067.833333333336</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D188" s="17" t="s">
         <v>891</v>
@@ -17774,13 +17790,13 @@
         <v>893</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E189" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G189" s="10" t="s">
         <v>68</v>
@@ -17801,10 +17817,10 @@
         <v>45067.854166666664</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E190" s="16" t="s">
         <v>897</v>
@@ -17834,7 +17850,7 @@
         <v>898</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E191" s="16" t="s">
         <v>117</v>
@@ -17861,7 +17877,7 @@
         <v>45067.854166666664</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D192" s="11" t="s">
         <v>900</v>
@@ -17891,7 +17907,7 @@
         <v>45067.854166666664</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D193" s="11" t="s">
         <v>902</v>
@@ -17921,7 +17937,7 @@
         <v>45067.854166666664</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D194" s="17" t="s">
         <v>903</v>
@@ -17930,7 +17946,7 @@
         <v>280</v>
       </c>
       <c r="F194" s="16" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G194" s="16" t="s">
         <v>68</v>
@@ -17951,7 +17967,7 @@
         <v>45067.854166666664</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D195" s="17" t="s">
         <v>906</v>
@@ -17960,7 +17976,7 @@
         <v>280</v>
       </c>
       <c r="F195" s="16" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G195" s="16" t="s">
         <v>68</v>
@@ -17981,7 +17997,7 @@
         <v>45067.875</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D196" s="17" t="s">
         <v>909</v>
@@ -18011,7 +18027,7 @@
         <v>45067.875</v>
       </c>
       <c r="C197" s="75" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D197" s="75" t="s">
         <v>236</v>
@@ -18041,7 +18057,7 @@
         <v>45067.875</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D198" s="17" t="s">
         <v>914</v>
@@ -18071,7 +18087,7 @@
         <v>45067.947916666664</v>
       </c>
       <c r="C199" s="75" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D199" s="75" t="s">
         <v>922</v>
@@ -18101,7 +18117,7 @@
         <v>45067.958333333336</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D200" s="17" t="s">
         <v>925</v>
@@ -18125,16 +18141,16 @@
     </row>
     <row r="201" spans="1:10" ht="63" customHeight="1">
       <c r="A201" s="17" t="s">
-        <v>927</v>
+        <v>960</v>
       </c>
       <c r="B201" s="14">
         <v>45067.958333333336</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E201" s="16" t="s">
         <v>261</v>
@@ -18146,7 +18162,7 @@
         <v>57</v>
       </c>
       <c r="H201" s="28" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="I201" s="17"/>
       <c r="J201" s="16" t="s">
@@ -18155,16 +18171,16 @@
     </row>
     <row r="202" spans="1:10" ht="63" customHeight="1">
       <c r="A202" s="83" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B202" s="84">
         <v>45067.958333333336</v>
       </c>
       <c r="C202" s="83" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D202" s="83" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E202" s="85" t="s">
         <v>113</v>
@@ -18176,7 +18192,7 @@
         <v>57</v>
       </c>
       <c r="H202" s="86" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I202" s="83"/>
       <c r="J202" s="85" t="s">
@@ -18185,13 +18201,13 @@
     </row>
     <row r="203" spans="1:10" ht="63" customHeight="1">
       <c r="A203" s="75" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B203" s="76">
         <v>45067.958333333336</v>
       </c>
       <c r="C203" s="75" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D203" s="75" t="s">
         <v>264</v>
@@ -18206,7 +18222,7 @@
         <v>57</v>
       </c>
       <c r="H203" s="78" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I203" s="75"/>
       <c r="J203" s="77" t="s">
@@ -18215,16 +18231,16 @@
     </row>
     <row r="204" spans="1:10" ht="63" customHeight="1">
       <c r="A204" s="11" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B204" s="8">
         <v>45067.958333333336</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E204" s="10" t="s">
         <v>117</v>
@@ -18236,7 +18252,7 @@
         <v>57</v>
       </c>
       <c r="H204" s="33" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="I204" s="11"/>
       <c r="J204" s="10" t="s">
@@ -18244,14 +18260,28 @@
       </c>
     </row>
     <row r="205" spans="1:10" ht="63" customHeight="1">
-      <c r="A205" s="17"/>
-      <c r="B205" s="14"/>
-      <c r="C205" s="17"/>
-      <c r="D205" s="17"/>
-      <c r="E205" s="16"/>
+      <c r="A205" s="17" t="s">
+        <v>957</v>
+      </c>
+      <c r="B205" s="14">
+        <v>45068.9375</v>
+      </c>
+      <c r="C205" s="17" t="s">
+        <v>958</v>
+      </c>
+      <c r="D205" s="17" t="s">
+        <v>959</v>
+      </c>
+      <c r="E205" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="F205" s="16"/>
-      <c r="G205" s="16"/>
-      <c r="H205" s="28"/>
+      <c r="G205" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H205" s="28" t="s">
+        <v>961</v>
+      </c>
       <c r="I205" s="17"/>
       <c r="J205" s="16"/>
     </row>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058FC16C-EA43-6544-A949-598ADA2147A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1C9B36-6103-CF4B-9CFE-B9D76588CC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="962">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -12115,7 +12115,7 @@
   <dimension ref="A1:J388"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A197" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H207" sqref="H207"/>
+      <selection activeCell="G202" sqref="G202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -18260,30 +18260,34 @@
       </c>
     </row>
     <row r="205" spans="1:10" ht="63" customHeight="1">
-      <c r="A205" s="17" t="s">
+      <c r="A205" s="11" t="s">
         <v>957</v>
       </c>
-      <c r="B205" s="14">
+      <c r="B205" s="8">
         <v>45068.9375</v>
       </c>
-      <c r="C205" s="17" t="s">
+      <c r="C205" s="11" t="s">
         <v>958</v>
       </c>
-      <c r="D205" s="17" t="s">
+      <c r="D205" s="11" t="s">
         <v>959</v>
       </c>
-      <c r="E205" s="16" t="s">
+      <c r="E205" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F205" s="16"/>
-      <c r="G205" s="16" t="s">
+      <c r="F205" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G205" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H205" s="28" t="s">
+      <c r="H205" s="33" t="s">
         <v>961</v>
       </c>
-      <c r="I205" s="17"/>
-      <c r="J205" s="16"/>
+      <c r="I205" s="11"/>
+      <c r="J205" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="206" spans="1:10" ht="63" customHeight="1">
       <c r="A206" s="17"/>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1C9B36-6103-CF4B-9CFE-B9D76588CC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFB0D26-0FC7-5348-A880-B2C4D63C6E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
   <sheets>
     <sheet name="让球匹配" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="965">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11166,6 +11166,28 @@
     <t xml:space="preserve">亚盘全网盘口:赢=7,输=4,走=0,赢盘概率最大,为63.64%
 亚盘本联赛盘口:赢=1,输=0,走=0,赢盘概率最大,为100.00%
 比分概率前三分别是：[1:0](3次)     [0:0](2次)     [2:1](2次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>23/24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挪威杯第一圈</t>
+    </r>
+  </si>
+  <si>
+    <t>德拉蒙斯BK</t>
+  </si>
+  <si>
+    <t>盘口变化4个，初盘3.000, 即时盘4.000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12114,7 +12136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A197" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G202" sqref="G202"/>
     </sheetView>
   </sheetViews>
@@ -21874,8 +21896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5BD41-F360-D64B-BA12-0F85656DC41E}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.6640625" defaultRowHeight="52" customHeight="1"/>
@@ -22390,13 +22412,23 @@
       <c r="H21" s="26"/>
     </row>
     <row r="22" spans="1:8" ht="52" customHeight="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
+      <c r="A22" s="43" t="s">
+        <v>962</v>
+      </c>
+      <c r="B22" s="49">
+        <v>45072</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>963</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>263</v>
+      </c>
       <c r="E22" s="46"/>
       <c r="F22" s="46"/>
-      <c r="G22" s="48"/>
+      <c r="G22" s="48" t="s">
+        <v>964</v>
+      </c>
       <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:8" ht="52" customHeight="1">

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1C9B36-6103-CF4B-9CFE-B9D76588CC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ACBAE2-8C33-4A42-BEBD-044E427B9793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -12114,8 +12114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G202" sqref="G202"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFB0D26-0FC7-5348-A880-B2C4D63C6E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2EE784-6855-6341-AAFB-38F35CFC094D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
   <sheets>
     <sheet name="让球匹配" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="968">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11189,6 +11189,46 @@
   <si>
     <t>盘口变化4个，初盘3.000, 即时盘4.000</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>22/23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>波黑超第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮</t>
+    </r>
+  </si>
+  <si>
+    <t>史洛加多波</t>
+  </si>
+  <si>
+    <t>盘口变化7个，初盘0.500, 即时盘-1.250</t>
   </si>
 </sst>
 </file>
@@ -12136,8 +12176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G202" sqref="G202"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -21896,8 +21936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5BD41-F360-D64B-BA12-0F85656DC41E}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.6640625" defaultRowHeight="52" customHeight="1"/>
@@ -22432,13 +22472,23 @@
       <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:8" ht="52" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
+      <c r="A23" s="43" t="s">
+        <v>965</v>
+      </c>
+      <c r="B23" s="49">
+        <v>45073.875</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>966</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>550</v>
+      </c>
       <c r="E23" s="46"/>
       <c r="F23" s="46"/>
-      <c r="G23" s="48"/>
+      <c r="G23" s="48" t="s">
+        <v>967</v>
+      </c>
       <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:8" ht="52" customHeight="1">

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7D3D38-14E6-0A44-82B4-3632C917BB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4801C931-47D8-D746-8DB5-4453161F9314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="973">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11225,9 +11225,6 @@
     </r>
   </si>
   <si>
-    <t>史洛加多波</t>
-  </si>
-  <si>
     <t>盘口变化7个，初盘0.500, 即时盘-1.250</t>
   </si>
   <si>
@@ -11265,13 +11262,40 @@
     </r>
   </si>
   <si>
-    <t>AEL利马索尔</t>
-  </si>
-  <si>
     <t>卡特高皮亚斯</t>
   </si>
   <si>
     <t>盘口变化3个，初盘1.000, 即时盘0.250</t>
+  </si>
+  <si>
+    <t>姆延达伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史洛加多波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>AEL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利马索尔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11281,7 +11305,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -11564,6 +11588,19 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF00B0F0"/>
+      <name val="PingFang SC"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -11633,7 +11670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11894,6 +11931,9 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -22505,10 +22545,14 @@
         <v>963</v>
       </c>
       <c r="D22" s="59" t="s">
-        <v>263</v>
-      </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
+        <v>970</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="82" t="s">
+        <v>747</v>
+      </c>
       <c r="G22" s="48" t="s">
         <v>964</v>
       </c>
@@ -22522,35 +22566,43 @@
         <v>45073.875</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="D23" s="45" t="s">
         <v>550</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
+      <c r="E23" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>224</v>
+      </c>
       <c r="G23" s="48" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:8" ht="52" customHeight="1">
       <c r="A24" s="43" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B24" s="49">
         <v>45075.999305555553</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="87" t="s">
+        <v>972</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>968</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" s="48" t="s">
         <v>969</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>970</v>
-      </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="48" t="s">
-        <v>971</v>
       </c>
       <c r="H24" s="26"/>
     </row>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4801C931-47D8-D746-8DB5-4453161F9314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACACEAE-E452-4F48-9115-3171BF420E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -11228,6 +11228,42 @@
     <t>盘口变化7个，初盘0.500, 即时盘-1.250</t>
   </si>
   <si>
+    <t>卡特高皮亚斯</t>
+  </si>
+  <si>
+    <t>盘口变化3个，初盘1.000, 即时盘0.250</t>
+  </si>
+  <si>
+    <t>姆延达伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史洛加多波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>AEL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利马索尔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>22/23</t>
     </r>
@@ -11259,41 +11295,6 @@
         <charset val="134"/>
       </rPr>
       <t>轮</t>
-    </r>
-  </si>
-  <si>
-    <t>卡特高皮亚斯</t>
-  </si>
-  <si>
-    <t>盘口变化3个，初盘1.000, 即时盘0.250</t>
-  </si>
-  <si>
-    <t>姆延达伦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史洛加多波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>AEL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>利马索尔</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -22020,7 +22021,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.6640625" defaultRowHeight="52" customHeight="1"/>
@@ -22545,7 +22546,7 @@
         <v>963</v>
       </c>
       <c r="D22" s="59" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>109</v>
@@ -22566,7 +22567,7 @@
         <v>45073.875</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D23" s="45" t="s">
         <v>550</v>
@@ -22584,16 +22585,16 @@
     </row>
     <row r="24" spans="1:8" ht="52" customHeight="1">
       <c r="A24" s="43" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="B24" s="49">
         <v>45075.999305555553</v>
       </c>
       <c r="C24" s="87" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E24" s="46" t="s">
         <v>15</v>
@@ -22602,7 +22603,7 @@
         <v>223</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H24" s="26"/>
     </row>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACACEAE-E452-4F48-9115-3171BF420E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A2360F-0E02-764A-B91A-54EF39CBC365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="980">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11297,6 +11297,70 @@
       <t>轮</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拉脱甲第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮</t>
+    </r>
+  </si>
+  <si>
+    <t>瓦尔米耶拉</t>
+  </si>
+  <si>
+    <t>美塔里加</t>
+  </si>
+  <si>
+    <t>盘口变化3个，初盘-1.500, 即时盘-0.750</t>
+  </si>
+  <si>
+    <r>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>芬兰杯第五圈</t>
+    </r>
+  </si>
+  <si>
+    <t>卡帕</t>
+  </si>
+  <si>
+    <t>盘口变化4个，初盘-1.250, 即时盘-2.250</t>
   </si>
 </sst>
 </file>
@@ -22020,8 +22084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5BD41-F360-D64B-BA12-0F85656DC41E}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.6640625" defaultRowHeight="52" customHeight="1"/>
@@ -22608,23 +22672,43 @@
       <c r="H24" s="26"/>
     </row>
     <row r="25" spans="1:8" ht="52" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
+      <c r="A25" s="43" t="s">
+        <v>973</v>
+      </c>
+      <c r="B25" s="49">
+        <v>45077.958333333336</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>974</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>975</v>
+      </c>
       <c r="E25" s="46"/>
       <c r="F25" s="46"/>
-      <c r="G25" s="48"/>
+      <c r="G25" s="48" t="s">
+        <v>976</v>
+      </c>
       <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:8" ht="52" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
+      <c r="A26" s="43" t="s">
+        <v>977</v>
+      </c>
+      <c r="B26" s="49">
+        <v>45077.979166666664</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>978</v>
+      </c>
       <c r="E26" s="46"/>
       <c r="F26" s="46"/>
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>979</v>
+      </c>
       <c r="H26" s="26"/>
     </row>
     <row r="27" spans="1:8" ht="52" customHeight="1">

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A2360F-0E02-764A-B91A-54EF39CBC365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC29F1A-595E-4440-8B89-10F7F4D2E770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="2" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
   <sheets>
     <sheet name="让球匹配" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="984">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11361,6 +11361,21 @@
   </si>
   <si>
     <t>盘口变化4个，初盘-1.250, 即时盘-2.250</t>
+  </si>
+  <si>
+    <t>22/23土甲升级准附加</t>
+  </si>
+  <si>
+    <t>伊尤斯堡</t>
+  </si>
+  <si>
+    <t>波德鲁姆士邦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚盘全网盘口:赢=139,输=187,走=0,输盘概率最大,为57.36%
+亚盘本联赛盘口:赢=3,输=12,走=0,输盘概率最大,为80.00%
+比分概率前三分别是：[1:1](51次)     [1:0](41次)     [0:0](32次)     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12324,8 +12339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G206" sqref="G206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -18500,14 +18515,28 @@
       </c>
     </row>
     <row r="206" spans="1:10" ht="63" customHeight="1">
-      <c r="A206" s="17"/>
-      <c r="B206" s="14"/>
-      <c r="C206" s="17"/>
-      <c r="D206" s="17"/>
-      <c r="E206" s="16"/>
+      <c r="A206" s="17" t="s">
+        <v>980</v>
+      </c>
+      <c r="B206" s="14">
+        <v>45078.041666666664</v>
+      </c>
+      <c r="C206" s="17" t="s">
+        <v>981</v>
+      </c>
+      <c r="D206" s="17" t="s">
+        <v>982</v>
+      </c>
+      <c r="E206" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="F206" s="16"/>
-      <c r="G206" s="16"/>
-      <c r="H206" s="28"/>
+      <c r="G206" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="H206" s="28" t="s">
+        <v>983</v>
+      </c>
       <c r="I206" s="17"/>
       <c r="J206" s="16"/>
     </row>
@@ -22084,7 +22113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5BD41-F360-D64B-BA12-0F85656DC41E}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC29F1A-595E-4440-8B89-10F7F4D2E770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA42D17-8337-674C-8E44-1F10B753C27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31460" windowHeight="16460" activeTab="4" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
   <sheets>
     <sheet name="让球匹配" sheetId="1" r:id="rId1"/>
     <sheet name="大小球匹配" sheetId="3" r:id="rId2"/>
     <sheet name="连续升盘匹配" sheetId="2" r:id="rId3"/>
     <sheet name="盘口便宜" sheetId="4" r:id="rId4"/>
+    <sheet name="深盘" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="991">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11377,6 +11378,60 @@
 比分概率前三分别是：[1:1](51次)     [1:0](41次)     [0:0](32次)     </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>奥达里加</t>
+  </si>
+  <si>
+    <t>叶尔加瓦</t>
+  </si>
+  <si>
+    <t>主队排名6，客队排名7，让球-1.250偏深，预计主队会有一场大胜，至少赢2球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主队排名5，客队排名7，让球-1.500偏深，预计主队会有一场大胜，至少赢2球。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古尔达尼</t>
+  </si>
+  <si>
+    <t>突尼斯希望</t>
+  </si>
+  <si>
+    <r>
+      <t>22/23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>突尼斯甲第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -11385,7 +11440,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -11681,6 +11736,12 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -11750,7 +11811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12013,6 +12074,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12339,7 +12406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G206" sqref="G206"/>
     </sheetView>
   </sheetViews>
@@ -22113,8 +22180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5BD41-F360-D64B-BA12-0F85656DC41E}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G26" sqref="A1:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.6640625" defaultRowHeight="52" customHeight="1"/>
@@ -24866,4 +24933,1506 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D829EF5D-C573-564B-B09B-37782B5AE55B}">
+  <dimension ref="A1:G161"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="43" customHeight="1"/>
+  <cols>
+    <col min="7" max="7" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="43" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43" customHeight="1">
+      <c r="A2" s="43" t="s">
+        <v>973</v>
+      </c>
+      <c r="B2" s="49">
+        <v>45079</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>984</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>985</v>
+      </c>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="18" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43" customHeight="1">
+      <c r="A3" s="43" t="s">
+        <v>990</v>
+      </c>
+      <c r="B3" s="49">
+        <v>45079</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>989</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>988</v>
+      </c>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="18" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43" customHeight="1">
+      <c r="A4" s="43"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" ht="43" customHeight="1">
+      <c r="A5" s="43"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" ht="43" customHeight="1">
+      <c r="A6" s="43"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" ht="43" customHeight="1">
+      <c r="A7" s="43"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" ht="43" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" ht="43" customHeight="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" ht="43" customHeight="1">
+      <c r="A10" s="43"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" ht="43" customHeight="1">
+      <c r="A11" s="43"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="43" customHeight="1">
+      <c r="A12" s="43"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" ht="43" customHeight="1">
+      <c r="A13" s="43"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" ht="43" customHeight="1">
+      <c r="A14" s="43"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:7" ht="43" customHeight="1">
+      <c r="A15" s="43"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" ht="43" customHeight="1">
+      <c r="A16" s="43"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" ht="43" customHeight="1">
+      <c r="A17" s="43"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="43" customHeight="1">
+      <c r="A18" s="43"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="43" customHeight="1">
+      <c r="A19" s="43"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" ht="43" customHeight="1">
+      <c r="A20" s="43"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" ht="43" customHeight="1">
+      <c r="A21" s="43"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" ht="43" customHeight="1">
+      <c r="A22" s="43"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" ht="43" customHeight="1">
+      <c r="A23" s="43"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" ht="43" customHeight="1">
+      <c r="A24" s="43"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" ht="43" customHeight="1">
+      <c r="A25" s="43"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:7" ht="43" customHeight="1">
+      <c r="A26" s="43"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" ht="43" customHeight="1">
+      <c r="A27" s="43"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:7" ht="43" customHeight="1">
+      <c r="A28" s="43"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:7" ht="43" customHeight="1">
+      <c r="A29" s="43"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:7" ht="43" customHeight="1">
+      <c r="A30" s="43"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:7" ht="43" customHeight="1">
+      <c r="A31" s="43"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" ht="43" customHeight="1">
+      <c r="A32" s="43"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="1:7" ht="43" customHeight="1">
+      <c r="A33" s="43"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7" ht="43" customHeight="1">
+      <c r="A34" s="43"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7" ht="43" customHeight="1">
+      <c r="A35" s="43"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7" ht="43" customHeight="1">
+      <c r="A36" s="43"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="1:7" ht="43" customHeight="1">
+      <c r="A37" s="43"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="1:7" ht="43" customHeight="1">
+      <c r="A38" s="43"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="1:7" ht="43" customHeight="1">
+      <c r="A39" s="43"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:7" ht="43" customHeight="1">
+      <c r="A40" s="43"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="1:7" ht="43" customHeight="1">
+      <c r="A41" s="43"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="1:7" ht="43" customHeight="1">
+      <c r="A42" s="43"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" spans="1:7" ht="43" customHeight="1">
+      <c r="A43" s="43"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="18"/>
+    </row>
+    <row r="44" spans="1:7" ht="43" customHeight="1">
+      <c r="A44" s="43"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" spans="1:7" ht="43" customHeight="1">
+      <c r="A45" s="43"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" spans="1:7" ht="43" customHeight="1">
+      <c r="A46" s="43"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="18"/>
+    </row>
+    <row r="47" spans="1:7" ht="43" customHeight="1">
+      <c r="A47" s="43"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="18"/>
+    </row>
+    <row r="48" spans="1:7" ht="43" customHeight="1">
+      <c r="A48" s="43"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="18"/>
+    </row>
+    <row r="49" spans="1:7" ht="43" customHeight="1">
+      <c r="A49" s="43"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="18"/>
+    </row>
+    <row r="50" spans="1:7" ht="43" customHeight="1">
+      <c r="A50" s="43"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="18"/>
+    </row>
+    <row r="51" spans="1:7" ht="43" customHeight="1">
+      <c r="A51" s="43"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="18"/>
+    </row>
+    <row r="52" spans="1:7" ht="43" customHeight="1">
+      <c r="A52" s="43"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="18"/>
+    </row>
+    <row r="53" spans="1:7" ht="43" customHeight="1">
+      <c r="A53" s="43"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="18"/>
+    </row>
+    <row r="54" spans="1:7" ht="43" customHeight="1">
+      <c r="A54" s="43"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="18"/>
+    </row>
+    <row r="55" spans="1:7" ht="43" customHeight="1">
+      <c r="A55" s="43"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="88"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="18"/>
+    </row>
+    <row r="56" spans="1:7" ht="43" customHeight="1">
+      <c r="A56" s="43"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="18"/>
+    </row>
+    <row r="57" spans="1:7" ht="43" customHeight="1">
+      <c r="A57" s="43"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="88"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="18"/>
+    </row>
+    <row r="58" spans="1:7" ht="43" customHeight="1">
+      <c r="A58" s="43"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="88"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="18"/>
+    </row>
+    <row r="59" spans="1:7" ht="43" customHeight="1">
+      <c r="A59" s="43"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="89"/>
+      <c r="F59" s="89"/>
+      <c r="G59" s="18"/>
+    </row>
+    <row r="60" spans="1:7" ht="43" customHeight="1">
+      <c r="A60" s="43"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="18"/>
+    </row>
+    <row r="61" spans="1:7" ht="43" customHeight="1">
+      <c r="A61" s="43"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="89"/>
+      <c r="F61" s="89"/>
+      <c r="G61" s="18"/>
+    </row>
+    <row r="62" spans="1:7" ht="43" customHeight="1">
+      <c r="A62" s="43"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="18"/>
+    </row>
+    <row r="63" spans="1:7" ht="43" customHeight="1">
+      <c r="A63" s="43"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="88"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="18"/>
+    </row>
+    <row r="64" spans="1:7" ht="43" customHeight="1">
+      <c r="A64" s="43"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="18"/>
+    </row>
+    <row r="65" spans="1:7" ht="43" customHeight="1">
+      <c r="A65" s="43"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="88"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="18"/>
+    </row>
+    <row r="66" spans="1:7" ht="43" customHeight="1">
+      <c r="A66" s="43"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="18"/>
+    </row>
+    <row r="67" spans="1:7" ht="43" customHeight="1">
+      <c r="A67" s="43"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="88"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="18"/>
+    </row>
+    <row r="68" spans="1:7" ht="43" customHeight="1">
+      <c r="A68" s="43"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="88"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="18"/>
+    </row>
+    <row r="69" spans="1:7" ht="43" customHeight="1">
+      <c r="A69" s="43"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="88"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="18"/>
+    </row>
+    <row r="70" spans="1:7" ht="43" customHeight="1">
+      <c r="A70" s="43"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="88"/>
+      <c r="E70" s="89"/>
+      <c r="F70" s="89"/>
+      <c r="G70" s="18"/>
+    </row>
+    <row r="71" spans="1:7" ht="43" customHeight="1">
+      <c r="A71" s="43"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="88"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="89"/>
+      <c r="G71" s="18"/>
+    </row>
+    <row r="72" spans="1:7" ht="43" customHeight="1">
+      <c r="A72" s="43"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="88"/>
+      <c r="E72" s="89"/>
+      <c r="F72" s="89"/>
+      <c r="G72" s="18"/>
+    </row>
+    <row r="73" spans="1:7" ht="43" customHeight="1">
+      <c r="A73" s="43"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="88"/>
+      <c r="E73" s="89"/>
+      <c r="F73" s="89"/>
+      <c r="G73" s="18"/>
+    </row>
+    <row r="74" spans="1:7" ht="43" customHeight="1">
+      <c r="A74" s="43"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="89"/>
+      <c r="F74" s="89"/>
+      <c r="G74" s="18"/>
+    </row>
+    <row r="75" spans="1:7" ht="43" customHeight="1">
+      <c r="A75" s="43"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="88"/>
+      <c r="E75" s="89"/>
+      <c r="F75" s="89"/>
+      <c r="G75" s="18"/>
+    </row>
+    <row r="76" spans="1:7" ht="43" customHeight="1">
+      <c r="A76" s="43"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="88"/>
+      <c r="E76" s="89"/>
+      <c r="F76" s="89"/>
+      <c r="G76" s="18"/>
+    </row>
+    <row r="77" spans="1:7" ht="43" customHeight="1">
+      <c r="A77" s="43"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="88"/>
+      <c r="E77" s="89"/>
+      <c r="F77" s="89"/>
+      <c r="G77" s="18"/>
+    </row>
+    <row r="78" spans="1:7" ht="43" customHeight="1">
+      <c r="A78" s="43"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="88"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="18"/>
+    </row>
+    <row r="79" spans="1:7" ht="43" customHeight="1">
+      <c r="A79" s="43"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="88"/>
+      <c r="E79" s="89"/>
+      <c r="F79" s="89"/>
+      <c r="G79" s="18"/>
+    </row>
+    <row r="80" spans="1:7" ht="43" customHeight="1">
+      <c r="A80" s="43"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="89"/>
+      <c r="F80" s="89"/>
+      <c r="G80" s="18"/>
+    </row>
+    <row r="81" spans="1:7" ht="43" customHeight="1">
+      <c r="A81" s="43"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="88"/>
+      <c r="E81" s="89"/>
+      <c r="F81" s="89"/>
+      <c r="G81" s="18"/>
+    </row>
+    <row r="82" spans="1:7" ht="43" customHeight="1">
+      <c r="A82" s="43"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="88"/>
+      <c r="E82" s="89"/>
+      <c r="F82" s="89"/>
+      <c r="G82" s="18"/>
+    </row>
+    <row r="83" spans="1:7" ht="43" customHeight="1">
+      <c r="A83" s="43"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="88"/>
+      <c r="E83" s="89"/>
+      <c r="F83" s="89"/>
+      <c r="G83" s="18"/>
+    </row>
+    <row r="84" spans="1:7" ht="43" customHeight="1">
+      <c r="A84" s="43"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="88"/>
+      <c r="E84" s="89"/>
+      <c r="F84" s="89"/>
+      <c r="G84" s="18"/>
+    </row>
+    <row r="85" spans="1:7" ht="43" customHeight="1">
+      <c r="A85" s="43"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="88"/>
+      <c r="E85" s="89"/>
+      <c r="F85" s="89"/>
+      <c r="G85" s="18"/>
+    </row>
+    <row r="86" spans="1:7" ht="43" customHeight="1">
+      <c r="A86" s="43"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="88"/>
+      <c r="E86" s="89"/>
+      <c r="F86" s="89"/>
+      <c r="G86" s="18"/>
+    </row>
+    <row r="87" spans="1:7" ht="43" customHeight="1">
+      <c r="A87" s="43"/>
+      <c r="B87" s="49"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="88"/>
+      <c r="E87" s="89"/>
+      <c r="F87" s="89"/>
+      <c r="G87" s="18"/>
+    </row>
+    <row r="88" spans="1:7" ht="43" customHeight="1">
+      <c r="A88" s="43"/>
+      <c r="B88" s="49"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="88"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
+      <c r="G88" s="18"/>
+    </row>
+    <row r="89" spans="1:7" ht="43" customHeight="1">
+      <c r="A89" s="43"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="88"/>
+      <c r="E89" s="89"/>
+      <c r="F89" s="89"/>
+      <c r="G89" s="18"/>
+    </row>
+    <row r="90" spans="1:7" ht="43" customHeight="1">
+      <c r="A90" s="43"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="89"/>
+      <c r="F90" s="89"/>
+      <c r="G90" s="18"/>
+    </row>
+    <row r="91" spans="1:7" ht="43" customHeight="1">
+      <c r="A91" s="43"/>
+      <c r="B91" s="49"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="89"/>
+      <c r="F91" s="89"/>
+      <c r="G91" s="18"/>
+    </row>
+    <row r="92" spans="1:7" ht="43" customHeight="1">
+      <c r="A92" s="43"/>
+      <c r="B92" s="49"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="88"/>
+      <c r="E92" s="89"/>
+      <c r="F92" s="89"/>
+      <c r="G92" s="18"/>
+    </row>
+    <row r="93" spans="1:7" ht="43" customHeight="1">
+      <c r="A93" s="43"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="88"/>
+      <c r="E93" s="89"/>
+      <c r="F93" s="89"/>
+      <c r="G93" s="18"/>
+    </row>
+    <row r="94" spans="1:7" ht="43" customHeight="1">
+      <c r="A94" s="43"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="88"/>
+      <c r="E94" s="89"/>
+      <c r="F94" s="89"/>
+      <c r="G94" s="18"/>
+    </row>
+    <row r="95" spans="1:7" ht="43" customHeight="1">
+      <c r="A95" s="43"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="89"/>
+      <c r="F95" s="89"/>
+      <c r="G95" s="18"/>
+    </row>
+    <row r="96" spans="1:7" ht="43" customHeight="1">
+      <c r="A96" s="43"/>
+      <c r="B96" s="49"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="88"/>
+      <c r="E96" s="89"/>
+      <c r="F96" s="89"/>
+      <c r="G96" s="18"/>
+    </row>
+    <row r="97" spans="1:7" ht="43" customHeight="1">
+      <c r="A97" s="43"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="88"/>
+      <c r="E97" s="89"/>
+      <c r="F97" s="89"/>
+      <c r="G97" s="18"/>
+    </row>
+    <row r="98" spans="1:7" ht="43" customHeight="1">
+      <c r="A98" s="43"/>
+      <c r="B98" s="49"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="88"/>
+      <c r="E98" s="89"/>
+      <c r="F98" s="89"/>
+      <c r="G98" s="18"/>
+    </row>
+    <row r="99" spans="1:7" ht="43" customHeight="1">
+      <c r="A99" s="43"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="88"/>
+      <c r="E99" s="89"/>
+      <c r="F99" s="89"/>
+      <c r="G99" s="18"/>
+    </row>
+    <row r="100" spans="1:7" ht="43" customHeight="1">
+      <c r="A100" s="43"/>
+      <c r="B100" s="49"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="88"/>
+      <c r="E100" s="89"/>
+      <c r="F100" s="89"/>
+      <c r="G100" s="18"/>
+    </row>
+    <row r="101" spans="1:7" ht="43" customHeight="1">
+      <c r="A101" s="43"/>
+      <c r="B101" s="49"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="88"/>
+      <c r="E101" s="89"/>
+      <c r="F101" s="89"/>
+      <c r="G101" s="18"/>
+    </row>
+    <row r="102" spans="1:7" ht="43" customHeight="1">
+      <c r="A102" s="43"/>
+      <c r="B102" s="49"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="88"/>
+      <c r="E102" s="89"/>
+      <c r="F102" s="89"/>
+      <c r="G102" s="18"/>
+    </row>
+    <row r="103" spans="1:7" ht="43" customHeight="1">
+      <c r="A103" s="43"/>
+      <c r="B103" s="49"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="88"/>
+      <c r="E103" s="89"/>
+      <c r="F103" s="89"/>
+      <c r="G103" s="18"/>
+    </row>
+    <row r="104" spans="1:7" ht="43" customHeight="1">
+      <c r="A104" s="43"/>
+      <c r="B104" s="49"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="88"/>
+      <c r="E104" s="89"/>
+      <c r="F104" s="89"/>
+      <c r="G104" s="18"/>
+    </row>
+    <row r="105" spans="1:7" ht="43" customHeight="1">
+      <c r="A105" s="43"/>
+      <c r="B105" s="49"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="88"/>
+      <c r="E105" s="89"/>
+      <c r="F105" s="89"/>
+      <c r="G105" s="18"/>
+    </row>
+    <row r="106" spans="1:7" ht="43" customHeight="1">
+      <c r="A106" s="43"/>
+      <c r="B106" s="49"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="89"/>
+      <c r="F106" s="89"/>
+      <c r="G106" s="18"/>
+    </row>
+    <row r="107" spans="1:7" ht="43" customHeight="1">
+      <c r="A107" s="43"/>
+      <c r="B107" s="49"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="88"/>
+      <c r="E107" s="89"/>
+      <c r="F107" s="89"/>
+      <c r="G107" s="18"/>
+    </row>
+    <row r="108" spans="1:7" ht="43" customHeight="1">
+      <c r="A108" s="43"/>
+      <c r="B108" s="49"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="88"/>
+      <c r="E108" s="89"/>
+      <c r="F108" s="89"/>
+      <c r="G108" s="18"/>
+    </row>
+    <row r="109" spans="1:7" ht="43" customHeight="1">
+      <c r="A109" s="43"/>
+      <c r="B109" s="49"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="88"/>
+      <c r="E109" s="89"/>
+      <c r="F109" s="89"/>
+      <c r="G109" s="18"/>
+    </row>
+    <row r="110" spans="1:7" ht="43" customHeight="1">
+      <c r="A110" s="43"/>
+      <c r="B110" s="49"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="88"/>
+      <c r="E110" s="89"/>
+      <c r="F110" s="89"/>
+      <c r="G110" s="18"/>
+    </row>
+    <row r="111" spans="1:7" ht="43" customHeight="1">
+      <c r="A111" s="43"/>
+      <c r="B111" s="49"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="88"/>
+      <c r="E111" s="89"/>
+      <c r="F111" s="89"/>
+      <c r="G111" s="18"/>
+    </row>
+    <row r="112" spans="1:7" ht="43" customHeight="1">
+      <c r="A112" s="43"/>
+      <c r="B112" s="49"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="88"/>
+      <c r="E112" s="89"/>
+      <c r="F112" s="89"/>
+      <c r="G112" s="18"/>
+    </row>
+    <row r="113" spans="1:7" ht="43" customHeight="1">
+      <c r="A113" s="43"/>
+      <c r="B113" s="49"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="88"/>
+      <c r="E113" s="89"/>
+      <c r="F113" s="89"/>
+      <c r="G113" s="18"/>
+    </row>
+    <row r="114" spans="1:7" ht="43" customHeight="1">
+      <c r="A114" s="43"/>
+      <c r="B114" s="49"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="88"/>
+      <c r="E114" s="89"/>
+      <c r="F114" s="89"/>
+      <c r="G114" s="18"/>
+    </row>
+    <row r="115" spans="1:7" ht="43" customHeight="1">
+      <c r="A115" s="43"/>
+      <c r="B115" s="49"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="88"/>
+      <c r="E115" s="89"/>
+      <c r="F115" s="89"/>
+      <c r="G115" s="18"/>
+    </row>
+    <row r="116" spans="1:7" ht="43" customHeight="1">
+      <c r="A116" s="43"/>
+      <c r="B116" s="49"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="88"/>
+      <c r="E116" s="89"/>
+      <c r="F116" s="89"/>
+      <c r="G116" s="18"/>
+    </row>
+    <row r="117" spans="1:7" ht="43" customHeight="1">
+      <c r="A117" s="43"/>
+      <c r="B117" s="49"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="88"/>
+      <c r="E117" s="89"/>
+      <c r="F117" s="89"/>
+      <c r="G117" s="18"/>
+    </row>
+    <row r="118" spans="1:7" ht="43" customHeight="1">
+      <c r="A118" s="43"/>
+      <c r="B118" s="49"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="88"/>
+      <c r="E118" s="89"/>
+      <c r="F118" s="89"/>
+      <c r="G118" s="18"/>
+    </row>
+    <row r="119" spans="1:7" ht="43" customHeight="1">
+      <c r="A119" s="43"/>
+      <c r="B119" s="49"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="88"/>
+      <c r="E119" s="89"/>
+      <c r="F119" s="89"/>
+      <c r="G119" s="18"/>
+    </row>
+    <row r="120" spans="1:7" ht="43" customHeight="1">
+      <c r="A120" s="43"/>
+      <c r="B120" s="49"/>
+      <c r="C120" s="45"/>
+      <c r="D120" s="88"/>
+      <c r="E120" s="89"/>
+      <c r="F120" s="89"/>
+      <c r="G120" s="18"/>
+    </row>
+    <row r="121" spans="1:7" ht="43" customHeight="1">
+      <c r="A121" s="43"/>
+      <c r="B121" s="49"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="88"/>
+      <c r="E121" s="89"/>
+      <c r="F121" s="89"/>
+      <c r="G121" s="18"/>
+    </row>
+    <row r="122" spans="1:7" ht="43" customHeight="1">
+      <c r="A122" s="43"/>
+      <c r="B122" s="49"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="88"/>
+      <c r="E122" s="89"/>
+      <c r="F122" s="89"/>
+      <c r="G122" s="18"/>
+    </row>
+    <row r="123" spans="1:7" ht="43" customHeight="1">
+      <c r="A123" s="43"/>
+      <c r="B123" s="49"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="88"/>
+      <c r="E123" s="89"/>
+      <c r="F123" s="89"/>
+      <c r="G123" s="18"/>
+    </row>
+    <row r="124" spans="1:7" ht="43" customHeight="1">
+      <c r="A124" s="43"/>
+      <c r="B124" s="49"/>
+      <c r="C124" s="45"/>
+      <c r="D124" s="88"/>
+      <c r="E124" s="89"/>
+      <c r="F124" s="89"/>
+      <c r="G124" s="18"/>
+    </row>
+    <row r="125" spans="1:7" ht="43" customHeight="1">
+      <c r="A125" s="43"/>
+      <c r="B125" s="49"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="88"/>
+      <c r="E125" s="89"/>
+      <c r="F125" s="89"/>
+      <c r="G125" s="18"/>
+    </row>
+    <row r="126" spans="1:7" ht="43" customHeight="1">
+      <c r="A126" s="43"/>
+      <c r="B126" s="49"/>
+      <c r="C126" s="45"/>
+      <c r="D126" s="88"/>
+      <c r="E126" s="89"/>
+      <c r="F126" s="89"/>
+      <c r="G126" s="18"/>
+    </row>
+    <row r="127" spans="1:7" ht="43" customHeight="1">
+      <c r="A127" s="43"/>
+      <c r="B127" s="49"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="88"/>
+      <c r="E127" s="89"/>
+      <c r="F127" s="89"/>
+      <c r="G127" s="18"/>
+    </row>
+    <row r="128" spans="1:7" ht="43" customHeight="1">
+      <c r="A128" s="43"/>
+      <c r="B128" s="49"/>
+      <c r="C128" s="45"/>
+      <c r="D128" s="88"/>
+      <c r="E128" s="89"/>
+      <c r="F128" s="89"/>
+      <c r="G128" s="18"/>
+    </row>
+    <row r="129" spans="1:7" ht="43" customHeight="1">
+      <c r="A129" s="43"/>
+      <c r="B129" s="49"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="88"/>
+      <c r="E129" s="89"/>
+      <c r="F129" s="89"/>
+      <c r="G129" s="18"/>
+    </row>
+    <row r="130" spans="1:7" ht="43" customHeight="1">
+      <c r="A130" s="43"/>
+      <c r="B130" s="49"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="88"/>
+      <c r="E130" s="89"/>
+      <c r="F130" s="89"/>
+      <c r="G130" s="18"/>
+    </row>
+    <row r="131" spans="1:7" ht="43" customHeight="1">
+      <c r="A131" s="43"/>
+      <c r="B131" s="49"/>
+      <c r="C131" s="45"/>
+      <c r="D131" s="88"/>
+      <c r="E131" s="89"/>
+      <c r="F131" s="89"/>
+      <c r="G131" s="18"/>
+    </row>
+    <row r="132" spans="1:7" ht="43" customHeight="1">
+      <c r="A132" s="43"/>
+      <c r="B132" s="49"/>
+      <c r="C132" s="45"/>
+      <c r="D132" s="88"/>
+      <c r="E132" s="89"/>
+      <c r="F132" s="89"/>
+      <c r="G132" s="18"/>
+    </row>
+    <row r="133" spans="1:7" ht="43" customHeight="1">
+      <c r="A133" s="43"/>
+      <c r="B133" s="49"/>
+      <c r="C133" s="45"/>
+      <c r="D133" s="88"/>
+      <c r="E133" s="89"/>
+      <c r="F133" s="89"/>
+      <c r="G133" s="18"/>
+    </row>
+    <row r="134" spans="1:7" ht="43" customHeight="1">
+      <c r="A134" s="43"/>
+      <c r="B134" s="49"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="88"/>
+      <c r="E134" s="89"/>
+      <c r="F134" s="89"/>
+      <c r="G134" s="18"/>
+    </row>
+    <row r="135" spans="1:7" ht="43" customHeight="1">
+      <c r="A135" s="43"/>
+      <c r="B135" s="49"/>
+      <c r="C135" s="45"/>
+      <c r="D135" s="88"/>
+      <c r="E135" s="89"/>
+      <c r="F135" s="89"/>
+      <c r="G135" s="18"/>
+    </row>
+    <row r="136" spans="1:7" ht="43" customHeight="1">
+      <c r="A136" s="43"/>
+      <c r="B136" s="49"/>
+      <c r="C136" s="45"/>
+      <c r="D136" s="88"/>
+      <c r="E136" s="89"/>
+      <c r="F136" s="89"/>
+      <c r="G136" s="18"/>
+    </row>
+    <row r="137" spans="1:7" ht="43" customHeight="1">
+      <c r="A137" s="43"/>
+      <c r="B137" s="49"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="88"/>
+      <c r="E137" s="89"/>
+      <c r="F137" s="89"/>
+      <c r="G137" s="18"/>
+    </row>
+    <row r="138" spans="1:7" ht="43" customHeight="1">
+      <c r="A138" s="43"/>
+      <c r="B138" s="49"/>
+      <c r="C138" s="45"/>
+      <c r="D138" s="88"/>
+      <c r="E138" s="89"/>
+      <c r="F138" s="89"/>
+      <c r="G138" s="18"/>
+    </row>
+    <row r="139" spans="1:7" ht="43" customHeight="1">
+      <c r="A139" s="43"/>
+      <c r="B139" s="49"/>
+      <c r="C139" s="45"/>
+      <c r="D139" s="88"/>
+      <c r="E139" s="89"/>
+      <c r="F139" s="89"/>
+      <c r="G139" s="18"/>
+    </row>
+    <row r="140" spans="1:7" ht="43" customHeight="1">
+      <c r="A140" s="43"/>
+      <c r="B140" s="49"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="88"/>
+      <c r="E140" s="89"/>
+      <c r="F140" s="89"/>
+      <c r="G140" s="18"/>
+    </row>
+    <row r="141" spans="1:7" ht="43" customHeight="1">
+      <c r="A141" s="43"/>
+      <c r="B141" s="49"/>
+      <c r="C141" s="45"/>
+      <c r="D141" s="88"/>
+      <c r="E141" s="89"/>
+      <c r="F141" s="89"/>
+      <c r="G141" s="18"/>
+    </row>
+    <row r="142" spans="1:7" ht="43" customHeight="1">
+      <c r="A142" s="43"/>
+      <c r="B142" s="49"/>
+      <c r="C142" s="45"/>
+      <c r="D142" s="88"/>
+      <c r="E142" s="89"/>
+      <c r="F142" s="89"/>
+      <c r="G142" s="18"/>
+    </row>
+    <row r="143" spans="1:7" ht="43" customHeight="1">
+      <c r="A143" s="43"/>
+      <c r="B143" s="49"/>
+      <c r="C143" s="45"/>
+      <c r="D143" s="88"/>
+      <c r="E143" s="89"/>
+      <c r="F143" s="89"/>
+      <c r="G143" s="18"/>
+    </row>
+    <row r="144" spans="1:7" ht="43" customHeight="1">
+      <c r="A144" s="43"/>
+      <c r="B144" s="49"/>
+      <c r="C144" s="45"/>
+      <c r="D144" s="88"/>
+      <c r="E144" s="89"/>
+      <c r="F144" s="89"/>
+      <c r="G144" s="18"/>
+    </row>
+    <row r="145" spans="1:7" ht="43" customHeight="1">
+      <c r="A145" s="43"/>
+      <c r="B145" s="49"/>
+      <c r="C145" s="45"/>
+      <c r="D145" s="88"/>
+      <c r="E145" s="89"/>
+      <c r="F145" s="89"/>
+      <c r="G145" s="18"/>
+    </row>
+    <row r="146" spans="1:7" ht="43" customHeight="1">
+      <c r="A146" s="43"/>
+      <c r="B146" s="49"/>
+      <c r="C146" s="45"/>
+      <c r="D146" s="88"/>
+      <c r="E146" s="89"/>
+      <c r="F146" s="89"/>
+      <c r="G146" s="18"/>
+    </row>
+    <row r="147" spans="1:7" ht="43" customHeight="1">
+      <c r="A147" s="43"/>
+      <c r="B147" s="49"/>
+      <c r="C147" s="45"/>
+      <c r="D147" s="88"/>
+      <c r="E147" s="89"/>
+      <c r="F147" s="89"/>
+      <c r="G147" s="18"/>
+    </row>
+    <row r="148" spans="1:7" ht="43" customHeight="1">
+      <c r="A148" s="43"/>
+      <c r="B148" s="49"/>
+      <c r="C148" s="45"/>
+      <c r="D148" s="88"/>
+      <c r="E148" s="89"/>
+      <c r="F148" s="89"/>
+      <c r="G148" s="18"/>
+    </row>
+    <row r="149" spans="1:7" ht="43" customHeight="1">
+      <c r="A149" s="43"/>
+      <c r="B149" s="49"/>
+      <c r="C149" s="45"/>
+      <c r="D149" s="88"/>
+      <c r="E149" s="89"/>
+      <c r="F149" s="89"/>
+      <c r="G149" s="18"/>
+    </row>
+    <row r="150" spans="1:7" ht="43" customHeight="1">
+      <c r="A150" s="43"/>
+      <c r="B150" s="49"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="88"/>
+      <c r="E150" s="89"/>
+      <c r="F150" s="89"/>
+      <c r="G150" s="18"/>
+    </row>
+    <row r="151" spans="1:7" ht="43" customHeight="1">
+      <c r="A151" s="43"/>
+      <c r="B151" s="49"/>
+      <c r="C151" s="45"/>
+      <c r="D151" s="88"/>
+      <c r="E151" s="89"/>
+      <c r="F151" s="89"/>
+      <c r="G151" s="18"/>
+    </row>
+    <row r="152" spans="1:7" ht="43" customHeight="1">
+      <c r="A152" s="43"/>
+      <c r="B152" s="49"/>
+      <c r="C152" s="45"/>
+      <c r="D152" s="88"/>
+      <c r="E152" s="89"/>
+      <c r="F152" s="89"/>
+      <c r="G152" s="18"/>
+    </row>
+    <row r="153" spans="1:7" ht="43" customHeight="1">
+      <c r="A153" s="43"/>
+      <c r="B153" s="49"/>
+      <c r="C153" s="45"/>
+      <c r="D153" s="88"/>
+      <c r="E153" s="89"/>
+      <c r="F153" s="89"/>
+      <c r="G153" s="18"/>
+    </row>
+    <row r="154" spans="1:7" ht="43" customHeight="1">
+      <c r="A154" s="43"/>
+      <c r="B154" s="49"/>
+      <c r="C154" s="45"/>
+      <c r="D154" s="88"/>
+      <c r="E154" s="89"/>
+      <c r="F154" s="89"/>
+      <c r="G154" s="18"/>
+    </row>
+    <row r="155" spans="1:7" ht="43" customHeight="1">
+      <c r="A155" s="43"/>
+      <c r="B155" s="49"/>
+      <c r="C155" s="45"/>
+      <c r="D155" s="88"/>
+      <c r="E155" s="89"/>
+      <c r="F155" s="89"/>
+      <c r="G155" s="18"/>
+    </row>
+    <row r="156" spans="1:7" ht="43" customHeight="1">
+      <c r="A156" s="43"/>
+      <c r="B156" s="49"/>
+      <c r="C156" s="45"/>
+      <c r="D156" s="88"/>
+      <c r="E156" s="89"/>
+      <c r="F156" s="89"/>
+      <c r="G156" s="18"/>
+    </row>
+    <row r="157" spans="1:7" ht="43" customHeight="1">
+      <c r="A157" s="43"/>
+      <c r="B157" s="49"/>
+      <c r="C157" s="45"/>
+      <c r="D157" s="88"/>
+      <c r="E157" s="89"/>
+      <c r="F157" s="89"/>
+      <c r="G157" s="18"/>
+    </row>
+    <row r="158" spans="1:7" ht="43" customHeight="1">
+      <c r="A158" s="43"/>
+      <c r="B158" s="49"/>
+      <c r="C158" s="45"/>
+      <c r="D158" s="88"/>
+      <c r="E158" s="89"/>
+      <c r="F158" s="89"/>
+      <c r="G158" s="18"/>
+    </row>
+    <row r="159" spans="1:7" ht="43" customHeight="1">
+      <c r="A159" s="43"/>
+      <c r="B159" s="49"/>
+      <c r="C159" s="45"/>
+      <c r="D159" s="88"/>
+      <c r="E159" s="89"/>
+      <c r="F159" s="89"/>
+      <c r="G159" s="18"/>
+    </row>
+    <row r="160" spans="1:7" ht="43" customHeight="1">
+      <c r="A160" s="43"/>
+      <c r="B160" s="49"/>
+      <c r="C160" s="45"/>
+      <c r="D160" s="88"/>
+      <c r="E160" s="89"/>
+      <c r="F160" s="89"/>
+      <c r="G160" s="18"/>
+    </row>
+    <row r="161" spans="1:7" ht="43" customHeight="1">
+      <c r="A161" s="43"/>
+      <c r="B161" s="49"/>
+      <c r="C161" s="45"/>
+      <c r="D161" s="88"/>
+      <c r="E161" s="89"/>
+      <c r="F161" s="89"/>
+      <c r="G161" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA42D17-8337-674C-8E44-1F10B753C27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F82E33-3A7D-2B4C-9AAA-F6FE9E58216D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31460" windowHeight="16460" activeTab="4" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
   <sheets>
     <sheet name="让球匹配" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1924" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="992">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11334,9 +11334,6 @@
     </r>
   </si>
   <si>
-    <t>瓦尔米耶拉</t>
-  </si>
-  <si>
     <t>美塔里加</t>
   </si>
   <si>
@@ -11365,9 +11362,6 @@
   </si>
   <si>
     <t>22/23土甲升级准附加</t>
-  </si>
-  <si>
-    <t>伊尤斯堡</t>
   </si>
   <si>
     <t>波德鲁姆士邦</t>
@@ -11379,24 +11373,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>叶尔加瓦</t>
+  </si>
+  <si>
+    <t>主队排名6，客队排名7，让球-1.250偏深，预计主队会有一场大胜，至少赢2球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主队排名5，客队排名7，让球-1.500偏深，预计主队会有一场大胜，至少赢2球。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古尔达尼</t>
+  </si>
+  <si>
     <t>奥达里加</t>
-  </si>
-  <si>
-    <t>叶尔加瓦</t>
-  </si>
-  <si>
-    <t>主队排名6，客队排名7，让球-1.250偏深，预计主队会有一场大胜，至少赢2球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主队排名5，客队排名7，让球-1.500偏深，预计主队会有一场大胜，至少赢2球。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古尔达尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>突尼斯希望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -11405,7 +11401,7 @@
     <r>
       <rPr>
         <sz val="18"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -11415,7 +11411,7 @@
     <r>
       <rPr>
         <sz val="18"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Helvetica Neue"/>
         <family val="2"/>
       </rPr>
@@ -11424,13 +11420,25 @@
     <r>
       <rPr>
         <sz val="18"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>轮</t>
     </r>
+  </si>
+  <si>
+    <t>瓦尔米耶拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃尔维斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊尤斯堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11440,7 +11448,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="49">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -11742,6 +11750,40 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -11811,7 +11853,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12081,6 +12123,21 @@
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="45" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12406,8 +12463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView topLeftCell="A203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G206" sqref="G206"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J206" sqref="J206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -18583,29 +18640,33 @@
     </row>
     <row r="206" spans="1:10" ht="63" customHeight="1">
       <c r="A206" s="17" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B206" s="14">
         <v>45078.041666666664</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>981</v>
+        <v>991</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E206" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F206" s="16"/>
+      <c r="F206" s="16" t="s">
+        <v>190</v>
+      </c>
       <c r="G206" s="16" t="s">
         <v>467</v>
       </c>
       <c r="H206" s="28" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="I206" s="17"/>
-      <c r="J206" s="16"/>
+      <c r="J206" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="207" spans="1:10" ht="63" customHeight="1">
       <c r="A207" s="17"/>
@@ -22180,8 +22241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E5BD41-F360-D64B-BA12-0F85656DC41E}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G26" sqref="A1:G26"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.6640625" defaultRowHeight="52" customHeight="1"/>
@@ -22775,35 +22836,43 @@
         <v>45077.958333333336</v>
       </c>
       <c r="C25" s="45" t="s">
+        <v>989</v>
+      </c>
+      <c r="D25" s="59" t="s">
         <v>974</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="E25" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" s="48" t="s">
         <v>975</v>
-      </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="48" t="s">
-        <v>976</v>
       </c>
       <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:8" ht="52" customHeight="1">
       <c r="A26" s="43" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B26" s="49">
         <v>45077.979166666664</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>195</v>
+        <v>990</v>
       </c>
       <c r="D26" s="45" t="s">
+        <v>977</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" s="48" t="s">
         <v>978</v>
-      </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="48" t="s">
-        <v>979</v>
       </c>
       <c r="H26" s="26"/>
     </row>
@@ -24939,8 +25008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D829EF5D-C573-564B-B09B-37782B5AE55B}">
   <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="43" customHeight="1"/>
@@ -24979,34 +25048,42 @@
         <v>45079</v>
       </c>
       <c r="C2" s="45" t="s">
+        <v>986</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>982</v>
+      </c>
+      <c r="E2" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43" customHeight="1">
+      <c r="A3" s="90" t="s">
+        <v>988</v>
+      </c>
+      <c r="B3" s="91">
+        <v>45079</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>987</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>985</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="94" t="s">
         <v>984</v>
-      </c>
-      <c r="D2" s="88" t="s">
-        <v>985</v>
-      </c>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="18" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="43" customHeight="1">
-      <c r="A3" s="43" t="s">
-        <v>990</v>
-      </c>
-      <c r="B3" s="49">
-        <v>45079</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>989</v>
-      </c>
-      <c r="D3" s="88" t="s">
-        <v>988</v>
-      </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="18" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="43" customHeight="1">

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F82E33-3A7D-2B4C-9AAA-F6FE9E58216D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A759CE-0BF2-F841-B17A-12A4FC4AFC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="4" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
   <sheets>
     <sheet name="让球匹配" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="1000">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11439,6 +11439,123 @@
   <si>
     <t>伊尤斯堡</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/23法乙第38轮</t>
+  </si>
+  <si>
+    <t>勒阿弗尔</t>
+  </si>
+  <si>
+    <t>第戎</t>
+  </si>
+  <si>
+    <r>
+      <t>主队排名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，客队排名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，两者分差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，主队盘口非常便宜！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅斯</t>
+  </si>
+  <si>
+    <t>巴斯蒂亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主队排名2，客队排名4，让球-1.500偏深，预计主队会有一场大胜，至少赢2球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>22/23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法乙第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -12463,7 +12580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J206" sqref="J206"/>
     </sheetView>
   </sheetViews>
@@ -23047,8 +23164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1142161-0F82-AA49-8A76-42BEDD9DBD1A}">
   <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34" defaultRowHeight="66" customHeight="1"/>
@@ -23269,13 +23386,25 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="66" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16"/>
+      <c r="A9" s="17" t="s">
+        <v>992</v>
+      </c>
+      <c r="B9" s="14">
+        <v>45080.114583333336</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>993</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>228</v>
+      </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="28"/>
+      <c r="G9" s="28" t="s">
+        <v>995</v>
+      </c>
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="66" customHeight="1">
@@ -25008,8 +25137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D829EF5D-C573-564B-B09B-37782B5AE55B}">
   <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="43" customHeight="1"/>
@@ -25087,13 +25216,23 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="43" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="88"/>
+      <c r="A4" s="43" t="s">
+        <v>999</v>
+      </c>
+      <c r="B4" s="49">
+        <v>45080.114583333336</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>996</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>997</v>
+      </c>
       <c r="E4" s="89"/>
       <c r="F4" s="89"/>
-      <c r="G4" s="18"/>
+      <c r="G4" s="18" t="s">
+        <v>998</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="43" customHeight="1">
       <c r="A5" s="43"/>

--- a/结果分析.xlsx
+++ b/结果分析.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoliangchen/Desktop/mylib/football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A759CE-0BF2-F841-B17A-12A4FC4AFC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF5D021-BF53-C749-8513-9FE008108F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="4" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{2F4176CA-2AE1-CD4E-8034-F282DBB495BA}"/>
   </bookViews>
   <sheets>
     <sheet name="让球匹配" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="1001">
   <si>
     <t>比赛时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8569,9 +8569,6 @@
 比分概率前三分别是：[0:4](2次)     [1:2](1次)    </t>
   </si>
   <si>
-    <t>凡尔赛</t>
-  </si>
-  <si>
     <t xml:space="preserve">亚盘全网盘口:赢=2,输=4,走=0,输盘概率最大,为66.67%
 亚盘本联赛盘口:赢=0,输=2,走=0,输盘概率最大,为100.00%
 比分概率前三分别是：[0:2](2次)     [2:2](1次)     [0:1](1次)     </t>
@@ -11556,6 +11553,14 @@
       </rPr>
       <t>轮</t>
     </r>
+  </si>
+  <si>
+    <t>22/23法丙第32轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凡尔赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12580,8 +12585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4B95A6-60E0-754E-AF67-070D14BF1ADB}">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView topLeftCell="A203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J206" sqref="J206"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="63" customHeight="1"/>
@@ -13273,7 +13278,7 @@
         <v>45038.75</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>175</v>
@@ -15133,7 +15138,7 @@
         <v>45058.729166666664</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>330</v>
@@ -15163,7 +15168,7 @@
         <v>45058.958333333336</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>264</v>
@@ -15193,7 +15198,7 @@
         <v>45059</v>
       </c>
       <c r="C87" s="61" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D87" s="61" t="s">
         <v>231</v>
@@ -15223,10 +15228,10 @@
         <v>45059.041666666664</v>
       </c>
       <c r="C88" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="D88" s="17" t="s">
         <v>573</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>574</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>256</v>
@@ -15247,13 +15252,13 @@
     </row>
     <row r="89" spans="1:10" ht="63" customHeight="1">
       <c r="A89" s="17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B89" s="14">
         <v>45059.041666666664</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>65</v>
@@ -15277,13 +15282,13 @@
     </row>
     <row r="90" spans="1:10" ht="63" customHeight="1">
       <c r="A90" s="17" t="s">
-        <v>472</v>
+        <v>999</v>
       </c>
       <c r="B90" s="14">
         <v>45059.0625</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D90" s="17" t="s">
         <v>473</v>
@@ -15307,16 +15312,16 @@
     </row>
     <row r="91" spans="1:10" ht="63" customHeight="1">
       <c r="A91" s="17" t="s">
-        <v>472</v>
+        <v>999</v>
       </c>
       <c r="B91" s="14">
         <v>45059.0625</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>476</v>
+        <v>1000</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>256</v>
@@ -15328,7 +15333,7 @@
         <v>467</v>
       </c>
       <c r="H91" s="28" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="16" t="s">
@@ -15343,10 +15348,10 @@
         <v>45059.0625</v>
       </c>
       <c r="C92" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="D92" s="17" t="s">
         <v>478</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>479</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>206</v>
@@ -15358,7 +15363,7 @@
         <v>463</v>
       </c>
       <c r="H92" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I92" s="17"/>
       <c r="J92" s="16" t="s">
@@ -15367,16 +15372,16 @@
     </row>
     <row r="93" spans="1:10" ht="63" customHeight="1">
       <c r="A93" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B93" s="8">
         <v>45059.0625</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>228</v>
@@ -15388,7 +15393,7 @@
         <v>467</v>
       </c>
       <c r="H93" s="33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I93" s="11"/>
       <c r="J93" s="10" t="s">
@@ -15397,16 +15402,16 @@
     </row>
     <row r="94" spans="1:10" ht="63" customHeight="1">
       <c r="A94" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B94" s="8">
         <v>45059.083333333336</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>280</v>
@@ -15418,7 +15423,7 @@
         <v>463</v>
       </c>
       <c r="H94" s="33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I94" s="11"/>
       <c r="J94" s="10" t="s">
@@ -15427,16 +15432,16 @@
     </row>
     <row r="95" spans="1:10" ht="63" customHeight="1">
       <c r="A95" s="75" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B95" s="76">
         <v>45059.083333333336</v>
       </c>
       <c r="C95" s="75" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D95" s="75" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E95" s="77" t="s">
         <v>218</v>
@@ -15448,7 +15453,7 @@
         <v>467</v>
       </c>
       <c r="H95" s="78" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I95" s="75"/>
       <c r="J95" s="77" t="s">
@@ -15457,16 +15462,16 @@
     </row>
     <row r="96" spans="1:10" ht="63" customHeight="1">
       <c r="A96" s="75" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B96" s="76">
         <v>45059.833333333336</v>
       </c>
       <c r="C96" s="75" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D96" s="75" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E96" s="77" t="s">
         <v>206</v>
@@ -15478,7 +15483,7 @@
         <v>463</v>
       </c>
       <c r="H96" s="78" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I96" s="75"/>
       <c r="J96" s="77" t="s">
@@ -15487,16 +15492,16 @@
     </row>
     <row r="97" spans="1:10" ht="63" customHeight="1">
       <c r="A97" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B97" s="8">
         <v>45059.8125</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>261</v>
@@ -15508,7 +15513,7 @@
         <v>467</v>
       </c>
       <c r="H97" s="33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I97" s="11"/>
       <c r="J97" s="10" t="s">
@@ -15517,16 +15522,16 @@
     </row>
     <row r="98" spans="1:10" ht="63" customHeight="1">
       <c r="A98" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B98" s="8">
         <v>45059.8125</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>95</v>
@@ -15538,7 +15543,7 @@
         <v>467</v>
       </c>
       <c r="H98" s="33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I98" s="11"/>
       <c r="J98" s="10" t="s">
@@ -15547,16 +15552,16 @@
     </row>
     <row r="99" spans="1:10" ht="63" customHeight="1">
       <c r="A99" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B99" s="14">
         <v>45059.833333333336</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>206</v>
@@ -15568,7 +15573,7 @@
         <v>463</v>
       </c>
       <c r="H99" s="28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I99" s="17"/>
       <c r="J99" s="16" t="s">
@@ -15577,16 +15582,16 @@
     </row>
     <row r="100" spans="1:10" ht="63" customHeight="1">
       <c r="A100" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B100" s="14">
         <v>45059.833333333336</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>232</v>
@@ -15598,7 +15603,7 @@
         <v>467</v>
       </c>
       <c r="H100" s="28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I100" s="17"/>
       <c r="J100" s="16" t="s">
@@ -15613,10 +15618,10 @@
         <v>45059.958333333336</v>
       </c>
       <c r="C101" s="75" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D101" s="75" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E101" s="77" t="s">
         <v>206</v>
@@ -15628,7 +15633,7 @@
         <v>463</v>
       </c>
       <c r="H101" s="78" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I101" s="75"/>
       <c r="J101" s="77" t="s">
@@ -15637,16 +15642,16 @@
     </row>
     <row r="102" spans="1:10" ht="63" customHeight="1">
       <c r="A102" s="17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B102" s="14">
         <v>45059.958333333336</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>261</v>
@@ -15658,7 +15663,7 @@
         <v>463</v>
       </c>
       <c r="H102" s="28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="16" t="s">
@@ -15667,19 +15672,19 @@
     </row>
     <row r="103" spans="1:10" ht="63" customHeight="1">
       <c r="A103" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B103" s="14">
         <v>45059.958333333336</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D103" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="E103" s="16" t="s">
         <v>508</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>509</v>
       </c>
       <c r="F103" s="16" t="s">
         <v>154</v>
@@ -15688,7 +15693,7 @@
         <v>463</v>
       </c>
       <c r="H103" s="28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="16" t="s">
@@ -15697,16 +15702,16 @@
     </row>
     <row r="104" spans="1:10" ht="63" customHeight="1">
       <c r="A104" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B104" s="8">
         <v>45059.958333333336</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E104" s="10" t="s">
         <v>256</v>
@@ -15718,7 +15723,7 @@
         <v>467</v>
       </c>
       <c r="H104" s="33" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I104" s="11"/>
       <c r="J104" s="10" t="s">
@@ -15727,7 +15732,7 @@
     </row>
     <row r="105" spans="1:10" ht="63" customHeight="1">
       <c r="A105" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B105" s="8">
         <v>45059.979166666664</v>
@@ -15736,7 +15741,7 @@
         <v>137</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E105" s="10" t="s">
         <v>228</v>
@@ -15748,7 +15753,7 @@
         <v>467</v>
       </c>
       <c r="H105" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I105" s="11"/>
       <c r="J105" s="10" t="s">
@@ -15757,16 +15762,16 @@
     </row>
     <row r="106" spans="1:10" ht="63" customHeight="1">
       <c r="A106" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B106" s="14">
         <v>45059.979166666664</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E106" s="16" t="s">
         <v>206</v>
@@ -15778,7 +15783,7 @@
         <v>463</v>
       </c>
       <c r="H106" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I106" s="17"/>
       <c r="J106" s="16" t="s">
@@ -15787,16 +15792,16 @@
     </row>
     <row r="107" spans="1:10" ht="63" customHeight="1">
       <c r="A107" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B107" s="14">
         <v>45059.979166666664</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E107" s="16" t="s">
         <v>261</v>
@@ -15808,7 +15813,7 @@
         <v>463</v>
       </c>
       <c r="H107" s="28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I107" s="17"/>
       <c r="J107" s="16" t="s">
@@ -15817,16 +15822,16 @@
     </row>
     <row r="108" spans="1:10" ht="63" customHeight="1">
       <c r="A108" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B108" s="14">
         <v>45060</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E108" s="16" t="s">
         <v>232</v>
@@ -15838,7 +15843,7 @@
         <v>467</v>
       </c>
       <c r="H108" s="28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I108" s="17"/>
       <c r="J108" s="16" t="s">
@@ -15847,13 +15852,13 @@
     </row>
     <row r="109" spans="1:10" ht="63" customHeight="1">
       <c r="A109" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B109" s="8">
         <v>45060.020833333336</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>243</v>
@@ -15862,13 +15867,13 @@
         <v>228</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G109" s="10" t="s">
         <v>463</v>
       </c>
       <c r="H109" s="33" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I109" s="11"/>
       <c r="J109" s="10" t="s">
@@ -15877,16 +15882,16 @@
     </row>
     <row r="110" spans="1:10" ht="63" customHeight="1">
       <c r="A110" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B110" s="14">
         <v>45060.875</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E110" s="16" t="s">
         <v>117</v>
@@ -15898,7 +15903,7 @@
         <v>463</v>
       </c>
       <c r="H110" s="28" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I110" s="17"/>
       <c r="J110" s="16" t="s">
@@ -15907,16 +15912,16 @@
     </row>
     <row r="111" spans="1:10" ht="63" customHeight="1">
       <c r="A111" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B111" s="14">
         <v>45060.875</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>117</v>
@@ -15928,7 +15933,7 @@
         <v>467</v>
       </c>
       <c r="H111" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="16" t="s">
@@ -15937,7 +15942,7 @@
     </row>
     <row r="112" spans="1:10" ht="63" customHeight="1">
       <c r="A112" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B112" s="14">
         <v>45060.875</v>
@@ -15946,7 +15951,7 @@
         <v>100</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E112" s="16" t="s">
         <v>232</v>
@@ -15958,7 +15963,7 @@
         <v>467</v>
       </c>
       <c r="H112" s="28" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="16" t="s">
@@ -15967,16 +15972,16 @@
     </row>
     <row r="113" spans="1:10" ht="63" customHeight="1">
       <c r="A113" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B113" s="8">
         <v>45060.875</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E113" s="10" t="s">
         <v>232</v>
@@ -15988,7 +15993,7 @@
         <v>467</v>
       </c>
       <c r="H113" s="33" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I113" s="11"/>
       <c r="J113" s="10" t="s">
@@ -15997,16 +16002,16 @@
     </row>
     <row r="114" spans="1:10" ht="63" customHeight="1">
       <c r="A114" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B114" s="8">
         <v>45060.916666666664</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E114" s="10" t="s">
         <v>228</v>
@@ -16018,7 +16023,7 @@
         <v>467</v>
       </c>
       <c r="H114" s="33" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I114" s="11"/>
       <c r="J114" s="10" t="s">
@@ -16033,7 +16038,7 @@
         <v>45060.9375</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D115" s="17" t="s">
         <v>174</v>
@@ -16048,7 +16053,7 @@
         <v>68</v>
       </c>
       <c r="H115" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="16" t="s">
@@ -16057,16 +16062,16 @@
     </row>
     <row r="116" spans="1:10" ht="63" customHeight="1">
       <c r="A116" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B116" s="8">
         <v>45060.958333333336</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E116" s="10" t="s">
         <v>256</v>
@@ -16078,7 +16083,7 @@
         <v>68</v>
       </c>
       <c r="H116" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I116" s="11"/>
       <c r="J116" s="10" t="s">
@@ -16087,16 +16092,16 @@
     </row>
     <row r="117" spans="1:10" ht="63" customHeight="1">
       <c r="A117" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B117" s="14">
         <v>45060.958333333336</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E117" s="16" t="s">
         <v>228</v>
@@ -16108,7 +16113,7 @@
         <v>463</v>
       </c>
       <c r="H117" s="28" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I117" s="17"/>
       <c r="J117" s="16" t="s">
@@ -16117,16 +16122,16 @@
     </row>
     <row r="118" spans="1:10" ht="63" customHeight="1">
       <c r="A118" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B118" s="8">
         <v>45060.96875</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E118" s="10" t="s">
         <v>232</v>
@@ -16138,7 +16143,7 @@
         <v>463</v>
       </c>
       <c r="H118" s="33" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I118" s="11"/>
       <c r="J118" s="10" t="s">
@@ -16147,16 +16152,16 @@
     </row>
     <row r="119" spans="1:10" ht="63" customHeight="1">
       <c r="A119" s="17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B119" s="14">
         <v>45061</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E119" s="16" t="s">
         <v>206</v>
@@ -16168,7 +16173,7 @@
         <v>463</v>
       </c>
       <c r="H119" s="28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I119" s="17"/>
       <c r="J119" s="16" t="s">
@@ -16183,7 +16188,7 @@
         <v>45061.378472222219</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D120" s="17" t="s">
         <v>454</v>
@@ -16198,7 +16203,7 @@
         <v>68</v>
       </c>
       <c r="H120" s="28" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I120" s="17"/>
       <c r="J120" s="16" t="s">
@@ -16207,16 +16212,16 @@
     </row>
     <row r="121" spans="1:10" ht="63" customHeight="1">
       <c r="A121" s="17" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B121" s="14">
         <v>45061.395833333336</v>
       </c>
       <c r="C121" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="D121" s="17" t="s">
         <v>613</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>614</v>
       </c>
       <c r="E121" s="16" t="s">
         <v>280</v>
@@ -16228,7 +16233,7 @@
         <v>68</v>
       </c>
       <c r="H121" s="28" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I121" s="17"/>
       <c r="J121" s="16" t="s">
@@ -16237,16 +16242,16 @@
     </row>
     <row r="122" spans="1:10" ht="63" customHeight="1">
       <c r="A122" s="75" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B122" s="76">
         <v>45061.395833333336</v>
       </c>
       <c r="C122" s="75" t="s">
+        <v>616</v>
+      </c>
+      <c r="D122" s="75" t="s">
         <v>617</v>
-      </c>
-      <c r="D122" s="75" t="s">
-        <v>618</v>
       </c>
       <c r="E122" s="77" t="s">
         <v>232</v>
@@ -16258,7 +16263,7 @@
         <v>463</v>
       </c>
       <c r="H122" s="78" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I122" s="75"/>
       <c r="J122" s="77" t="s">
@@ -16267,16 +16272,16 @@
     </row>
     <row r="123" spans="1:10" ht="63" customHeight="1">
       <c r="A123" s="75" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B123" s="76">
         <v>45061.916666666664</v>
       </c>
       <c r="C123" s="75" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D123" s="75" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E123" s="77" t="s">
         <v>95</v>
@@ -16288,7 +16293,7 @@
         <v>68</v>
       </c>
       <c r="H123" s="78" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I123" s="75"/>
       <c r="J123" s="77" t="s">
@@ -16297,16 +16302,16 @@
     </row>
     <row r="124" spans="1:10" ht="63" customHeight="1">
       <c r="A124" s="75" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B124" s="76">
         <v>45062</v>
       </c>
       <c r="C124" s="75" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D124" s="75" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E124" s="77" t="s">
         <v>97</v>
@@ -16318,7 +16323,7 @@
         <v>463</v>
       </c>
       <c r="H124" s="78" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I124" s="75"/>
       <c r="J124" s="77" t="s">
@@ -16333,10 +16338,10 @@
         <v>45062.020833333336</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E125" s="16" t="s">
         <v>117</v>
@@ -16348,7 +16353,7 @@
         <v>463</v>
       </c>
       <c r="H125" s="28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I125" s="17"/>
       <c r="J125" s="16" t="s">
@@ -16357,16 +16362,16 @@
     </row>
     <row r="126" spans="1:10" ht="63" customHeight="1">
       <c r="A126" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B126" s="14">
         <v>45062.048611111109</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E126" s="16" t="s">
         <v>176</v>
@@ -16378,7 +16383,7 @@
         <v>463</v>
       </c>
       <c r="H126" s="28" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I126" s="17"/>
       <c r="J126" s="16" t="s">
@@ -16387,16 +16392,16 @@
     </row>
     <row r="127" spans="1:10" ht="63" customHeight="1">
       <c r="A127" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B127" s="8">
         <v>45062.104166666664</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E127" s="10" t="s">
         <v>117</v>
@@ -16408,7 +16413,7 @@
         <v>68</v>
       </c>
       <c r="H127" s="33" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I127" s="11"/>
       <c r="J127" s="10" t="s">
@@ -16417,16 +16422,16 @@
     </row>
     <row r="128" spans="1:10" ht="63" customHeight="1">
       <c r="A128" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B128" s="8">
         <v>45062.104166666664</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E128" s="10" t="s">
         <v>98</v>
@@ -16438,7 +16443,7 @@
         <v>68</v>
       </c>
       <c r="H128" s="33" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I128" s="11"/>
       <c r="J128" s="10" t="s">
@@ -16447,16 +16452,16 @@
     </row>
     <row r="129" spans="1:10" ht="63" customHeight="1">
       <c r="A129" s="17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B129" s="14">
         <v>45062.114583333336</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E129" s="16" t="s">
         <v>297</v>
@@ -16468,7 +16473,7 @@
         <v>68</v>
       </c>
       <c r="H129" s="28" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I129" s="17"/>
       <c r="J129" s="16" t="s">
@@ -16477,16 +16482,16 @@
     </row>
     <row r="130" spans="1:10" ht="63" customHeight="1">
       <c r="A130" s="75" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B130" s="76">
         <v>45062.333333333336</v>
       </c>
       <c r="C130" s="75" t="s">
+        <v>645</v>
+      </c>
+      <c r="D130" s="75" t="s">
         <v>646</v>
-      </c>
-      <c r="D130" s="75" t="s">
-        <v>647</v>
       </c>
       <c r="E130" s="77" t="s">
         <v>176</v>
@@ -16498,7 +16503,7 @@
         <v>463</v>
       </c>
       <c r="H130" s="78" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I130" s="75"/>
       <c r="J130" s="77" t="s">
@@ -16507,16 +16512,16 @@
     </row>
     <row r="131" spans="1:10" ht="63" customHeight="1">
       <c r="A131" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B131" s="8">
         <v>45062.916666666664</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E131" s="10" t="s">
         <v>232</v>
@@ -16528,7 +16533,7 @@
         <v>68</v>
       </c>
       <c r="H131" s="33" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I131" s="11"/>
       <c r="J131" s="10" t="s">
@@ -16537,16 +16542,16 @@
     </row>
     <row r="132" spans="1:10" ht="63" customHeight="1">
       <c r="A132" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B132" s="8">
         <v>45062.916666666664</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E132" s="10" t="s">
         <v>206</v>
@@ -16558,7 +16563,7 @@
         <v>463</v>
       </c>
       <c r="H132" s="33" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I132" s="11"/>
       <c r="J132" s="10" t="s">
@@ -16567,16 +16572,16 @@
     </row>
     <row r="133" spans="1:10" ht="63" customHeight="1">
       <c r="A133" s="17" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B133" s="14">
         <v>45062.916666666664</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E133" s="16" t="s">
         <v>95</v>
@@ -16588,7 +16593,7 @@
         <v>463</v>
       </c>
       <c r="H133" s="28" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I133" s="17"/>
       <c r="J133" s="16" t="s">
@@ -16597,16 +16602,16 @@
     </row>
     <row r="134" spans="1:10" ht="63" customHeight="1">
       <c r="A134" s="17" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B134" s="14">
         <v>45062.958333333336</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E134" s="16" t="s">
         <v>228</v>
@@ -16618,7 +16623,7 @@
         <v>68</v>
       </c>
       <c r="H134" s="28" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I134" s="17"/>
       <c r="J134" s="16" t="s">
@@ -16627,13 +16632,13 @@
     </row>
     <row r="135" spans="1:10" ht="63" customHeight="1">
       <c r="A135" s="75" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B135" s="76">
         <v>45063</v>
       </c>
       <c r="C135" s="75" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D135" s="75" t="s">
         <v>393</v>
@@ -16648,7 +16653,7 @@
         <v>463</v>
       </c>
       <c r="H135" s="78" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I135" s="75"/>
       <c r="J135" s="77" t="s">
@@ -16657,16 +16662,16 @@
     </row>
     <row r="136" spans="1:10" ht="63" customHeight="1">
       <c r="A136" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B136" s="8">
         <v>45063</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E136" s="10" t="s">
         <v>297</v>
@@ -16678,7 +16683,7 @@
         <v>68</v>
       </c>
       <c r="H136" s="33" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="10" t="s">
@@ -16687,16 +16692,16 @@
     </row>
     <row r="137" spans="1:10" ht="63" customHeight="1">
       <c r="A137" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B137" s="8">
         <v>45063.104166666664</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E137" s="10" t="s">
         <v>98</v>
@@ -16708,7 +16713,7 @@
         <v>68</v>
       </c>
       <c r="H137" s="33" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I137" s="11"/>
       <c r="J137" s="10" t="s">
@@ -16717,16 +16722,16 @@
     </row>
     <row r="138" spans="1:10" ht="63" customHeight="1">
       <c r="A138" s="21" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B138" s="22">
         <v>45063.875</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E138" s="23" t="s">
         <v>93</v>
@@ -16738,7 +16743,7 @@
         <v>57</v>
       </c>
       <c r="H138" s="68" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I138" s="21"/>
       <c r="J138" s="23" t="s">
@@ -16747,16 +16752,16 @@
     </row>
     <row r="139" spans="1:10" ht="63" customHeight="1">
       <c r="A139" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B139" s="8">
         <v>45064.166666666664</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E139" s="10" t="s">
         <v>97</v>
@@ -16768,7 +16773,7 @@
         <v>57</v>
       </c>
       <c r="H139" s="33" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I139" s="11"/>
       <c r="J139" s="10" t="s">
@@ -16777,16 +16782,16 @@
     </row>
     <row r="140" spans="1:10" ht="63" customHeight="1">
       <c r="A140" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B140" s="8">
         <v>45064.3125</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E140" s="10" t="s">
         <v>176</v>
@@ -16798,7 +16803,7 @@
         <v>57</v>
       </c>
       <c r="H140" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I140" s="11"/>
       <c r="J140" s="10" t="s">
@@ -16807,16 +16812,16 @@
     </row>
     <row r="141" spans="1:10" ht="63" customHeight="1">
       <c r="A141" s="17" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B141" s="14">
         <v>45064.354166666664</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E141" s="16" t="s">
         <v>98</v>
@@ -16828,7 +16833,7 @@
         <v>68</v>
       </c>
       <c r="H141" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I141" s="17"/>
       <c r="J141" s="16" t="s">
@@ -16837,28 +16842,28 @@
     </row>
     <row r="142" spans="1:10" ht="63" customHeight="1">
       <c r="A142" s="17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B142" s="14">
         <v>45064.9375</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E142" s="16" t="s">
         <v>117</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G142" s="16" t="s">
         <v>467</v>
       </c>
       <c r="H142" s="28" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I142" s="17"/>
       <c r="J142" s="16" t="s">
@@ -16867,16 +16872,16 @@
     </row>
     <row r="143" spans="1:10" ht="63" customHeight="1">
       <c r="A143" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B143" s="14">
         <v>45065.041666666664</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E143" s="16" t="s">
         <v>94</v>
@@ -16888,7 +16893,7 @@
         <v>467</v>
       </c>
       <c r="H143" s="28" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I143" s="17"/>
       <c r="J143" s="16" t="s">
@@ -16897,28 +16902,28 @@
     </row>
     <row r="144" spans="1:10" ht="63" customHeight="1">
       <c r="A144" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B144" s="8">
         <v>45065.104166666664</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E144" s="10" t="s">
         <v>117</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G144" s="10" t="s">
         <v>57</v>
       </c>
       <c r="H144" s="33" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I144" s="11"/>
       <c r="J144" s="10" t="s">
@@ -16927,7 +16932,7 @@
     </row>
     <row r="145" spans="1:10" ht="63" customHeight="1">
       <c r="A145" s="14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B145" s="14">
         <v>45065.770833333336</v>
@@ -16936,7 +16941,7 @@
         <v>180</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E145" s="16" t="s">
         <v>97</v>
@@ -16948,7 +16953,7 @@
         <v>57</v>
       </c>
       <c r="H145" s="28" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I145" s="17"/>
       <c r="J145" s="16" t="s">
@@ -16957,28 +16962,28 @@
     </row>
     <row r="146" spans="1:10" ht="63" customHeight="1">
       <c r="A146" s="11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B146" s="8">
         <v>45065.815972222219</v>
       </c>
       <c r="C146" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="D146" s="11" t="s">
         <v>732</v>
-      </c>
-      <c r="D146" s="11" t="s">
-        <v>733</v>
       </c>
       <c r="E146" s="10" t="s">
         <v>98</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G146" s="10" t="s">
         <v>68</v>
       </c>
       <c r="H146" s="33" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I146" s="11"/>
       <c r="J146" s="10" t="s">
@@ -16987,16 +16992,16 @@
     </row>
     <row r="147" spans="1:10" ht="63" customHeight="1">
       <c r="A147" s="61" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B147" s="62">
         <v>45065.770833333336</v>
       </c>
       <c r="C147" s="61" t="s">
+        <v>735</v>
+      </c>
+      <c r="D147" s="61" t="s">
         <v>736</v>
-      </c>
-      <c r="D147" s="61" t="s">
-        <v>737</v>
       </c>
       <c r="E147" s="63" t="s">
         <v>297</v>
@@ -17008,7 +17013,7 @@
         <v>68</v>
       </c>
       <c r="H147" s="64" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I147" s="61"/>
       <c r="J147" s="63" t="s">
@@ -17017,16 +17022,16 @@
     </row>
     <row r="148" spans="1:10" ht="63" customHeight="1">
       <c r="A148" s="17" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B148" s="14">
         <v>45065.916666666664</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E148" s="16" t="s">
         <v>93</v>
@@ -17038,7 +17043,7 @@
         <v>57</v>
       </c>
       <c r="H148" s="28" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I148" s="17"/>
       <c r="J148" s="16" t="s">
@@ -17047,16 +17052,16 @@
     </row>
     <row r="149" spans="1:10" ht="63" customHeight="1">
       <c r="A149" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B149" s="14">
         <v>45066</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E149" s="16" t="s">
         <v>93</v>
@@ -17068,7 +17073,7 @@
         <v>57</v>
       </c>
       <c r="H149" s="28" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I149" s="17"/>
       <c r="J149" s="16" t="s">
@@ -17077,16 +17082,16 @@
     </row>
     <row r="150" spans="1:10" ht="63" customHeight="1">
       <c r="A150" s="75" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B150" s="76">
         <v>45066.041666666664</v>
       </c>
       <c r="C150" s="75" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D150" s="75" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E150" s="77" t="s">
         <v>96</v>
@@ -17098,7 +17103,7 @@
         <v>68</v>
       </c>
       <c r="H150" s="78" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I150" s="75"/>
       <c r="J150" s="77" t="s">
@@ -17107,13 +17112,13 @@
     </row>
     <row r="151" spans="1:10" ht="63" customHeight="1">
       <c r="A151" s="17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B151" s="14">
         <v>45066.020833333336</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D151" s="17" t="s">
         <v>254</v>
@@ -17128,7 +17133,7 @@
         <v>57</v>
       </c>
       <c r="H151" s="28" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I151" s="17"/>
       <c r="J151" s="16" t="s">
@@ -17137,19 +17142,19 @@
     </row>
     <row r="152" spans="1:10" ht="63" customHeight="1">
       <c r="A152" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B152" s="8">
         <v>45066.006944444445</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D152" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="E152" s="10" t="s">
         <v>756</v>
-      </c>
-      <c r="E152" s="10" t="s">
-        <v>757</v>
       </c>
       <c r="F152" s="10" t="s">
         <v>221</v>
@@ -17158,7 +17163,7 @@
         <v>68</v>
       </c>
       <c r="H152" s="33" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I152" s="11"/>
       <c r="J152" s="10" t="s">
@@ -17167,16 +17172,16 @@
     </row>
     <row r="153" spans="1:10" ht="63" customHeight="1">
       <c r="A153" s="17" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B153" s="14">
         <v>45066.083333333336</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E153" s="16" t="s">
         <v>97</v>
@@ -17188,7 +17193,7 @@
         <v>68</v>
       </c>
       <c r="H153" s="28" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I153" s="17"/>
       <c r="J153" s="16" t="s">
@@ -17197,16 +17202,16 @@
     </row>
     <row r="154" spans="1:10" ht="63" customHeight="1">
       <c r="A154" s="75" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B154" s="76">
         <v>45066.083333333336</v>
       </c>
       <c r="C154" s="75" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D154" s="75" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E154" s="77" t="s">
         <v>98</v>
@@ -17218,7 +17223,7 @@
         <v>57</v>
       </c>
       <c r="H154" s="78" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I154" s="75"/>
       <c r="J154" s="77" t="s">
@@ -17233,10 +17238,10 @@
         <v>45066.083333333336</v>
       </c>
       <c r="C155" s="61" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D155" s="61" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E155" s="63" t="s">
         <v>374</v>
@@ -17248,7 +17253,7 @@
         <v>68</v>
       </c>
       <c r="H155" s="64" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I155" s="61"/>
       <c r="J155" s="63" t="s">
@@ -17257,16 +17262,16 @@
     </row>
     <row r="156" spans="1:10" ht="63" customHeight="1">
       <c r="A156" s="17" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B156" s="14">
         <v>45066.5625</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E156" s="16" t="s">
         <v>92</v>
@@ -17278,7 +17283,7 @@
         <v>57</v>
       </c>
       <c r="H156" s="28" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I156" s="17"/>
       <c r="J156" s="16" t="s">
@@ -17287,16 +17292,16 @@
     </row>
     <row r="157" spans="1:10" ht="63" customHeight="1">
       <c r="A157" s="17" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B157" s="14">
         <v>45066.5625</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E157" s="16" t="s">
         <v>94</v>
@@ -17308,7 +17313,7 @@
         <v>68</v>
       </c>
       <c r="H157" s="28" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I157" s="17"/>
       <c r="J157" s="16" t="s">
@@ -17317,19 +17322,19 @@
     </row>
     <row r="158" spans="1:10" ht="63" customHeight="1">
       <c r="A158" s="11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B158" s="8">
         <v>45066.625</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F158" s="10" t="s">
         <v>9</v>
@@ -17338,7 +17343,7 @@
         <v>57</v>
       </c>
       <c r="H158" s="33" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I158" s="11"/>
       <c r="J158" s="10" t="s">
@@ -17347,16 +17352,16 @@
     </row>
     <row r="159" spans="1:10" ht="63" customHeight="1">
       <c r="A159" s="17" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B159" s="14">
         <v>45066.625</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E159" s="16" t="s">
         <v>97</v>
@@ -17368,7 +17373,7 @@
         <v>57</v>
       </c>
       <c r="H159" s="28" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I159" s="17"/>
       <c r="J159" s="16" t="s">
@@ -17377,16 +17382,16 @@
     </row>
     <row r="160" spans="1:10" ht="63" customHeight="1">
       <c r="A160" s="17" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B160" s="14">
         <v>45066.625</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E160" s="16" t="s">
         <v>97</v>
@@ -17398,7 +17403,7 @@
         <v>57</v>
       </c>
       <c r="H160" s="28" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I160" s="17"/>
       <c r="J160" s="16" t="s">
@@ -17407,16 +17412,16 @@
     </row>
     <row r="161" spans="1:10" ht="63" customHeight="1">
       <c r="A161" s="75" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B161" s="76">
         <v>45066.625</v>
       </c>
       <c r="C161" s="75" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D161" s="75" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E161" s="77" t="s">
         <v>93</v>
@@ -17428,7 +17433,7 @@
         <v>68</v>
       </c>
       <c r="H161" s="78" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I161" s="75"/>
       <c r="J161" s="77" t="s">
@@ -17437,13 +17442,13 @@
     </row>
     <row r="162" spans="1:10" ht="63" customHeight="1">
       <c r="A162" s="75" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B162" s="76">
         <v>45066.645833333336</v>
       </c>
       <c r="C162" s="75" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D162" s="75" t="s">
         <v>412</v>
@@ -17458,7 +17463,7 @@
         <v>68</v>
       </c>
       <c r="H162" s="78" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I162" s="75"/>
       <c r="J162" s="77" t="s">
@@ -17467,16 +17472,16 @@
     </row>
     <row r="163" spans="1:10" ht="63" customHeight="1">
       <c r="A163" s="11" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B163" s="8">
         <v>45066.666666666664</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E163" s="10" t="s">
         <v>117</v>
@@ -17488,7 +17493,7 @@
         <v>57</v>
       </c>
       <c r="H163" s="33" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I163" s="11"/>
       <c r="J163" s="10" t="s">
@@ -17497,16 +17502,16 @@
     </row>
     <row r="164" spans="1:10" ht="63" customHeight="1">
       <c r="A164" s="17" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B164" s="14">
         <v>45066.6875</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E164" s="16" t="s">
         <v>117</v>
@@ -17518,7 +17523,7 @@
         <v>68</v>
       </c>
       <c r="H164" s="28" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I164" s="17"/>
       <c r="J164" s="16" t="s">
@@ -17527,13 +17532,13 @@
     </row>
     <row r="165" spans="1:10" ht="63" customHeight="1">
       <c r="A165" s="75" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B165" s="76">
         <v>45066.708333333336</v>
       </c>
       <c r="C165" s="75" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D165" s="75" t="s">
         <v>54</v>
@@ -17548,7 +17553,7 @@
         <v>68</v>
       </c>
       <c r="H165" s="78" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I165" s="75"/>
       <c r="J165" s="77" t="s">
@@ -17557,7 +17562,7 @@
     </row>
     <row r="166" spans="1:10" ht="63" customHeight="1">
       <c r="A166" s="17" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B166" s="14">
         <v>45066.729166666664</v>
@@ -17566,7 +17571,7 @@
         <v>368</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E166" s="16" t="s">
         <v>232</v>
@@ -17578,7 +17583,7 @@
         <v>68</v>
       </c>
       <c r="H166" s="28" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I166" s="17"/>
       <c r="J166" s="16" t="s">
@@ -17587,16 +17592,16 @@
     </row>
     <row r="167" spans="1:10" ht="63" customHeight="1">
       <c r="A167" s="61" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B167" s="62">
         <v>45066.791666666664</v>
       </c>
       <c r="C167" s="61" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D167" s="61" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E167" s="63" t="s">
         <v>113</v>
@@ -17608,7 +17613,7 @@
         <v>57</v>
       </c>
       <c r="H167" s="64" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I167" s="61"/>
       <c r="J167" s="63" t="s">
@@ -17617,16 +17622,16 @@
     </row>
     <row r="168" spans="1:10" ht="63" customHeight="1">
       <c r="A168" s="11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B168" s="8">
         <v>45066.791666666664</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E168" s="10" t="s">
         <v>117</v>
@@ -17638,7 +17643,7 @@
         <v>68</v>
       </c>
       <c r="H168" s="33" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I168" s="11"/>
       <c r="J168" s="10" t="s">
@@ -17647,16 +17652,16 @@
     </row>
     <row r="169" spans="1:10" ht="63" customHeight="1">
       <c r="A169" s="75" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B169" s="76">
         <v>45066.854166666664</v>
       </c>
       <c r="C169" s="75" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D169" s="75" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E169" s="77" t="s">
         <v>176</v>
@@ -17668,7 +17673,7 @@
         <v>57</v>
       </c>
       <c r="H169" s="78" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I169" s="75"/>
       <c r="J169" s="77" t="s">
@@ -17677,16 +17682,16 @@
     </row>
     <row r="170" spans="1:10" ht="63" customHeight="1">
       <c r="A170" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B170" s="14">
         <v>45066.791666666664</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E170" s="16" t="s">
         <v>232</v>
@@ -17698,7 +17703,7 @@
         <v>57</v>
       </c>
       <c r="H170" s="28" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I170" s="17"/>
       <c r="J170" s="16" t="s">
@@ -17707,16 +17712,16 @@
     </row>
     <row r="171" spans="1:10" ht="63" customHeight="1">
       <c r="A171" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B171" s="8">
         <v>45066.833333333336</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E171" s="10" t="s">
         <v>98</v>
@@ -17728,7 +17733,7 @@
         <v>68</v>
       </c>
       <c r="H171" s="33" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I171" s="11"/>
       <c r="J171" s="10" t="s">
@@ -17737,16 +17742,16 @@
     </row>
     <row r="172" spans="1:10" ht="63" customHeight="1">
       <c r="A172" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B172" s="8">
         <v>45066.833333333336</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E172" s="10" t="s">
         <v>232</v>
@@ -17758,7 +17763,7 @@
         <v>57</v>
       </c>
       <c r="H172" s="33" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I172" s="11"/>
       <c r="J172" s="10" t="s">
@@ -17767,16 +17772,16 @@
     </row>
     <row r="173" spans="1:10" ht="63" customHeight="1">
       <c r="A173" s="17" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B173" s="14">
         <v>45066.833333333336</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E173" s="16" t="s">
         <v>97</v>
@@ -17788,7 +17793,7 @@
         <v>57</v>
       </c>
       <c r="H173" s="28" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I173" s="17"/>
       <c r="J173" s="16" t="s">
@@ -17797,28 +17802,28 @@
     </row>
     <row r="174" spans="1:10" ht="63" customHeight="1">
       <c r="A174" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B174" s="8">
         <v>45066.958333333336</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E174" s="10" t="s">
         <v>113</v>
       </c>
       <c r="F174" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G174" s="10" t="s">
         <v>68</v>
       </c>
       <c r="H174" s="33" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I174" s="11"/>
       <c r="J174" s="10" t="s">
@@ -17827,16 +17832,16 @@
     </row>
     <row r="175" spans="1:10" ht="63" customHeight="1">
       <c r="A175" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B175" s="8">
         <v>45066.9375</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E175" s="10" t="s">
         <v>176</v>
@@ -17848,7 +17853,7 @@
         <v>57</v>
       </c>
       <c r="H175" s="33" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I175" s="11"/>
       <c r="J175" s="10" t="s">
@@ -17857,16 +17862,16 @@
     </row>
     <row r="176" spans="1:10" ht="63" customHeight="1">
       <c r="A176" s="11" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B176" s="8">
         <v>45066.927083333336</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E176" s="10" t="s">
         <v>93</v>
@@ -17878,7 +17883,7 @@
         <v>57</v>
       </c>
       <c r="H176" s="33" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I176" s="11"/>
       <c r="J176" s="10" t="s">
@@ -17887,16 +17892,16 @@
     </row>
     <row r="177" spans="1:10" ht="63" customHeight="1">
       <c r="A177" s="11" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B177" s="8">
         <v>45066.927083333336</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E177" s="10" t="s">
         <v>176</v>
@@ -17908,7 +17913,7 @@
         <v>57</v>
       </c>
       <c r="H177" s="33" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I177" s="11"/>
       <c r="J177" s="10" t="s">
@@ -17917,16 +17922,16 @@
     </row>
     <row r="178" spans="1:10" ht="63" customHeight="1">
       <c r="A178" s="17" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B178" s="14">
         <v>45066.979166666664</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E178" s="16" t="s">
         <v>228</v>
@@ -17938,7 +17943,7 @@
         <v>57</v>
       </c>
       <c r="H178" s="28" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I178" s="17"/>
       <c r="J178" s="16" t="s">
@@ -17947,7 +17952,7 @@
     </row>
     <row r="179" spans="1:10" ht="63" customHeight="1">
       <c r="A179" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B179" s="8">
         <v>45067</v>
@@ -17956,7 +17961,7 @@
         <v>345</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E179" s="10">
         <v>0.75</v>
@@ -17968,7 +17973,7 @@
         <v>68</v>
       </c>
       <c r="H179" s="33" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I179" s="11"/>
       <c r="J179" s="10" t="s">
@@ -17977,16 +17982,16 @@
     </row>
     <row r="180" spans="1:10" ht="63" customHeight="1">
       <c r="A180" s="17" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B180" s="14">
         <v>45067.958333333336</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E180" s="16" t="s">
         <v>228</v>
@@ -17998,7 +18003,7 @@
         <v>57</v>
       </c>
       <c r="H180" s="28" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I180" s="17"/>
       <c r="J180" s="16" t="s">
@@ -18007,16 +18012,16 @@
     </row>
     <row r="181" spans="1:10" ht="63" customHeight="1">
       <c r="A181" s="75" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B181" s="76">
         <v>45067.541666666664</v>
       </c>
       <c r="C181" s="75" t="s">
+        <v>869</v>
+      </c>
+      <c r="D181" s="75" t="s">
         <v>870</v>
-      </c>
-      <c r="D181" s="75" t="s">
-        <v>871</v>
       </c>
       <c r="E181" s="77" t="s">
         <v>228</v>
@@ -18028,7 +18033,7 @@
         <v>68</v>
       </c>
       <c r="H181" s="78" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I181" s="75"/>
       <c r="J181" s="77" t="s">
@@ -18037,16 +18042,16 @@
     </row>
     <row r="182" spans="1:10" ht="63" customHeight="1">
       <c r="A182" s="75" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B182" s="76">
         <v>45067.541666666664</v>
       </c>
       <c r="C182" s="75" t="s">
+        <v>872</v>
+      </c>
+      <c r="D182" s="75" t="s">
         <v>873</v>
-      </c>
-      <c r="D182" s="75" t="s">
-        <v>874</v>
       </c>
       <c r="E182" s="77" t="s">
         <v>261</v>
@@ -18058,7 +18063,7 @@
         <v>57</v>
       </c>
       <c r="H182" s="78" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I182" s="75"/>
       <c r="J182" s="77" t="s">
@@ -18067,16 +18072,16 @@
     </row>
     <row r="183" spans="1:10" ht="63" customHeight="1">
       <c r="A183" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B183" s="8">
         <v>45067.75</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E183" s="10" t="s">
         <v>228</v>
@@ -18088,7 +18093,7 @@
         <v>68</v>
       </c>
       <c r="H183" s="33" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I183" s="11"/>
       <c r="J183" s="10" t="s">
@@ -18097,16 +18102,16 @@
     </row>
     <row r="184" spans="1:10" ht="63" customHeight="1">
       <c r="A184" s="75" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B184" s="76">
         <v>45067.791666666664</v>
       </c>
       <c r="C184" s="75" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D184" s="75" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E184" s="77" t="s">
         <v>218</v>
@@ -18118,7 +18123,7 @@
         <v>68</v>
       </c>
       <c r="H184" s="78" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I184" s="75"/>
       <c r="J184" s="77" t="s">
@@ -18127,16 +18132,16 @@
     </row>
     <row r="185" spans="1:10" ht="63" customHeight="1">
       <c r="A185" s="17" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B185" s="14">
         <v>45067.791666666664</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E185" s="16" t="s">
         <v>232</v>
@@ -18148,7 +18153,7 @@
         <v>57</v>
       </c>
       <c r="H185" s="28" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="I185" s="17"/>
       <c r="J185" s="16" t="s">
@@ -18157,16 +18162,16 @@
     </row>
     <row r="186" spans="1:10" ht="63" customHeight="1">
       <c r="A186" s="17" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B186" s="14">
         <v>45067.791666666664</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E186" s="16" t="s">
         <v>96</v>
@@ -18178,7 +18183,7 @@
         <v>57</v>
       </c>
       <c r="H186" s="28" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I186" s="17"/>
       <c r="J186" s="16" t="s">
@@ -18187,16 +18192,16 @@
     </row>
     <row r="187" spans="1:10" ht="63" customHeight="1">
       <c r="A187" s="17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B187" s="14">
         <v>45067.8125</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E187" s="16" t="s">
         <v>228</v>
@@ -18208,7 +18213,7 @@
         <v>68</v>
       </c>
       <c r="H187" s="28" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I187" s="17"/>
       <c r="J187" s="16" t="s">
@@ -18217,16 +18222,16 @@
     </row>
     <row r="188" spans="1:10" ht="63" customHeight="1">
       <c r="A188" s="17" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B188" s="14">
         <v>45067.833333333336</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E188" s="16" t="s">
         <v>232</v>
@@ -18238,7 +18243,7 @@
         <v>57</v>
       </c>
       <c r="H188" s="28" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I188" s="17"/>
       <c r="J188" s="16" t="s">
@@ -18247,28 +18252,28 @@
     </row>
     <row r="189" spans="1:10" ht="63" customHeight="1">
       <c r="A189" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B189" s="8">
         <v>45067.84375</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E189" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G189" s="10" t="s">
         <v>68</v>
       </c>
       <c r="H189" s="33" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I189" s="11"/>
       <c r="J189" s="10" t="s">
@@ -18277,19 +18282,19 @@
     </row>
     <row r="190" spans="1:10" ht="63" customHeight="1">
       <c r="A190" s="17" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B190" s="14">
         <v>45067.854166666664</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F190" s="16" t="s">
         <v>45</v>
@@ -18298,7 +18303,7 @@
         <v>68</v>
       </c>
       <c r="H190" s="28" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="I190" s="17"/>
       <c r="J190" s="16" t="s">
@@ -18307,16 +18312,16 @@
     </row>
     <row r="191" spans="1:10" ht="63" customHeight="1">
       <c r="A191" s="17" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B191" s="14">
         <v>45067.854166666664</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E191" s="16" t="s">
         <v>117</v>
@@ -18328,7 +18333,7 @@
         <v>68</v>
       </c>
       <c r="H191" s="28" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="I191" s="17"/>
       <c r="J191" s="16" t="s">
@@ -18337,16 +18342,16 @@
     </row>
     <row r="192" spans="1:10" ht="63" customHeight="1">
       <c r="A192" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B192" s="8">
         <v>45067.854166666664</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D192" s="11" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E192" s="10" t="s">
         <v>176</v>
@@ -18358,7 +18363,7 @@
         <v>57</v>
       </c>
       <c r="H192" s="33" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I192" s="11"/>
       <c r="J192" s="10" t="s">
@@ -18367,16 +18372,16 @@
     </row>
     <row r="193" spans="1:10" ht="63" customHeight="1">
       <c r="A193" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B193" s="8">
         <v>45067.854166666664</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E193" s="10" t="s">
         <v>96</v>
@@ -18388,7 +18393,7 @@
         <v>68</v>
       </c>
       <c r="H193" s="33" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="I193" s="11"/>
       <c r="J193" s="10" t="s">
@@ -18397,28 +18402,28 @@
     </row>
     <row r="194" spans="1:10" ht="63" customHeight="1">
       <c r="A194" s="17" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B194" s="14">
         <v>45067.854166666664</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E194" s="16" t="s">
         <v>280</v>
       </c>
       <c r="F194" s="16" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G194" s="16" t="s">
         <v>68</v>
       </c>
       <c r="H194" s="28" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I194" s="17"/>
       <c r="J194" s="16" t="s">
@@ -18427,28 +18432,28 @@
     </row>
     <row r="195" spans="1:10" ht="63" customHeight="1">
       <c r="A195" s="17" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B195" s="14">
         <v>45067.854166666664</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E195" s="16" t="s">
         <v>280</v>
       </c>
       <c r="F195" s="16" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G195" s="16" t="s">
         <v>68</v>
       </c>
       <c r="H195" s="28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I195" s="17"/>
       <c r="J195" s="16" t="s">
@@ -18457,16 +18462,16 @@
     </row>
     <row r="196" spans="1:10" ht="63" customHeight="1">
       <c r="A196" s="17" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B196" s="14">
         <v>45067.875</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E196" s="16" t="s">
         <v>117</v>
@@ -18478,7 +18483,7 @@
         <v>57</v>
       </c>
       <c r="H196" s="28" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I196" s="17"/>
       <c r="J196" s="16" t="s">
@@ -18487,13 +18492,13 @@
     </row>
     <row r="197" spans="1:10" ht="63" customHeight="1">
       <c r="A197" s="75" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B197" s="76">
         <v>45067.875</v>
       </c>
       <c r="C197" s="75" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D197" s="75" t="s">
         <v>236</v>
@@ -18508,7 +18513,7 @@
         <v>68</v>
       </c>
       <c r="H197" s="78" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I197" s="75"/>
       <c r="J197" s="77" t="s">
@@ -18517,16 +18522,16 @@
     </row>
     <row r="198" spans="1:10" ht="63" customHeight="1">
       <c r="A198" s="17" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B198" s="14">
         <v>45067.875</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E198" s="16" t="s">
         <v>113</v>
@@ -18538,7 +18543,7 @@
         <v>57</v>
       </c>
       <c r="H198" s="28" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="I198" s="17"/>
       <c r="J198" s="16" t="s">
@@ -18547,16 +18552,16 @@
     </row>
     <row r="199" spans="1:10" ht="63" customHeight="1">
       <c r="A199" s="75" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B199" s="76">
         <v>45067.947916666664</v>
       </c>
       <c r="C199" s="75" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D199" s="75" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E199" s="77" t="s">
         <v>176</v>
@@ -18568,7 +18573,7 @@
         <v>57</v>
       </c>
       <c r="H199" s="78" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I199" s="75"/>
       <c r="J199" s="77" t="s">
@@ -18577,16 +18582,16 @@
     </row>
     <row r="200" spans="1:10" ht="63" customHeight="1">
       <c r="A200" s="17" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B200" s="14">
         <v>45067.958333333336</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E200" s="16" t="s">
         <v>113</v>
@@ -18598,7 +18603,7 @@
         <v>68</v>
       </c>
       <c r="H200" s="28" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I200" s="17"/>
       <c r="J200" s="16" t="s">
@@ -18607,16 +18612,16 @@
     </row>
     <row r="201" spans="1:10" ht="63" customHeight="1">
       <c r="A201" s="17" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B201" s="14">
         <v>45067.958333333336</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E201" s="16" t="s">
         <v>261</v>
@@ -18628,7 +18633,7 @@
         <v>57</v>
       </c>
       <c r="H201" s="28" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I201" s="17"/>
       <c r="J201" s="16" t="s">
@@ -18637,16 +18642,16 @@
     </row>
     <row r="202" spans="1:10" ht="63" customHeight="1">
       <c r="A202" s="83" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B202" s="84">
         <v>45067.958333333336</v>
       </c>
       <c r="C202" s="83" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D202" s="83" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E202" s="85" t="s">
         <v>113</v>
@@ -18658,7 +18663,7 @@
         <v>57</v>
       </c>
       <c r="H202" s="86" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I202" s="83"/>
       <c r="J202" s="85" t="s">
@@ -18667,13 +18672,13 @@
     </row>
     <row r="203" spans="1:10" ht="63" customHeight="1">
       <c r="A203" s="75" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B203" s="76">
         <v>45067.958333333336</v>
       </c>
       <c r="C203" s="75" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D203" s="75" t="s">
         <v>264</v>
@@ -18688,7 +18693,7 @@
         <v>57</v>
       </c>
       <c r="H203" s="78" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I203" s="75"/>
       <c r="J203" s="77" t="s">
@@ -18697,16 +18702,16 @@
     </row>
     <row r="204" spans="1:10" ht="63" customHeight="1">
       <c r="A204" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B204" s="8">
         <v>45067.958333333336</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E204" s="10" t="s">
         <v>117</v>
@@ -18718,7 +18723,7 @@
         <v>57</v>
       </c>
       <c r="H204" s="33" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I204" s="11"/>
       <c r="J204" s="10" t="s">
@@ -18727,16 +18732,16 @@
     </row>
     <row r="205" spans="1:10" ht="63" customHeight="1">
       <c r="A205" s="11" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B205" s="8">
         <v>45068.9375</v>
       </c>
       <c r="C205" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="D205" s="11" t="s">
         <v>958</v>
-      </c>
-      <c r="D205" s="11" t="s">
-        <v>959</v>
       </c>
       <c r="E205" s="10" t="s">
         <v>117</v>
@@ -18748,7 +18753,7 @@
         <v>57</v>
       </c>
       <c r="H205" s="33" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I205" s="11"/>
       <c r="J205" s="10" t="s">
@@ -18757,16 +18762,16 @@
     </row>
     <row r="206" spans="1:10" ht="63" customHeight="1">
       <c r="A206" s="17" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B206" s="14">
         <v>45078.041666666664</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E206" s="16" t="s">
         <v>117</v>
@@ -18778,7 +18783,7 @@
         <v>467</v>
       </c>
       <c r="H206" s="28" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I206" s="17"/>
       <c r="J206" s="16" t="s">
@@ -22605,7 +22610,7 @@
         <v>223</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H10" s="26"/>
     </row>
@@ -22659,16 +22664,16 @@
     </row>
     <row r="13" spans="1:8" ht="52" customHeight="1">
       <c r="A13" s="73" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B13" s="49">
         <v>45060.875</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E13" s="46" t="s">
         <v>105</v>
@@ -22683,16 +22688,16 @@
     </row>
     <row r="14" spans="1:8" ht="52" customHeight="1">
       <c r="A14" s="43" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B14" s="49">
         <v>45060.958333333336</v>
       </c>
       <c r="C14" s="59" t="s">
+        <v>545</v>
+      </c>
+      <c r="D14" s="45" t="s">
         <v>546</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>547</v>
       </c>
       <c r="E14" s="46" t="s">
         <v>9</v>
@@ -22707,16 +22712,16 @@
     </row>
     <row r="15" spans="1:8" ht="52" customHeight="1">
       <c r="A15" s="43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B15" s="49">
         <v>45060.958333333336</v>
       </c>
       <c r="C15" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="D15" s="45" t="s">
         <v>549</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>550</v>
       </c>
       <c r="E15" s="46" t="s">
         <v>190</v>
@@ -22725,19 +22730,19 @@
         <v>223</v>
       </c>
       <c r="G15" s="48" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8" ht="52" customHeight="1">
       <c r="A16" s="43" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B16" s="49">
         <v>45063.958333333336</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>195</v>
@@ -22749,22 +22754,22 @@
         <v>223</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:8" ht="52" customHeight="1">
       <c r="A17" s="43" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B17" s="49">
         <v>45064.645833333336</v>
       </c>
       <c r="C17" s="59" t="s">
+        <v>721</v>
+      </c>
+      <c r="D17" s="45" t="s">
         <v>722</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>723</v>
       </c>
       <c r="E17" s="46" t="s">
         <v>13</v>
@@ -22773,46 +22778,46 @@
         <v>223</v>
       </c>
       <c r="G17" s="48" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" ht="52" customHeight="1">
       <c r="A18" s="43" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B18" s="49">
         <v>45065.75</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E18" s="46" t="s">
         <v>55</v>
       </c>
       <c r="F18" s="82" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8" ht="52" customHeight="1">
       <c r="A19" s="43" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B19" s="49">
         <v>45065.999305555553</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D19" s="59" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E19" s="46" t="s">
         <v>55</v>
@@ -22821,22 +22826,22 @@
         <v>224</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:8" ht="52" customHeight="1">
       <c r="A20" s="43" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B20" s="49">
         <v>45066.541666666664</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E20" s="46" t="s">
         <v>55</v>
@@ -22851,16 +22856,16 @@
     </row>
     <row r="21" spans="1:8" ht="52" customHeight="1">
       <c r="A21" s="43" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B21" s="49">
         <v>45066.625</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D21" s="59" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E21" s="46" t="s">
         <v>15</v>
@@ -22869,46 +22874,46 @@
         <v>224</v>
       </c>
       <c r="G21" s="48" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H21" s="26"/>
     </row>
     <row r="22" spans="1:8" ht="52" customHeight="1">
       <c r="A22" s="43" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B22" s="49">
         <v>45072</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D22" s="59" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E22" s="46" t="s">
         <v>109</v>
       </c>
       <c r="F22" s="82" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:8" ht="52" customHeight="1">
       <c r="A23" s="43" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B23" s="49">
         <v>45073.875</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E23" s="46" t="s">
         <v>9</v>
@@ -22917,22 +22922,22 @@
         <v>224</v>
       </c>
       <c r="G23" s="48" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:8" ht="52" customHeight="1">
       <c r="A24" s="43" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B24" s="49">
         <v>45075.999305555553</v>
       </c>
       <c r="C24" s="87" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E24" s="46" t="s">
         <v>15</v>
@@ -22941,22 +22946,22 @@
         <v>223</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H24" s="26"/>
     </row>
     <row r="25" spans="1:8" ht="52" customHeight="1">
       <c r="A25" s="43" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B25" s="49">
         <v>45077.958333333336</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E25" s="46" t="s">
         <v>15</v>
@@ -22965,22 +22970,22 @@
         <v>223</v>
       </c>
       <c r="G25" s="48" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:8" ht="52" customHeight="1">
       <c r="A26" s="43" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B26" s="49">
         <v>45077.979166666664</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E26" s="46" t="s">
         <v>45</v>
@@ -22989,7 +22994,7 @@
         <v>223</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H26" s="26"/>
     </row>
@@ -23179,39 +23184,39 @@
   <sheetData>
     <row r="1" spans="1:8" ht="66" customHeight="1">
       <c r="A1" s="37" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B1" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>554</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="D1" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="38" t="s">
         <v>556</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="F1" s="38" t="s">
         <v>557</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>558</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="37" t="s">
         <v>559</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="66" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B2" s="14">
         <v>45059.958333333336</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D2" s="74" t="s">
         <v>197</v>
@@ -23223,10 +23228,10 @@
         <v>126</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="66" customHeight="1">
@@ -23237,10 +23242,10 @@
         <v>45061.041666666664</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>98</v>
@@ -23249,24 +23254,24 @@
         <v>13</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H3" s="79" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="66" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B4" s="14">
         <v>45061</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>113</v>
@@ -23275,24 +23280,24 @@
         <v>13</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H4" s="81" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="66" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B5" s="14">
         <v>45062.916666666664</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>98</v>
@@ -23301,24 +23306,24 @@
         <v>9</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H5" s="79" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="66" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B6" s="14">
         <v>45064.166666666664</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>117</v>
@@ -23327,24 +23332,24 @@
         <v>9</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H6" s="79" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="66" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B7" s="14">
         <v>45064.9375</v>
       </c>
       <c r="C7" s="74" t="s">
+        <v>705</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>706</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>707</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>113</v>
@@ -23353,15 +23358,15 @@
         <v>221</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H7" s="79" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="66" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B8" s="14">
         <v>45066.791666666664</v>
@@ -23370,7 +23375,7 @@
         <v>252</v>
       </c>
       <c r="D8" s="74" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>113</v>
@@ -23379,31 +23384,31 @@
         <v>90</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H8" s="81" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="66" customHeight="1">
       <c r="A9" s="17" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B9" s="14">
         <v>45080.114583333336</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>992</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>993</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>994</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>228</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="28" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H9" s="17"/>
     </row>
@@ -25137,7 +25142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D829EF5D-C573-564B-B09B-37782B5AE55B}">
   <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -25171,16 +25176,16 @@
     </row>
     <row r="2" spans="1:7" ht="43" customHeight="1">
       <c r="A2" s="43" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B2" s="49">
         <v>45079</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D2" s="88" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E2" s="89" t="s">
         <v>190</v>
@@ -25189,21 +25194,21 @@
         <v>68</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="43" customHeight="1">
       <c r="A3" s="90" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B3" s="91">
         <v>45079</v>
       </c>
       <c r="C3" s="92" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D3" s="92" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E3" s="93" t="s">
         <v>136</v>
@@ -25212,26 +25217,26 @@
         <v>57</v>
       </c>
       <c r="G3" s="94" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="43" customHeight="1">
       <c r="A4" s="43" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B4" s="49">
         <v>45080.114583333336</v>
       </c>
       <c r="C4" s="49" t="s">
+        <v>995</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>996</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>997</v>
       </c>
       <c r="E4" s="89"/>
       <c r="F4" s="89"/>
       <c r="G4" s="18" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="43" customHeight="1">
